--- a/docs/documentacao.xlsx
+++ b/docs/documentacao.xlsx
@@ -5,20 +5,23 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/micaelmbp/Documents/ENG-2022/TAAD/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/micaelmbp/Documents/ENG-2022/TAAD/GlobalTech_ETL/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F7FDF71-1BEE-A249-B021-743D95EEE1F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{832CAC64-A47C-BE49-A3F4-9149CBCDF043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2560" yWindow="1900" windowWidth="46080" windowHeight="25480" activeTab="1" xr2:uid="{1C0ABE59-C842-1448-8BFE-1E96A6C9A910}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="3" xr2:uid="{1C0ABE59-C842-1448-8BFE-1E96A6C9A910}"/>
   </bookViews>
   <sheets>
     <sheet name="Matriz de decisão" sheetId="1" r:id="rId1"/>
-    <sheet name="Caracterização da dimensão  (2)" sheetId="7" r:id="rId2"/>
-    <sheet name="Caracterização da dimensão X" sheetId="4" r:id="rId3"/>
-    <sheet name="Caracterização da TF X" sheetId="3" r:id="rId4"/>
-    <sheet name="Metadata" sheetId="5" r:id="rId5"/>
-    <sheet name="Change Log" sheetId="6" r:id="rId6"/>
+    <sheet name="DIM Warehouse" sheetId="7" r:id="rId2"/>
+    <sheet name="DIM Employee" sheetId="9" r:id="rId3"/>
+    <sheet name="DIM Customer" sheetId="4" r:id="rId4"/>
+    <sheet name="DIM Order" sheetId="8" r:id="rId5"/>
+    <sheet name="TF Order Payment" sheetId="11" r:id="rId6"/>
+    <sheet name="TF Order" sheetId="3" r:id="rId7"/>
+    <sheet name="Metadata" sheetId="5" r:id="rId8"/>
+    <sheet name="Change Log" sheetId="6" r:id="rId9"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="115">
   <si>
     <t>Caracterização do Data Mart</t>
   </si>
@@ -320,6 +323,69 @@
   </si>
   <si>
     <t>region</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>San Francisco</t>
+  </si>
+  <si>
+    <t>South San Francisco</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>United States of America</t>
+  </si>
+  <si>
+    <t>Americas</t>
+  </si>
+  <si>
+    <t>Employee</t>
+  </si>
+  <si>
+    <t>Funcionários da empresa</t>
+  </si>
+  <si>
+    <t>first_name</t>
+  </si>
+  <si>
+    <t>last_name</t>
+  </si>
+  <si>
+    <t>manager</t>
+  </si>
+  <si>
+    <t>hire_date</t>
+  </si>
+  <si>
+    <t>Quem é o seu superior</t>
+  </si>
+  <si>
+    <t>Tommy</t>
+  </si>
+  <si>
+    <t>Bailey</t>
+  </si>
+  <si>
+    <t>2016-06-17 00:00:00.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>city -&gt; state -&gt; country -&gt; region</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>customer</t>
+  </si>
+  <si>
+    <t>Clientes que realizam as encomendas</t>
   </si>
 </sst>
 </file>
@@ -984,16 +1050,67 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1014,55 +1131,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1074,40 +1173,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -7193,8 +7259,8 @@
   </sheetPr>
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7204,93 +7270,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="93"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="85"/>
     </row>
     <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="86" t="s">
         <v>88</v>
       </c>
       <c r="C2" s="60"/>
       <c r="D2" s="60"/>
       <c r="E2" s="60"/>
       <c r="F2" s="60"/>
-      <c r="G2" s="68"/>
+      <c r="G2" s="87"/>
     </row>
     <row r="3" spans="1:7" ht="46" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="72" t="s">
         <v>89</v>
       </c>
       <c r="C3" s="61"/>
       <c r="D3" s="61"/>
       <c r="E3" s="61"/>
       <c r="F3" s="61"/>
-      <c r="G3" s="70"/>
+      <c r="G3" s="73"/>
     </row>
     <row r="4" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="72" t="s">
         <v>52</v>
       </c>
       <c r="C4" s="61"/>
       <c r="D4" s="61"/>
       <c r="E4" s="61"/>
       <c r="F4" s="61"/>
-      <c r="G4" s="70"/>
+      <c r="G4" s="73"/>
     </row>
     <row r="5" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="69"/>
+      <c r="B5" s="72" t="s">
+        <v>88</v>
+      </c>
       <c r="C5" s="61"/>
       <c r="D5" s="61"/>
       <c r="E5" s="61"/>
       <c r="F5" s="61"/>
-      <c r="G5" s="70"/>
+      <c r="G5" s="73"/>
     </row>
     <row r="6" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="71"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="74" t="s">
+      <c r="B6" s="88"/>
+      <c r="C6" s="89"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="91" t="s">
         <v>58</v>
       </c>
-      <c r="F6" s="75"/>
-      <c r="G6" s="76"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="93"/>
     </row>
     <row r="7" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="35"/>
       <c r="G7" s="33"/>
     </row>
     <row r="8" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="88" t="s">
+      <c r="A8" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="89"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="90"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="82"/>
     </row>
     <row r="9" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
@@ -7320,61 +7388,95 @@
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>3</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="F14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
@@ -7510,9 +7612,15 @@
       <c r="G27" s="79"/>
     </row>
     <row r="28" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="66"/>
+      <c r="A28" s="1">
+        <v>1</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" s="66" t="s">
+        <v>111</v>
+      </c>
       <c r="D28" s="66"/>
       <c r="E28" s="66"/>
       <c r="F28" s="66"/>
@@ -7541,7 +7649,7 @@
       <c r="G31" s="33"/>
     </row>
     <row r="32" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="86" t="s">
+      <c r="A32" s="67" t="s">
         <v>22</v>
       </c>
       <c r="B32" s="63"/>
@@ -7549,28 +7657,28 @@
       <c r="D32" s="63"/>
       <c r="E32" s="63"/>
       <c r="F32" s="63"/>
-      <c r="G32" s="87"/>
+      <c r="G32" s="68"/>
     </row>
     <row r="33" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="80"/>
-      <c r="B33" s="81"/>
-      <c r="C33" s="81"/>
-      <c r="D33" s="81"/>
-      <c r="E33" s="81"/>
-      <c r="F33" s="81"/>
-      <c r="G33" s="82"/>
+      <c r="A33" s="69"/>
+      <c r="B33" s="70"/>
+      <c r="C33" s="70"/>
+      <c r="D33" s="70"/>
+      <c r="E33" s="70"/>
+      <c r="F33" s="70"/>
+      <c r="G33" s="71"/>
     </row>
     <row r="34" spans="1:7" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="80"/>
-      <c r="B34" s="81"/>
-      <c r="C34" s="81"/>
-      <c r="D34" s="81"/>
-      <c r="E34" s="81"/>
-      <c r="F34" s="81"/>
-      <c r="G34" s="82"/>
+      <c r="A34" s="69"/>
+      <c r="B34" s="70"/>
+      <c r="C34" s="70"/>
+      <c r="D34" s="70"/>
+      <c r="E34" s="70"/>
+      <c r="F34" s="70"/>
+      <c r="G34" s="71"/>
     </row>
     <row r="35" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="86" t="s">
+      <c r="A35" s="67" t="s">
         <v>10</v>
       </c>
       <c r="B35" s="63"/>
@@ -7578,38 +7686,35 @@
       <c r="D35" s="63"/>
       <c r="E35" s="63"/>
       <c r="F35" s="63"/>
-      <c r="G35" s="87"/>
+      <c r="G35" s="68"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="69"/>
+      <c r="A36" s="72"/>
       <c r="B36" s="61"/>
       <c r="C36" s="61"/>
       <c r="D36" s="61"/>
       <c r="E36" s="61"/>
       <c r="F36" s="61"/>
-      <c r="G36" s="70"/>
+      <c r="G36" s="73"/>
     </row>
     <row r="37" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="83"/>
-      <c r="B37" s="84"/>
-      <c r="C37" s="84"/>
-      <c r="D37" s="84"/>
-      <c r="E37" s="84"/>
-      <c r="F37" s="84"/>
-      <c r="G37" s="85"/>
+      <c r="A37" s="74"/>
+      <c r="B37" s="75"/>
+      <c r="C37" s="75"/>
+      <c r="D37" s="75"/>
+      <c r="E37" s="75"/>
+      <c r="F37" s="75"/>
+      <c r="G37" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="A33:G34"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="A36:G37"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="A26:G26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
     <mergeCell ref="C29:G29"/>
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="A18:G18"/>
@@ -7617,13 +7722,16 @@
     <mergeCell ref="D20:G20"/>
     <mergeCell ref="D21:G21"/>
     <mergeCell ref="D22:G22"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="A33:G34"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="A36:G37"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Exemplo:_x000a_id -&gt; nome -&gt; categoria -&gt; ALL" sqref="C28:C31" xr:uid="{386320E1-7050-C749-9143-6F7D856CB823}"/>
@@ -7666,7 +7774,7 @@
           <x14:formula1>
             <xm:f>Metadata!$A$15:$A$17</xm:f>
           </x14:formula1>
-          <xm:sqref>B4 F10</xm:sqref>
+          <xm:sqref>B4 F10:F14</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -7675,14 +7783,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08161B19-BCEA-2046-88B5-D5F1C39CCC68}">
-  <sheetPr codeName="Sheet3">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{689679D6-004F-8547-939A-39369E55E211}">
+  <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28:G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7692,85 +7800,607 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="93"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="85"/>
     </row>
     <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="67"/>
+      <c r="B2" s="86" t="s">
+        <v>100</v>
+      </c>
       <c r="C2" s="60"/>
       <c r="D2" s="60"/>
       <c r="E2" s="60"/>
       <c r="F2" s="60"/>
-      <c r="G2" s="68"/>
+      <c r="G2" s="87"/>
     </row>
     <row r="3" spans="1:7" ht="46" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="69"/>
+      <c r="B3" s="72" t="s">
+        <v>101</v>
+      </c>
       <c r="C3" s="61"/>
       <c r="D3" s="61"/>
       <c r="E3" s="61"/>
       <c r="F3" s="61"/>
-      <c r="G3" s="70"/>
+      <c r="G3" s="73"/>
     </row>
     <row r="4" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="69"/>
+      <c r="B4" s="72" t="s">
+        <v>54</v>
+      </c>
       <c r="C4" s="61"/>
       <c r="D4" s="61"/>
       <c r="E4" s="61"/>
       <c r="F4" s="61"/>
-      <c r="G4" s="70"/>
+      <c r="G4" s="73"/>
     </row>
     <row r="5" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="69"/>
+      <c r="B5" s="72" t="s">
+        <v>100</v>
+      </c>
       <c r="C5" s="61"/>
       <c r="D5" s="61"/>
       <c r="E5" s="61"/>
       <c r="F5" s="61"/>
-      <c r="G5" s="70"/>
+      <c r="G5" s="73"/>
     </row>
     <row r="6" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="71"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="76"/>
+      <c r="B6" s="88"/>
+      <c r="C6" s="89"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="91" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="92"/>
+      <c r="G6" s="93"/>
     </row>
     <row r="7" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="35"/>
       <c r="G7" s="33"/>
     </row>
     <row r="8" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="88" t="s">
+      <c r="A8" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="89"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="90"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="82"/>
+    </row>
+    <row r="9" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>2</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A17" s="36"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="37"/>
+    </row>
+    <row r="18" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A18" s="78" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="55"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="56"/>
+    </row>
+    <row r="19" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A19" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="79" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="79"/>
+      <c r="F19" s="79"/>
+      <c r="G19" s="79"/>
+    </row>
+    <row r="20" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="77"/>
+    </row>
+    <row r="21" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="77"/>
+    </row>
+    <row r="22" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="77"/>
+      <c r="G22" s="77"/>
+    </row>
+    <row r="23" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="77"/>
+    </row>
+    <row r="24" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="77"/>
+    </row>
+    <row r="25" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A25" s="36"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="29"/>
+      <c r="G25" s="33"/>
+    </row>
+    <row r="26" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A26" s="78" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="55"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="56"/>
+    </row>
+    <row r="27" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A27" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="79" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="79"/>
+      <c r="E27" s="79"/>
+      <c r="F27" s="79"/>
+      <c r="G27" s="79"/>
+    </row>
+    <row r="28" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="66"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="66"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="66"/>
+    </row>
+    <row r="29" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="66"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="66"/>
+    </row>
+    <row r="30" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="66"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="66"/>
+    </row>
+    <row r="31" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="8"/>
+      <c r="G31" s="33"/>
+    </row>
+    <row r="32" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="63"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="68"/>
+    </row>
+    <row r="33" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="69"/>
+      <c r="B33" s="70"/>
+      <c r="C33" s="70"/>
+      <c r="D33" s="70"/>
+      <c r="E33" s="70"/>
+      <c r="F33" s="70"/>
+      <c r="G33" s="71"/>
+    </row>
+    <row r="34" spans="1:7" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="69"/>
+      <c r="B34" s="70"/>
+      <c r="C34" s="70"/>
+      <c r="D34" s="70"/>
+      <c r="E34" s="70"/>
+      <c r="F34" s="70"/>
+      <c r="G34" s="71"/>
+    </row>
+    <row r="35" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="63"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="63"/>
+      <c r="G35" s="68"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="72"/>
+      <c r="B36" s="61"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="61"/>
+      <c r="G36" s="73"/>
+    </row>
+    <row r="37" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="74"/>
+      <c r="B37" s="75"/>
+      <c r="C37" s="75"/>
+      <c r="D37" s="75"/>
+      <c r="E37" s="75"/>
+      <c r="F37" s="75"/>
+      <c r="G37" s="76"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="A33:G34"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="A36:G37"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+  </mergeCells>
+  <dataValidations count="4">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Colocar percentagem" sqref="B6" xr:uid="{F51EFD33-359E-334A-A51E-A657A56E6972}">
+      <formula1>1</formula1>
+      <formula2>100</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Posição do atributo na tabela (posição ordinal)" sqref="A10:A17" xr:uid="{89530213-4BB8-BA43-9CD1-9672B684A608}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Identificação" sqref="A20" xr:uid="{6EBC917B-F748-9D47-AC30-86DD4039D676}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Exemplo:_x000a_id -&gt; nome -&gt; categoria -&gt; ALL" sqref="C28:C31" xr:uid="{DCD299E7-07EE-0E44-A747-001C4034EE3C}"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{55EC4112-973B-FC4C-A084-8465525BE94F}">
+          <x14:formula1>
+            <xm:f>Metadata!$A$15:$A$17</xm:f>
+          </x14:formula1>
+          <xm:sqref>B4 F10:F13</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2C02D4C8-5807-1B42-A575-AD6C9C5C405A}">
+          <x14:formula1>
+            <xm:f>Metadata!$A$27:$A$29</xm:f>
+          </x14:formula1>
+          <xm:sqref>D10:D17</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E6A9F69E-8530-554F-84ED-06A617D22C16}">
+          <x14:formula1>
+            <xm:f>Metadata!$A$33:$A$34</xm:f>
+          </x14:formula1>
+          <xm:sqref>C20</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B58DB043-F4BA-0B4A-8912-6E90381FA2F8}">
+          <x14:formula1>
+            <xm:f>Metadata!$A$37:$A$41</xm:f>
+          </x14:formula1>
+          <xm:sqref>D20:D25</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Etiqueta temporal_x000a_" xr:uid="{2FF847AC-2296-2A4D-99F0-730709725FC8}">
+          <x14:formula1>
+            <xm:f>Metadata!$A$21:$A$23</xm:f>
+          </x14:formula1>
+          <xm:sqref>E6:G6</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08161B19-BCEA-2046-88B5-D5F1C39CCC68}">
+  <sheetPr codeName="Sheet3">
+    <tabColor theme="5"/>
+  </sheetPr>
+  <dimension ref="A1:G37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="33.1640625" customWidth="1"/>
+    <col min="2" max="7" width="30.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="83" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="85"/>
+    </row>
+    <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="86" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="87"/>
+    </row>
+    <row r="3" spans="1:7" ht="46" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="72" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="73"/>
+    </row>
+    <row r="4" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A4" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="72"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="73"/>
+    </row>
+    <row r="5" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A5" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="72" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="73"/>
+    </row>
+    <row r="6" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A6" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="88"/>
+      <c r="C6" s="89"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="93"/>
+    </row>
+    <row r="7" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="35"/>
+      <c r="G7" s="33"/>
+    </row>
+    <row r="8" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="80" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="81"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="82"/>
     </row>
     <row r="9" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
@@ -8005,7 +8635,7 @@
       <c r="G31" s="33"/>
     </row>
     <row r="32" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="86" t="s">
+      <c r="A32" s="67" t="s">
         <v>22</v>
       </c>
       <c r="B32" s="63"/>
@@ -8013,28 +8643,28 @@
       <c r="D32" s="63"/>
       <c r="E32" s="63"/>
       <c r="F32" s="63"/>
-      <c r="G32" s="87"/>
+      <c r="G32" s="68"/>
     </row>
     <row r="33" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="80"/>
-      <c r="B33" s="81"/>
-      <c r="C33" s="81"/>
-      <c r="D33" s="81"/>
-      <c r="E33" s="81"/>
-      <c r="F33" s="81"/>
-      <c r="G33" s="82"/>
+      <c r="A33" s="69"/>
+      <c r="B33" s="70"/>
+      <c r="C33" s="70"/>
+      <c r="D33" s="70"/>
+      <c r="E33" s="70"/>
+      <c r="F33" s="70"/>
+      <c r="G33" s="71"/>
     </row>
     <row r="34" spans="1:7" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="80"/>
-      <c r="B34" s="81"/>
-      <c r="C34" s="81"/>
-      <c r="D34" s="81"/>
-      <c r="E34" s="81"/>
-      <c r="F34" s="81"/>
-      <c r="G34" s="82"/>
+      <c r="A34" s="69"/>
+      <c r="B34" s="70"/>
+      <c r="C34" s="70"/>
+      <c r="D34" s="70"/>
+      <c r="E34" s="70"/>
+      <c r="F34" s="70"/>
+      <c r="G34" s="71"/>
     </row>
     <row r="35" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="86" t="s">
+      <c r="A35" s="67" t="s">
         <v>10</v>
       </c>
       <c r="B35" s="63"/>
@@ -8042,28 +8672,36 @@
       <c r="D35" s="63"/>
       <c r="E35" s="63"/>
       <c r="F35" s="63"/>
-      <c r="G35" s="87"/>
+      <c r="G35" s="68"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="69"/>
+      <c r="A36" s="72"/>
       <c r="B36" s="61"/>
       <c r="C36" s="61"/>
       <c r="D36" s="61"/>
       <c r="E36" s="61"/>
       <c r="F36" s="61"/>
-      <c r="G36" s="70"/>
+      <c r="G36" s="73"/>
     </row>
     <row r="37" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="83"/>
-      <c r="B37" s="84"/>
-      <c r="C37" s="84"/>
-      <c r="D37" s="84"/>
-      <c r="E37" s="84"/>
-      <c r="F37" s="84"/>
-      <c r="G37" s="85"/>
+      <c r="A37" s="74"/>
+      <c r="B37" s="75"/>
+      <c r="C37" s="75"/>
+      <c r="D37" s="75"/>
+      <c r="E37" s="75"/>
+      <c r="F37" s="75"/>
+      <c r="G37" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D23:G23"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="D19:G19"/>
     <mergeCell ref="D20:G20"/>
@@ -8080,14 +8718,6 @@
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="A26:G26"/>
-    <mergeCell ref="C27:G27"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Colocar percentagem" sqref="B6" xr:uid="{C5DD908A-3688-A14E-B89F-E074FAFCDF99}">
@@ -8138,15 +8768,479 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45AE6A66-6571-D24D-A307-DF57ADB3F673}">
-  <sheetPr codeName="Sheet4">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{008ECA3F-6D43-6440-9C18-66C320EDE763}">
+  <sheetPr>
+    <tabColor theme="5"/>
+  </sheetPr>
+  <dimension ref="A1:G37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="33.1640625" customWidth="1"/>
+    <col min="2" max="7" width="30.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="83" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="85"/>
+    </row>
+    <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="86"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="87"/>
+    </row>
+    <row r="3" spans="1:7" ht="46" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="72"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="73"/>
+    </row>
+    <row r="4" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A4" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="72"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="73"/>
+    </row>
+    <row r="5" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A5" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="72"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="73"/>
+    </row>
+    <row r="6" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A6" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="88"/>
+      <c r="C6" s="89"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="93"/>
+    </row>
+    <row r="7" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="35"/>
+      <c r="G7" s="33"/>
+    </row>
+    <row r="8" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="80" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="81"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="82"/>
+    </row>
+    <row r="9" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A17" s="36"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="37"/>
+    </row>
+    <row r="18" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A18" s="78" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="55"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="56"/>
+    </row>
+    <row r="19" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A19" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="79" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="79"/>
+      <c r="F19" s="79"/>
+      <c r="G19" s="79"/>
+    </row>
+    <row r="20" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="77"/>
+    </row>
+    <row r="21" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="77"/>
+    </row>
+    <row r="22" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="77"/>
+      <c r="G22" s="77"/>
+    </row>
+    <row r="23" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="77"/>
+    </row>
+    <row r="24" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="77"/>
+    </row>
+    <row r="25" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A25" s="36"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="29"/>
+      <c r="G25" s="33"/>
+    </row>
+    <row r="26" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A26" s="78" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="55"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="56"/>
+    </row>
+    <row r="27" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A27" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="79" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="79"/>
+      <c r="E27" s="79"/>
+      <c r="F27" s="79"/>
+      <c r="G27" s="79"/>
+    </row>
+    <row r="28" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="66"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="66"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="66"/>
+    </row>
+    <row r="29" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="66"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="66"/>
+    </row>
+    <row r="30" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="66"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="66"/>
+    </row>
+    <row r="31" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="8"/>
+      <c r="G31" s="33"/>
+    </row>
+    <row r="32" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="63"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="68"/>
+    </row>
+    <row r="33" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="69"/>
+      <c r="B33" s="70"/>
+      <c r="C33" s="70"/>
+      <c r="D33" s="70"/>
+      <c r="E33" s="70"/>
+      <c r="F33" s="70"/>
+      <c r="G33" s="71"/>
+    </row>
+    <row r="34" spans="1:7" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="69"/>
+      <c r="B34" s="70"/>
+      <c r="C34" s="70"/>
+      <c r="D34" s="70"/>
+      <c r="E34" s="70"/>
+      <c r="F34" s="70"/>
+      <c r="G34" s="71"/>
+    </row>
+    <row r="35" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="63"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="63"/>
+      <c r="G35" s="68"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="72"/>
+      <c r="B36" s="61"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="61"/>
+      <c r="G36" s="73"/>
+    </row>
+    <row r="37" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="74"/>
+      <c r="B37" s="75"/>
+      <c r="C37" s="75"/>
+      <c r="D37" s="75"/>
+      <c r="E37" s="75"/>
+      <c r="F37" s="75"/>
+      <c r="G37" s="76"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="A33:G34"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="A36:G37"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+  </mergeCells>
+  <dataValidations count="4">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Exemplo:_x000a_id -&gt; nome -&gt; categoria -&gt; ALL" sqref="C28:C31" xr:uid="{6749BA4D-A4C0-664A-8057-C07B807E371B}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Identificação" sqref="A20" xr:uid="{931E409E-69F5-FE4E-AEB1-ADDD7B40042D}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Posição do atributo na tabela (posição ordinal)" sqref="A10:A17" xr:uid="{C40D2E8E-CF02-1E46-B718-7497F7BB1DE6}"/>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Colocar percentagem" sqref="B6" xr:uid="{C62A5CB1-E417-6D44-BE27-17DBBADE6A9F}">
+      <formula1>1</formula1>
+      <formula2>100</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Etiqueta temporal_x000a_" xr:uid="{D5194091-E172-7B4B-93F1-B350A039B133}">
+          <x14:formula1>
+            <xm:f>Metadata!$A$21:$A$23</xm:f>
+          </x14:formula1>
+          <xm:sqref>E6:G6</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4E10733A-5A8E-6743-BD42-25CA375F0172}">
+          <x14:formula1>
+            <xm:f>Metadata!$A$37:$A$41</xm:f>
+          </x14:formula1>
+          <xm:sqref>D20:D25</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D0857C76-E4C6-9648-B76B-1341A72605EF}">
+          <x14:formula1>
+            <xm:f>Metadata!$A$33:$A$34</xm:f>
+          </x14:formula1>
+          <xm:sqref>C20</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{96B37CFB-0B55-DA48-908F-7A932548E70A}">
+          <x14:formula1>
+            <xm:f>Metadata!$A$27:$A$29</xm:f>
+          </x14:formula1>
+          <xm:sqref>D10:D17</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{697E1F21-4492-A949-842D-03E00B0BFFFE}">
+          <x14:formula1>
+            <xm:f>Metadata!$A$15:$A$17</xm:f>
+          </x14:formula1>
+          <xm:sqref>B4 F10</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0538C7DA-5E49-754B-91B9-6A82D176845B}">
+  <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
   <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8155,132 +9249,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="83" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="93"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="85"/>
     </row>
     <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="99"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="97"/>
     </row>
     <row r="3" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="101"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="102"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="99"/>
     </row>
     <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="101"/>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="102"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="99"/>
     </row>
     <row r="5" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="101"/>
-      <c r="C5" s="101"/>
-      <c r="D5" s="101"/>
-      <c r="E5" s="101"/>
-      <c r="F5" s="102"/>
+      <c r="B5" s="98"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="99"/>
     </row>
     <row r="6" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="101"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="102"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="99"/>
     </row>
     <row r="7" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="102"/>
+      <c r="B7" s="98"/>
+      <c r="C7" s="98"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="99"/>
     </row>
     <row r="8" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="B8" s="101"/>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="102"/>
+      <c r="B8" s="98"/>
+      <c r="C8" s="98"/>
+      <c r="D8" s="98"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="99"/>
     </row>
     <row r="9" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="B9" s="101"/>
-      <c r="C9" s="101"/>
-      <c r="D9" s="101"/>
-      <c r="E9" s="101"/>
-      <c r="F9" s="102"/>
+      <c r="B9" s="98"/>
+      <c r="C9" s="98"/>
+      <c r="D9" s="98"/>
+      <c r="E9" s="98"/>
+      <c r="F9" s="99"/>
     </row>
     <row r="10" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="101"/>
-      <c r="C10" s="101"/>
-      <c r="D10" s="101"/>
-      <c r="E10" s="101"/>
-      <c r="F10" s="102"/>
+      <c r="B10" s="98"/>
+      <c r="C10" s="98"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="98"/>
+      <c r="F10" s="99"/>
     </row>
     <row r="11" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="104"/>
-      <c r="C11" s="104"/>
-      <c r="D11" s="104"/>
-      <c r="E11" s="104"/>
-      <c r="F11" s="105"/>
+      <c r="B11" s="94"/>
+      <c r="C11" s="94"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="95"/>
     </row>
     <row r="12" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="94"/>
-      <c r="B12" s="95"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="96"/>
+      <c r="A12" s="105"/>
+      <c r="B12" s="106"/>
+      <c r="C12" s="106"/>
+      <c r="D12" s="106"/>
+      <c r="E12" s="106"/>
+      <c r="F12" s="107"/>
     </row>
     <row r="13" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="88" t="s">
+      <c r="A13" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="89"/>
-      <c r="C13" s="89"/>
-      <c r="D13" s="89"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="90"/>
+      <c r="B13" s="81"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="82"/>
     </row>
     <row r="14" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
@@ -8359,22 +9453,22 @@
       <c r="F21" s="43"/>
     </row>
     <row r="22" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="94"/>
-      <c r="B22" s="95"/>
-      <c r="C22" s="95"/>
-      <c r="D22" s="95"/>
-      <c r="E22" s="95"/>
-      <c r="F22" s="96"/>
+      <c r="A22" s="105"/>
+      <c r="B22" s="106"/>
+      <c r="C22" s="106"/>
+      <c r="D22" s="106"/>
+      <c r="E22" s="106"/>
+      <c r="F22" s="107"/>
     </row>
     <row r="23" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="88" t="s">
+      <c r="A23" s="80" t="s">
         <v>78</v>
       </c>
-      <c r="B23" s="89"/>
-      <c r="C23" s="89"/>
-      <c r="D23" s="89"/>
-      <c r="E23" s="89"/>
-      <c r="F23" s="90"/>
+      <c r="B23" s="81"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="82"/>
     </row>
     <row r="24" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="39" t="s">
@@ -8429,22 +9523,22 @@
       <c r="F28" s="43"/>
     </row>
     <row r="29" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="94"/>
-      <c r="B29" s="95"/>
-      <c r="C29" s="95"/>
-      <c r="D29" s="95"/>
-      <c r="E29" s="95"/>
-      <c r="F29" s="96"/>
+      <c r="A29" s="105"/>
+      <c r="B29" s="106"/>
+      <c r="C29" s="106"/>
+      <c r="D29" s="106"/>
+      <c r="E29" s="106"/>
+      <c r="F29" s="107"/>
     </row>
     <row r="30" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="88" t="s">
+      <c r="A30" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="B30" s="89"/>
-      <c r="C30" s="89"/>
-      <c r="D30" s="89"/>
-      <c r="E30" s="89"/>
-      <c r="F30" s="90"/>
+      <c r="B30" s="81"/>
+      <c r="C30" s="81"/>
+      <c r="D30" s="81"/>
+      <c r="E30" s="81"/>
+      <c r="F30" s="82"/>
     </row>
     <row r="31" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A31" s="39" t="s">
@@ -8456,114 +9550,648 @@
       <c r="C31" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="D31" s="98" t="s">
+      <c r="D31" s="96" t="s">
         <v>66</v>
       </c>
-      <c r="E31" s="98"/>
-      <c r="F31" s="99"/>
+      <c r="E31" s="96"/>
+      <c r="F31" s="97"/>
     </row>
     <row r="32" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A32" s="39"/>
       <c r="B32" s="40"/>
       <c r="C32" s="40"/>
-      <c r="D32" s="101"/>
-      <c r="E32" s="101"/>
-      <c r="F32" s="102"/>
+      <c r="D32" s="98"/>
+      <c r="E32" s="98"/>
+      <c r="F32" s="99"/>
     </row>
     <row r="33" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A33" s="39"/>
       <c r="B33" s="40"/>
       <c r="C33" s="40"/>
-      <c r="D33" s="101"/>
-      <c r="E33" s="101"/>
-      <c r="F33" s="102"/>
+      <c r="D33" s="98"/>
+      <c r="E33" s="98"/>
+      <c r="F33" s="99"/>
     </row>
     <row r="34" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A34" s="39"/>
       <c r="B34" s="40"/>
       <c r="C34" s="40"/>
-      <c r="D34" s="101"/>
-      <c r="E34" s="101"/>
-      <c r="F34" s="102"/>
+      <c r="D34" s="98"/>
+      <c r="E34" s="98"/>
+      <c r="F34" s="99"/>
     </row>
     <row r="35" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A35" s="41"/>
       <c r="B35" s="42"/>
       <c r="C35" s="42"/>
-      <c r="D35" s="104"/>
-      <c r="E35" s="104"/>
-      <c r="F35" s="105"/>
+      <c r="D35" s="94"/>
+      <c r="E35" s="94"/>
+      <c r="F35" s="95"/>
     </row>
     <row r="36" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="106"/>
-      <c r="B36" s="107"/>
-      <c r="C36" s="107"/>
-      <c r="D36" s="107"/>
-      <c r="E36" s="107"/>
-      <c r="F36" s="108"/>
+      <c r="A36" s="102"/>
+      <c r="B36" s="103"/>
+      <c r="C36" s="103"/>
+      <c r="D36" s="103"/>
+      <c r="E36" s="103"/>
+      <c r="F36" s="104"/>
     </row>
     <row r="37" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="88" t="s">
+      <c r="A37" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="B37" s="89"/>
-      <c r="C37" s="89"/>
-      <c r="D37" s="89"/>
-      <c r="E37" s="89"/>
-      <c r="F37" s="90"/>
+      <c r="B37" s="81"/>
+      <c r="C37" s="81"/>
+      <c r="D37" s="81"/>
+      <c r="E37" s="81"/>
+      <c r="F37" s="82"/>
     </row>
     <row r="38" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="97"/>
-      <c r="B38" s="98"/>
-      <c r="C38" s="98"/>
-      <c r="D38" s="98"/>
-      <c r="E38" s="98"/>
-      <c r="F38" s="99"/>
+      <c r="A38" s="100"/>
+      <c r="B38" s="96"/>
+      <c r="C38" s="96"/>
+      <c r="D38" s="96"/>
+      <c r="E38" s="96"/>
+      <c r="F38" s="97"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="100"/>
-      <c r="B39" s="101"/>
-      <c r="C39" s="101"/>
-      <c r="D39" s="101"/>
-      <c r="E39" s="101"/>
-      <c r="F39" s="102"/>
+      <c r="A39" s="108"/>
+      <c r="B39" s="98"/>
+      <c r="C39" s="98"/>
+      <c r="D39" s="98"/>
+      <c r="E39" s="98"/>
+      <c r="F39" s="99"/>
     </row>
     <row r="40" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="94"/>
-      <c r="B40" s="95"/>
-      <c r="C40" s="95"/>
-      <c r="D40" s="95"/>
-      <c r="E40" s="95"/>
-      <c r="F40" s="96"/>
+      <c r="A40" s="105"/>
+      <c r="B40" s="106"/>
+      <c r="C40" s="106"/>
+      <c r="D40" s="106"/>
+      <c r="E40" s="106"/>
+      <c r="F40" s="107"/>
     </row>
     <row r="41" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="88" t="s">
+      <c r="A41" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="B41" s="89"/>
-      <c r="C41" s="89"/>
-      <c r="D41" s="89"/>
-      <c r="E41" s="89"/>
-      <c r="F41" s="90"/>
+      <c r="B41" s="81"/>
+      <c r="C41" s="81"/>
+      <c r="D41" s="81"/>
+      <c r="E41" s="81"/>
+      <c r="F41" s="82"/>
     </row>
     <row r="42" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="97"/>
-      <c r="B42" s="98"/>
-      <c r="C42" s="98"/>
-      <c r="D42" s="98"/>
-      <c r="E42" s="98"/>
-      <c r="F42" s="99"/>
+      <c r="A42" s="100"/>
+      <c r="B42" s="96"/>
+      <c r="C42" s="96"/>
+      <c r="D42" s="96"/>
+      <c r="E42" s="96"/>
+      <c r="F42" s="97"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="103"/>
-      <c r="B43" s="104"/>
-      <c r="C43" s="104"/>
-      <c r="D43" s="104"/>
-      <c r="E43" s="104"/>
-      <c r="F43" s="105"/>
+      <c r="A43" s="101"/>
+      <c r="B43" s="94"/>
+      <c r="C43" s="94"/>
+      <c r="D43" s="94"/>
+      <c r="E43" s="94"/>
+      <c r="F43" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="A38:F39"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A42:F43"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
+  </mergeCells>
+  <dataValidations count="5">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Exemplo:_x000a_&quot;Dados dos últimos 4 anos&quot;" sqref="B11:F11" xr:uid="{ABE851E0-8AAB-564B-9AA0-54BD36B0E9AB}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Exemplo:_x000a_&quot;Entre as 2 e as 5 da manhã&quot;" sqref="B8:F8" xr:uid="{09D39043-6DF2-AC4D-BC84-2F2B67EE89CD}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Exemplo:_x000a_&quot;Incentivar as vendas de telemóveis&quot;" sqref="B6:F6" xr:uid="{AE6422FE-C2E3-2940-B39D-4D219ECB59A7}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Nome do data mart ao qual a tabela de factos pertence" sqref="B4:F4" xr:uid="{6FCADBAD-5161-5549-A93E-131F4AD7AFDF}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Colocar percentagem_x000a_" sqref="B10:C10" xr:uid="{C64D4F59-7D3D-EB4D-90A8-BB9417FB3DF0}"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="8">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3C4ACE68-7253-DB45-83E7-ADE40C20A309}">
+          <x14:formula1>
+            <xm:f>Metadata!$A$37:$A$41</xm:f>
+          </x14:formula1>
+          <xm:sqref>D32:D35</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C44D012F-7F42-4949-9DB6-889632F7F430}">
+          <x14:formula1>
+            <xm:f>Metadata!$A$33:$A$34</xm:f>
+          </x14:formula1>
+          <xm:sqref>C32</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FDBB9100-9189-9B46-AFA6-70F5744B59B1}">
+          <x14:formula1>
+            <xm:f>Metadata!$A$54:$A$56</xm:f>
+          </x14:formula1>
+          <xm:sqref>D25:D28</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A6E746B8-928B-C04E-A63F-C483C8EE772E}">
+          <x14:formula1>
+            <xm:f>Metadata!$A$48:$A$50</xm:f>
+          </x14:formula1>
+          <xm:sqref>C25:C28</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F366491D-7FFD-9645-9B4C-C52BCD9C1C84}">
+          <x14:formula1>
+            <xm:f>Metadata!$A$7:$A$11</xm:f>
+          </x14:formula1>
+          <xm:sqref>B7:F7</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{80DCE53B-DE9B-F14C-B38F-B0E62DBA7E9F}">
+          <x14:formula1>
+            <xm:f>Metadata!$A$2:$A$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>B5:F5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B493EE89-A164-D94C-8D13-983AB7C87FB9}">
+          <x14:formula1>
+            <xm:f>Metadata!$A$43:$A$44</xm:f>
+          </x14:formula1>
+          <xm:sqref>C15:C21</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0416D6B4-1A88-D14C-AF33-860A0B4C2ADE}">
+          <x14:formula1>
+            <xm:f>Metadata!$A$21:$A$23</xm:f>
+          </x14:formula1>
+          <xm:sqref>D10:F10</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45AE6A66-6571-D24D-A307-DF57ADB3F673}">
+  <sheetPr codeName="Sheet4">
+    <tabColor theme="9"/>
+  </sheetPr>
+  <dimension ref="A1:F43"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="6" width="30.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="83" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="85"/>
+    </row>
+    <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="97"/>
+    </row>
+    <row r="3" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="99"/>
+    </row>
+    <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A4" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="98"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="99"/>
+    </row>
+    <row r="5" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A5" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="98"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="99"/>
+    </row>
+    <row r="6" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A6" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="98"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="99"/>
+    </row>
+    <row r="7" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A7" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="98"/>
+      <c r="C7" s="98"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="99"/>
+    </row>
+    <row r="8" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A8" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="98"/>
+      <c r="C8" s="98"/>
+      <c r="D8" s="98"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="99"/>
+    </row>
+    <row r="9" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A9" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="98"/>
+      <c r="C9" s="98"/>
+      <c r="D9" s="98"/>
+      <c r="E9" s="98"/>
+      <c r="F9" s="99"/>
+    </row>
+    <row r="10" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A10" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="98"/>
+      <c r="C10" s="98"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="98"/>
+      <c r="F10" s="99"/>
+    </row>
+    <row r="11" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A11" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="94"/>
+      <c r="C11" s="94"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="95"/>
+    </row>
+    <row r="12" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="105"/>
+      <c r="B12" s="106"/>
+      <c r="C12" s="106"/>
+      <c r="D12" s="106"/>
+      <c r="E12" s="106"/>
+      <c r="F12" s="107"/>
+    </row>
+    <row r="13" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="80" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="81"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="82"/>
+    </row>
+    <row r="14" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A14" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A15" s="39"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="31"/>
+    </row>
+    <row r="16" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A16" s="39"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="31"/>
+    </row>
+    <row r="17" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A17" s="39"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="31"/>
+    </row>
+    <row r="18" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A18" s="39"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="31"/>
+    </row>
+    <row r="19" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A19" s="39"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="31"/>
+    </row>
+    <row r="20" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A20" s="39"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="31"/>
+    </row>
+    <row r="21" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A21" s="41"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="43"/>
+    </row>
+    <row r="22" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="105"/>
+      <c r="B22" s="106"/>
+      <c r="C22" s="106"/>
+      <c r="D22" s="106"/>
+      <c r="E22" s="106"/>
+      <c r="F22" s="107"/>
+    </row>
+    <row r="23" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="80" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" s="81"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="82"/>
+    </row>
+    <row r="24" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A24" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A25" s="39"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="31"/>
+    </row>
+    <row r="26" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A26" s="39"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="31"/>
+    </row>
+    <row r="27" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A27" s="39"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="31"/>
+    </row>
+    <row r="28" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A28" s="41"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="43"/>
+    </row>
+    <row r="29" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="105"/>
+      <c r="B29" s="106"/>
+      <c r="C29" s="106"/>
+      <c r="D29" s="106"/>
+      <c r="E29" s="106"/>
+      <c r="F29" s="107"/>
+    </row>
+    <row r="30" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="81"/>
+      <c r="C30" s="81"/>
+      <c r="D30" s="81"/>
+      <c r="E30" s="81"/>
+      <c r="F30" s="82"/>
+    </row>
+    <row r="31" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A31" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="96" t="s">
+        <v>66</v>
+      </c>
+      <c r="E31" s="96"/>
+      <c r="F31" s="97"/>
+    </row>
+    <row r="32" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A32" s="39"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="98"/>
+      <c r="E32" s="98"/>
+      <c r="F32" s="99"/>
+    </row>
+    <row r="33" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A33" s="39"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="98"/>
+      <c r="E33" s="98"/>
+      <c r="F33" s="99"/>
+    </row>
+    <row r="34" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A34" s="39"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="98"/>
+      <c r="E34" s="98"/>
+      <c r="F34" s="99"/>
+    </row>
+    <row r="35" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A35" s="41"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="94"/>
+      <c r="E35" s="94"/>
+      <c r="F35" s="95"/>
+    </row>
+    <row r="36" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="102"/>
+      <c r="B36" s="103"/>
+      <c r="C36" s="103"/>
+      <c r="D36" s="103"/>
+      <c r="E36" s="103"/>
+      <c r="F36" s="104"/>
+    </row>
+    <row r="37" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="80" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37" s="81"/>
+      <c r="C37" s="81"/>
+      <c r="D37" s="81"/>
+      <c r="E37" s="81"/>
+      <c r="F37" s="82"/>
+    </row>
+    <row r="38" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="100"/>
+      <c r="B38" s="96"/>
+      <c r="C38" s="96"/>
+      <c r="D38" s="96"/>
+      <c r="E38" s="96"/>
+      <c r="F38" s="97"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="108"/>
+      <c r="B39" s="98"/>
+      <c r="C39" s="98"/>
+      <c r="D39" s="98"/>
+      <c r="E39" s="98"/>
+      <c r="F39" s="99"/>
+    </row>
+    <row r="40" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="105"/>
+      <c r="B40" s="106"/>
+      <c r="C40" s="106"/>
+      <c r="D40" s="106"/>
+      <c r="E40" s="106"/>
+      <c r="F40" s="107"/>
+    </row>
+    <row r="41" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="81"/>
+      <c r="C41" s="81"/>
+      <c r="D41" s="81"/>
+      <c r="E41" s="81"/>
+      <c r="F41" s="82"/>
+    </row>
+    <row r="42" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="100"/>
+      <c r="B42" s="96"/>
+      <c r="C42" s="96"/>
+      <c r="D42" s="96"/>
+      <c r="E42" s="96"/>
+      <c r="F42" s="97"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="101"/>
+      <c r="B43" s="94"/>
+      <c r="C43" s="94"/>
+      <c r="D43" s="94"/>
+      <c r="E43" s="94"/>
+      <c r="F43" s="95"/>
+    </row>
+  </sheetData>
+  <mergeCells count="29">
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A38:F39"/>
+    <mergeCell ref="A42:F43"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="A41:F41"/>
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A13:F13"/>
@@ -8579,20 +10207,7 @@
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:F10"/>
-    <mergeCell ref="A42:F43"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="A41:F41"/>
     <mergeCell ref="A29:F29"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A38:F39"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Colocar percentagem_x000a_" sqref="B10:C10" xr:uid="{C44B2955-AB0E-5E4A-9201-AF72D21AA99A}"/>
@@ -8659,7 +10274,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F56D591A-F277-D248-BC6E-ABCB9483D3AC}">
   <sheetPr codeName="Sheet5">
     <tabColor rgb="FFFF0000"/>
@@ -8885,7 +10500,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B34CF0A5-BCFD-6C4D-BD6A-52FE7B6EF76F}">
   <sheetPr codeName="Sheet6">
     <tabColor theme="6"/>

--- a/docs/documentacao.xlsx
+++ b/docs/documentacao.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/micaelmbp/Documents/ENG-2022/TAAD/GlobalTech_ETL/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{832CAC64-A47C-BE49-A3F4-9149CBCDF043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B31F2C8A-689B-1143-BFAA-77DB3FBF64A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="3" xr2:uid="{1C0ABE59-C842-1448-8BFE-1E96A6C9A910}"/>
   </bookViews>
@@ -392,7 +392,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
@@ -880,11 +881,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1176,8 +1178,18 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -7260,7 +7272,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7866,9 +7878,9 @@
       <c r="A6" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="88"/>
-      <c r="C6" s="89"/>
-      <c r="D6" s="90"/>
+      <c r="B6" s="109"/>
+      <c r="C6" s="110"/>
+      <c r="D6" s="111"/>
       <c r="E6" s="91" t="s">
         <v>58</v>
       </c>
@@ -8306,7 +8318,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:G5"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8775,7 +8787,7 @@
   </sheetPr>
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>

--- a/docs/documentacao.xlsx
+++ b/docs/documentacao.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/micaelmbp/Documents/ENG-2022/TAAD/GlobalTech_ETL/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B31F2C8A-689B-1143-BFAA-77DB3FBF64A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A2CAE7-64E8-4445-9043-601ECE6103E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="3" xr2:uid="{1C0ABE59-C842-1448-8BFE-1E96A6C9A910}"/>
   </bookViews>

--- a/docs/documentacao.xlsx
+++ b/docs/documentacao.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/micaelmbp/Documents/ENG-2022/TAAD/GlobalTech_ETL/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A2CAE7-64E8-4445-9043-601ECE6103E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2842680-1515-5746-A03D-9E3101EB8A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="3" xr2:uid="{1C0ABE59-C842-1448-8BFE-1E96A6C9A910}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="116">
   <si>
     <t>Caracterização do Data Mart</t>
   </si>
@@ -386,6 +386,9 @@
   </si>
   <si>
     <t>Clientes que realizam as encomendas</t>
+  </si>
+  <si>
+    <t>1§</t>
   </si>
 </sst>
 </file>
@@ -8318,7 +8321,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8442,7 +8445,9 @@
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
@@ -8754,7 +8759,7 @@
           <x14:formula1>
             <xm:f>Metadata!$A$27:$A$29</xm:f>
           </x14:formula1>
-          <xm:sqref>D10:D17</xm:sqref>
+          <xm:sqref>D11:D17</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D1F5CADB-A877-C54F-BE54-46C783F98C6B}">
           <x14:formula1>

--- a/docs/documentacao.xlsx
+++ b/docs/documentacao.xlsx
@@ -8,20 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/micaelmbp/Documents/ENG-2022/TAAD/GlobalTech_ETL/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2842680-1515-5746-A03D-9E3101EB8A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3567A9C6-A99D-2C49-BEE0-D3585F6A584C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="3" xr2:uid="{1C0ABE59-C842-1448-8BFE-1E96A6C9A910}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="7" xr2:uid="{1C0ABE59-C842-1448-8BFE-1E96A6C9A910}"/>
   </bookViews>
   <sheets>
     <sheet name="Matriz de decisão" sheetId="1" r:id="rId1"/>
     <sheet name="DIM Warehouse" sheetId="7" r:id="rId2"/>
     <sheet name="DIM Employee" sheetId="9" r:id="rId3"/>
     <sheet name="DIM Customer" sheetId="4" r:id="rId4"/>
-    <sheet name="DIM Order" sheetId="8" r:id="rId5"/>
-    <sheet name="TF Order Payment" sheetId="11" r:id="rId6"/>
-    <sheet name="TF Order" sheetId="3" r:id="rId7"/>
-    <sheet name="Metadata" sheetId="5" r:id="rId8"/>
-    <sheet name="Change Log" sheetId="6" r:id="rId9"/>
+    <sheet name="DIM Product" sheetId="8" r:id="rId5"/>
+    <sheet name="DIM Date" sheetId="12" r:id="rId6"/>
+    <sheet name="TF Order" sheetId="11" r:id="rId7"/>
+    <sheet name="TF Order Payments" sheetId="3" r:id="rId8"/>
+    <sheet name="TF Shippment" sheetId="13" r:id="rId9"/>
+    <sheet name="TF Cancellation" sheetId="14" r:id="rId10"/>
+    <sheet name="Metadata" sheetId="5" r:id="rId11"/>
+    <sheet name="Change Log" sheetId="6" r:id="rId12"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -41,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="237">
   <si>
     <t>Caracterização do Data Mart</t>
   </si>
@@ -361,9 +364,6 @@
     <t>hire_date</t>
   </si>
   <si>
-    <t>Quem é o seu superior</t>
-  </si>
-  <si>
     <t>Tommy</t>
   </si>
   <si>
@@ -379,16 +379,382 @@
     <t>city -&gt; state -&gt; country -&gt; region</t>
   </si>
   <si>
-    <t>Customer</t>
-  </si>
-  <si>
     <t>customer</t>
   </si>
   <si>
-    <t>Clientes que realizam as encomendas</t>
-  </si>
-  <si>
-    <t>1§</t>
+    <t>postal code</t>
+  </si>
+  <si>
+    <t>postal code -&gt; state -&gt; country -&gt; region</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>sk_warehouse</t>
+  </si>
+  <si>
+    <t>sk_employee</t>
+  </si>
+  <si>
+    <t>sk_customer</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>credit_limit</t>
+  </si>
+  <si>
+    <t>+1 313 123 4222</t>
+  </si>
+  <si>
+    <t>Plains GP Holdings</t>
+  </si>
+  <si>
+    <t>Lucas Dr Bldg 348, Detroit, MI</t>
+  </si>
+  <si>
+    <t>2500.00</t>
+  </si>
+  <si>
+    <t>Produto encomendado</t>
+  </si>
+  <si>
+    <t>sk_product</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>nome do produto</t>
+  </si>
+  <si>
+    <t>categoria do produto</t>
+  </si>
+  <si>
+    <t>descrição do produto</t>
+  </si>
+  <si>
+    <t>Intel Xeon E5-2697 V4</t>
+  </si>
+  <si>
+    <t>CPU</t>
+  </si>
+  <si>
+    <t>Speed:2.3GHz,Cores:18,TDP:145W</t>
+  </si>
+  <si>
+    <t>contacto do cliente</t>
+  </si>
+  <si>
+    <t>nome do cliente</t>
+  </si>
+  <si>
+    <t>morada do cliente</t>
+  </si>
+  <si>
+    <t>crédito limite atribuído</t>
+  </si>
+  <si>
+    <t>superior/manager</t>
+  </si>
+  <si>
+    <t>data de contratação</t>
+  </si>
+  <si>
+    <t>último nome</t>
+  </si>
+  <si>
+    <t>primeiro nome</t>
+  </si>
+  <si>
+    <t>nome do warehouse</t>
+  </si>
+  <si>
+    <t>cidade do warehouse</t>
+  </si>
+  <si>
+    <t>estado do warehouse</t>
+  </si>
+  <si>
+    <t>país do warehouse</t>
+  </si>
+  <si>
+    <t>região do warehouse</t>
+  </si>
+  <si>
+    <t>código postal do warehouse</t>
+  </si>
+  <si>
+    <t>Clientes da empresa</t>
+  </si>
+  <si>
+    <t>Dimensão temporal</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>sk_date</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>is_holiday</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>se é feriado</t>
+  </si>
+  <si>
+    <t>trimestre</t>
+  </si>
+  <si>
+    <t>semana do ano</t>
+  </si>
+  <si>
+    <t>month -&gt; year</t>
+  </si>
+  <si>
+    <t>Encomenda de produto</t>
+  </si>
+  <si>
+    <t>Vendas</t>
+  </si>
+  <si>
+    <t>Entre as 2 e as 5 da manhã</t>
+  </si>
+  <si>
+    <t>Dados de 2013 a 2017</t>
+  </si>
+  <si>
+    <t>order_id</t>
+  </si>
+  <si>
+    <t>id da encomenda</t>
+  </si>
+  <si>
+    <t>order_line</t>
+  </si>
+  <si>
+    <t>linha da encomenda (produto encomendado)</t>
+  </si>
+  <si>
+    <t>quarter</t>
+  </si>
+  <si>
+    <t>surrogate key warehouse associado</t>
+  </si>
+  <si>
+    <t>surrogate key produto associado</t>
+  </si>
+  <si>
+    <t>surrogate key customer associado</t>
+  </si>
+  <si>
+    <t>surrogate key data</t>
+  </si>
+  <si>
+    <t>surrogate key funcionário responsável</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>estado da encomenda</t>
+  </si>
+  <si>
+    <t>PENDING</t>
+  </si>
+  <si>
+    <t>standard_cost</t>
+  </si>
+  <si>
+    <t>Entrega da encomenda à transportadora para entregar ao cliente</t>
+  </si>
+  <si>
+    <t>preço de custo</t>
+  </si>
+  <si>
+    <t>450.36</t>
+  </si>
+  <si>
+    <t>unit_price</t>
+  </si>
+  <si>
+    <t>Pagamento encomenda</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>preço de venda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quantidade do produto enviada </t>
+  </si>
+  <si>
+    <t>65.40</t>
+  </si>
+  <si>
+    <t>payment_method</t>
+  </si>
+  <si>
+    <t>payment_id</t>
+  </si>
+  <si>
+    <t>order_status</t>
+  </si>
+  <si>
+    <t>order_date</t>
+  </si>
+  <si>
+    <t>limit_payment_date</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>surrogate key do cliente</t>
+  </si>
+  <si>
+    <t>surrogate key do funcionário</t>
+  </si>
+  <si>
+    <t>shipped_date</t>
+  </si>
+  <si>
+    <t>método de pagamento</t>
+  </si>
+  <si>
+    <t>quantity_shipped</t>
+  </si>
+  <si>
+    <t>was_received</t>
+  </si>
+  <si>
+    <t>id do pagamento</t>
+  </si>
+  <si>
+    <t>status da encomenda</t>
+  </si>
+  <si>
+    <t>data de envio da encomenda</t>
+  </si>
+  <si>
+    <t>data da encomenda</t>
+  </si>
+  <si>
+    <t>data de limite do pagamento</t>
+  </si>
+  <si>
+    <t>quantidade enviada</t>
+  </si>
+  <si>
+    <t>valor do pagamento</t>
+  </si>
+  <si>
+    <t>reception_date</t>
+  </si>
+  <si>
+    <t>SHIPPED</t>
+  </si>
+  <si>
+    <t>Credit Card</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 caso não tenha recebo, 1 se a encomenda foi recebida </t>
+  </si>
+  <si>
+    <t>500.00</t>
+  </si>
+  <si>
+    <t>surrogate key da data de pagamento</t>
+  </si>
+  <si>
+    <t>2016-06-14 00:00:00.000</t>
+  </si>
+  <si>
+    <t>valor do pagamento total/parcial</t>
+  </si>
+  <si>
+    <t>Cancelamento de uma encomenda</t>
+  </si>
+  <si>
+    <t>Indentificar quais os produtos mais cancelados</t>
+  </si>
+  <si>
+    <t>quantidade de produto enviada</t>
+  </si>
+  <si>
+    <t>Verificar tempo médio de pagamento e tipos de pagamento mais utilizados</t>
+  </si>
+  <si>
+    <t>canceled_date</t>
+  </si>
+  <si>
+    <t>last_status</t>
+  </si>
+  <si>
+    <t>estado da encomenda no momento do cancelamento</t>
+  </si>
+  <si>
+    <t>data do cancelamento</t>
+  </si>
+  <si>
+    <t>DIM - Order</t>
+  </si>
+  <si>
+    <t>quantidade de produtos cancelada</t>
+  </si>
+  <si>
+    <t>Perceber o porquê da dificuldade em dar resposta a encomendas</t>
+  </si>
+  <si>
+    <t>Identificar clientes insatisfeitos com demora entrega das encomendas</t>
+  </si>
+  <si>
+    <t>DIM_warehouse</t>
+  </si>
+  <si>
+    <t>DIM_employee</t>
+  </si>
+  <si>
+    <t>DIM_customer</t>
+  </si>
+  <si>
+    <t>DIM_product</t>
+  </si>
+  <si>
+    <t>DIM_date</t>
+  </si>
+  <si>
+    <t>FACT_order</t>
+  </si>
+  <si>
+    <t>FACT_order_payment</t>
+  </si>
+  <si>
+    <t>FACT_shippment</t>
+  </si>
+  <si>
+    <t>FACT_cancellation</t>
   </si>
 </sst>
 </file>
@@ -399,7 +765,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -459,6 +825,12 @@
       <b/>
       <sz val="16"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -889,7 +1261,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1007,6 +1379,27 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="22" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1052,72 +1445,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1136,10 +1463,82 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1148,16 +1547,31 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1169,25 +1583,19 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5656,7 +6064,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5665,52 +6073,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="64"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="71"/>
     </row>
     <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
     </row>
     <row r="3" spans="1:8" ht="47" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
     </row>
     <row r="4" spans="1:8" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="64"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="71"/>
     </row>
     <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="50" t="s">
@@ -5812,7 +6220,7 @@
     </row>
     <row r="12" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>36</v>
+        <v>224</v>
       </c>
       <c r="B12" s="48"/>
       <c r="C12" s="3"/>
@@ -5847,14 +6255,14 @@
       <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A15" s="65"/>
-      <c r="B15" s="65"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="65"/>
+      <c r="A15" s="72"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="72"/>
     </row>
     <row r="16" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -5932,56 +6340,56 @@
       <c r="A22" s="7"/>
     </row>
     <row r="23" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="51" t="s">
+      <c r="A23" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="52"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="53"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="60"/>
     </row>
     <row r="24" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="54"/>
-      <c r="B24" s="55"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="56"/>
+      <c r="A24" s="61"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="63"/>
     </row>
     <row r="25" spans="1:8" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="57"/>
-      <c r="B25" s="58"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="59"/>
+      <c r="A25" s="64"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="66"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="60"/>
-      <c r="B26" s="60"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="60"/>
+      <c r="A26" s="67"/>
+      <c r="B26" s="67"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="67"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="61"/>
-      <c r="B27" s="61"/>
-      <c r="C27" s="61"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="61"/>
+      <c r="A27" s="68"/>
+      <c r="B27" s="68"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="68"/>
+      <c r="G27" s="68"/>
+      <c r="H27" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -7267,15 +7675,1582 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{996719DB-8DE8-A948-942F-B0552EB0E48D}">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
+  <dimension ref="A1:F42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="30.83203125" customWidth="1"/>
+    <col min="5" max="5" width="51.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="79" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="81"/>
+    </row>
+    <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="121" t="s">
+        <v>236</v>
+      </c>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="122"/>
+    </row>
+    <row r="3" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="96" t="s">
+        <v>216</v>
+      </c>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="97"/>
+    </row>
+    <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A4" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="96" t="s">
+        <v>163</v>
+      </c>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="97"/>
+    </row>
+    <row r="5" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A5" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="96" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="97"/>
+    </row>
+    <row r="6" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A6" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="96" t="s">
+        <v>217</v>
+      </c>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="97"/>
+    </row>
+    <row r="7" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A7" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="96" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="96"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="97"/>
+    </row>
+    <row r="8" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A8" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="96" t="s">
+        <v>164</v>
+      </c>
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="97"/>
+    </row>
+    <row r="9" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A9" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="96"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="96"/>
+      <c r="E9" s="96"/>
+      <c r="F9" s="97"/>
+    </row>
+    <row r="10" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A10" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="123">
+        <v>0.3</v>
+      </c>
+      <c r="C10" s="96"/>
+      <c r="D10" s="96" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="96"/>
+      <c r="F10" s="97"/>
+    </row>
+    <row r="11" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A11" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="119" t="s">
+        <v>165</v>
+      </c>
+      <c r="C11" s="119"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
+      <c r="F11" s="120"/>
+    </row>
+    <row r="12" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="110"/>
+      <c r="B12" s="111"/>
+      <c r="C12" s="111"/>
+      <c r="D12" s="111"/>
+      <c r="E12" s="111"/>
+      <c r="F12" s="112"/>
+    </row>
+    <row r="13" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="87" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="88"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="89"/>
+    </row>
+    <row r="14" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A14" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A15" s="36">
+        <v>1</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="F15" s="37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A16" s="36">
+        <v>2</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="F16" s="37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A17" s="36">
+        <v>3</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="F17" s="37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A18" s="36">
+        <v>4</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="F18" s="37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A19" s="36">
+        <v>5</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="F19" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A20" s="36">
+        <v>6</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="F20" s="37" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="27">
+        <v>7</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27" t="s">
+        <v>222</v>
+      </c>
+      <c r="F21" s="37" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="87" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" s="88"/>
+      <c r="C22" s="88"/>
+      <c r="D22" s="88"/>
+      <c r="E22" s="88"/>
+      <c r="F22" s="89"/>
+    </row>
+    <row r="23" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A23" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A24" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="B24" s="56"/>
+      <c r="C24" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="E24" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="F24" s="37">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A25" s="36"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="37"/>
+    </row>
+    <row r="26" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="F26" s="37"/>
+    </row>
+    <row r="27" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A27" s="41"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="43"/>
+    </row>
+    <row r="28" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="110"/>
+      <c r="B28" s="111"/>
+      <c r="C28" s="111"/>
+      <c r="D28" s="111"/>
+      <c r="E28" s="111"/>
+      <c r="F28" s="112"/>
+    </row>
+    <row r="29" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="87" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="88"/>
+      <c r="C29" s="88"/>
+      <c r="D29" s="88"/>
+      <c r="E29" s="88"/>
+      <c r="F29" s="89"/>
+    </row>
+    <row r="30" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A30" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="105" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30" s="105"/>
+      <c r="F30" s="106"/>
+    </row>
+    <row r="31" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A31" s="39"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="108"/>
+      <c r="E31" s="108"/>
+      <c r="F31" s="109"/>
+    </row>
+    <row r="32" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A32" s="39"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="108"/>
+      <c r="E32" s="108"/>
+      <c r="F32" s="109"/>
+    </row>
+    <row r="33" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A33" s="39"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="108"/>
+      <c r="E33" s="108"/>
+      <c r="F33" s="109"/>
+    </row>
+    <row r="34" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A34" s="41"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="114"/>
+      <c r="E34" s="114"/>
+      <c r="F34" s="115"/>
+    </row>
+    <row r="35" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="116"/>
+      <c r="B35" s="117"/>
+      <c r="C35" s="117"/>
+      <c r="D35" s="117"/>
+      <c r="E35" s="117"/>
+      <c r="F35" s="118"/>
+    </row>
+    <row r="36" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="87" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" s="88"/>
+      <c r="C36" s="88"/>
+      <c r="D36" s="88"/>
+      <c r="E36" s="88"/>
+      <c r="F36" s="89"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="104"/>
+      <c r="B37" s="105"/>
+      <c r="C37" s="105"/>
+      <c r="D37" s="105"/>
+      <c r="E37" s="105"/>
+      <c r="F37" s="106"/>
+    </row>
+    <row r="38" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="107"/>
+      <c r="B38" s="108"/>
+      <c r="C38" s="108"/>
+      <c r="D38" s="108"/>
+      <c r="E38" s="108"/>
+      <c r="F38" s="109"/>
+    </row>
+    <row r="39" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="110"/>
+      <c r="B39" s="111"/>
+      <c r="C39" s="111"/>
+      <c r="D39" s="111"/>
+      <c r="E39" s="111"/>
+      <c r="F39" s="112"/>
+    </row>
+    <row r="40" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="87" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="88"/>
+      <c r="C40" s="88"/>
+      <c r="D40" s="88"/>
+      <c r="E40" s="88"/>
+      <c r="F40" s="89"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="104"/>
+      <c r="B41" s="105"/>
+      <c r="C41" s="105"/>
+      <c r="D41" s="105"/>
+      <c r="E41" s="105"/>
+      <c r="F41" s="106"/>
+    </row>
+    <row r="42" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="113"/>
+      <c r="B42" s="114"/>
+      <c r="C42" s="114"/>
+      <c r="D42" s="114"/>
+      <c r="E42" s="114"/>
+      <c r="F42" s="115"/>
+    </row>
+  </sheetData>
+  <mergeCells count="28">
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="A37:F38"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="A41:F42"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+  </mergeCells>
+  <dataValidations count="5">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Colocar percentagem_x000a_" sqref="B10:C10" xr:uid="{2B355D78-2274-AF4C-B934-68ADBC7FB191}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Nome do data mart ao qual a tabela de factos pertence" sqref="B4:F4" xr:uid="{3309193E-9BA5-5C47-AC80-4C81DCCFBDCC}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Exemplo:_x000a_&quot;Incentivar as vendas de telemóveis&quot;" sqref="B6:F6" xr:uid="{720987A3-4BCE-7F47-89A6-08633EE600A1}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Exemplo:_x000a_&quot;Entre as 2 e as 5 da manhã&quot;" sqref="B8:F8" xr:uid="{CDD3A802-7729-D04B-84BB-52A831726355}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Exemplo:_x000a_&quot;Dados dos últimos 4 anos&quot;" sqref="B11:F11" xr:uid="{C04589DE-1772-FD43-808E-834A8BAC3EE1}"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="8">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{596A2327-EB3C-0847-9EA6-B35EE44AD099}">
+          <x14:formula1>
+            <xm:f>Metadata!$A$43:$A$44</xm:f>
+          </x14:formula1>
+          <xm:sqref>C15:C21</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8B866F3A-26E7-F445-958C-7CD8084A005D}">
+          <x14:formula1>
+            <xm:f>Metadata!$A$21:$A$23</xm:f>
+          </x14:formula1>
+          <xm:sqref>D10:F10</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7BB6C42C-3C39-5344-B3A9-74335DB9C2BF}">
+          <x14:formula1>
+            <xm:f>Metadata!$A$2:$A$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>B5:F5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{65363E5A-397A-EC43-B102-A6E6449C6039}">
+          <x14:formula1>
+            <xm:f>Metadata!$A$7:$A$11</xm:f>
+          </x14:formula1>
+          <xm:sqref>B7:F7</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{83596C8F-AFE4-6842-A755-DB884B6E9669}">
+          <x14:formula1>
+            <xm:f>Metadata!$A$33:$A$34</xm:f>
+          </x14:formula1>
+          <xm:sqref>C31</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{71AA3F63-2618-E441-85F7-83CC17167451}">
+          <x14:formula1>
+            <xm:f>Metadata!$A$37:$A$41</xm:f>
+          </x14:formula1>
+          <xm:sqref>D31:D34</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0C250C6F-308E-0547-9CC2-AD67B97F1544}">
+          <x14:formula1>
+            <xm:f>Metadata!$A$48:$A$50</xm:f>
+          </x14:formula1>
+          <xm:sqref>C27 C24:C25</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E76D1ED0-470C-774D-95F7-6BA11889CFE0}">
+          <x14:formula1>
+            <xm:f>Metadata!$A$54:$A$56</xm:f>
+          </x14:formula1>
+          <xm:sqref>D27 D24:D25</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F56D591A-F277-D248-BC6E-ABCB9483D3AC}">
+  <sheetPr codeName="Sheet5">
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:A56"/>
+  <sheetViews>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="43.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B34CF0A5-BCFD-6C4D-BD6A-52FE7B6EF76F}">
+  <sheetPr codeName="Sheet6">
+    <tabColor theme="6"/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="14.1640625" customWidth="1"/>
+    <col min="5" max="5" width="59.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="50" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="11"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="15"/>
+    </row>
+    <row r="3" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="11"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="16"/>
+    </row>
+    <row r="4" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="17"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="20"/>
+    </row>
+    <row r="5" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="17"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="21"/>
+    </row>
+    <row r="6" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="17"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="21"/>
+    </row>
+    <row r="7" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="17"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="21"/>
+    </row>
+    <row r="8" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="17"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="21"/>
+    </row>
+    <row r="9" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="17"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="21"/>
+    </row>
+    <row r="10" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="17"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="21"/>
+    </row>
+    <row r="11" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="17"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="21"/>
+    </row>
+    <row r="12" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="17"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="21"/>
+    </row>
+    <row r="13" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="17"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="21"/>
+    </row>
+    <row r="14" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="17"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="21"/>
+    </row>
+    <row r="15" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="17"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="21"/>
+    </row>
+    <row r="16" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="17"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="21"/>
+    </row>
+    <row r="17" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="22"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="25"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8901B98C-4B51-0140-A2BB-D5548DFED2F1}">
+  <sheetPr>
+    <tabColor theme="5"/>
+  </sheetPr>
+  <dimension ref="A1:G38"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="33.1640625" customWidth="1"/>
+    <col min="2" max="2" width="30.83203125" customWidth="1"/>
+    <col min="3" max="3" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="30.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="79" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="81"/>
+    </row>
+    <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="82" t="s">
+        <v>228</v>
+      </c>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="83"/>
+    </row>
+    <row r="3" spans="1:7" ht="46" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="84" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="85"/>
+    </row>
+    <row r="4" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A4" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="84" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="85"/>
+    </row>
+    <row r="5" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A5" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="84" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="85"/>
+    </row>
+    <row r="6" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A6" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="73"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="76" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="77"/>
+      <c r="G6" s="78"/>
+    </row>
+    <row r="7" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="35"/>
+      <c r="G7" s="33"/>
+    </row>
+    <row r="8" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="87" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="89"/>
+    </row>
+    <row r="9" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A10" s="51">
+        <v>1</v>
+      </c>
+      <c r="B10" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" s="51"/>
+      <c r="D10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="51"/>
+      <c r="F10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>2</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>6</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>7</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="1">
+        <v>99236</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A18" s="36"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="37"/>
+    </row>
+    <row r="19" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A19" s="90" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="62"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="63"/>
+    </row>
+    <row r="20" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A20" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="91" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="91"/>
+      <c r="F20" s="91"/>
+      <c r="G20" s="91"/>
+    </row>
+    <row r="21" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="92"/>
+    </row>
+    <row r="22" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="92"/>
+      <c r="G22" s="92"/>
+    </row>
+    <row r="23" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="92"/>
+      <c r="E23" s="92"/>
+      <c r="F23" s="92"/>
+      <c r="G23" s="92"/>
+    </row>
+    <row r="24" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="92"/>
+      <c r="E24" s="92"/>
+      <c r="F24" s="92"/>
+      <c r="G24" s="92"/>
+    </row>
+    <row r="25" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="92"/>
+      <c r="E25" s="92"/>
+      <c r="F25" s="92"/>
+      <c r="G25" s="92"/>
+    </row>
+    <row r="26" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A26" s="36"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="29"/>
+      <c r="G26" s="33"/>
+    </row>
+    <row r="27" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A27" s="90" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="62"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="63"/>
+    </row>
+    <row r="28" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A28" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="91" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="91"/>
+      <c r="E28" s="91"/>
+      <c r="F28" s="91"/>
+      <c r="G28" s="91"/>
+    </row>
+    <row r="29" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>1</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C29" s="86" t="s">
+        <v>110</v>
+      </c>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="86"/>
+      <c r="G29" s="86"/>
+    </row>
+    <row r="30" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>2</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="86" t="s">
+        <v>113</v>
+      </c>
+      <c r="D30" s="86"/>
+      <c r="E30" s="86"/>
+      <c r="F30" s="86"/>
+      <c r="G30" s="86"/>
+    </row>
+    <row r="31" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="86"/>
+      <c r="D31" s="86"/>
+      <c r="E31" s="86"/>
+      <c r="F31" s="86"/>
+      <c r="G31" s="86"/>
+    </row>
+    <row r="32" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="8"/>
+      <c r="G32" s="33"/>
+    </row>
+    <row r="33" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="93" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="70"/>
+      <c r="C33" s="70"/>
+      <c r="D33" s="70"/>
+      <c r="E33" s="70"/>
+      <c r="F33" s="70"/>
+      <c r="G33" s="94"/>
+    </row>
+    <row r="34" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="95"/>
+      <c r="B34" s="96"/>
+      <c r="C34" s="96"/>
+      <c r="D34" s="96"/>
+      <c r="E34" s="96"/>
+      <c r="F34" s="96"/>
+      <c r="G34" s="97"/>
+    </row>
+    <row r="35" spans="1:7" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="95"/>
+      <c r="B35" s="96"/>
+      <c r="C35" s="96"/>
+      <c r="D35" s="96"/>
+      <c r="E35" s="96"/>
+      <c r="F35" s="96"/>
+      <c r="G35" s="97"/>
+    </row>
+    <row r="36" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="93" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="70"/>
+      <c r="C36" s="70"/>
+      <c r="D36" s="70"/>
+      <c r="E36" s="70"/>
+      <c r="F36" s="70"/>
+      <c r="G36" s="94"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="84"/>
+      <c r="B37" s="68"/>
+      <c r="C37" s="68"/>
+      <c r="D37" s="68"/>
+      <c r="E37" s="68"/>
+      <c r="F37" s="68"/>
+      <c r="G37" s="85"/>
+    </row>
+    <row r="38" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="98"/>
+      <c r="B38" s="99"/>
+      <c r="C38" s="99"/>
+      <c r="D38" s="99"/>
+      <c r="E38" s="99"/>
+      <c r="F38" s="99"/>
+      <c r="G38" s="100"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="A34:G35"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A37:G38"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+  </mergeCells>
+  <dataValidations count="4">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Exemplo:_x000a_id -&gt; nome -&gt; categoria -&gt; ALL" sqref="C29:C32" xr:uid="{386320E1-7050-C749-9143-6F7D856CB823}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Identificação" sqref="A21" xr:uid="{6E614F1D-8517-504F-B822-57D90B294ED8}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Posição do atributo na tabela (posição ordinal)" sqref="A11:A18" xr:uid="{855FF150-C234-9D49-9667-882C30928CDB}"/>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Colocar percentagem" sqref="B6" xr:uid="{A538101C-4B9A-5746-84A7-B848F959A3B5}">
+      <formula1>1</formula1>
+      <formula2>100</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Etiqueta temporal_x000a_" xr:uid="{0139A3E8-36ED-2B47-A7EC-1815E3F57CE1}">
+          <x14:formula1>
+            <xm:f>Metadata!$A$21:$A$23</xm:f>
+          </x14:formula1>
+          <xm:sqref>E6:G6</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B38568D6-CB22-F346-9CC1-CA3D427E2EE6}">
+          <x14:formula1>
+            <xm:f>Metadata!$A$37:$A$41</xm:f>
+          </x14:formula1>
+          <xm:sqref>D21:D26</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FF5387A9-1453-DE4E-9E29-A425FB457DDD}">
+          <x14:formula1>
+            <xm:f>Metadata!$A$33:$A$34</xm:f>
+          </x14:formula1>
+          <xm:sqref>C21</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A7F573D4-1064-D44A-AA4D-8BC98DE1BAB5}">
+          <x14:formula1>
+            <xm:f>Metadata!$A$27:$A$29</xm:f>
+          </x14:formula1>
+          <xm:sqref>D10:D18</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AF81E620-BAF2-114A-82CA-AB9FF24679AF}">
+          <x14:formula1>
+            <xm:f>Metadata!$A$15:$A$17</xm:f>
+          </x14:formula1>
+          <xm:sqref>B4 F10:F15</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{689679D6-004F-8547-939A-39369E55E211}">
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B2" sqref="B2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7285,95 +9260,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="85"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="81"/>
     </row>
     <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="86" t="s">
-        <v>88</v>
-      </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="87"/>
+      <c r="B2" s="82" t="s">
+        <v>229</v>
+      </c>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="83"/>
     </row>
     <row r="3" spans="1:7" ht="46" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="72" t="s">
-        <v>89</v>
-      </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="73"/>
+      <c r="B3" s="84" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="85"/>
     </row>
     <row r="4" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="72" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="73"/>
+      <c r="B4" s="84" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="85"/>
     </row>
     <row r="5" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="72" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="73"/>
+      <c r="B5" s="84" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="85"/>
     </row>
     <row r="6" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="88"/>
-      <c r="C6" s="89"/>
-      <c r="D6" s="90"/>
-      <c r="E6" s="91" t="s">
+      <c r="B6" s="101"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="76" t="s">
         <v>58</v>
       </c>
-      <c r="F6" s="92"/>
-      <c r="G6" s="93"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="78"/>
     </row>
     <row r="7" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="35"/>
       <c r="G7" s="33"/>
     </row>
     <row r="8" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="80" t="s">
+      <c r="A8" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="81"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="81"/>
-      <c r="G8" s="82"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="89"/>
     </row>
     <row r="9" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
@@ -7403,18 +9378,18 @@
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>95</v>
+      <c r="G10" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="21" x14ac:dyDescent="0.25">
@@ -7422,9 +9397,11 @@
         <v>2</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C11" s="1"/>
+        <v>102</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>142</v>
+      </c>
       <c r="D11" s="1" t="s">
         <v>62</v>
       </c>
@@ -7433,7 +9410,7 @@
         <v>52</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="21" x14ac:dyDescent="0.25">
@@ -7441,9 +9418,11 @@
         <v>3</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C12" s="1"/>
+        <v>103</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>141</v>
+      </c>
       <c r="D12" s="1" t="s">
         <v>62</v>
       </c>
@@ -7452,7 +9431,7 @@
         <v>52</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="21" x14ac:dyDescent="0.25">
@@ -7460,18 +9439,20 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C13" s="1"/>
+        <v>104</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="D13" s="1" t="s">
         <v>62</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>98</v>
+        <v>54</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="21" x14ac:dyDescent="0.25">
@@ -7479,9 +9460,11 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C14" s="1"/>
+        <v>105</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>140</v>
+      </c>
       <c r="D14" s="1" t="s">
         <v>62</v>
       </c>
@@ -7490,7 +9473,7 @@
         <v>52</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="21" x14ac:dyDescent="0.25">
@@ -7521,15 +9504,15 @@
       <c r="G17" s="37"/>
     </row>
     <row r="18" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A18" s="78" t="s">
+      <c r="A18" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="55"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="56"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="63"/>
     </row>
     <row r="19" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A19" s="28" t="s">
@@ -7541,57 +9524,57 @@
       <c r="C19" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="79" t="s">
+      <c r="D19" s="91" t="s">
         <v>66</v>
       </c>
-      <c r="E19" s="79"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="79"/>
+      <c r="E19" s="91"/>
+      <c r="F19" s="91"/>
+      <c r="G19" s="91"/>
     </row>
     <row r="20" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="77"/>
-      <c r="G20" s="77"/>
+      <c r="D20" s="92"/>
+      <c r="E20" s="92"/>
+      <c r="F20" s="92"/>
+      <c r="G20" s="92"/>
     </row>
     <row r="21" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="77"/>
-      <c r="E21" s="77"/>
-      <c r="F21" s="77"/>
-      <c r="G21" s="77"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="92"/>
     </row>
     <row r="22" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="77"/>
-      <c r="E22" s="77"/>
-      <c r="F22" s="77"/>
-      <c r="G22" s="77"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="92"/>
+      <c r="G22" s="92"/>
     </row>
     <row r="23" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="77"/>
-      <c r="E23" s="77"/>
-      <c r="F23" s="77"/>
-      <c r="G23" s="77"/>
+      <c r="D23" s="92"/>
+      <c r="E23" s="92"/>
+      <c r="F23" s="92"/>
+      <c r="G23" s="92"/>
     </row>
     <row r="24" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="77"/>
-      <c r="E24" s="77"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="77"/>
+      <c r="D24" s="92"/>
+      <c r="E24" s="92"/>
+      <c r="F24" s="92"/>
+      <c r="G24" s="92"/>
     </row>
     <row r="25" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="36"/>
@@ -7601,15 +9584,15 @@
       <c r="G25" s="33"/>
     </row>
     <row r="26" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A26" s="78" t="s">
+      <c r="A26" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="55"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="56"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="63"/>
     </row>
     <row r="27" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A27" s="45" t="s">
@@ -7618,108 +9601,102 @@
       <c r="B27" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="79" t="s">
+      <c r="C27" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="79"/>
-      <c r="E27" s="79"/>
-      <c r="F27" s="79"/>
-      <c r="G27" s="79"/>
+      <c r="D27" s="91"/>
+      <c r="E27" s="91"/>
+      <c r="F27" s="91"/>
+      <c r="G27" s="91"/>
     </row>
     <row r="28" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>1</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C28" s="66" t="s">
-        <v>111</v>
-      </c>
-      <c r="D28" s="66"/>
-      <c r="E28" s="66"/>
-      <c r="F28" s="66"/>
-      <c r="G28" s="66"/>
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="86"/>
+      <c r="D28" s="86"/>
+      <c r="E28" s="86"/>
+      <c r="F28" s="86"/>
+      <c r="G28" s="86"/>
     </row>
     <row r="29" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="66"/>
-      <c r="D29" s="66"/>
-      <c r="E29" s="66"/>
-      <c r="F29" s="66"/>
-      <c r="G29" s="66"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="86"/>
+      <c r="G29" s="86"/>
     </row>
     <row r="30" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="66"/>
-      <c r="D30" s="66"/>
-      <c r="E30" s="66"/>
-      <c r="F30" s="66"/>
-      <c r="G30" s="66"/>
+      <c r="C30" s="86"/>
+      <c r="D30" s="86"/>
+      <c r="E30" s="86"/>
+      <c r="F30" s="86"/>
+      <c r="G30" s="86"/>
     </row>
     <row r="31" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="G31" s="33"/>
     </row>
     <row r="32" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="67" t="s">
+      <c r="A32" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="63"/>
-      <c r="C32" s="63"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="63"/>
-      <c r="G32" s="68"/>
+      <c r="B32" s="70"/>
+      <c r="C32" s="70"/>
+      <c r="D32" s="70"/>
+      <c r="E32" s="70"/>
+      <c r="F32" s="70"/>
+      <c r="G32" s="94"/>
     </row>
     <row r="33" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="69"/>
-      <c r="B33" s="70"/>
-      <c r="C33" s="70"/>
-      <c r="D33" s="70"/>
-      <c r="E33" s="70"/>
-      <c r="F33" s="70"/>
-      <c r="G33" s="71"/>
+      <c r="A33" s="95"/>
+      <c r="B33" s="96"/>
+      <c r="C33" s="96"/>
+      <c r="D33" s="96"/>
+      <c r="E33" s="96"/>
+      <c r="F33" s="96"/>
+      <c r="G33" s="97"/>
     </row>
     <row r="34" spans="1:7" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="69"/>
-      <c r="B34" s="70"/>
-      <c r="C34" s="70"/>
-      <c r="D34" s="70"/>
-      <c r="E34" s="70"/>
-      <c r="F34" s="70"/>
-      <c r="G34" s="71"/>
+      <c r="A34" s="95"/>
+      <c r="B34" s="96"/>
+      <c r="C34" s="96"/>
+      <c r="D34" s="96"/>
+      <c r="E34" s="96"/>
+      <c r="F34" s="96"/>
+      <c r="G34" s="97"/>
     </row>
     <row r="35" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="67" t="s">
+      <c r="A35" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="63"/>
-      <c r="C35" s="63"/>
-      <c r="D35" s="63"/>
-      <c r="E35" s="63"/>
-      <c r="F35" s="63"/>
-      <c r="G35" s="68"/>
+      <c r="B35" s="70"/>
+      <c r="C35" s="70"/>
+      <c r="D35" s="70"/>
+      <c r="E35" s="70"/>
+      <c r="F35" s="70"/>
+      <c r="G35" s="94"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="72"/>
-      <c r="B36" s="61"/>
-      <c r="C36" s="61"/>
-      <c r="D36" s="61"/>
-      <c r="E36" s="61"/>
-      <c r="F36" s="61"/>
-      <c r="G36" s="73"/>
+      <c r="A36" s="84"/>
+      <c r="B36" s="68"/>
+      <c r="C36" s="68"/>
+      <c r="D36" s="68"/>
+      <c r="E36" s="68"/>
+      <c r="F36" s="68"/>
+      <c r="G36" s="85"/>
     </row>
     <row r="37" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="74"/>
-      <c r="B37" s="75"/>
-      <c r="C37" s="75"/>
-      <c r="D37" s="75"/>
-      <c r="E37" s="75"/>
-      <c r="F37" s="75"/>
-      <c r="G37" s="76"/>
+      <c r="A37" s="98"/>
+      <c r="B37" s="99"/>
+      <c r="C37" s="99"/>
+      <c r="D37" s="99"/>
+      <c r="E37" s="99"/>
+      <c r="F37" s="99"/>
+      <c r="G37" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -7749,522 +9726,6 @@
     <mergeCell ref="A36:G37"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Exemplo:_x000a_id -&gt; nome -&gt; categoria -&gt; ALL" sqref="C28:C31" xr:uid="{386320E1-7050-C749-9143-6F7D856CB823}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Identificação" sqref="A20" xr:uid="{6E614F1D-8517-504F-B822-57D90B294ED8}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Posição do atributo na tabela (posição ordinal)" sqref="A10:A17" xr:uid="{855FF150-C234-9D49-9667-882C30928CDB}"/>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Colocar percentagem" sqref="B6" xr:uid="{A538101C-4B9A-5746-84A7-B848F959A3B5}">
-      <formula1>1</formula1>
-      <formula2>100</formula2>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Etiqueta temporal_x000a_" xr:uid="{0139A3E8-36ED-2B47-A7EC-1815E3F57CE1}">
-          <x14:formula1>
-            <xm:f>Metadata!$A$21:$A$23</xm:f>
-          </x14:formula1>
-          <xm:sqref>E6:G6</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B38568D6-CB22-F346-9CC1-CA3D427E2EE6}">
-          <x14:formula1>
-            <xm:f>Metadata!$A$37:$A$41</xm:f>
-          </x14:formula1>
-          <xm:sqref>D20:D25</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FF5387A9-1453-DE4E-9E29-A425FB457DDD}">
-          <x14:formula1>
-            <xm:f>Metadata!$A$33:$A$34</xm:f>
-          </x14:formula1>
-          <xm:sqref>C20</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A7F573D4-1064-D44A-AA4D-8BC98DE1BAB5}">
-          <x14:formula1>
-            <xm:f>Metadata!$A$27:$A$29</xm:f>
-          </x14:formula1>
-          <xm:sqref>D10:D17</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AF81E620-BAF2-114A-82CA-AB9FF24679AF}">
-          <x14:formula1>
-            <xm:f>Metadata!$A$15:$A$17</xm:f>
-          </x14:formula1>
-          <xm:sqref>B4 F10:F14</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{689679D6-004F-8547-939A-39369E55E211}">
-  <sheetPr>
-    <tabColor theme="5"/>
-  </sheetPr>
-  <dimension ref="A1:G37"/>
-  <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28:G28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="33.1640625" customWidth="1"/>
-    <col min="2" max="7" width="30.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="83" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="85"/>
-    </row>
-    <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="86" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="87"/>
-    </row>
-    <row r="3" spans="1:7" ht="46" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="72" t="s">
-        <v>101</v>
-      </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="73"/>
-    </row>
-    <row r="4" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="72" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="73"/>
-    </row>
-    <row r="5" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="72" t="s">
-        <v>100</v>
-      </c>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="73"/>
-    </row>
-    <row r="6" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="109"/>
-      <c r="C6" s="110"/>
-      <c r="D6" s="111"/>
-      <c r="E6" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="F6" s="92"/>
-      <c r="G6" s="93"/>
-    </row>
-    <row r="7" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="35"/>
-      <c r="G7" s="33"/>
-    </row>
-    <row r="8" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="80" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="81"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="81"/>
-      <c r="G8" s="82"/>
-    </row>
-    <row r="9" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="26" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>1</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>2</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>3</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>4</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A17" s="36"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="37"/>
-    </row>
-    <row r="18" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A18" s="78" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="55"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="56"/>
-    </row>
-    <row r="19" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A19" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="79" t="s">
-        <v>66</v>
-      </c>
-      <c r="E19" s="79"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="79"/>
-    </row>
-    <row r="20" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="77"/>
-      <c r="G20" s="77"/>
-    </row>
-    <row r="21" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="77"/>
-      <c r="E21" s="77"/>
-      <c r="F21" s="77"/>
-      <c r="G21" s="77"/>
-    </row>
-    <row r="22" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="77"/>
-      <c r="E22" s="77"/>
-      <c r="F22" s="77"/>
-      <c r="G22" s="77"/>
-    </row>
-    <row r="23" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="77"/>
-      <c r="E23" s="77"/>
-      <c r="F23" s="77"/>
-      <c r="G23" s="77"/>
-    </row>
-    <row r="24" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="77"/>
-      <c r="E24" s="77"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="77"/>
-    </row>
-    <row r="25" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A25" s="36"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="29"/>
-      <c r="G25" s="33"/>
-    </row>
-    <row r="26" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A26" s="78" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="55"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="56"/>
-    </row>
-    <row r="27" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A27" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="B27" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" s="79" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" s="79"/>
-      <c r="E27" s="79"/>
-      <c r="F27" s="79"/>
-      <c r="G27" s="79"/>
-    </row>
-    <row r="28" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="66"/>
-      <c r="D28" s="66"/>
-      <c r="E28" s="66"/>
-      <c r="F28" s="66"/>
-      <c r="G28" s="66"/>
-    </row>
-    <row r="29" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="66"/>
-      <c r="D29" s="66"/>
-      <c r="E29" s="66"/>
-      <c r="F29" s="66"/>
-      <c r="G29" s="66"/>
-    </row>
-    <row r="30" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="66"/>
-      <c r="D30" s="66"/>
-      <c r="E30" s="66"/>
-      <c r="F30" s="66"/>
-      <c r="G30" s="66"/>
-    </row>
-    <row r="31" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
-      <c r="G31" s="33"/>
-    </row>
-    <row r="32" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="B32" s="63"/>
-      <c r="C32" s="63"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="63"/>
-      <c r="G32" s="68"/>
-    </row>
-    <row r="33" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="69"/>
-      <c r="B33" s="70"/>
-      <c r="C33" s="70"/>
-      <c r="D33" s="70"/>
-      <c r="E33" s="70"/>
-      <c r="F33" s="70"/>
-      <c r="G33" s="71"/>
-    </row>
-    <row r="34" spans="1:7" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="69"/>
-      <c r="B34" s="70"/>
-      <c r="C34" s="70"/>
-      <c r="D34" s="70"/>
-      <c r="E34" s="70"/>
-      <c r="F34" s="70"/>
-      <c r="G34" s="71"/>
-    </row>
-    <row r="35" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="67" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" s="63"/>
-      <c r="C35" s="63"/>
-      <c r="D35" s="63"/>
-      <c r="E35" s="63"/>
-      <c r="F35" s="63"/>
-      <c r="G35" s="68"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="72"/>
-      <c r="B36" s="61"/>
-      <c r="C36" s="61"/>
-      <c r="D36" s="61"/>
-      <c r="E36" s="61"/>
-      <c r="F36" s="61"/>
-      <c r="G36" s="73"/>
-    </row>
-    <row r="37" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="74"/>
-      <c r="B37" s="75"/>
-      <c r="C37" s="75"/>
-      <c r="D37" s="75"/>
-      <c r="E37" s="75"/>
-      <c r="F37" s="75"/>
-      <c r="G37" s="76"/>
-    </row>
-  </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="A33:G34"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="A36:G37"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="A26:G26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="A18:G18"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-  </mergeCells>
-  <dataValidations count="4">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Colocar percentagem" sqref="B6" xr:uid="{F51EFD33-359E-334A-A51E-A657A56E6972}">
       <formula1>1</formula1>
       <formula2>100</formula2>
@@ -8281,7 +9742,7 @@
           <x14:formula1>
             <xm:f>Metadata!$A$15:$A$17</xm:f>
           </x14:formula1>
-          <xm:sqref>B4 F10:F13</xm:sqref>
+          <xm:sqref>B4 F10:F14</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2C02D4C8-5807-1B42-A575-AD6C9C5C405A}">
           <x14:formula1>
@@ -8320,102 +9781,107 @@
   </sheetPr>
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="33.1640625" customWidth="1"/>
-    <col min="2" max="7" width="30.83203125" customWidth="1"/>
+    <col min="2" max="6" width="30.83203125" customWidth="1"/>
+    <col min="7" max="7" width="34.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="85"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="81"/>
     </row>
     <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="86" t="s">
-        <v>112</v>
-      </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="87"/>
+      <c r="B2" s="82" t="s">
+        <v>230</v>
+      </c>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="83"/>
     </row>
     <row r="3" spans="1:7" ht="46" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="72" t="s">
-        <v>114</v>
-      </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="73"/>
+      <c r="B3" s="84" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="85"/>
     </row>
     <row r="4" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="73"/>
+      <c r="B4" s="84" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="85"/>
     </row>
     <row r="5" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="72" t="s">
-        <v>113</v>
-      </c>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="73"/>
+      <c r="B5" s="84" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="85"/>
     </row>
     <row r="6" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="88"/>
-      <c r="C6" s="89"/>
-      <c r="D6" s="90"/>
-      <c r="E6" s="91"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="93"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="76" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="77"/>
+      <c r="G6" s="78"/>
     </row>
     <row r="7" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="35"/>
       <c r="G7" s="33"/>
     </row>
     <row r="8" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="80" t="s">
+      <c r="A8" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="81"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="81"/>
-      <c r="G8" s="82"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="89"/>
     </row>
     <row r="9" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
@@ -8441,51 +9907,107 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
+      <c r="A10" s="1">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="A11" s="1">
+        <v>2</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="52" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="A12" s="1">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="A13" s="1">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="14" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="A14" s="1">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="F14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
@@ -8515,15 +10037,13 @@
       <c r="G17" s="37"/>
     </row>
     <row r="18" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A18" s="78" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="55"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="56"/>
+      <c r="A18" s="90"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="63"/>
     </row>
     <row r="19" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A19" s="28" t="s">
@@ -8535,57 +10055,57 @@
       <c r="C19" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="79" t="s">
+      <c r="D19" s="91" t="s">
         <v>66</v>
       </c>
-      <c r="E19" s="79"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="79"/>
+      <c r="E19" s="91"/>
+      <c r="F19" s="91"/>
+      <c r="G19" s="91"/>
     </row>
     <row r="20" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="77"/>
-      <c r="G20" s="77"/>
+      <c r="D20" s="92"/>
+      <c r="E20" s="92"/>
+      <c r="F20" s="92"/>
+      <c r="G20" s="92"/>
     </row>
     <row r="21" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="77"/>
-      <c r="E21" s="77"/>
-      <c r="F21" s="77"/>
-      <c r="G21" s="77"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="92"/>
     </row>
     <row r="22" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="77"/>
-      <c r="E22" s="77"/>
-      <c r="F22" s="77"/>
-      <c r="G22" s="77"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="92"/>
+      <c r="G22" s="92"/>
     </row>
     <row r="23" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="77"/>
-      <c r="E23" s="77"/>
-      <c r="F23" s="77"/>
-      <c r="G23" s="77"/>
+      <c r="D23" s="92"/>
+      <c r="E23" s="92"/>
+      <c r="F23" s="92"/>
+      <c r="G23" s="92"/>
     </row>
     <row r="24" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="77"/>
-      <c r="E24" s="77"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="77"/>
+      <c r="D24" s="92"/>
+      <c r="E24" s="92"/>
+      <c r="F24" s="92"/>
+      <c r="G24" s="92"/>
     </row>
     <row r="25" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="36"/>
@@ -8595,15 +10115,15 @@
       <c r="G25" s="33"/>
     </row>
     <row r="26" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A26" s="78" t="s">
+      <c r="A26" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="55"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="56"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="63"/>
     </row>
     <row r="27" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A27" s="45" t="s">
@@ -8612,113 +10132,105 @@
       <c r="B27" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="79" t="s">
+      <c r="C27" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="79"/>
-      <c r="E27" s="79"/>
-      <c r="F27" s="79"/>
-      <c r="G27" s="79"/>
+      <c r="D27" s="91"/>
+      <c r="E27" s="91"/>
+      <c r="F27" s="91"/>
+      <c r="G27" s="91"/>
     </row>
     <row r="28" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
-      <c r="C28" s="66"/>
-      <c r="D28" s="66"/>
-      <c r="E28" s="66"/>
-      <c r="F28" s="66"/>
-      <c r="G28" s="66"/>
+      <c r="C28" s="86"/>
+      <c r="D28" s="86"/>
+      <c r="E28" s="86"/>
+      <c r="F28" s="86"/>
+      <c r="G28" s="86"/>
     </row>
     <row r="29" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="66"/>
-      <c r="D29" s="66"/>
-      <c r="E29" s="66"/>
-      <c r="F29" s="66"/>
-      <c r="G29" s="66"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="86"/>
+      <c r="G29" s="86"/>
     </row>
     <row r="30" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="66"/>
-      <c r="D30" s="66"/>
-      <c r="E30" s="66"/>
-      <c r="F30" s="66"/>
-      <c r="G30" s="66"/>
+      <c r="C30" s="86"/>
+      <c r="D30" s="86"/>
+      <c r="E30" s="86"/>
+      <c r="F30" s="86"/>
+      <c r="G30" s="86"/>
     </row>
     <row r="31" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="G31" s="33"/>
     </row>
     <row r="32" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="67" t="s">
+      <c r="A32" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="63"/>
-      <c r="C32" s="63"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="63"/>
-      <c r="G32" s="68"/>
+      <c r="B32" s="70"/>
+      <c r="C32" s="70"/>
+      <c r="D32" s="70"/>
+      <c r="E32" s="70"/>
+      <c r="F32" s="70"/>
+      <c r="G32" s="94"/>
     </row>
     <row r="33" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="69"/>
-      <c r="B33" s="70"/>
-      <c r="C33" s="70"/>
-      <c r="D33" s="70"/>
-      <c r="E33" s="70"/>
-      <c r="F33" s="70"/>
-      <c r="G33" s="71"/>
+      <c r="A33" s="95"/>
+      <c r="B33" s="96"/>
+      <c r="C33" s="96"/>
+      <c r="D33" s="96"/>
+      <c r="E33" s="96"/>
+      <c r="F33" s="96"/>
+      <c r="G33" s="97"/>
     </row>
     <row r="34" spans="1:7" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="69"/>
-      <c r="B34" s="70"/>
-      <c r="C34" s="70"/>
-      <c r="D34" s="70"/>
-      <c r="E34" s="70"/>
-      <c r="F34" s="70"/>
-      <c r="G34" s="71"/>
+      <c r="A34" s="95"/>
+      <c r="B34" s="96"/>
+      <c r="C34" s="96"/>
+      <c r="D34" s="96"/>
+      <c r="E34" s="96"/>
+      <c r="F34" s="96"/>
+      <c r="G34" s="97"/>
     </row>
     <row r="35" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="67" t="s">
+      <c r="A35" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="63"/>
-      <c r="C35" s="63"/>
-      <c r="D35" s="63"/>
-      <c r="E35" s="63"/>
-      <c r="F35" s="63"/>
-      <c r="G35" s="68"/>
+      <c r="B35" s="70"/>
+      <c r="C35" s="70"/>
+      <c r="D35" s="70"/>
+      <c r="E35" s="70"/>
+      <c r="F35" s="70"/>
+      <c r="G35" s="94"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="72"/>
-      <c r="B36" s="61"/>
-      <c r="C36" s="61"/>
-      <c r="D36" s="61"/>
-      <c r="E36" s="61"/>
-      <c r="F36" s="61"/>
-      <c r="G36" s="73"/>
+      <c r="A36" s="84"/>
+      <c r="B36" s="68"/>
+      <c r="C36" s="68"/>
+      <c r="D36" s="68"/>
+      <c r="E36" s="68"/>
+      <c r="F36" s="68"/>
+      <c r="G36" s="85"/>
     </row>
     <row r="37" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="74"/>
-      <c r="B37" s="75"/>
-      <c r="C37" s="75"/>
-      <c r="D37" s="75"/>
-      <c r="E37" s="75"/>
-      <c r="F37" s="75"/>
-      <c r="G37" s="76"/>
+      <c r="A37" s="98"/>
+      <c r="B37" s="99"/>
+      <c r="C37" s="99"/>
+      <c r="D37" s="99"/>
+      <c r="E37" s="99"/>
+      <c r="F37" s="99"/>
+      <c r="G37" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="A26:G26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D23:G23"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="D19:G19"/>
     <mergeCell ref="D20:G20"/>
@@ -8735,6 +10247,14 @@
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="B5:G5"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D23:G23"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Colocar percentagem" sqref="B6" xr:uid="{C5DD908A-3688-A14E-B89F-E074FAFCDF99}">
@@ -8753,13 +10273,13 @@
           <x14:formula1>
             <xm:f>Metadata!$A$15:$A$17</xm:f>
           </x14:formula1>
-          <xm:sqref>B4 F10</xm:sqref>
+          <xm:sqref>B4 F10:F14</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{55675CBF-630C-6449-99E5-5BB904D1ECEB}">
           <x14:formula1>
             <xm:f>Metadata!$A$27:$A$29</xm:f>
           </x14:formula1>
-          <xm:sqref>D11:D17</xm:sqref>
+          <xm:sqref>D10:D17</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D1F5CADB-A877-C54F-BE54-46C783F98C6B}">
           <x14:formula1>
@@ -8793,95 +10313,106 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+      <selection activeCell="B3" sqref="B3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="33.1640625" customWidth="1"/>
-    <col min="2" max="7" width="30.83203125" customWidth="1"/>
+    <col min="2" max="6" width="30.83203125" customWidth="1"/>
+    <col min="7" max="7" width="39.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="85"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="81"/>
     </row>
     <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="87"/>
+      <c r="B2" s="82" t="s">
+        <v>231</v>
+      </c>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="83"/>
     </row>
     <row r="3" spans="1:7" ht="46" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="73"/>
+      <c r="B3" s="84" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="85"/>
     </row>
     <row r="4" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="73"/>
+      <c r="B4" s="84" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="85"/>
     </row>
     <row r="5" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="73"/>
+      <c r="B5" s="84" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="85"/>
     </row>
     <row r="6" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="88"/>
-      <c r="C6" s="89"/>
-      <c r="D6" s="90"/>
-      <c r="E6" s="91"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="93"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="76" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="77"/>
+      <c r="G6" s="78"/>
     </row>
     <row r="7" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="35"/>
       <c r="G7" s="33"/>
     </row>
     <row r="8" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="80" t="s">
+      <c r="A8" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="81"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="81"/>
-      <c r="G8" s="82"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="89"/>
     </row>
     <row r="9" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
@@ -8907,40 +10438,86 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
+      <c r="A10" s="1">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="A11" s="1">
+        <v>2</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="A12" s="1">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="A13" s="1">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="14" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
@@ -8979,15 +10556,15 @@
       <c r="G17" s="37"/>
     </row>
     <row r="18" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A18" s="78" t="s">
+      <c r="A18" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="55"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="56"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="63"/>
     </row>
     <row r="19" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A19" s="28" t="s">
@@ -8999,57 +10576,57 @@
       <c r="C19" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="79" t="s">
+      <c r="D19" s="91" t="s">
         <v>66</v>
       </c>
-      <c r="E19" s="79"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="79"/>
+      <c r="E19" s="91"/>
+      <c r="F19" s="91"/>
+      <c r="G19" s="91"/>
     </row>
     <row r="20" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="77"/>
-      <c r="G20" s="77"/>
+      <c r="D20" s="92"/>
+      <c r="E20" s="92"/>
+      <c r="F20" s="92"/>
+      <c r="G20" s="92"/>
     </row>
     <row r="21" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="77"/>
-      <c r="E21" s="77"/>
-      <c r="F21" s="77"/>
-      <c r="G21" s="77"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="92"/>
     </row>
     <row r="22" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="77"/>
-      <c r="E22" s="77"/>
-      <c r="F22" s="77"/>
-      <c r="G22" s="77"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="92"/>
+      <c r="G22" s="92"/>
     </row>
     <row r="23" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="77"/>
-      <c r="E23" s="77"/>
-      <c r="F23" s="77"/>
-      <c r="G23" s="77"/>
+      <c r="D23" s="92"/>
+      <c r="E23" s="92"/>
+      <c r="F23" s="92"/>
+      <c r="G23" s="92"/>
     </row>
     <row r="24" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="77"/>
-      <c r="E24" s="77"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="77"/>
+      <c r="D24" s="92"/>
+      <c r="E24" s="92"/>
+      <c r="F24" s="92"/>
+      <c r="G24" s="92"/>
     </row>
     <row r="25" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="36"/>
@@ -9059,15 +10636,15 @@
       <c r="G25" s="33"/>
     </row>
     <row r="26" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A26" s="78" t="s">
+      <c r="A26" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="55"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="56"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="63"/>
     </row>
     <row r="27" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A27" s="45" t="s">
@@ -9076,115 +10653,112 @@
       <c r="B27" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="79" t="s">
+      <c r="C27" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="79"/>
-      <c r="E27" s="79"/>
-      <c r="F27" s="79"/>
-      <c r="G27" s="79"/>
+      <c r="D27" s="91"/>
+      <c r="E27" s="91"/>
+      <c r="F27" s="91"/>
+      <c r="G27" s="91"/>
     </row>
     <row r="28" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
-      <c r="C28" s="66"/>
-      <c r="D28" s="66"/>
-      <c r="E28" s="66"/>
-      <c r="F28" s="66"/>
-      <c r="G28" s="66"/>
+      <c r="C28" s="86"/>
+      <c r="D28" s="86"/>
+      <c r="E28" s="86"/>
+      <c r="F28" s="86"/>
+      <c r="G28" s="86"/>
     </row>
     <row r="29" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="66"/>
-      <c r="D29" s="66"/>
-      <c r="E29" s="66"/>
-      <c r="F29" s="66"/>
-      <c r="G29" s="66"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="86"/>
+      <c r="G29" s="86"/>
     </row>
     <row r="30" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="66"/>
-      <c r="D30" s="66"/>
-      <c r="E30" s="66"/>
-      <c r="F30" s="66"/>
-      <c r="G30" s="66"/>
+      <c r="C30" s="86"/>
+      <c r="D30" s="86"/>
+      <c r="E30" s="86"/>
+      <c r="F30" s="86"/>
+      <c r="G30" s="86"/>
     </row>
     <row r="31" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="G31" s="33"/>
     </row>
     <row r="32" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="67" t="s">
+      <c r="A32" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="63"/>
-      <c r="C32" s="63"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="63"/>
-      <c r="G32" s="68"/>
+      <c r="B32" s="70"/>
+      <c r="C32" s="70"/>
+      <c r="D32" s="70"/>
+      <c r="E32" s="70"/>
+      <c r="F32" s="70"/>
+      <c r="G32" s="94"/>
     </row>
     <row r="33" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="69"/>
-      <c r="B33" s="70"/>
-      <c r="C33" s="70"/>
-      <c r="D33" s="70"/>
-      <c r="E33" s="70"/>
-      <c r="F33" s="70"/>
-      <c r="G33" s="71"/>
+      <c r="A33" s="95"/>
+      <c r="B33" s="96"/>
+      <c r="C33" s="96"/>
+      <c r="D33" s="96"/>
+      <c r="E33" s="96"/>
+      <c r="F33" s="96"/>
+      <c r="G33" s="97"/>
     </row>
     <row r="34" spans="1:7" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="69"/>
-      <c r="B34" s="70"/>
-      <c r="C34" s="70"/>
-      <c r="D34" s="70"/>
-      <c r="E34" s="70"/>
-      <c r="F34" s="70"/>
-      <c r="G34" s="71"/>
+      <c r="A34" s="95"/>
+      <c r="B34" s="96"/>
+      <c r="C34" s="96"/>
+      <c r="D34" s="96"/>
+      <c r="E34" s="96"/>
+      <c r="F34" s="96"/>
+      <c r="G34" s="97"/>
     </row>
     <row r="35" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="67" t="s">
+      <c r="A35" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="63"/>
-      <c r="C35" s="63"/>
-      <c r="D35" s="63"/>
-      <c r="E35" s="63"/>
-      <c r="F35" s="63"/>
-      <c r="G35" s="68"/>
+      <c r="B35" s="70"/>
+      <c r="C35" s="70"/>
+      <c r="D35" s="70"/>
+      <c r="E35" s="70"/>
+      <c r="F35" s="70"/>
+      <c r="G35" s="94"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="72"/>
-      <c r="B36" s="61"/>
-      <c r="C36" s="61"/>
-      <c r="D36" s="61"/>
-      <c r="E36" s="61"/>
-      <c r="F36" s="61"/>
-      <c r="G36" s="73"/>
+      <c r="A36" s="84"/>
+      <c r="B36" s="68"/>
+      <c r="C36" s="68"/>
+      <c r="D36" s="68"/>
+      <c r="E36" s="68"/>
+      <c r="F36" s="68"/>
+      <c r="G36" s="85"/>
     </row>
     <row r="37" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="74"/>
-      <c r="B37" s="75"/>
-      <c r="C37" s="75"/>
-      <c r="D37" s="75"/>
-      <c r="E37" s="75"/>
-      <c r="F37" s="75"/>
-      <c r="G37" s="76"/>
+      <c r="A37" s="98"/>
+      <c r="B37" s="99"/>
+      <c r="C37" s="99"/>
+      <c r="D37" s="99"/>
+      <c r="E37" s="99"/>
+      <c r="F37" s="99"/>
+      <c r="G37" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="A33:G34"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="A36:G37"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="A26:G26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
     <mergeCell ref="C29:G29"/>
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="A18:G18"/>
@@ -9192,13 +10766,16 @@
     <mergeCell ref="D20:G20"/>
     <mergeCell ref="D21:G21"/>
     <mergeCell ref="D22:G22"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="A33:G34"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="A36:G37"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Exemplo:_x000a_id -&gt; nome -&gt; categoria -&gt; ALL" sqref="C28:C31" xr:uid="{6749BA4D-A4C0-664A-8057-C07B807E371B}"/>
@@ -9241,7 +10818,7 @@
           <x14:formula1>
             <xm:f>Metadata!$A$15:$A$17</xm:f>
           </x14:formula1>
-          <xm:sqref>B4 F10</xm:sqref>
+          <xm:sqref>B4 F10:F13</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -9250,148 +10827,732 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{925C4F1D-04BB-D947-B685-1B1834C91259}">
+  <sheetPr>
+    <tabColor theme="5"/>
+  </sheetPr>
+  <dimension ref="A1:G37"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="33.1640625" customWidth="1"/>
+    <col min="2" max="6" width="30.83203125" customWidth="1"/>
+    <col min="7" max="7" width="39.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="79" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="81"/>
+    </row>
+    <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="82" t="s">
+        <v>232</v>
+      </c>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="83"/>
+    </row>
+    <row r="3" spans="1:7" ht="46" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="84" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="85"/>
+    </row>
+    <row r="4" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A4" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="84" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="85"/>
+    </row>
+    <row r="5" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A5" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="84" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="85"/>
+    </row>
+    <row r="6" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A6" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="73"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="76" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="77"/>
+      <c r="G6" s="78"/>
+    </row>
+    <row r="7" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="35"/>
+      <c r="G7" s="33"/>
+    </row>
+    <row r="8" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="87" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="89"/>
+    </row>
+    <row r="9" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>2</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>6</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>7</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="1">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A17" s="36"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="37"/>
+    </row>
+    <row r="18" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A18" s="90" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="62"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="63"/>
+    </row>
+    <row r="19" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A19" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="91" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="91"/>
+      <c r="F19" s="91"/>
+      <c r="G19" s="91"/>
+    </row>
+    <row r="20" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="92"/>
+      <c r="E20" s="92"/>
+      <c r="F20" s="92"/>
+      <c r="G20" s="92"/>
+    </row>
+    <row r="21" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="92"/>
+    </row>
+    <row r="22" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="92"/>
+      <c r="G22" s="92"/>
+    </row>
+    <row r="23" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="92"/>
+      <c r="E23" s="92"/>
+      <c r="F23" s="92"/>
+      <c r="G23" s="92"/>
+    </row>
+    <row r="24" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="92"/>
+      <c r="E24" s="92"/>
+      <c r="F24" s="92"/>
+      <c r="G24" s="92"/>
+    </row>
+    <row r="25" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A25" s="36"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="29"/>
+      <c r="G25" s="33"/>
+    </row>
+    <row r="26" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A26" s="90" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="62"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="63"/>
+    </row>
+    <row r="27" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A27" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="91" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="91"/>
+      <c r="E27" s="91"/>
+      <c r="F27" s="91"/>
+      <c r="G27" s="91"/>
+    </row>
+    <row r="28" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>1</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="86" t="s">
+        <v>161</v>
+      </c>
+      <c r="D28" s="86"/>
+      <c r="E28" s="86"/>
+      <c r="F28" s="86"/>
+      <c r="G28" s="86"/>
+    </row>
+    <row r="29" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="86"/>
+      <c r="G29" s="86"/>
+    </row>
+    <row r="30" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="86"/>
+      <c r="D30" s="86"/>
+      <c r="E30" s="86"/>
+      <c r="F30" s="86"/>
+      <c r="G30" s="86"/>
+    </row>
+    <row r="31" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="8"/>
+      <c r="G31" s="33"/>
+    </row>
+    <row r="32" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="93" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="70"/>
+      <c r="C32" s="70"/>
+      <c r="D32" s="70"/>
+      <c r="E32" s="70"/>
+      <c r="F32" s="70"/>
+      <c r="G32" s="94"/>
+    </row>
+    <row r="33" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="95"/>
+      <c r="B33" s="96"/>
+      <c r="C33" s="96"/>
+      <c r="D33" s="96"/>
+      <c r="E33" s="96"/>
+      <c r="F33" s="96"/>
+      <c r="G33" s="97"/>
+    </row>
+    <row r="34" spans="1:7" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="95"/>
+      <c r="B34" s="96"/>
+      <c r="C34" s="96"/>
+      <c r="D34" s="96"/>
+      <c r="E34" s="96"/>
+      <c r="F34" s="96"/>
+      <c r="G34" s="97"/>
+    </row>
+    <row r="35" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="93" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="70"/>
+      <c r="C35" s="70"/>
+      <c r="D35" s="70"/>
+      <c r="E35" s="70"/>
+      <c r="F35" s="70"/>
+      <c r="G35" s="94"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="84"/>
+      <c r="B36" s="68"/>
+      <c r="C36" s="68"/>
+      <c r="D36" s="68"/>
+      <c r="E36" s="68"/>
+      <c r="F36" s="68"/>
+      <c r="G36" s="85"/>
+    </row>
+    <row r="37" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="98"/>
+      <c r="B37" s="99"/>
+      <c r="C37" s="99"/>
+      <c r="D37" s="99"/>
+      <c r="E37" s="99"/>
+      <c r="F37" s="99"/>
+      <c r="G37" s="100"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="A33:G34"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="A36:G37"/>
+  </mergeCells>
+  <dataValidations count="4">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Colocar percentagem" sqref="B6" xr:uid="{A66D20F0-0782-6944-BA9C-7489AA303243}">
+      <formula1>1</formula1>
+      <formula2>100</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Posição do atributo na tabela (posição ordinal)" sqref="A10:A17" xr:uid="{1344C1D3-7940-0F4A-8F2D-E1396E6922D5}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Identificação" sqref="A20" xr:uid="{9824BB43-605B-C347-AC9D-A6F473A6095E}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Exemplo:_x000a_id -&gt; nome -&gt; categoria -&gt; ALL" sqref="C28:C31" xr:uid="{B7B08C70-E255-DE44-8D31-B7B504A534A8}"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{88FE6003-0F0E-DB4D-B874-D7AD9AAD87C6}">
+          <x14:formula1>
+            <xm:f>Metadata!$A$15:$A$17</xm:f>
+          </x14:formula1>
+          <xm:sqref>B4 F10:F16</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{041293E1-8BDB-3643-957A-23CA46C8A02F}">
+          <x14:formula1>
+            <xm:f>Metadata!$A$27:$A$29</xm:f>
+          </x14:formula1>
+          <xm:sqref>D10:D17</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EC9536FC-BC22-E54B-8401-2F8311B7F398}">
+          <x14:formula1>
+            <xm:f>Metadata!$A$33:$A$34</xm:f>
+          </x14:formula1>
+          <xm:sqref>C20</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8DAFBAA0-23E9-9342-95C3-D81C915E0A63}">
+          <x14:formula1>
+            <xm:f>Metadata!$A$37:$A$41</xm:f>
+          </x14:formula1>
+          <xm:sqref>D20:D25</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Etiqueta temporal_x000a_" xr:uid="{A3229EC2-BA82-2E49-915C-59C839234039}">
+          <x14:formula1>
+            <xm:f>Metadata!$A$21:$A$23</xm:f>
+          </x14:formula1>
+          <xm:sqref>E6:G6</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0538C7DA-5E49-754B-91B9-6A82D176845B}">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="6" width="30.83203125" customWidth="1"/>
+    <col min="1" max="1" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="30.83203125" customWidth="1"/>
+    <col min="5" max="5" width="51.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="85"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="81"/>
     </row>
     <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="97"/>
+      <c r="B2" s="121" t="s">
+        <v>233</v>
+      </c>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="122"/>
     </row>
     <row r="3" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="99"/>
+      <c r="B3" s="96" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="97"/>
     </row>
     <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="98"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="99"/>
+      <c r="B4" s="96" t="s">
+        <v>163</v>
+      </c>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="97"/>
     </row>
     <row r="5" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="98"/>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="99"/>
+      <c r="B5" s="96" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="97"/>
     </row>
     <row r="6" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="98"/>
-      <c r="C6" s="98"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="99"/>
+      <c r="B6" s="96" t="s">
+        <v>226</v>
+      </c>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="97"/>
     </row>
     <row r="7" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="98"/>
-      <c r="C7" s="98"/>
-      <c r="D7" s="98"/>
-      <c r="E7" s="98"/>
-      <c r="F7" s="99"/>
+      <c r="B7" s="96" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="96"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="97"/>
     </row>
     <row r="8" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="B8" s="98"/>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="99"/>
+      <c r="B8" s="96" t="s">
+        <v>164</v>
+      </c>
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="97"/>
     </row>
     <row r="9" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="B9" s="98"/>
-      <c r="C9" s="98"/>
-      <c r="D9" s="98"/>
-      <c r="E9" s="98"/>
-      <c r="F9" s="99"/>
+      <c r="B9" s="96"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="96"/>
+      <c r="E9" s="96"/>
+      <c r="F9" s="97"/>
     </row>
     <row r="10" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="98"/>
-      <c r="C10" s="98"/>
-      <c r="D10" s="98"/>
-      <c r="E10" s="98"/>
-      <c r="F10" s="99"/>
+      <c r="B10" s="123">
+        <v>0.5</v>
+      </c>
+      <c r="C10" s="96"/>
+      <c r="D10" s="96" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="96"/>
+      <c r="F10" s="97"/>
     </row>
     <row r="11" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="94"/>
-      <c r="C11" s="94"/>
-      <c r="D11" s="94"/>
-      <c r="E11" s="94"/>
-      <c r="F11" s="95"/>
+      <c r="B11" s="119" t="s">
+        <v>165</v>
+      </c>
+      <c r="C11" s="119"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
+      <c r="F11" s="120"/>
     </row>
     <row r="12" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="105"/>
-      <c r="B12" s="106"/>
-      <c r="C12" s="106"/>
-      <c r="D12" s="106"/>
-      <c r="E12" s="106"/>
-      <c r="F12" s="107"/>
+      <c r="A12" s="110"/>
+      <c r="B12" s="111"/>
+      <c r="C12" s="111"/>
+      <c r="D12" s="111"/>
+      <c r="E12" s="111"/>
+      <c r="F12" s="112"/>
     </row>
     <row r="13" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="80" t="s">
+      <c r="A13" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="81"/>
-      <c r="C13" s="81"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="82"/>
+      <c r="B13" s="88"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="89"/>
     </row>
     <row r="14" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
@@ -9414,289 +11575,381 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A15" s="39"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="31"/>
+      <c r="A15" s="36">
+        <v>1</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="F15" s="37">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A16" s="39"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="31"/>
+      <c r="A16" s="36">
+        <v>2</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="F16" s="37">
+        <v>2</v>
+      </c>
     </row>
     <row r="17" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A17" s="39"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="31"/>
+      <c r="A17" s="36">
+        <v>3</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="F17" s="37">
+        <v>3</v>
+      </c>
     </row>
     <row r="18" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A18" s="39"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="31"/>
+      <c r="A18" s="36">
+        <v>4</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="F18" s="37">
+        <v>2</v>
+      </c>
     </row>
     <row r="19" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A19" s="39"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="31"/>
+      <c r="A19" s="36">
+        <v>5</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="F19" s="37">
+        <v>6</v>
+      </c>
     </row>
     <row r="20" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A20" s="39"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="31"/>
+      <c r="A20" s="36">
+        <v>6</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="F20" s="37">
+        <v>2</v>
+      </c>
     </row>
     <row r="21" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="41"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="43"/>
-    </row>
-    <row r="22" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="105"/>
-      <c r="B22" s="106"/>
-      <c r="C22" s="106"/>
-      <c r="D22" s="106"/>
-      <c r="E22" s="106"/>
-      <c r="F22" s="107"/>
+      <c r="A21" s="27">
+        <v>7</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="F21" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A22" s="53">
+        <v>8</v>
+      </c>
+      <c r="B22" s="54" t="s">
+        <v>176</v>
+      </c>
+      <c r="C22" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54" t="s">
+        <v>177</v>
+      </c>
+      <c r="F22" s="55" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="23" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="80" t="s">
+      <c r="A23" s="110"/>
+      <c r="B23" s="111"/>
+      <c r="C23" s="111"/>
+      <c r="D23" s="111"/>
+      <c r="E23" s="111"/>
+      <c r="F23" s="112"/>
+    </row>
+    <row r="24" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="87" t="s">
         <v>78</v>
       </c>
-      <c r="B23" s="81"/>
-      <c r="C23" s="81"/>
-      <c r="D23" s="81"/>
-      <c r="E23" s="81"/>
-      <c r="F23" s="82"/>
-    </row>
-    <row r="24" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A24" s="39" t="s">
+      <c r="B24" s="88"/>
+      <c r="C24" s="88"/>
+      <c r="D24" s="88"/>
+      <c r="E24" s="88"/>
+      <c r="F24" s="89"/>
+    </row>
+    <row r="25" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A25" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="40" t="s">
+      <c r="B25" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="40" t="s">
+      <c r="C25" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="40" t="s">
+      <c r="D25" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="E24" s="40" t="s">
+      <c r="E25" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="F24" s="31" t="s">
+      <c r="F25" s="31" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A25" s="39"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="31"/>
-    </row>
     <row r="26" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A26" s="39"/>
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="31"/>
+      <c r="A26" s="36" t="s">
+        <v>179</v>
+      </c>
+      <c r="B26" s="56"/>
+      <c r="C26" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="56"/>
+      <c r="E26" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="F26" s="37" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="27" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A27" s="39"/>
-      <c r="B27" s="40"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="31"/>
+      <c r="A27" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="B27" s="56"/>
+      <c r="C27" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" s="56"/>
+      <c r="E27" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="F27" s="37" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="28" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A28" s="41"/>
-      <c r="B28" s="42"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="43"/>
-    </row>
-    <row r="29" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="105"/>
-      <c r="B29" s="106"/>
-      <c r="C29" s="106"/>
-      <c r="D29" s="106"/>
-      <c r="E29" s="106"/>
-      <c r="F29" s="107"/>
+      <c r="A28" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="B28" s="56"/>
+      <c r="C28" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="E28" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="F28" s="37">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A29" s="41"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="43"/>
     </row>
     <row r="30" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="80" t="s">
+      <c r="A30" s="110"/>
+      <c r="B30" s="111"/>
+      <c r="C30" s="111"/>
+      <c r="D30" s="111"/>
+      <c r="E30" s="111"/>
+      <c r="F30" s="112"/>
+    </row>
+    <row r="31" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="B30" s="81"/>
-      <c r="C30" s="81"/>
-      <c r="D30" s="81"/>
-      <c r="E30" s="81"/>
-      <c r="F30" s="82"/>
-    </row>
-    <row r="31" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A31" s="39" t="s">
+      <c r="B31" s="88"/>
+      <c r="C31" s="88"/>
+      <c r="D31" s="88"/>
+      <c r="E31" s="88"/>
+      <c r="F31" s="89"/>
+    </row>
+    <row r="32" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A32" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="40" t="s">
+      <c r="B32" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="40" t="s">
+      <c r="C32" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="D31" s="96" t="s">
+      <c r="D32" s="105" t="s">
         <v>66</v>
       </c>
-      <c r="E31" s="96"/>
-      <c r="F31" s="97"/>
-    </row>
-    <row r="32" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A32" s="39"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="98"/>
-      <c r="E32" s="98"/>
-      <c r="F32" s="99"/>
+      <c r="E32" s="105"/>
+      <c r="F32" s="106"/>
     </row>
     <row r="33" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A33" s="39"/>
       <c r="B33" s="40"/>
       <c r="C33" s="40"/>
-      <c r="D33" s="98"/>
-      <c r="E33" s="98"/>
-      <c r="F33" s="99"/>
+      <c r="D33" s="108"/>
+      <c r="E33" s="108"/>
+      <c r="F33" s="109"/>
     </row>
     <row r="34" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A34" s="39"/>
       <c r="B34" s="40"/>
       <c r="C34" s="40"/>
-      <c r="D34" s="98"/>
-      <c r="E34" s="98"/>
-      <c r="F34" s="99"/>
+      <c r="D34" s="108"/>
+      <c r="E34" s="108"/>
+      <c r="F34" s="109"/>
     </row>
     <row r="35" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A35" s="41"/>
-      <c r="B35" s="42"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="94"/>
-      <c r="E35" s="94"/>
-      <c r="F35" s="95"/>
-    </row>
-    <row r="36" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="102"/>
-      <c r="B36" s="103"/>
-      <c r="C36" s="103"/>
-      <c r="D36" s="103"/>
-      <c r="E36" s="103"/>
-      <c r="F36" s="104"/>
+      <c r="A35" s="39"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="108"/>
+      <c r="E35" s="108"/>
+      <c r="F35" s="109"/>
+    </row>
+    <row r="36" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A36" s="41"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="114"/>
+      <c r="E36" s="114"/>
+      <c r="F36" s="115"/>
     </row>
     <row r="37" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="80" t="s">
+      <c r="A37" s="116"/>
+      <c r="B37" s="117"/>
+      <c r="C37" s="117"/>
+      <c r="D37" s="117"/>
+      <c r="E37" s="117"/>
+      <c r="F37" s="118"/>
+    </row>
+    <row r="38" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="B37" s="81"/>
-      <c r="C37" s="81"/>
-      <c r="D37" s="81"/>
-      <c r="E37" s="81"/>
-      <c r="F37" s="82"/>
-    </row>
-    <row r="38" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="100"/>
-      <c r="B38" s="96"/>
-      <c r="C38" s="96"/>
-      <c r="D38" s="96"/>
-      <c r="E38" s="96"/>
-      <c r="F38" s="97"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="108"/>
-      <c r="B39" s="98"/>
-      <c r="C39" s="98"/>
-      <c r="D39" s="98"/>
-      <c r="E39" s="98"/>
-      <c r="F39" s="99"/>
-    </row>
-    <row r="40" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="105"/>
-      <c r="B40" s="106"/>
-      <c r="C40" s="106"/>
-      <c r="D40" s="106"/>
-      <c r="E40" s="106"/>
-      <c r="F40" s="107"/>
+      <c r="B38" s="88"/>
+      <c r="C38" s="88"/>
+      <c r="D38" s="88"/>
+      <c r="E38" s="88"/>
+      <c r="F38" s="89"/>
+    </row>
+    <row r="39" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="104"/>
+      <c r="B39" s="105"/>
+      <c r="C39" s="105"/>
+      <c r="D39" s="105"/>
+      <c r="E39" s="105"/>
+      <c r="F39" s="106"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="107"/>
+      <c r="B40" s="108"/>
+      <c r="C40" s="108"/>
+      <c r="D40" s="108"/>
+      <c r="E40" s="108"/>
+      <c r="F40" s="109"/>
     </row>
     <row r="41" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="80" t="s">
+      <c r="A41" s="110"/>
+      <c r="B41" s="111"/>
+      <c r="C41" s="111"/>
+      <c r="D41" s="111"/>
+      <c r="E41" s="111"/>
+      <c r="F41" s="112"/>
+    </row>
+    <row r="42" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="B41" s="81"/>
-      <c r="C41" s="81"/>
-      <c r="D41" s="81"/>
-      <c r="E41" s="81"/>
-      <c r="F41" s="82"/>
-    </row>
-    <row r="42" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="100"/>
-      <c r="B42" s="96"/>
-      <c r="C42" s="96"/>
-      <c r="D42" s="96"/>
-      <c r="E42" s="96"/>
-      <c r="F42" s="97"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="101"/>
-      <c r="B43" s="94"/>
-      <c r="C43" s="94"/>
-      <c r="D43" s="94"/>
-      <c r="E43" s="94"/>
-      <c r="F43" s="95"/>
+      <c r="B42" s="88"/>
+      <c r="C42" s="88"/>
+      <c r="D42" s="88"/>
+      <c r="E42" s="88"/>
+      <c r="F42" s="89"/>
+    </row>
+    <row r="43" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="104"/>
+      <c r="B43" s="105"/>
+      <c r="C43" s="105"/>
+      <c r="D43" s="105"/>
+      <c r="E43" s="105"/>
+      <c r="F43" s="106"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="113"/>
+      <c r="B44" s="114"/>
+      <c r="C44" s="114"/>
+      <c r="D44" s="114"/>
+      <c r="E44" s="114"/>
+      <c r="F44" s="115"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="A38:F39"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="A42:F43"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B2:F2"/>
@@ -9704,7 +11957,30 @@
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="A39:F40"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="A43:F44"/>
   </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
   <dataValidations count="5">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Exemplo:_x000a_&quot;Dados dos últimos 4 anos&quot;" sqref="B11:F11" xr:uid="{ABE851E0-8AAB-564B-9AA0-54BD36B0E9AB}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Exemplo:_x000a_&quot;Entre as 2 e as 5 da manhã&quot;" sqref="B8:F8" xr:uid="{09D39043-6DF2-AC4D-BC84-2F2B67EE89CD}"/>
@@ -9720,25 +11996,25 @@
           <x14:formula1>
             <xm:f>Metadata!$A$37:$A$41</xm:f>
           </x14:formula1>
-          <xm:sqref>D32:D35</xm:sqref>
+          <xm:sqref>D33:D36</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C44D012F-7F42-4949-9DB6-889632F7F430}">
           <x14:formula1>
             <xm:f>Metadata!$A$33:$A$34</xm:f>
           </x14:formula1>
-          <xm:sqref>C32</xm:sqref>
+          <xm:sqref>C33</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FDBB9100-9189-9B46-AFA6-70F5744B59B1}">
           <x14:formula1>
             <xm:f>Metadata!$A$54:$A$56</xm:f>
           </x14:formula1>
-          <xm:sqref>D25:D28</xm:sqref>
+          <xm:sqref>D26:D29</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A6E746B8-928B-C04E-A63F-C483C8EE772E}">
           <x14:formula1>
             <xm:f>Metadata!$A$48:$A$50</xm:f>
           </x14:formula1>
-          <xm:sqref>C25:C28</xm:sqref>
+          <xm:sqref>C26:C29</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F366491D-7FFD-9645-9B4C-C52BCD9C1C84}">
           <x14:formula1>
@@ -9752,17 +12028,17 @@
           </x14:formula1>
           <xm:sqref>B5:F5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B493EE89-A164-D94C-8D13-983AB7C87FB9}">
-          <x14:formula1>
-            <xm:f>Metadata!$A$43:$A$44</xm:f>
-          </x14:formula1>
-          <xm:sqref>C15:C21</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0416D6B4-1A88-D14C-AF33-860A0B4C2ADE}">
           <x14:formula1>
             <xm:f>Metadata!$A$21:$A$23</xm:f>
           </x14:formula1>
           <xm:sqref>D10:F10</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B493EE89-A164-D94C-8D13-983AB7C87FB9}">
+          <x14:formula1>
+            <xm:f>Metadata!$A$43:$A$44</xm:f>
+          </x14:formula1>
+          <xm:sqref>C15:C22</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -9770,149 +12046,171 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45AE6A66-6571-D24D-A307-DF57ADB3F673}">
   <sheetPr codeName="Sheet4">
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="6" width="30.83203125" customWidth="1"/>
+    <col min="1" max="4" width="30.83203125" customWidth="1"/>
+    <col min="5" max="5" width="42.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="85"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="81"/>
     </row>
     <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="97"/>
+      <c r="B2" s="121" t="s">
+        <v>234</v>
+      </c>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="122"/>
     </row>
     <row r="3" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="99"/>
+      <c r="B3" s="96" t="s">
+        <v>184</v>
+      </c>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="109"/>
     </row>
     <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="98"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="99"/>
+      <c r="B4" s="96" t="s">
+        <v>163</v>
+      </c>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="109"/>
     </row>
     <row r="5" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="98"/>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="99"/>
+      <c r="B5" s="96" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="109"/>
     </row>
     <row r="6" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="98"/>
-      <c r="C6" s="98"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="99"/>
+      <c r="B6" s="96" t="s">
+        <v>219</v>
+      </c>
+      <c r="C6" s="108"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="108"/>
+      <c r="F6" s="109"/>
     </row>
     <row r="7" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="98"/>
-      <c r="C7" s="98"/>
-      <c r="D7" s="98"/>
-      <c r="E7" s="98"/>
-      <c r="F7" s="99"/>
+      <c r="B7" s="96" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="108"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="109"/>
     </row>
     <row r="8" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="B8" s="98"/>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="99"/>
+      <c r="B8" s="96" t="s">
+        <v>164</v>
+      </c>
+      <c r="C8" s="108"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="109"/>
     </row>
     <row r="9" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="B9" s="98"/>
-      <c r="C9" s="98"/>
-      <c r="D9" s="98"/>
-      <c r="E9" s="98"/>
-      <c r="F9" s="99"/>
+      <c r="B9" s="108"/>
+      <c r="C9" s="108"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="108"/>
+      <c r="F9" s="109"/>
     </row>
     <row r="10" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="98"/>
-      <c r="C10" s="98"/>
-      <c r="D10" s="98"/>
-      <c r="E10" s="98"/>
-      <c r="F10" s="99"/>
+      <c r="B10" s="123">
+        <v>0.7</v>
+      </c>
+      <c r="C10" s="96"/>
+      <c r="D10" s="96" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="96"/>
+      <c r="F10" s="97"/>
     </row>
     <row r="11" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="94"/>
-      <c r="C11" s="94"/>
-      <c r="D11" s="94"/>
-      <c r="E11" s="94"/>
-      <c r="F11" s="95"/>
+      <c r="B11" s="119" t="s">
+        <v>165</v>
+      </c>
+      <c r="C11" s="114"/>
+      <c r="D11" s="114"/>
+      <c r="E11" s="114"/>
+      <c r="F11" s="115"/>
     </row>
     <row r="12" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="105"/>
-      <c r="B12" s="106"/>
-      <c r="C12" s="106"/>
-      <c r="D12" s="106"/>
-      <c r="E12" s="106"/>
-      <c r="F12" s="107"/>
+      <c r="A12" s="110"/>
+      <c r="B12" s="111"/>
+      <c r="C12" s="111"/>
+      <c r="D12" s="111"/>
+      <c r="E12" s="111"/>
+      <c r="F12" s="112"/>
     </row>
     <row r="13" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="80" t="s">
+      <c r="A13" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="81"/>
-      <c r="C13" s="81"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="82"/>
+      <c r="B13" s="88"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="89"/>
     </row>
     <row r="14" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
@@ -9935,285 +12233,406 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A15" s="39"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="31"/>
+      <c r="A15" s="36">
+        <v>1</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="F15" s="37">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A16" s="39"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="31"/>
+      <c r="A16" s="36">
+        <v>2</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="F16" s="37">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A17" s="39"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="31"/>
+      <c r="A17" s="36">
+        <v>3</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="F17" s="37">
+        <v>3</v>
+      </c>
     </row>
     <row r="18" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A18" s="39"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="31"/>
+      <c r="A18" s="36">
+        <v>4</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="F18" s="37" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="19" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A19" s="39"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="31"/>
+      <c r="A19" s="36">
+        <v>5</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="F19" s="37">
+        <v>5</v>
+      </c>
     </row>
     <row r="20" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A20" s="39"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="31"/>
+      <c r="A20" s="36">
+        <v>6</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27" t="s">
+        <v>201</v>
+      </c>
+      <c r="F20" s="37">
+        <v>6</v>
+      </c>
     </row>
     <row r="21" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="41"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="43"/>
-    </row>
-    <row r="22" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="105"/>
-      <c r="B22" s="106"/>
-      <c r="C22" s="106"/>
-      <c r="D22" s="106"/>
-      <c r="E22" s="106"/>
-      <c r="F22" s="107"/>
-    </row>
-    <row r="23" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="80" t="s">
+      <c r="A21" s="36">
+        <v>7</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="F21" s="37" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A22" s="36">
+        <v>8</v>
+      </c>
+      <c r="B22" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="F22" s="57">
+        <v>43023</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A23" s="36">
+        <v>9</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="F23" s="57">
+        <v>43026</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A24" s="53">
+        <v>10</v>
+      </c>
+      <c r="B24" s="54" t="s">
+        <v>194</v>
+      </c>
+      <c r="C24" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54" t="s">
+        <v>207</v>
+      </c>
+      <c r="F24" s="55" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="110"/>
+      <c r="B25" s="111"/>
+      <c r="C25" s="111"/>
+      <c r="D25" s="111"/>
+      <c r="E25" s="111"/>
+      <c r="F25" s="112"/>
+    </row>
+    <row r="26" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="87" t="s">
         <v>78</v>
       </c>
-      <c r="B23" s="81"/>
-      <c r="C23" s="81"/>
-      <c r="D23" s="81"/>
-      <c r="E23" s="81"/>
-      <c r="F23" s="82"/>
-    </row>
-    <row r="24" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A24" s="39" t="s">
+      <c r="B26" s="88"/>
+      <c r="C26" s="88"/>
+      <c r="D26" s="88"/>
+      <c r="E26" s="88"/>
+      <c r="F26" s="89"/>
+    </row>
+    <row r="27" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A27" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="40" t="s">
+      <c r="B27" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="40" t="s">
+      <c r="C27" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="40" t="s">
+      <c r="D27" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="E24" s="40" t="s">
+      <c r="E27" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="F24" s="31" t="s">
+      <c r="F27" s="31" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A25" s="39"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="31"/>
-    </row>
-    <row r="26" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A26" s="39"/>
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="31"/>
-    </row>
-    <row r="27" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A27" s="39"/>
-      <c r="B27" s="40"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="31"/>
-    </row>
     <row r="28" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A28" s="41"/>
-      <c r="B28" s="42"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="43"/>
-    </row>
-    <row r="29" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="105"/>
-      <c r="B29" s="106"/>
-      <c r="C29" s="106"/>
-      <c r="D29" s="106"/>
-      <c r="E29" s="106"/>
-      <c r="F29" s="107"/>
-    </row>
-    <row r="30" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="80" t="s">
+      <c r="A28" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="E28" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="F28" s="37" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A29" s="39"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="31"/>
+    </row>
+    <row r="30" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A30" s="39"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="31"/>
+    </row>
+    <row r="31" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A31" s="41"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="43"/>
+    </row>
+    <row r="32" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="110"/>
+      <c r="B32" s="111"/>
+      <c r="C32" s="111"/>
+      <c r="D32" s="111"/>
+      <c r="E32" s="111"/>
+      <c r="F32" s="112"/>
+    </row>
+    <row r="33" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="B30" s="81"/>
-      <c r="C30" s="81"/>
-      <c r="D30" s="81"/>
-      <c r="E30" s="81"/>
-      <c r="F30" s="82"/>
-    </row>
-    <row r="31" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A31" s="39" t="s">
+      <c r="B33" s="88"/>
+      <c r="C33" s="88"/>
+      <c r="D33" s="88"/>
+      <c r="E33" s="88"/>
+      <c r="F33" s="89"/>
+    </row>
+    <row r="34" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A34" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="40" t="s">
+      <c r="B34" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="40" t="s">
+      <c r="C34" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="D31" s="96" t="s">
+      <c r="D34" s="105" t="s">
         <v>66</v>
       </c>
-      <c r="E31" s="96"/>
-      <c r="F31" s="97"/>
-    </row>
-    <row r="32" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A32" s="39"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="98"/>
-      <c r="E32" s="98"/>
-      <c r="F32" s="99"/>
-    </row>
-    <row r="33" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A33" s="39"/>
-      <c r="B33" s="40"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="98"/>
-      <c r="E33" s="98"/>
-      <c r="F33" s="99"/>
-    </row>
-    <row r="34" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A34" s="39"/>
-      <c r="B34" s="40"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="98"/>
-      <c r="E34" s="98"/>
-      <c r="F34" s="99"/>
+      <c r="E34" s="105"/>
+      <c r="F34" s="106"/>
     </row>
     <row r="35" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A35" s="41"/>
-      <c r="B35" s="42"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="94"/>
-      <c r="E35" s="94"/>
-      <c r="F35" s="95"/>
-    </row>
-    <row r="36" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="102"/>
-      <c r="B36" s="103"/>
-      <c r="C36" s="103"/>
-      <c r="D36" s="103"/>
-      <c r="E36" s="103"/>
-      <c r="F36" s="104"/>
-    </row>
-    <row r="37" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="80" t="s">
+      <c r="A35" s="39"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="108"/>
+      <c r="E35" s="108"/>
+      <c r="F35" s="109"/>
+    </row>
+    <row r="36" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A36" s="39"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="108"/>
+      <c r="E36" s="108"/>
+      <c r="F36" s="109"/>
+    </row>
+    <row r="37" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A37" s="39"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="108"/>
+      <c r="E37" s="108"/>
+      <c r="F37" s="109"/>
+    </row>
+    <row r="38" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A38" s="41"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="114"/>
+      <c r="E38" s="114"/>
+      <c r="F38" s="115"/>
+    </row>
+    <row r="39" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="116"/>
+      <c r="B39" s="117"/>
+      <c r="C39" s="117"/>
+      <c r="D39" s="117"/>
+      <c r="E39" s="117"/>
+      <c r="F39" s="118"/>
+    </row>
+    <row r="40" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="B37" s="81"/>
-      <c r="C37" s="81"/>
-      <c r="D37" s="81"/>
-      <c r="E37" s="81"/>
-      <c r="F37" s="82"/>
-    </row>
-    <row r="38" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="100"/>
-      <c r="B38" s="96"/>
-      <c r="C38" s="96"/>
-      <c r="D38" s="96"/>
-      <c r="E38" s="96"/>
-      <c r="F38" s="97"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="108"/>
-      <c r="B39" s="98"/>
-      <c r="C39" s="98"/>
-      <c r="D39" s="98"/>
-      <c r="E39" s="98"/>
-      <c r="F39" s="99"/>
-    </row>
-    <row r="40" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="105"/>
-      <c r="B40" s="106"/>
-      <c r="C40" s="106"/>
-      <c r="D40" s="106"/>
-      <c r="E40" s="106"/>
-      <c r="F40" s="107"/>
-    </row>
-    <row r="41" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="80" t="s">
+      <c r="B40" s="88"/>
+      <c r="C40" s="88"/>
+      <c r="D40" s="88"/>
+      <c r="E40" s="88"/>
+      <c r="F40" s="89"/>
+    </row>
+    <row r="41" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="104"/>
+      <c r="B41" s="105"/>
+      <c r="C41" s="105"/>
+      <c r="D41" s="105"/>
+      <c r="E41" s="105"/>
+      <c r="F41" s="106"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="107"/>
+      <c r="B42" s="108"/>
+      <c r="C42" s="108"/>
+      <c r="D42" s="108"/>
+      <c r="E42" s="108"/>
+      <c r="F42" s="109"/>
+    </row>
+    <row r="43" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="110"/>
+      <c r="B43" s="111"/>
+      <c r="C43" s="111"/>
+      <c r="D43" s="111"/>
+      <c r="E43" s="111"/>
+      <c r="F43" s="112"/>
+    </row>
+    <row r="44" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="B41" s="81"/>
-      <c r="C41" s="81"/>
-      <c r="D41" s="81"/>
-      <c r="E41" s="81"/>
-      <c r="F41" s="82"/>
-    </row>
-    <row r="42" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="100"/>
-      <c r="B42" s="96"/>
-      <c r="C42" s="96"/>
-      <c r="D42" s="96"/>
-      <c r="E42" s="96"/>
-      <c r="F42" s="97"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="101"/>
-      <c r="B43" s="94"/>
-      <c r="C43" s="94"/>
-      <c r="D43" s="94"/>
-      <c r="E43" s="94"/>
-      <c r="F43" s="95"/>
+      <c r="B44" s="88"/>
+      <c r="C44" s="88"/>
+      <c r="D44" s="88"/>
+      <c r="E44" s="88"/>
+      <c r="F44" s="89"/>
+    </row>
+    <row r="45" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="104"/>
+      <c r="B45" s="105"/>
+      <c r="C45" s="105"/>
+      <c r="D45" s="105"/>
+      <c r="E45" s="105"/>
+      <c r="F45" s="106"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="113"/>
+      <c r="B46" s="114"/>
+      <c r="C46" s="114"/>
+      <c r="D46" s="114"/>
+      <c r="E46" s="114"/>
+      <c r="F46" s="115"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A38:F39"/>
-    <mergeCell ref="A42:F43"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="A41:F41"/>
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A40:F40"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
@@ -10224,7 +12643,20 @@
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:F10"/>
-    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A41:F42"/>
+    <mergeCell ref="A45:F46"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="A44:F44"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Colocar percentagem_x000a_" sqref="B10:C10" xr:uid="{C44B2955-AB0E-5E4A-9201-AF72D21AA99A}"/>
@@ -10243,12 +12675,6 @@
           </x14:formula1>
           <xm:sqref>D10:F10</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DD2208DA-A761-CC4E-AFB9-6BB9F11CD72B}">
-          <x14:formula1>
-            <xm:f>Metadata!$A$43:$A$44</xm:f>
-          </x14:formula1>
-          <xm:sqref>C15:C21</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FFAFF4A2-E9FA-F642-A54E-ADFEA6D3C47F}">
           <x14:formula1>
             <xm:f>Metadata!$A$2:$A$4</xm:f>
@@ -10265,25 +12691,31 @@
           <x14:formula1>
             <xm:f>Metadata!$A$48:$A$50</xm:f>
           </x14:formula1>
-          <xm:sqref>C25:C28</xm:sqref>
+          <xm:sqref>C28:C31</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{156A0EFB-8E48-9B48-8C07-A6C422FC57B3}">
           <x14:formula1>
             <xm:f>Metadata!$A$54:$A$56</xm:f>
           </x14:formula1>
-          <xm:sqref>D25:D28</xm:sqref>
+          <xm:sqref>D28:D31</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7B766ADF-7B36-3443-98C3-27F0864D0788}">
           <x14:formula1>
             <xm:f>Metadata!$A$33:$A$34</xm:f>
           </x14:formula1>
-          <xm:sqref>C32</xm:sqref>
+          <xm:sqref>C35</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{110E4127-97AC-8347-A439-E71669B8953E}">
           <x14:formula1>
             <xm:f>Metadata!$A$37:$A$41</xm:f>
           </x14:formula1>
-          <xm:sqref>D32:D35</xm:sqref>
+          <xm:sqref>D35:D38</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DD2208DA-A761-CC4E-AFB9-6BB9F11CD72B}">
+          <x14:formula1>
+            <xm:f>Metadata!$A$43:$A$44</xm:f>
+          </x14:formula1>
+          <xm:sqref>C15:C24</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -10291,382 +12723,856 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F56D591A-F277-D248-BC6E-ABCB9483D3AC}">
-  <sheetPr codeName="Sheet5">
-    <tabColor rgb="FFFF0000"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9D5AC07-1713-D745-BCB5-1F7725590A4C}">
+  <sheetPr>
+    <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:A56"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43.83203125" customWidth="1"/>
+    <col min="1" max="4" width="30.83203125" customWidth="1"/>
+    <col min="5" max="5" width="64.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="1" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="79" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="81"/>
+    </row>
+    <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="121" t="s">
+        <v>235</v>
+      </c>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="122"/>
+    </row>
+    <row r="3" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="96" t="s">
+        <v>180</v>
+      </c>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="97"/>
+    </row>
+    <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A4" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="96" t="s">
+        <v>163</v>
+      </c>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="97"/>
+    </row>
+    <row r="5" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A5" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="96" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="97"/>
+    </row>
+    <row r="6" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A6" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="96" t="s">
+        <v>227</v>
+      </c>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="97"/>
+    </row>
+    <row r="7" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A7" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="96" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="96"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="97"/>
+    </row>
+    <row r="8" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A8" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="96" t="s">
+        <v>164</v>
+      </c>
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="97"/>
+    </row>
+    <row r="9" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A9" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="96"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="96"/>
+      <c r="E9" s="96"/>
+      <c r="F9" s="97"/>
+    </row>
+    <row r="10" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A10" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="123">
+        <v>0.5</v>
+      </c>
+      <c r="C10" s="96"/>
+      <c r="D10" s="96" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="96"/>
+      <c r="F10" s="97"/>
+    </row>
+    <row r="11" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A11" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="119" t="s">
+        <v>165</v>
+      </c>
+      <c r="C11" s="119"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
+      <c r="F11" s="120"/>
+    </row>
+    <row r="12" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="110"/>
+      <c r="B12" s="111"/>
+      <c r="C12" s="111"/>
+      <c r="D12" s="111"/>
+      <c r="E12" s="111"/>
+      <c r="F12" s="112"/>
+    </row>
+    <row r="13" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="87" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="88"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="89"/>
+    </row>
+    <row r="14" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A14" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A15" s="36">
+        <v>1</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="F15" s="37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A16" s="36">
+        <v>2</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="F16" s="37">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="17" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A17" s="36">
+        <v>3</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="F17" s="37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A18" s="36">
+        <v>4</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="F18" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A19" s="36">
+        <v>5</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="F19" s="37">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A20" s="36">
+        <v>6</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="F20" s="37" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A21" s="27">
+        <v>7</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="F21" s="37">
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+    <row r="22" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A22" s="27">
+        <v>8</v>
+      </c>
+      <c r="B22" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="C22" s="27" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+      <c r="D22" s="27"/>
+      <c r="E22" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="F22" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A23" s="53">
+        <v>9</v>
+      </c>
+      <c r="B23" s="54" t="s">
+        <v>208</v>
+      </c>
+      <c r="C23" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54" t="s">
+        <v>175</v>
+      </c>
+      <c r="F23" s="37" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="110"/>
+      <c r="B24" s="111"/>
+      <c r="C24" s="111"/>
+      <c r="D24" s="111"/>
+      <c r="E24" s="111"/>
+      <c r="F24" s="112"/>
+    </row>
+    <row r="25" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="87" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" s="88"/>
+      <c r="C25" s="88"/>
+      <c r="D25" s="88"/>
+      <c r="E25" s="88"/>
+      <c r="F25" s="89"/>
+    </row>
+    <row r="26" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A26" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="E26" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" s="31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A27" s="36" t="s">
+        <v>199</v>
+      </c>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+      <c r="D27" s="27" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>87</v>
-      </c>
+      <c r="E27" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="F27" s="37">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A28" s="39"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="31"/>
+    </row>
+    <row r="29" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A29" s="39"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="31"/>
+    </row>
+    <row r="30" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A30" s="41"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="43"/>
+    </row>
+    <row r="31" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="110"/>
+      <c r="B31" s="111"/>
+      <c r="C31" s="111"/>
+      <c r="D31" s="111"/>
+      <c r="E31" s="111"/>
+      <c r="F31" s="112"/>
+    </row>
+    <row r="32" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="87" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" s="88"/>
+      <c r="C32" s="88"/>
+      <c r="D32" s="88"/>
+      <c r="E32" s="88"/>
+      <c r="F32" s="89"/>
+    </row>
+    <row r="33" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A33" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="105" t="s">
+        <v>66</v>
+      </c>
+      <c r="E33" s="105"/>
+      <c r="F33" s="106"/>
+    </row>
+    <row r="34" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A34" s="39"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="108"/>
+      <c r="E34" s="108"/>
+      <c r="F34" s="109"/>
+    </row>
+    <row r="35" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A35" s="39"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="108"/>
+      <c r="E35" s="108"/>
+      <c r="F35" s="109"/>
+    </row>
+    <row r="36" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A36" s="39"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="108"/>
+      <c r="E36" s="108"/>
+      <c r="F36" s="109"/>
+    </row>
+    <row r="37" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A37" s="41"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="114"/>
+      <c r="E37" s="114"/>
+      <c r="F37" s="115"/>
+    </row>
+    <row r="38" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="116"/>
+      <c r="B38" s="117"/>
+      <c r="C38" s="117"/>
+      <c r="D38" s="117"/>
+      <c r="E38" s="117"/>
+      <c r="F38" s="118"/>
+    </row>
+    <row r="39" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="87" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" s="88"/>
+      <c r="C39" s="88"/>
+      <c r="D39" s="88"/>
+      <c r="E39" s="88"/>
+      <c r="F39" s="89"/>
+    </row>
+    <row r="40" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="104"/>
+      <c r="B40" s="105"/>
+      <c r="C40" s="105"/>
+      <c r="D40" s="105"/>
+      <c r="E40" s="105"/>
+      <c r="F40" s="106"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="107"/>
+      <c r="B41" s="108"/>
+      <c r="C41" s="108"/>
+      <c r="D41" s="108"/>
+      <c r="E41" s="108"/>
+      <c r="F41" s="109"/>
+    </row>
+    <row r="42" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="110"/>
+      <c r="B42" s="111"/>
+      <c r="C42" s="111"/>
+      <c r="D42" s="111"/>
+      <c r="E42" s="111"/>
+      <c r="F42" s="112"/>
+    </row>
+    <row r="43" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="87" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" s="88"/>
+      <c r="C43" s="88"/>
+      <c r="D43" s="88"/>
+      <c r="E43" s="88"/>
+      <c r="F43" s="89"/>
+    </row>
+    <row r="44" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="104"/>
+      <c r="B44" s="105"/>
+      <c r="C44" s="105"/>
+      <c r="D44" s="105"/>
+      <c r="E44" s="105"/>
+      <c r="F44" s="106"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="113"/>
+      <c r="B45" s="114"/>
+      <c r="C45" s="114"/>
+      <c r="D45" s="114"/>
+      <c r="E45" s="114"/>
+      <c r="F45" s="115"/>
     </row>
   </sheetData>
+  <mergeCells count="29">
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="A40:F41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="A44:F45"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+  </mergeCells>
+  <dataValidations count="5">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Colocar percentagem_x000a_" sqref="B10:C10" xr:uid="{8EDB03EC-30FB-484C-ACBE-DF33B9366718}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Nome do data mart ao qual a tabela de factos pertence" sqref="B4:F4" xr:uid="{B1627433-412B-3B4F-8649-C6564A989079}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Exemplo:_x000a_&quot;Incentivar as vendas de telemóveis&quot;" sqref="B6:F6" xr:uid="{730B05A8-2AEB-1849-8AD5-A46B1E7B051F}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Exemplo:_x000a_&quot;Entre as 2 e as 5 da manhã&quot;" sqref="B8:F8" xr:uid="{786BA3BD-069D-5E42-BF7F-EDF74DB869C7}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Exemplo:_x000a_&quot;Dados dos últimos 4 anos&quot;" sqref="B11:F11" xr:uid="{3F7A8EC2-FE1C-8248-B97D-8B8B06B348CB}"/>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="8">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{152A5A20-C0B5-8346-829C-AA213D993E7B}">
+          <x14:formula1>
+            <xm:f>Metadata!$A$43:$A$44</xm:f>
+          </x14:formula1>
+          <xm:sqref>C15:C23</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BCEE7AF6-FB2A-D549-AAA0-A425051E4FBD}">
+          <x14:formula1>
+            <xm:f>Metadata!$A$21:$A$23</xm:f>
+          </x14:formula1>
+          <xm:sqref>D10:F10</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A8DC3F55-561F-7B45-A27E-3B740261BEAB}">
+          <x14:formula1>
+            <xm:f>Metadata!$A$2:$A$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>B5:F5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{78A15191-C061-4840-88F4-5F7EFB3F914D}">
+          <x14:formula1>
+            <xm:f>Metadata!$A$7:$A$11</xm:f>
+          </x14:formula1>
+          <xm:sqref>B7:F7</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CFEDC325-92AB-7242-AD61-220D1FABE9B4}">
+          <x14:formula1>
+            <xm:f>Metadata!$A$48:$A$50</xm:f>
+          </x14:formula1>
+          <xm:sqref>C27:C30</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{12F1460B-C5F3-3849-87D4-D6D3B1BC42AE}">
+          <x14:formula1>
+            <xm:f>Metadata!$A$54:$A$56</xm:f>
+          </x14:formula1>
+          <xm:sqref>D27:D30</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5390260B-45C4-6A4F-8570-075A21FC4F18}">
+          <x14:formula1>
+            <xm:f>Metadata!$A$33:$A$34</xm:f>
+          </x14:formula1>
+          <xm:sqref>C34</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9C8102FD-AFAD-8B46-B471-21F571E492B1}">
+          <x14:formula1>
+            <xm:f>Metadata!$A$37:$A$41</xm:f>
+          </x14:formula1>
+          <xm:sqref>D34:D37</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B34CF0A5-BCFD-6C4D-BD6A-52FE7B6EF76F}">
-  <sheetPr codeName="Sheet6">
-    <tabColor theme="6"/>
-  </sheetPr>
-  <dimension ref="A1:E17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="14.1640625" customWidth="1"/>
-    <col min="5" max="5" width="59.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="50" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="11"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="15"/>
-    </row>
-    <row r="3" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="11"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="16"/>
-    </row>
-    <row r="4" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="17"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="20"/>
-    </row>
-    <row r="5" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="17"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="21"/>
-    </row>
-    <row r="6" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="17"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="21"/>
-    </row>
-    <row r="7" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="21"/>
-    </row>
-    <row r="8" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="17"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="21"/>
-    </row>
-    <row r="9" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="17"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="21"/>
-    </row>
-    <row r="10" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="17"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="21"/>
-    </row>
-    <row r="11" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="17"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="21"/>
-    </row>
-    <row r="12" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="17"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="21"/>
-    </row>
-    <row r="13" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="17"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="21"/>
-    </row>
-    <row r="14" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="17"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="21"/>
-    </row>
-    <row r="15" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="17"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="21"/>
-    </row>
-    <row r="16" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="17"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="21"/>
-    </row>
-    <row r="17" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="22"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="25"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010000413521DB14504EBC2CEE8F602E9110" ma:contentTypeVersion="3" ma:contentTypeDescription="Criar um novo documento." ma:contentTypeScope="" ma:versionID="5e837a68ecc1153f57cab4d438bd05c7">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6597237e-e321-437a-ab0e-fe3e3f709099" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="725a829ca1dd6649c0d3cb48a8111ee4" ns2:_="">
+    <xsd:import namespace="6597237e-e321-437a-ab0e-fe3e3f709099"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="6597237e-e321-437a-ab0e-fe3e3f709099" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de Conteúdo"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FCF46D4-6C3F-4211-BBB9-5DE005064C3C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{053E1D2F-2C77-41F8-9193-DF9373F17EFB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="6597237e-e321-437a-ab0e-fe3e3f709099"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30DE7E78-AB24-4BCB-A51F-77E5C10364A7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="6597237e-e321-437a-ab0e-fe3e3f709099"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/docs/documentacao.xlsx
+++ b/docs/documentacao.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/micaelmbp/Documents/ENG-2022/TAAD/GlobalTech_ETL/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3567A9C6-A99D-2C49-BEE0-D3585F6A584C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{947B84C8-FC92-B148-8E54-E34745101C5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="7" xr2:uid="{1C0ABE59-C842-1448-8BFE-1E96A6C9A910}"/>
   </bookViews>

--- a/docs/documentacao.xlsx
+++ b/docs/documentacao.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/micaelmbp/Documents/ENG-2022/TAAD/GlobalTech_ETL/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaobraganca/Desktop/ParallelsShared/GlobalTech_ETL/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{947B84C8-FC92-B148-8E54-E34745101C5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC5648DB-F409-F743-84F6-5F922619C4B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="7" xr2:uid="{1C0ABE59-C842-1448-8BFE-1E96A6C9A910}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="28300" xr2:uid="{1C0ABE59-C842-1448-8BFE-1E96A6C9A910}"/>
   </bookViews>
   <sheets>
     <sheet name="Matriz de decisão" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="246">
   <si>
     <t>Caracterização do Data Mart</t>
   </si>
@@ -148,9 +148,6 @@
     <t>Tabelas de dimensão &lt;&lt;</t>
   </si>
   <si>
-    <t xml:space="preserve">TF - </t>
-  </si>
-  <si>
     <t>TF -</t>
   </si>
   <si>
@@ -755,6 +752,36 @@
   </si>
   <si>
     <t>FACT_cancellation</t>
+  </si>
+  <si>
+    <t>DIM - Customer</t>
+  </si>
+  <si>
+    <t>DIM - Employee</t>
+  </si>
+  <si>
+    <t>DIM - Warehouse</t>
+  </si>
+  <si>
+    <t>DIM - Date</t>
+  </si>
+  <si>
+    <t>DIM - Product</t>
+  </si>
+  <si>
+    <t>TF - Order</t>
+  </si>
+  <si>
+    <t>TF - Order Payment</t>
+  </si>
+  <si>
+    <t>TF - Shippment</t>
+  </si>
+  <si>
+    <t>TF - Cancellation</t>
+  </si>
+  <si>
+    <t>DIM - Payment Method</t>
   </si>
 </sst>
 </file>
@@ -1445,6 +1472,57 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1478,57 +1556,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1536,51 +1563,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1596,6 +1578,51 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1764,15 +1791,15 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp12.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1788,7 +1815,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp15.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp16.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1796,7 +1823,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp17.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp18.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1804,15 +1831,15 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp19.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp20.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp21.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1824,11 +1851,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp23.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp24.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp25.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1836,7 +1863,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp26.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp27.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1848,27 +1875,27 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp29.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp30.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp31.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp32.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp33.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp34.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1896,7 +1923,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp40.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1940,7 +1967,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp50.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1984,7 +2011,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5762,7 +5789,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6050,7 +6077,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6063,8 +6090,8 @@
   </sheetPr>
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6125,25 +6152,25 @@
         <v>32</v>
       </c>
       <c r="B5" s="47" t="s">
+        <v>241</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>35</v>
-      </c>
       <c r="G5" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.25">
@@ -6160,7 +6187,7 @@
     </row>
     <row r="7" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>36</v>
+        <v>236</v>
       </c>
       <c r="B7" s="48"/>
       <c r="C7" s="3"/>
@@ -6172,7 +6199,7 @@
     </row>
     <row r="8" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>36</v>
+        <v>237</v>
       </c>
       <c r="B8" s="48"/>
       <c r="C8" s="3"/>
@@ -6184,7 +6211,7 @@
     </row>
     <row r="9" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>36</v>
+        <v>238</v>
       </c>
       <c r="B9" s="48"/>
       <c r="C9" s="3"/>
@@ -6196,7 +6223,7 @@
     </row>
     <row r="10" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>36</v>
+        <v>239</v>
       </c>
       <c r="B10" s="48"/>
       <c r="C10" s="3"/>
@@ -6208,7 +6235,7 @@
     </row>
     <row r="11" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>36</v>
+        <v>240</v>
       </c>
       <c r="B11" s="48"/>
       <c r="C11" s="3"/>
@@ -6220,7 +6247,7 @@
     </row>
     <row r="12" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B12" s="48"/>
       <c r="C12" s="3"/>
@@ -6232,7 +6259,7 @@
     </row>
     <row r="13" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>36</v>
+        <v>245</v>
       </c>
       <c r="B13" s="48"/>
       <c r="C13" s="3"/>
@@ -6244,7 +6271,7 @@
     </row>
     <row r="14" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B14" s="48"/>
       <c r="C14" s="3"/>
@@ -6268,10 +6295,18 @@
       <c r="A16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="49"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
+      <c r="B16" s="49">
+        <v>5</v>
+      </c>
+      <c r="C16" s="6">
+        <v>5</v>
+      </c>
+      <c r="D16" s="6">
+        <v>4</v>
+      </c>
+      <c r="E16" s="6">
+        <v>6</v>
+      </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
@@ -6280,10 +6315,18 @@
       <c r="A17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="48"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+      <c r="B17" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
@@ -6292,10 +6335,18 @@
       <c r="A18" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="48"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+      <c r="B18" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -7695,152 +7746,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="79" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="81"/>
+      <c r="A1" s="96" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="98"/>
     </row>
     <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="121" t="s">
-        <v>236</v>
-      </c>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="122"/>
+      <c r="B2" s="106" t="s">
+        <v>235</v>
+      </c>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="107"/>
     </row>
     <row r="3" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="96" t="s">
-        <v>216</v>
-      </c>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="97"/>
+      <c r="B3" s="77" t="s">
+        <v>215</v>
+      </c>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="78"/>
     </row>
     <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="96" t="s">
-        <v>163</v>
-      </c>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="97"/>
+      <c r="B4" s="77" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="78"/>
     </row>
     <row r="5" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="96" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="96"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="97"/>
+      <c r="B5" s="77" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="78"/>
     </row>
     <row r="6" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="96" t="s">
-        <v>217</v>
-      </c>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="97"/>
+      <c r="B6" s="77" t="s">
+        <v>216</v>
+      </c>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="78"/>
     </row>
     <row r="7" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="96" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="96"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="96"/>
-      <c r="F7" s="97"/>
+      <c r="B7" s="77" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="78"/>
     </row>
     <row r="8" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="B8" s="96" t="s">
-        <v>164</v>
-      </c>
-      <c r="C8" s="96"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="97"/>
+        <v>73</v>
+      </c>
+      <c r="B8" s="77" t="s">
+        <v>163</v>
+      </c>
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="78"/>
     </row>
     <row r="9" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="B9" s="96"/>
-      <c r="C9" s="96"/>
-      <c r="D9" s="96"/>
-      <c r="E9" s="96"/>
-      <c r="F9" s="97"/>
+        <v>74</v>
+      </c>
+      <c r="B9" s="77"/>
+      <c r="C9" s="77"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="78"/>
     </row>
     <row r="10" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="123">
+      <c r="B10" s="108">
         <v>0.3</v>
       </c>
-      <c r="C10" s="96"/>
-      <c r="D10" s="96" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="96"/>
-      <c r="F10" s="97"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="77" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="77"/>
+      <c r="F10" s="78"/>
     </row>
     <row r="11" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="119" t="s">
-        <v>165</v>
-      </c>
-      <c r="C11" s="119"/>
-      <c r="D11" s="119"/>
-      <c r="E11" s="119"/>
-      <c r="F11" s="120"/>
+      <c r="B11" s="104" t="s">
+        <v>164</v>
+      </c>
+      <c r="C11" s="104"/>
+      <c r="D11" s="104"/>
+      <c r="E11" s="104"/>
+      <c r="F11" s="105"/>
     </row>
     <row r="12" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="110"/>
-      <c r="B12" s="111"/>
-      <c r="C12" s="111"/>
-      <c r="D12" s="111"/>
-      <c r="E12" s="111"/>
-      <c r="F12" s="112"/>
+      <c r="A12" s="112"/>
+      <c r="B12" s="113"/>
+      <c r="C12" s="113"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="113"/>
+      <c r="F12" s="114"/>
     </row>
     <row r="13" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="87" t="s">
+      <c r="A13" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="88"/>
-      <c r="C13" s="88"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="89"/>
+      <c r="B13" s="85"/>
+      <c r="C13" s="85"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="86"/>
     </row>
     <row r="14" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
@@ -7867,14 +7918,14 @@
         <v>1</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D15" s="27"/>
       <c r="E15" s="27" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F15" s="37">
         <v>2</v>
@@ -7885,14 +7936,14 @@
         <v>2</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D16" s="27"/>
       <c r="E16" s="27" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F16" s="37">
         <v>6</v>
@@ -7903,14 +7954,14 @@
         <v>3</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D17" s="27"/>
       <c r="E17" s="27" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F17" s="37">
         <v>2</v>
@@ -7921,14 +7972,14 @@
         <v>4</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D18" s="27"/>
       <c r="E18" s="27" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F18" s="37">
         <v>2</v>
@@ -7939,14 +7990,14 @@
         <v>5</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D19" s="27"/>
       <c r="E19" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F19" s="37">
         <v>1</v>
@@ -7957,17 +8008,17 @@
         <v>6</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D20" s="27"/>
       <c r="E20" s="27" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F20" s="37" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
@@ -7975,28 +8026,28 @@
         <v>7</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D21" s="27"/>
       <c r="E21" s="27" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F21" s="37" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="87" t="s">
-        <v>78</v>
-      </c>
-      <c r="B22" s="88"/>
-      <c r="C22" s="88"/>
-      <c r="D22" s="88"/>
-      <c r="E22" s="88"/>
-      <c r="F22" s="89"/>
+      <c r="A22" s="84" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="85"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="85"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="86"/>
     </row>
     <row r="23" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="39" t="s">
@@ -8009,7 +8060,7 @@
         <v>5</v>
       </c>
       <c r="D23" s="40" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E23" s="40" t="s">
         <v>7</v>
@@ -8020,17 +8071,17 @@
     </row>
     <row r="24" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="36" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B24" s="56"/>
       <c r="C24" s="27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E24" s="27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F24" s="37">
         <v>30</v>
@@ -8056,22 +8107,22 @@
       <c r="F27" s="43"/>
     </row>
     <row r="28" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="110"/>
-      <c r="B28" s="111"/>
-      <c r="C28" s="111"/>
-      <c r="D28" s="111"/>
-      <c r="E28" s="111"/>
-      <c r="F28" s="112"/>
+      <c r="A28" s="112"/>
+      <c r="B28" s="113"/>
+      <c r="C28" s="113"/>
+      <c r="D28" s="113"/>
+      <c r="E28" s="113"/>
+      <c r="F28" s="114"/>
     </row>
     <row r="29" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="87" t="s">
+      <c r="A29" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="88"/>
-      <c r="C29" s="88"/>
-      <c r="D29" s="88"/>
-      <c r="E29" s="88"/>
-      <c r="F29" s="89"/>
+      <c r="B29" s="85"/>
+      <c r="C29" s="85"/>
+      <c r="D29" s="85"/>
+      <c r="E29" s="85"/>
+      <c r="F29" s="86"/>
     </row>
     <row r="30" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="39" t="s">
@@ -8083,130 +8134,114 @@
       <c r="C30" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="D30" s="105" t="s">
-        <v>66</v>
-      </c>
-      <c r="E30" s="105"/>
-      <c r="F30" s="106"/>
+      <c r="D30" s="115" t="s">
+        <v>65</v>
+      </c>
+      <c r="E30" s="115"/>
+      <c r="F30" s="116"/>
     </row>
     <row r="31" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A31" s="39"/>
       <c r="B31" s="40"/>
       <c r="C31" s="40"/>
-      <c r="D31" s="108"/>
-      <c r="E31" s="108"/>
-      <c r="F31" s="109"/>
+      <c r="D31" s="117"/>
+      <c r="E31" s="117"/>
+      <c r="F31" s="118"/>
     </row>
     <row r="32" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A32" s="39"/>
       <c r="B32" s="40"/>
       <c r="C32" s="40"/>
-      <c r="D32" s="108"/>
-      <c r="E32" s="108"/>
-      <c r="F32" s="109"/>
+      <c r="D32" s="117"/>
+      <c r="E32" s="117"/>
+      <c r="F32" s="118"/>
     </row>
     <row r="33" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A33" s="39"/>
       <c r="B33" s="40"/>
       <c r="C33" s="40"/>
-      <c r="D33" s="108"/>
-      <c r="E33" s="108"/>
-      <c r="F33" s="109"/>
+      <c r="D33" s="117"/>
+      <c r="E33" s="117"/>
+      <c r="F33" s="118"/>
     </row>
     <row r="34" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A34" s="41"/>
       <c r="B34" s="42"/>
       <c r="C34" s="42"/>
-      <c r="D34" s="114"/>
-      <c r="E34" s="114"/>
-      <c r="F34" s="115"/>
+      <c r="D34" s="119"/>
+      <c r="E34" s="119"/>
+      <c r="F34" s="120"/>
     </row>
     <row r="35" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="116"/>
-      <c r="B35" s="117"/>
-      <c r="C35" s="117"/>
-      <c r="D35" s="117"/>
-      <c r="E35" s="117"/>
-      <c r="F35" s="118"/>
+      <c r="A35" s="109"/>
+      <c r="B35" s="110"/>
+      <c r="C35" s="110"/>
+      <c r="D35" s="110"/>
+      <c r="E35" s="110"/>
+      <c r="F35" s="111"/>
     </row>
     <row r="36" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="87" t="s">
+      <c r="A36" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="B36" s="88"/>
-      <c r="C36" s="88"/>
-      <c r="D36" s="88"/>
-      <c r="E36" s="88"/>
-      <c r="F36" s="89"/>
+      <c r="B36" s="85"/>
+      <c r="C36" s="85"/>
+      <c r="D36" s="85"/>
+      <c r="E36" s="85"/>
+      <c r="F36" s="86"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="104"/>
-      <c r="B37" s="105"/>
-      <c r="C37" s="105"/>
-      <c r="D37" s="105"/>
-      <c r="E37" s="105"/>
-      <c r="F37" s="106"/>
+      <c r="A37" s="121"/>
+      <c r="B37" s="115"/>
+      <c r="C37" s="115"/>
+      <c r="D37" s="115"/>
+      <c r="E37" s="115"/>
+      <c r="F37" s="116"/>
     </row>
     <row r="38" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="107"/>
-      <c r="B38" s="108"/>
-      <c r="C38" s="108"/>
-      <c r="D38" s="108"/>
-      <c r="E38" s="108"/>
-      <c r="F38" s="109"/>
+      <c r="A38" s="122"/>
+      <c r="B38" s="117"/>
+      <c r="C38" s="117"/>
+      <c r="D38" s="117"/>
+      <c r="E38" s="117"/>
+      <c r="F38" s="118"/>
     </row>
     <row r="39" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="110"/>
-      <c r="B39" s="111"/>
-      <c r="C39" s="111"/>
-      <c r="D39" s="111"/>
-      <c r="E39" s="111"/>
-      <c r="F39" s="112"/>
+      <c r="A39" s="112"/>
+      <c r="B39" s="113"/>
+      <c r="C39" s="113"/>
+      <c r="D39" s="113"/>
+      <c r="E39" s="113"/>
+      <c r="F39" s="114"/>
     </row>
     <row r="40" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="87" t="s">
+      <c r="A40" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="B40" s="88"/>
-      <c r="C40" s="88"/>
-      <c r="D40" s="88"/>
-      <c r="E40" s="88"/>
-      <c r="F40" s="89"/>
+      <c r="B40" s="85"/>
+      <c r="C40" s="85"/>
+      <c r="D40" s="85"/>
+      <c r="E40" s="85"/>
+      <c r="F40" s="86"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="104"/>
-      <c r="B41" s="105"/>
-      <c r="C41" s="105"/>
-      <c r="D41" s="105"/>
-      <c r="E41" s="105"/>
-      <c r="F41" s="106"/>
+      <c r="A41" s="121"/>
+      <c r="B41" s="115"/>
+      <c r="C41" s="115"/>
+      <c r="D41" s="115"/>
+      <c r="E41" s="115"/>
+      <c r="F41" s="116"/>
     </row>
     <row r="42" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="113"/>
-      <c r="B42" s="114"/>
-      <c r="C42" s="114"/>
-      <c r="D42" s="114"/>
-      <c r="E42" s="114"/>
-      <c r="F42" s="115"/>
+      <c r="A42" s="123"/>
+      <c r="B42" s="119"/>
+      <c r="C42" s="119"/>
+      <c r="D42" s="119"/>
+      <c r="E42" s="119"/>
+      <c r="F42" s="120"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="A37:F38"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="A41:F42"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D34:F34"/>
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B2:F2"/>
@@ -8219,6 +8254,22 @@
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:F10"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="A37:F38"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="A41:F42"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Colocar percentagem_x000a_" sqref="B10:C10" xr:uid="{2B355D78-2274-AF4C-B934-68ADBC7FB191}"/>
@@ -8303,22 +8354,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
@@ -8328,182 +8379,182 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -8530,19 +8581,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="10" t="s">
         <v>49</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="50" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
@@ -8685,95 +8736,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="96" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="81"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="98"/>
     </row>
     <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="82" t="s">
-        <v>228</v>
+      <c r="B2" s="99" t="s">
+        <v>227</v>
       </c>
       <c r="C2" s="67"/>
       <c r="D2" s="67"/>
       <c r="E2" s="67"/>
       <c r="F2" s="67"/>
-      <c r="G2" s="83"/>
+      <c r="G2" s="100"/>
     </row>
     <row r="3" spans="1:7" ht="46" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="84" t="s">
-        <v>89</v>
+      <c r="B3" s="79" t="s">
+        <v>88</v>
       </c>
       <c r="C3" s="68"/>
       <c r="D3" s="68"/>
       <c r="E3" s="68"/>
       <c r="F3" s="68"/>
-      <c r="G3" s="85"/>
+      <c r="G3" s="80"/>
     </row>
     <row r="4" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="84" t="s">
-        <v>52</v>
+      <c r="B4" s="79" t="s">
+        <v>51</v>
       </c>
       <c r="C4" s="68"/>
       <c r="D4" s="68"/>
       <c r="E4" s="68"/>
       <c r="F4" s="68"/>
-      <c r="G4" s="85"/>
+      <c r="G4" s="80"/>
     </row>
     <row r="5" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="84" t="s">
-        <v>88</v>
+      <c r="B5" s="79" t="s">
+        <v>87</v>
       </c>
       <c r="C5" s="68"/>
       <c r="D5" s="68"/>
       <c r="E5" s="68"/>
       <c r="F5" s="68"/>
-      <c r="G5" s="85"/>
+      <c r="G5" s="80"/>
     </row>
     <row r="6" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="73"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="76" t="s">
-        <v>58</v>
-      </c>
-      <c r="F6" s="77"/>
-      <c r="G6" s="78"/>
+      <c r="B6" s="90"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="94"/>
+      <c r="G6" s="95"/>
     </row>
     <row r="7" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="35"/>
       <c r="G7" s="33"/>
     </row>
     <row r="8" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="87" t="s">
+      <c r="A8" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="88"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="88"/>
-      <c r="G8" s="89"/>
+      <c r="B8" s="85"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="86"/>
     </row>
     <row r="9" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
@@ -8803,15 +8854,15 @@
         <v>1</v>
       </c>
       <c r="B10" s="51" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C10" s="51"/>
       <c r="D10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E10" s="51"/>
       <c r="F10" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G10" s="51">
         <v>1</v>
@@ -8822,20 +8873,20 @@
         <v>2</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="21" x14ac:dyDescent="0.25">
@@ -8843,20 +8894,20 @@
         <v>3</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="21" x14ac:dyDescent="0.25">
@@ -8864,20 +8915,20 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="21" x14ac:dyDescent="0.25">
@@ -8885,20 +8936,20 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="21" x14ac:dyDescent="0.25">
@@ -8906,20 +8957,20 @@
         <v>6</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="21" x14ac:dyDescent="0.25">
@@ -8927,17 +8978,17 @@
         <v>7</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G16" s="1">
         <v>99236</v>
@@ -8962,7 +9013,7 @@
       <c r="G18" s="37"/>
     </row>
     <row r="19" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A19" s="90" t="s">
+      <c r="A19" s="87" t="s">
         <v>21</v>
       </c>
       <c r="B19" s="62"/>
@@ -8982,57 +9033,57 @@
       <c r="C20" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="91" t="s">
-        <v>66</v>
-      </c>
-      <c r="E20" s="91"/>
-      <c r="F20" s="91"/>
-      <c r="G20" s="91"/>
+      <c r="D20" s="88" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="88"/>
+      <c r="F20" s="88"/>
+      <c r="G20" s="88"/>
     </row>
     <row r="21" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="92"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="89"/>
+      <c r="F21" s="89"/>
+      <c r="G21" s="89"/>
     </row>
     <row r="22" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="92"/>
-      <c r="E22" s="92"/>
-      <c r="F22" s="92"/>
-      <c r="G22" s="92"/>
+      <c r="D22" s="89"/>
+      <c r="E22" s="89"/>
+      <c r="F22" s="89"/>
+      <c r="G22" s="89"/>
     </row>
     <row r="23" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="92"/>
-      <c r="E23" s="92"/>
-      <c r="F23" s="92"/>
-      <c r="G23" s="92"/>
+      <c r="D23" s="89"/>
+      <c r="E23" s="89"/>
+      <c r="F23" s="89"/>
+      <c r="G23" s="89"/>
     </row>
     <row r="24" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="92"/>
-      <c r="E24" s="92"/>
-      <c r="F24" s="92"/>
-      <c r="G24" s="92"/>
+      <c r="D24" s="89"/>
+      <c r="E24" s="89"/>
+      <c r="F24" s="89"/>
+      <c r="G24" s="89"/>
     </row>
     <row r="25" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="92"/>
-      <c r="E25" s="92"/>
-      <c r="F25" s="92"/>
-      <c r="G25" s="92"/>
+      <c r="D25" s="89"/>
+      <c r="E25" s="89"/>
+      <c r="F25" s="89"/>
+      <c r="G25" s="89"/>
     </row>
     <row r="26" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A26" s="36"/>
@@ -9042,7 +9093,7 @@
       <c r="G26" s="33"/>
     </row>
     <row r="27" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A27" s="90" t="s">
+      <c r="A27" s="87" t="s">
         <v>29</v>
       </c>
       <c r="B27" s="62"/>
@@ -9059,57 +9110,57 @@
       <c r="B28" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="91" t="s">
+      <c r="C28" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="91"/>
-      <c r="E28" s="91"/>
-      <c r="F28" s="91"/>
-      <c r="G28" s="91"/>
+      <c r="D28" s="88"/>
+      <c r="E28" s="88"/>
+      <c r="F28" s="88"/>
+      <c r="G28" s="88"/>
     </row>
     <row r="29" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C29" s="73" t="s">
         <v>109</v>
       </c>
-      <c r="C29" s="86" t="s">
-        <v>110</v>
-      </c>
-      <c r="D29" s="86"/>
-      <c r="E29" s="86"/>
-      <c r="F29" s="86"/>
-      <c r="G29" s="86"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="73"/>
+      <c r="F29" s="73"/>
+      <c r="G29" s="73"/>
     </row>
     <row r="30" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>2</v>
       </c>
       <c r="B30" s="1"/>
-      <c r="C30" s="86" t="s">
-        <v>113</v>
-      </c>
-      <c r="D30" s="86"/>
-      <c r="E30" s="86"/>
-      <c r="F30" s="86"/>
-      <c r="G30" s="86"/>
+      <c r="C30" s="73" t="s">
+        <v>112</v>
+      </c>
+      <c r="D30" s="73"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="73"/>
     </row>
     <row r="31" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
-      <c r="C31" s="86"/>
-      <c r="D31" s="86"/>
-      <c r="E31" s="86"/>
-      <c r="F31" s="86"/>
-      <c r="G31" s="86"/>
+      <c r="C31" s="73"/>
+      <c r="D31" s="73"/>
+      <c r="E31" s="73"/>
+      <c r="F31" s="73"/>
+      <c r="G31" s="73"/>
     </row>
     <row r="32" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="G32" s="33"/>
     </row>
     <row r="33" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="93" t="s">
+      <c r="A33" s="74" t="s">
         <v>22</v>
       </c>
       <c r="B33" s="70"/>
@@ -9117,28 +9168,28 @@
       <c r="D33" s="70"/>
       <c r="E33" s="70"/>
       <c r="F33" s="70"/>
-      <c r="G33" s="94"/>
+      <c r="G33" s="75"/>
     </row>
     <row r="34" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="95"/>
-      <c r="B34" s="96"/>
-      <c r="C34" s="96"/>
-      <c r="D34" s="96"/>
-      <c r="E34" s="96"/>
-      <c r="F34" s="96"/>
-      <c r="G34" s="97"/>
+      <c r="A34" s="76"/>
+      <c r="B34" s="77"/>
+      <c r="C34" s="77"/>
+      <c r="D34" s="77"/>
+      <c r="E34" s="77"/>
+      <c r="F34" s="77"/>
+      <c r="G34" s="78"/>
     </row>
     <row r="35" spans="1:7" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="95"/>
-      <c r="B35" s="96"/>
-      <c r="C35" s="96"/>
-      <c r="D35" s="96"/>
-      <c r="E35" s="96"/>
-      <c r="F35" s="96"/>
-      <c r="G35" s="97"/>
+      <c r="A35" s="76"/>
+      <c r="B35" s="77"/>
+      <c r="C35" s="77"/>
+      <c r="D35" s="77"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="77"/>
+      <c r="G35" s="78"/>
     </row>
     <row r="36" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="93" t="s">
+      <c r="A36" s="74" t="s">
         <v>10</v>
       </c>
       <c r="B36" s="70"/>
@@ -9146,33 +9197,35 @@
       <c r="D36" s="70"/>
       <c r="E36" s="70"/>
       <c r="F36" s="70"/>
-      <c r="G36" s="94"/>
+      <c r="G36" s="75"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="84"/>
+      <c r="A37" s="79"/>
       <c r="B37" s="68"/>
       <c r="C37" s="68"/>
       <c r="D37" s="68"/>
       <c r="E37" s="68"/>
       <c r="F37" s="68"/>
-      <c r="G37" s="85"/>
+      <c r="G37" s="80"/>
     </row>
     <row r="38" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="98"/>
-      <c r="B38" s="99"/>
-      <c r="C38" s="99"/>
-      <c r="D38" s="99"/>
-      <c r="E38" s="99"/>
-      <c r="F38" s="99"/>
-      <c r="G38" s="100"/>
+      <c r="A38" s="81"/>
+      <c r="B38" s="82"/>
+      <c r="C38" s="82"/>
+      <c r="D38" s="82"/>
+      <c r="E38" s="82"/>
+      <c r="F38" s="82"/>
+      <c r="G38" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="A34:G35"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A37:G38"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
     <mergeCell ref="C30:G30"/>
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="A19:G19"/>
@@ -9185,13 +9238,11 @@
     <mergeCell ref="A27:G27"/>
     <mergeCell ref="C28:G28"/>
     <mergeCell ref="C29:G29"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="A34:G35"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A37:G38"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Exemplo:_x000a_id -&gt; nome -&gt; categoria -&gt; ALL" sqref="C29:C32" xr:uid="{386320E1-7050-C749-9143-6F7D856CB823}"/>
@@ -9260,67 +9311,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="96" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="81"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="98"/>
     </row>
     <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="82" t="s">
-        <v>229</v>
+      <c r="B2" s="99" t="s">
+        <v>228</v>
       </c>
       <c r="C2" s="67"/>
       <c r="D2" s="67"/>
       <c r="E2" s="67"/>
       <c r="F2" s="67"/>
-      <c r="G2" s="83"/>
+      <c r="G2" s="100"/>
     </row>
     <row r="3" spans="1:7" ht="46" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="84" t="s">
-        <v>101</v>
+      <c r="B3" s="79" t="s">
+        <v>100</v>
       </c>
       <c r="C3" s="68"/>
       <c r="D3" s="68"/>
       <c r="E3" s="68"/>
       <c r="F3" s="68"/>
-      <c r="G3" s="85"/>
+      <c r="G3" s="80"/>
     </row>
     <row r="4" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="84" t="s">
-        <v>54</v>
+      <c r="B4" s="79" t="s">
+        <v>53</v>
       </c>
       <c r="C4" s="68"/>
       <c r="D4" s="68"/>
       <c r="E4" s="68"/>
       <c r="F4" s="68"/>
-      <c r="G4" s="85"/>
+      <c r="G4" s="80"/>
     </row>
     <row r="5" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="84" t="s">
-        <v>100</v>
+      <c r="B5" s="79" t="s">
+        <v>99</v>
       </c>
       <c r="C5" s="68"/>
       <c r="D5" s="68"/>
       <c r="E5" s="68"/>
       <c r="F5" s="68"/>
-      <c r="G5" s="85"/>
+      <c r="G5" s="80"/>
     </row>
     <row r="6" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
@@ -9329,26 +9380,26 @@
       <c r="B6" s="101"/>
       <c r="C6" s="102"/>
       <c r="D6" s="103"/>
-      <c r="E6" s="76" t="s">
-        <v>58</v>
-      </c>
-      <c r="F6" s="77"/>
-      <c r="G6" s="78"/>
+      <c r="E6" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="94"/>
+      <c r="G6" s="95"/>
     </row>
     <row r="7" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="35"/>
       <c r="G7" s="33"/>
     </row>
     <row r="8" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="87" t="s">
+      <c r="A8" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="88"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="88"/>
-      <c r="G8" s="89"/>
+      <c r="B8" s="85"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="86"/>
     </row>
     <row r="9" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
@@ -9378,15 +9429,15 @@
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G10" s="1">
         <v>1</v>
@@ -9397,20 +9448,20 @@
         <v>2</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="21" x14ac:dyDescent="0.25">
@@ -9418,20 +9469,20 @@
         <v>3</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="21" x14ac:dyDescent="0.25">
@@ -9439,17 +9490,17 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G13" s="1">
         <v>1</v>
@@ -9460,20 +9511,20 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="21" x14ac:dyDescent="0.25">
@@ -9504,7 +9555,7 @@
       <c r="G17" s="37"/>
     </row>
     <row r="18" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A18" s="90" t="s">
+      <c r="A18" s="87" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="62"/>
@@ -9524,57 +9575,57 @@
       <c r="C19" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="91" t="s">
-        <v>66</v>
-      </c>
-      <c r="E19" s="91"/>
-      <c r="F19" s="91"/>
-      <c r="G19" s="91"/>
+      <c r="D19" s="88" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="88"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="88"/>
     </row>
     <row r="20" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="92"/>
-      <c r="E20" s="92"/>
-      <c r="F20" s="92"/>
-      <c r="G20" s="92"/>
+      <c r="D20" s="89"/>
+      <c r="E20" s="89"/>
+      <c r="F20" s="89"/>
+      <c r="G20" s="89"/>
     </row>
     <row r="21" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="92"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="89"/>
+      <c r="F21" s="89"/>
+      <c r="G21" s="89"/>
     </row>
     <row r="22" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="92"/>
-      <c r="E22" s="92"/>
-      <c r="F22" s="92"/>
-      <c r="G22" s="92"/>
+      <c r="D22" s="89"/>
+      <c r="E22" s="89"/>
+      <c r="F22" s="89"/>
+      <c r="G22" s="89"/>
     </row>
     <row r="23" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="92"/>
-      <c r="E23" s="92"/>
-      <c r="F23" s="92"/>
-      <c r="G23" s="92"/>
+      <c r="D23" s="89"/>
+      <c r="E23" s="89"/>
+      <c r="F23" s="89"/>
+      <c r="G23" s="89"/>
     </row>
     <row r="24" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="92"/>
-      <c r="E24" s="92"/>
-      <c r="F24" s="92"/>
-      <c r="G24" s="92"/>
+      <c r="D24" s="89"/>
+      <c r="E24" s="89"/>
+      <c r="F24" s="89"/>
+      <c r="G24" s="89"/>
     </row>
     <row r="25" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="36"/>
@@ -9584,7 +9635,7 @@
       <c r="G25" s="33"/>
     </row>
     <row r="26" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A26" s="90" t="s">
+      <c r="A26" s="87" t="s">
         <v>29</v>
       </c>
       <c r="B26" s="62"/>
@@ -9601,47 +9652,47 @@
       <c r="B27" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="91" t="s">
+      <c r="C27" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="91"/>
-      <c r="E27" s="91"/>
-      <c r="F27" s="91"/>
-      <c r="G27" s="91"/>
+      <c r="D27" s="88"/>
+      <c r="E27" s="88"/>
+      <c r="F27" s="88"/>
+      <c r="G27" s="88"/>
     </row>
     <row r="28" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
-      <c r="C28" s="86"/>
-      <c r="D28" s="86"/>
-      <c r="E28" s="86"/>
-      <c r="F28" s="86"/>
-      <c r="G28" s="86"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="73"/>
     </row>
     <row r="29" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="86"/>
-      <c r="D29" s="86"/>
-      <c r="E29" s="86"/>
-      <c r="F29" s="86"/>
-      <c r="G29" s="86"/>
+      <c r="C29" s="73"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="73"/>
+      <c r="F29" s="73"/>
+      <c r="G29" s="73"/>
     </row>
     <row r="30" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="86"/>
-      <c r="D30" s="86"/>
-      <c r="E30" s="86"/>
-      <c r="F30" s="86"/>
-      <c r="G30" s="86"/>
+      <c r="C30" s="73"/>
+      <c r="D30" s="73"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="73"/>
     </row>
     <row r="31" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="G31" s="33"/>
     </row>
     <row r="32" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="93" t="s">
+      <c r="A32" s="74" t="s">
         <v>22</v>
       </c>
       <c r="B32" s="70"/>
@@ -9649,28 +9700,28 @@
       <c r="D32" s="70"/>
       <c r="E32" s="70"/>
       <c r="F32" s="70"/>
-      <c r="G32" s="94"/>
+      <c r="G32" s="75"/>
     </row>
     <row r="33" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="95"/>
-      <c r="B33" s="96"/>
-      <c r="C33" s="96"/>
-      <c r="D33" s="96"/>
-      <c r="E33" s="96"/>
-      <c r="F33" s="96"/>
-      <c r="G33" s="97"/>
+      <c r="A33" s="76"/>
+      <c r="B33" s="77"/>
+      <c r="C33" s="77"/>
+      <c r="D33" s="77"/>
+      <c r="E33" s="77"/>
+      <c r="F33" s="77"/>
+      <c r="G33" s="78"/>
     </row>
     <row r="34" spans="1:7" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="95"/>
-      <c r="B34" s="96"/>
-      <c r="C34" s="96"/>
-      <c r="D34" s="96"/>
-      <c r="E34" s="96"/>
-      <c r="F34" s="96"/>
-      <c r="G34" s="97"/>
+      <c r="A34" s="76"/>
+      <c r="B34" s="77"/>
+      <c r="C34" s="77"/>
+      <c r="D34" s="77"/>
+      <c r="E34" s="77"/>
+      <c r="F34" s="77"/>
+      <c r="G34" s="78"/>
     </row>
     <row r="35" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="93" t="s">
+      <c r="A35" s="74" t="s">
         <v>10</v>
       </c>
       <c r="B35" s="70"/>
@@ -9678,35 +9729,33 @@
       <c r="D35" s="70"/>
       <c r="E35" s="70"/>
       <c r="F35" s="70"/>
-      <c r="G35" s="94"/>
+      <c r="G35" s="75"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="84"/>
+      <c r="A36" s="79"/>
       <c r="B36" s="68"/>
       <c r="C36" s="68"/>
       <c r="D36" s="68"/>
       <c r="E36" s="68"/>
       <c r="F36" s="68"/>
-      <c r="G36" s="85"/>
+      <c r="G36" s="80"/>
     </row>
     <row r="37" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="98"/>
-      <c r="B37" s="99"/>
-      <c r="C37" s="99"/>
-      <c r="D37" s="99"/>
-      <c r="E37" s="99"/>
-      <c r="F37" s="99"/>
-      <c r="G37" s="100"/>
+      <c r="A37" s="81"/>
+      <c r="B37" s="82"/>
+      <c r="C37" s="82"/>
+      <c r="D37" s="82"/>
+      <c r="E37" s="82"/>
+      <c r="F37" s="82"/>
+      <c r="G37" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="A33:G34"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="A36:G37"/>
     <mergeCell ref="C29:G29"/>
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="A18:G18"/>
@@ -9719,11 +9768,13 @@
     <mergeCell ref="A26:G26"/>
     <mergeCell ref="C27:G27"/>
     <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="A33:G34"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="A36:G37"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Colocar percentagem" sqref="B6" xr:uid="{F51EFD33-359E-334A-A51E-A657A56E6972}">
@@ -9793,95 +9844,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="96" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="81"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="98"/>
     </row>
     <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="82" t="s">
-        <v>230</v>
+      <c r="B2" s="99" t="s">
+        <v>229</v>
       </c>
       <c r="C2" s="67"/>
       <c r="D2" s="67"/>
       <c r="E2" s="67"/>
       <c r="F2" s="67"/>
-      <c r="G2" s="83"/>
+      <c r="G2" s="100"/>
     </row>
     <row r="3" spans="1:7" ht="46" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="84" t="s">
-        <v>149</v>
+      <c r="B3" s="79" t="s">
+        <v>148</v>
       </c>
       <c r="C3" s="68"/>
       <c r="D3" s="68"/>
       <c r="E3" s="68"/>
       <c r="F3" s="68"/>
-      <c r="G3" s="85"/>
+      <c r="G3" s="80"/>
     </row>
     <row r="4" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="84" t="s">
-        <v>53</v>
+      <c r="B4" s="79" t="s">
+        <v>52</v>
       </c>
       <c r="C4" s="68"/>
       <c r="D4" s="68"/>
       <c r="E4" s="68"/>
       <c r="F4" s="68"/>
-      <c r="G4" s="85"/>
+      <c r="G4" s="80"/>
     </row>
     <row r="5" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="84" t="s">
-        <v>111</v>
+      <c r="B5" s="79" t="s">
+        <v>110</v>
       </c>
       <c r="C5" s="68"/>
       <c r="D5" s="68"/>
       <c r="E5" s="68"/>
       <c r="F5" s="68"/>
-      <c r="G5" s="85"/>
+      <c r="G5" s="80"/>
     </row>
     <row r="6" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="73"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="76" t="s">
-        <v>57</v>
-      </c>
-      <c r="F6" s="77"/>
-      <c r="G6" s="78"/>
+      <c r="B6" s="90"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="93" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="94"/>
+      <c r="G6" s="95"/>
     </row>
     <row r="7" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="35"/>
       <c r="G7" s="33"/>
     </row>
     <row r="8" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="87" t="s">
+      <c r="A8" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="88"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="88"/>
-      <c r="G8" s="89"/>
+      <c r="B8" s="85"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="86"/>
     </row>
     <row r="9" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
@@ -9911,15 +9962,15 @@
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G10" s="1">
         <v>1</v>
@@ -9930,20 +9981,20 @@
         <v>2</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G11" s="52" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="21" x14ac:dyDescent="0.25">
@@ -9951,20 +10002,20 @@
         <v>3</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="21" x14ac:dyDescent="0.25">
@@ -9972,20 +10023,20 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="21" x14ac:dyDescent="0.25">
@@ -9993,20 +10044,20 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="21" x14ac:dyDescent="0.25">
@@ -10037,7 +10088,7 @@
       <c r="G17" s="37"/>
     </row>
     <row r="18" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A18" s="90"/>
+      <c r="A18" s="87"/>
       <c r="B18" s="62"/>
       <c r="C18" s="62"/>
       <c r="D18" s="62"/>
@@ -10055,57 +10106,57 @@
       <c r="C19" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="91" t="s">
-        <v>66</v>
-      </c>
-      <c r="E19" s="91"/>
-      <c r="F19" s="91"/>
-      <c r="G19" s="91"/>
+      <c r="D19" s="88" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="88"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="88"/>
     </row>
     <row r="20" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="92"/>
-      <c r="E20" s="92"/>
-      <c r="F20" s="92"/>
-      <c r="G20" s="92"/>
+      <c r="D20" s="89"/>
+      <c r="E20" s="89"/>
+      <c r="F20" s="89"/>
+      <c r="G20" s="89"/>
     </row>
     <row r="21" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="92"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="89"/>
+      <c r="F21" s="89"/>
+      <c r="G21" s="89"/>
     </row>
     <row r="22" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="92"/>
-      <c r="E22" s="92"/>
-      <c r="F22" s="92"/>
-      <c r="G22" s="92"/>
+      <c r="D22" s="89"/>
+      <c r="E22" s="89"/>
+      <c r="F22" s="89"/>
+      <c r="G22" s="89"/>
     </row>
     <row r="23" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="92"/>
-      <c r="E23" s="92"/>
-      <c r="F23" s="92"/>
-      <c r="G23" s="92"/>
+      <c r="D23" s="89"/>
+      <c r="E23" s="89"/>
+      <c r="F23" s="89"/>
+      <c r="G23" s="89"/>
     </row>
     <row r="24" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="92"/>
-      <c r="E24" s="92"/>
-      <c r="F24" s="92"/>
-      <c r="G24" s="92"/>
+      <c r="D24" s="89"/>
+      <c r="E24" s="89"/>
+      <c r="F24" s="89"/>
+      <c r="G24" s="89"/>
     </row>
     <row r="25" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="36"/>
@@ -10115,7 +10166,7 @@
       <c r="G25" s="33"/>
     </row>
     <row r="26" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A26" s="90" t="s">
+      <c r="A26" s="87" t="s">
         <v>29</v>
       </c>
       <c r="B26" s="62"/>
@@ -10132,47 +10183,47 @@
       <c r="B27" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="91" t="s">
+      <c r="C27" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="91"/>
-      <c r="E27" s="91"/>
-      <c r="F27" s="91"/>
-      <c r="G27" s="91"/>
+      <c r="D27" s="88"/>
+      <c r="E27" s="88"/>
+      <c r="F27" s="88"/>
+      <c r="G27" s="88"/>
     </row>
     <row r="28" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
-      <c r="C28" s="86"/>
-      <c r="D28" s="86"/>
-      <c r="E28" s="86"/>
-      <c r="F28" s="86"/>
-      <c r="G28" s="86"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="73"/>
     </row>
     <row r="29" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="86"/>
-      <c r="D29" s="86"/>
-      <c r="E29" s="86"/>
-      <c r="F29" s="86"/>
-      <c r="G29" s="86"/>
+      <c r="C29" s="73"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="73"/>
+      <c r="F29" s="73"/>
+      <c r="G29" s="73"/>
     </row>
     <row r="30" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="86"/>
-      <c r="D30" s="86"/>
-      <c r="E30" s="86"/>
-      <c r="F30" s="86"/>
-      <c r="G30" s="86"/>
+      <c r="C30" s="73"/>
+      <c r="D30" s="73"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="73"/>
     </row>
     <row r="31" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="G31" s="33"/>
     </row>
     <row r="32" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="93" t="s">
+      <c r="A32" s="74" t="s">
         <v>22</v>
       </c>
       <c r="B32" s="70"/>
@@ -10180,28 +10231,28 @@
       <c r="D32" s="70"/>
       <c r="E32" s="70"/>
       <c r="F32" s="70"/>
-      <c r="G32" s="94"/>
+      <c r="G32" s="75"/>
     </row>
     <row r="33" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="95"/>
-      <c r="B33" s="96"/>
-      <c r="C33" s="96"/>
-      <c r="D33" s="96"/>
-      <c r="E33" s="96"/>
-      <c r="F33" s="96"/>
-      <c r="G33" s="97"/>
+      <c r="A33" s="76"/>
+      <c r="B33" s="77"/>
+      <c r="C33" s="77"/>
+      <c r="D33" s="77"/>
+      <c r="E33" s="77"/>
+      <c r="F33" s="77"/>
+      <c r="G33" s="78"/>
     </row>
     <row r="34" spans="1:7" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="95"/>
-      <c r="B34" s="96"/>
-      <c r="C34" s="96"/>
-      <c r="D34" s="96"/>
-      <c r="E34" s="96"/>
-      <c r="F34" s="96"/>
-      <c r="G34" s="97"/>
+      <c r="A34" s="76"/>
+      <c r="B34" s="77"/>
+      <c r="C34" s="77"/>
+      <c r="D34" s="77"/>
+      <c r="E34" s="77"/>
+      <c r="F34" s="77"/>
+      <c r="G34" s="78"/>
     </row>
     <row r="35" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="93" t="s">
+      <c r="A35" s="74" t="s">
         <v>10</v>
       </c>
       <c r="B35" s="70"/>
@@ -10209,28 +10260,36 @@
       <c r="D35" s="70"/>
       <c r="E35" s="70"/>
       <c r="F35" s="70"/>
-      <c r="G35" s="94"/>
+      <c r="G35" s="75"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="84"/>
+      <c r="A36" s="79"/>
       <c r="B36" s="68"/>
       <c r="C36" s="68"/>
       <c r="D36" s="68"/>
       <c r="E36" s="68"/>
       <c r="F36" s="68"/>
-      <c r="G36" s="85"/>
+      <c r="G36" s="80"/>
     </row>
     <row r="37" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="98"/>
-      <c r="B37" s="99"/>
-      <c r="C37" s="99"/>
-      <c r="D37" s="99"/>
-      <c r="E37" s="99"/>
-      <c r="F37" s="99"/>
-      <c r="G37" s="100"/>
+      <c r="A37" s="81"/>
+      <c r="B37" s="82"/>
+      <c r="C37" s="82"/>
+      <c r="D37" s="82"/>
+      <c r="E37" s="82"/>
+      <c r="F37" s="82"/>
+      <c r="G37" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D23:G23"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="D19:G19"/>
     <mergeCell ref="D20:G20"/>
@@ -10247,14 +10306,6 @@
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="B5:G5"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="A26:G26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D23:G23"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Colocar percentagem" sqref="B6" xr:uid="{C5DD908A-3688-A14E-B89F-E074FAFCDF99}">
@@ -10324,95 +10375,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="96" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="81"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="98"/>
     </row>
     <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="82" t="s">
-        <v>231</v>
+      <c r="B2" s="99" t="s">
+        <v>230</v>
       </c>
       <c r="C2" s="67"/>
       <c r="D2" s="67"/>
       <c r="E2" s="67"/>
       <c r="F2" s="67"/>
-      <c r="G2" s="83"/>
+      <c r="G2" s="100"/>
     </row>
     <row r="3" spans="1:7" ht="46" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="84" t="s">
-        <v>125</v>
+      <c r="B3" s="79" t="s">
+        <v>124</v>
       </c>
       <c r="C3" s="68"/>
       <c r="D3" s="68"/>
       <c r="E3" s="68"/>
       <c r="F3" s="68"/>
-      <c r="G3" s="85"/>
+      <c r="G3" s="80"/>
     </row>
     <row r="4" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="84" t="s">
-        <v>52</v>
+      <c r="B4" s="79" t="s">
+        <v>51</v>
       </c>
       <c r="C4" s="68"/>
       <c r="D4" s="68"/>
       <c r="E4" s="68"/>
       <c r="F4" s="68"/>
-      <c r="G4" s="85"/>
+      <c r="G4" s="80"/>
     </row>
     <row r="5" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="84" t="s">
-        <v>114</v>
+      <c r="B5" s="79" t="s">
+        <v>113</v>
       </c>
       <c r="C5" s="68"/>
       <c r="D5" s="68"/>
       <c r="E5" s="68"/>
       <c r="F5" s="68"/>
-      <c r="G5" s="85"/>
+      <c r="G5" s="80"/>
     </row>
     <row r="6" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="73"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="76" t="s">
-        <v>57</v>
-      </c>
-      <c r="F6" s="77"/>
-      <c r="G6" s="78"/>
+      <c r="B6" s="90"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="93" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="94"/>
+      <c r="G6" s="95"/>
     </row>
     <row r="7" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="35"/>
       <c r="G7" s="33"/>
     </row>
     <row r="8" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="87" t="s">
+      <c r="A8" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="88"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="88"/>
-      <c r="G8" s="89"/>
+      <c r="B8" s="85"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="86"/>
     </row>
     <row r="9" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
@@ -10442,15 +10493,15 @@
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G10" s="1">
         <v>1</v>
@@ -10461,20 +10512,20 @@
         <v>2</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="21" x14ac:dyDescent="0.25">
@@ -10482,20 +10533,20 @@
         <v>3</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="21" x14ac:dyDescent="0.25">
@@ -10503,20 +10554,20 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="21" x14ac:dyDescent="0.25">
@@ -10556,7 +10607,7 @@
       <c r="G17" s="37"/>
     </row>
     <row r="18" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A18" s="90" t="s">
+      <c r="A18" s="87" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="62"/>
@@ -10576,57 +10627,57 @@
       <c r="C19" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="91" t="s">
-        <v>66</v>
-      </c>
-      <c r="E19" s="91"/>
-      <c r="F19" s="91"/>
-      <c r="G19" s="91"/>
+      <c r="D19" s="88" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="88"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="88"/>
     </row>
     <row r="20" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="92"/>
-      <c r="E20" s="92"/>
-      <c r="F20" s="92"/>
-      <c r="G20" s="92"/>
+      <c r="D20" s="89"/>
+      <c r="E20" s="89"/>
+      <c r="F20" s="89"/>
+      <c r="G20" s="89"/>
     </row>
     <row r="21" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="92"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="89"/>
+      <c r="F21" s="89"/>
+      <c r="G21" s="89"/>
     </row>
     <row r="22" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="92"/>
-      <c r="E22" s="92"/>
-      <c r="F22" s="92"/>
-      <c r="G22" s="92"/>
+      <c r="D22" s="89"/>
+      <c r="E22" s="89"/>
+      <c r="F22" s="89"/>
+      <c r="G22" s="89"/>
     </row>
     <row r="23" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="92"/>
-      <c r="E23" s="92"/>
-      <c r="F23" s="92"/>
-      <c r="G23" s="92"/>
+      <c r="D23" s="89"/>
+      <c r="E23" s="89"/>
+      <c r="F23" s="89"/>
+      <c r="G23" s="89"/>
     </row>
     <row r="24" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="92"/>
-      <c r="E24" s="92"/>
-      <c r="F24" s="92"/>
-      <c r="G24" s="92"/>
+      <c r="D24" s="89"/>
+      <c r="E24" s="89"/>
+      <c r="F24" s="89"/>
+      <c r="G24" s="89"/>
     </row>
     <row r="25" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="36"/>
@@ -10636,7 +10687,7 @@
       <c r="G25" s="33"/>
     </row>
     <row r="26" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A26" s="90" t="s">
+      <c r="A26" s="87" t="s">
         <v>29</v>
       </c>
       <c r="B26" s="62"/>
@@ -10653,47 +10704,47 @@
       <c r="B27" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="91" t="s">
+      <c r="C27" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="91"/>
-      <c r="E27" s="91"/>
-      <c r="F27" s="91"/>
-      <c r="G27" s="91"/>
+      <c r="D27" s="88"/>
+      <c r="E27" s="88"/>
+      <c r="F27" s="88"/>
+      <c r="G27" s="88"/>
     </row>
     <row r="28" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
-      <c r="C28" s="86"/>
-      <c r="D28" s="86"/>
-      <c r="E28" s="86"/>
-      <c r="F28" s="86"/>
-      <c r="G28" s="86"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="73"/>
     </row>
     <row r="29" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="86"/>
-      <c r="D29" s="86"/>
-      <c r="E29" s="86"/>
-      <c r="F29" s="86"/>
-      <c r="G29" s="86"/>
+      <c r="C29" s="73"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="73"/>
+      <c r="F29" s="73"/>
+      <c r="G29" s="73"/>
     </row>
     <row r="30" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="86"/>
-      <c r="D30" s="86"/>
-      <c r="E30" s="86"/>
-      <c r="F30" s="86"/>
-      <c r="G30" s="86"/>
+      <c r="C30" s="73"/>
+      <c r="D30" s="73"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="73"/>
     </row>
     <row r="31" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="G31" s="33"/>
     </row>
     <row r="32" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="93" t="s">
+      <c r="A32" s="74" t="s">
         <v>22</v>
       </c>
       <c r="B32" s="70"/>
@@ -10701,28 +10752,28 @@
       <c r="D32" s="70"/>
       <c r="E32" s="70"/>
       <c r="F32" s="70"/>
-      <c r="G32" s="94"/>
+      <c r="G32" s="75"/>
     </row>
     <row r="33" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="95"/>
-      <c r="B33" s="96"/>
-      <c r="C33" s="96"/>
-      <c r="D33" s="96"/>
-      <c r="E33" s="96"/>
-      <c r="F33" s="96"/>
-      <c r="G33" s="97"/>
+      <c r="A33" s="76"/>
+      <c r="B33" s="77"/>
+      <c r="C33" s="77"/>
+      <c r="D33" s="77"/>
+      <c r="E33" s="77"/>
+      <c r="F33" s="77"/>
+      <c r="G33" s="78"/>
     </row>
     <row r="34" spans="1:7" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="95"/>
-      <c r="B34" s="96"/>
-      <c r="C34" s="96"/>
-      <c r="D34" s="96"/>
-      <c r="E34" s="96"/>
-      <c r="F34" s="96"/>
-      <c r="G34" s="97"/>
+      <c r="A34" s="76"/>
+      <c r="B34" s="77"/>
+      <c r="C34" s="77"/>
+      <c r="D34" s="77"/>
+      <c r="E34" s="77"/>
+      <c r="F34" s="77"/>
+      <c r="G34" s="78"/>
     </row>
     <row r="35" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="93" t="s">
+      <c r="A35" s="74" t="s">
         <v>10</v>
       </c>
       <c r="B35" s="70"/>
@@ -10730,35 +10781,33 @@
       <c r="D35" s="70"/>
       <c r="E35" s="70"/>
       <c r="F35" s="70"/>
-      <c r="G35" s="94"/>
+      <c r="G35" s="75"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="84"/>
+      <c r="A36" s="79"/>
       <c r="B36" s="68"/>
       <c r="C36" s="68"/>
       <c r="D36" s="68"/>
       <c r="E36" s="68"/>
       <c r="F36" s="68"/>
-      <c r="G36" s="85"/>
+      <c r="G36" s="80"/>
     </row>
     <row r="37" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="98"/>
-      <c r="B37" s="99"/>
-      <c r="C37" s="99"/>
-      <c r="D37" s="99"/>
-      <c r="E37" s="99"/>
-      <c r="F37" s="99"/>
-      <c r="G37" s="100"/>
+      <c r="A37" s="81"/>
+      <c r="B37" s="82"/>
+      <c r="C37" s="82"/>
+      <c r="D37" s="82"/>
+      <c r="E37" s="82"/>
+      <c r="F37" s="82"/>
+      <c r="G37" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="A33:G34"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="A36:G37"/>
     <mergeCell ref="C29:G29"/>
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="A18:G18"/>
@@ -10771,11 +10820,13 @@
     <mergeCell ref="A26:G26"/>
     <mergeCell ref="C27:G27"/>
     <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="A33:G34"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="A36:G37"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Exemplo:_x000a_id -&gt; nome -&gt; categoria -&gt; ALL" sqref="C28:C31" xr:uid="{6749BA4D-A4C0-664A-8057-C07B807E371B}"/>
@@ -10845,95 +10896,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="96" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="81"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="98"/>
     </row>
     <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="82" t="s">
-        <v>232</v>
+      <c r="B2" s="99" t="s">
+        <v>231</v>
       </c>
       <c r="C2" s="67"/>
       <c r="D2" s="67"/>
       <c r="E2" s="67"/>
       <c r="F2" s="67"/>
-      <c r="G2" s="83"/>
+      <c r="G2" s="100"/>
     </row>
     <row r="3" spans="1:7" ht="46" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="84" t="s">
-        <v>150</v>
+      <c r="B3" s="79" t="s">
+        <v>149</v>
       </c>
       <c r="C3" s="68"/>
       <c r="D3" s="68"/>
       <c r="E3" s="68"/>
       <c r="F3" s="68"/>
-      <c r="G3" s="85"/>
+      <c r="G3" s="80"/>
     </row>
     <row r="4" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="84" t="s">
-        <v>52</v>
+      <c r="B4" s="79" t="s">
+        <v>51</v>
       </c>
       <c r="C4" s="68"/>
       <c r="D4" s="68"/>
       <c r="E4" s="68"/>
       <c r="F4" s="68"/>
-      <c r="G4" s="85"/>
+      <c r="G4" s="80"/>
     </row>
     <row r="5" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="84" t="s">
-        <v>151</v>
+      <c r="B5" s="79" t="s">
+        <v>150</v>
       </c>
       <c r="C5" s="68"/>
       <c r="D5" s="68"/>
       <c r="E5" s="68"/>
       <c r="F5" s="68"/>
-      <c r="G5" s="85"/>
+      <c r="G5" s="80"/>
     </row>
     <row r="6" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="73"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="76" t="s">
-        <v>57</v>
-      </c>
-      <c r="F6" s="77"/>
-      <c r="G6" s="78"/>
+      <c r="B6" s="90"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="93" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="94"/>
+      <c r="G6" s="95"/>
     </row>
     <row r="7" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="35"/>
       <c r="G7" s="33"/>
     </row>
     <row r="8" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="87" t="s">
+      <c r="A8" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="88"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="88"/>
-      <c r="G8" s="89"/>
+      <c r="B8" s="85"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="86"/>
     </row>
     <row r="9" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
@@ -10963,15 +11014,15 @@
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G10" s="1">
         <v>1</v>
@@ -10982,17 +11033,17 @@
         <v>2</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G11" s="1">
         <v>2</v>
@@ -11003,17 +11054,17 @@
         <v>3</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
@@ -11024,17 +11075,17 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G13" s="1">
         <v>12</v>
@@ -11045,17 +11096,17 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G14" s="1">
         <v>32</v>
@@ -11066,17 +11117,17 @@
         <v>6</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G15" s="1">
         <v>4</v>
@@ -11087,17 +11138,17 @@
         <v>7</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G16" s="1">
         <v>2015</v>
@@ -11113,7 +11164,7 @@
       <c r="G17" s="37"/>
     </row>
     <row r="18" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A18" s="90" t="s">
+      <c r="A18" s="87" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="62"/>
@@ -11133,57 +11184,57 @@
       <c r="C19" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="91" t="s">
-        <v>66</v>
-      </c>
-      <c r="E19" s="91"/>
-      <c r="F19" s="91"/>
-      <c r="G19" s="91"/>
+      <c r="D19" s="88" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="88"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="88"/>
     </row>
     <row r="20" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="92"/>
-      <c r="E20" s="92"/>
-      <c r="F20" s="92"/>
-      <c r="G20" s="92"/>
+      <c r="D20" s="89"/>
+      <c r="E20" s="89"/>
+      <c r="F20" s="89"/>
+      <c r="G20" s="89"/>
     </row>
     <row r="21" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="92"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="89"/>
+      <c r="F21" s="89"/>
+      <c r="G21" s="89"/>
     </row>
     <row r="22" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="92"/>
-      <c r="E22" s="92"/>
-      <c r="F22" s="92"/>
-      <c r="G22" s="92"/>
+      <c r="D22" s="89"/>
+      <c r="E22" s="89"/>
+      <c r="F22" s="89"/>
+      <c r="G22" s="89"/>
     </row>
     <row r="23" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="92"/>
-      <c r="E23" s="92"/>
-      <c r="F23" s="92"/>
-      <c r="G23" s="92"/>
+      <c r="D23" s="89"/>
+      <c r="E23" s="89"/>
+      <c r="F23" s="89"/>
+      <c r="G23" s="89"/>
     </row>
     <row r="24" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="92"/>
-      <c r="E24" s="92"/>
-      <c r="F24" s="92"/>
-      <c r="G24" s="92"/>
+      <c r="D24" s="89"/>
+      <c r="E24" s="89"/>
+      <c r="F24" s="89"/>
+      <c r="G24" s="89"/>
     </row>
     <row r="25" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="36"/>
@@ -11193,7 +11244,7 @@
       <c r="G25" s="33"/>
     </row>
     <row r="26" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A26" s="90" t="s">
+      <c r="A26" s="87" t="s">
         <v>29</v>
       </c>
       <c r="B26" s="62"/>
@@ -11210,51 +11261,51 @@
       <c r="B27" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="91" t="s">
+      <c r="C27" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="91"/>
-      <c r="E27" s="91"/>
-      <c r="F27" s="91"/>
-      <c r="G27" s="91"/>
+      <c r="D27" s="88"/>
+      <c r="E27" s="88"/>
+      <c r="F27" s="88"/>
+      <c r="G27" s="88"/>
     </row>
     <row r="28" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1</v>
       </c>
       <c r="B28" s="1"/>
-      <c r="C28" s="86" t="s">
-        <v>161</v>
-      </c>
-      <c r="D28" s="86"/>
-      <c r="E28" s="86"/>
-      <c r="F28" s="86"/>
-      <c r="G28" s="86"/>
+      <c r="C28" s="73" t="s">
+        <v>160</v>
+      </c>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="73"/>
     </row>
     <row r="29" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="86"/>
-      <c r="D29" s="86"/>
-      <c r="E29" s="86"/>
-      <c r="F29" s="86"/>
-      <c r="G29" s="86"/>
+      <c r="C29" s="73"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="73"/>
+      <c r="F29" s="73"/>
+      <c r="G29" s="73"/>
     </row>
     <row r="30" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="86"/>
-      <c r="D30" s="86"/>
-      <c r="E30" s="86"/>
-      <c r="F30" s="86"/>
-      <c r="G30" s="86"/>
+      <c r="C30" s="73"/>
+      <c r="D30" s="73"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="73"/>
     </row>
     <row r="31" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="G31" s="33"/>
     </row>
     <row r="32" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="93" t="s">
+      <c r="A32" s="74" t="s">
         <v>22</v>
       </c>
       <c r="B32" s="70"/>
@@ -11262,28 +11313,28 @@
       <c r="D32" s="70"/>
       <c r="E32" s="70"/>
       <c r="F32" s="70"/>
-      <c r="G32" s="94"/>
+      <c r="G32" s="75"/>
     </row>
     <row r="33" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="95"/>
-      <c r="B33" s="96"/>
-      <c r="C33" s="96"/>
-      <c r="D33" s="96"/>
-      <c r="E33" s="96"/>
-      <c r="F33" s="96"/>
-      <c r="G33" s="97"/>
+      <c r="A33" s="76"/>
+      <c r="B33" s="77"/>
+      <c r="C33" s="77"/>
+      <c r="D33" s="77"/>
+      <c r="E33" s="77"/>
+      <c r="F33" s="77"/>
+      <c r="G33" s="78"/>
     </row>
     <row r="34" spans="1:7" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="95"/>
-      <c r="B34" s="96"/>
-      <c r="C34" s="96"/>
-      <c r="D34" s="96"/>
-      <c r="E34" s="96"/>
-      <c r="F34" s="96"/>
-      <c r="G34" s="97"/>
+      <c r="A34" s="76"/>
+      <c r="B34" s="77"/>
+      <c r="C34" s="77"/>
+      <c r="D34" s="77"/>
+      <c r="E34" s="77"/>
+      <c r="F34" s="77"/>
+      <c r="G34" s="78"/>
     </row>
     <row r="35" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="93" t="s">
+      <c r="A35" s="74" t="s">
         <v>10</v>
       </c>
       <c r="B35" s="70"/>
@@ -11291,35 +11342,33 @@
       <c r="D35" s="70"/>
       <c r="E35" s="70"/>
       <c r="F35" s="70"/>
-      <c r="G35" s="94"/>
+      <c r="G35" s="75"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="84"/>
+      <c r="A36" s="79"/>
       <c r="B36" s="68"/>
       <c r="C36" s="68"/>
       <c r="D36" s="68"/>
       <c r="E36" s="68"/>
       <c r="F36" s="68"/>
-      <c r="G36" s="85"/>
+      <c r="G36" s="80"/>
     </row>
     <row r="37" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="98"/>
-      <c r="B37" s="99"/>
-      <c r="C37" s="99"/>
-      <c r="D37" s="99"/>
-      <c r="E37" s="99"/>
-      <c r="F37" s="99"/>
-      <c r="G37" s="100"/>
+      <c r="A37" s="81"/>
+      <c r="B37" s="82"/>
+      <c r="C37" s="82"/>
+      <c r="D37" s="82"/>
+      <c r="E37" s="82"/>
+      <c r="F37" s="82"/>
+      <c r="G37" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="A33:G34"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="A36:G37"/>
     <mergeCell ref="C29:G29"/>
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="A18:G18"/>
@@ -11332,11 +11381,13 @@
     <mergeCell ref="A26:G26"/>
     <mergeCell ref="C27:G27"/>
     <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="A33:G34"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="A36:G37"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Colocar percentagem" sqref="B6" xr:uid="{A66D20F0-0782-6944-BA9C-7489AA303243}">
@@ -11407,152 +11458,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="79" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="81"/>
+      <c r="A1" s="96" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="98"/>
     </row>
     <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="121" t="s">
-        <v>233</v>
-      </c>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="122"/>
+      <c r="B2" s="106" t="s">
+        <v>232</v>
+      </c>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="107"/>
     </row>
     <row r="3" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="96" t="s">
-        <v>162</v>
-      </c>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="97"/>
+      <c r="B3" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="78"/>
     </row>
     <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="96" t="s">
-        <v>163</v>
-      </c>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="97"/>
+      <c r="B4" s="77" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="78"/>
     </row>
     <row r="5" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="96" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="96"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="97"/>
+      <c r="B5" s="77" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="78"/>
     </row>
     <row r="6" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="96" t="s">
-        <v>226</v>
-      </c>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="97"/>
+      <c r="B6" s="77" t="s">
+        <v>225</v>
+      </c>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="78"/>
     </row>
     <row r="7" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="96" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="96"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="96"/>
-      <c r="F7" s="97"/>
+      <c r="B7" s="77" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="78"/>
     </row>
     <row r="8" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="B8" s="96" t="s">
-        <v>164</v>
-      </c>
-      <c r="C8" s="96"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="97"/>
+        <v>73</v>
+      </c>
+      <c r="B8" s="77" t="s">
+        <v>163</v>
+      </c>
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="78"/>
     </row>
     <row r="9" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="B9" s="96"/>
-      <c r="C9" s="96"/>
-      <c r="D9" s="96"/>
-      <c r="E9" s="96"/>
-      <c r="F9" s="97"/>
+        <v>74</v>
+      </c>
+      <c r="B9" s="77"/>
+      <c r="C9" s="77"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="78"/>
     </row>
     <row r="10" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="123">
+      <c r="B10" s="108">
         <v>0.5</v>
       </c>
-      <c r="C10" s="96"/>
-      <c r="D10" s="96" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="96"/>
-      <c r="F10" s="97"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="77" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="77"/>
+      <c r="F10" s="78"/>
     </row>
     <row r="11" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="119" t="s">
-        <v>165</v>
-      </c>
-      <c r="C11" s="119"/>
-      <c r="D11" s="119"/>
-      <c r="E11" s="119"/>
-      <c r="F11" s="120"/>
+      <c r="B11" s="104" t="s">
+        <v>164</v>
+      </c>
+      <c r="C11" s="104"/>
+      <c r="D11" s="104"/>
+      <c r="E11" s="104"/>
+      <c r="F11" s="105"/>
     </row>
     <row r="12" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="110"/>
-      <c r="B12" s="111"/>
-      <c r="C12" s="111"/>
-      <c r="D12" s="111"/>
-      <c r="E12" s="111"/>
-      <c r="F12" s="112"/>
+      <c r="A12" s="112"/>
+      <c r="B12" s="113"/>
+      <c r="C12" s="113"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="113"/>
+      <c r="F12" s="114"/>
     </row>
     <row r="13" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="87" t="s">
+      <c r="A13" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="88"/>
-      <c r="C13" s="88"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="89"/>
+      <c r="B13" s="85"/>
+      <c r="C13" s="85"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="86"/>
     </row>
     <row r="14" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
@@ -11579,14 +11630,14 @@
         <v>1</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D15" s="27"/>
       <c r="E15" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F15" s="37">
         <v>1</v>
@@ -11597,14 +11648,14 @@
         <v>2</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D16" s="27"/>
       <c r="E16" s="27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F16" s="37">
         <v>2</v>
@@ -11615,14 +11666,14 @@
         <v>3</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D17" s="27"/>
       <c r="E17" s="27" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F17" s="37">
         <v>3</v>
@@ -11633,14 +11684,14 @@
         <v>4</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D18" s="27"/>
       <c r="E18" s="27" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F18" s="37">
         <v>2</v>
@@ -11651,14 +11702,14 @@
         <v>5</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D19" s="27"/>
       <c r="E19" s="27" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F19" s="37">
         <v>6</v>
@@ -11669,14 +11720,14 @@
         <v>6</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D20" s="27"/>
       <c r="E20" s="27" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F20" s="37">
         <v>2</v>
@@ -11687,14 +11738,14 @@
         <v>7</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D21" s="27"/>
       <c r="E21" s="27" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F21" s="27">
         <v>1</v>
@@ -11705,36 +11756,36 @@
         <v>8</v>
       </c>
       <c r="B22" s="54" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C22" s="54" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D22" s="54"/>
       <c r="E22" s="54" t="s">
+        <v>176</v>
+      </c>
+      <c r="F22" s="55" t="s">
         <v>177</v>
       </c>
-      <c r="F22" s="55" t="s">
-        <v>178</v>
-      </c>
     </row>
     <row r="23" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="110"/>
-      <c r="B23" s="111"/>
-      <c r="C23" s="111"/>
-      <c r="D23" s="111"/>
-      <c r="E23" s="111"/>
-      <c r="F23" s="112"/>
+      <c r="A23" s="112"/>
+      <c r="B23" s="113"/>
+      <c r="C23" s="113"/>
+      <c r="D23" s="113"/>
+      <c r="E23" s="113"/>
+      <c r="F23" s="114"/>
     </row>
     <row r="24" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="87" t="s">
-        <v>78</v>
-      </c>
-      <c r="B24" s="88"/>
-      <c r="C24" s="88"/>
-      <c r="D24" s="88"/>
-      <c r="E24" s="88"/>
-      <c r="F24" s="89"/>
+      <c r="A24" s="84" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" s="85"/>
+      <c r="C24" s="85"/>
+      <c r="D24" s="85"/>
+      <c r="E24" s="85"/>
+      <c r="F24" s="86"/>
     </row>
     <row r="25" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="39" t="s">
@@ -11747,7 +11798,7 @@
         <v>5</v>
       </c>
       <c r="D25" s="40" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E25" s="40" t="s">
         <v>7</v>
@@ -11758,49 +11809,49 @@
     </row>
     <row r="26" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A26" s="36" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B26" s="56"/>
       <c r="C26" s="27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D26" s="56"/>
       <c r="E26" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="F26" s="37" t="s">
         <v>181</v>
-      </c>
-      <c r="F26" s="37" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A27" s="36" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B27" s="56"/>
       <c r="C27" s="27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D27" s="56"/>
       <c r="E27" s="27" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F27" s="37" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A28" s="36" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B28" s="56"/>
       <c r="C28" s="27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E28" s="27" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F28" s="37">
         <v>20</v>
@@ -11815,22 +11866,22 @@
       <c r="F29" s="43"/>
     </row>
     <row r="30" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="110"/>
-      <c r="B30" s="111"/>
-      <c r="C30" s="111"/>
-      <c r="D30" s="111"/>
-      <c r="E30" s="111"/>
-      <c r="F30" s="112"/>
+      <c r="A30" s="112"/>
+      <c r="B30" s="113"/>
+      <c r="C30" s="113"/>
+      <c r="D30" s="113"/>
+      <c r="E30" s="113"/>
+      <c r="F30" s="114"/>
     </row>
     <row r="31" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="87" t="s">
+      <c r="A31" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="B31" s="88"/>
-      <c r="C31" s="88"/>
-      <c r="D31" s="88"/>
-      <c r="E31" s="88"/>
-      <c r="F31" s="89"/>
+      <c r="B31" s="85"/>
+      <c r="C31" s="85"/>
+      <c r="D31" s="85"/>
+      <c r="E31" s="85"/>
+      <c r="F31" s="86"/>
     </row>
     <row r="32" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A32" s="39" t="s">
@@ -11842,114 +11893,131 @@
       <c r="C32" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="D32" s="105" t="s">
-        <v>66</v>
-      </c>
-      <c r="E32" s="105"/>
-      <c r="F32" s="106"/>
+      <c r="D32" s="115" t="s">
+        <v>65</v>
+      </c>
+      <c r="E32" s="115"/>
+      <c r="F32" s="116"/>
     </row>
     <row r="33" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A33" s="39"/>
       <c r="B33" s="40"/>
       <c r="C33" s="40"/>
-      <c r="D33" s="108"/>
-      <c r="E33" s="108"/>
-      <c r="F33" s="109"/>
+      <c r="D33" s="117"/>
+      <c r="E33" s="117"/>
+      <c r="F33" s="118"/>
     </row>
     <row r="34" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A34" s="39"/>
       <c r="B34" s="40"/>
       <c r="C34" s="40"/>
-      <c r="D34" s="108"/>
-      <c r="E34" s="108"/>
-      <c r="F34" s="109"/>
+      <c r="D34" s="117"/>
+      <c r="E34" s="117"/>
+      <c r="F34" s="118"/>
     </row>
     <row r="35" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A35" s="39"/>
       <c r="B35" s="40"/>
       <c r="C35" s="40"/>
-      <c r="D35" s="108"/>
-      <c r="E35" s="108"/>
-      <c r="F35" s="109"/>
+      <c r="D35" s="117"/>
+      <c r="E35" s="117"/>
+      <c r="F35" s="118"/>
     </row>
     <row r="36" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A36" s="41"/>
       <c r="B36" s="42"/>
       <c r="C36" s="42"/>
-      <c r="D36" s="114"/>
-      <c r="E36" s="114"/>
-      <c r="F36" s="115"/>
+      <c r="D36" s="119"/>
+      <c r="E36" s="119"/>
+      <c r="F36" s="120"/>
     </row>
     <row r="37" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="116"/>
-      <c r="B37" s="117"/>
-      <c r="C37" s="117"/>
-      <c r="D37" s="117"/>
-      <c r="E37" s="117"/>
-      <c r="F37" s="118"/>
+      <c r="A37" s="109"/>
+      <c r="B37" s="110"/>
+      <c r="C37" s="110"/>
+      <c r="D37" s="110"/>
+      <c r="E37" s="110"/>
+      <c r="F37" s="111"/>
     </row>
     <row r="38" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="87" t="s">
+      <c r="A38" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="B38" s="88"/>
-      <c r="C38" s="88"/>
-      <c r="D38" s="88"/>
-      <c r="E38" s="88"/>
-      <c r="F38" s="89"/>
+      <c r="B38" s="85"/>
+      <c r="C38" s="85"/>
+      <c r="D38" s="85"/>
+      <c r="E38" s="85"/>
+      <c r="F38" s="86"/>
     </row>
     <row r="39" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="104"/>
-      <c r="B39" s="105"/>
-      <c r="C39" s="105"/>
-      <c r="D39" s="105"/>
-      <c r="E39" s="105"/>
-      <c r="F39" s="106"/>
+      <c r="A39" s="121"/>
+      <c r="B39" s="115"/>
+      <c r="C39" s="115"/>
+      <c r="D39" s="115"/>
+      <c r="E39" s="115"/>
+      <c r="F39" s="116"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="107"/>
-      <c r="B40" s="108"/>
-      <c r="C40" s="108"/>
-      <c r="D40" s="108"/>
-      <c r="E40" s="108"/>
-      <c r="F40" s="109"/>
+      <c r="A40" s="122"/>
+      <c r="B40" s="117"/>
+      <c r="C40" s="117"/>
+      <c r="D40" s="117"/>
+      <c r="E40" s="117"/>
+      <c r="F40" s="118"/>
     </row>
     <row r="41" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="110"/>
-      <c r="B41" s="111"/>
-      <c r="C41" s="111"/>
-      <c r="D41" s="111"/>
-      <c r="E41" s="111"/>
-      <c r="F41" s="112"/>
+      <c r="A41" s="112"/>
+      <c r="B41" s="113"/>
+      <c r="C41" s="113"/>
+      <c r="D41" s="113"/>
+      <c r="E41" s="113"/>
+      <c r="F41" s="114"/>
     </row>
     <row r="42" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="87" t="s">
+      <c r="A42" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="88"/>
-      <c r="C42" s="88"/>
-      <c r="D42" s="88"/>
-      <c r="E42" s="88"/>
-      <c r="F42" s="89"/>
+      <c r="B42" s="85"/>
+      <c r="C42" s="85"/>
+      <c r="D42" s="85"/>
+      <c r="E42" s="85"/>
+      <c r="F42" s="86"/>
     </row>
     <row r="43" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="104"/>
-      <c r="B43" s="105"/>
-      <c r="C43" s="105"/>
-      <c r="D43" s="105"/>
-      <c r="E43" s="105"/>
-      <c r="F43" s="106"/>
+      <c r="A43" s="121"/>
+      <c r="B43" s="115"/>
+      <c r="C43" s="115"/>
+      <c r="D43" s="115"/>
+      <c r="E43" s="115"/>
+      <c r="F43" s="116"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="113"/>
-      <c r="B44" s="114"/>
-      <c r="C44" s="114"/>
-      <c r="D44" s="114"/>
-      <c r="E44" s="114"/>
-      <c r="F44" s="115"/>
+      <c r="A44" s="123"/>
+      <c r="B44" s="119"/>
+      <c r="C44" s="119"/>
+      <c r="D44" s="119"/>
+      <c r="E44" s="119"/>
+      <c r="F44" s="120"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="A39:F40"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="A43:F44"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D36:F36"/>
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B2:F2"/>
@@ -11962,23 +12030,6 @@
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:F10"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="A39:F40"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="A43:F44"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <dataValidations count="5">
@@ -12053,8 +12104,8 @@
   </sheetPr>
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12065,152 +12116,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="79" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="81"/>
+      <c r="A1" s="96" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="98"/>
     </row>
     <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="121" t="s">
-        <v>234</v>
-      </c>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="122"/>
+      <c r="B2" s="106" t="s">
+        <v>233</v>
+      </c>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="107"/>
     </row>
     <row r="3" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="96" t="s">
-        <v>184</v>
-      </c>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="109"/>
+      <c r="B3" s="77" t="s">
+        <v>183</v>
+      </c>
+      <c r="C3" s="117"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="118"/>
     </row>
     <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="96" t="s">
-        <v>163</v>
-      </c>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="109"/>
+      <c r="B4" s="77" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" s="117"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="118"/>
     </row>
     <row r="5" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="96" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
-      <c r="F5" s="109"/>
+      <c r="B5" s="77" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="118"/>
     </row>
     <row r="6" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="96" t="s">
-        <v>219</v>
-      </c>
-      <c r="C6" s="108"/>
-      <c r="D6" s="108"/>
-      <c r="E6" s="108"/>
-      <c r="F6" s="109"/>
+      <c r="B6" s="77" t="s">
+        <v>218</v>
+      </c>
+      <c r="C6" s="117"/>
+      <c r="D6" s="117"/>
+      <c r="E6" s="117"/>
+      <c r="F6" s="118"/>
     </row>
     <row r="7" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="96" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="108"/>
-      <c r="D7" s="108"/>
-      <c r="E7" s="108"/>
-      <c r="F7" s="109"/>
+      <c r="B7" s="77" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="117"/>
+      <c r="D7" s="117"/>
+      <c r="E7" s="117"/>
+      <c r="F7" s="118"/>
     </row>
     <row r="8" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="B8" s="96" t="s">
-        <v>164</v>
-      </c>
-      <c r="C8" s="108"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="108"/>
-      <c r="F8" s="109"/>
+        <v>73</v>
+      </c>
+      <c r="B8" s="77" t="s">
+        <v>163</v>
+      </c>
+      <c r="C8" s="117"/>
+      <c r="D8" s="117"/>
+      <c r="E8" s="117"/>
+      <c r="F8" s="118"/>
     </row>
     <row r="9" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="B9" s="108"/>
-      <c r="C9" s="108"/>
-      <c r="D9" s="108"/>
-      <c r="E9" s="108"/>
-      <c r="F9" s="109"/>
+        <v>74</v>
+      </c>
+      <c r="B9" s="117"/>
+      <c r="C9" s="117"/>
+      <c r="D9" s="117"/>
+      <c r="E9" s="117"/>
+      <c r="F9" s="118"/>
     </row>
     <row r="10" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="123">
+      <c r="B10" s="108">
         <v>0.7</v>
       </c>
-      <c r="C10" s="96"/>
-      <c r="D10" s="96" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="96"/>
-      <c r="F10" s="97"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="77" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="77"/>
+      <c r="F10" s="78"/>
     </row>
     <row r="11" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="119" t="s">
-        <v>165</v>
-      </c>
-      <c r="C11" s="114"/>
-      <c r="D11" s="114"/>
-      <c r="E11" s="114"/>
-      <c r="F11" s="115"/>
+      <c r="B11" s="104" t="s">
+        <v>164</v>
+      </c>
+      <c r="C11" s="119"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
+      <c r="F11" s="120"/>
     </row>
     <row r="12" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="110"/>
-      <c r="B12" s="111"/>
-      <c r="C12" s="111"/>
-      <c r="D12" s="111"/>
-      <c r="E12" s="111"/>
-      <c r="F12" s="112"/>
+      <c r="A12" s="112"/>
+      <c r="B12" s="113"/>
+      <c r="C12" s="113"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="113"/>
+      <c r="F12" s="114"/>
     </row>
     <row r="13" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="87" t="s">
+      <c r="A13" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="88"/>
-      <c r="C13" s="88"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="89"/>
+      <c r="B13" s="85"/>
+      <c r="C13" s="85"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="86"/>
     </row>
     <row r="14" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
@@ -12237,14 +12288,14 @@
         <v>1</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D15" s="27"/>
       <c r="E15" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F15" s="37">
         <v>2</v>
@@ -12255,14 +12306,14 @@
         <v>2</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D16" s="27"/>
       <c r="E16" s="27" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F16" s="37">
         <v>1</v>
@@ -12273,14 +12324,14 @@
         <v>3</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D17" s="27"/>
       <c r="E17" s="27" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F17" s="37">
         <v>3</v>
@@ -12291,17 +12342,17 @@
         <v>4</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D18" s="27"/>
       <c r="E18" s="27" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F18" s="37" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="21" x14ac:dyDescent="0.25">
@@ -12309,14 +12360,14 @@
         <v>5</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D19" s="27"/>
       <c r="E19" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F19" s="37">
         <v>5</v>
@@ -12327,14 +12378,14 @@
         <v>6</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D20" s="27"/>
       <c r="E20" s="27" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F20" s="37">
         <v>6</v>
@@ -12345,17 +12396,17 @@
         <v>7</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D21" s="27"/>
       <c r="E21" s="27" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F21" s="37" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="21" x14ac:dyDescent="0.25">
@@ -12363,14 +12414,14 @@
         <v>8</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D22" s="27"/>
       <c r="E22" s="27" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F22" s="57">
         <v>43023</v>
@@ -12381,14 +12432,14 @@
         <v>9</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D23" s="27"/>
       <c r="E23" s="27" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F23" s="57">
         <v>43026</v>
@@ -12399,36 +12450,36 @@
         <v>10</v>
       </c>
       <c r="B24" s="54" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C24" s="54" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D24" s="54"/>
       <c r="E24" s="54" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F24" s="55" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="110"/>
-      <c r="B25" s="111"/>
-      <c r="C25" s="111"/>
-      <c r="D25" s="111"/>
-      <c r="E25" s="111"/>
-      <c r="F25" s="112"/>
+      <c r="A25" s="112"/>
+      <c r="B25" s="113"/>
+      <c r="C25" s="113"/>
+      <c r="D25" s="113"/>
+      <c r="E25" s="113"/>
+      <c r="F25" s="114"/>
     </row>
     <row r="26" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="87" t="s">
-        <v>78</v>
-      </c>
-      <c r="B26" s="88"/>
-      <c r="C26" s="88"/>
-      <c r="D26" s="88"/>
-      <c r="E26" s="88"/>
-      <c r="F26" s="89"/>
+      <c r="A26" s="84" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" s="85"/>
+      <c r="C26" s="85"/>
+      <c r="D26" s="85"/>
+      <c r="E26" s="85"/>
+      <c r="F26" s="86"/>
     </row>
     <row r="27" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A27" s="39" t="s">
@@ -12441,7 +12492,7 @@
         <v>5</v>
       </c>
       <c r="D27" s="40" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E27" s="40" t="s">
         <v>7</v>
@@ -12452,20 +12503,20 @@
     </row>
     <row r="28" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A28" s="36" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B28" s="27"/>
       <c r="C28" s="27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E28" s="27" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F28" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="21" x14ac:dyDescent="0.25">
@@ -12493,22 +12544,22 @@
       <c r="F31" s="43"/>
     </row>
     <row r="32" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="110"/>
-      <c r="B32" s="111"/>
-      <c r="C32" s="111"/>
-      <c r="D32" s="111"/>
-      <c r="E32" s="111"/>
-      <c r="F32" s="112"/>
+      <c r="A32" s="112"/>
+      <c r="B32" s="113"/>
+      <c r="C32" s="113"/>
+      <c r="D32" s="113"/>
+      <c r="E32" s="113"/>
+      <c r="F32" s="114"/>
     </row>
     <row r="33" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="87" t="s">
+      <c r="A33" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="88"/>
-      <c r="C33" s="88"/>
-      <c r="D33" s="88"/>
-      <c r="E33" s="88"/>
-      <c r="F33" s="89"/>
+      <c r="B33" s="85"/>
+      <c r="C33" s="85"/>
+      <c r="D33" s="85"/>
+      <c r="E33" s="85"/>
+      <c r="F33" s="86"/>
     </row>
     <row r="34" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A34" s="39" t="s">
@@ -12520,114 +12571,127 @@
       <c r="C34" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="D34" s="105" t="s">
-        <v>66</v>
-      </c>
-      <c r="E34" s="105"/>
-      <c r="F34" s="106"/>
+      <c r="D34" s="115" t="s">
+        <v>65</v>
+      </c>
+      <c r="E34" s="115"/>
+      <c r="F34" s="116"/>
     </row>
     <row r="35" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A35" s="39"/>
       <c r="B35" s="40"/>
       <c r="C35" s="40"/>
-      <c r="D35" s="108"/>
-      <c r="E35" s="108"/>
-      <c r="F35" s="109"/>
+      <c r="D35" s="117"/>
+      <c r="E35" s="117"/>
+      <c r="F35" s="118"/>
     </row>
     <row r="36" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A36" s="39"/>
       <c r="B36" s="40"/>
       <c r="C36" s="40"/>
-      <c r="D36" s="108"/>
-      <c r="E36" s="108"/>
-      <c r="F36" s="109"/>
+      <c r="D36" s="117"/>
+      <c r="E36" s="117"/>
+      <c r="F36" s="118"/>
     </row>
     <row r="37" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A37" s="39"/>
       <c r="B37" s="40"/>
       <c r="C37" s="40"/>
-      <c r="D37" s="108"/>
-      <c r="E37" s="108"/>
-      <c r="F37" s="109"/>
+      <c r="D37" s="117"/>
+      <c r="E37" s="117"/>
+      <c r="F37" s="118"/>
     </row>
     <row r="38" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A38" s="41"/>
       <c r="B38" s="42"/>
       <c r="C38" s="42"/>
-      <c r="D38" s="114"/>
-      <c r="E38" s="114"/>
-      <c r="F38" s="115"/>
+      <c r="D38" s="119"/>
+      <c r="E38" s="119"/>
+      <c r="F38" s="120"/>
     </row>
     <row r="39" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="116"/>
-      <c r="B39" s="117"/>
-      <c r="C39" s="117"/>
-      <c r="D39" s="117"/>
-      <c r="E39" s="117"/>
-      <c r="F39" s="118"/>
+      <c r="A39" s="109"/>
+      <c r="B39" s="110"/>
+      <c r="C39" s="110"/>
+      <c r="D39" s="110"/>
+      <c r="E39" s="110"/>
+      <c r="F39" s="111"/>
     </row>
     <row r="40" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="87" t="s">
+      <c r="A40" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="B40" s="88"/>
-      <c r="C40" s="88"/>
-      <c r="D40" s="88"/>
-      <c r="E40" s="88"/>
-      <c r="F40" s="89"/>
+      <c r="B40" s="85"/>
+      <c r="C40" s="85"/>
+      <c r="D40" s="85"/>
+      <c r="E40" s="85"/>
+      <c r="F40" s="86"/>
     </row>
     <row r="41" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="104"/>
-      <c r="B41" s="105"/>
-      <c r="C41" s="105"/>
-      <c r="D41" s="105"/>
-      <c r="E41" s="105"/>
-      <c r="F41" s="106"/>
+      <c r="A41" s="121"/>
+      <c r="B41" s="115"/>
+      <c r="C41" s="115"/>
+      <c r="D41" s="115"/>
+      <c r="E41" s="115"/>
+      <c r="F41" s="116"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="107"/>
-      <c r="B42" s="108"/>
-      <c r="C42" s="108"/>
-      <c r="D42" s="108"/>
-      <c r="E42" s="108"/>
-      <c r="F42" s="109"/>
+      <c r="A42" s="122"/>
+      <c r="B42" s="117"/>
+      <c r="C42" s="117"/>
+      <c r="D42" s="117"/>
+      <c r="E42" s="117"/>
+      <c r="F42" s="118"/>
     </row>
     <row r="43" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="110"/>
-      <c r="B43" s="111"/>
-      <c r="C43" s="111"/>
-      <c r="D43" s="111"/>
-      <c r="E43" s="111"/>
-      <c r="F43" s="112"/>
+      <c r="A43" s="112"/>
+      <c r="B43" s="113"/>
+      <c r="C43" s="113"/>
+      <c r="D43" s="113"/>
+      <c r="E43" s="113"/>
+      <c r="F43" s="114"/>
     </row>
     <row r="44" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="87" t="s">
+      <c r="A44" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="B44" s="88"/>
-      <c r="C44" s="88"/>
-      <c r="D44" s="88"/>
-      <c r="E44" s="88"/>
-      <c r="F44" s="89"/>
+      <c r="B44" s="85"/>
+      <c r="C44" s="85"/>
+      <c r="D44" s="85"/>
+      <c r="E44" s="85"/>
+      <c r="F44" s="86"/>
     </row>
     <row r="45" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="104"/>
-      <c r="B45" s="105"/>
-      <c r="C45" s="105"/>
-      <c r="D45" s="105"/>
-      <c r="E45" s="105"/>
-      <c r="F45" s="106"/>
+      <c r="A45" s="121"/>
+      <c r="B45" s="115"/>
+      <c r="C45" s="115"/>
+      <c r="D45" s="115"/>
+      <c r="E45" s="115"/>
+      <c r="F45" s="116"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="113"/>
-      <c r="B46" s="114"/>
-      <c r="C46" s="114"/>
-      <c r="D46" s="114"/>
-      <c r="E46" s="114"/>
-      <c r="F46" s="115"/>
+      <c r="A46" s="123"/>
+      <c r="B46" s="119"/>
+      <c r="C46" s="119"/>
+      <c r="D46" s="119"/>
+      <c r="E46" s="119"/>
+      <c r="F46" s="120"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A41:F42"/>
+    <mergeCell ref="A45:F46"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="A44:F44"/>
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A13:F13"/>
@@ -12644,19 +12708,6 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:F10"/>
     <mergeCell ref="A32:F32"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="A41:F42"/>
-    <mergeCell ref="A45:F46"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="A44:F44"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Colocar percentagem_x000a_" sqref="B10:C10" xr:uid="{C44B2955-AB0E-5E4A-9201-AF72D21AA99A}"/>
@@ -12742,152 +12793,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="79" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="81"/>
+      <c r="A1" s="96" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="98"/>
     </row>
     <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="121" t="s">
-        <v>235</v>
-      </c>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="122"/>
+      <c r="B2" s="106" t="s">
+        <v>234</v>
+      </c>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="107"/>
     </row>
     <row r="3" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="96" t="s">
-        <v>180</v>
-      </c>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="97"/>
+      <c r="B3" s="77" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="78"/>
     </row>
     <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="96" t="s">
-        <v>163</v>
-      </c>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="97"/>
+      <c r="B4" s="77" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="78"/>
     </row>
     <row r="5" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="96" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="96"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="97"/>
+      <c r="B5" s="77" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="78"/>
     </row>
     <row r="6" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="96" t="s">
-        <v>227</v>
-      </c>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="97"/>
+      <c r="B6" s="77" t="s">
+        <v>226</v>
+      </c>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="78"/>
     </row>
     <row r="7" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="96" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="96"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="96"/>
-      <c r="F7" s="97"/>
+      <c r="B7" s="77" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="78"/>
     </row>
     <row r="8" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="B8" s="96" t="s">
-        <v>164</v>
-      </c>
-      <c r="C8" s="96"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="97"/>
+        <v>73</v>
+      </c>
+      <c r="B8" s="77" t="s">
+        <v>163</v>
+      </c>
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="78"/>
     </row>
     <row r="9" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="B9" s="96"/>
-      <c r="C9" s="96"/>
-      <c r="D9" s="96"/>
-      <c r="E9" s="96"/>
-      <c r="F9" s="97"/>
+        <v>74</v>
+      </c>
+      <c r="B9" s="77"/>
+      <c r="C9" s="77"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="78"/>
     </row>
     <row r="10" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="123">
+      <c r="B10" s="108">
         <v>0.5</v>
       </c>
-      <c r="C10" s="96"/>
-      <c r="D10" s="96" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="96"/>
-      <c r="F10" s="97"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="77" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="77"/>
+      <c r="F10" s="78"/>
     </row>
     <row r="11" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="119" t="s">
-        <v>165</v>
-      </c>
-      <c r="C11" s="119"/>
-      <c r="D11" s="119"/>
-      <c r="E11" s="119"/>
-      <c r="F11" s="120"/>
+      <c r="B11" s="104" t="s">
+        <v>164</v>
+      </c>
+      <c r="C11" s="104"/>
+      <c r="D11" s="104"/>
+      <c r="E11" s="104"/>
+      <c r="F11" s="105"/>
     </row>
     <row r="12" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="110"/>
-      <c r="B12" s="111"/>
-      <c r="C12" s="111"/>
-      <c r="D12" s="111"/>
-      <c r="E12" s="111"/>
-      <c r="F12" s="112"/>
+      <c r="A12" s="112"/>
+      <c r="B12" s="113"/>
+      <c r="C12" s="113"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="113"/>
+      <c r="F12" s="114"/>
     </row>
     <row r="13" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="87" t="s">
+      <c r="A13" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="88"/>
-      <c r="C13" s="88"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="89"/>
+      <c r="B13" s="85"/>
+      <c r="C13" s="85"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="86"/>
     </row>
     <row r="14" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
@@ -12914,14 +12965,14 @@
         <v>1</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D15" s="27"/>
       <c r="E15" s="27" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F15" s="37">
         <v>2</v>
@@ -12932,14 +12983,14 @@
         <v>2</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D16" s="27"/>
       <c r="E16" s="27" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F16" s="37">
         <v>6</v>
@@ -12950,14 +13001,14 @@
         <v>3</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D17" s="27"/>
       <c r="E17" s="27" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F17" s="37">
         <v>2</v>
@@ -12968,14 +13019,14 @@
         <v>4</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D18" s="27"/>
       <c r="E18" s="27" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F18" s="37">
         <v>1</v>
@@ -12986,14 +13037,14 @@
         <v>5</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D19" s="27"/>
       <c r="E19" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F19" s="37">
         <v>120</v>
@@ -13004,17 +13055,17 @@
         <v>6</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D20" s="27"/>
       <c r="E20" s="27" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F20" s="37" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="21" x14ac:dyDescent="0.25">
@@ -13022,14 +13073,14 @@
         <v>7</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D21" s="27"/>
       <c r="E21" s="27" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F21" s="37">
         <v>59</v>
@@ -13040,14 +13091,14 @@
         <v>8</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D22" s="27"/>
       <c r="E22" s="27" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F22" s="37">
         <v>0</v>
@@ -13058,36 +13109,36 @@
         <v>9</v>
       </c>
       <c r="B23" s="54" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C23" s="54" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D23" s="54"/>
       <c r="E23" s="54" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F23" s="37" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="110"/>
-      <c r="B24" s="111"/>
-      <c r="C24" s="111"/>
-      <c r="D24" s="111"/>
-      <c r="E24" s="111"/>
-      <c r="F24" s="112"/>
+      <c r="A24" s="112"/>
+      <c r="B24" s="113"/>
+      <c r="C24" s="113"/>
+      <c r="D24" s="113"/>
+      <c r="E24" s="113"/>
+      <c r="F24" s="114"/>
     </row>
     <row r="25" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="87" t="s">
-        <v>78</v>
-      </c>
-      <c r="B25" s="88"/>
-      <c r="C25" s="88"/>
-      <c r="D25" s="88"/>
-      <c r="E25" s="88"/>
-      <c r="F25" s="89"/>
+      <c r="A25" s="84" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" s="85"/>
+      <c r="C25" s="85"/>
+      <c r="D25" s="85"/>
+      <c r="E25" s="85"/>
+      <c r="F25" s="86"/>
     </row>
     <row r="26" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A26" s="39" t="s">
@@ -13100,7 +13151,7 @@
         <v>5</v>
       </c>
       <c r="D26" s="40" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E26" s="40" t="s">
         <v>7</v>
@@ -13111,17 +13162,17 @@
     </row>
     <row r="27" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A27" s="36" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B27" s="27"/>
       <c r="C27" s="27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E27" s="27" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F27" s="37">
         <v>100</v>
@@ -13152,22 +13203,22 @@
       <c r="F30" s="43"/>
     </row>
     <row r="31" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="110"/>
-      <c r="B31" s="111"/>
-      <c r="C31" s="111"/>
-      <c r="D31" s="111"/>
-      <c r="E31" s="111"/>
-      <c r="F31" s="112"/>
+      <c r="A31" s="112"/>
+      <c r="B31" s="113"/>
+      <c r="C31" s="113"/>
+      <c r="D31" s="113"/>
+      <c r="E31" s="113"/>
+      <c r="F31" s="114"/>
     </row>
     <row r="32" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="87" t="s">
+      <c r="A32" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="B32" s="88"/>
-      <c r="C32" s="88"/>
-      <c r="D32" s="88"/>
-      <c r="E32" s="88"/>
-      <c r="F32" s="89"/>
+      <c r="B32" s="85"/>
+      <c r="C32" s="85"/>
+      <c r="D32" s="85"/>
+      <c r="E32" s="85"/>
+      <c r="F32" s="86"/>
     </row>
     <row r="33" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A33" s="39" t="s">
@@ -13179,119 +13230,126 @@
       <c r="C33" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="D33" s="105" t="s">
-        <v>66</v>
-      </c>
-      <c r="E33" s="105"/>
-      <c r="F33" s="106"/>
+      <c r="D33" s="115" t="s">
+        <v>65</v>
+      </c>
+      <c r="E33" s="115"/>
+      <c r="F33" s="116"/>
     </row>
     <row r="34" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A34" s="39"/>
       <c r="B34" s="40"/>
       <c r="C34" s="40"/>
-      <c r="D34" s="108"/>
-      <c r="E34" s="108"/>
-      <c r="F34" s="109"/>
+      <c r="D34" s="117"/>
+      <c r="E34" s="117"/>
+      <c r="F34" s="118"/>
     </row>
     <row r="35" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A35" s="39"/>
       <c r="B35" s="40"/>
       <c r="C35" s="40"/>
-      <c r="D35" s="108"/>
-      <c r="E35" s="108"/>
-      <c r="F35" s="109"/>
+      <c r="D35" s="117"/>
+      <c r="E35" s="117"/>
+      <c r="F35" s="118"/>
     </row>
     <row r="36" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A36" s="39"/>
       <c r="B36" s="40"/>
       <c r="C36" s="40"/>
-      <c r="D36" s="108"/>
-      <c r="E36" s="108"/>
-      <c r="F36" s="109"/>
+      <c r="D36" s="117"/>
+      <c r="E36" s="117"/>
+      <c r="F36" s="118"/>
     </row>
     <row r="37" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A37" s="41"/>
       <c r="B37" s="42"/>
       <c r="C37" s="42"/>
-      <c r="D37" s="114"/>
-      <c r="E37" s="114"/>
-      <c r="F37" s="115"/>
+      <c r="D37" s="119"/>
+      <c r="E37" s="119"/>
+      <c r="F37" s="120"/>
     </row>
     <row r="38" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="116"/>
-      <c r="B38" s="117"/>
-      <c r="C38" s="117"/>
-      <c r="D38" s="117"/>
-      <c r="E38" s="117"/>
-      <c r="F38" s="118"/>
+      <c r="A38" s="109"/>
+      <c r="B38" s="110"/>
+      <c r="C38" s="110"/>
+      <c r="D38" s="110"/>
+      <c r="E38" s="110"/>
+      <c r="F38" s="111"/>
     </row>
     <row r="39" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="87" t="s">
+      <c r="A39" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="B39" s="88"/>
-      <c r="C39" s="88"/>
-      <c r="D39" s="88"/>
-      <c r="E39" s="88"/>
-      <c r="F39" s="89"/>
+      <c r="B39" s="85"/>
+      <c r="C39" s="85"/>
+      <c r="D39" s="85"/>
+      <c r="E39" s="85"/>
+      <c r="F39" s="86"/>
     </row>
     <row r="40" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="104"/>
-      <c r="B40" s="105"/>
-      <c r="C40" s="105"/>
-      <c r="D40" s="105"/>
-      <c r="E40" s="105"/>
-      <c r="F40" s="106"/>
+      <c r="A40" s="121"/>
+      <c r="B40" s="115"/>
+      <c r="C40" s="115"/>
+      <c r="D40" s="115"/>
+      <c r="E40" s="115"/>
+      <c r="F40" s="116"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="107"/>
-      <c r="B41" s="108"/>
-      <c r="C41" s="108"/>
-      <c r="D41" s="108"/>
-      <c r="E41" s="108"/>
-      <c r="F41" s="109"/>
+      <c r="A41" s="122"/>
+      <c r="B41" s="117"/>
+      <c r="C41" s="117"/>
+      <c r="D41" s="117"/>
+      <c r="E41" s="117"/>
+      <c r="F41" s="118"/>
     </row>
     <row r="42" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="110"/>
-      <c r="B42" s="111"/>
-      <c r="C42" s="111"/>
-      <c r="D42" s="111"/>
-      <c r="E42" s="111"/>
-      <c r="F42" s="112"/>
+      <c r="A42" s="112"/>
+      <c r="B42" s="113"/>
+      <c r="C42" s="113"/>
+      <c r="D42" s="113"/>
+      <c r="E42" s="113"/>
+      <c r="F42" s="114"/>
     </row>
     <row r="43" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="87" t="s">
+      <c r="A43" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="B43" s="88"/>
-      <c r="C43" s="88"/>
-      <c r="D43" s="88"/>
-      <c r="E43" s="88"/>
-      <c r="F43" s="89"/>
+      <c r="B43" s="85"/>
+      <c r="C43" s="85"/>
+      <c r="D43" s="85"/>
+      <c r="E43" s="85"/>
+      <c r="F43" s="86"/>
     </row>
     <row r="44" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="104"/>
-      <c r="B44" s="105"/>
-      <c r="C44" s="105"/>
-      <c r="D44" s="105"/>
-      <c r="E44" s="105"/>
-      <c r="F44" s="106"/>
+      <c r="A44" s="121"/>
+      <c r="B44" s="115"/>
+      <c r="C44" s="115"/>
+      <c r="D44" s="115"/>
+      <c r="E44" s="115"/>
+      <c r="F44" s="116"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="113"/>
-      <c r="B45" s="114"/>
-      <c r="C45" s="114"/>
-      <c r="D45" s="114"/>
-      <c r="E45" s="114"/>
-      <c r="F45" s="115"/>
+      <c r="A45" s="123"/>
+      <c r="B45" s="119"/>
+      <c r="C45" s="119"/>
+      <c r="D45" s="119"/>
+      <c r="E45" s="119"/>
+      <c r="F45" s="120"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="A40:F41"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="A44:F45"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
     <mergeCell ref="A38:F38"/>
     <mergeCell ref="A12:F12"/>
     <mergeCell ref="A13:F13"/>
@@ -13304,18 +13362,11 @@
     <mergeCell ref="D35:F35"/>
     <mergeCell ref="D36:F36"/>
     <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="A40:F41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="A44:F45"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Colocar percentagem_x000a_" sqref="B10:C10" xr:uid="{8EDB03EC-30FB-484C-ACBE-DF33B9366718}"/>
@@ -13383,12 +13434,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13530,15 +13578,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FCF46D4-6C3F-4211-BBB9-5DE005064C3C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30DE7E78-AB24-4BCB-A51F-77E5C10364A7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="6597237e-e321-437a-ab0e-fe3e3f709099"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -13562,17 +13621,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30DE7E78-AB24-4BCB-A51F-77E5C10364A7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FCF46D4-6C3F-4211-BBB9-5DE005064C3C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="6597237e-e321-437a-ab0e-fe3e3f709099"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/docs/documentacao.xlsx
+++ b/docs/documentacao.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaobraganca/Desktop/ParallelsShared/GlobalTech_ETL/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC5648DB-F409-F743-84F6-5F922619C4B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D6A82D-D707-214B-904D-0CDDE773FDA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="28300" xr2:uid="{1C0ABE59-C842-1448-8BFE-1E96A6C9A910}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="28300" firstSheet="1" activeTab="9" xr2:uid="{1C0ABE59-C842-1448-8BFE-1E96A6C9A910}"/>
   </bookViews>
   <sheets>
     <sheet name="Matriz de decisão" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="242">
   <si>
     <t>Caracterização do Data Mart</t>
   </si>
@@ -619,12 +619,6 @@
     <t>order_status</t>
   </si>
   <si>
-    <t>order_date</t>
-  </si>
-  <si>
-    <t>limit_payment_date</t>
-  </si>
-  <si>
     <t>value</t>
   </si>
   <si>
@@ -634,15 +628,9 @@
     <t>surrogate key do funcionário</t>
   </si>
   <si>
-    <t>shipped_date</t>
-  </si>
-  <si>
     <t>método de pagamento</t>
   </si>
   <si>
-    <t>quantity_shipped</t>
-  </si>
-  <si>
     <t>was_received</t>
   </si>
   <si>
@@ -652,24 +640,6 @@
     <t>status da encomenda</t>
   </si>
   <si>
-    <t>data de envio da encomenda</t>
-  </si>
-  <si>
-    <t>data da encomenda</t>
-  </si>
-  <si>
-    <t>data de limite do pagamento</t>
-  </si>
-  <si>
-    <t>quantidade enviada</t>
-  </si>
-  <si>
-    <t>valor do pagamento</t>
-  </si>
-  <si>
-    <t>reception_date</t>
-  </si>
-  <si>
     <t>SHIPPED</t>
   </si>
   <si>
@@ -685,9 +655,6 @@
     <t>surrogate key da data de pagamento</t>
   </si>
   <si>
-    <t>2016-06-14 00:00:00.000</t>
-  </si>
-  <si>
     <t>valor do pagamento total/parcial</t>
   </si>
   <si>
@@ -703,18 +670,12 @@
     <t>Verificar tempo médio de pagamento e tipos de pagamento mais utilizados</t>
   </si>
   <si>
-    <t>canceled_date</t>
-  </si>
-  <si>
     <t>last_status</t>
   </si>
   <si>
     <t>estado da encomenda no momento do cancelamento</t>
   </si>
   <si>
-    <t>data do cancelamento</t>
-  </si>
-  <si>
     <t>DIM - Order</t>
   </si>
   <si>
@@ -742,9 +703,6 @@
     <t>DIM_date</t>
   </si>
   <si>
-    <t>FACT_order</t>
-  </si>
-  <si>
     <t>FACT_order_payment</t>
   </si>
   <si>
@@ -782,6 +740,36 @@
   </si>
   <si>
     <t>DIM - Payment Method</t>
+  </si>
+  <si>
+    <t>sk_payment_date</t>
+  </si>
+  <si>
+    <t>sk_order_date</t>
+  </si>
+  <si>
+    <t>sk_limit_payment_date</t>
+  </si>
+  <si>
+    <t>surrogate key da data de limite do pagamento</t>
+  </si>
+  <si>
+    <t>surrogate key da data da encomenda</t>
+  </si>
+  <si>
+    <t>delivery_duration</t>
+  </si>
+  <si>
+    <t>duração da entrega</t>
+  </si>
+  <si>
+    <t>surrogate key da data de envio da encomenda</t>
+  </si>
+  <si>
+    <t>shipped_quantity</t>
+  </si>
+  <si>
+    <t>surrogate key data de cancelamento</t>
   </si>
 </sst>
 </file>
@@ -1288,7 +1276,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1472,57 +1460,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1556,6 +1493,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1563,6 +1551,51 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1580,50 +1613,15 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -6090,7 +6088,7 @@
   </sheetPr>
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -6152,16 +6150,16 @@
         <v>32</v>
       </c>
       <c r="B5" s="47" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>34</v>
@@ -6187,7 +6185,7 @@
     </row>
     <row r="7" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="B7" s="48"/>
       <c r="C7" s="3"/>
@@ -6199,7 +6197,7 @@
     </row>
     <row r="8" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="B8" s="48"/>
       <c r="C8" s="3"/>
@@ -6211,7 +6209,7 @@
     </row>
     <row r="9" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="B9" s="48"/>
       <c r="C9" s="3"/>
@@ -6223,7 +6221,7 @@
     </row>
     <row r="10" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="B10" s="48"/>
       <c r="C10" s="3"/>
@@ -6235,7 +6233,7 @@
     </row>
     <row r="11" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="B11" s="48"/>
       <c r="C11" s="3"/>
@@ -6247,7 +6245,7 @@
     </row>
     <row r="12" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="B12" s="48"/>
       <c r="C12" s="3"/>
@@ -6259,7 +6257,7 @@
     </row>
     <row r="13" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="B13" s="48"/>
       <c r="C13" s="3"/>
@@ -7731,10 +7729,10 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7746,152 +7744,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="79" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="98"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="81"/>
     </row>
     <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="106" t="s">
-        <v>235</v>
-      </c>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="107"/>
+      <c r="B2" s="121" t="s">
+        <v>221</v>
+      </c>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="122"/>
     </row>
     <row r="3" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="77" t="s">
-        <v>215</v>
-      </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="78"/>
+      <c r="B3" s="96" t="s">
+        <v>204</v>
+      </c>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="97"/>
     </row>
     <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="96" t="s">
         <v>162</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="78"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="97"/>
     </row>
     <row r="5" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="77" t="s">
+      <c r="B5" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="78"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="97"/>
     </row>
     <row r="6" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="77" t="s">
-        <v>216</v>
-      </c>
-      <c r="C6" s="77"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="78"/>
+      <c r="B6" s="96" t="s">
+        <v>205</v>
+      </c>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="97"/>
     </row>
     <row r="7" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="77" t="s">
+      <c r="B7" s="96" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="77"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="78"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="97"/>
     </row>
     <row r="8" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="B8" s="77" t="s">
+      <c r="B8" s="96" t="s">
         <v>163</v>
       </c>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="78"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="97"/>
     </row>
     <row r="9" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="B9" s="77"/>
-      <c r="C9" s="77"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="78"/>
+      <c r="B9" s="96"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="96"/>
+      <c r="E9" s="96"/>
+      <c r="F9" s="97"/>
     </row>
     <row r="10" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="108">
+      <c r="B10" s="123">
         <v>0.3</v>
       </c>
-      <c r="C10" s="77"/>
-      <c r="D10" s="77" t="s">
+      <c r="C10" s="96"/>
+      <c r="D10" s="96" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="77"/>
-      <c r="F10" s="78"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="97"/>
     </row>
     <row r="11" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="104" t="s">
+      <c r="B11" s="119" t="s">
         <v>164</v>
       </c>
-      <c r="C11" s="104"/>
-      <c r="D11" s="104"/>
-      <c r="E11" s="104"/>
-      <c r="F11" s="105"/>
+      <c r="C11" s="119"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
+      <c r="F11" s="120"/>
     </row>
     <row r="12" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="112"/>
-      <c r="B12" s="113"/>
-      <c r="C12" s="113"/>
-      <c r="D12" s="113"/>
-      <c r="E12" s="113"/>
-      <c r="F12" s="114"/>
+      <c r="A12" s="110"/>
+      <c r="B12" s="111"/>
+      <c r="C12" s="111"/>
+      <c r="D12" s="111"/>
+      <c r="E12" s="111"/>
+      <c r="F12" s="112"/>
     </row>
     <row r="13" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="84" t="s">
+      <c r="A13" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="85"/>
-      <c r="C13" s="85"/>
-      <c r="D13" s="85"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="86"/>
+      <c r="B13" s="88"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="89"/>
     </row>
     <row r="14" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
@@ -7961,28 +7959,27 @@
       </c>
       <c r="D17" s="27"/>
       <c r="E17" s="27" t="s">
-        <v>173</v>
+        <v>241</v>
       </c>
       <c r="F17" s="37">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A18" s="36">
+      <c r="A18" s="126">
         <v>4</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>151</v>
+        <v>115</v>
       </c>
       <c r="C18" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="D18" s="27"/>
       <c r="E18" s="27" t="s">
-        <v>173</v>
-      </c>
-      <c r="F18" s="37">
-        <v>2</v>
+        <v>193</v>
+      </c>
+      <c r="F18" s="127">
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="21" x14ac:dyDescent="0.25">
@@ -8003,245 +8000,244 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A20" s="36">
-        <v>6</v>
+    <row r="20" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="27">
+        <v>7</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="C20" s="27" t="s">
         <v>76</v>
       </c>
       <c r="D20" s="27"/>
       <c r="E20" s="27" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="F20" s="37" t="s">
-        <v>213</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="27">
+      <c r="A21" s="87" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" s="88"/>
+      <c r="C21" s="88"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="88"/>
+      <c r="F21" s="89"/>
+    </row>
+    <row r="22" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A22" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="27" t="s">
-        <v>220</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27" t="s">
-        <v>221</v>
-      </c>
-      <c r="F21" s="37" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="84" t="s">
-        <v>77</v>
-      </c>
-      <c r="B22" s="85"/>
-      <c r="C22" s="85"/>
-      <c r="D22" s="85"/>
-      <c r="E22" s="85"/>
-      <c r="F22" s="86"/>
+      <c r="F22" s="31" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="23" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A23" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="E23" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="F23" s="31" t="s">
-        <v>20</v>
+      <c r="A23" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="B23" s="56"/>
+      <c r="C23" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="E23" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="F23" s="37">
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A24" s="36" t="s">
-        <v>184</v>
-      </c>
+      <c r="A24" s="36"/>
       <c r="B24" s="56"/>
-      <c r="C24" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="D24" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="E24" s="27" t="s">
-        <v>224</v>
-      </c>
-      <c r="F24" s="37">
-        <v>30</v>
-      </c>
+      <c r="C24" s="27"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="37"/>
     </row>
     <row r="25" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="36"/>
-      <c r="B25" s="56"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="27"/>
       <c r="F25" s="37"/>
     </row>
     <row r="26" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="F26" s="37"/>
-    </row>
-    <row r="27" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A27" s="41"/>
-      <c r="B27" s="42"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="43"/>
+      <c r="A26" s="41"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="43"/>
+    </row>
+    <row r="27" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="110"/>
+      <c r="B27" s="111"/>
+      <c r="C27" s="111"/>
+      <c r="D27" s="111"/>
+      <c r="E27" s="111"/>
+      <c r="F27" s="112"/>
     </row>
     <row r="28" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="112"/>
-      <c r="B28" s="113"/>
-      <c r="C28" s="113"/>
-      <c r="D28" s="113"/>
-      <c r="E28" s="113"/>
-      <c r="F28" s="114"/>
-    </row>
-    <row r="29" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="84" t="s">
+      <c r="A28" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="85"/>
-      <c r="C29" s="85"/>
-      <c r="D29" s="85"/>
-      <c r="E29" s="85"/>
-      <c r="F29" s="86"/>
+      <c r="B28" s="88"/>
+      <c r="C28" s="88"/>
+      <c r="D28" s="88"/>
+      <c r="E28" s="88"/>
+      <c r="F28" s="89"/>
+    </row>
+    <row r="29" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A29" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="105" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" s="105"/>
+      <c r="F29" s="106"/>
     </row>
     <row r="30" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A30" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="B30" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" s="115" t="s">
-        <v>65</v>
-      </c>
-      <c r="E30" s="115"/>
-      <c r="F30" s="116"/>
+      <c r="A30" s="39"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="108"/>
+      <c r="E30" s="108"/>
+      <c r="F30" s="109"/>
     </row>
     <row r="31" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A31" s="39"/>
       <c r="B31" s="40"/>
       <c r="C31" s="40"/>
-      <c r="D31" s="117"/>
-      <c r="E31" s="117"/>
-      <c r="F31" s="118"/>
+      <c r="D31" s="108"/>
+      <c r="E31" s="108"/>
+      <c r="F31" s="109"/>
     </row>
     <row r="32" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A32" s="39"/>
       <c r="B32" s="40"/>
       <c r="C32" s="40"/>
-      <c r="D32" s="117"/>
-      <c r="E32" s="117"/>
-      <c r="F32" s="118"/>
+      <c r="D32" s="108"/>
+      <c r="E32" s="108"/>
+      <c r="F32" s="109"/>
     </row>
     <row r="33" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A33" s="39"/>
-      <c r="B33" s="40"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="117"/>
-      <c r="E33" s="117"/>
-      <c r="F33" s="118"/>
-    </row>
-    <row r="34" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A34" s="41"/>
-      <c r="B34" s="42"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="119"/>
-      <c r="E34" s="119"/>
-      <c r="F34" s="120"/>
+      <c r="A33" s="41"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="114"/>
+      <c r="E33" s="114"/>
+      <c r="F33" s="115"/>
+    </row>
+    <row r="34" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="116"/>
+      <c r="B34" s="117"/>
+      <c r="C34" s="117"/>
+      <c r="D34" s="117"/>
+      <c r="E34" s="117"/>
+      <c r="F34" s="118"/>
     </row>
     <row r="35" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="109"/>
-      <c r="B35" s="110"/>
-      <c r="C35" s="110"/>
-      <c r="D35" s="110"/>
-      <c r="E35" s="110"/>
-      <c r="F35" s="111"/>
-    </row>
-    <row r="36" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="84" t="s">
+      <c r="A35" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="B36" s="85"/>
-      <c r="C36" s="85"/>
-      <c r="D36" s="85"/>
-      <c r="E36" s="85"/>
-      <c r="F36" s="86"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="121"/>
-      <c r="B37" s="115"/>
-      <c r="C37" s="115"/>
-      <c r="D37" s="115"/>
-      <c r="E37" s="115"/>
-      <c r="F37" s="116"/>
-    </row>
-    <row r="38" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="122"/>
-      <c r="B38" s="117"/>
-      <c r="C38" s="117"/>
-      <c r="D38" s="117"/>
-      <c r="E38" s="117"/>
-      <c r="F38" s="118"/>
+      <c r="B35" s="88"/>
+      <c r="C35" s="88"/>
+      <c r="D35" s="88"/>
+      <c r="E35" s="88"/>
+      <c r="F35" s="89"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="104"/>
+      <c r="B36" s="105"/>
+      <c r="C36" s="105"/>
+      <c r="D36" s="105"/>
+      <c r="E36" s="105"/>
+      <c r="F36" s="106"/>
+    </row>
+    <row r="37" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="107"/>
+      <c r="B37" s="108"/>
+      <c r="C37" s="108"/>
+      <c r="D37" s="108"/>
+      <c r="E37" s="108"/>
+      <c r="F37" s="109"/>
+    </row>
+    <row r="38" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="110"/>
+      <c r="B38" s="111"/>
+      <c r="C38" s="111"/>
+      <c r="D38" s="111"/>
+      <c r="E38" s="111"/>
+      <c r="F38" s="112"/>
     </row>
     <row r="39" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="112"/>
-      <c r="B39" s="113"/>
-      <c r="C39" s="113"/>
-      <c r="D39" s="113"/>
-      <c r="E39" s="113"/>
-      <c r="F39" s="114"/>
-    </row>
-    <row r="40" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="84" t="s">
+      <c r="A39" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="B40" s="85"/>
-      <c r="C40" s="85"/>
-      <c r="D40" s="85"/>
-      <c r="E40" s="85"/>
-      <c r="F40" s="86"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="121"/>
-      <c r="B41" s="115"/>
-      <c r="C41" s="115"/>
-      <c r="D41" s="115"/>
-      <c r="E41" s="115"/>
-      <c r="F41" s="116"/>
-    </row>
-    <row r="42" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="123"/>
-      <c r="B42" s="119"/>
-      <c r="C42" s="119"/>
-      <c r="D42" s="119"/>
-      <c r="E42" s="119"/>
-      <c r="F42" s="120"/>
+      <c r="B39" s="88"/>
+      <c r="C39" s="88"/>
+      <c r="D39" s="88"/>
+      <c r="E39" s="88"/>
+      <c r="F39" s="89"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="104"/>
+      <c r="B40" s="105"/>
+      <c r="C40" s="105"/>
+      <c r="D40" s="105"/>
+      <c r="E40" s="105"/>
+      <c r="F40" s="106"/>
+    </row>
+    <row r="41" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="113"/>
+      <c r="B41" s="114"/>
+      <c r="C41" s="114"/>
+      <c r="D41" s="114"/>
+      <c r="E41" s="114"/>
+      <c r="F41" s="115"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="A36:F37"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="A40:F41"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D33:F33"/>
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B2:F2"/>
@@ -8254,22 +8250,6 @@
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:F10"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="A37:F38"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="A41:F42"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Colocar percentagem_x000a_" sqref="B10:C10" xr:uid="{2B355D78-2274-AF4C-B934-68ADBC7FB191}"/>
@@ -8282,12 +8262,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="8">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{596A2327-EB3C-0847-9EA6-B35EE44AD099}">
-          <x14:formula1>
-            <xm:f>Metadata!$A$43:$A$44</xm:f>
-          </x14:formula1>
-          <xm:sqref>C15:C21</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8B866F3A-26E7-F445-958C-7CD8084A005D}">
           <x14:formula1>
             <xm:f>Metadata!$A$21:$A$23</xm:f>
@@ -8310,25 +8284,31 @@
           <x14:formula1>
             <xm:f>Metadata!$A$33:$A$34</xm:f>
           </x14:formula1>
-          <xm:sqref>C31</xm:sqref>
+          <xm:sqref>C30</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{71AA3F63-2618-E441-85F7-83CC17167451}">
           <x14:formula1>
             <xm:f>Metadata!$A$37:$A$41</xm:f>
           </x14:formula1>
-          <xm:sqref>D31:D34</xm:sqref>
+          <xm:sqref>D30:D33</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0C250C6F-308E-0547-9CC2-AD67B97F1544}">
           <x14:formula1>
             <xm:f>Metadata!$A$48:$A$50</xm:f>
           </x14:formula1>
-          <xm:sqref>C27 C24:C25</xm:sqref>
+          <xm:sqref>C26 C23:C24</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E76D1ED0-470C-774D-95F7-6BA11889CFE0}">
           <x14:formula1>
             <xm:f>Metadata!$A$54:$A$56</xm:f>
           </x14:formula1>
-          <xm:sqref>D27 D24:D25</xm:sqref>
+          <xm:sqref>D26 D23:D24</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{596A2327-EB3C-0847-9EA6-B35EE44AD099}">
+          <x14:formula1>
+            <xm:f>Metadata!$A$43:$A$44</xm:f>
+          </x14:formula1>
+          <xm:sqref>C15:C20</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -8736,95 +8716,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="98"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="81"/>
     </row>
     <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="99" t="s">
-        <v>227</v>
+      <c r="B2" s="82" t="s">
+        <v>214</v>
       </c>
       <c r="C2" s="67"/>
       <c r="D2" s="67"/>
       <c r="E2" s="67"/>
       <c r="F2" s="67"/>
-      <c r="G2" s="100"/>
+      <c r="G2" s="83"/>
     </row>
     <row r="3" spans="1:7" ht="46" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="84" t="s">
         <v>88</v>
       </c>
       <c r="C3" s="68"/>
       <c r="D3" s="68"/>
       <c r="E3" s="68"/>
       <c r="F3" s="68"/>
-      <c r="G3" s="80"/>
+      <c r="G3" s="85"/>
     </row>
     <row r="4" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="79" t="s">
+      <c r="B4" s="84" t="s">
         <v>51</v>
       </c>
       <c r="C4" s="68"/>
       <c r="D4" s="68"/>
       <c r="E4" s="68"/>
       <c r="F4" s="68"/>
-      <c r="G4" s="80"/>
+      <c r="G4" s="85"/>
     </row>
     <row r="5" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="79" t="s">
+      <c r="B5" s="84" t="s">
         <v>87</v>
       </c>
       <c r="C5" s="68"/>
       <c r="D5" s="68"/>
       <c r="E5" s="68"/>
       <c r="F5" s="68"/>
-      <c r="G5" s="80"/>
+      <c r="G5" s="85"/>
     </row>
     <row r="6" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="90"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="93" t="s">
+      <c r="B6" s="73"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="F6" s="94"/>
-      <c r="G6" s="95"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="78"/>
     </row>
     <row r="7" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="35"/>
       <c r="G7" s="33"/>
     </row>
     <row r="8" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="84" t="s">
+      <c r="A8" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="85"/>
-      <c r="C8" s="85"/>
-      <c r="D8" s="85"/>
-      <c r="E8" s="85"/>
-      <c r="F8" s="85"/>
-      <c r="G8" s="86"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="89"/>
     </row>
     <row r="9" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
@@ -9013,7 +8993,7 @@
       <c r="G18" s="37"/>
     </row>
     <row r="19" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A19" s="87" t="s">
+      <c r="A19" s="90" t="s">
         <v>21</v>
       </c>
       <c r="B19" s="62"/>
@@ -9033,57 +9013,57 @@
       <c r="C20" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="88" t="s">
+      <c r="D20" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="E20" s="88"/>
-      <c r="F20" s="88"/>
-      <c r="G20" s="88"/>
+      <c r="E20" s="91"/>
+      <c r="F20" s="91"/>
+      <c r="G20" s="91"/>
     </row>
     <row r="21" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="89"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="89"/>
-      <c r="G21" s="89"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="92"/>
     </row>
     <row r="22" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="89"/>
-      <c r="E22" s="89"/>
-      <c r="F22" s="89"/>
-      <c r="G22" s="89"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="92"/>
+      <c r="G22" s="92"/>
     </row>
     <row r="23" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="89"/>
-      <c r="E23" s="89"/>
-      <c r="F23" s="89"/>
-      <c r="G23" s="89"/>
+      <c r="D23" s="92"/>
+      <c r="E23" s="92"/>
+      <c r="F23" s="92"/>
+      <c r="G23" s="92"/>
     </row>
     <row r="24" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="89"/>
-      <c r="E24" s="89"/>
-      <c r="F24" s="89"/>
-      <c r="G24" s="89"/>
+      <c r="D24" s="92"/>
+      <c r="E24" s="92"/>
+      <c r="F24" s="92"/>
+      <c r="G24" s="92"/>
     </row>
     <row r="25" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="89"/>
-      <c r="E25" s="89"/>
-      <c r="F25" s="89"/>
-      <c r="G25" s="89"/>
+      <c r="D25" s="92"/>
+      <c r="E25" s="92"/>
+      <c r="F25" s="92"/>
+      <c r="G25" s="92"/>
     </row>
     <row r="26" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A26" s="36"/>
@@ -9093,7 +9073,7 @@
       <c r="G26" s="33"/>
     </row>
     <row r="27" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A27" s="87" t="s">
+      <c r="A27" s="90" t="s">
         <v>29</v>
       </c>
       <c r="B27" s="62"/>
@@ -9110,13 +9090,13 @@
       <c r="B28" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="88" t="s">
+      <c r="C28" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="88"/>
-      <c r="E28" s="88"/>
-      <c r="F28" s="88"/>
-      <c r="G28" s="88"/>
+      <c r="D28" s="91"/>
+      <c r="E28" s="91"/>
+      <c r="F28" s="91"/>
+      <c r="G28" s="91"/>
     </row>
     <row r="29" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
@@ -9125,42 +9105,42 @@
       <c r="B29" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C29" s="73" t="s">
+      <c r="C29" s="86" t="s">
         <v>109</v>
       </c>
-      <c r="D29" s="73"/>
-      <c r="E29" s="73"/>
-      <c r="F29" s="73"/>
-      <c r="G29" s="73"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="86"/>
+      <c r="G29" s="86"/>
     </row>
     <row r="30" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>2</v>
       </c>
       <c r="B30" s="1"/>
-      <c r="C30" s="73" t="s">
+      <c r="C30" s="86" t="s">
         <v>112</v>
       </c>
-      <c r="D30" s="73"/>
-      <c r="E30" s="73"/>
-      <c r="F30" s="73"/>
-      <c r="G30" s="73"/>
+      <c r="D30" s="86"/>
+      <c r="E30" s="86"/>
+      <c r="F30" s="86"/>
+      <c r="G30" s="86"/>
     </row>
     <row r="31" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
-      <c r="C31" s="73"/>
-      <c r="D31" s="73"/>
-      <c r="E31" s="73"/>
-      <c r="F31" s="73"/>
-      <c r="G31" s="73"/>
+      <c r="C31" s="86"/>
+      <c r="D31" s="86"/>
+      <c r="E31" s="86"/>
+      <c r="F31" s="86"/>
+      <c r="G31" s="86"/>
     </row>
     <row r="32" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="G32" s="33"/>
     </row>
     <row r="33" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="74" t="s">
+      <c r="A33" s="93" t="s">
         <v>22</v>
       </c>
       <c r="B33" s="70"/>
@@ -9168,28 +9148,28 @@
       <c r="D33" s="70"/>
       <c r="E33" s="70"/>
       <c r="F33" s="70"/>
-      <c r="G33" s="75"/>
+      <c r="G33" s="94"/>
     </row>
     <row r="34" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="76"/>
-      <c r="B34" s="77"/>
-      <c r="C34" s="77"/>
-      <c r="D34" s="77"/>
-      <c r="E34" s="77"/>
-      <c r="F34" s="77"/>
-      <c r="G34" s="78"/>
+      <c r="A34" s="95"/>
+      <c r="B34" s="96"/>
+      <c r="C34" s="96"/>
+      <c r="D34" s="96"/>
+      <c r="E34" s="96"/>
+      <c r="F34" s="96"/>
+      <c r="G34" s="97"/>
     </row>
     <row r="35" spans="1:7" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="76"/>
-      <c r="B35" s="77"/>
-      <c r="C35" s="77"/>
-      <c r="D35" s="77"/>
-      <c r="E35" s="77"/>
-      <c r="F35" s="77"/>
-      <c r="G35" s="78"/>
+      <c r="A35" s="95"/>
+      <c r="B35" s="96"/>
+      <c r="C35" s="96"/>
+      <c r="D35" s="96"/>
+      <c r="E35" s="96"/>
+      <c r="F35" s="96"/>
+      <c r="G35" s="97"/>
     </row>
     <row r="36" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="74" t="s">
+      <c r="A36" s="93" t="s">
         <v>10</v>
       </c>
       <c r="B36" s="70"/>
@@ -9197,35 +9177,33 @@
       <c r="D36" s="70"/>
       <c r="E36" s="70"/>
       <c r="F36" s="70"/>
-      <c r="G36" s="75"/>
+      <c r="G36" s="94"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="79"/>
+      <c r="A37" s="84"/>
       <c r="B37" s="68"/>
       <c r="C37" s="68"/>
       <c r="D37" s="68"/>
       <c r="E37" s="68"/>
       <c r="F37" s="68"/>
-      <c r="G37" s="80"/>
+      <c r="G37" s="85"/>
     </row>
     <row r="38" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="81"/>
-      <c r="B38" s="82"/>
-      <c r="C38" s="82"/>
-      <c r="D38" s="82"/>
-      <c r="E38" s="82"/>
-      <c r="F38" s="82"/>
-      <c r="G38" s="83"/>
+      <c r="A38" s="98"/>
+      <c r="B38" s="99"/>
+      <c r="C38" s="99"/>
+      <c r="D38" s="99"/>
+      <c r="E38" s="99"/>
+      <c r="F38" s="99"/>
+      <c r="G38" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="A34:G35"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A37:G38"/>
     <mergeCell ref="C30:G30"/>
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="A19:G19"/>
@@ -9238,11 +9216,13 @@
     <mergeCell ref="A27:G27"/>
     <mergeCell ref="C28:G28"/>
     <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="A34:G35"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A37:G38"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Exemplo:_x000a_id -&gt; nome -&gt; categoria -&gt; ALL" sqref="C29:C32" xr:uid="{386320E1-7050-C749-9143-6F7D856CB823}"/>
@@ -9311,67 +9291,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="98"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="81"/>
     </row>
     <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="99" t="s">
-        <v>228</v>
+      <c r="B2" s="82" t="s">
+        <v>215</v>
       </c>
       <c r="C2" s="67"/>
       <c r="D2" s="67"/>
       <c r="E2" s="67"/>
       <c r="F2" s="67"/>
-      <c r="G2" s="100"/>
+      <c r="G2" s="83"/>
     </row>
     <row r="3" spans="1:7" ht="46" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="84" t="s">
         <v>100</v>
       </c>
       <c r="C3" s="68"/>
       <c r="D3" s="68"/>
       <c r="E3" s="68"/>
       <c r="F3" s="68"/>
-      <c r="G3" s="80"/>
+      <c r="G3" s="85"/>
     </row>
     <row r="4" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="79" t="s">
+      <c r="B4" s="84" t="s">
         <v>53</v>
       </c>
       <c r="C4" s="68"/>
       <c r="D4" s="68"/>
       <c r="E4" s="68"/>
       <c r="F4" s="68"/>
-      <c r="G4" s="80"/>
+      <c r="G4" s="85"/>
     </row>
     <row r="5" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="79" t="s">
+      <c r="B5" s="84" t="s">
         <v>99</v>
       </c>
       <c r="C5" s="68"/>
       <c r="D5" s="68"/>
       <c r="E5" s="68"/>
       <c r="F5" s="68"/>
-      <c r="G5" s="80"/>
+      <c r="G5" s="85"/>
     </row>
     <row r="6" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
@@ -9380,26 +9360,26 @@
       <c r="B6" s="101"/>
       <c r="C6" s="102"/>
       <c r="D6" s="103"/>
-      <c r="E6" s="93" t="s">
+      <c r="E6" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="F6" s="94"/>
-      <c r="G6" s="95"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="78"/>
     </row>
     <row r="7" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="35"/>
       <c r="G7" s="33"/>
     </row>
     <row r="8" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="84" t="s">
+      <c r="A8" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="85"/>
-      <c r="C8" s="85"/>
-      <c r="D8" s="85"/>
-      <c r="E8" s="85"/>
-      <c r="F8" s="85"/>
-      <c r="G8" s="86"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="89"/>
     </row>
     <row r="9" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
@@ -9555,7 +9535,7 @@
       <c r="G17" s="37"/>
     </row>
     <row r="18" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A18" s="87" t="s">
+      <c r="A18" s="90" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="62"/>
@@ -9575,57 +9555,57 @@
       <c r="C19" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="88" t="s">
+      <c r="D19" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="E19" s="88"/>
-      <c r="F19" s="88"/>
-      <c r="G19" s="88"/>
+      <c r="E19" s="91"/>
+      <c r="F19" s="91"/>
+      <c r="G19" s="91"/>
     </row>
     <row r="20" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="89"/>
-      <c r="E20" s="89"/>
-      <c r="F20" s="89"/>
-      <c r="G20" s="89"/>
+      <c r="D20" s="92"/>
+      <c r="E20" s="92"/>
+      <c r="F20" s="92"/>
+      <c r="G20" s="92"/>
     </row>
     <row r="21" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="89"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="89"/>
-      <c r="G21" s="89"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="92"/>
     </row>
     <row r="22" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="89"/>
-      <c r="E22" s="89"/>
-      <c r="F22" s="89"/>
-      <c r="G22" s="89"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="92"/>
+      <c r="G22" s="92"/>
     </row>
     <row r="23" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="89"/>
-      <c r="E23" s="89"/>
-      <c r="F23" s="89"/>
-      <c r="G23" s="89"/>
+      <c r="D23" s="92"/>
+      <c r="E23" s="92"/>
+      <c r="F23" s="92"/>
+      <c r="G23" s="92"/>
     </row>
     <row r="24" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="89"/>
-      <c r="E24" s="89"/>
-      <c r="F24" s="89"/>
-      <c r="G24" s="89"/>
+      <c r="D24" s="92"/>
+      <c r="E24" s="92"/>
+      <c r="F24" s="92"/>
+      <c r="G24" s="92"/>
     </row>
     <row r="25" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="36"/>
@@ -9635,7 +9615,7 @@
       <c r="G25" s="33"/>
     </row>
     <row r="26" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A26" s="87" t="s">
+      <c r="A26" s="90" t="s">
         <v>29</v>
       </c>
       <c r="B26" s="62"/>
@@ -9652,47 +9632,47 @@
       <c r="B27" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="88" t="s">
+      <c r="C27" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="88"/>
-      <c r="E27" s="88"/>
-      <c r="F27" s="88"/>
-      <c r="G27" s="88"/>
+      <c r="D27" s="91"/>
+      <c r="E27" s="91"/>
+      <c r="F27" s="91"/>
+      <c r="G27" s="91"/>
     </row>
     <row r="28" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="73"/>
+      <c r="C28" s="86"/>
+      <c r="D28" s="86"/>
+      <c r="E28" s="86"/>
+      <c r="F28" s="86"/>
+      <c r="G28" s="86"/>
     </row>
     <row r="29" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="73"/>
-      <c r="D29" s="73"/>
-      <c r="E29" s="73"/>
-      <c r="F29" s="73"/>
-      <c r="G29" s="73"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="86"/>
+      <c r="G29" s="86"/>
     </row>
     <row r="30" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="73"/>
-      <c r="D30" s="73"/>
-      <c r="E30" s="73"/>
-      <c r="F30" s="73"/>
-      <c r="G30" s="73"/>
+      <c r="C30" s="86"/>
+      <c r="D30" s="86"/>
+      <c r="E30" s="86"/>
+      <c r="F30" s="86"/>
+      <c r="G30" s="86"/>
     </row>
     <row r="31" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="G31" s="33"/>
     </row>
     <row r="32" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="74" t="s">
+      <c r="A32" s="93" t="s">
         <v>22</v>
       </c>
       <c r="B32" s="70"/>
@@ -9700,28 +9680,28 @@
       <c r="D32" s="70"/>
       <c r="E32" s="70"/>
       <c r="F32" s="70"/>
-      <c r="G32" s="75"/>
+      <c r="G32" s="94"/>
     </row>
     <row r="33" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="76"/>
-      <c r="B33" s="77"/>
-      <c r="C33" s="77"/>
-      <c r="D33" s="77"/>
-      <c r="E33" s="77"/>
-      <c r="F33" s="77"/>
-      <c r="G33" s="78"/>
+      <c r="A33" s="95"/>
+      <c r="B33" s="96"/>
+      <c r="C33" s="96"/>
+      <c r="D33" s="96"/>
+      <c r="E33" s="96"/>
+      <c r="F33" s="96"/>
+      <c r="G33" s="97"/>
     </row>
     <row r="34" spans="1:7" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="76"/>
-      <c r="B34" s="77"/>
-      <c r="C34" s="77"/>
-      <c r="D34" s="77"/>
-      <c r="E34" s="77"/>
-      <c r="F34" s="77"/>
-      <c r="G34" s="78"/>
+      <c r="A34" s="95"/>
+      <c r="B34" s="96"/>
+      <c r="C34" s="96"/>
+      <c r="D34" s="96"/>
+      <c r="E34" s="96"/>
+      <c r="F34" s="96"/>
+      <c r="G34" s="97"/>
     </row>
     <row r="35" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="74" t="s">
+      <c r="A35" s="93" t="s">
         <v>10</v>
       </c>
       <c r="B35" s="70"/>
@@ -9729,33 +9709,35 @@
       <c r="D35" s="70"/>
       <c r="E35" s="70"/>
       <c r="F35" s="70"/>
-      <c r="G35" s="75"/>
+      <c r="G35" s="94"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="79"/>
+      <c r="A36" s="84"/>
       <c r="B36" s="68"/>
       <c r="C36" s="68"/>
       <c r="D36" s="68"/>
       <c r="E36" s="68"/>
       <c r="F36" s="68"/>
-      <c r="G36" s="80"/>
+      <c r="G36" s="85"/>
     </row>
     <row r="37" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="81"/>
-      <c r="B37" s="82"/>
-      <c r="C37" s="82"/>
-      <c r="D37" s="82"/>
-      <c r="E37" s="82"/>
-      <c r="F37" s="82"/>
-      <c r="G37" s="83"/>
+      <c r="A37" s="98"/>
+      <c r="B37" s="99"/>
+      <c r="C37" s="99"/>
+      <c r="D37" s="99"/>
+      <c r="E37" s="99"/>
+      <c r="F37" s="99"/>
+      <c r="G37" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="A33:G34"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="A36:G37"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
     <mergeCell ref="C29:G29"/>
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="A18:G18"/>
@@ -9768,13 +9750,11 @@
     <mergeCell ref="A26:G26"/>
     <mergeCell ref="C27:G27"/>
     <mergeCell ref="C28:G28"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="A33:G34"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="A36:G37"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Colocar percentagem" sqref="B6" xr:uid="{F51EFD33-359E-334A-A51E-A657A56E6972}">
@@ -9844,95 +9824,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="98"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="81"/>
     </row>
     <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="99" t="s">
-        <v>229</v>
+      <c r="B2" s="82" t="s">
+        <v>216</v>
       </c>
       <c r="C2" s="67"/>
       <c r="D2" s="67"/>
       <c r="E2" s="67"/>
       <c r="F2" s="67"/>
-      <c r="G2" s="100"/>
+      <c r="G2" s="83"/>
     </row>
     <row r="3" spans="1:7" ht="46" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="84" t="s">
         <v>148</v>
       </c>
       <c r="C3" s="68"/>
       <c r="D3" s="68"/>
       <c r="E3" s="68"/>
       <c r="F3" s="68"/>
-      <c r="G3" s="80"/>
+      <c r="G3" s="85"/>
     </row>
     <row r="4" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="79" t="s">
+      <c r="B4" s="84" t="s">
         <v>52</v>
       </c>
       <c r="C4" s="68"/>
       <c r="D4" s="68"/>
       <c r="E4" s="68"/>
       <c r="F4" s="68"/>
-      <c r="G4" s="80"/>
+      <c r="G4" s="85"/>
     </row>
     <row r="5" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="79" t="s">
+      <c r="B5" s="84" t="s">
         <v>110</v>
       </c>
       <c r="C5" s="68"/>
       <c r="D5" s="68"/>
       <c r="E5" s="68"/>
       <c r="F5" s="68"/>
-      <c r="G5" s="80"/>
+      <c r="G5" s="85"/>
     </row>
     <row r="6" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="90"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="93" t="s">
+      <c r="B6" s="73"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="94"/>
-      <c r="G6" s="95"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="78"/>
     </row>
     <row r="7" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="35"/>
       <c r="G7" s="33"/>
     </row>
     <row r="8" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="84" t="s">
+      <c r="A8" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="85"/>
-      <c r="C8" s="85"/>
-      <c r="D8" s="85"/>
-      <c r="E8" s="85"/>
-      <c r="F8" s="85"/>
-      <c r="G8" s="86"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="89"/>
     </row>
     <row r="9" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
@@ -10088,7 +10068,7 @@
       <c r="G17" s="37"/>
     </row>
     <row r="18" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A18" s="87"/>
+      <c r="A18" s="90"/>
       <c r="B18" s="62"/>
       <c r="C18" s="62"/>
       <c r="D18" s="62"/>
@@ -10106,57 +10086,57 @@
       <c r="C19" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="88" t="s">
+      <c r="D19" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="E19" s="88"/>
-      <c r="F19" s="88"/>
-      <c r="G19" s="88"/>
+      <c r="E19" s="91"/>
+      <c r="F19" s="91"/>
+      <c r="G19" s="91"/>
     </row>
     <row r="20" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="89"/>
-      <c r="E20" s="89"/>
-      <c r="F20" s="89"/>
-      <c r="G20" s="89"/>
+      <c r="D20" s="92"/>
+      <c r="E20" s="92"/>
+      <c r="F20" s="92"/>
+      <c r="G20" s="92"/>
     </row>
     <row r="21" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="89"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="89"/>
-      <c r="G21" s="89"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="92"/>
     </row>
     <row r="22" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="89"/>
-      <c r="E22" s="89"/>
-      <c r="F22" s="89"/>
-      <c r="G22" s="89"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="92"/>
+      <c r="G22" s="92"/>
     </row>
     <row r="23" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="89"/>
-      <c r="E23" s="89"/>
-      <c r="F23" s="89"/>
-      <c r="G23" s="89"/>
+      <c r="D23" s="92"/>
+      <c r="E23" s="92"/>
+      <c r="F23" s="92"/>
+      <c r="G23" s="92"/>
     </row>
     <row r="24" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="89"/>
-      <c r="E24" s="89"/>
-      <c r="F24" s="89"/>
-      <c r="G24" s="89"/>
+      <c r="D24" s="92"/>
+      <c r="E24" s="92"/>
+      <c r="F24" s="92"/>
+      <c r="G24" s="92"/>
     </row>
     <row r="25" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="36"/>
@@ -10166,7 +10146,7 @@
       <c r="G25" s="33"/>
     </row>
     <row r="26" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A26" s="87" t="s">
+      <c r="A26" s="90" t="s">
         <v>29</v>
       </c>
       <c r="B26" s="62"/>
@@ -10183,47 +10163,47 @@
       <c r="B27" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="88" t="s">
+      <c r="C27" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="88"/>
-      <c r="E27" s="88"/>
-      <c r="F27" s="88"/>
-      <c r="G27" s="88"/>
+      <c r="D27" s="91"/>
+      <c r="E27" s="91"/>
+      <c r="F27" s="91"/>
+      <c r="G27" s="91"/>
     </row>
     <row r="28" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="73"/>
+      <c r="C28" s="86"/>
+      <c r="D28" s="86"/>
+      <c r="E28" s="86"/>
+      <c r="F28" s="86"/>
+      <c r="G28" s="86"/>
     </row>
     <row r="29" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="73"/>
-      <c r="D29" s="73"/>
-      <c r="E29" s="73"/>
-      <c r="F29" s="73"/>
-      <c r="G29" s="73"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="86"/>
+      <c r="G29" s="86"/>
     </row>
     <row r="30" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="73"/>
-      <c r="D30" s="73"/>
-      <c r="E30" s="73"/>
-      <c r="F30" s="73"/>
-      <c r="G30" s="73"/>
+      <c r="C30" s="86"/>
+      <c r="D30" s="86"/>
+      <c r="E30" s="86"/>
+      <c r="F30" s="86"/>
+      <c r="G30" s="86"/>
     </row>
     <row r="31" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="G31" s="33"/>
     </row>
     <row r="32" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="74" t="s">
+      <c r="A32" s="93" t="s">
         <v>22</v>
       </c>
       <c r="B32" s="70"/>
@@ -10231,28 +10211,28 @@
       <c r="D32" s="70"/>
       <c r="E32" s="70"/>
       <c r="F32" s="70"/>
-      <c r="G32" s="75"/>
+      <c r="G32" s="94"/>
     </row>
     <row r="33" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="76"/>
-      <c r="B33" s="77"/>
-      <c r="C33" s="77"/>
-      <c r="D33" s="77"/>
-      <c r="E33" s="77"/>
-      <c r="F33" s="77"/>
-      <c r="G33" s="78"/>
+      <c r="A33" s="95"/>
+      <c r="B33" s="96"/>
+      <c r="C33" s="96"/>
+      <c r="D33" s="96"/>
+      <c r="E33" s="96"/>
+      <c r="F33" s="96"/>
+      <c r="G33" s="97"/>
     </row>
     <row r="34" spans="1:7" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="76"/>
-      <c r="B34" s="77"/>
-      <c r="C34" s="77"/>
-      <c r="D34" s="77"/>
-      <c r="E34" s="77"/>
-      <c r="F34" s="77"/>
-      <c r="G34" s="78"/>
+      <c r="A34" s="95"/>
+      <c r="B34" s="96"/>
+      <c r="C34" s="96"/>
+      <c r="D34" s="96"/>
+      <c r="E34" s="96"/>
+      <c r="F34" s="96"/>
+      <c r="G34" s="97"/>
     </row>
     <row r="35" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="74" t="s">
+      <c r="A35" s="93" t="s">
         <v>10</v>
       </c>
       <c r="B35" s="70"/>
@@ -10260,36 +10240,28 @@
       <c r="D35" s="70"/>
       <c r="E35" s="70"/>
       <c r="F35" s="70"/>
-      <c r="G35" s="75"/>
+      <c r="G35" s="94"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="79"/>
+      <c r="A36" s="84"/>
       <c r="B36" s="68"/>
       <c r="C36" s="68"/>
       <c r="D36" s="68"/>
       <c r="E36" s="68"/>
       <c r="F36" s="68"/>
-      <c r="G36" s="80"/>
+      <c r="G36" s="85"/>
     </row>
     <row r="37" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="81"/>
-      <c r="B37" s="82"/>
-      <c r="C37" s="82"/>
-      <c r="D37" s="82"/>
-      <c r="E37" s="82"/>
-      <c r="F37" s="82"/>
-      <c r="G37" s="83"/>
+      <c r="A37" s="98"/>
+      <c r="B37" s="99"/>
+      <c r="C37" s="99"/>
+      <c r="D37" s="99"/>
+      <c r="E37" s="99"/>
+      <c r="F37" s="99"/>
+      <c r="G37" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="A26:G26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D23:G23"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="D19:G19"/>
     <mergeCell ref="D20:G20"/>
@@ -10306,6 +10278,14 @@
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="B5:G5"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D23:G23"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Colocar percentagem" sqref="B6" xr:uid="{C5DD908A-3688-A14E-B89F-E074FAFCDF99}">
@@ -10375,95 +10355,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="98"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="81"/>
     </row>
     <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="99" t="s">
-        <v>230</v>
+      <c r="B2" s="82" t="s">
+        <v>217</v>
       </c>
       <c r="C2" s="67"/>
       <c r="D2" s="67"/>
       <c r="E2" s="67"/>
       <c r="F2" s="67"/>
-      <c r="G2" s="100"/>
+      <c r="G2" s="83"/>
     </row>
     <row r="3" spans="1:7" ht="46" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="84" t="s">
         <v>124</v>
       </c>
       <c r="C3" s="68"/>
       <c r="D3" s="68"/>
       <c r="E3" s="68"/>
       <c r="F3" s="68"/>
-      <c r="G3" s="80"/>
+      <c r="G3" s="85"/>
     </row>
     <row r="4" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="79" t="s">
+      <c r="B4" s="84" t="s">
         <v>51</v>
       </c>
       <c r="C4" s="68"/>
       <c r="D4" s="68"/>
       <c r="E4" s="68"/>
       <c r="F4" s="68"/>
-      <c r="G4" s="80"/>
+      <c r="G4" s="85"/>
     </row>
     <row r="5" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="79" t="s">
+      <c r="B5" s="84" t="s">
         <v>113</v>
       </c>
       <c r="C5" s="68"/>
       <c r="D5" s="68"/>
       <c r="E5" s="68"/>
       <c r="F5" s="68"/>
-      <c r="G5" s="80"/>
+      <c r="G5" s="85"/>
     </row>
     <row r="6" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="90"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="93" t="s">
+      <c r="B6" s="73"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="94"/>
-      <c r="G6" s="95"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="78"/>
     </row>
     <row r="7" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="35"/>
       <c r="G7" s="33"/>
     </row>
     <row r="8" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="84" t="s">
+      <c r="A8" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="85"/>
-      <c r="C8" s="85"/>
-      <c r="D8" s="85"/>
-      <c r="E8" s="85"/>
-      <c r="F8" s="85"/>
-      <c r="G8" s="86"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="89"/>
     </row>
     <row r="9" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
@@ -10607,7 +10587,7 @@
       <c r="G17" s="37"/>
     </row>
     <row r="18" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A18" s="87" t="s">
+      <c r="A18" s="90" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="62"/>
@@ -10627,57 +10607,57 @@
       <c r="C19" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="88" t="s">
+      <c r="D19" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="E19" s="88"/>
-      <c r="F19" s="88"/>
-      <c r="G19" s="88"/>
+      <c r="E19" s="91"/>
+      <c r="F19" s="91"/>
+      <c r="G19" s="91"/>
     </row>
     <row r="20" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="89"/>
-      <c r="E20" s="89"/>
-      <c r="F20" s="89"/>
-      <c r="G20" s="89"/>
+      <c r="D20" s="92"/>
+      <c r="E20" s="92"/>
+      <c r="F20" s="92"/>
+      <c r="G20" s="92"/>
     </row>
     <row r="21" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="89"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="89"/>
-      <c r="G21" s="89"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="92"/>
     </row>
     <row r="22" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="89"/>
-      <c r="E22" s="89"/>
-      <c r="F22" s="89"/>
-      <c r="G22" s="89"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="92"/>
+      <c r="G22" s="92"/>
     </row>
     <row r="23" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="89"/>
-      <c r="E23" s="89"/>
-      <c r="F23" s="89"/>
-      <c r="G23" s="89"/>
+      <c r="D23" s="92"/>
+      <c r="E23" s="92"/>
+      <c r="F23" s="92"/>
+      <c r="G23" s="92"/>
     </row>
     <row r="24" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="89"/>
-      <c r="E24" s="89"/>
-      <c r="F24" s="89"/>
-      <c r="G24" s="89"/>
+      <c r="D24" s="92"/>
+      <c r="E24" s="92"/>
+      <c r="F24" s="92"/>
+      <c r="G24" s="92"/>
     </row>
     <row r="25" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="36"/>
@@ -10687,7 +10667,7 @@
       <c r="G25" s="33"/>
     </row>
     <row r="26" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A26" s="87" t="s">
+      <c r="A26" s="90" t="s">
         <v>29</v>
       </c>
       <c r="B26" s="62"/>
@@ -10704,47 +10684,47 @@
       <c r="B27" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="88" t="s">
+      <c r="C27" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="88"/>
-      <c r="E27" s="88"/>
-      <c r="F27" s="88"/>
-      <c r="G27" s="88"/>
+      <c r="D27" s="91"/>
+      <c r="E27" s="91"/>
+      <c r="F27" s="91"/>
+      <c r="G27" s="91"/>
     </row>
     <row r="28" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="73"/>
+      <c r="C28" s="86"/>
+      <c r="D28" s="86"/>
+      <c r="E28" s="86"/>
+      <c r="F28" s="86"/>
+      <c r="G28" s="86"/>
     </row>
     <row r="29" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="73"/>
-      <c r="D29" s="73"/>
-      <c r="E29" s="73"/>
-      <c r="F29" s="73"/>
-      <c r="G29" s="73"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="86"/>
+      <c r="G29" s="86"/>
     </row>
     <row r="30" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="73"/>
-      <c r="D30" s="73"/>
-      <c r="E30" s="73"/>
-      <c r="F30" s="73"/>
-      <c r="G30" s="73"/>
+      <c r="C30" s="86"/>
+      <c r="D30" s="86"/>
+      <c r="E30" s="86"/>
+      <c r="F30" s="86"/>
+      <c r="G30" s="86"/>
     </row>
     <row r="31" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="G31" s="33"/>
     </row>
     <row r="32" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="74" t="s">
+      <c r="A32" s="93" t="s">
         <v>22</v>
       </c>
       <c r="B32" s="70"/>
@@ -10752,28 +10732,28 @@
       <c r="D32" s="70"/>
       <c r="E32" s="70"/>
       <c r="F32" s="70"/>
-      <c r="G32" s="75"/>
+      <c r="G32" s="94"/>
     </row>
     <row r="33" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="76"/>
-      <c r="B33" s="77"/>
-      <c r="C33" s="77"/>
-      <c r="D33" s="77"/>
-      <c r="E33" s="77"/>
-      <c r="F33" s="77"/>
-      <c r="G33" s="78"/>
+      <c r="A33" s="95"/>
+      <c r="B33" s="96"/>
+      <c r="C33" s="96"/>
+      <c r="D33" s="96"/>
+      <c r="E33" s="96"/>
+      <c r="F33" s="96"/>
+      <c r="G33" s="97"/>
     </row>
     <row r="34" spans="1:7" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="76"/>
-      <c r="B34" s="77"/>
-      <c r="C34" s="77"/>
-      <c r="D34" s="77"/>
-      <c r="E34" s="77"/>
-      <c r="F34" s="77"/>
-      <c r="G34" s="78"/>
+      <c r="A34" s="95"/>
+      <c r="B34" s="96"/>
+      <c r="C34" s="96"/>
+      <c r="D34" s="96"/>
+      <c r="E34" s="96"/>
+      <c r="F34" s="96"/>
+      <c r="G34" s="97"/>
     </row>
     <row r="35" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="74" t="s">
+      <c r="A35" s="93" t="s">
         <v>10</v>
       </c>
       <c r="B35" s="70"/>
@@ -10781,33 +10761,35 @@
       <c r="D35" s="70"/>
       <c r="E35" s="70"/>
       <c r="F35" s="70"/>
-      <c r="G35" s="75"/>
+      <c r="G35" s="94"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="79"/>
+      <c r="A36" s="84"/>
       <c r="B36" s="68"/>
       <c r="C36" s="68"/>
       <c r="D36" s="68"/>
       <c r="E36" s="68"/>
       <c r="F36" s="68"/>
-      <c r="G36" s="80"/>
+      <c r="G36" s="85"/>
     </row>
     <row r="37" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="81"/>
-      <c r="B37" s="82"/>
-      <c r="C37" s="82"/>
-      <c r="D37" s="82"/>
-      <c r="E37" s="82"/>
-      <c r="F37" s="82"/>
-      <c r="G37" s="83"/>
+      <c r="A37" s="98"/>
+      <c r="B37" s="99"/>
+      <c r="C37" s="99"/>
+      <c r="D37" s="99"/>
+      <c r="E37" s="99"/>
+      <c r="F37" s="99"/>
+      <c r="G37" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="A33:G34"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="A36:G37"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
     <mergeCell ref="C29:G29"/>
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="A18:G18"/>
@@ -10820,13 +10802,11 @@
     <mergeCell ref="A26:G26"/>
     <mergeCell ref="C27:G27"/>
     <mergeCell ref="C28:G28"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="A33:G34"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="A36:G37"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Exemplo:_x000a_id -&gt; nome -&gt; categoria -&gt; ALL" sqref="C28:C31" xr:uid="{6749BA4D-A4C0-664A-8057-C07B807E371B}"/>
@@ -10896,95 +10876,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="98"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="81"/>
     </row>
     <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="99" t="s">
-        <v>231</v>
+      <c r="B2" s="82" t="s">
+        <v>218</v>
       </c>
       <c r="C2" s="67"/>
       <c r="D2" s="67"/>
       <c r="E2" s="67"/>
       <c r="F2" s="67"/>
-      <c r="G2" s="100"/>
+      <c r="G2" s="83"/>
     </row>
     <row r="3" spans="1:7" ht="46" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="84" t="s">
         <v>149</v>
       </c>
       <c r="C3" s="68"/>
       <c r="D3" s="68"/>
       <c r="E3" s="68"/>
       <c r="F3" s="68"/>
-      <c r="G3" s="80"/>
+      <c r="G3" s="85"/>
     </row>
     <row r="4" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="79" t="s">
+      <c r="B4" s="84" t="s">
         <v>51</v>
       </c>
       <c r="C4" s="68"/>
       <c r="D4" s="68"/>
       <c r="E4" s="68"/>
       <c r="F4" s="68"/>
-      <c r="G4" s="80"/>
+      <c r="G4" s="85"/>
     </row>
     <row r="5" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="79" t="s">
+      <c r="B5" s="84" t="s">
         <v>150</v>
       </c>
       <c r="C5" s="68"/>
       <c r="D5" s="68"/>
       <c r="E5" s="68"/>
       <c r="F5" s="68"/>
-      <c r="G5" s="80"/>
+      <c r="G5" s="85"/>
     </row>
     <row r="6" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="90"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="93" t="s">
+      <c r="B6" s="73"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="94"/>
-      <c r="G6" s="95"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="78"/>
     </row>
     <row r="7" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="35"/>
       <c r="G7" s="33"/>
     </row>
     <row r="8" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="84" t="s">
+      <c r="A8" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="85"/>
-      <c r="C8" s="85"/>
-      <c r="D8" s="85"/>
-      <c r="E8" s="85"/>
-      <c r="F8" s="85"/>
-      <c r="G8" s="86"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="89"/>
     </row>
     <row r="9" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
@@ -11164,7 +11144,7 @@
       <c r="G17" s="37"/>
     </row>
     <row r="18" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A18" s="87" t="s">
+      <c r="A18" s="90" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="62"/>
@@ -11184,57 +11164,57 @@
       <c r="C19" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="88" t="s">
+      <c r="D19" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="E19" s="88"/>
-      <c r="F19" s="88"/>
-      <c r="G19" s="88"/>
+      <c r="E19" s="91"/>
+      <c r="F19" s="91"/>
+      <c r="G19" s="91"/>
     </row>
     <row r="20" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="89"/>
-      <c r="E20" s="89"/>
-      <c r="F20" s="89"/>
-      <c r="G20" s="89"/>
+      <c r="D20" s="92"/>
+      <c r="E20" s="92"/>
+      <c r="F20" s="92"/>
+      <c r="G20" s="92"/>
     </row>
     <row r="21" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="89"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="89"/>
-      <c r="G21" s="89"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="92"/>
     </row>
     <row r="22" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="89"/>
-      <c r="E22" s="89"/>
-      <c r="F22" s="89"/>
-      <c r="G22" s="89"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="92"/>
+      <c r="G22" s="92"/>
     </row>
     <row r="23" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="89"/>
-      <c r="E23" s="89"/>
-      <c r="F23" s="89"/>
-      <c r="G23" s="89"/>
+      <c r="D23" s="92"/>
+      <c r="E23" s="92"/>
+      <c r="F23" s="92"/>
+      <c r="G23" s="92"/>
     </row>
     <row r="24" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="89"/>
-      <c r="E24" s="89"/>
-      <c r="F24" s="89"/>
-      <c r="G24" s="89"/>
+      <c r="D24" s="92"/>
+      <c r="E24" s="92"/>
+      <c r="F24" s="92"/>
+      <c r="G24" s="92"/>
     </row>
     <row r="25" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="36"/>
@@ -11244,7 +11224,7 @@
       <c r="G25" s="33"/>
     </row>
     <row r="26" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A26" s="87" t="s">
+      <c r="A26" s="90" t="s">
         <v>29</v>
       </c>
       <c r="B26" s="62"/>
@@ -11261,51 +11241,51 @@
       <c r="B27" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="88" t="s">
+      <c r="C27" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="88"/>
-      <c r="E27" s="88"/>
-      <c r="F27" s="88"/>
-      <c r="G27" s="88"/>
+      <c r="D27" s="91"/>
+      <c r="E27" s="91"/>
+      <c r="F27" s="91"/>
+      <c r="G27" s="91"/>
     </row>
     <row r="28" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1</v>
       </c>
       <c r="B28" s="1"/>
-      <c r="C28" s="73" t="s">
+      <c r="C28" s="86" t="s">
         <v>160</v>
       </c>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="73"/>
+      <c r="D28" s="86"/>
+      <c r="E28" s="86"/>
+      <c r="F28" s="86"/>
+      <c r="G28" s="86"/>
     </row>
     <row r="29" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="73"/>
-      <c r="D29" s="73"/>
-      <c r="E29" s="73"/>
-      <c r="F29" s="73"/>
-      <c r="G29" s="73"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="86"/>
+      <c r="G29" s="86"/>
     </row>
     <row r="30" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="73"/>
-      <c r="D30" s="73"/>
-      <c r="E30" s="73"/>
-      <c r="F30" s="73"/>
-      <c r="G30" s="73"/>
+      <c r="C30" s="86"/>
+      <c r="D30" s="86"/>
+      <c r="E30" s="86"/>
+      <c r="F30" s="86"/>
+      <c r="G30" s="86"/>
     </row>
     <row r="31" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="G31" s="33"/>
     </row>
     <row r="32" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="74" t="s">
+      <c r="A32" s="93" t="s">
         <v>22</v>
       </c>
       <c r="B32" s="70"/>
@@ -11313,28 +11293,28 @@
       <c r="D32" s="70"/>
       <c r="E32" s="70"/>
       <c r="F32" s="70"/>
-      <c r="G32" s="75"/>
+      <c r="G32" s="94"/>
     </row>
     <row r="33" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="76"/>
-      <c r="B33" s="77"/>
-      <c r="C33" s="77"/>
-      <c r="D33" s="77"/>
-      <c r="E33" s="77"/>
-      <c r="F33" s="77"/>
-      <c r="G33" s="78"/>
+      <c r="A33" s="95"/>
+      <c r="B33" s="96"/>
+      <c r="C33" s="96"/>
+      <c r="D33" s="96"/>
+      <c r="E33" s="96"/>
+      <c r="F33" s="96"/>
+      <c r="G33" s="97"/>
     </row>
     <row r="34" spans="1:7" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="76"/>
-      <c r="B34" s="77"/>
-      <c r="C34" s="77"/>
-      <c r="D34" s="77"/>
-      <c r="E34" s="77"/>
-      <c r="F34" s="77"/>
-      <c r="G34" s="78"/>
+      <c r="A34" s="95"/>
+      <c r="B34" s="96"/>
+      <c r="C34" s="96"/>
+      <c r="D34" s="96"/>
+      <c r="E34" s="96"/>
+      <c r="F34" s="96"/>
+      <c r="G34" s="97"/>
     </row>
     <row r="35" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="74" t="s">
+      <c r="A35" s="93" t="s">
         <v>10</v>
       </c>
       <c r="B35" s="70"/>
@@ -11342,33 +11322,35 @@
       <c r="D35" s="70"/>
       <c r="E35" s="70"/>
       <c r="F35" s="70"/>
-      <c r="G35" s="75"/>
+      <c r="G35" s="94"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="79"/>
+      <c r="A36" s="84"/>
       <c r="B36" s="68"/>
       <c r="C36" s="68"/>
       <c r="D36" s="68"/>
       <c r="E36" s="68"/>
       <c r="F36" s="68"/>
-      <c r="G36" s="80"/>
+      <c r="G36" s="85"/>
     </row>
     <row r="37" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="81"/>
-      <c r="B37" s="82"/>
-      <c r="C37" s="82"/>
-      <c r="D37" s="82"/>
-      <c r="E37" s="82"/>
-      <c r="F37" s="82"/>
-      <c r="G37" s="83"/>
+      <c r="A37" s="98"/>
+      <c r="B37" s="99"/>
+      <c r="C37" s="99"/>
+      <c r="D37" s="99"/>
+      <c r="E37" s="99"/>
+      <c r="F37" s="99"/>
+      <c r="G37" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="A33:G34"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="A36:G37"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
     <mergeCell ref="C29:G29"/>
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="A18:G18"/>
@@ -11381,13 +11363,11 @@
     <mergeCell ref="A26:G26"/>
     <mergeCell ref="C27:G27"/>
     <mergeCell ref="C28:G28"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="A33:G34"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="A36:G37"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Colocar percentagem" sqref="B6" xr:uid="{A66D20F0-0782-6944-BA9C-7489AA303243}">
@@ -11445,8 +11425,8 @@
   </sheetPr>
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F2"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A28" sqref="A26:A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11458,152 +11438,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="79" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="98"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="81"/>
     </row>
     <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="106" t="s">
-        <v>232</v>
-      </c>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="107"/>
+      <c r="B2" s="121">
+        <v>4</v>
+      </c>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="122"/>
     </row>
     <row r="3" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="96" t="s">
         <v>161</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="78"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="97"/>
     </row>
     <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="96" t="s">
         <v>162</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="78"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="97"/>
     </row>
     <row r="5" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="77" t="s">
+      <c r="B5" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="78"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="97"/>
     </row>
     <row r="6" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="77" t="s">
-        <v>225</v>
-      </c>
-      <c r="C6" s="77"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="78"/>
+      <c r="B6" s="96" t="s">
+        <v>212</v>
+      </c>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="97"/>
     </row>
     <row r="7" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="77" t="s">
+      <c r="B7" s="96" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="77"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="78"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="97"/>
     </row>
     <row r="8" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="B8" s="77" t="s">
+      <c r="B8" s="96" t="s">
         <v>163</v>
       </c>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="78"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="97"/>
     </row>
     <row r="9" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="B9" s="77"/>
-      <c r="C9" s="77"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="78"/>
+      <c r="B9" s="96"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="96"/>
+      <c r="E9" s="96"/>
+      <c r="F9" s="97"/>
     </row>
     <row r="10" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="108">
+      <c r="B10" s="123">
         <v>0.5</v>
       </c>
-      <c r="C10" s="77"/>
-      <c r="D10" s="77" t="s">
+      <c r="C10" s="96"/>
+      <c r="D10" s="96" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="77"/>
-      <c r="F10" s="78"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="97"/>
     </row>
     <row r="11" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="104" t="s">
+      <c r="B11" s="119" t="s">
         <v>164</v>
       </c>
-      <c r="C11" s="104"/>
-      <c r="D11" s="104"/>
-      <c r="E11" s="104"/>
-      <c r="F11" s="105"/>
+      <c r="C11" s="119"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
+      <c r="F11" s="120"/>
     </row>
     <row r="12" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="112"/>
-      <c r="B12" s="113"/>
-      <c r="C12" s="113"/>
-      <c r="D12" s="113"/>
-      <c r="E12" s="113"/>
-      <c r="F12" s="114"/>
+      <c r="A12" s="110"/>
+      <c r="B12" s="111"/>
+      <c r="C12" s="111"/>
+      <c r="D12" s="111"/>
+      <c r="E12" s="111"/>
+      <c r="F12" s="112"/>
     </row>
     <row r="13" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="84" t="s">
+      <c r="A13" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="85"/>
-      <c r="C13" s="85"/>
-      <c r="D13" s="85"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="86"/>
+      <c r="B13" s="88"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="89"/>
     </row>
     <row r="14" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
@@ -11770,22 +11750,22 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="112"/>
-      <c r="B23" s="113"/>
-      <c r="C23" s="113"/>
-      <c r="D23" s="113"/>
-      <c r="E23" s="113"/>
-      <c r="F23" s="114"/>
+      <c r="A23" s="110"/>
+      <c r="B23" s="111"/>
+      <c r="C23" s="111"/>
+      <c r="D23" s="111"/>
+      <c r="E23" s="111"/>
+      <c r="F23" s="112"/>
     </row>
     <row r="24" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="84" t="s">
+      <c r="A24" s="87" t="s">
         <v>77</v>
       </c>
-      <c r="B24" s="85"/>
-      <c r="C24" s="85"/>
-      <c r="D24" s="85"/>
-      <c r="E24" s="85"/>
-      <c r="F24" s="86"/>
+      <c r="B24" s="88"/>
+      <c r="C24" s="88"/>
+      <c r="D24" s="88"/>
+      <c r="E24" s="88"/>
+      <c r="F24" s="89"/>
     </row>
     <row r="25" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="39" t="s">
@@ -11866,22 +11846,22 @@
       <c r="F29" s="43"/>
     </row>
     <row r="30" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="112"/>
-      <c r="B30" s="113"/>
-      <c r="C30" s="113"/>
-      <c r="D30" s="113"/>
-      <c r="E30" s="113"/>
-      <c r="F30" s="114"/>
+      <c r="A30" s="110"/>
+      <c r="B30" s="111"/>
+      <c r="C30" s="111"/>
+      <c r="D30" s="111"/>
+      <c r="E30" s="111"/>
+      <c r="F30" s="112"/>
     </row>
     <row r="31" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="84" t="s">
+      <c r="A31" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="B31" s="85"/>
-      <c r="C31" s="85"/>
-      <c r="D31" s="85"/>
-      <c r="E31" s="85"/>
-      <c r="F31" s="86"/>
+      <c r="B31" s="88"/>
+      <c r="C31" s="88"/>
+      <c r="D31" s="88"/>
+      <c r="E31" s="88"/>
+      <c r="F31" s="89"/>
     </row>
     <row r="32" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A32" s="39" t="s">
@@ -11893,119 +11873,126 @@
       <c r="C32" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="D32" s="115" t="s">
+      <c r="D32" s="105" t="s">
         <v>65</v>
       </c>
-      <c r="E32" s="115"/>
-      <c r="F32" s="116"/>
+      <c r="E32" s="105"/>
+      <c r="F32" s="106"/>
     </row>
     <row r="33" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A33" s="39"/>
       <c r="B33" s="40"/>
       <c r="C33" s="40"/>
-      <c r="D33" s="117"/>
-      <c r="E33" s="117"/>
-      <c r="F33" s="118"/>
+      <c r="D33" s="108"/>
+      <c r="E33" s="108"/>
+      <c r="F33" s="109"/>
     </row>
     <row r="34" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A34" s="39"/>
       <c r="B34" s="40"/>
       <c r="C34" s="40"/>
-      <c r="D34" s="117"/>
-      <c r="E34" s="117"/>
-      <c r="F34" s="118"/>
+      <c r="D34" s="108"/>
+      <c r="E34" s="108"/>
+      <c r="F34" s="109"/>
     </row>
     <row r="35" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A35" s="39"/>
       <c r="B35" s="40"/>
       <c r="C35" s="40"/>
-      <c r="D35" s="117"/>
-      <c r="E35" s="117"/>
-      <c r="F35" s="118"/>
+      <c r="D35" s="108"/>
+      <c r="E35" s="108"/>
+      <c r="F35" s="109"/>
     </row>
     <row r="36" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A36" s="41"/>
       <c r="B36" s="42"/>
       <c r="C36" s="42"/>
-      <c r="D36" s="119"/>
-      <c r="E36" s="119"/>
-      <c r="F36" s="120"/>
+      <c r="D36" s="114"/>
+      <c r="E36" s="114"/>
+      <c r="F36" s="115"/>
     </row>
     <row r="37" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="109"/>
-      <c r="B37" s="110"/>
-      <c r="C37" s="110"/>
-      <c r="D37" s="110"/>
-      <c r="E37" s="110"/>
-      <c r="F37" s="111"/>
+      <c r="A37" s="116"/>
+      <c r="B37" s="117"/>
+      <c r="C37" s="117"/>
+      <c r="D37" s="117"/>
+      <c r="E37" s="117"/>
+      <c r="F37" s="118"/>
     </row>
     <row r="38" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="84" t="s">
+      <c r="A38" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="B38" s="85"/>
-      <c r="C38" s="85"/>
-      <c r="D38" s="85"/>
-      <c r="E38" s="85"/>
-      <c r="F38" s="86"/>
+      <c r="B38" s="88"/>
+      <c r="C38" s="88"/>
+      <c r="D38" s="88"/>
+      <c r="E38" s="88"/>
+      <c r="F38" s="89"/>
     </row>
     <row r="39" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="121"/>
-      <c r="B39" s="115"/>
-      <c r="C39" s="115"/>
-      <c r="D39" s="115"/>
-      <c r="E39" s="115"/>
-      <c r="F39" s="116"/>
+      <c r="A39" s="104"/>
+      <c r="B39" s="105"/>
+      <c r="C39" s="105"/>
+      <c r="D39" s="105"/>
+      <c r="E39" s="105"/>
+      <c r="F39" s="106"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="122"/>
-      <c r="B40" s="117"/>
-      <c r="C40" s="117"/>
-      <c r="D40" s="117"/>
-      <c r="E40" s="117"/>
-      <c r="F40" s="118"/>
+      <c r="A40" s="107"/>
+      <c r="B40" s="108"/>
+      <c r="C40" s="108"/>
+      <c r="D40" s="108"/>
+      <c r="E40" s="108"/>
+      <c r="F40" s="109"/>
     </row>
     <row r="41" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="112"/>
-      <c r="B41" s="113"/>
-      <c r="C41" s="113"/>
-      <c r="D41" s="113"/>
-      <c r="E41" s="113"/>
-      <c r="F41" s="114"/>
+      <c r="A41" s="110"/>
+      <c r="B41" s="111"/>
+      <c r="C41" s="111"/>
+      <c r="D41" s="111"/>
+      <c r="E41" s="111"/>
+      <c r="F41" s="112"/>
     </row>
     <row r="42" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="84" t="s">
+      <c r="A42" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="85"/>
-      <c r="C42" s="85"/>
-      <c r="D42" s="85"/>
-      <c r="E42" s="85"/>
-      <c r="F42" s="86"/>
+      <c r="B42" s="88"/>
+      <c r="C42" s="88"/>
+      <c r="D42" s="88"/>
+      <c r="E42" s="88"/>
+      <c r="F42" s="89"/>
     </row>
     <row r="43" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="121"/>
-      <c r="B43" s="115"/>
-      <c r="C43" s="115"/>
-      <c r="D43" s="115"/>
-      <c r="E43" s="115"/>
-      <c r="F43" s="116"/>
+      <c r="A43" s="104"/>
+      <c r="B43" s="105"/>
+      <c r="C43" s="105"/>
+      <c r="D43" s="105"/>
+      <c r="E43" s="105"/>
+      <c r="F43" s="106"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="123"/>
-      <c r="B44" s="119"/>
-      <c r="C44" s="119"/>
-      <c r="D44" s="119"/>
-      <c r="E44" s="119"/>
-      <c r="F44" s="120"/>
+      <c r="A44" s="113"/>
+      <c r="B44" s="114"/>
+      <c r="C44" s="114"/>
+      <c r="D44" s="114"/>
+      <c r="E44" s="114"/>
+      <c r="F44" s="115"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="A39:F40"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="A43:F44"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
     <mergeCell ref="A37:F37"/>
     <mergeCell ref="A12:F12"/>
     <mergeCell ref="A13:F13"/>
@@ -12018,18 +12005,11 @@
     <mergeCell ref="D34:F34"/>
     <mergeCell ref="D35:F35"/>
     <mergeCell ref="D36:F36"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="A39:F40"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="A43:F44"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <dataValidations count="5">
@@ -12102,10 +12082,10 @@
   <sheetPr codeName="Sheet4">
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+      <selection activeCell="A47" sqref="A47:F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12116,152 +12096,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="79" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="98"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="81"/>
     </row>
     <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="106" t="s">
-        <v>233</v>
-      </c>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="107"/>
+      <c r="B2" s="121" t="s">
+        <v>219</v>
+      </c>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="122"/>
     </row>
     <row r="3" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="96" t="s">
         <v>183</v>
       </c>
-      <c r="C3" s="117"/>
-      <c r="D3" s="117"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="118"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="109"/>
     </row>
     <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="96" t="s">
         <v>162</v>
       </c>
-      <c r="C4" s="117"/>
-      <c r="D4" s="117"/>
-      <c r="E4" s="117"/>
-      <c r="F4" s="118"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="109"/>
     </row>
     <row r="5" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="77" t="s">
+      <c r="B5" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="117"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="118"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="109"/>
     </row>
     <row r="6" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="77" t="s">
-        <v>218</v>
-      </c>
-      <c r="C6" s="117"/>
-      <c r="D6" s="117"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="118"/>
+      <c r="B6" s="96" t="s">
+        <v>207</v>
+      </c>
+      <c r="C6" s="108"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="108"/>
+      <c r="F6" s="109"/>
     </row>
     <row r="7" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="77" t="s">
+      <c r="B7" s="96" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="117"/>
-      <c r="D7" s="117"/>
-      <c r="E7" s="117"/>
-      <c r="F7" s="118"/>
+      <c r="C7" s="108"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="109"/>
     </row>
     <row r="8" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="B8" s="77" t="s">
+      <c r="B8" s="96" t="s">
         <v>163</v>
       </c>
-      <c r="C8" s="117"/>
-      <c r="D8" s="117"/>
-      <c r="E8" s="117"/>
-      <c r="F8" s="118"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="109"/>
     </row>
     <row r="9" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="B9" s="117"/>
-      <c r="C9" s="117"/>
-      <c r="D9" s="117"/>
-      <c r="E9" s="117"/>
-      <c r="F9" s="118"/>
+      <c r="B9" s="108"/>
+      <c r="C9" s="108"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="108"/>
+      <c r="F9" s="109"/>
     </row>
     <row r="10" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="108">
+      <c r="B10" s="123">
         <v>0.7</v>
       </c>
-      <c r="C10" s="77"/>
-      <c r="D10" s="77" t="s">
+      <c r="C10" s="96"/>
+      <c r="D10" s="96" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="77"/>
-      <c r="F10" s="78"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="97"/>
     </row>
     <row r="11" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="104" t="s">
+      <c r="B11" s="119" t="s">
         <v>164</v>
       </c>
-      <c r="C11" s="119"/>
-      <c r="D11" s="119"/>
-      <c r="E11" s="119"/>
-      <c r="F11" s="120"/>
+      <c r="C11" s="114"/>
+      <c r="D11" s="114"/>
+      <c r="E11" s="114"/>
+      <c r="F11" s="115"/>
     </row>
     <row r="12" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="112"/>
-      <c r="B12" s="113"/>
-      <c r="C12" s="113"/>
-      <c r="D12" s="113"/>
-      <c r="E12" s="113"/>
-      <c r="F12" s="114"/>
+      <c r="A12" s="110"/>
+      <c r="B12" s="111"/>
+      <c r="C12" s="111"/>
+      <c r="D12" s="111"/>
+      <c r="E12" s="111"/>
+      <c r="F12" s="112"/>
     </row>
     <row r="13" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="84" t="s">
+      <c r="A13" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="85"/>
-      <c r="C13" s="85"/>
-      <c r="D13" s="85"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="86"/>
+      <c r="B13" s="88"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="89"/>
     </row>
     <row r="14" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
@@ -12295,7 +12275,7 @@
       </c>
       <c r="D15" s="27"/>
       <c r="E15" s="27" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F15" s="37">
         <v>2</v>
@@ -12306,17 +12286,17 @@
         <v>2</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>151</v>
+        <v>232</v>
       </c>
       <c r="C16" s="27" t="s">
         <v>76</v>
       </c>
       <c r="D16" s="27"/>
       <c r="E16" s="27" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="F16" s="37">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="21" x14ac:dyDescent="0.25">
@@ -12324,17 +12304,17 @@
         <v>3</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>115</v>
+        <v>233</v>
       </c>
       <c r="C17" s="27" t="s">
         <v>76</v>
       </c>
       <c r="D17" s="27"/>
       <c r="E17" s="27" t="s">
-        <v>195</v>
+        <v>236</v>
       </c>
       <c r="F17" s="37">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="21" x14ac:dyDescent="0.25">
@@ -12342,17 +12322,17 @@
         <v>4</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>188</v>
+        <v>234</v>
       </c>
       <c r="C18" s="27" t="s">
         <v>76</v>
       </c>
       <c r="D18" s="27"/>
       <c r="E18" s="27" t="s">
-        <v>197</v>
-      </c>
-      <c r="F18" s="37" t="s">
-        <v>209</v>
+        <v>235</v>
+      </c>
+      <c r="F18" s="37">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="21" x14ac:dyDescent="0.25">
@@ -12360,17 +12340,17 @@
         <v>5</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>165</v>
+        <v>115</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D19" s="27"/>
       <c r="E19" s="27" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="F19" s="37">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="21" x14ac:dyDescent="0.25">
@@ -12378,17 +12358,17 @@
         <v>6</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D20" s="27"/>
       <c r="E20" s="27" t="s">
-        <v>200</v>
-      </c>
-      <c r="F20" s="37">
-        <v>6</v>
+        <v>194</v>
+      </c>
+      <c r="F20" s="37" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="21" x14ac:dyDescent="0.25">
@@ -12396,17 +12376,17 @@
         <v>7</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D21" s="27"/>
       <c r="E21" s="27" t="s">
-        <v>201</v>
-      </c>
-      <c r="F21" s="37" t="s">
-        <v>208</v>
+        <v>166</v>
+      </c>
+      <c r="F21" s="37">
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="21" x14ac:dyDescent="0.25">
@@ -12414,17 +12394,17 @@
         <v>8</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D22" s="27"/>
       <c r="E22" s="27" t="s">
-        <v>203</v>
-      </c>
-      <c r="F22" s="57">
-        <v>43023</v>
+        <v>196</v>
+      </c>
+      <c r="F22" s="37">
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="21" x14ac:dyDescent="0.25">
@@ -12432,271 +12412,264 @@
         <v>9</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C23" s="27" t="s">
         <v>76</v>
       </c>
       <c r="D23" s="27"/>
       <c r="E23" s="27" t="s">
-        <v>204</v>
-      </c>
-      <c r="F23" s="57">
-        <v>43026</v>
+        <v>197</v>
+      </c>
+      <c r="F23" s="37" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A24" s="53">
-        <v>10</v>
-      </c>
-      <c r="B24" s="54" t="s">
-        <v>193</v>
-      </c>
-      <c r="C24" s="54" t="s">
-        <v>76</v>
-      </c>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54" t="s">
-        <v>206</v>
-      </c>
-      <c r="F24" s="55" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="112"/>
-      <c r="B25" s="113"/>
-      <c r="C25" s="113"/>
-      <c r="D25" s="113"/>
-      <c r="E25" s="113"/>
-      <c r="F25" s="114"/>
-    </row>
-    <row r="26" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="84" t="s">
+      <c r="A24" s="36"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="57"/>
+    </row>
+    <row r="25" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A25" s="36"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="57"/>
+    </row>
+    <row r="26" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A26" s="53"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="55"/>
+    </row>
+    <row r="27" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="110"/>
+      <c r="B27" s="111"/>
+      <c r="C27" s="111"/>
+      <c r="D27" s="111"/>
+      <c r="E27" s="111"/>
+      <c r="F27" s="112"/>
+    </row>
+    <row r="28" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="87" t="s">
         <v>77</v>
       </c>
-      <c r="B26" s="85"/>
-      <c r="C26" s="85"/>
-      <c r="D26" s="85"/>
-      <c r="E26" s="85"/>
-      <c r="F26" s="86"/>
-    </row>
-    <row r="27" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A27" s="39" t="s">
+      <c r="B28" s="88"/>
+      <c r="C28" s="88"/>
+      <c r="D28" s="88"/>
+      <c r="E28" s="88"/>
+      <c r="F28" s="89"/>
+    </row>
+    <row r="29" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A29" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="40" t="s">
+      <c r="B29" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="40" t="s">
+      <c r="C29" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="D27" s="40" t="s">
+      <c r="D29" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="E27" s="40" t="s">
+      <c r="E29" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="F27" s="31" t="s">
+      <c r="F29" s="31" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A28" s="36" t="s">
-        <v>193</v>
-      </c>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27" t="s">
+    <row r="30" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A30" s="36" t="s">
+        <v>191</v>
+      </c>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="D28" s="27" t="s">
+      <c r="D30" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="E28" s="27" t="s">
-        <v>214</v>
-      </c>
-      <c r="F28" s="37" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A29" s="39"/>
-      <c r="B29" s="40"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="31"/>
-    </row>
-    <row r="30" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A30" s="39"/>
-      <c r="B30" s="40"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="31"/>
+      <c r="E30" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="F30" s="37" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="31" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A31" s="41"/>
-      <c r="B31" s="42"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="43"/>
-    </row>
-    <row r="32" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="112"/>
-      <c r="B32" s="113"/>
-      <c r="C32" s="113"/>
-      <c r="D32" s="113"/>
-      <c r="E32" s="113"/>
-      <c r="F32" s="114"/>
-    </row>
-    <row r="33" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="84" t="s">
+      <c r="A31" s="39"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="31"/>
+    </row>
+    <row r="32" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A32" s="39"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="31"/>
+    </row>
+    <row r="33" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A33" s="41"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="43"/>
+    </row>
+    <row r="34" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="110"/>
+      <c r="B34" s="111"/>
+      <c r="C34" s="111"/>
+      <c r="D34" s="111"/>
+      <c r="E34" s="111"/>
+      <c r="F34" s="112"/>
+    </row>
+    <row r="35" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="85"/>
-      <c r="C33" s="85"/>
-      <c r="D33" s="85"/>
-      <c r="E33" s="85"/>
-      <c r="F33" s="86"/>
-    </row>
-    <row r="34" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A34" s="39" t="s">
+      <c r="B35" s="88"/>
+      <c r="C35" s="88"/>
+      <c r="D35" s="88"/>
+      <c r="E35" s="88"/>
+      <c r="F35" s="89"/>
+    </row>
+    <row r="36" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A36" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="40" t="s">
+      <c r="B36" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="40" t="s">
+      <c r="C36" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="D34" s="115" t="s">
+      <c r="D36" s="105" t="s">
         <v>65</v>
       </c>
-      <c r="E34" s="115"/>
-      <c r="F34" s="116"/>
-    </row>
-    <row r="35" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A35" s="39"/>
-      <c r="B35" s="40"/>
-      <c r="C35" s="40"/>
-      <c r="D35" s="117"/>
-      <c r="E35" s="117"/>
-      <c r="F35" s="118"/>
-    </row>
-    <row r="36" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A36" s="39"/>
-      <c r="B36" s="40"/>
-      <c r="C36" s="40"/>
-      <c r="D36" s="117"/>
-      <c r="E36" s="117"/>
-      <c r="F36" s="118"/>
+      <c r="E36" s="105"/>
+      <c r="F36" s="106"/>
     </row>
     <row r="37" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A37" s="39"/>
       <c r="B37" s="40"/>
       <c r="C37" s="40"/>
-      <c r="D37" s="117"/>
-      <c r="E37" s="117"/>
-      <c r="F37" s="118"/>
+      <c r="D37" s="108"/>
+      <c r="E37" s="108"/>
+      <c r="F37" s="109"/>
     </row>
     <row r="38" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A38" s="41"/>
-      <c r="B38" s="42"/>
-      <c r="C38" s="42"/>
-      <c r="D38" s="119"/>
-      <c r="E38" s="119"/>
-      <c r="F38" s="120"/>
-    </row>
-    <row r="39" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="109"/>
-      <c r="B39" s="110"/>
-      <c r="C39" s="110"/>
-      <c r="D39" s="110"/>
-      <c r="E39" s="110"/>
-      <c r="F39" s="111"/>
-    </row>
-    <row r="40" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="84" t="s">
+      <c r="A38" s="39"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="108"/>
+      <c r="E38" s="108"/>
+      <c r="F38" s="109"/>
+    </row>
+    <row r="39" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A39" s="39"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="108"/>
+      <c r="E39" s="108"/>
+      <c r="F39" s="109"/>
+    </row>
+    <row r="40" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A40" s="41"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="114"/>
+      <c r="E40" s="114"/>
+      <c r="F40" s="115"/>
+    </row>
+    <row r="41" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="116"/>
+      <c r="B41" s="117"/>
+      <c r="C41" s="117"/>
+      <c r="D41" s="117"/>
+      <c r="E41" s="117"/>
+      <c r="F41" s="118"/>
+    </row>
+    <row r="42" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="B40" s="85"/>
-      <c r="C40" s="85"/>
-      <c r="D40" s="85"/>
-      <c r="E40" s="85"/>
-      <c r="F40" s="86"/>
-    </row>
-    <row r="41" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="121"/>
-      <c r="B41" s="115"/>
-      <c r="C41" s="115"/>
-      <c r="D41" s="115"/>
-      <c r="E41" s="115"/>
-      <c r="F41" s="116"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="122"/>
-      <c r="B42" s="117"/>
-      <c r="C42" s="117"/>
-      <c r="D42" s="117"/>
-      <c r="E42" s="117"/>
-      <c r="F42" s="118"/>
-    </row>
-    <row r="43" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="112"/>
-      <c r="B43" s="113"/>
-      <c r="C43" s="113"/>
-      <c r="D43" s="113"/>
-      <c r="E43" s="113"/>
-      <c r="F43" s="114"/>
-    </row>
-    <row r="44" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="84" t="s">
+      <c r="B42" s="88"/>
+      <c r="C42" s="88"/>
+      <c r="D42" s="88"/>
+      <c r="E42" s="88"/>
+      <c r="F42" s="89"/>
+    </row>
+    <row r="43" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="104"/>
+      <c r="B43" s="105"/>
+      <c r="C43" s="105"/>
+      <c r="D43" s="105"/>
+      <c r="E43" s="105"/>
+      <c r="F43" s="106"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="107"/>
+      <c r="B44" s="108"/>
+      <c r="C44" s="108"/>
+      <c r="D44" s="108"/>
+      <c r="E44" s="108"/>
+      <c r="F44" s="109"/>
+    </row>
+    <row r="45" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="110"/>
+      <c r="B45" s="111"/>
+      <c r="C45" s="111"/>
+      <c r="D45" s="111"/>
+      <c r="E45" s="111"/>
+      <c r="F45" s="112"/>
+    </row>
+    <row r="46" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="B44" s="85"/>
-      <c r="C44" s="85"/>
-      <c r="D44" s="85"/>
-      <c r="E44" s="85"/>
-      <c r="F44" s="86"/>
-    </row>
-    <row r="45" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="121"/>
-      <c r="B45" s="115"/>
-      <c r="C45" s="115"/>
-      <c r="D45" s="115"/>
-      <c r="E45" s="115"/>
-      <c r="F45" s="116"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="123"/>
-      <c r="B46" s="119"/>
-      <c r="C46" s="119"/>
-      <c r="D46" s="119"/>
-      <c r="E46" s="119"/>
-      <c r="F46" s="120"/>
+      <c r="B46" s="88"/>
+      <c r="C46" s="88"/>
+      <c r="D46" s="88"/>
+      <c r="E46" s="88"/>
+      <c r="F46" s="89"/>
+    </row>
+    <row r="47" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="104"/>
+      <c r="B47" s="105"/>
+      <c r="C47" s="105"/>
+      <c r="D47" s="105"/>
+      <c r="E47" s="105"/>
+      <c r="F47" s="106"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="113"/>
+      <c r="B48" s="114"/>
+      <c r="C48" s="114"/>
+      <c r="D48" s="114"/>
+      <c r="E48" s="114"/>
+      <c r="F48" s="115"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="A41:F42"/>
-    <mergeCell ref="A45:F46"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="A44:F44"/>
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="A42:F42"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
@@ -12707,7 +12680,20 @@
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:F10"/>
-    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A43:F44"/>
+    <mergeCell ref="A47:F48"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="A46:F46"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Colocar percentagem_x000a_" sqref="B10:C10" xr:uid="{C44B2955-AB0E-5E4A-9201-AF72D21AA99A}"/>
@@ -12742,31 +12728,31 @@
           <x14:formula1>
             <xm:f>Metadata!$A$48:$A$50</xm:f>
           </x14:formula1>
-          <xm:sqref>C28:C31</xm:sqref>
+          <xm:sqref>C30:C33</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{156A0EFB-8E48-9B48-8C07-A6C422FC57B3}">
           <x14:formula1>
             <xm:f>Metadata!$A$54:$A$56</xm:f>
           </x14:formula1>
-          <xm:sqref>D28:D31</xm:sqref>
+          <xm:sqref>D30:D33</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7B766ADF-7B36-3443-98C3-27F0864D0788}">
           <x14:formula1>
             <xm:f>Metadata!$A$33:$A$34</xm:f>
           </x14:formula1>
-          <xm:sqref>C35</xm:sqref>
+          <xm:sqref>C37</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{110E4127-97AC-8347-A439-E71669B8953E}">
           <x14:formula1>
             <xm:f>Metadata!$A$37:$A$41</xm:f>
           </x14:formula1>
-          <xm:sqref>D35:D38</xm:sqref>
+          <xm:sqref>D37:D40</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DD2208DA-A761-CC4E-AFB9-6BB9F11CD72B}">
           <x14:formula1>
             <xm:f>Metadata!$A$43:$A$44</xm:f>
           </x14:formula1>
-          <xm:sqref>C15:C24</xm:sqref>
+          <xm:sqref>C15:C26</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -12779,10 +12765,10 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12793,152 +12779,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="79" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="98"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="81"/>
     </row>
     <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="106" t="s">
-        <v>234</v>
-      </c>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="107"/>
+      <c r="B2" s="121" t="s">
+        <v>220</v>
+      </c>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="122"/>
     </row>
     <row r="3" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="96" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="78"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="97"/>
     </row>
     <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="96" t="s">
         <v>162</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="78"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="97"/>
     </row>
     <row r="5" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="77" t="s">
+      <c r="B5" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="78"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="97"/>
     </row>
     <row r="6" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="77" t="s">
-        <v>226</v>
-      </c>
-      <c r="C6" s="77"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="78"/>
+      <c r="B6" s="96" t="s">
+        <v>213</v>
+      </c>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="97"/>
     </row>
     <row r="7" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="77" t="s">
+      <c r="B7" s="96" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="77"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="78"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="97"/>
     </row>
     <row r="8" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="B8" s="77" t="s">
+      <c r="B8" s="96" t="s">
         <v>163</v>
       </c>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="78"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="97"/>
     </row>
     <row r="9" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="B9" s="77"/>
-      <c r="C9" s="77"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="78"/>
+      <c r="B9" s="96"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="96"/>
+      <c r="E9" s="96"/>
+      <c r="F9" s="97"/>
     </row>
     <row r="10" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="108">
+      <c r="B10" s="123">
         <v>0.5</v>
       </c>
-      <c r="C10" s="77"/>
-      <c r="D10" s="77" t="s">
+      <c r="C10" s="96"/>
+      <c r="D10" s="96" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="77"/>
-      <c r="F10" s="78"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="97"/>
     </row>
     <row r="11" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="104" t="s">
+      <c r="B11" s="119" t="s">
         <v>164</v>
       </c>
-      <c r="C11" s="104"/>
-      <c r="D11" s="104"/>
-      <c r="E11" s="104"/>
-      <c r="F11" s="105"/>
+      <c r="C11" s="119"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
+      <c r="F11" s="120"/>
     </row>
     <row r="12" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="112"/>
-      <c r="B12" s="113"/>
-      <c r="C12" s="113"/>
-      <c r="D12" s="113"/>
-      <c r="E12" s="113"/>
-      <c r="F12" s="114"/>
+      <c r="A12" s="110"/>
+      <c r="B12" s="111"/>
+      <c r="C12" s="111"/>
+      <c r="D12" s="111"/>
+      <c r="E12" s="111"/>
+      <c r="F12" s="112"/>
     </row>
     <row r="13" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="84" t="s">
+      <c r="A13" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="85"/>
-      <c r="C13" s="85"/>
-      <c r="D13" s="85"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="86"/>
+      <c r="B13" s="88"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="89"/>
     </row>
     <row r="14" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
@@ -12996,7 +12982,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A17" s="36">
         <v>3</v>
       </c>
@@ -13007,14 +12993,14 @@
         <v>76</v>
       </c>
       <c r="D17" s="27"/>
-      <c r="E17" s="27" t="s">
-        <v>173</v>
+      <c r="E17" s="125" t="s">
+        <v>239</v>
       </c>
       <c r="F17" s="37">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="36">
         <v>4</v>
       </c>
@@ -13032,7 +13018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A19" s="36">
         <v>5</v>
       </c>
@@ -13050,294 +13036,268 @@
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A20" s="36">
-        <v>6</v>
+    <row r="20" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A20" s="27">
+        <v>7</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C20" s="27" t="s">
         <v>76</v>
       </c>
       <c r="D20" s="27"/>
       <c r="E20" s="27" t="s">
-        <v>202</v>
-      </c>
-      <c r="F20" s="37" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="27">
+        <v>200</v>
+      </c>
+      <c r="F20" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="110"/>
+      <c r="B21" s="111"/>
+      <c r="C21" s="111"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="112"/>
+    </row>
+    <row r="22" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="87" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="88"/>
+      <c r="C22" s="88"/>
+      <c r="D22" s="88"/>
+      <c r="E22" s="88"/>
+      <c r="F22" s="89"/>
+    </row>
+    <row r="23" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A23" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27" t="s">
-        <v>205</v>
-      </c>
-      <c r="F21" s="37">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A22" s="27">
-        <v>8</v>
-      </c>
-      <c r="B22" s="27" t="s">
-        <v>199</v>
-      </c>
-      <c r="C22" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27" t="s">
-        <v>210</v>
-      </c>
-      <c r="F22" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A23" s="53">
-        <v>9</v>
-      </c>
-      <c r="B23" s="54" t="s">
-        <v>207</v>
-      </c>
-      <c r="C23" s="54" t="s">
-        <v>76</v>
-      </c>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54" t="s">
-        <v>174</v>
-      </c>
-      <c r="F23" s="37" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="112"/>
-      <c r="B24" s="113"/>
-      <c r="C24" s="113"/>
-      <c r="D24" s="113"/>
-      <c r="E24" s="113"/>
-      <c r="F24" s="114"/>
-    </row>
-    <row r="25" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="84" t="s">
-        <v>77</v>
-      </c>
-      <c r="B25" s="85"/>
-      <c r="C25" s="85"/>
-      <c r="D25" s="85"/>
-      <c r="E25" s="85"/>
-      <c r="F25" s="86"/>
-    </row>
-    <row r="26" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A26" s="39" t="s">
+      <c r="F23" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="124"/>
+    </row>
+    <row r="24" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A24" s="36" t="s">
+        <v>240</v>
+      </c>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="F24" s="37">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A25" s="36" t="s">
+        <v>237</v>
+      </c>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="E25" s="27" t="s">
+        <v>238</v>
+      </c>
+      <c r="F25" s="37">
+        <v>210304</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A26" s="39"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="31"/>
+    </row>
+    <row r="27" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A27" s="41"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="43"/>
+    </row>
+    <row r="28" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="110"/>
+      <c r="B28" s="111"/>
+      <c r="C28" s="111"/>
+      <c r="D28" s="111"/>
+      <c r="E28" s="111"/>
+      <c r="F28" s="112"/>
+    </row>
+    <row r="29" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="87" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="88"/>
+      <c r="C29" s="88"/>
+      <c r="D29" s="88"/>
+      <c r="E29" s="88"/>
+      <c r="F29" s="89"/>
+    </row>
+    <row r="30" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A30" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" s="40" t="s">
+      <c r="C30" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="E26" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="F26" s="31" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A27" s="36" t="s">
-        <v>198</v>
-      </c>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="D27" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="E27" s="27" t="s">
-        <v>217</v>
-      </c>
-      <c r="F27" s="37">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A28" s="39"/>
-      <c r="B28" s="40"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="31"/>
-    </row>
-    <row r="29" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A29" s="39"/>
-      <c r="B29" s="40"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="31"/>
-    </row>
-    <row r="30" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A30" s="41"/>
-      <c r="B30" s="42"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="43"/>
-    </row>
-    <row r="31" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="112"/>
-      <c r="B31" s="113"/>
-      <c r="C31" s="113"/>
-      <c r="D31" s="113"/>
-      <c r="E31" s="113"/>
-      <c r="F31" s="114"/>
-    </row>
-    <row r="32" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="84" t="s">
-        <v>21</v>
-      </c>
-      <c r="B32" s="85"/>
-      <c r="C32" s="85"/>
-      <c r="D32" s="85"/>
-      <c r="E32" s="85"/>
-      <c r="F32" s="86"/>
+      <c r="D30" s="105" t="s">
+        <v>65</v>
+      </c>
+      <c r="E30" s="105"/>
+      <c r="F30" s="106"/>
+    </row>
+    <row r="31" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A31" s="39"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="108"/>
+      <c r="E31" s="108"/>
+      <c r="F31" s="109"/>
+    </row>
+    <row r="32" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A32" s="39"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="108"/>
+      <c r="E32" s="108"/>
+      <c r="F32" s="109"/>
     </row>
     <row r="33" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A33" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="B33" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C33" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" s="115" t="s">
-        <v>65</v>
-      </c>
-      <c r="E33" s="115"/>
-      <c r="F33" s="116"/>
+      <c r="A33" s="39"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="108"/>
+      <c r="E33" s="108"/>
+      <c r="F33" s="109"/>
     </row>
     <row r="34" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A34" s="39"/>
-      <c r="B34" s="40"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="117"/>
-      <c r="E34" s="117"/>
-      <c r="F34" s="118"/>
-    </row>
-    <row r="35" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A35" s="39"/>
-      <c r="B35" s="40"/>
-      <c r="C35" s="40"/>
+      <c r="A34" s="41"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="114"/>
+      <c r="E34" s="114"/>
+      <c r="F34" s="115"/>
+    </row>
+    <row r="35" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="116"/>
+      <c r="B35" s="117"/>
+      <c r="C35" s="117"/>
       <c r="D35" s="117"/>
       <c r="E35" s="117"/>
       <c r="F35" s="118"/>
     </row>
-    <row r="36" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A36" s="39"/>
-      <c r="B36" s="40"/>
-      <c r="C36" s="40"/>
-      <c r="D36" s="117"/>
-      <c r="E36" s="117"/>
-      <c r="F36" s="118"/>
-    </row>
-    <row r="37" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A37" s="41"/>
-      <c r="B37" s="42"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="119"/>
-      <c r="E37" s="119"/>
-      <c r="F37" s="120"/>
-    </row>
-    <row r="38" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="109"/>
-      <c r="B38" s="110"/>
-      <c r="C38" s="110"/>
-      <c r="D38" s="110"/>
-      <c r="E38" s="110"/>
-      <c r="F38" s="111"/>
+    <row r="36" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="87" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" s="88"/>
+      <c r="C36" s="88"/>
+      <c r="D36" s="88"/>
+      <c r="E36" s="88"/>
+      <c r="F36" s="89"/>
+    </row>
+    <row r="37" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="104"/>
+      <c r="B37" s="105"/>
+      <c r="C37" s="105"/>
+      <c r="D37" s="105"/>
+      <c r="E37" s="105"/>
+      <c r="F37" s="106"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="107"/>
+      <c r="B38" s="108"/>
+      <c r="C38" s="108"/>
+      <c r="D38" s="108"/>
+      <c r="E38" s="108"/>
+      <c r="F38" s="109"/>
     </row>
     <row r="39" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="B39" s="85"/>
-      <c r="C39" s="85"/>
-      <c r="D39" s="85"/>
-      <c r="E39" s="85"/>
-      <c r="F39" s="86"/>
-    </row>
-    <row r="40" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="121"/>
-      <c r="B40" s="115"/>
-      <c r="C40" s="115"/>
-      <c r="D40" s="115"/>
-      <c r="E40" s="115"/>
-      <c r="F40" s="116"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="122"/>
-      <c r="B41" s="117"/>
-      <c r="C41" s="117"/>
-      <c r="D41" s="117"/>
-      <c r="E41" s="117"/>
-      <c r="F41" s="118"/>
-    </row>
-    <row r="42" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="112"/>
-      <c r="B42" s="113"/>
-      <c r="C42" s="113"/>
-      <c r="D42" s="113"/>
-      <c r="E42" s="113"/>
-      <c r="F42" s="114"/>
-    </row>
-    <row r="43" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="84" t="s">
+      <c r="A39" s="110"/>
+      <c r="B39" s="111"/>
+      <c r="C39" s="111"/>
+      <c r="D39" s="111"/>
+      <c r="E39" s="111"/>
+      <c r="F39" s="112"/>
+    </row>
+    <row r="40" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="B43" s="85"/>
-      <c r="C43" s="85"/>
-      <c r="D43" s="85"/>
-      <c r="E43" s="85"/>
-      <c r="F43" s="86"/>
-    </row>
-    <row r="44" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="121"/>
-      <c r="B44" s="115"/>
-      <c r="C44" s="115"/>
-      <c r="D44" s="115"/>
-      <c r="E44" s="115"/>
-      <c r="F44" s="116"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="123"/>
-      <c r="B45" s="119"/>
-      <c r="C45" s="119"/>
-      <c r="D45" s="119"/>
-      <c r="E45" s="119"/>
-      <c r="F45" s="120"/>
+      <c r="B40" s="88"/>
+      <c r="C40" s="88"/>
+      <c r="D40" s="88"/>
+      <c r="E40" s="88"/>
+      <c r="F40" s="89"/>
+    </row>
+    <row r="41" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="104"/>
+      <c r="B41" s="105"/>
+      <c r="C41" s="105"/>
+      <c r="D41" s="105"/>
+      <c r="E41" s="105"/>
+      <c r="F41" s="106"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="113"/>
+      <c r="B42" s="114"/>
+      <c r="C42" s="114"/>
+      <c r="D42" s="114"/>
+      <c r="E42" s="114"/>
+      <c r="F42" s="115"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="A37:F38"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="A41:F42"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D34:F34"/>
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B2:F2"/>
@@ -13350,23 +13310,6 @@
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:F10"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="A40:F41"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="A44:F45"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Colocar percentagem_x000a_" sqref="B10:C10" xr:uid="{8EDB03EC-30FB-484C-ACBE-DF33B9366718}"/>
@@ -13379,12 +13322,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="8">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{152A5A20-C0B5-8346-829C-AA213D993E7B}">
-          <x14:formula1>
-            <xm:f>Metadata!$A$43:$A$44</xm:f>
-          </x14:formula1>
-          <xm:sqref>C15:C23</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BCEE7AF6-FB2A-D549-AAA0-A425051E4FBD}">
           <x14:formula1>
             <xm:f>Metadata!$A$21:$A$23</xm:f>
@@ -13407,25 +13344,31 @@
           <x14:formula1>
             <xm:f>Metadata!$A$48:$A$50</xm:f>
           </x14:formula1>
-          <xm:sqref>C27:C30</xm:sqref>
+          <xm:sqref>C24:C27</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{12F1460B-C5F3-3849-87D4-D6D3B1BC42AE}">
           <x14:formula1>
             <xm:f>Metadata!$A$54:$A$56</xm:f>
           </x14:formula1>
-          <xm:sqref>D27:D30</xm:sqref>
+          <xm:sqref>D24:D27</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5390260B-45C4-6A4F-8570-075A21FC4F18}">
           <x14:formula1>
             <xm:f>Metadata!$A$33:$A$34</xm:f>
           </x14:formula1>
-          <xm:sqref>C34</xm:sqref>
+          <xm:sqref>C31</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9C8102FD-AFAD-8B46-B471-21F571E492B1}">
           <x14:formula1>
             <xm:f>Metadata!$A$37:$A$41</xm:f>
           </x14:formula1>
-          <xm:sqref>D34:D37</xm:sqref>
+          <xm:sqref>D31:D34</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{152A5A20-C0B5-8346-829C-AA213D993E7B}">
+          <x14:formula1>
+            <xm:f>Metadata!$A$43:$A$44</xm:f>
+          </x14:formula1>
+          <xm:sqref>C15:C20</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -13434,9 +13377,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13578,26 +13524,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30DE7E78-AB24-4BCB-A51F-77E5C10364A7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FCF46D4-6C3F-4211-BBB9-5DE005064C3C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="6597237e-e321-437a-ab0e-fe3e3f709099"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -13621,9 +13556,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FCF46D4-6C3F-4211-BBB9-5DE005064C3C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30DE7E78-AB24-4BCB-A51F-77E5C10364A7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="6597237e-e321-437a-ab0e-fe3e3f709099"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/docs/documentacao.xlsx
+++ b/docs/documentacao.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaobraganca/Desktop/ParallelsShared/GlobalTech_ETL/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D6A82D-D707-214B-904D-0CDDE773FDA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E63CA5-6BBA-CE4D-9E13-9CE404EE27F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="28300" firstSheet="1" activeTab="9" xr2:uid="{1C0ABE59-C842-1448-8BFE-1E96A6C9A910}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="22500" firstSheet="1" activeTab="7" xr2:uid="{1C0ABE59-C842-1448-8BFE-1E96A6C9A910}"/>
   </bookViews>
   <sheets>
     <sheet name="Matriz de decisão" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="249">
   <si>
     <t>Caracterização do Data Mart</t>
   </si>
@@ -604,9 +604,6 @@
     <t>preço de venda</t>
   </si>
   <si>
-    <t xml:space="preserve">quantidade do produto enviada </t>
-  </si>
-  <si>
     <t>65.40</t>
   </si>
   <si>
@@ -770,6 +767,30 @@
   </si>
   <si>
     <t>surrogate key data de cancelamento</t>
+  </si>
+  <si>
+    <t>quantidade do produto enviada</t>
+  </si>
+  <si>
+    <t>total_amount</t>
+  </si>
+  <si>
+    <t>valor total da encomenda</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>lucro da encomenda</t>
+  </si>
+  <si>
+    <t>paid_amount</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>valor da encomenda pago  até à data</t>
   </si>
 </sst>
 </file>
@@ -1276,7 +1297,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1415,6 +1436,9 @@
     <xf numFmtId="22" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1460,6 +1484,57 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1493,57 +1568,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1551,51 +1575,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1613,14 +1592,52 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -5787,7 +5804,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6075,7 +6092,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6098,68 +6115,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="71"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="72"/>
     </row>
     <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
     </row>
     <row r="3" spans="1:8" ht="47" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
     </row>
     <row r="4" spans="1:8" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="70"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="71"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="72"/>
     </row>
     <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="50" t="s">
         <v>32</v>
       </c>
       <c r="B5" s="47" t="s">
+        <v>226</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>229</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>230</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>34</v>
@@ -6185,7 +6202,7 @@
     </row>
     <row r="7" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B7" s="48"/>
       <c r="C7" s="3"/>
@@ -6197,7 +6214,7 @@
     </row>
     <row r="8" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B8" s="48"/>
       <c r="C8" s="3"/>
@@ -6209,7 +6226,7 @@
     </row>
     <row r="9" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B9" s="48"/>
       <c r="C9" s="3"/>
@@ -6221,7 +6238,7 @@
     </row>
     <row r="10" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B10" s="48"/>
       <c r="C10" s="3"/>
@@ -6233,7 +6250,7 @@
     </row>
     <row r="11" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B11" s="48"/>
       <c r="C11" s="3"/>
@@ -6245,7 +6262,7 @@
     </row>
     <row r="12" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B12" s="48"/>
       <c r="C12" s="3"/>
@@ -6257,7 +6274,7 @@
     </row>
     <row r="13" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B13" s="48"/>
       <c r="C13" s="3"/>
@@ -6280,14 +6297,14 @@
       <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A15" s="72"/>
-      <c r="B15" s="72"/>
-      <c r="C15" s="72"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="72"/>
+      <c r="A15" s="73"/>
+      <c r="B15" s="73"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="73"/>
     </row>
     <row r="16" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -6389,56 +6406,56 @@
       <c r="A22" s="7"/>
     </row>
     <row r="23" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="58" t="s">
+      <c r="A23" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="59"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="60"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="61"/>
     </row>
     <row r="24" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="61"/>
-      <c r="B24" s="62"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="62"/>
-      <c r="H24" s="63"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="63"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="64"/>
     </row>
     <row r="25" spans="1:8" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="64"/>
-      <c r="B25" s="65"/>
-      <c r="C25" s="65"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="65"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="66"/>
+      <c r="A25" s="65"/>
+      <c r="B25" s="66"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="67"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="67"/>
-      <c r="B26" s="67"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="67"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="67"/>
-      <c r="G26" s="67"/>
-      <c r="H26" s="67"/>
+      <c r="A26" s="68"/>
+      <c r="B26" s="68"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="68"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="68"/>
-      <c r="B27" s="68"/>
-      <c r="C27" s="68"/>
-      <c r="D27" s="68"/>
-      <c r="E27" s="68"/>
-      <c r="F27" s="68"/>
-      <c r="G27" s="68"/>
-      <c r="H27" s="68"/>
+      <c r="A27" s="69"/>
+      <c r="B27" s="69"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -7731,8 +7748,8 @@
   </sheetPr>
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:F38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7744,152 +7761,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="97" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="81"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="99"/>
     </row>
     <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="121" t="s">
-        <v>221</v>
-      </c>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="122"/>
+      <c r="B2" s="107" t="s">
+        <v>220</v>
+      </c>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="108"/>
     </row>
     <row r="3" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="96" t="s">
-        <v>204</v>
-      </c>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="97"/>
+      <c r="B3" s="78" t="s">
+        <v>203</v>
+      </c>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="79"/>
     </row>
     <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="96" t="s">
+      <c r="B4" s="78" t="s">
         <v>162</v>
       </c>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="97"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="79"/>
     </row>
     <row r="5" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="96" t="s">
+      <c r="B5" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="96"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="97"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="79"/>
     </row>
     <row r="6" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="96" t="s">
-        <v>205</v>
-      </c>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="97"/>
+      <c r="B6" s="78" t="s">
+        <v>204</v>
+      </c>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="79"/>
     </row>
     <row r="7" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="96" t="s">
+      <c r="B7" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="96"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="96"/>
-      <c r="F7" s="97"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="79"/>
     </row>
     <row r="8" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="B8" s="96" t="s">
+      <c r="B8" s="78" t="s">
         <v>163</v>
       </c>
-      <c r="C8" s="96"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="97"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="79"/>
     </row>
     <row r="9" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="B9" s="96"/>
-      <c r="C9" s="96"/>
-      <c r="D9" s="96"/>
-      <c r="E9" s="96"/>
-      <c r="F9" s="97"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="79"/>
     </row>
     <row r="10" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="123">
+      <c r="B10" s="109">
         <v>0.3</v>
       </c>
-      <c r="C10" s="96"/>
-      <c r="D10" s="96" t="s">
+      <c r="C10" s="78"/>
+      <c r="D10" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="96"/>
-      <c r="F10" s="97"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="79"/>
     </row>
     <row r="11" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="119" t="s">
+      <c r="B11" s="105" t="s">
         <v>164</v>
       </c>
-      <c r="C11" s="119"/>
-      <c r="D11" s="119"/>
-      <c r="E11" s="119"/>
-      <c r="F11" s="120"/>
+      <c r="C11" s="105"/>
+      <c r="D11" s="105"/>
+      <c r="E11" s="105"/>
+      <c r="F11" s="106"/>
     </row>
     <row r="12" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="110"/>
-      <c r="B12" s="111"/>
-      <c r="C12" s="111"/>
-      <c r="D12" s="111"/>
-      <c r="E12" s="111"/>
-      <c r="F12" s="112"/>
+      <c r="A12" s="113"/>
+      <c r="B12" s="114"/>
+      <c r="C12" s="114"/>
+      <c r="D12" s="114"/>
+      <c r="E12" s="114"/>
+      <c r="F12" s="115"/>
     </row>
     <row r="13" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="87" t="s">
+      <c r="A13" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="88"/>
-      <c r="C13" s="88"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="89"/>
+      <c r="B13" s="86"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="86"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="87"/>
     </row>
     <row r="14" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
@@ -7959,14 +7976,14 @@
       </c>
       <c r="D17" s="27"/>
       <c r="E17" s="27" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F17" s="37">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A18" s="126">
+      <c r="A18" s="36">
         <v>4</v>
       </c>
       <c r="B18" s="27" t="s">
@@ -7976,9 +7993,9 @@
         <v>76</v>
       </c>
       <c r="E18" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="F18" s="127">
+        <v>192</v>
+      </c>
+      <c r="F18" s="37">
         <v>5</v>
       </c>
     </row>
@@ -8005,28 +8022,28 @@
         <v>7</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C20" s="27" t="s">
         <v>76</v>
       </c>
       <c r="D20" s="27"/>
       <c r="E20" s="27" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F20" s="37" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="87" t="s">
+      <c r="A21" s="85" t="s">
         <v>77</v>
       </c>
-      <c r="B21" s="88"/>
-      <c r="C21" s="88"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="88"/>
-      <c r="F21" s="89"/>
+      <c r="B21" s="86"/>
+      <c r="C21" s="86"/>
+      <c r="D21" s="86"/>
+      <c r="E21" s="86"/>
+      <c r="F21" s="87"/>
     </row>
     <row r="22" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="39" t="s">
@@ -8060,7 +8077,7 @@
         <v>84</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F23" s="37">
         <v>30</v>
@@ -8087,22 +8104,22 @@
       <c r="F26" s="43"/>
     </row>
     <row r="27" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="110"/>
-      <c r="B27" s="111"/>
-      <c r="C27" s="111"/>
-      <c r="D27" s="111"/>
-      <c r="E27" s="111"/>
-      <c r="F27" s="112"/>
+      <c r="A27" s="113"/>
+      <c r="B27" s="114"/>
+      <c r="C27" s="114"/>
+      <c r="D27" s="114"/>
+      <c r="E27" s="114"/>
+      <c r="F27" s="115"/>
     </row>
     <row r="28" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="87" t="s">
+      <c r="A28" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="88"/>
-      <c r="C28" s="88"/>
-      <c r="D28" s="88"/>
-      <c r="E28" s="88"/>
-      <c r="F28" s="89"/>
+      <c r="B28" s="86"/>
+      <c r="C28" s="86"/>
+      <c r="D28" s="86"/>
+      <c r="E28" s="86"/>
+      <c r="F28" s="87"/>
     </row>
     <row r="29" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A29" s="39" t="s">
@@ -8114,130 +8131,114 @@
       <c r="C29" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="105" t="s">
+      <c r="D29" s="116" t="s">
         <v>65</v>
       </c>
-      <c r="E29" s="105"/>
-      <c r="F29" s="106"/>
+      <c r="E29" s="116"/>
+      <c r="F29" s="117"/>
     </row>
     <row r="30" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="39"/>
       <c r="B30" s="40"/>
       <c r="C30" s="40"/>
-      <c r="D30" s="108"/>
-      <c r="E30" s="108"/>
-      <c r="F30" s="109"/>
+      <c r="D30" s="118"/>
+      <c r="E30" s="118"/>
+      <c r="F30" s="119"/>
     </row>
     <row r="31" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A31" s="39"/>
       <c r="B31" s="40"/>
       <c r="C31" s="40"/>
-      <c r="D31" s="108"/>
-      <c r="E31" s="108"/>
-      <c r="F31" s="109"/>
+      <c r="D31" s="118"/>
+      <c r="E31" s="118"/>
+      <c r="F31" s="119"/>
     </row>
     <row r="32" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A32" s="39"/>
       <c r="B32" s="40"/>
       <c r="C32" s="40"/>
-      <c r="D32" s="108"/>
-      <c r="E32" s="108"/>
-      <c r="F32" s="109"/>
+      <c r="D32" s="118"/>
+      <c r="E32" s="118"/>
+      <c r="F32" s="119"/>
     </row>
     <row r="33" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A33" s="41"/>
       <c r="B33" s="42"/>
       <c r="C33" s="42"/>
-      <c r="D33" s="114"/>
-      <c r="E33" s="114"/>
-      <c r="F33" s="115"/>
+      <c r="D33" s="120"/>
+      <c r="E33" s="120"/>
+      <c r="F33" s="121"/>
     </row>
     <row r="34" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="116"/>
-      <c r="B34" s="117"/>
-      <c r="C34" s="117"/>
-      <c r="D34" s="117"/>
-      <c r="E34" s="117"/>
-      <c r="F34" s="118"/>
+      <c r="A34" s="110"/>
+      <c r="B34" s="111"/>
+      <c r="C34" s="111"/>
+      <c r="D34" s="111"/>
+      <c r="E34" s="111"/>
+      <c r="F34" s="112"/>
     </row>
     <row r="35" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="87" t="s">
+      <c r="A35" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="B35" s="88"/>
-      <c r="C35" s="88"/>
-      <c r="D35" s="88"/>
-      <c r="E35" s="88"/>
-      <c r="F35" s="89"/>
+      <c r="B35" s="86"/>
+      <c r="C35" s="86"/>
+      <c r="D35" s="86"/>
+      <c r="E35" s="86"/>
+      <c r="F35" s="87"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="104"/>
-      <c r="B36" s="105"/>
-      <c r="C36" s="105"/>
-      <c r="D36" s="105"/>
-      <c r="E36" s="105"/>
-      <c r="F36" s="106"/>
+      <c r="A36" s="122"/>
+      <c r="B36" s="116"/>
+      <c r="C36" s="116"/>
+      <c r="D36" s="116"/>
+      <c r="E36" s="116"/>
+      <c r="F36" s="117"/>
     </row>
     <row r="37" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="107"/>
-      <c r="B37" s="108"/>
-      <c r="C37" s="108"/>
-      <c r="D37" s="108"/>
-      <c r="E37" s="108"/>
-      <c r="F37" s="109"/>
+      <c r="A37" s="123"/>
+      <c r="B37" s="118"/>
+      <c r="C37" s="118"/>
+      <c r="D37" s="118"/>
+      <c r="E37" s="118"/>
+      <c r="F37" s="119"/>
     </row>
     <row r="38" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="110"/>
-      <c r="B38" s="111"/>
-      <c r="C38" s="111"/>
-      <c r="D38" s="111"/>
-      <c r="E38" s="111"/>
-      <c r="F38" s="112"/>
+      <c r="A38" s="113"/>
+      <c r="B38" s="114"/>
+      <c r="C38" s="114"/>
+      <c r="D38" s="114"/>
+      <c r="E38" s="114"/>
+      <c r="F38" s="115"/>
     </row>
     <row r="39" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="87" t="s">
+      <c r="A39" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="88"/>
-      <c r="C39" s="88"/>
-      <c r="D39" s="88"/>
-      <c r="E39" s="88"/>
-      <c r="F39" s="89"/>
+      <c r="B39" s="86"/>
+      <c r="C39" s="86"/>
+      <c r="D39" s="86"/>
+      <c r="E39" s="86"/>
+      <c r="F39" s="87"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="104"/>
-      <c r="B40" s="105"/>
-      <c r="C40" s="105"/>
-      <c r="D40" s="105"/>
-      <c r="E40" s="105"/>
-      <c r="F40" s="106"/>
+      <c r="A40" s="122"/>
+      <c r="B40" s="116"/>
+      <c r="C40" s="116"/>
+      <c r="D40" s="116"/>
+      <c r="E40" s="116"/>
+      <c r="F40" s="117"/>
     </row>
     <row r="41" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="113"/>
-      <c r="B41" s="114"/>
-      <c r="C41" s="114"/>
-      <c r="D41" s="114"/>
-      <c r="E41" s="114"/>
-      <c r="F41" s="115"/>
+      <c r="A41" s="124"/>
+      <c r="B41" s="120"/>
+      <c r="C41" s="120"/>
+      <c r="D41" s="120"/>
+      <c r="E41" s="120"/>
+      <c r="F41" s="121"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="A36:F37"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="A40:F41"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D33:F33"/>
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B2:F2"/>
@@ -8250,6 +8251,22 @@
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:F10"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="A36:F37"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="A40:F41"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Colocar percentagem_x000a_" sqref="B10:C10" xr:uid="{2B355D78-2274-AF4C-B934-68ADBC7FB191}"/>
@@ -8716,95 +8733,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="81"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="99"/>
     </row>
     <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="82" t="s">
-        <v>214</v>
-      </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="83"/>
+      <c r="B2" s="100" t="s">
+        <v>213</v>
+      </c>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="101"/>
     </row>
     <row r="3" spans="1:7" ht="46" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="80" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="85"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="81"/>
     </row>
     <row r="4" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="80" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="85"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="81"/>
     </row>
     <row r="5" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="84" t="s">
+      <c r="B5" s="80" t="s">
         <v>87</v>
       </c>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="85"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="81"/>
     </row>
     <row r="6" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="73"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="76" t="s">
+      <c r="B6" s="91"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="94" t="s">
         <v>57</v>
       </c>
-      <c r="F6" s="77"/>
-      <c r="G6" s="78"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="96"/>
     </row>
     <row r="7" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="35"/>
       <c r="G7" s="33"/>
     </row>
     <row r="8" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="87" t="s">
+      <c r="A8" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="88"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="88"/>
-      <c r="G8" s="89"/>
+      <c r="B8" s="86"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="87"/>
     </row>
     <row r="9" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
@@ -8993,15 +9010,15 @@
       <c r="G18" s="37"/>
     </row>
     <row r="19" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A19" s="90" t="s">
+      <c r="A19" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="62"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="63"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="64"/>
     </row>
     <row r="20" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="28" t="s">
@@ -9013,57 +9030,57 @@
       <c r="C20" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="91" t="s">
+      <c r="D20" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="E20" s="91"/>
-      <c r="F20" s="91"/>
-      <c r="G20" s="91"/>
+      <c r="E20" s="89"/>
+      <c r="F20" s="89"/>
+      <c r="G20" s="89"/>
     </row>
     <row r="21" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="92"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="90"/>
     </row>
     <row r="22" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="92"/>
-      <c r="E22" s="92"/>
-      <c r="F22" s="92"/>
-      <c r="G22" s="92"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="90"/>
+      <c r="G22" s="90"/>
     </row>
     <row r="23" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="92"/>
-      <c r="E23" s="92"/>
-      <c r="F23" s="92"/>
-      <c r="G23" s="92"/>
+      <c r="D23" s="90"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="90"/>
     </row>
     <row r="24" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="92"/>
-      <c r="E24" s="92"/>
-      <c r="F24" s="92"/>
-      <c r="G24" s="92"/>
+      <c r="D24" s="90"/>
+      <c r="E24" s="90"/>
+      <c r="F24" s="90"/>
+      <c r="G24" s="90"/>
     </row>
     <row r="25" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="92"/>
-      <c r="E25" s="92"/>
-      <c r="F25" s="92"/>
-      <c r="G25" s="92"/>
+      <c r="D25" s="90"/>
+      <c r="E25" s="90"/>
+      <c r="F25" s="90"/>
+      <c r="G25" s="90"/>
     </row>
     <row r="26" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A26" s="36"/>
@@ -9073,15 +9090,15 @@
       <c r="G26" s="33"/>
     </row>
     <row r="27" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A27" s="90" t="s">
+      <c r="A27" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="62"/>
-      <c r="C27" s="62"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="63"/>
+      <c r="B27" s="63"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="64"/>
     </row>
     <row r="28" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A28" s="45" t="s">
@@ -9090,13 +9107,13 @@
       <c r="B28" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="91" t="s">
+      <c r="C28" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="91"/>
-      <c r="E28" s="91"/>
-      <c r="F28" s="91"/>
-      <c r="G28" s="91"/>
+      <c r="D28" s="89"/>
+      <c r="E28" s="89"/>
+      <c r="F28" s="89"/>
+      <c r="G28" s="89"/>
     </row>
     <row r="29" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
@@ -9105,105 +9122,107 @@
       <c r="B29" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C29" s="86" t="s">
+      <c r="C29" s="74" t="s">
         <v>109</v>
       </c>
-      <c r="D29" s="86"/>
-      <c r="E29" s="86"/>
-      <c r="F29" s="86"/>
-      <c r="G29" s="86"/>
+      <c r="D29" s="74"/>
+      <c r="E29" s="74"/>
+      <c r="F29" s="74"/>
+      <c r="G29" s="74"/>
     </row>
     <row r="30" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>2</v>
       </c>
       <c r="B30" s="1"/>
-      <c r="C30" s="86" t="s">
+      <c r="C30" s="74" t="s">
         <v>112</v>
       </c>
-      <c r="D30" s="86"/>
-      <c r="E30" s="86"/>
-      <c r="F30" s="86"/>
-      <c r="G30" s="86"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="74"/>
     </row>
     <row r="31" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
-      <c r="C31" s="86"/>
-      <c r="D31" s="86"/>
-      <c r="E31" s="86"/>
-      <c r="F31" s="86"/>
-      <c r="G31" s="86"/>
+      <c r="C31" s="74"/>
+      <c r="D31" s="74"/>
+      <c r="E31" s="74"/>
+      <c r="F31" s="74"/>
+      <c r="G31" s="74"/>
     </row>
     <row r="32" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="G32" s="33"/>
     </row>
     <row r="33" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="93" t="s">
+      <c r="A33" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="70"/>
-      <c r="C33" s="70"/>
-      <c r="D33" s="70"/>
-      <c r="E33" s="70"/>
-      <c r="F33" s="70"/>
-      <c r="G33" s="94"/>
+      <c r="B33" s="71"/>
+      <c r="C33" s="71"/>
+      <c r="D33" s="71"/>
+      <c r="E33" s="71"/>
+      <c r="F33" s="71"/>
+      <c r="G33" s="76"/>
     </row>
     <row r="34" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="95"/>
-      <c r="B34" s="96"/>
-      <c r="C34" s="96"/>
-      <c r="D34" s="96"/>
-      <c r="E34" s="96"/>
-      <c r="F34" s="96"/>
-      <c r="G34" s="97"/>
+      <c r="A34" s="77"/>
+      <c r="B34" s="78"/>
+      <c r="C34" s="78"/>
+      <c r="D34" s="78"/>
+      <c r="E34" s="78"/>
+      <c r="F34" s="78"/>
+      <c r="G34" s="79"/>
     </row>
     <row r="35" spans="1:7" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="95"/>
-      <c r="B35" s="96"/>
-      <c r="C35" s="96"/>
-      <c r="D35" s="96"/>
-      <c r="E35" s="96"/>
-      <c r="F35" s="96"/>
-      <c r="G35" s="97"/>
+      <c r="A35" s="77"/>
+      <c r="B35" s="78"/>
+      <c r="C35" s="78"/>
+      <c r="D35" s="78"/>
+      <c r="E35" s="78"/>
+      <c r="F35" s="78"/>
+      <c r="G35" s="79"/>
     </row>
     <row r="36" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="93" t="s">
+      <c r="A36" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="B36" s="70"/>
-      <c r="C36" s="70"/>
-      <c r="D36" s="70"/>
-      <c r="E36" s="70"/>
-      <c r="F36" s="70"/>
-      <c r="G36" s="94"/>
+      <c r="B36" s="71"/>
+      <c r="C36" s="71"/>
+      <c r="D36" s="71"/>
+      <c r="E36" s="71"/>
+      <c r="F36" s="71"/>
+      <c r="G36" s="76"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="84"/>
-      <c r="B37" s="68"/>
-      <c r="C37" s="68"/>
-      <c r="D37" s="68"/>
-      <c r="E37" s="68"/>
-      <c r="F37" s="68"/>
-      <c r="G37" s="85"/>
+      <c r="A37" s="80"/>
+      <c r="B37" s="69"/>
+      <c r="C37" s="69"/>
+      <c r="D37" s="69"/>
+      <c r="E37" s="69"/>
+      <c r="F37" s="69"/>
+      <c r="G37" s="81"/>
     </row>
     <row r="38" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="98"/>
-      <c r="B38" s="99"/>
-      <c r="C38" s="99"/>
-      <c r="D38" s="99"/>
-      <c r="E38" s="99"/>
-      <c r="F38" s="99"/>
-      <c r="G38" s="100"/>
+      <c r="A38" s="82"/>
+      <c r="B38" s="83"/>
+      <c r="C38" s="83"/>
+      <c r="D38" s="83"/>
+      <c r="E38" s="83"/>
+      <c r="F38" s="83"/>
+      <c r="G38" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="A34:G35"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A37:G38"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
     <mergeCell ref="C30:G30"/>
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="A19:G19"/>
@@ -9216,13 +9235,11 @@
     <mergeCell ref="A27:G27"/>
     <mergeCell ref="C28:G28"/>
     <mergeCell ref="C29:G29"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="A34:G35"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A37:G38"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Exemplo:_x000a_id -&gt; nome -&gt; categoria -&gt; ALL" sqref="C29:C32" xr:uid="{386320E1-7050-C749-9143-6F7D856CB823}"/>
@@ -9291,95 +9308,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="81"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="99"/>
     </row>
     <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="82" t="s">
-        <v>215</v>
-      </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="83"/>
+      <c r="B2" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="101"/>
     </row>
     <row r="3" spans="1:7" ht="46" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="80" t="s">
         <v>100</v>
       </c>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="85"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="81"/>
     </row>
     <row r="4" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="85"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="81"/>
     </row>
     <row r="5" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="84" t="s">
+      <c r="B5" s="80" t="s">
         <v>99</v>
       </c>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="85"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="81"/>
     </row>
     <row r="6" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="101"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="76" t="s">
+      <c r="B6" s="102"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="104"/>
+      <c r="E6" s="94" t="s">
         <v>57</v>
       </c>
-      <c r="F6" s="77"/>
-      <c r="G6" s="78"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="96"/>
     </row>
     <row r="7" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="35"/>
       <c r="G7" s="33"/>
     </row>
     <row r="8" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="87" t="s">
+      <c r="A8" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="88"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="88"/>
-      <c r="G8" s="89"/>
+      <c r="B8" s="86"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="87"/>
     </row>
     <row r="9" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
@@ -9535,15 +9552,15 @@
       <c r="G17" s="37"/>
     </row>
     <row r="18" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A18" s="90" t="s">
+      <c r="A18" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="62"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="63"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="64"/>
     </row>
     <row r="19" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A19" s="28" t="s">
@@ -9555,57 +9572,57 @@
       <c r="C19" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="91" t="s">
+      <c r="D19" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="E19" s="91"/>
-      <c r="F19" s="91"/>
-      <c r="G19" s="91"/>
+      <c r="E19" s="89"/>
+      <c r="F19" s="89"/>
+      <c r="G19" s="89"/>
     </row>
     <row r="20" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="92"/>
-      <c r="E20" s="92"/>
-      <c r="F20" s="92"/>
-      <c r="G20" s="92"/>
+      <c r="D20" s="90"/>
+      <c r="E20" s="90"/>
+      <c r="F20" s="90"/>
+      <c r="G20" s="90"/>
     </row>
     <row r="21" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="92"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="90"/>
     </row>
     <row r="22" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="92"/>
-      <c r="E22" s="92"/>
-      <c r="F22" s="92"/>
-      <c r="G22" s="92"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="90"/>
+      <c r="G22" s="90"/>
     </row>
     <row r="23" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="92"/>
-      <c r="E23" s="92"/>
-      <c r="F23" s="92"/>
-      <c r="G23" s="92"/>
+      <c r="D23" s="90"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="90"/>
     </row>
     <row r="24" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="92"/>
-      <c r="E24" s="92"/>
-      <c r="F24" s="92"/>
-      <c r="G24" s="92"/>
+      <c r="D24" s="90"/>
+      <c r="E24" s="90"/>
+      <c r="F24" s="90"/>
+      <c r="G24" s="90"/>
     </row>
     <row r="25" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="36"/>
@@ -9615,15 +9632,15 @@
       <c r="G25" s="33"/>
     </row>
     <row r="26" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A26" s="90" t="s">
+      <c r="A26" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="62"/>
-      <c r="C26" s="62"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="63"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="64"/>
     </row>
     <row r="27" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A27" s="45" t="s">
@@ -9632,112 +9649,110 @@
       <c r="B27" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="91" t="s">
+      <c r="C27" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="91"/>
-      <c r="E27" s="91"/>
-      <c r="F27" s="91"/>
-      <c r="G27" s="91"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="89"/>
+      <c r="F27" s="89"/>
+      <c r="G27" s="89"/>
     </row>
     <row r="28" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
-      <c r="C28" s="86"/>
-      <c r="D28" s="86"/>
-      <c r="E28" s="86"/>
-      <c r="F28" s="86"/>
-      <c r="G28" s="86"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="74"/>
     </row>
     <row r="29" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="86"/>
-      <c r="D29" s="86"/>
-      <c r="E29" s="86"/>
-      <c r="F29" s="86"/>
-      <c r="G29" s="86"/>
+      <c r="C29" s="74"/>
+      <c r="D29" s="74"/>
+      <c r="E29" s="74"/>
+      <c r="F29" s="74"/>
+      <c r="G29" s="74"/>
     </row>
     <row r="30" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="86"/>
-      <c r="D30" s="86"/>
-      <c r="E30" s="86"/>
-      <c r="F30" s="86"/>
-      <c r="G30" s="86"/>
+      <c r="C30" s="74"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="74"/>
     </row>
     <row r="31" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="G31" s="33"/>
     </row>
     <row r="32" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="93" t="s">
+      <c r="A32" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="70"/>
-      <c r="C32" s="70"/>
-      <c r="D32" s="70"/>
-      <c r="E32" s="70"/>
-      <c r="F32" s="70"/>
-      <c r="G32" s="94"/>
+      <c r="B32" s="71"/>
+      <c r="C32" s="71"/>
+      <c r="D32" s="71"/>
+      <c r="E32" s="71"/>
+      <c r="F32" s="71"/>
+      <c r="G32" s="76"/>
     </row>
     <row r="33" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="95"/>
-      <c r="B33" s="96"/>
-      <c r="C33" s="96"/>
-      <c r="D33" s="96"/>
-      <c r="E33" s="96"/>
-      <c r="F33" s="96"/>
-      <c r="G33" s="97"/>
+      <c r="A33" s="77"/>
+      <c r="B33" s="78"/>
+      <c r="C33" s="78"/>
+      <c r="D33" s="78"/>
+      <c r="E33" s="78"/>
+      <c r="F33" s="78"/>
+      <c r="G33" s="79"/>
     </row>
     <row r="34" spans="1:7" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="95"/>
-      <c r="B34" s="96"/>
-      <c r="C34" s="96"/>
-      <c r="D34" s="96"/>
-      <c r="E34" s="96"/>
-      <c r="F34" s="96"/>
-      <c r="G34" s="97"/>
+      <c r="A34" s="77"/>
+      <c r="B34" s="78"/>
+      <c r="C34" s="78"/>
+      <c r="D34" s="78"/>
+      <c r="E34" s="78"/>
+      <c r="F34" s="78"/>
+      <c r="G34" s="79"/>
     </row>
     <row r="35" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="93" t="s">
+      <c r="A35" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="70"/>
-      <c r="C35" s="70"/>
-      <c r="D35" s="70"/>
-      <c r="E35" s="70"/>
-      <c r="F35" s="70"/>
-      <c r="G35" s="94"/>
+      <c r="B35" s="71"/>
+      <c r="C35" s="71"/>
+      <c r="D35" s="71"/>
+      <c r="E35" s="71"/>
+      <c r="F35" s="71"/>
+      <c r="G35" s="76"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="84"/>
-      <c r="B36" s="68"/>
-      <c r="C36" s="68"/>
-      <c r="D36" s="68"/>
-      <c r="E36" s="68"/>
-      <c r="F36" s="68"/>
-      <c r="G36" s="85"/>
+      <c r="A36" s="80"/>
+      <c r="B36" s="69"/>
+      <c r="C36" s="69"/>
+      <c r="D36" s="69"/>
+      <c r="E36" s="69"/>
+      <c r="F36" s="69"/>
+      <c r="G36" s="81"/>
     </row>
     <row r="37" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="98"/>
-      <c r="B37" s="99"/>
-      <c r="C37" s="99"/>
-      <c r="D37" s="99"/>
-      <c r="E37" s="99"/>
-      <c r="F37" s="99"/>
-      <c r="G37" s="100"/>
+      <c r="A37" s="82"/>
+      <c r="B37" s="83"/>
+      <c r="C37" s="83"/>
+      <c r="D37" s="83"/>
+      <c r="E37" s="83"/>
+      <c r="F37" s="83"/>
+      <c r="G37" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="A33:G34"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="A36:G37"/>
     <mergeCell ref="C29:G29"/>
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="A18:G18"/>
@@ -9750,11 +9765,13 @@
     <mergeCell ref="A26:G26"/>
     <mergeCell ref="C27:G27"/>
     <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="A33:G34"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="A36:G37"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Colocar percentagem" sqref="B6" xr:uid="{F51EFD33-359E-334A-A51E-A657A56E6972}">
@@ -9824,95 +9841,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="81"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="99"/>
     </row>
     <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="82" t="s">
-        <v>216</v>
-      </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="83"/>
+      <c r="B2" s="100" t="s">
+        <v>215</v>
+      </c>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="101"/>
     </row>
     <row r="3" spans="1:7" ht="46" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="80" t="s">
         <v>148</v>
       </c>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="85"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="81"/>
     </row>
     <row r="4" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="85"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="81"/>
     </row>
     <row r="5" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="84" t="s">
+      <c r="B5" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="85"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="81"/>
     </row>
     <row r="6" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="73"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="76" t="s">
+      <c r="B6" s="91"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="94" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="77"/>
-      <c r="G6" s="78"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="96"/>
     </row>
     <row r="7" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="35"/>
       <c r="G7" s="33"/>
     </row>
     <row r="8" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="87" t="s">
+      <c r="A8" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="88"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="88"/>
-      <c r="G8" s="89"/>
+      <c r="B8" s="86"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="87"/>
     </row>
     <row r="9" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
@@ -10068,13 +10085,13 @@
       <c r="G17" s="37"/>
     </row>
     <row r="18" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A18" s="90"/>
-      <c r="B18" s="62"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="63"/>
+      <c r="A18" s="88"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="64"/>
     </row>
     <row r="19" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A19" s="28" t="s">
@@ -10086,57 +10103,57 @@
       <c r="C19" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="91" t="s">
+      <c r="D19" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="E19" s="91"/>
-      <c r="F19" s="91"/>
-      <c r="G19" s="91"/>
+      <c r="E19" s="89"/>
+      <c r="F19" s="89"/>
+      <c r="G19" s="89"/>
     </row>
     <row r="20" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="92"/>
-      <c r="E20" s="92"/>
-      <c r="F20" s="92"/>
-      <c r="G20" s="92"/>
+      <c r="D20" s="90"/>
+      <c r="E20" s="90"/>
+      <c r="F20" s="90"/>
+      <c r="G20" s="90"/>
     </row>
     <row r="21" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="92"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="90"/>
     </row>
     <row r="22" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="92"/>
-      <c r="E22" s="92"/>
-      <c r="F22" s="92"/>
-      <c r="G22" s="92"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="90"/>
+      <c r="G22" s="90"/>
     </row>
     <row r="23" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="92"/>
-      <c r="E23" s="92"/>
-      <c r="F23" s="92"/>
-      <c r="G23" s="92"/>
+      <c r="D23" s="90"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="90"/>
     </row>
     <row r="24" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="92"/>
-      <c r="E24" s="92"/>
-      <c r="F24" s="92"/>
-      <c r="G24" s="92"/>
+      <c r="D24" s="90"/>
+      <c r="E24" s="90"/>
+      <c r="F24" s="90"/>
+      <c r="G24" s="90"/>
     </row>
     <row r="25" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="36"/>
@@ -10146,15 +10163,15 @@
       <c r="G25" s="33"/>
     </row>
     <row r="26" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A26" s="90" t="s">
+      <c r="A26" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="62"/>
-      <c r="C26" s="62"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="63"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="64"/>
     </row>
     <row r="27" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A27" s="45" t="s">
@@ -10163,105 +10180,113 @@
       <c r="B27" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="91" t="s">
+      <c r="C27" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="91"/>
-      <c r="E27" s="91"/>
-      <c r="F27" s="91"/>
-      <c r="G27" s="91"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="89"/>
+      <c r="F27" s="89"/>
+      <c r="G27" s="89"/>
     </row>
     <row r="28" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
-      <c r="C28" s="86"/>
-      <c r="D28" s="86"/>
-      <c r="E28" s="86"/>
-      <c r="F28" s="86"/>
-      <c r="G28" s="86"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="74"/>
     </row>
     <row r="29" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="86"/>
-      <c r="D29" s="86"/>
-      <c r="E29" s="86"/>
-      <c r="F29" s="86"/>
-      <c r="G29" s="86"/>
+      <c r="C29" s="74"/>
+      <c r="D29" s="74"/>
+      <c r="E29" s="74"/>
+      <c r="F29" s="74"/>
+      <c r="G29" s="74"/>
     </row>
     <row r="30" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="86"/>
-      <c r="D30" s="86"/>
-      <c r="E30" s="86"/>
-      <c r="F30" s="86"/>
-      <c r="G30" s="86"/>
+      <c r="C30" s="74"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="74"/>
     </row>
     <row r="31" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="G31" s="33"/>
     </row>
     <row r="32" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="93" t="s">
+      <c r="A32" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="70"/>
-      <c r="C32" s="70"/>
-      <c r="D32" s="70"/>
-      <c r="E32" s="70"/>
-      <c r="F32" s="70"/>
-      <c r="G32" s="94"/>
+      <c r="B32" s="71"/>
+      <c r="C32" s="71"/>
+      <c r="D32" s="71"/>
+      <c r="E32" s="71"/>
+      <c r="F32" s="71"/>
+      <c r="G32" s="76"/>
     </row>
     <row r="33" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="95"/>
-      <c r="B33" s="96"/>
-      <c r="C33" s="96"/>
-      <c r="D33" s="96"/>
-      <c r="E33" s="96"/>
-      <c r="F33" s="96"/>
-      <c r="G33" s="97"/>
+      <c r="A33" s="77"/>
+      <c r="B33" s="78"/>
+      <c r="C33" s="78"/>
+      <c r="D33" s="78"/>
+      <c r="E33" s="78"/>
+      <c r="F33" s="78"/>
+      <c r="G33" s="79"/>
     </row>
     <row r="34" spans="1:7" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="95"/>
-      <c r="B34" s="96"/>
-      <c r="C34" s="96"/>
-      <c r="D34" s="96"/>
-      <c r="E34" s="96"/>
-      <c r="F34" s="96"/>
-      <c r="G34" s="97"/>
+      <c r="A34" s="77"/>
+      <c r="B34" s="78"/>
+      <c r="C34" s="78"/>
+      <c r="D34" s="78"/>
+      <c r="E34" s="78"/>
+      <c r="F34" s="78"/>
+      <c r="G34" s="79"/>
     </row>
     <row r="35" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="93" t="s">
+      <c r="A35" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="70"/>
-      <c r="C35" s="70"/>
-      <c r="D35" s="70"/>
-      <c r="E35" s="70"/>
-      <c r="F35" s="70"/>
-      <c r="G35" s="94"/>
+      <c r="B35" s="71"/>
+      <c r="C35" s="71"/>
+      <c r="D35" s="71"/>
+      <c r="E35" s="71"/>
+      <c r="F35" s="71"/>
+      <c r="G35" s="76"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="84"/>
-      <c r="B36" s="68"/>
-      <c r="C36" s="68"/>
-      <c r="D36" s="68"/>
-      <c r="E36" s="68"/>
-      <c r="F36" s="68"/>
-      <c r="G36" s="85"/>
+      <c r="A36" s="80"/>
+      <c r="B36" s="69"/>
+      <c r="C36" s="69"/>
+      <c r="D36" s="69"/>
+      <c r="E36" s="69"/>
+      <c r="F36" s="69"/>
+      <c r="G36" s="81"/>
     </row>
     <row r="37" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="98"/>
-      <c r="B37" s="99"/>
-      <c r="C37" s="99"/>
-      <c r="D37" s="99"/>
-      <c r="E37" s="99"/>
-      <c r="F37" s="99"/>
-      <c r="G37" s="100"/>
+      <c r="A37" s="82"/>
+      <c r="B37" s="83"/>
+      <c r="C37" s="83"/>
+      <c r="D37" s="83"/>
+      <c r="E37" s="83"/>
+      <c r="F37" s="83"/>
+      <c r="G37" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D23:G23"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="D19:G19"/>
     <mergeCell ref="D20:G20"/>
@@ -10278,14 +10303,6 @@
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="B5:G5"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="A26:G26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D23:G23"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Colocar percentagem" sqref="B6" xr:uid="{C5DD908A-3688-A14E-B89F-E074FAFCDF99}">
@@ -10355,95 +10372,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="81"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="99"/>
     </row>
     <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="82" t="s">
-        <v>217</v>
-      </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="83"/>
+      <c r="B2" s="100" t="s">
+        <v>216</v>
+      </c>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="101"/>
     </row>
     <row r="3" spans="1:7" ht="46" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="80" t="s">
         <v>124</v>
       </c>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="85"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="81"/>
     </row>
     <row r="4" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="80" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="85"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="81"/>
     </row>
     <row r="5" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="84" t="s">
+      <c r="B5" s="80" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="85"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="81"/>
     </row>
     <row r="6" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="73"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="76" t="s">
+      <c r="B6" s="91"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="94" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="77"/>
-      <c r="G6" s="78"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="96"/>
     </row>
     <row r="7" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="35"/>
       <c r="G7" s="33"/>
     </row>
     <row r="8" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="87" t="s">
+      <c r="A8" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="88"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="88"/>
-      <c r="G8" s="89"/>
+      <c r="B8" s="86"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="87"/>
     </row>
     <row r="9" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
@@ -10587,15 +10604,15 @@
       <c r="G17" s="37"/>
     </row>
     <row r="18" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A18" s="90" t="s">
+      <c r="A18" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="62"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="63"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="64"/>
     </row>
     <row r="19" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A19" s="28" t="s">
@@ -10607,57 +10624,57 @@
       <c r="C19" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="91" t="s">
+      <c r="D19" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="E19" s="91"/>
-      <c r="F19" s="91"/>
-      <c r="G19" s="91"/>
+      <c r="E19" s="89"/>
+      <c r="F19" s="89"/>
+      <c r="G19" s="89"/>
     </row>
     <row r="20" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="92"/>
-      <c r="E20" s="92"/>
-      <c r="F20" s="92"/>
-      <c r="G20" s="92"/>
+      <c r="D20" s="90"/>
+      <c r="E20" s="90"/>
+      <c r="F20" s="90"/>
+      <c r="G20" s="90"/>
     </row>
     <row r="21" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="92"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="90"/>
     </row>
     <row r="22" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="92"/>
-      <c r="E22" s="92"/>
-      <c r="F22" s="92"/>
-      <c r="G22" s="92"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="90"/>
+      <c r="G22" s="90"/>
     </row>
     <row r="23" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="92"/>
-      <c r="E23" s="92"/>
-      <c r="F23" s="92"/>
-      <c r="G23" s="92"/>
+      <c r="D23" s="90"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="90"/>
     </row>
     <row r="24" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="92"/>
-      <c r="E24" s="92"/>
-      <c r="F24" s="92"/>
-      <c r="G24" s="92"/>
+      <c r="D24" s="90"/>
+      <c r="E24" s="90"/>
+      <c r="F24" s="90"/>
+      <c r="G24" s="90"/>
     </row>
     <row r="25" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="36"/>
@@ -10667,15 +10684,15 @@
       <c r="G25" s="33"/>
     </row>
     <row r="26" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A26" s="90" t="s">
+      <c r="A26" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="62"/>
-      <c r="C26" s="62"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="63"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="64"/>
     </row>
     <row r="27" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A27" s="45" t="s">
@@ -10684,112 +10701,110 @@
       <c r="B27" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="91" t="s">
+      <c r="C27" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="91"/>
-      <c r="E27" s="91"/>
-      <c r="F27" s="91"/>
-      <c r="G27" s="91"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="89"/>
+      <c r="F27" s="89"/>
+      <c r="G27" s="89"/>
     </row>
     <row r="28" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
-      <c r="C28" s="86"/>
-      <c r="D28" s="86"/>
-      <c r="E28" s="86"/>
-      <c r="F28" s="86"/>
-      <c r="G28" s="86"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="74"/>
     </row>
     <row r="29" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="86"/>
-      <c r="D29" s="86"/>
-      <c r="E29" s="86"/>
-      <c r="F29" s="86"/>
-      <c r="G29" s="86"/>
+      <c r="C29" s="74"/>
+      <c r="D29" s="74"/>
+      <c r="E29" s="74"/>
+      <c r="F29" s="74"/>
+      <c r="G29" s="74"/>
     </row>
     <row r="30" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="86"/>
-      <c r="D30" s="86"/>
-      <c r="E30" s="86"/>
-      <c r="F30" s="86"/>
-      <c r="G30" s="86"/>
+      <c r="C30" s="74"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="74"/>
     </row>
     <row r="31" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="G31" s="33"/>
     </row>
     <row r="32" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="93" t="s">
+      <c r="A32" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="70"/>
-      <c r="C32" s="70"/>
-      <c r="D32" s="70"/>
-      <c r="E32" s="70"/>
-      <c r="F32" s="70"/>
-      <c r="G32" s="94"/>
+      <c r="B32" s="71"/>
+      <c r="C32" s="71"/>
+      <c r="D32" s="71"/>
+      <c r="E32" s="71"/>
+      <c r="F32" s="71"/>
+      <c r="G32" s="76"/>
     </row>
     <row r="33" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="95"/>
-      <c r="B33" s="96"/>
-      <c r="C33" s="96"/>
-      <c r="D33" s="96"/>
-      <c r="E33" s="96"/>
-      <c r="F33" s="96"/>
-      <c r="G33" s="97"/>
+      <c r="A33" s="77"/>
+      <c r="B33" s="78"/>
+      <c r="C33" s="78"/>
+      <c r="D33" s="78"/>
+      <c r="E33" s="78"/>
+      <c r="F33" s="78"/>
+      <c r="G33" s="79"/>
     </row>
     <row r="34" spans="1:7" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="95"/>
-      <c r="B34" s="96"/>
-      <c r="C34" s="96"/>
-      <c r="D34" s="96"/>
-      <c r="E34" s="96"/>
-      <c r="F34" s="96"/>
-      <c r="G34" s="97"/>
+      <c r="A34" s="77"/>
+      <c r="B34" s="78"/>
+      <c r="C34" s="78"/>
+      <c r="D34" s="78"/>
+      <c r="E34" s="78"/>
+      <c r="F34" s="78"/>
+      <c r="G34" s="79"/>
     </row>
     <row r="35" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="93" t="s">
+      <c r="A35" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="70"/>
-      <c r="C35" s="70"/>
-      <c r="D35" s="70"/>
-      <c r="E35" s="70"/>
-      <c r="F35" s="70"/>
-      <c r="G35" s="94"/>
+      <c r="B35" s="71"/>
+      <c r="C35" s="71"/>
+      <c r="D35" s="71"/>
+      <c r="E35" s="71"/>
+      <c r="F35" s="71"/>
+      <c r="G35" s="76"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="84"/>
-      <c r="B36" s="68"/>
-      <c r="C36" s="68"/>
-      <c r="D36" s="68"/>
-      <c r="E36" s="68"/>
-      <c r="F36" s="68"/>
-      <c r="G36" s="85"/>
+      <c r="A36" s="80"/>
+      <c r="B36" s="69"/>
+      <c r="C36" s="69"/>
+      <c r="D36" s="69"/>
+      <c r="E36" s="69"/>
+      <c r="F36" s="69"/>
+      <c r="G36" s="81"/>
     </row>
     <row r="37" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="98"/>
-      <c r="B37" s="99"/>
-      <c r="C37" s="99"/>
-      <c r="D37" s="99"/>
-      <c r="E37" s="99"/>
-      <c r="F37" s="99"/>
-      <c r="G37" s="100"/>
+      <c r="A37" s="82"/>
+      <c r="B37" s="83"/>
+      <c r="C37" s="83"/>
+      <c r="D37" s="83"/>
+      <c r="E37" s="83"/>
+      <c r="F37" s="83"/>
+      <c r="G37" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="A33:G34"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="A36:G37"/>
     <mergeCell ref="C29:G29"/>
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="A18:G18"/>
@@ -10802,11 +10817,13 @@
     <mergeCell ref="A26:G26"/>
     <mergeCell ref="C27:G27"/>
     <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="A33:G34"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="A36:G37"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Exemplo:_x000a_id -&gt; nome -&gt; categoria -&gt; ALL" sqref="C28:C31" xr:uid="{6749BA4D-A4C0-664A-8057-C07B807E371B}"/>
@@ -10876,95 +10893,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="81"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="99"/>
     </row>
     <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="82" t="s">
-        <v>218</v>
-      </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="83"/>
+      <c r="B2" s="100" t="s">
+        <v>217</v>
+      </c>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="101"/>
     </row>
     <row r="3" spans="1:7" ht="46" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="80" t="s">
         <v>149</v>
       </c>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="85"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="81"/>
     </row>
     <row r="4" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="80" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="85"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="81"/>
     </row>
     <row r="5" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="84" t="s">
+      <c r="B5" s="80" t="s">
         <v>150</v>
       </c>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="85"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="81"/>
     </row>
     <row r="6" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="73"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="76" t="s">
+      <c r="B6" s="91"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="94" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="77"/>
-      <c r="G6" s="78"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="96"/>
     </row>
     <row r="7" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="35"/>
       <c r="G7" s="33"/>
     </row>
     <row r="8" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="87" t="s">
+      <c r="A8" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="88"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="88"/>
-      <c r="G8" s="89"/>
+      <c r="B8" s="86"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="87"/>
     </row>
     <row r="9" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
@@ -11144,15 +11161,15 @@
       <c r="G17" s="37"/>
     </row>
     <row r="18" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A18" s="90" t="s">
+      <c r="A18" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="62"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="63"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="64"/>
     </row>
     <row r="19" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A19" s="28" t="s">
@@ -11164,57 +11181,57 @@
       <c r="C19" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="91" t="s">
+      <c r="D19" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="E19" s="91"/>
-      <c r="F19" s="91"/>
-      <c r="G19" s="91"/>
+      <c r="E19" s="89"/>
+      <c r="F19" s="89"/>
+      <c r="G19" s="89"/>
     </row>
     <row r="20" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="92"/>
-      <c r="E20" s="92"/>
-      <c r="F20" s="92"/>
-      <c r="G20" s="92"/>
+      <c r="D20" s="90"/>
+      <c r="E20" s="90"/>
+      <c r="F20" s="90"/>
+      <c r="G20" s="90"/>
     </row>
     <row r="21" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="92"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="90"/>
     </row>
     <row r="22" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="92"/>
-      <c r="E22" s="92"/>
-      <c r="F22" s="92"/>
-      <c r="G22" s="92"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="90"/>
+      <c r="G22" s="90"/>
     </row>
     <row r="23" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="92"/>
-      <c r="E23" s="92"/>
-      <c r="F23" s="92"/>
-      <c r="G23" s="92"/>
+      <c r="D23" s="90"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="90"/>
     </row>
     <row r="24" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="92"/>
-      <c r="E24" s="92"/>
-      <c r="F24" s="92"/>
-      <c r="G24" s="92"/>
+      <c r="D24" s="90"/>
+      <c r="E24" s="90"/>
+      <c r="F24" s="90"/>
+      <c r="G24" s="90"/>
     </row>
     <row r="25" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="36"/>
@@ -11224,15 +11241,15 @@
       <c r="G25" s="33"/>
     </row>
     <row r="26" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A26" s="90" t="s">
+      <c r="A26" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="62"/>
-      <c r="C26" s="62"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="63"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="64"/>
     </row>
     <row r="27" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A27" s="45" t="s">
@@ -11241,116 +11258,114 @@
       <c r="B27" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="91" t="s">
+      <c r="C27" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="91"/>
-      <c r="E27" s="91"/>
-      <c r="F27" s="91"/>
-      <c r="G27" s="91"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="89"/>
+      <c r="F27" s="89"/>
+      <c r="G27" s="89"/>
     </row>
     <row r="28" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1</v>
       </c>
       <c r="B28" s="1"/>
-      <c r="C28" s="86" t="s">
+      <c r="C28" s="74" t="s">
         <v>160</v>
       </c>
-      <c r="D28" s="86"/>
-      <c r="E28" s="86"/>
-      <c r="F28" s="86"/>
-      <c r="G28" s="86"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="74"/>
     </row>
     <row r="29" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="86"/>
-      <c r="D29" s="86"/>
-      <c r="E29" s="86"/>
-      <c r="F29" s="86"/>
-      <c r="G29" s="86"/>
+      <c r="C29" s="74"/>
+      <c r="D29" s="74"/>
+      <c r="E29" s="74"/>
+      <c r="F29" s="74"/>
+      <c r="G29" s="74"/>
     </row>
     <row r="30" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="86"/>
-      <c r="D30" s="86"/>
-      <c r="E30" s="86"/>
-      <c r="F30" s="86"/>
-      <c r="G30" s="86"/>
+      <c r="C30" s="74"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="74"/>
     </row>
     <row r="31" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="G31" s="33"/>
     </row>
     <row r="32" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="93" t="s">
+      <c r="A32" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="70"/>
-      <c r="C32" s="70"/>
-      <c r="D32" s="70"/>
-      <c r="E32" s="70"/>
-      <c r="F32" s="70"/>
-      <c r="G32" s="94"/>
+      <c r="B32" s="71"/>
+      <c r="C32" s="71"/>
+      <c r="D32" s="71"/>
+      <c r="E32" s="71"/>
+      <c r="F32" s="71"/>
+      <c r="G32" s="76"/>
     </row>
     <row r="33" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="95"/>
-      <c r="B33" s="96"/>
-      <c r="C33" s="96"/>
-      <c r="D33" s="96"/>
-      <c r="E33" s="96"/>
-      <c r="F33" s="96"/>
-      <c r="G33" s="97"/>
+      <c r="A33" s="77"/>
+      <c r="B33" s="78"/>
+      <c r="C33" s="78"/>
+      <c r="D33" s="78"/>
+      <c r="E33" s="78"/>
+      <c r="F33" s="78"/>
+      <c r="G33" s="79"/>
     </row>
     <row r="34" spans="1:7" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="95"/>
-      <c r="B34" s="96"/>
-      <c r="C34" s="96"/>
-      <c r="D34" s="96"/>
-      <c r="E34" s="96"/>
-      <c r="F34" s="96"/>
-      <c r="G34" s="97"/>
+      <c r="A34" s="77"/>
+      <c r="B34" s="78"/>
+      <c r="C34" s="78"/>
+      <c r="D34" s="78"/>
+      <c r="E34" s="78"/>
+      <c r="F34" s="78"/>
+      <c r="G34" s="79"/>
     </row>
     <row r="35" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="93" t="s">
+      <c r="A35" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="70"/>
-      <c r="C35" s="70"/>
-      <c r="D35" s="70"/>
-      <c r="E35" s="70"/>
-      <c r="F35" s="70"/>
-      <c r="G35" s="94"/>
+      <c r="B35" s="71"/>
+      <c r="C35" s="71"/>
+      <c r="D35" s="71"/>
+      <c r="E35" s="71"/>
+      <c r="F35" s="71"/>
+      <c r="G35" s="76"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="84"/>
-      <c r="B36" s="68"/>
-      <c r="C36" s="68"/>
-      <c r="D36" s="68"/>
-      <c r="E36" s="68"/>
-      <c r="F36" s="68"/>
-      <c r="G36" s="85"/>
+      <c r="A36" s="80"/>
+      <c r="B36" s="69"/>
+      <c r="C36" s="69"/>
+      <c r="D36" s="69"/>
+      <c r="E36" s="69"/>
+      <c r="F36" s="69"/>
+      <c r="G36" s="81"/>
     </row>
     <row r="37" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="98"/>
-      <c r="B37" s="99"/>
-      <c r="C37" s="99"/>
-      <c r="D37" s="99"/>
-      <c r="E37" s="99"/>
-      <c r="F37" s="99"/>
-      <c r="G37" s="100"/>
+      <c r="A37" s="82"/>
+      <c r="B37" s="83"/>
+      <c r="C37" s="83"/>
+      <c r="D37" s="83"/>
+      <c r="E37" s="83"/>
+      <c r="F37" s="83"/>
+      <c r="G37" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="A33:G34"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="A36:G37"/>
     <mergeCell ref="C29:G29"/>
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="A18:G18"/>
@@ -11363,11 +11378,13 @@
     <mergeCell ref="A26:G26"/>
     <mergeCell ref="C27:G27"/>
     <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="A33:G34"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="A36:G37"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Colocar percentagem" sqref="B6" xr:uid="{A66D20F0-0782-6944-BA9C-7489AA303243}">
@@ -11423,10 +11440,10 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A28" sqref="A26:A28"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11438,152 +11455,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="97" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="81"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="99"/>
     </row>
     <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="121">
+      <c r="B2" s="107">
         <v>4</v>
       </c>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="122"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="108"/>
     </row>
     <row r="3" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="96" t="s">
+      <c r="B3" s="78" t="s">
         <v>161</v>
       </c>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="97"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="79"/>
     </row>
     <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="96" t="s">
+      <c r="B4" s="78" t="s">
         <v>162</v>
       </c>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="97"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="79"/>
     </row>
     <row r="5" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="96" t="s">
+      <c r="B5" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="96"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="97"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="79"/>
     </row>
     <row r="6" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="96" t="s">
-        <v>212</v>
-      </c>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="97"/>
+      <c r="B6" s="78" t="s">
+        <v>211</v>
+      </c>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="79"/>
     </row>
     <row r="7" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="96" t="s">
+      <c r="B7" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="96"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="96"/>
-      <c r="F7" s="97"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="79"/>
     </row>
     <row r="8" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="B8" s="96" t="s">
+      <c r="B8" s="78" t="s">
         <v>163</v>
       </c>
-      <c r="C8" s="96"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="97"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="79"/>
     </row>
     <row r="9" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="B9" s="96"/>
-      <c r="C9" s="96"/>
-      <c r="D9" s="96"/>
-      <c r="E9" s="96"/>
-      <c r="F9" s="97"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="79"/>
     </row>
     <row r="10" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="123">
+      <c r="B10" s="109">
         <v>0.5</v>
       </c>
-      <c r="C10" s="96"/>
-      <c r="D10" s="96" t="s">
+      <c r="C10" s="78"/>
+      <c r="D10" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="96"/>
-      <c r="F10" s="97"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="79"/>
     </row>
     <row r="11" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="119" t="s">
+      <c r="B11" s="105" t="s">
         <v>164</v>
       </c>
-      <c r="C11" s="119"/>
-      <c r="D11" s="119"/>
-      <c r="E11" s="119"/>
-      <c r="F11" s="120"/>
+      <c r="C11" s="105"/>
+      <c r="D11" s="105"/>
+      <c r="E11" s="105"/>
+      <c r="F11" s="106"/>
     </row>
     <row r="12" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="110"/>
-      <c r="B12" s="111"/>
-      <c r="C12" s="111"/>
-      <c r="D12" s="111"/>
-      <c r="E12" s="111"/>
-      <c r="F12" s="112"/>
+      <c r="A12" s="113"/>
+      <c r="B12" s="114"/>
+      <c r="C12" s="114"/>
+      <c r="D12" s="114"/>
+      <c r="E12" s="114"/>
+      <c r="F12" s="115"/>
     </row>
     <row r="13" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="87" t="s">
+      <c r="A13" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="88"/>
-      <c r="C13" s="88"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="89"/>
+      <c r="B13" s="86"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="86"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="87"/>
     </row>
     <row r="14" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
@@ -11750,22 +11767,22 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="110"/>
-      <c r="B23" s="111"/>
-      <c r="C23" s="111"/>
-      <c r="D23" s="111"/>
-      <c r="E23" s="111"/>
-      <c r="F23" s="112"/>
+      <c r="A23" s="113"/>
+      <c r="B23" s="114"/>
+      <c r="C23" s="114"/>
+      <c r="D23" s="114"/>
+      <c r="E23" s="114"/>
+      <c r="F23" s="115"/>
     </row>
     <row r="24" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="87" t="s">
+      <c r="A24" s="85" t="s">
         <v>77</v>
       </c>
-      <c r="B24" s="88"/>
-      <c r="C24" s="88"/>
-      <c r="D24" s="88"/>
-      <c r="E24" s="88"/>
-      <c r="F24" s="89"/>
+      <c r="B24" s="86"/>
+      <c r="C24" s="86"/>
+      <c r="D24" s="86"/>
+      <c r="E24" s="86"/>
+      <c r="F24" s="87"/>
     </row>
     <row r="25" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="39" t="s">
@@ -11793,9 +11810,11 @@
       </c>
       <c r="B26" s="56"/>
       <c r="C26" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="D26" s="56"/>
+        <v>80</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>84</v>
+      </c>
       <c r="E26" s="27" t="s">
         <v>180</v>
       </c>
@@ -11809,14 +11828,16 @@
       </c>
       <c r="B27" s="56"/>
       <c r="C27" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="D27" s="56"/>
+        <v>80</v>
+      </c>
+      <c r="D27" s="27" t="s">
+        <v>84</v>
+      </c>
       <c r="E27" s="27" t="s">
         <v>185</v>
       </c>
       <c r="F27" s="37" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="21" x14ac:dyDescent="0.25">
@@ -11831,156 +11852,200 @@
         <v>84</v>
       </c>
       <c r="E28" s="27" t="s">
-        <v>186</v>
+        <v>241</v>
       </c>
       <c r="F28" s="37">
         <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A29" s="41"/>
-      <c r="B29" s="42"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="43"/>
-    </row>
-    <row r="30" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="110"/>
-      <c r="B30" s="111"/>
-      <c r="C30" s="111"/>
-      <c r="D30" s="111"/>
-      <c r="E30" s="111"/>
-      <c r="F30" s="112"/>
+      <c r="A29" s="36" t="s">
+        <v>242</v>
+      </c>
+      <c r="B29" s="56"/>
+      <c r="C29" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="E29" s="27" t="s">
+        <v>243</v>
+      </c>
+      <c r="F29" s="37">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A30" s="125" t="s">
+        <v>244</v>
+      </c>
+      <c r="C30" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="E30" s="27" t="s">
+        <v>245</v>
+      </c>
+      <c r="F30" s="37">
+        <v>700</v>
+      </c>
     </row>
     <row r="31" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="87" t="s">
+      <c r="A31" s="113"/>
+      <c r="B31" s="114"/>
+      <c r="C31" s="114"/>
+      <c r="D31" s="114"/>
+      <c r="E31" s="114"/>
+      <c r="F31" s="115"/>
+    </row>
+    <row r="32" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="B31" s="88"/>
-      <c r="C31" s="88"/>
-      <c r="D31" s="88"/>
-      <c r="E31" s="88"/>
-      <c r="F31" s="89"/>
-    </row>
-    <row r="32" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A32" s="39" t="s">
+      <c r="B32" s="86"/>
+      <c r="C32" s="86"/>
+      <c r="D32" s="86"/>
+      <c r="E32" s="86"/>
+      <c r="F32" s="87"/>
+    </row>
+    <row r="33" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A33" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="40" t="s">
+      <c r="B33" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="40" t="s">
+      <c r="C33" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="D32" s="105" t="s">
+      <c r="D33" s="116" t="s">
         <v>65</v>
       </c>
-      <c r="E32" s="105"/>
-      <c r="F32" s="106"/>
-    </row>
-    <row r="33" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A33" s="39"/>
-      <c r="B33" s="40"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="108"/>
-      <c r="E33" s="108"/>
-      <c r="F33" s="109"/>
+      <c r="E33" s="116"/>
+      <c r="F33" s="117"/>
     </row>
     <row r="34" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A34" s="39"/>
       <c r="B34" s="40"/>
       <c r="C34" s="40"/>
-      <c r="D34" s="108"/>
-      <c r="E34" s="108"/>
-      <c r="F34" s="109"/>
+      <c r="D34" s="118"/>
+      <c r="E34" s="118"/>
+      <c r="F34" s="119"/>
     </row>
     <row r="35" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A35" s="39"/>
       <c r="B35" s="40"/>
       <c r="C35" s="40"/>
-      <c r="D35" s="108"/>
-      <c r="E35" s="108"/>
-      <c r="F35" s="109"/>
+      <c r="D35" s="118"/>
+      <c r="E35" s="118"/>
+      <c r="F35" s="119"/>
     </row>
     <row r="36" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A36" s="41"/>
-      <c r="B36" s="42"/>
-      <c r="C36" s="42"/>
-      <c r="D36" s="114"/>
-      <c r="E36" s="114"/>
-      <c r="F36" s="115"/>
-    </row>
-    <row r="37" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="116"/>
-      <c r="B37" s="117"/>
-      <c r="C37" s="117"/>
-      <c r="D37" s="117"/>
-      <c r="E37" s="117"/>
-      <c r="F37" s="118"/>
+      <c r="A36" s="39"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="118"/>
+      <c r="E36" s="118"/>
+      <c r="F36" s="119"/>
+    </row>
+    <row r="37" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A37" s="41"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="120"/>
+      <c r="E37" s="120"/>
+      <c r="F37" s="121"/>
     </row>
     <row r="38" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="87" t="s">
+      <c r="A38" s="110"/>
+      <c r="B38" s="111"/>
+      <c r="C38" s="111"/>
+      <c r="D38" s="111"/>
+      <c r="E38" s="111"/>
+      <c r="F38" s="112"/>
+    </row>
+    <row r="39" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="B38" s="88"/>
-      <c r="C38" s="88"/>
-      <c r="D38" s="88"/>
-      <c r="E38" s="88"/>
-      <c r="F38" s="89"/>
-    </row>
-    <row r="39" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="104"/>
-      <c r="B39" s="105"/>
-      <c r="C39" s="105"/>
-      <c r="D39" s="105"/>
-      <c r="E39" s="105"/>
-      <c r="F39" s="106"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="107"/>
-      <c r="B40" s="108"/>
-      <c r="C40" s="108"/>
-      <c r="D40" s="108"/>
-      <c r="E40" s="108"/>
-      <c r="F40" s="109"/>
-    </row>
-    <row r="41" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="110"/>
-      <c r="B41" s="111"/>
-      <c r="C41" s="111"/>
-      <c r="D41" s="111"/>
-      <c r="E41" s="111"/>
-      <c r="F41" s="112"/>
+      <c r="B39" s="86"/>
+      <c r="C39" s="86"/>
+      <c r="D39" s="86"/>
+      <c r="E39" s="86"/>
+      <c r="F39" s="87"/>
+    </row>
+    <row r="40" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="122"/>
+      <c r="B40" s="116"/>
+      <c r="C40" s="116"/>
+      <c r="D40" s="116"/>
+      <c r="E40" s="116"/>
+      <c r="F40" s="117"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="123"/>
+      <c r="B41" s="118"/>
+      <c r="C41" s="118"/>
+      <c r="D41" s="118"/>
+      <c r="E41" s="118"/>
+      <c r="F41" s="119"/>
     </row>
     <row r="42" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="87" t="s">
+      <c r="A42" s="113"/>
+      <c r="B42" s="114"/>
+      <c r="C42" s="114"/>
+      <c r="D42" s="114"/>
+      <c r="E42" s="114"/>
+      <c r="F42" s="115"/>
+    </row>
+    <row r="43" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="88"/>
-      <c r="C42" s="88"/>
-      <c r="D42" s="88"/>
-      <c r="E42" s="88"/>
-      <c r="F42" s="89"/>
-    </row>
-    <row r="43" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="104"/>
-      <c r="B43" s="105"/>
-      <c r="C43" s="105"/>
-      <c r="D43" s="105"/>
-      <c r="E43" s="105"/>
-      <c r="F43" s="106"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="113"/>
-      <c r="B44" s="114"/>
-      <c r="C44" s="114"/>
-      <c r="D44" s="114"/>
-      <c r="E44" s="114"/>
-      <c r="F44" s="115"/>
+      <c r="B43" s="86"/>
+      <c r="C43" s="86"/>
+      <c r="D43" s="86"/>
+      <c r="E43" s="86"/>
+      <c r="F43" s="87"/>
+    </row>
+    <row r="44" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="122"/>
+      <c r="B44" s="116"/>
+      <c r="C44" s="116"/>
+      <c r="D44" s="116"/>
+      <c r="E44" s="116"/>
+      <c r="F44" s="117"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="124"/>
+      <c r="B45" s="120"/>
+      <c r="C45" s="120"/>
+      <c r="D45" s="120"/>
+      <c r="E45" s="120"/>
+      <c r="F45" s="121"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="A40:F41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="A44:F45"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D37:F37"/>
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B2:F2"/>
@@ -11993,23 +12058,6 @@
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:F10"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="A39:F40"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="A43:F44"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <dataValidations count="5">
@@ -12027,25 +12075,13 @@
           <x14:formula1>
             <xm:f>Metadata!$A$37:$A$41</xm:f>
           </x14:formula1>
-          <xm:sqref>D33:D36</xm:sqref>
+          <xm:sqref>D34:D37</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C44D012F-7F42-4949-9DB6-889632F7F430}">
           <x14:formula1>
             <xm:f>Metadata!$A$33:$A$34</xm:f>
           </x14:formula1>
-          <xm:sqref>C33</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FDBB9100-9189-9B46-AFA6-70F5744B59B1}">
-          <x14:formula1>
-            <xm:f>Metadata!$A$54:$A$56</xm:f>
-          </x14:formula1>
-          <xm:sqref>D26:D29</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A6E746B8-928B-C04E-A63F-C483C8EE772E}">
-          <x14:formula1>
-            <xm:f>Metadata!$A$48:$A$50</xm:f>
-          </x14:formula1>
-          <xm:sqref>C26:C29</xm:sqref>
+          <xm:sqref>C34</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F366491D-7FFD-9645-9B4C-C52BCD9C1C84}">
           <x14:formula1>
@@ -12071,6 +12107,18 @@
           </x14:formula1>
           <xm:sqref>C15:C22</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FDBB9100-9189-9B46-AFA6-70F5744B59B1}">
+          <x14:formula1>
+            <xm:f>Metadata!$A$54:$A$56</xm:f>
+          </x14:formula1>
+          <xm:sqref>D26:D30</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A6E746B8-928B-C04E-A63F-C483C8EE772E}">
+          <x14:formula1>
+            <xm:f>Metadata!$A$48:$A$50</xm:f>
+          </x14:formula1>
+          <xm:sqref>C26:C30</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -12084,8 +12132,8 @@
   </sheetPr>
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A47" sqref="A47:F48"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12096,152 +12144,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="97" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="81"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="99"/>
     </row>
     <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="121" t="s">
-        <v>219</v>
-      </c>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="122"/>
+      <c r="B2" s="107" t="s">
+        <v>218</v>
+      </c>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="108"/>
     </row>
     <row r="3" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="96" t="s">
+      <c r="B3" s="78" t="s">
         <v>183</v>
       </c>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="109"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="119"/>
     </row>
     <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="96" t="s">
+      <c r="B4" s="78" t="s">
         <v>162</v>
       </c>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="109"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="119"/>
     </row>
     <row r="5" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="96" t="s">
+      <c r="B5" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
-      <c r="F5" s="109"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="118"/>
+      <c r="E5" s="118"/>
+      <c r="F5" s="119"/>
     </row>
     <row r="6" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="96" t="s">
-        <v>207</v>
-      </c>
-      <c r="C6" s="108"/>
-      <c r="D6" s="108"/>
-      <c r="E6" s="108"/>
-      <c r="F6" s="109"/>
+      <c r="B6" s="78" t="s">
+        <v>206</v>
+      </c>
+      <c r="C6" s="118"/>
+      <c r="D6" s="118"/>
+      <c r="E6" s="118"/>
+      <c r="F6" s="119"/>
     </row>
     <row r="7" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="96" t="s">
+      <c r="B7" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="108"/>
-      <c r="D7" s="108"/>
-      <c r="E7" s="108"/>
-      <c r="F7" s="109"/>
+      <c r="C7" s="118"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="119"/>
     </row>
     <row r="8" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="B8" s="96" t="s">
+      <c r="B8" s="78" t="s">
         <v>163</v>
       </c>
-      <c r="C8" s="108"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="108"/>
-      <c r="F8" s="109"/>
+      <c r="C8" s="118"/>
+      <c r="D8" s="118"/>
+      <c r="E8" s="118"/>
+      <c r="F8" s="119"/>
     </row>
     <row r="9" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="B9" s="108"/>
-      <c r="C9" s="108"/>
-      <c r="D9" s="108"/>
-      <c r="E9" s="108"/>
-      <c r="F9" s="109"/>
+      <c r="B9" s="118"/>
+      <c r="C9" s="118"/>
+      <c r="D9" s="118"/>
+      <c r="E9" s="118"/>
+      <c r="F9" s="119"/>
     </row>
     <row r="10" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="123">
+      <c r="B10" s="109">
         <v>0.7</v>
       </c>
-      <c r="C10" s="96"/>
-      <c r="D10" s="96" t="s">
+      <c r="C10" s="78"/>
+      <c r="D10" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="96"/>
-      <c r="F10" s="97"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="79"/>
     </row>
     <row r="11" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="119" t="s">
+      <c r="B11" s="105" t="s">
         <v>164</v>
       </c>
-      <c r="C11" s="114"/>
-      <c r="D11" s="114"/>
-      <c r="E11" s="114"/>
-      <c r="F11" s="115"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
+      <c r="F11" s="121"/>
     </row>
     <row r="12" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="110"/>
-      <c r="B12" s="111"/>
-      <c r="C12" s="111"/>
-      <c r="D12" s="111"/>
-      <c r="E12" s="111"/>
-      <c r="F12" s="112"/>
+      <c r="A12" s="113"/>
+      <c r="B12" s="114"/>
+      <c r="C12" s="114"/>
+      <c r="D12" s="114"/>
+      <c r="E12" s="114"/>
+      <c r="F12" s="115"/>
     </row>
     <row r="13" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="87" t="s">
+      <c r="A13" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="88"/>
-      <c r="C13" s="88"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="89"/>
+      <c r="B13" s="86"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="86"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="87"/>
     </row>
     <row r="14" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
@@ -12275,7 +12323,7 @@
       </c>
       <c r="D15" s="27"/>
       <c r="E15" s="27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F15" s="37">
         <v>2</v>
@@ -12286,14 +12334,14 @@
         <v>2</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C16" s="27" t="s">
         <v>76</v>
       </c>
       <c r="D16" s="27"/>
       <c r="E16" s="27" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F16" s="37">
         <v>3</v>
@@ -12304,14 +12352,14 @@
         <v>3</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C17" s="27" t="s">
         <v>76</v>
       </c>
       <c r="D17" s="27"/>
       <c r="E17" s="27" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F17" s="37">
         <v>4</v>
@@ -12322,14 +12370,14 @@
         <v>4</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C18" s="27" t="s">
         <v>76</v>
       </c>
       <c r="D18" s="27"/>
       <c r="E18" s="27" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F18" s="37">
         <v>1</v>
@@ -12347,7 +12395,7 @@
       </c>
       <c r="D19" s="27"/>
       <c r="E19" s="27" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F19" s="37">
         <v>3</v>
@@ -12358,17 +12406,17 @@
         <v>6</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C20" s="27" t="s">
         <v>76</v>
       </c>
       <c r="D20" s="27"/>
       <c r="E20" s="27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F20" s="37" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="21" x14ac:dyDescent="0.25">
@@ -12394,14 +12442,14 @@
         <v>8</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C22" s="27" t="s">
         <v>75</v>
       </c>
       <c r="D22" s="27"/>
       <c r="E22" s="27" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F22" s="37">
         <v>6</v>
@@ -12412,17 +12460,17 @@
         <v>9</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C23" s="27" t="s">
         <v>76</v>
       </c>
       <c r="D23" s="27"/>
       <c r="E23" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="F23" s="37" t="s">
         <v>197</v>
-      </c>
-      <c r="F23" s="37" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="21" x14ac:dyDescent="0.25">
@@ -12450,22 +12498,22 @@
       <c r="F26" s="55"/>
     </row>
     <row r="27" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="110"/>
-      <c r="B27" s="111"/>
-      <c r="C27" s="111"/>
-      <c r="D27" s="111"/>
-      <c r="E27" s="111"/>
-      <c r="F27" s="112"/>
+      <c r="A27" s="113"/>
+      <c r="B27" s="114"/>
+      <c r="C27" s="114"/>
+      <c r="D27" s="114"/>
+      <c r="E27" s="114"/>
+      <c r="F27" s="115"/>
     </row>
     <row r="28" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="87" t="s">
+      <c r="A28" s="85" t="s">
         <v>77</v>
       </c>
-      <c r="B28" s="88"/>
-      <c r="C28" s="88"/>
-      <c r="D28" s="88"/>
-      <c r="E28" s="88"/>
-      <c r="F28" s="89"/>
+      <c r="B28" s="86"/>
+      <c r="C28" s="86"/>
+      <c r="D28" s="86"/>
+      <c r="E28" s="86"/>
+      <c r="F28" s="87"/>
     </row>
     <row r="29" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A29" s="39" t="s">
@@ -12489,7 +12537,7 @@
     </row>
     <row r="30" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="36" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B30" s="27"/>
       <c r="C30" s="27" t="s">
@@ -12499,19 +12547,27 @@
         <v>84</v>
       </c>
       <c r="E30" s="27" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F30" s="37" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A31" s="39"/>
-      <c r="B31" s="40"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="31"/>
+      <c r="A31" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="F31" s="37" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="32" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A32" s="39"/>
@@ -12530,22 +12586,22 @@
       <c r="F33" s="43"/>
     </row>
     <row r="34" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="110"/>
-      <c r="B34" s="111"/>
-      <c r="C34" s="111"/>
-      <c r="D34" s="111"/>
-      <c r="E34" s="111"/>
-      <c r="F34" s="112"/>
+      <c r="A34" s="113"/>
+      <c r="B34" s="114"/>
+      <c r="C34" s="114"/>
+      <c r="D34" s="114"/>
+      <c r="E34" s="114"/>
+      <c r="F34" s="115"/>
     </row>
     <row r="35" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="87" t="s">
+      <c r="A35" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="B35" s="88"/>
-      <c r="C35" s="88"/>
-      <c r="D35" s="88"/>
-      <c r="E35" s="88"/>
-      <c r="F35" s="89"/>
+      <c r="B35" s="86"/>
+      <c r="C35" s="86"/>
+      <c r="D35" s="86"/>
+      <c r="E35" s="86"/>
+      <c r="F35" s="87"/>
     </row>
     <row r="36" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A36" s="39" t="s">
@@ -12557,114 +12613,127 @@
       <c r="C36" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="D36" s="105" t="s">
+      <c r="D36" s="116" t="s">
         <v>65</v>
       </c>
-      <c r="E36" s="105"/>
-      <c r="F36" s="106"/>
+      <c r="E36" s="116"/>
+      <c r="F36" s="117"/>
     </row>
     <row r="37" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A37" s="39"/>
       <c r="B37" s="40"/>
       <c r="C37" s="40"/>
-      <c r="D37" s="108"/>
-      <c r="E37" s="108"/>
-      <c r="F37" s="109"/>
+      <c r="D37" s="118"/>
+      <c r="E37" s="118"/>
+      <c r="F37" s="119"/>
     </row>
     <row r="38" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A38" s="39"/>
       <c r="B38" s="40"/>
       <c r="C38" s="40"/>
-      <c r="D38" s="108"/>
-      <c r="E38" s="108"/>
-      <c r="F38" s="109"/>
+      <c r="D38" s="118"/>
+      <c r="E38" s="118"/>
+      <c r="F38" s="119"/>
     </row>
     <row r="39" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A39" s="39"/>
       <c r="B39" s="40"/>
       <c r="C39" s="40"/>
-      <c r="D39" s="108"/>
-      <c r="E39" s="108"/>
-      <c r="F39" s="109"/>
+      <c r="D39" s="118"/>
+      <c r="E39" s="118"/>
+      <c r="F39" s="119"/>
     </row>
     <row r="40" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A40" s="41"/>
       <c r="B40" s="42"/>
       <c r="C40" s="42"/>
-      <c r="D40" s="114"/>
-      <c r="E40" s="114"/>
-      <c r="F40" s="115"/>
+      <c r="D40" s="120"/>
+      <c r="E40" s="120"/>
+      <c r="F40" s="121"/>
     </row>
     <row r="41" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="116"/>
-      <c r="B41" s="117"/>
-      <c r="C41" s="117"/>
-      <c r="D41" s="117"/>
-      <c r="E41" s="117"/>
-      <c r="F41" s="118"/>
+      <c r="A41" s="110"/>
+      <c r="B41" s="111"/>
+      <c r="C41" s="111"/>
+      <c r="D41" s="111"/>
+      <c r="E41" s="111"/>
+      <c r="F41" s="112"/>
     </row>
     <row r="42" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="87" t="s">
+      <c r="A42" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="B42" s="88"/>
-      <c r="C42" s="88"/>
-      <c r="D42" s="88"/>
-      <c r="E42" s="88"/>
-      <c r="F42" s="89"/>
+      <c r="B42" s="86"/>
+      <c r="C42" s="86"/>
+      <c r="D42" s="86"/>
+      <c r="E42" s="86"/>
+      <c r="F42" s="87"/>
     </row>
     <row r="43" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="104"/>
-      <c r="B43" s="105"/>
-      <c r="C43" s="105"/>
-      <c r="D43" s="105"/>
-      <c r="E43" s="105"/>
-      <c r="F43" s="106"/>
+      <c r="A43" s="122"/>
+      <c r="B43" s="116"/>
+      <c r="C43" s="116"/>
+      <c r="D43" s="116"/>
+      <c r="E43" s="116"/>
+      <c r="F43" s="117"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="107"/>
-      <c r="B44" s="108"/>
-      <c r="C44" s="108"/>
-      <c r="D44" s="108"/>
-      <c r="E44" s="108"/>
-      <c r="F44" s="109"/>
+      <c r="A44" s="123"/>
+      <c r="B44" s="118"/>
+      <c r="C44" s="118"/>
+      <c r="D44" s="118"/>
+      <c r="E44" s="118"/>
+      <c r="F44" s="119"/>
     </row>
     <row r="45" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="110"/>
-      <c r="B45" s="111"/>
-      <c r="C45" s="111"/>
-      <c r="D45" s="111"/>
-      <c r="E45" s="111"/>
-      <c r="F45" s="112"/>
+      <c r="A45" s="113"/>
+      <c r="B45" s="114"/>
+      <c r="C45" s="114"/>
+      <c r="D45" s="114"/>
+      <c r="E45" s="114"/>
+      <c r="F45" s="115"/>
     </row>
     <row r="46" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="87" t="s">
+      <c r="A46" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="B46" s="88"/>
-      <c r="C46" s="88"/>
-      <c r="D46" s="88"/>
-      <c r="E46" s="88"/>
-      <c r="F46" s="89"/>
+      <c r="B46" s="86"/>
+      <c r="C46" s="86"/>
+      <c r="D46" s="86"/>
+      <c r="E46" s="86"/>
+      <c r="F46" s="87"/>
     </row>
     <row r="47" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="104"/>
-      <c r="B47" s="105"/>
-      <c r="C47" s="105"/>
-      <c r="D47" s="105"/>
-      <c r="E47" s="105"/>
-      <c r="F47" s="106"/>
+      <c r="A47" s="122"/>
+      <c r="B47" s="116"/>
+      <c r="C47" s="116"/>
+      <c r="D47" s="116"/>
+      <c r="E47" s="116"/>
+      <c r="F47" s="117"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="113"/>
-      <c r="B48" s="114"/>
-      <c r="C48" s="114"/>
-      <c r="D48" s="114"/>
-      <c r="E48" s="114"/>
-      <c r="F48" s="115"/>
+      <c r="A48" s="124"/>
+      <c r="B48" s="120"/>
+      <c r="C48" s="120"/>
+      <c r="D48" s="120"/>
+      <c r="E48" s="120"/>
+      <c r="F48" s="121"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A43:F44"/>
+    <mergeCell ref="A47:F48"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="A46:F46"/>
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A13:F13"/>
@@ -12681,19 +12750,6 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:F10"/>
     <mergeCell ref="A34:F34"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A43:F44"/>
-    <mergeCell ref="A47:F48"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="A46:F46"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Colocar percentagem_x000a_" sqref="B10:C10" xr:uid="{C44B2955-AB0E-5E4A-9201-AF72D21AA99A}"/>
@@ -12779,152 +12835,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="97" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="81"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="99"/>
     </row>
     <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="121" t="s">
-        <v>220</v>
-      </c>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="122"/>
+      <c r="B2" s="107" t="s">
+        <v>219</v>
+      </c>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="108"/>
     </row>
     <row r="3" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="96" t="s">
+      <c r="B3" s="78" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="97"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="79"/>
     </row>
     <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="96" t="s">
+      <c r="B4" s="78" t="s">
         <v>162</v>
       </c>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="97"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="79"/>
     </row>
     <row r="5" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="96" t="s">
+      <c r="B5" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="96"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="97"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="79"/>
     </row>
     <row r="6" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="96" t="s">
-        <v>213</v>
-      </c>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="97"/>
+      <c r="B6" s="78" t="s">
+        <v>212</v>
+      </c>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="79"/>
     </row>
     <row r="7" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="96" t="s">
+      <c r="B7" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="96"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="96"/>
-      <c r="F7" s="97"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="79"/>
     </row>
     <row r="8" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="B8" s="96" t="s">
+      <c r="B8" s="78" t="s">
         <v>163</v>
       </c>
-      <c r="C8" s="96"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="97"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="79"/>
     </row>
     <row r="9" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="B9" s="96"/>
-      <c r="C9" s="96"/>
-      <c r="D9" s="96"/>
-      <c r="E9" s="96"/>
-      <c r="F9" s="97"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="79"/>
     </row>
     <row r="10" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="123">
+      <c r="B10" s="109">
         <v>0.5</v>
       </c>
-      <c r="C10" s="96"/>
-      <c r="D10" s="96" t="s">
+      <c r="C10" s="78"/>
+      <c r="D10" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="96"/>
-      <c r="F10" s="97"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="79"/>
     </row>
     <row r="11" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="119" t="s">
+      <c r="B11" s="105" t="s">
         <v>164</v>
       </c>
-      <c r="C11" s="119"/>
-      <c r="D11" s="119"/>
-      <c r="E11" s="119"/>
-      <c r="F11" s="120"/>
+      <c r="C11" s="105"/>
+      <c r="D11" s="105"/>
+      <c r="E11" s="105"/>
+      <c r="F11" s="106"/>
     </row>
     <row r="12" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="110"/>
-      <c r="B12" s="111"/>
-      <c r="C12" s="111"/>
-      <c r="D12" s="111"/>
-      <c r="E12" s="111"/>
-      <c r="F12" s="112"/>
+      <c r="A12" s="113"/>
+      <c r="B12" s="114"/>
+      <c r="C12" s="114"/>
+      <c r="D12" s="114"/>
+      <c r="E12" s="114"/>
+      <c r="F12" s="115"/>
     </row>
     <row r="13" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="87" t="s">
+      <c r="A13" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="88"/>
-      <c r="C13" s="88"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="89"/>
+      <c r="B13" s="86"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="86"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="87"/>
     </row>
     <row r="14" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
@@ -12993,8 +13049,8 @@
         <v>76</v>
       </c>
       <c r="D17" s="27"/>
-      <c r="E17" s="125" t="s">
-        <v>239</v>
+      <c r="E17" s="58" t="s">
+        <v>238</v>
       </c>
       <c r="F17" s="37">
         <v>2</v>
@@ -13041,36 +13097,36 @@
         <v>7</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C20" s="27" t="s">
         <v>76</v>
       </c>
       <c r="D20" s="27"/>
       <c r="E20" s="27" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F20" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="110"/>
-      <c r="B21" s="111"/>
-      <c r="C21" s="111"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="111"/>
-      <c r="F21" s="112"/>
+      <c r="A21" s="113"/>
+      <c r="B21" s="114"/>
+      <c r="C21" s="114"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="114"/>
+      <c r="F21" s="115"/>
     </row>
     <row r="22" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="87" t="s">
+      <c r="A22" s="85" t="s">
         <v>77</v>
       </c>
-      <c r="B22" s="88"/>
-      <c r="C22" s="88"/>
-      <c r="D22" s="88"/>
-      <c r="E22" s="88"/>
-      <c r="F22" s="89"/>
+      <c r="B22" s="86"/>
+      <c r="C22" s="86"/>
+      <c r="D22" s="86"/>
+      <c r="E22" s="86"/>
+      <c r="F22" s="87"/>
     </row>
     <row r="23" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="39" t="s">
@@ -13091,11 +13147,11 @@
       <c r="F23" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="G23" s="124"/>
+      <c r="G23" s="40"/>
     </row>
     <row r="24" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="36" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B24" s="27"/>
       <c r="C24" s="27" t="s">
@@ -13105,7 +13161,7 @@
         <v>84</v>
       </c>
       <c r="E24" s="27" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F24" s="37">
         <v>100</v>
@@ -13113,7 +13169,7 @@
     </row>
     <row r="25" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="36" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B25" s="27"/>
       <c r="C25" s="27" t="s">
@@ -13123,7 +13179,7 @@
         <v>86</v>
       </c>
       <c r="E25" s="27" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F25" s="37">
         <v>210304</v>
@@ -13146,22 +13202,22 @@
       <c r="F27" s="43"/>
     </row>
     <row r="28" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="110"/>
-      <c r="B28" s="111"/>
-      <c r="C28" s="111"/>
-      <c r="D28" s="111"/>
-      <c r="E28" s="111"/>
-      <c r="F28" s="112"/>
+      <c r="A28" s="113"/>
+      <c r="B28" s="114"/>
+      <c r="C28" s="114"/>
+      <c r="D28" s="114"/>
+      <c r="E28" s="114"/>
+      <c r="F28" s="115"/>
     </row>
     <row r="29" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="87" t="s">
+      <c r="A29" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="88"/>
-      <c r="C29" s="88"/>
-      <c r="D29" s="88"/>
-      <c r="E29" s="88"/>
-      <c r="F29" s="89"/>
+      <c r="B29" s="86"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="87"/>
     </row>
     <row r="30" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="39" t="s">
@@ -13173,119 +13229,126 @@
       <c r="C30" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="D30" s="105" t="s">
+      <c r="D30" s="116" t="s">
         <v>65</v>
       </c>
-      <c r="E30" s="105"/>
-      <c r="F30" s="106"/>
+      <c r="E30" s="116"/>
+      <c r="F30" s="117"/>
     </row>
     <row r="31" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A31" s="39"/>
       <c r="B31" s="40"/>
       <c r="C31" s="40"/>
-      <c r="D31" s="108"/>
-      <c r="E31" s="108"/>
-      <c r="F31" s="109"/>
+      <c r="D31" s="118"/>
+      <c r="E31" s="118"/>
+      <c r="F31" s="119"/>
     </row>
     <row r="32" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A32" s="39"/>
       <c r="B32" s="40"/>
       <c r="C32" s="40"/>
-      <c r="D32" s="108"/>
-      <c r="E32" s="108"/>
-      <c r="F32" s="109"/>
+      <c r="D32" s="118"/>
+      <c r="E32" s="118"/>
+      <c r="F32" s="119"/>
     </row>
     <row r="33" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A33" s="39"/>
       <c r="B33" s="40"/>
       <c r="C33" s="40"/>
-      <c r="D33" s="108"/>
-      <c r="E33" s="108"/>
-      <c r="F33" s="109"/>
+      <c r="D33" s="118"/>
+      <c r="E33" s="118"/>
+      <c r="F33" s="119"/>
     </row>
     <row r="34" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A34" s="41"/>
       <c r="B34" s="42"/>
       <c r="C34" s="42"/>
-      <c r="D34" s="114"/>
-      <c r="E34" s="114"/>
-      <c r="F34" s="115"/>
+      <c r="D34" s="120"/>
+      <c r="E34" s="120"/>
+      <c r="F34" s="121"/>
     </row>
     <row r="35" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="116"/>
-      <c r="B35" s="117"/>
-      <c r="C35" s="117"/>
-      <c r="D35" s="117"/>
-      <c r="E35" s="117"/>
-      <c r="F35" s="118"/>
+      <c r="A35" s="110"/>
+      <c r="B35" s="111"/>
+      <c r="C35" s="111"/>
+      <c r="D35" s="111"/>
+      <c r="E35" s="111"/>
+      <c r="F35" s="112"/>
     </row>
     <row r="36" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="87" t="s">
+      <c r="A36" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="B36" s="88"/>
-      <c r="C36" s="88"/>
-      <c r="D36" s="88"/>
-      <c r="E36" s="88"/>
-      <c r="F36" s="89"/>
+      <c r="B36" s="86"/>
+      <c r="C36" s="86"/>
+      <c r="D36" s="86"/>
+      <c r="E36" s="86"/>
+      <c r="F36" s="87"/>
     </row>
     <row r="37" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="104"/>
-      <c r="B37" s="105"/>
-      <c r="C37" s="105"/>
-      <c r="D37" s="105"/>
-      <c r="E37" s="105"/>
-      <c r="F37" s="106"/>
+      <c r="A37" s="122"/>
+      <c r="B37" s="116"/>
+      <c r="C37" s="116"/>
+      <c r="D37" s="116"/>
+      <c r="E37" s="116"/>
+      <c r="F37" s="117"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="107"/>
-      <c r="B38" s="108"/>
-      <c r="C38" s="108"/>
-      <c r="D38" s="108"/>
-      <c r="E38" s="108"/>
-      <c r="F38" s="109"/>
+      <c r="A38" s="123"/>
+      <c r="B38" s="118"/>
+      <c r="C38" s="118"/>
+      <c r="D38" s="118"/>
+      <c r="E38" s="118"/>
+      <c r="F38" s="119"/>
     </row>
     <row r="39" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="110"/>
-      <c r="B39" s="111"/>
-      <c r="C39" s="111"/>
-      <c r="D39" s="111"/>
-      <c r="E39" s="111"/>
-      <c r="F39" s="112"/>
+      <c r="A39" s="113"/>
+      <c r="B39" s="114"/>
+      <c r="C39" s="114"/>
+      <c r="D39" s="114"/>
+      <c r="E39" s="114"/>
+      <c r="F39" s="115"/>
     </row>
     <row r="40" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="87" t="s">
+      <c r="A40" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="B40" s="88"/>
-      <c r="C40" s="88"/>
-      <c r="D40" s="88"/>
-      <c r="E40" s="88"/>
-      <c r="F40" s="89"/>
+      <c r="B40" s="86"/>
+      <c r="C40" s="86"/>
+      <c r="D40" s="86"/>
+      <c r="E40" s="86"/>
+      <c r="F40" s="87"/>
     </row>
     <row r="41" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="104"/>
-      <c r="B41" s="105"/>
-      <c r="C41" s="105"/>
-      <c r="D41" s="105"/>
-      <c r="E41" s="105"/>
-      <c r="F41" s="106"/>
+      <c r="A41" s="122"/>
+      <c r="B41" s="116"/>
+      <c r="C41" s="116"/>
+      <c r="D41" s="116"/>
+      <c r="E41" s="116"/>
+      <c r="F41" s="117"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="113"/>
-      <c r="B42" s="114"/>
-      <c r="C42" s="114"/>
-      <c r="D42" s="114"/>
-      <c r="E42" s="114"/>
-      <c r="F42" s="115"/>
+      <c r="A42" s="124"/>
+      <c r="B42" s="120"/>
+      <c r="C42" s="120"/>
+      <c r="D42" s="120"/>
+      <c r="E42" s="120"/>
+      <c r="F42" s="121"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="A37:F38"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="A41:F42"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
     <mergeCell ref="A35:F35"/>
     <mergeCell ref="A12:F12"/>
     <mergeCell ref="A13:F13"/>
@@ -13298,18 +13361,11 @@
     <mergeCell ref="D32:F32"/>
     <mergeCell ref="D33:F33"/>
     <mergeCell ref="D34:F34"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="A37:F38"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="A41:F42"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Colocar percentagem_x000a_" sqref="B10:C10" xr:uid="{8EDB03EC-30FB-484C-ACBE-DF33B9366718}"/>
@@ -13377,12 +13433,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13524,15 +13577,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FCF46D4-6C3F-4211-BBB9-5DE005064C3C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30DE7E78-AB24-4BCB-A51F-77E5C10364A7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="6597237e-e321-437a-ab0e-fe3e3f709099"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -13556,17 +13620,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30DE7E78-AB24-4BCB-A51F-77E5C10364A7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FCF46D4-6C3F-4211-BBB9-5DE005064C3C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="6597237e-e321-437a-ab0e-fe3e3f709099"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/docs/documentacao.xlsx
+++ b/docs/documentacao.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaobraganca/Desktop/ParallelsShared/GlobalTech_ETL/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E63CA5-6BBA-CE4D-9E13-9CE404EE27F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED89D378-B31F-584F-95C2-2FC5757022D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="22500" firstSheet="1" activeTab="7" xr2:uid="{1C0ABE59-C842-1448-8BFE-1E96A6C9A910}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="251">
   <si>
     <t>Caracterização do Data Mart</t>
   </si>
@@ -791,6 +791,12 @@
   </si>
   <si>
     <t>valor da encomenda pago  até à data</t>
+  </si>
+  <si>
+    <t>payment_order_completed</t>
+  </si>
+  <si>
+    <t>se a encomenda está totalmente paga</t>
   </si>
 </sst>
 </file>
@@ -12132,13 +12138,15 @@
   </sheetPr>
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39:F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="30.83203125" customWidth="1"/>
+    <col min="1" max="1" width="30.83203125" customWidth="1"/>
+    <col min="2" max="2" width="34.83203125" customWidth="1"/>
+    <col min="3" max="4" width="30.83203125" customWidth="1"/>
     <col min="5" max="5" width="42.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30.83203125" customWidth="1"/>
   </cols>
@@ -12474,12 +12482,22 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A24" s="36"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
+      <c r="A24" s="36">
+        <v>10</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>249</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>76</v>
+      </c>
       <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="57"/>
+      <c r="E24" s="27" t="s">
+        <v>250</v>
+      </c>
+      <c r="F24" s="37">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="36"/>

--- a/docs/documentacao.xlsx
+++ b/docs/documentacao.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaobraganca/Desktop/ParallelsShared/GlobalTech_ETL/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED89D378-B31F-584F-95C2-2FC5757022D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{993497CA-D970-9149-A29C-958B44DD4342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="22500" firstSheet="1" activeTab="7" xr2:uid="{1C0ABE59-C842-1448-8BFE-1E96A6C9A910}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="22500" firstSheet="1" activeTab="9" xr2:uid="{1C0ABE59-C842-1448-8BFE-1E96A6C9A910}"/>
   </bookViews>
   <sheets>
     <sheet name="Matriz de decisão" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="255">
   <si>
     <t>Caracterização do Data Mart</t>
   </si>
@@ -643,9 +643,6 @@
     <t>Credit Card</t>
   </si>
   <si>
-    <t xml:space="preserve">0 caso não tenha recebo, 1 se a encomenda foi recebida </t>
-  </si>
-  <si>
     <t>500.00</t>
   </si>
   <si>
@@ -661,9 +658,6 @@
     <t>Indentificar quais os produtos mais cancelados</t>
   </si>
   <si>
-    <t>quantidade de produto enviada</t>
-  </si>
-  <si>
     <t>Verificar tempo médio de pagamento e tipos de pagamento mais utilizados</t>
   </si>
   <si>
@@ -676,9 +670,6 @@
     <t>DIM - Order</t>
   </si>
   <si>
-    <t>quantidade de produtos cancelada</t>
-  </si>
-  <si>
     <t>Perceber o porquê da dificuldade em dar resposta a encomendas</t>
   </si>
   <si>
@@ -754,18 +745,9 @@
     <t>surrogate key da data da encomenda</t>
   </si>
   <si>
-    <t>delivery_duration</t>
-  </si>
-  <si>
-    <t>duração da entrega</t>
-  </si>
-  <si>
     <t>surrogate key da data de envio da encomenda</t>
   </si>
   <si>
-    <t>shipped_quantity</t>
-  </si>
-  <si>
     <t>surrogate key data de cancelamento</t>
   </si>
   <si>
@@ -797,6 +779,36 @@
   </si>
   <si>
     <t>se a encomenda está totalmente paga</t>
+  </si>
+  <si>
+    <t>surrogate key armazém</t>
+  </si>
+  <si>
+    <t>was_fully_paid</t>
+  </si>
+  <si>
+    <t>0 caso não tenha sido totalmente pago, 1 caso contrário</t>
+  </si>
+  <si>
+    <t>valor pago da encomenda até ao momento</t>
+  </si>
+  <si>
+    <t>número de dias desde a encomenda até ao envio</t>
+  </si>
+  <si>
+    <t>surrogate key do armazém</t>
+  </si>
+  <si>
+    <t>n_days_until_cancellation</t>
+  </si>
+  <si>
+    <t>n_days_until_shipment</t>
+  </si>
+  <si>
+    <t>número de dias desde a encomenda até ao cancelamento</t>
+  </si>
+  <si>
+    <t>flag, 0 se não foi recebida, 1 se foi recebida</t>
   </si>
 </sst>
 </file>
@@ -1303,7 +1315,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1490,57 +1502,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1574,6 +1535,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1581,6 +1593,51 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1598,52 +1655,10 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -6173,16 +6188,16 @@
         <v>32</v>
       </c>
       <c r="B5" s="47" t="s">
+        <v>223</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>226</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>229</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>34</v>
@@ -6208,7 +6223,7 @@
     </row>
     <row r="7" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B7" s="48"/>
       <c r="C7" s="3"/>
@@ -6220,7 +6235,7 @@
     </row>
     <row r="8" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B8" s="48"/>
       <c r="C8" s="3"/>
@@ -6232,7 +6247,7 @@
     </row>
     <row r="9" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B9" s="48"/>
       <c r="C9" s="3"/>
@@ -6244,7 +6259,7 @@
     </row>
     <row r="10" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B10" s="48"/>
       <c r="C10" s="3"/>
@@ -6256,7 +6271,7 @@
     </row>
     <row r="11" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B11" s="48"/>
       <c r="C11" s="3"/>
@@ -6268,7 +6283,7 @@
     </row>
     <row r="12" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B12" s="48"/>
       <c r="C12" s="3"/>
@@ -6280,7 +6295,7 @@
     </row>
     <row r="13" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B13" s="48"/>
       <c r="C13" s="3"/>
@@ -7752,10 +7767,10 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:F9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7767,152 +7782,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="80" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="99"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="82"/>
     </row>
     <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="107" t="s">
-        <v>220</v>
-      </c>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="108"/>
+      <c r="B2" s="122" t="s">
+        <v>217</v>
+      </c>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="123"/>
     </row>
     <row r="3" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="78" t="s">
-        <v>203</v>
-      </c>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="79"/>
+      <c r="B3" s="97" t="s">
+        <v>202</v>
+      </c>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="98"/>
     </row>
     <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="97" t="s">
         <v>162</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="79"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="98"/>
     </row>
     <row r="5" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="97" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="79"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="98"/>
     </row>
     <row r="6" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="78" t="s">
-        <v>204</v>
-      </c>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="79"/>
+      <c r="B6" s="97" t="s">
+        <v>203</v>
+      </c>
+      <c r="C6" s="97"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="98"/>
     </row>
     <row r="7" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="78" t="s">
+      <c r="B7" s="97" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="79"/>
+      <c r="C7" s="97"/>
+      <c r="D7" s="97"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="98"/>
     </row>
     <row r="8" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="B8" s="78" t="s">
+      <c r="B8" s="97" t="s">
         <v>163</v>
       </c>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="79"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="97"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="98"/>
     </row>
     <row r="9" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="B9" s="78"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="79"/>
+      <c r="B9" s="97"/>
+      <c r="C9" s="97"/>
+      <c r="D9" s="97"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="98"/>
     </row>
     <row r="10" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="109">
+      <c r="B10" s="124">
         <v>0.3</v>
       </c>
-      <c r="C10" s="78"/>
-      <c r="D10" s="78" t="s">
+      <c r="C10" s="97"/>
+      <c r="D10" s="97" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="78"/>
-      <c r="F10" s="79"/>
+      <c r="E10" s="97"/>
+      <c r="F10" s="98"/>
     </row>
     <row r="11" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="105" t="s">
+      <c r="B11" s="120" t="s">
         <v>164</v>
       </c>
-      <c r="C11" s="105"/>
-      <c r="D11" s="105"/>
-      <c r="E11" s="105"/>
-      <c r="F11" s="106"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
+      <c r="F11" s="121"/>
     </row>
     <row r="12" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="113"/>
-      <c r="B12" s="114"/>
-      <c r="C12" s="114"/>
-      <c r="D12" s="114"/>
-      <c r="E12" s="114"/>
-      <c r="F12" s="115"/>
+      <c r="A12" s="111"/>
+      <c r="B12" s="112"/>
+      <c r="C12" s="112"/>
+      <c r="D12" s="112"/>
+      <c r="E12" s="112"/>
+      <c r="F12" s="113"/>
     </row>
     <row r="13" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="85" t="s">
+      <c r="A13" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="86"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="87"/>
+      <c r="B13" s="89"/>
+      <c r="C13" s="89"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="90"/>
     </row>
     <row r="14" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
@@ -7982,7 +7997,7 @@
       </c>
       <c r="D17" s="27"/>
       <c r="E17" s="27" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="F17" s="37">
         <v>2</v>
@@ -8006,203 +8021,211 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A19" s="36">
+      <c r="A19" s="125">
         <v>5</v>
       </c>
       <c r="B19" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>250</v>
+      </c>
+      <c r="F19" s="126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A20" s="36">
+        <v>6</v>
+      </c>
+      <c r="B20" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="C20" s="27" t="s">
         <v>75</v>
-      </c>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27" t="s">
-        <v>166</v>
-      </c>
-      <c r="F19" s="37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="27">
-        <v>7</v>
-      </c>
-      <c r="B20" s="27" t="s">
-        <v>207</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>76</v>
       </c>
       <c r="D20" s="27"/>
       <c r="E20" s="27" t="s">
-        <v>208</v>
-      </c>
-      <c r="F20" s="37" t="s">
+        <v>166</v>
+      </c>
+      <c r="F20" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A21" s="27">
+        <v>7</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="F21" s="37" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="85" t="s">
+    <row r="22" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A22" s="54">
+        <v>8</v>
+      </c>
+      <c r="B22" s="54" t="s">
+        <v>194</v>
+      </c>
+      <c r="C22" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54" t="s">
+        <v>254</v>
+      </c>
+      <c r="F22" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="88" t="s">
         <v>77</v>
       </c>
-      <c r="B21" s="86"/>
-      <c r="C21" s="86"/>
-      <c r="D21" s="86"/>
-      <c r="E21" s="86"/>
-      <c r="F21" s="87"/>
-    </row>
-    <row r="22" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A22" s="39" t="s">
+      <c r="B24" s="89"/>
+      <c r="C24" s="89"/>
+      <c r="D24" s="89"/>
+      <c r="E24" s="89"/>
+      <c r="F24" s="90"/>
+    </row>
+    <row r="25" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A25" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="40" t="s">
+      <c r="B25" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="40" t="s">
+      <c r="C25" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="40" t="s">
+      <c r="D25" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="E22" s="40" t="s">
+      <c r="E25" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="F22" s="31" t="s">
+      <c r="F25" s="31" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A23" s="36" t="s">
-        <v>184</v>
-      </c>
-      <c r="B23" s="56"/>
-      <c r="C23" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="D23" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="E23" s="27" t="s">
-        <v>210</v>
-      </c>
-      <c r="F23" s="37">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A24" s="36"/>
-      <c r="B24" s="56"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="37"/>
-    </row>
-    <row r="25" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A25" s="36"/>
-      <c r="F25" s="37"/>
-    </row>
     <row r="26" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A26" s="41"/>
-      <c r="B26" s="42"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="43"/>
-    </row>
-    <row r="27" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="113"/>
-      <c r="B27" s="114"/>
-      <c r="C27" s="114"/>
-      <c r="D27" s="114"/>
-      <c r="E27" s="114"/>
-      <c r="F27" s="115"/>
-    </row>
-    <row r="28" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="85" t="s">
+      <c r="A26" s="36" t="s">
+        <v>251</v>
+      </c>
+      <c r="B26" s="56"/>
+      <c r="C26" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27" t="s">
+        <v>253</v>
+      </c>
+      <c r="F26" s="37">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A27" s="36"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="37"/>
+    </row>
+    <row r="28" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A28" s="36"/>
+      <c r="F28" s="37"/>
+    </row>
+    <row r="29" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A29" s="41"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="43"/>
+    </row>
+    <row r="30" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="111"/>
+      <c r="B30" s="112"/>
+      <c r="C30" s="112"/>
+      <c r="D30" s="112"/>
+      <c r="E30" s="112"/>
+      <c r="F30" s="113"/>
+    </row>
+    <row r="31" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="86"/>
-      <c r="C28" s="86"/>
-      <c r="D28" s="86"/>
-      <c r="E28" s="86"/>
-      <c r="F28" s="87"/>
-    </row>
-    <row r="29" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A29" s="39" t="s">
+      <c r="B31" s="89"/>
+      <c r="C31" s="89"/>
+      <c r="D31" s="89"/>
+      <c r="E31" s="89"/>
+      <c r="F31" s="90"/>
+    </row>
+    <row r="32" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A32" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="40" t="s">
+      <c r="B32" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C29" s="40" t="s">
+      <c r="C32" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="116" t="s">
+      <c r="D32" s="106" t="s">
         <v>65</v>
       </c>
-      <c r="E29" s="116"/>
-      <c r="F29" s="117"/>
-    </row>
-    <row r="30" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A30" s="39"/>
-      <c r="B30" s="40"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="118"/>
-      <c r="E30" s="118"/>
-      <c r="F30" s="119"/>
-    </row>
-    <row r="31" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A31" s="39"/>
-      <c r="B31" s="40"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="118"/>
-      <c r="E31" s="118"/>
-      <c r="F31" s="119"/>
-    </row>
-    <row r="32" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A32" s="39"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="118"/>
-      <c r="E32" s="118"/>
-      <c r="F32" s="119"/>
+      <c r="E32" s="106"/>
+      <c r="F32" s="107"/>
     </row>
     <row r="33" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A33" s="41"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="120"/>
-      <c r="E33" s="120"/>
-      <c r="F33" s="121"/>
-    </row>
-    <row r="34" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="110"/>
-      <c r="B34" s="111"/>
-      <c r="C34" s="111"/>
-      <c r="D34" s="111"/>
-      <c r="E34" s="111"/>
-      <c r="F34" s="112"/>
-    </row>
-    <row r="35" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="85" t="s">
-        <v>22</v>
-      </c>
-      <c r="B35" s="86"/>
-      <c r="C35" s="86"/>
-      <c r="D35" s="86"/>
-      <c r="E35" s="86"/>
-      <c r="F35" s="87"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="122"/>
-      <c r="B36" s="116"/>
-      <c r="C36" s="116"/>
-      <c r="D36" s="116"/>
-      <c r="E36" s="116"/>
-      <c r="F36" s="117"/>
-    </row>
-    <row r="37" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="123"/>
+      <c r="A33" s="39"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="109"/>
+      <c r="E33" s="109"/>
+      <c r="F33" s="110"/>
+    </row>
+    <row r="34" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A34" s="39"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="109"/>
+      <c r="E34" s="109"/>
+      <c r="F34" s="110"/>
+    </row>
+    <row r="35" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A35" s="39"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="109"/>
+      <c r="E35" s="109"/>
+      <c r="F35" s="110"/>
+    </row>
+    <row r="36" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A36" s="41"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="115"/>
+      <c r="E36" s="115"/>
+      <c r="F36" s="116"/>
+    </row>
+    <row r="37" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="117"/>
       <c r="B37" s="118"/>
       <c r="C37" s="118"/>
       <c r="D37" s="118"/>
@@ -8210,41 +8233,83 @@
       <c r="F37" s="119"/>
     </row>
     <row r="38" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="113"/>
-      <c r="B38" s="114"/>
-      <c r="C38" s="114"/>
-      <c r="D38" s="114"/>
-      <c r="E38" s="114"/>
-      <c r="F38" s="115"/>
-    </row>
-    <row r="39" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="85" t="s">
+      <c r="A38" s="88" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38" s="89"/>
+      <c r="C38" s="89"/>
+      <c r="D38" s="89"/>
+      <c r="E38" s="89"/>
+      <c r="F38" s="90"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="105"/>
+      <c r="B39" s="106"/>
+      <c r="C39" s="106"/>
+      <c r="D39" s="106"/>
+      <c r="E39" s="106"/>
+      <c r="F39" s="107"/>
+    </row>
+    <row r="40" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="108"/>
+      <c r="B40" s="109"/>
+      <c r="C40" s="109"/>
+      <c r="D40" s="109"/>
+      <c r="E40" s="109"/>
+      <c r="F40" s="110"/>
+    </row>
+    <row r="41" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="111"/>
+      <c r="B41" s="112"/>
+      <c r="C41" s="112"/>
+      <c r="D41" s="112"/>
+      <c r="E41" s="112"/>
+      <c r="F41" s="113"/>
+    </row>
+    <row r="42" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="86"/>
-      <c r="C39" s="86"/>
-      <c r="D39" s="86"/>
-      <c r="E39" s="86"/>
-      <c r="F39" s="87"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="122"/>
-      <c r="B40" s="116"/>
-      <c r="C40" s="116"/>
-      <c r="D40" s="116"/>
-      <c r="E40" s="116"/>
-      <c r="F40" s="117"/>
-    </row>
-    <row r="41" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="124"/>
-      <c r="B41" s="120"/>
-      <c r="C41" s="120"/>
-      <c r="D41" s="120"/>
-      <c r="E41" s="120"/>
-      <c r="F41" s="121"/>
+      <c r="B42" s="89"/>
+      <c r="C42" s="89"/>
+      <c r="D42" s="89"/>
+      <c r="E42" s="89"/>
+      <c r="F42" s="90"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="105"/>
+      <c r="B43" s="106"/>
+      <c r="C43" s="106"/>
+      <c r="D43" s="106"/>
+      <c r="E43" s="106"/>
+      <c r="F43" s="107"/>
+    </row>
+    <row r="44" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="114"/>
+      <c r="B44" s="115"/>
+      <c r="C44" s="115"/>
+      <c r="D44" s="115"/>
+      <c r="E44" s="115"/>
+      <c r="F44" s="116"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="A39:F40"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="A43:F44"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D36:F36"/>
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B2:F2"/>
@@ -8257,22 +8322,6 @@
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:F10"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="A36:F37"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="A40:F41"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Colocar percentagem_x000a_" sqref="B10:C10" xr:uid="{2B355D78-2274-AF4C-B934-68ADBC7FB191}"/>
@@ -8307,31 +8356,31 @@
           <x14:formula1>
             <xm:f>Metadata!$A$33:$A$34</xm:f>
           </x14:formula1>
-          <xm:sqref>C30</xm:sqref>
+          <xm:sqref>C33</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{71AA3F63-2618-E441-85F7-83CC17167451}">
           <x14:formula1>
             <xm:f>Metadata!$A$37:$A$41</xm:f>
           </x14:formula1>
-          <xm:sqref>D30:D33</xm:sqref>
+          <xm:sqref>D33:D36</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0C250C6F-308E-0547-9CC2-AD67B97F1544}">
           <x14:formula1>
             <xm:f>Metadata!$A$48:$A$50</xm:f>
           </x14:formula1>
-          <xm:sqref>C26 C23:C24</xm:sqref>
+          <xm:sqref>C29 C26:C27</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E76D1ED0-470C-774D-95F7-6BA11889CFE0}">
           <x14:formula1>
             <xm:f>Metadata!$A$54:$A$56</xm:f>
           </x14:formula1>
-          <xm:sqref>D26 D23:D24</xm:sqref>
+          <xm:sqref>D29 D26:D27</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{596A2327-EB3C-0847-9EA6-B35EE44AD099}">
           <x14:formula1>
             <xm:f>Metadata!$A$43:$A$44</xm:f>
           </x14:formula1>
-          <xm:sqref>C15:C20</xm:sqref>
+          <xm:sqref>C15:C18 C20:C22</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -8739,95 +8788,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="99"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="82"/>
     </row>
     <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="100" t="s">
-        <v>213</v>
+      <c r="B2" s="83" t="s">
+        <v>210</v>
       </c>
       <c r="C2" s="68"/>
       <c r="D2" s="68"/>
       <c r="E2" s="68"/>
       <c r="F2" s="68"/>
-      <c r="G2" s="101"/>
+      <c r="G2" s="84"/>
     </row>
     <row r="3" spans="1:7" ht="46" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="85" t="s">
         <v>88</v>
       </c>
       <c r="C3" s="69"/>
       <c r="D3" s="69"/>
       <c r="E3" s="69"/>
       <c r="F3" s="69"/>
-      <c r="G3" s="81"/>
+      <c r="G3" s="86"/>
     </row>
     <row r="4" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="80" t="s">
+      <c r="B4" s="85" t="s">
         <v>51</v>
       </c>
       <c r="C4" s="69"/>
       <c r="D4" s="69"/>
       <c r="E4" s="69"/>
       <c r="F4" s="69"/>
-      <c r="G4" s="81"/>
+      <c r="G4" s="86"/>
     </row>
     <row r="5" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="80" t="s">
+      <c r="B5" s="85" t="s">
         <v>87</v>
       </c>
       <c r="C5" s="69"/>
       <c r="D5" s="69"/>
       <c r="E5" s="69"/>
       <c r="F5" s="69"/>
-      <c r="G5" s="81"/>
+      <c r="G5" s="86"/>
     </row>
     <row r="6" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="94" t="s">
+      <c r="B6" s="74"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="77" t="s">
         <v>57</v>
       </c>
-      <c r="F6" s="95"/>
-      <c r="G6" s="96"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="79"/>
     </row>
     <row r="7" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="35"/>
       <c r="G7" s="33"/>
     </row>
     <row r="8" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="85" t="s">
+      <c r="A8" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="86"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="87"/>
+      <c r="B8" s="89"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="90"/>
     </row>
     <row r="9" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
@@ -9016,7 +9065,7 @@
       <c r="G18" s="37"/>
     </row>
     <row r="19" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A19" s="88" t="s">
+      <c r="A19" s="91" t="s">
         <v>21</v>
       </c>
       <c r="B19" s="63"/>
@@ -9036,57 +9085,57 @@
       <c r="C20" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="89" t="s">
+      <c r="D20" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="E20" s="89"/>
-      <c r="F20" s="89"/>
-      <c r="G20" s="89"/>
+      <c r="E20" s="92"/>
+      <c r="F20" s="92"/>
+      <c r="G20" s="92"/>
     </row>
     <row r="21" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="90"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="90"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
     </row>
     <row r="22" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="90"/>
-      <c r="E22" s="90"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="90"/>
+      <c r="D22" s="93"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="93"/>
     </row>
     <row r="23" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="90"/>
-      <c r="E23" s="90"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="90"/>
+      <c r="D23" s="93"/>
+      <c r="E23" s="93"/>
+      <c r="F23" s="93"/>
+      <c r="G23" s="93"/>
     </row>
     <row r="24" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="90"/>
-      <c r="E24" s="90"/>
-      <c r="F24" s="90"/>
-      <c r="G24" s="90"/>
+      <c r="D24" s="93"/>
+      <c r="E24" s="93"/>
+      <c r="F24" s="93"/>
+      <c r="G24" s="93"/>
     </row>
     <row r="25" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="90"/>
-      <c r="E25" s="90"/>
-      <c r="F25" s="90"/>
-      <c r="G25" s="90"/>
+      <c r="D25" s="93"/>
+      <c r="E25" s="93"/>
+      <c r="F25" s="93"/>
+      <c r="G25" s="93"/>
     </row>
     <row r="26" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A26" s="36"/>
@@ -9096,7 +9145,7 @@
       <c r="G26" s="33"/>
     </row>
     <row r="27" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A27" s="88" t="s">
+      <c r="A27" s="91" t="s">
         <v>29</v>
       </c>
       <c r="B27" s="63"/>
@@ -9113,13 +9162,13 @@
       <c r="B28" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="89" t="s">
+      <c r="C28" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="89"/>
-      <c r="E28" s="89"/>
-      <c r="F28" s="89"/>
-      <c r="G28" s="89"/>
+      <c r="D28" s="92"/>
+      <c r="E28" s="92"/>
+      <c r="F28" s="92"/>
+      <c r="G28" s="92"/>
     </row>
     <row r="29" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
@@ -9128,42 +9177,42 @@
       <c r="B29" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C29" s="74" t="s">
+      <c r="C29" s="87" t="s">
         <v>109</v>
       </c>
-      <c r="D29" s="74"/>
-      <c r="E29" s="74"/>
-      <c r="F29" s="74"/>
-      <c r="G29" s="74"/>
+      <c r="D29" s="87"/>
+      <c r="E29" s="87"/>
+      <c r="F29" s="87"/>
+      <c r="G29" s="87"/>
     </row>
     <row r="30" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>2</v>
       </c>
       <c r="B30" s="1"/>
-      <c r="C30" s="74" t="s">
+      <c r="C30" s="87" t="s">
         <v>112</v>
       </c>
-      <c r="D30" s="74"/>
-      <c r="E30" s="74"/>
-      <c r="F30" s="74"/>
-      <c r="G30" s="74"/>
+      <c r="D30" s="87"/>
+      <c r="E30" s="87"/>
+      <c r="F30" s="87"/>
+      <c r="G30" s="87"/>
     </row>
     <row r="31" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
-      <c r="C31" s="74"/>
-      <c r="D31" s="74"/>
-      <c r="E31" s="74"/>
-      <c r="F31" s="74"/>
-      <c r="G31" s="74"/>
+      <c r="C31" s="87"/>
+      <c r="D31" s="87"/>
+      <c r="E31" s="87"/>
+      <c r="F31" s="87"/>
+      <c r="G31" s="87"/>
     </row>
     <row r="32" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="G32" s="33"/>
     </row>
     <row r="33" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="75" t="s">
+      <c r="A33" s="94" t="s">
         <v>22</v>
       </c>
       <c r="B33" s="71"/>
@@ -9171,28 +9220,28 @@
       <c r="D33" s="71"/>
       <c r="E33" s="71"/>
       <c r="F33" s="71"/>
-      <c r="G33" s="76"/>
+      <c r="G33" s="95"/>
     </row>
     <row r="34" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="77"/>
-      <c r="B34" s="78"/>
-      <c r="C34" s="78"/>
-      <c r="D34" s="78"/>
-      <c r="E34" s="78"/>
-      <c r="F34" s="78"/>
-      <c r="G34" s="79"/>
+      <c r="A34" s="96"/>
+      <c r="B34" s="97"/>
+      <c r="C34" s="97"/>
+      <c r="D34" s="97"/>
+      <c r="E34" s="97"/>
+      <c r="F34" s="97"/>
+      <c r="G34" s="98"/>
     </row>
     <row r="35" spans="1:7" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="77"/>
-      <c r="B35" s="78"/>
-      <c r="C35" s="78"/>
-      <c r="D35" s="78"/>
-      <c r="E35" s="78"/>
-      <c r="F35" s="78"/>
-      <c r="G35" s="79"/>
+      <c r="A35" s="96"/>
+      <c r="B35" s="97"/>
+      <c r="C35" s="97"/>
+      <c r="D35" s="97"/>
+      <c r="E35" s="97"/>
+      <c r="F35" s="97"/>
+      <c r="G35" s="98"/>
     </row>
     <row r="36" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="75" t="s">
+      <c r="A36" s="94" t="s">
         <v>10</v>
       </c>
       <c r="B36" s="71"/>
@@ -9200,35 +9249,33 @@
       <c r="D36" s="71"/>
       <c r="E36" s="71"/>
       <c r="F36" s="71"/>
-      <c r="G36" s="76"/>
+      <c r="G36" s="95"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="80"/>
+      <c r="A37" s="85"/>
       <c r="B37" s="69"/>
       <c r="C37" s="69"/>
       <c r="D37" s="69"/>
       <c r="E37" s="69"/>
       <c r="F37" s="69"/>
-      <c r="G37" s="81"/>
+      <c r="G37" s="86"/>
     </row>
     <row r="38" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="82"/>
-      <c r="B38" s="83"/>
-      <c r="C38" s="83"/>
-      <c r="D38" s="83"/>
-      <c r="E38" s="83"/>
-      <c r="F38" s="83"/>
-      <c r="G38" s="84"/>
+      <c r="A38" s="99"/>
+      <c r="B38" s="100"/>
+      <c r="C38" s="100"/>
+      <c r="D38" s="100"/>
+      <c r="E38" s="100"/>
+      <c r="F38" s="100"/>
+      <c r="G38" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="A34:G35"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A37:G38"/>
     <mergeCell ref="C30:G30"/>
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="A19:G19"/>
@@ -9241,11 +9288,13 @@
     <mergeCell ref="A27:G27"/>
     <mergeCell ref="C28:G28"/>
     <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="A34:G35"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A37:G38"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Exemplo:_x000a_id -&gt; nome -&gt; categoria -&gt; ALL" sqref="C29:C32" xr:uid="{386320E1-7050-C749-9143-6F7D856CB823}"/>
@@ -9314,67 +9363,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="99"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="82"/>
     </row>
     <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="100" t="s">
-        <v>214</v>
+      <c r="B2" s="83" t="s">
+        <v>211</v>
       </c>
       <c r="C2" s="68"/>
       <c r="D2" s="68"/>
       <c r="E2" s="68"/>
       <c r="F2" s="68"/>
-      <c r="G2" s="101"/>
+      <c r="G2" s="84"/>
     </row>
     <row r="3" spans="1:7" ht="46" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="85" t="s">
         <v>100</v>
       </c>
       <c r="C3" s="69"/>
       <c r="D3" s="69"/>
       <c r="E3" s="69"/>
       <c r="F3" s="69"/>
-      <c r="G3" s="81"/>
+      <c r="G3" s="86"/>
     </row>
     <row r="4" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="80" t="s">
+      <c r="B4" s="85" t="s">
         <v>53</v>
       </c>
       <c r="C4" s="69"/>
       <c r="D4" s="69"/>
       <c r="E4" s="69"/>
       <c r="F4" s="69"/>
-      <c r="G4" s="81"/>
+      <c r="G4" s="86"/>
     </row>
     <row r="5" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="80" t="s">
+      <c r="B5" s="85" t="s">
         <v>99</v>
       </c>
       <c r="C5" s="69"/>
       <c r="D5" s="69"/>
       <c r="E5" s="69"/>
       <c r="F5" s="69"/>
-      <c r="G5" s="81"/>
+      <c r="G5" s="86"/>
     </row>
     <row r="6" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
@@ -9383,26 +9432,26 @@
       <c r="B6" s="102"/>
       <c r="C6" s="103"/>
       <c r="D6" s="104"/>
-      <c r="E6" s="94" t="s">
+      <c r="E6" s="77" t="s">
         <v>57</v>
       </c>
-      <c r="F6" s="95"/>
-      <c r="G6" s="96"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="79"/>
     </row>
     <row r="7" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="35"/>
       <c r="G7" s="33"/>
     </row>
     <row r="8" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="85" t="s">
+      <c r="A8" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="86"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="87"/>
+      <c r="B8" s="89"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="90"/>
     </row>
     <row r="9" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
@@ -9558,7 +9607,7 @@
       <c r="G17" s="37"/>
     </row>
     <row r="18" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A18" s="88" t="s">
+      <c r="A18" s="91" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="63"/>
@@ -9578,57 +9627,57 @@
       <c r="C19" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="89" t="s">
+      <c r="D19" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="E19" s="89"/>
-      <c r="F19" s="89"/>
-      <c r="G19" s="89"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="92"/>
+      <c r="G19" s="92"/>
     </row>
     <row r="20" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="90"/>
-      <c r="E20" s="90"/>
-      <c r="F20" s="90"/>
-      <c r="G20" s="90"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="93"/>
+      <c r="F20" s="93"/>
+      <c r="G20" s="93"/>
     </row>
     <row r="21" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="90"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="90"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
     </row>
     <row r="22" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="90"/>
-      <c r="E22" s="90"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="90"/>
+      <c r="D22" s="93"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="93"/>
     </row>
     <row r="23" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="90"/>
-      <c r="E23" s="90"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="90"/>
+      <c r="D23" s="93"/>
+      <c r="E23" s="93"/>
+      <c r="F23" s="93"/>
+      <c r="G23" s="93"/>
     </row>
     <row r="24" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="90"/>
-      <c r="E24" s="90"/>
-      <c r="F24" s="90"/>
-      <c r="G24" s="90"/>
+      <c r="D24" s="93"/>
+      <c r="E24" s="93"/>
+      <c r="F24" s="93"/>
+      <c r="G24" s="93"/>
     </row>
     <row r="25" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="36"/>
@@ -9638,7 +9687,7 @@
       <c r="G25" s="33"/>
     </row>
     <row r="26" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A26" s="88" t="s">
+      <c r="A26" s="91" t="s">
         <v>29</v>
       </c>
       <c r="B26" s="63"/>
@@ -9655,47 +9704,47 @@
       <c r="B27" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="89" t="s">
+      <c r="C27" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="89"/>
-      <c r="E27" s="89"/>
-      <c r="F27" s="89"/>
-      <c r="G27" s="89"/>
+      <c r="D27" s="92"/>
+      <c r="E27" s="92"/>
+      <c r="F27" s="92"/>
+      <c r="G27" s="92"/>
     </row>
     <row r="28" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
-      <c r="C28" s="74"/>
-      <c r="D28" s="74"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="74"/>
-      <c r="G28" s="74"/>
+      <c r="C28" s="87"/>
+      <c r="D28" s="87"/>
+      <c r="E28" s="87"/>
+      <c r="F28" s="87"/>
+      <c r="G28" s="87"/>
     </row>
     <row r="29" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="74"/>
-      <c r="D29" s="74"/>
-      <c r="E29" s="74"/>
-      <c r="F29" s="74"/>
-      <c r="G29" s="74"/>
+      <c r="C29" s="87"/>
+      <c r="D29" s="87"/>
+      <c r="E29" s="87"/>
+      <c r="F29" s="87"/>
+      <c r="G29" s="87"/>
     </row>
     <row r="30" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="74"/>
-      <c r="D30" s="74"/>
-      <c r="E30" s="74"/>
-      <c r="F30" s="74"/>
-      <c r="G30" s="74"/>
+      <c r="C30" s="87"/>
+      <c r="D30" s="87"/>
+      <c r="E30" s="87"/>
+      <c r="F30" s="87"/>
+      <c r="G30" s="87"/>
     </row>
     <row r="31" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="G31" s="33"/>
     </row>
     <row r="32" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="75" t="s">
+      <c r="A32" s="94" t="s">
         <v>22</v>
       </c>
       <c r="B32" s="71"/>
@@ -9703,28 +9752,28 @@
       <c r="D32" s="71"/>
       <c r="E32" s="71"/>
       <c r="F32" s="71"/>
-      <c r="G32" s="76"/>
+      <c r="G32" s="95"/>
     </row>
     <row r="33" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="77"/>
-      <c r="B33" s="78"/>
-      <c r="C33" s="78"/>
-      <c r="D33" s="78"/>
-      <c r="E33" s="78"/>
-      <c r="F33" s="78"/>
-      <c r="G33" s="79"/>
+      <c r="A33" s="96"/>
+      <c r="B33" s="97"/>
+      <c r="C33" s="97"/>
+      <c r="D33" s="97"/>
+      <c r="E33" s="97"/>
+      <c r="F33" s="97"/>
+      <c r="G33" s="98"/>
     </row>
     <row r="34" spans="1:7" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="77"/>
-      <c r="B34" s="78"/>
-      <c r="C34" s="78"/>
-      <c r="D34" s="78"/>
-      <c r="E34" s="78"/>
-      <c r="F34" s="78"/>
-      <c r="G34" s="79"/>
+      <c r="A34" s="96"/>
+      <c r="B34" s="97"/>
+      <c r="C34" s="97"/>
+      <c r="D34" s="97"/>
+      <c r="E34" s="97"/>
+      <c r="F34" s="97"/>
+      <c r="G34" s="98"/>
     </row>
     <row r="35" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="75" t="s">
+      <c r="A35" s="94" t="s">
         <v>10</v>
       </c>
       <c r="B35" s="71"/>
@@ -9732,33 +9781,35 @@
       <c r="D35" s="71"/>
       <c r="E35" s="71"/>
       <c r="F35" s="71"/>
-      <c r="G35" s="76"/>
+      <c r="G35" s="95"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="80"/>
+      <c r="A36" s="85"/>
       <c r="B36" s="69"/>
       <c r="C36" s="69"/>
       <c r="D36" s="69"/>
       <c r="E36" s="69"/>
       <c r="F36" s="69"/>
-      <c r="G36" s="81"/>
+      <c r="G36" s="86"/>
     </row>
     <row r="37" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="82"/>
-      <c r="B37" s="83"/>
-      <c r="C37" s="83"/>
-      <c r="D37" s="83"/>
-      <c r="E37" s="83"/>
-      <c r="F37" s="83"/>
-      <c r="G37" s="84"/>
+      <c r="A37" s="99"/>
+      <c r="B37" s="100"/>
+      <c r="C37" s="100"/>
+      <c r="D37" s="100"/>
+      <c r="E37" s="100"/>
+      <c r="F37" s="100"/>
+      <c r="G37" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="A33:G34"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="A36:G37"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
     <mergeCell ref="C29:G29"/>
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="A18:G18"/>
@@ -9771,13 +9822,11 @@
     <mergeCell ref="A26:G26"/>
     <mergeCell ref="C27:G27"/>
     <mergeCell ref="C28:G28"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="A33:G34"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="A36:G37"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Colocar percentagem" sqref="B6" xr:uid="{F51EFD33-359E-334A-A51E-A657A56E6972}">
@@ -9847,95 +9896,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="99"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="82"/>
     </row>
     <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="100" t="s">
-        <v>215</v>
+      <c r="B2" s="83" t="s">
+        <v>212</v>
       </c>
       <c r="C2" s="68"/>
       <c r="D2" s="68"/>
       <c r="E2" s="68"/>
       <c r="F2" s="68"/>
-      <c r="G2" s="101"/>
+      <c r="G2" s="84"/>
     </row>
     <row r="3" spans="1:7" ht="46" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="85" t="s">
         <v>148</v>
       </c>
       <c r="C3" s="69"/>
       <c r="D3" s="69"/>
       <c r="E3" s="69"/>
       <c r="F3" s="69"/>
-      <c r="G3" s="81"/>
+      <c r="G3" s="86"/>
     </row>
     <row r="4" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="80" t="s">
+      <c r="B4" s="85" t="s">
         <v>52</v>
       </c>
       <c r="C4" s="69"/>
       <c r="D4" s="69"/>
       <c r="E4" s="69"/>
       <c r="F4" s="69"/>
-      <c r="G4" s="81"/>
+      <c r="G4" s="86"/>
     </row>
     <row r="5" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="80" t="s">
+      <c r="B5" s="85" t="s">
         <v>110</v>
       </c>
       <c r="C5" s="69"/>
       <c r="D5" s="69"/>
       <c r="E5" s="69"/>
       <c r="F5" s="69"/>
-      <c r="G5" s="81"/>
+      <c r="G5" s="86"/>
     </row>
     <row r="6" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="94" t="s">
+      <c r="B6" s="74"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="77" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="95"/>
-      <c r="G6" s="96"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="79"/>
     </row>
     <row r="7" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="35"/>
       <c r="G7" s="33"/>
     </row>
     <row r="8" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="85" t="s">
+      <c r="A8" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="86"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="87"/>
+      <c r="B8" s="89"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="90"/>
     </row>
     <row r="9" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
@@ -10091,7 +10140,7 @@
       <c r="G17" s="37"/>
     </row>
     <row r="18" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A18" s="88"/>
+      <c r="A18" s="91"/>
       <c r="B18" s="63"/>
       <c r="C18" s="63"/>
       <c r="D18" s="63"/>
@@ -10109,57 +10158,57 @@
       <c r="C19" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="89" t="s">
+      <c r="D19" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="E19" s="89"/>
-      <c r="F19" s="89"/>
-      <c r="G19" s="89"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="92"/>
+      <c r="G19" s="92"/>
     </row>
     <row r="20" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="90"/>
-      <c r="E20" s="90"/>
-      <c r="F20" s="90"/>
-      <c r="G20" s="90"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="93"/>
+      <c r="F20" s="93"/>
+      <c r="G20" s="93"/>
     </row>
     <row r="21" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="90"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="90"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
     </row>
     <row r="22" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="90"/>
-      <c r="E22" s="90"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="90"/>
+      <c r="D22" s="93"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="93"/>
     </row>
     <row r="23" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="90"/>
-      <c r="E23" s="90"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="90"/>
+      <c r="D23" s="93"/>
+      <c r="E23" s="93"/>
+      <c r="F23" s="93"/>
+      <c r="G23" s="93"/>
     </row>
     <row r="24" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="90"/>
-      <c r="E24" s="90"/>
-      <c r="F24" s="90"/>
-      <c r="G24" s="90"/>
+      <c r="D24" s="93"/>
+      <c r="E24" s="93"/>
+      <c r="F24" s="93"/>
+      <c r="G24" s="93"/>
     </row>
     <row r="25" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="36"/>
@@ -10169,7 +10218,7 @@
       <c r="G25" s="33"/>
     </row>
     <row r="26" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A26" s="88" t="s">
+      <c r="A26" s="91" t="s">
         <v>29</v>
       </c>
       <c r="B26" s="63"/>
@@ -10186,47 +10235,47 @@
       <c r="B27" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="89" t="s">
+      <c r="C27" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="89"/>
-      <c r="E27" s="89"/>
-      <c r="F27" s="89"/>
-      <c r="G27" s="89"/>
+      <c r="D27" s="92"/>
+      <c r="E27" s="92"/>
+      <c r="F27" s="92"/>
+      <c r="G27" s="92"/>
     </row>
     <row r="28" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
-      <c r="C28" s="74"/>
-      <c r="D28" s="74"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="74"/>
-      <c r="G28" s="74"/>
+      <c r="C28" s="87"/>
+      <c r="D28" s="87"/>
+      <c r="E28" s="87"/>
+      <c r="F28" s="87"/>
+      <c r="G28" s="87"/>
     </row>
     <row r="29" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="74"/>
-      <c r="D29" s="74"/>
-      <c r="E29" s="74"/>
-      <c r="F29" s="74"/>
-      <c r="G29" s="74"/>
+      <c r="C29" s="87"/>
+      <c r="D29" s="87"/>
+      <c r="E29" s="87"/>
+      <c r="F29" s="87"/>
+      <c r="G29" s="87"/>
     </row>
     <row r="30" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="74"/>
-      <c r="D30" s="74"/>
-      <c r="E30" s="74"/>
-      <c r="F30" s="74"/>
-      <c r="G30" s="74"/>
+      <c r="C30" s="87"/>
+      <c r="D30" s="87"/>
+      <c r="E30" s="87"/>
+      <c r="F30" s="87"/>
+      <c r="G30" s="87"/>
     </row>
     <row r="31" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="G31" s="33"/>
     </row>
     <row r="32" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="75" t="s">
+      <c r="A32" s="94" t="s">
         <v>22</v>
       </c>
       <c r="B32" s="71"/>
@@ -10234,28 +10283,28 @@
       <c r="D32" s="71"/>
       <c r="E32" s="71"/>
       <c r="F32" s="71"/>
-      <c r="G32" s="76"/>
+      <c r="G32" s="95"/>
     </row>
     <row r="33" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="77"/>
-      <c r="B33" s="78"/>
-      <c r="C33" s="78"/>
-      <c r="D33" s="78"/>
-      <c r="E33" s="78"/>
-      <c r="F33" s="78"/>
-      <c r="G33" s="79"/>
+      <c r="A33" s="96"/>
+      <c r="B33" s="97"/>
+      <c r="C33" s="97"/>
+      <c r="D33" s="97"/>
+      <c r="E33" s="97"/>
+      <c r="F33" s="97"/>
+      <c r="G33" s="98"/>
     </row>
     <row r="34" spans="1:7" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="77"/>
-      <c r="B34" s="78"/>
-      <c r="C34" s="78"/>
-      <c r="D34" s="78"/>
-      <c r="E34" s="78"/>
-      <c r="F34" s="78"/>
-      <c r="G34" s="79"/>
+      <c r="A34" s="96"/>
+      <c r="B34" s="97"/>
+      <c r="C34" s="97"/>
+      <c r="D34" s="97"/>
+      <c r="E34" s="97"/>
+      <c r="F34" s="97"/>
+      <c r="G34" s="98"/>
     </row>
     <row r="35" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="75" t="s">
+      <c r="A35" s="94" t="s">
         <v>10</v>
       </c>
       <c r="B35" s="71"/>
@@ -10263,36 +10312,28 @@
       <c r="D35" s="71"/>
       <c r="E35" s="71"/>
       <c r="F35" s="71"/>
-      <c r="G35" s="76"/>
+      <c r="G35" s="95"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="80"/>
+      <c r="A36" s="85"/>
       <c r="B36" s="69"/>
       <c r="C36" s="69"/>
       <c r="D36" s="69"/>
       <c r="E36" s="69"/>
       <c r="F36" s="69"/>
-      <c r="G36" s="81"/>
+      <c r="G36" s="86"/>
     </row>
     <row r="37" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="82"/>
-      <c r="B37" s="83"/>
-      <c r="C37" s="83"/>
-      <c r="D37" s="83"/>
-      <c r="E37" s="83"/>
-      <c r="F37" s="83"/>
-      <c r="G37" s="84"/>
+      <c r="A37" s="99"/>
+      <c r="B37" s="100"/>
+      <c r="C37" s="100"/>
+      <c r="D37" s="100"/>
+      <c r="E37" s="100"/>
+      <c r="F37" s="100"/>
+      <c r="G37" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="A26:G26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D23:G23"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="D19:G19"/>
     <mergeCell ref="D20:G20"/>
@@ -10309,6 +10350,14 @@
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="B5:G5"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D23:G23"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Colocar percentagem" sqref="B6" xr:uid="{C5DD908A-3688-A14E-B89F-E074FAFCDF99}">
@@ -10378,95 +10427,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="99"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="82"/>
     </row>
     <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="100" t="s">
-        <v>216</v>
+      <c r="B2" s="83" t="s">
+        <v>213</v>
       </c>
       <c r="C2" s="68"/>
       <c r="D2" s="68"/>
       <c r="E2" s="68"/>
       <c r="F2" s="68"/>
-      <c r="G2" s="101"/>
+      <c r="G2" s="84"/>
     </row>
     <row r="3" spans="1:7" ht="46" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="85" t="s">
         <v>124</v>
       </c>
       <c r="C3" s="69"/>
       <c r="D3" s="69"/>
       <c r="E3" s="69"/>
       <c r="F3" s="69"/>
-      <c r="G3" s="81"/>
+      <c r="G3" s="86"/>
     </row>
     <row r="4" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="80" t="s">
+      <c r="B4" s="85" t="s">
         <v>51</v>
       </c>
       <c r="C4" s="69"/>
       <c r="D4" s="69"/>
       <c r="E4" s="69"/>
       <c r="F4" s="69"/>
-      <c r="G4" s="81"/>
+      <c r="G4" s="86"/>
     </row>
     <row r="5" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="80" t="s">
+      <c r="B5" s="85" t="s">
         <v>113</v>
       </c>
       <c r="C5" s="69"/>
       <c r="D5" s="69"/>
       <c r="E5" s="69"/>
       <c r="F5" s="69"/>
-      <c r="G5" s="81"/>
+      <c r="G5" s="86"/>
     </row>
     <row r="6" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="94" t="s">
+      <c r="B6" s="74"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="77" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="95"/>
-      <c r="G6" s="96"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="79"/>
     </row>
     <row r="7" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="35"/>
       <c r="G7" s="33"/>
     </row>
     <row r="8" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="85" t="s">
+      <c r="A8" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="86"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="87"/>
+      <c r="B8" s="89"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="90"/>
     </row>
     <row r="9" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
@@ -10610,7 +10659,7 @@
       <c r="G17" s="37"/>
     </row>
     <row r="18" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A18" s="88" t="s">
+      <c r="A18" s="91" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="63"/>
@@ -10630,57 +10679,57 @@
       <c r="C19" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="89" t="s">
+      <c r="D19" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="E19" s="89"/>
-      <c r="F19" s="89"/>
-      <c r="G19" s="89"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="92"/>
+      <c r="G19" s="92"/>
     </row>
     <row r="20" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="90"/>
-      <c r="E20" s="90"/>
-      <c r="F20" s="90"/>
-      <c r="G20" s="90"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="93"/>
+      <c r="F20" s="93"/>
+      <c r="G20" s="93"/>
     </row>
     <row r="21" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="90"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="90"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
     </row>
     <row r="22" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="90"/>
-      <c r="E22" s="90"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="90"/>
+      <c r="D22" s="93"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="93"/>
     </row>
     <row r="23" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="90"/>
-      <c r="E23" s="90"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="90"/>
+      <c r="D23" s="93"/>
+      <c r="E23" s="93"/>
+      <c r="F23" s="93"/>
+      <c r="G23" s="93"/>
     </row>
     <row r="24" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="90"/>
-      <c r="E24" s="90"/>
-      <c r="F24" s="90"/>
-      <c r="G24" s="90"/>
+      <c r="D24" s="93"/>
+      <c r="E24" s="93"/>
+      <c r="F24" s="93"/>
+      <c r="G24" s="93"/>
     </row>
     <row r="25" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="36"/>
@@ -10690,7 +10739,7 @@
       <c r="G25" s="33"/>
     </row>
     <row r="26" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A26" s="88" t="s">
+      <c r="A26" s="91" t="s">
         <v>29</v>
       </c>
       <c r="B26" s="63"/>
@@ -10707,47 +10756,47 @@
       <c r="B27" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="89" t="s">
+      <c r="C27" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="89"/>
-      <c r="E27" s="89"/>
-      <c r="F27" s="89"/>
-      <c r="G27" s="89"/>
+      <c r="D27" s="92"/>
+      <c r="E27" s="92"/>
+      <c r="F27" s="92"/>
+      <c r="G27" s="92"/>
     </row>
     <row r="28" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
-      <c r="C28" s="74"/>
-      <c r="D28" s="74"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="74"/>
-      <c r="G28" s="74"/>
+      <c r="C28" s="87"/>
+      <c r="D28" s="87"/>
+      <c r="E28" s="87"/>
+      <c r="F28" s="87"/>
+      <c r="G28" s="87"/>
     </row>
     <row r="29" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="74"/>
-      <c r="D29" s="74"/>
-      <c r="E29" s="74"/>
-      <c r="F29" s="74"/>
-      <c r="G29" s="74"/>
+      <c r="C29" s="87"/>
+      <c r="D29" s="87"/>
+      <c r="E29" s="87"/>
+      <c r="F29" s="87"/>
+      <c r="G29" s="87"/>
     </row>
     <row r="30" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="74"/>
-      <c r="D30" s="74"/>
-      <c r="E30" s="74"/>
-      <c r="F30" s="74"/>
-      <c r="G30" s="74"/>
+      <c r="C30" s="87"/>
+      <c r="D30" s="87"/>
+      <c r="E30" s="87"/>
+      <c r="F30" s="87"/>
+      <c r="G30" s="87"/>
     </row>
     <row r="31" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="G31" s="33"/>
     </row>
     <row r="32" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="75" t="s">
+      <c r="A32" s="94" t="s">
         <v>22</v>
       </c>
       <c r="B32" s="71"/>
@@ -10755,28 +10804,28 @@
       <c r="D32" s="71"/>
       <c r="E32" s="71"/>
       <c r="F32" s="71"/>
-      <c r="G32" s="76"/>
+      <c r="G32" s="95"/>
     </row>
     <row r="33" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="77"/>
-      <c r="B33" s="78"/>
-      <c r="C33" s="78"/>
-      <c r="D33" s="78"/>
-      <c r="E33" s="78"/>
-      <c r="F33" s="78"/>
-      <c r="G33" s="79"/>
+      <c r="A33" s="96"/>
+      <c r="B33" s="97"/>
+      <c r="C33" s="97"/>
+      <c r="D33" s="97"/>
+      <c r="E33" s="97"/>
+      <c r="F33" s="97"/>
+      <c r="G33" s="98"/>
     </row>
     <row r="34" spans="1:7" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="77"/>
-      <c r="B34" s="78"/>
-      <c r="C34" s="78"/>
-      <c r="D34" s="78"/>
-      <c r="E34" s="78"/>
-      <c r="F34" s="78"/>
-      <c r="G34" s="79"/>
+      <c r="A34" s="96"/>
+      <c r="B34" s="97"/>
+      <c r="C34" s="97"/>
+      <c r="D34" s="97"/>
+      <c r="E34" s="97"/>
+      <c r="F34" s="97"/>
+      <c r="G34" s="98"/>
     </row>
     <row r="35" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="75" t="s">
+      <c r="A35" s="94" t="s">
         <v>10</v>
       </c>
       <c r="B35" s="71"/>
@@ -10784,33 +10833,35 @@
       <c r="D35" s="71"/>
       <c r="E35" s="71"/>
       <c r="F35" s="71"/>
-      <c r="G35" s="76"/>
+      <c r="G35" s="95"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="80"/>
+      <c r="A36" s="85"/>
       <c r="B36" s="69"/>
       <c r="C36" s="69"/>
       <c r="D36" s="69"/>
       <c r="E36" s="69"/>
       <c r="F36" s="69"/>
-      <c r="G36" s="81"/>
+      <c r="G36" s="86"/>
     </row>
     <row r="37" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="82"/>
-      <c r="B37" s="83"/>
-      <c r="C37" s="83"/>
-      <c r="D37" s="83"/>
-      <c r="E37" s="83"/>
-      <c r="F37" s="83"/>
-      <c r="G37" s="84"/>
+      <c r="A37" s="99"/>
+      <c r="B37" s="100"/>
+      <c r="C37" s="100"/>
+      <c r="D37" s="100"/>
+      <c r="E37" s="100"/>
+      <c r="F37" s="100"/>
+      <c r="G37" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="A33:G34"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="A36:G37"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
     <mergeCell ref="C29:G29"/>
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="A18:G18"/>
@@ -10823,13 +10874,11 @@
     <mergeCell ref="A26:G26"/>
     <mergeCell ref="C27:G27"/>
     <mergeCell ref="C28:G28"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="A33:G34"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="A36:G37"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Exemplo:_x000a_id -&gt; nome -&gt; categoria -&gt; ALL" sqref="C28:C31" xr:uid="{6749BA4D-A4C0-664A-8057-C07B807E371B}"/>
@@ -10899,95 +10948,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="99"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="82"/>
     </row>
     <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="100" t="s">
-        <v>217</v>
+      <c r="B2" s="83" t="s">
+        <v>214</v>
       </c>
       <c r="C2" s="68"/>
       <c r="D2" s="68"/>
       <c r="E2" s="68"/>
       <c r="F2" s="68"/>
-      <c r="G2" s="101"/>
+      <c r="G2" s="84"/>
     </row>
     <row r="3" spans="1:7" ht="46" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="85" t="s">
         <v>149</v>
       </c>
       <c r="C3" s="69"/>
       <c r="D3" s="69"/>
       <c r="E3" s="69"/>
       <c r="F3" s="69"/>
-      <c r="G3" s="81"/>
+      <c r="G3" s="86"/>
     </row>
     <row r="4" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="80" t="s">
+      <c r="B4" s="85" t="s">
         <v>51</v>
       </c>
       <c r="C4" s="69"/>
       <c r="D4" s="69"/>
       <c r="E4" s="69"/>
       <c r="F4" s="69"/>
-      <c r="G4" s="81"/>
+      <c r="G4" s="86"/>
     </row>
     <row r="5" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="80" t="s">
+      <c r="B5" s="85" t="s">
         <v>150</v>
       </c>
       <c r="C5" s="69"/>
       <c r="D5" s="69"/>
       <c r="E5" s="69"/>
       <c r="F5" s="69"/>
-      <c r="G5" s="81"/>
+      <c r="G5" s="86"/>
     </row>
     <row r="6" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="94" t="s">
+      <c r="B6" s="74"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="77" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="95"/>
-      <c r="G6" s="96"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="79"/>
     </row>
     <row r="7" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="35"/>
       <c r="G7" s="33"/>
     </row>
     <row r="8" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="85" t="s">
+      <c r="A8" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="86"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="87"/>
+      <c r="B8" s="89"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="90"/>
     </row>
     <row r="9" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
@@ -11167,7 +11216,7 @@
       <c r="G17" s="37"/>
     </row>
     <row r="18" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A18" s="88" t="s">
+      <c r="A18" s="91" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="63"/>
@@ -11187,57 +11236,57 @@
       <c r="C19" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="89" t="s">
+      <c r="D19" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="E19" s="89"/>
-      <c r="F19" s="89"/>
-      <c r="G19" s="89"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="92"/>
+      <c r="G19" s="92"/>
     </row>
     <row r="20" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="90"/>
-      <c r="E20" s="90"/>
-      <c r="F20" s="90"/>
-      <c r="G20" s="90"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="93"/>
+      <c r="F20" s="93"/>
+      <c r="G20" s="93"/>
     </row>
     <row r="21" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="90"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="90"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
     </row>
     <row r="22" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="90"/>
-      <c r="E22" s="90"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="90"/>
+      <c r="D22" s="93"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="93"/>
     </row>
     <row r="23" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="90"/>
-      <c r="E23" s="90"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="90"/>
+      <c r="D23" s="93"/>
+      <c r="E23" s="93"/>
+      <c r="F23" s="93"/>
+      <c r="G23" s="93"/>
     </row>
     <row r="24" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="90"/>
-      <c r="E24" s="90"/>
-      <c r="F24" s="90"/>
-      <c r="G24" s="90"/>
+      <c r="D24" s="93"/>
+      <c r="E24" s="93"/>
+      <c r="F24" s="93"/>
+      <c r="G24" s="93"/>
     </row>
     <row r="25" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="36"/>
@@ -11247,7 +11296,7 @@
       <c r="G25" s="33"/>
     </row>
     <row r="26" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A26" s="88" t="s">
+      <c r="A26" s="91" t="s">
         <v>29</v>
       </c>
       <c r="B26" s="63"/>
@@ -11264,51 +11313,51 @@
       <c r="B27" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="89" t="s">
+      <c r="C27" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="89"/>
-      <c r="E27" s="89"/>
-      <c r="F27" s="89"/>
-      <c r="G27" s="89"/>
+      <c r="D27" s="92"/>
+      <c r="E27" s="92"/>
+      <c r="F27" s="92"/>
+      <c r="G27" s="92"/>
     </row>
     <row r="28" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1</v>
       </c>
       <c r="B28" s="1"/>
-      <c r="C28" s="74" t="s">
+      <c r="C28" s="87" t="s">
         <v>160</v>
       </c>
-      <c r="D28" s="74"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="74"/>
-      <c r="G28" s="74"/>
+      <c r="D28" s="87"/>
+      <c r="E28" s="87"/>
+      <c r="F28" s="87"/>
+      <c r="G28" s="87"/>
     </row>
     <row r="29" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="74"/>
-      <c r="D29" s="74"/>
-      <c r="E29" s="74"/>
-      <c r="F29" s="74"/>
-      <c r="G29" s="74"/>
+      <c r="C29" s="87"/>
+      <c r="D29" s="87"/>
+      <c r="E29" s="87"/>
+      <c r="F29" s="87"/>
+      <c r="G29" s="87"/>
     </row>
     <row r="30" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="74"/>
-      <c r="D30" s="74"/>
-      <c r="E30" s="74"/>
-      <c r="F30" s="74"/>
-      <c r="G30" s="74"/>
+      <c r="C30" s="87"/>
+      <c r="D30" s="87"/>
+      <c r="E30" s="87"/>
+      <c r="F30" s="87"/>
+      <c r="G30" s="87"/>
     </row>
     <row r="31" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="G31" s="33"/>
     </row>
     <row r="32" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="75" t="s">
+      <c r="A32" s="94" t="s">
         <v>22</v>
       </c>
       <c r="B32" s="71"/>
@@ -11316,28 +11365,28 @@
       <c r="D32" s="71"/>
       <c r="E32" s="71"/>
       <c r="F32" s="71"/>
-      <c r="G32" s="76"/>
+      <c r="G32" s="95"/>
     </row>
     <row r="33" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="77"/>
-      <c r="B33" s="78"/>
-      <c r="C33" s="78"/>
-      <c r="D33" s="78"/>
-      <c r="E33" s="78"/>
-      <c r="F33" s="78"/>
-      <c r="G33" s="79"/>
+      <c r="A33" s="96"/>
+      <c r="B33" s="97"/>
+      <c r="C33" s="97"/>
+      <c r="D33" s="97"/>
+      <c r="E33" s="97"/>
+      <c r="F33" s="97"/>
+      <c r="G33" s="98"/>
     </row>
     <row r="34" spans="1:7" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="77"/>
-      <c r="B34" s="78"/>
-      <c r="C34" s="78"/>
-      <c r="D34" s="78"/>
-      <c r="E34" s="78"/>
-      <c r="F34" s="78"/>
-      <c r="G34" s="79"/>
+      <c r="A34" s="96"/>
+      <c r="B34" s="97"/>
+      <c r="C34" s="97"/>
+      <c r="D34" s="97"/>
+      <c r="E34" s="97"/>
+      <c r="F34" s="97"/>
+      <c r="G34" s="98"/>
     </row>
     <row r="35" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="75" t="s">
+      <c r="A35" s="94" t="s">
         <v>10</v>
       </c>
       <c r="B35" s="71"/>
@@ -11345,33 +11394,35 @@
       <c r="D35" s="71"/>
       <c r="E35" s="71"/>
       <c r="F35" s="71"/>
-      <c r="G35" s="76"/>
+      <c r="G35" s="95"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="80"/>
+      <c r="A36" s="85"/>
       <c r="B36" s="69"/>
       <c r="C36" s="69"/>
       <c r="D36" s="69"/>
       <c r="E36" s="69"/>
       <c r="F36" s="69"/>
-      <c r="G36" s="81"/>
+      <c r="G36" s="86"/>
     </row>
     <row r="37" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="82"/>
-      <c r="B37" s="83"/>
-      <c r="C37" s="83"/>
-      <c r="D37" s="83"/>
-      <c r="E37" s="83"/>
-      <c r="F37" s="83"/>
-      <c r="G37" s="84"/>
+      <c r="A37" s="99"/>
+      <c r="B37" s="100"/>
+      <c r="C37" s="100"/>
+      <c r="D37" s="100"/>
+      <c r="E37" s="100"/>
+      <c r="F37" s="100"/>
+      <c r="G37" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="A33:G34"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="A36:G37"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
     <mergeCell ref="C29:G29"/>
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="A18:G18"/>
@@ -11384,13 +11435,11 @@
     <mergeCell ref="A26:G26"/>
     <mergeCell ref="C27:G27"/>
     <mergeCell ref="C28:G28"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="A33:G34"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="A36:G37"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Colocar percentagem" sqref="B6" xr:uid="{A66D20F0-0782-6944-BA9C-7489AA303243}">
@@ -11448,8 +11497,8 @@
   </sheetPr>
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:F23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11461,152 +11510,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="80" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="99"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="82"/>
     </row>
     <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="107">
+      <c r="B2" s="122">
         <v>4</v>
       </c>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="108"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="123"/>
     </row>
     <row r="3" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="97" t="s">
         <v>161</v>
       </c>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="79"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="98"/>
     </row>
     <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="97" t="s">
         <v>162</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="79"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="98"/>
     </row>
     <row r="5" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="97" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="79"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="98"/>
     </row>
     <row r="6" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="78" t="s">
-        <v>211</v>
-      </c>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="79"/>
+      <c r="B6" s="97" t="s">
+        <v>208</v>
+      </c>
+      <c r="C6" s="97"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="98"/>
     </row>
     <row r="7" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="78" t="s">
+      <c r="B7" s="97" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="79"/>
+      <c r="C7" s="97"/>
+      <c r="D7" s="97"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="98"/>
     </row>
     <row r="8" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="B8" s="78" t="s">
+      <c r="B8" s="97" t="s">
         <v>163</v>
       </c>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="79"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="97"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="98"/>
     </row>
     <row r="9" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="B9" s="78"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="79"/>
+      <c r="B9" s="97"/>
+      <c r="C9" s="97"/>
+      <c r="D9" s="97"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="98"/>
     </row>
     <row r="10" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="109">
+      <c r="B10" s="124">
         <v>0.5</v>
       </c>
-      <c r="C10" s="78"/>
-      <c r="D10" s="78" t="s">
+      <c r="C10" s="97"/>
+      <c r="D10" s="97" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="78"/>
-      <c r="F10" s="79"/>
+      <c r="E10" s="97"/>
+      <c r="F10" s="98"/>
     </row>
     <row r="11" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="105" t="s">
+      <c r="B11" s="120" t="s">
         <v>164</v>
       </c>
-      <c r="C11" s="105"/>
-      <c r="D11" s="105"/>
-      <c r="E11" s="105"/>
-      <c r="F11" s="106"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
+      <c r="F11" s="121"/>
     </row>
     <row r="12" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="113"/>
-      <c r="B12" s="114"/>
-      <c r="C12" s="114"/>
-      <c r="D12" s="114"/>
-      <c r="E12" s="114"/>
-      <c r="F12" s="115"/>
+      <c r="A12" s="111"/>
+      <c r="B12" s="112"/>
+      <c r="C12" s="112"/>
+      <c r="D12" s="112"/>
+      <c r="E12" s="112"/>
+      <c r="F12" s="113"/>
     </row>
     <row r="13" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="85" t="s">
+      <c r="A13" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="86"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="87"/>
+      <c r="B13" s="89"/>
+      <c r="C13" s="89"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="90"/>
     </row>
     <row r="14" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
@@ -11773,22 +11822,22 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="113"/>
-      <c r="B23" s="114"/>
-      <c r="C23" s="114"/>
-      <c r="D23" s="114"/>
-      <c r="E23" s="114"/>
-      <c r="F23" s="115"/>
+      <c r="A23" s="111"/>
+      <c r="B23" s="112"/>
+      <c r="C23" s="112"/>
+      <c r="D23" s="112"/>
+      <c r="E23" s="112"/>
+      <c r="F23" s="113"/>
     </row>
     <row r="24" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="85" t="s">
+      <c r="A24" s="88" t="s">
         <v>77</v>
       </c>
-      <c r="B24" s="86"/>
-      <c r="C24" s="86"/>
-      <c r="D24" s="86"/>
-      <c r="E24" s="86"/>
-      <c r="F24" s="87"/>
+      <c r="B24" s="89"/>
+      <c r="C24" s="89"/>
+      <c r="D24" s="89"/>
+      <c r="E24" s="89"/>
+      <c r="F24" s="90"/>
     </row>
     <row r="25" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="39" t="s">
@@ -11858,7 +11907,7 @@
         <v>84</v>
       </c>
       <c r="E28" s="27" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="F28" s="37">
         <v>20</v>
@@ -11866,7 +11915,7 @@
     </row>
     <row r="29" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A29" s="36" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B29" s="56"/>
       <c r="C29" s="27" t="s">
@@ -11876,15 +11925,15 @@
         <v>84</v>
       </c>
       <c r="E29" s="27" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="F29" s="37">
         <v>1000</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A30" s="125" t="s">
-        <v>244</v>
+      <c r="A30" s="36" t="s">
+        <v>238</v>
       </c>
       <c r="C30" s="27" t="s">
         <v>80</v>
@@ -11893,29 +11942,29 @@
         <v>84</v>
       </c>
       <c r="E30" s="27" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F30" s="37">
         <v>700</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="113"/>
-      <c r="B31" s="114"/>
-      <c r="C31" s="114"/>
-      <c r="D31" s="114"/>
-      <c r="E31" s="114"/>
-      <c r="F31" s="115"/>
+      <c r="A31" s="111"/>
+      <c r="B31" s="112"/>
+      <c r="C31" s="112"/>
+      <c r="D31" s="112"/>
+      <c r="E31" s="112"/>
+      <c r="F31" s="113"/>
     </row>
     <row r="32" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="85" t="s">
+      <c r="A32" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="B32" s="86"/>
-      <c r="C32" s="86"/>
-      <c r="D32" s="86"/>
-      <c r="E32" s="86"/>
-      <c r="F32" s="87"/>
+      <c r="B32" s="89"/>
+      <c r="C32" s="89"/>
+      <c r="D32" s="89"/>
+      <c r="E32" s="89"/>
+      <c r="F32" s="90"/>
     </row>
     <row r="33" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A33" s="39" t="s">
@@ -11927,119 +11976,126 @@
       <c r="C33" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="D33" s="116" t="s">
+      <c r="D33" s="106" t="s">
         <v>65</v>
       </c>
-      <c r="E33" s="116"/>
-      <c r="F33" s="117"/>
+      <c r="E33" s="106"/>
+      <c r="F33" s="107"/>
     </row>
     <row r="34" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A34" s="39"/>
       <c r="B34" s="40"/>
       <c r="C34" s="40"/>
-      <c r="D34" s="118"/>
-      <c r="E34" s="118"/>
-      <c r="F34" s="119"/>
+      <c r="D34" s="109"/>
+      <c r="E34" s="109"/>
+      <c r="F34" s="110"/>
     </row>
     <row r="35" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A35" s="39"/>
       <c r="B35" s="40"/>
       <c r="C35" s="40"/>
-      <c r="D35" s="118"/>
-      <c r="E35" s="118"/>
-      <c r="F35" s="119"/>
+      <c r="D35" s="109"/>
+      <c r="E35" s="109"/>
+      <c r="F35" s="110"/>
     </row>
     <row r="36" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A36" s="39"/>
       <c r="B36" s="40"/>
       <c r="C36" s="40"/>
-      <c r="D36" s="118"/>
-      <c r="E36" s="118"/>
-      <c r="F36" s="119"/>
+      <c r="D36" s="109"/>
+      <c r="E36" s="109"/>
+      <c r="F36" s="110"/>
     </row>
     <row r="37" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A37" s="41"/>
       <c r="B37" s="42"/>
       <c r="C37" s="42"/>
-      <c r="D37" s="120"/>
-      <c r="E37" s="120"/>
-      <c r="F37" s="121"/>
+      <c r="D37" s="115"/>
+      <c r="E37" s="115"/>
+      <c r="F37" s="116"/>
     </row>
     <row r="38" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="110"/>
-      <c r="B38" s="111"/>
-      <c r="C38" s="111"/>
-      <c r="D38" s="111"/>
-      <c r="E38" s="111"/>
-      <c r="F38" s="112"/>
+      <c r="A38" s="117"/>
+      <c r="B38" s="118"/>
+      <c r="C38" s="118"/>
+      <c r="D38" s="118"/>
+      <c r="E38" s="118"/>
+      <c r="F38" s="119"/>
     </row>
     <row r="39" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="85" t="s">
+      <c r="A39" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="B39" s="86"/>
-      <c r="C39" s="86"/>
-      <c r="D39" s="86"/>
-      <c r="E39" s="86"/>
-      <c r="F39" s="87"/>
+      <c r="B39" s="89"/>
+      <c r="C39" s="89"/>
+      <c r="D39" s="89"/>
+      <c r="E39" s="89"/>
+      <c r="F39" s="90"/>
     </row>
     <row r="40" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="122"/>
-      <c r="B40" s="116"/>
-      <c r="C40" s="116"/>
-      <c r="D40" s="116"/>
-      <c r="E40" s="116"/>
-      <c r="F40" s="117"/>
+      <c r="A40" s="105"/>
+      <c r="B40" s="106"/>
+      <c r="C40" s="106"/>
+      <c r="D40" s="106"/>
+      <c r="E40" s="106"/>
+      <c r="F40" s="107"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="123"/>
-      <c r="B41" s="118"/>
-      <c r="C41" s="118"/>
-      <c r="D41" s="118"/>
-      <c r="E41" s="118"/>
-      <c r="F41" s="119"/>
+      <c r="A41" s="108"/>
+      <c r="B41" s="109"/>
+      <c r="C41" s="109"/>
+      <c r="D41" s="109"/>
+      <c r="E41" s="109"/>
+      <c r="F41" s="110"/>
     </row>
     <row r="42" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="113"/>
-      <c r="B42" s="114"/>
-      <c r="C42" s="114"/>
-      <c r="D42" s="114"/>
-      <c r="E42" s="114"/>
-      <c r="F42" s="115"/>
+      <c r="A42" s="111"/>
+      <c r="B42" s="112"/>
+      <c r="C42" s="112"/>
+      <c r="D42" s="112"/>
+      <c r="E42" s="112"/>
+      <c r="F42" s="113"/>
     </row>
     <row r="43" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="85" t="s">
+      <c r="A43" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="B43" s="86"/>
-      <c r="C43" s="86"/>
-      <c r="D43" s="86"/>
-      <c r="E43" s="86"/>
-      <c r="F43" s="87"/>
+      <c r="B43" s="89"/>
+      <c r="C43" s="89"/>
+      <c r="D43" s="89"/>
+      <c r="E43" s="89"/>
+      <c r="F43" s="90"/>
     </row>
     <row r="44" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="122"/>
-      <c r="B44" s="116"/>
-      <c r="C44" s="116"/>
-      <c r="D44" s="116"/>
-      <c r="E44" s="116"/>
-      <c r="F44" s="117"/>
+      <c r="A44" s="105"/>
+      <c r="B44" s="106"/>
+      <c r="C44" s="106"/>
+      <c r="D44" s="106"/>
+      <c r="E44" s="106"/>
+      <c r="F44" s="107"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="124"/>
-      <c r="B45" s="120"/>
-      <c r="C45" s="120"/>
-      <c r="D45" s="120"/>
-      <c r="E45" s="120"/>
-      <c r="F45" s="121"/>
+      <c r="A45" s="114"/>
+      <c r="B45" s="115"/>
+      <c r="C45" s="115"/>
+      <c r="D45" s="115"/>
+      <c r="E45" s="115"/>
+      <c r="F45" s="116"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="A40:F41"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="A44:F45"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
     <mergeCell ref="A38:F38"/>
     <mergeCell ref="A12:F12"/>
     <mergeCell ref="A13:F13"/>
@@ -12052,18 +12108,11 @@
     <mergeCell ref="D35:F35"/>
     <mergeCell ref="D36:F36"/>
     <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="A40:F41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="A44:F45"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <dataValidations count="5">
@@ -12138,8 +12187,8 @@
   </sheetPr>
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39:F39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12152,152 +12201,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="80" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="99"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="82"/>
     </row>
     <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="107" t="s">
-        <v>218</v>
-      </c>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="108"/>
+      <c r="B2" s="122" t="s">
+        <v>215</v>
+      </c>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="123"/>
     </row>
     <row r="3" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="97" t="s">
         <v>183</v>
       </c>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="118"/>
-      <c r="F3" s="119"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="110"/>
     </row>
     <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="97" t="s">
         <v>162</v>
       </c>
-      <c r="C4" s="118"/>
-      <c r="D4" s="118"/>
-      <c r="E4" s="118"/>
-      <c r="F4" s="119"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="110"/>
     </row>
     <row r="5" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="97" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="118"/>
-      <c r="D5" s="118"/>
-      <c r="E5" s="118"/>
-      <c r="F5" s="119"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="110"/>
     </row>
     <row r="6" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="78" t="s">
-        <v>206</v>
-      </c>
-      <c r="C6" s="118"/>
-      <c r="D6" s="118"/>
-      <c r="E6" s="118"/>
-      <c r="F6" s="119"/>
+      <c r="B6" s="97" t="s">
+        <v>204</v>
+      </c>
+      <c r="C6" s="109"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="110"/>
     </row>
     <row r="7" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="78" t="s">
+      <c r="B7" s="97" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="118"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="119"/>
+      <c r="C7" s="109"/>
+      <c r="D7" s="109"/>
+      <c r="E7" s="109"/>
+      <c r="F7" s="110"/>
     </row>
     <row r="8" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="B8" s="78" t="s">
+      <c r="B8" s="97" t="s">
         <v>163</v>
       </c>
-      <c r="C8" s="118"/>
-      <c r="D8" s="118"/>
-      <c r="E8" s="118"/>
-      <c r="F8" s="119"/>
+      <c r="C8" s="109"/>
+      <c r="D8" s="109"/>
+      <c r="E8" s="109"/>
+      <c r="F8" s="110"/>
     </row>
     <row r="9" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="B9" s="118"/>
-      <c r="C9" s="118"/>
-      <c r="D9" s="118"/>
-      <c r="E9" s="118"/>
-      <c r="F9" s="119"/>
+      <c r="B9" s="109"/>
+      <c r="C9" s="109"/>
+      <c r="D9" s="109"/>
+      <c r="E9" s="109"/>
+      <c r="F9" s="110"/>
     </row>
     <row r="10" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="109">
+      <c r="B10" s="124">
         <v>0.7</v>
       </c>
-      <c r="C10" s="78"/>
-      <c r="D10" s="78" t="s">
+      <c r="C10" s="97"/>
+      <c r="D10" s="97" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="78"/>
-      <c r="F10" s="79"/>
+      <c r="E10" s="97"/>
+      <c r="F10" s="98"/>
     </row>
     <row r="11" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="105" t="s">
+      <c r="B11" s="120" t="s">
         <v>164</v>
       </c>
-      <c r="C11" s="120"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="121"/>
+      <c r="C11" s="115"/>
+      <c r="D11" s="115"/>
+      <c r="E11" s="115"/>
+      <c r="F11" s="116"/>
     </row>
     <row r="12" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="113"/>
-      <c r="B12" s="114"/>
-      <c r="C12" s="114"/>
-      <c r="D12" s="114"/>
-      <c r="E12" s="114"/>
-      <c r="F12" s="115"/>
+      <c r="A12" s="111"/>
+      <c r="B12" s="112"/>
+      <c r="C12" s="112"/>
+      <c r="D12" s="112"/>
+      <c r="E12" s="112"/>
+      <c r="F12" s="113"/>
     </row>
     <row r="13" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="85" t="s">
+      <c r="A13" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="86"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="87"/>
+      <c r="B13" s="89"/>
+      <c r="C13" s="89"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="90"/>
     </row>
     <row r="14" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
@@ -12342,14 +12391,14 @@
         <v>2</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C16" s="27" t="s">
         <v>76</v>
       </c>
       <c r="D16" s="27"/>
       <c r="E16" s="27" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F16" s="37">
         <v>3</v>
@@ -12360,14 +12409,14 @@
         <v>3</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C17" s="27" t="s">
         <v>76</v>
       </c>
       <c r="D17" s="27"/>
       <c r="E17" s="27" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F17" s="37">
         <v>4</v>
@@ -12378,14 +12427,14 @@
         <v>4</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C18" s="27" t="s">
         <v>76</v>
       </c>
       <c r="D18" s="27"/>
       <c r="E18" s="27" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F18" s="37">
         <v>1</v>
@@ -12486,14 +12535,14 @@
         <v>10</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C24" s="27" t="s">
         <v>76</v>
       </c>
       <c r="D24" s="27"/>
       <c r="E24" s="27" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="F24" s="37">
         <v>1</v>
@@ -12516,22 +12565,22 @@
       <c r="F26" s="55"/>
     </row>
     <row r="27" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="113"/>
-      <c r="B27" s="114"/>
-      <c r="C27" s="114"/>
-      <c r="D27" s="114"/>
-      <c r="E27" s="114"/>
-      <c r="F27" s="115"/>
+      <c r="A27" s="111"/>
+      <c r="B27" s="112"/>
+      <c r="C27" s="112"/>
+      <c r="D27" s="112"/>
+      <c r="E27" s="112"/>
+      <c r="F27" s="113"/>
     </row>
     <row r="28" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="85" t="s">
+      <c r="A28" s="88" t="s">
         <v>77</v>
       </c>
-      <c r="B28" s="86"/>
-      <c r="C28" s="86"/>
-      <c r="D28" s="86"/>
-      <c r="E28" s="86"/>
-      <c r="F28" s="87"/>
+      <c r="B28" s="89"/>
+      <c r="C28" s="89"/>
+      <c r="D28" s="89"/>
+      <c r="E28" s="89"/>
+      <c r="F28" s="90"/>
     </row>
     <row r="29" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A29" s="39" t="s">
@@ -12565,15 +12614,15 @@
         <v>84</v>
       </c>
       <c r="E30" s="27" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F30" s="37" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A31" s="36" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B31" s="27"/>
       <c r="C31" s="27" t="s">
@@ -12581,10 +12630,10 @@
       </c>
       <c r="D31" s="27"/>
       <c r="E31" s="27" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="F31" s="37" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="21" x14ac:dyDescent="0.25">
@@ -12604,22 +12653,22 @@
       <c r="F33" s="43"/>
     </row>
     <row r="34" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="113"/>
-      <c r="B34" s="114"/>
-      <c r="C34" s="114"/>
-      <c r="D34" s="114"/>
-      <c r="E34" s="114"/>
-      <c r="F34" s="115"/>
+      <c r="A34" s="111"/>
+      <c r="B34" s="112"/>
+      <c r="C34" s="112"/>
+      <c r="D34" s="112"/>
+      <c r="E34" s="112"/>
+      <c r="F34" s="113"/>
     </row>
     <row r="35" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="85" t="s">
+      <c r="A35" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="B35" s="86"/>
-      <c r="C35" s="86"/>
-      <c r="D35" s="86"/>
-      <c r="E35" s="86"/>
-      <c r="F35" s="87"/>
+      <c r="B35" s="89"/>
+      <c r="C35" s="89"/>
+      <c r="D35" s="89"/>
+      <c r="E35" s="89"/>
+      <c r="F35" s="90"/>
     </row>
     <row r="36" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A36" s="39" t="s">
@@ -12631,127 +12680,114 @@
       <c r="C36" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="D36" s="116" t="s">
+      <c r="D36" s="106" t="s">
         <v>65</v>
       </c>
-      <c r="E36" s="116"/>
-      <c r="F36" s="117"/>
+      <c r="E36" s="106"/>
+      <c r="F36" s="107"/>
     </row>
     <row r="37" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A37" s="39"/>
       <c r="B37" s="40"/>
       <c r="C37" s="40"/>
-      <c r="D37" s="118"/>
-      <c r="E37" s="118"/>
-      <c r="F37" s="119"/>
+      <c r="D37" s="109"/>
+      <c r="E37" s="109"/>
+      <c r="F37" s="110"/>
     </row>
     <row r="38" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A38" s="39"/>
       <c r="B38" s="40"/>
       <c r="C38" s="40"/>
-      <c r="D38" s="118"/>
-      <c r="E38" s="118"/>
-      <c r="F38" s="119"/>
+      <c r="D38" s="109"/>
+      <c r="E38" s="109"/>
+      <c r="F38" s="110"/>
     </row>
     <row r="39" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A39" s="39"/>
       <c r="B39" s="40"/>
       <c r="C39" s="40"/>
-      <c r="D39" s="118"/>
-      <c r="E39" s="118"/>
-      <c r="F39" s="119"/>
+      <c r="D39" s="109"/>
+      <c r="E39" s="109"/>
+      <c r="F39" s="110"/>
     </row>
     <row r="40" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A40" s="41"/>
       <c r="B40" s="42"/>
       <c r="C40" s="42"/>
-      <c r="D40" s="120"/>
-      <c r="E40" s="120"/>
-      <c r="F40" s="121"/>
+      <c r="D40" s="115"/>
+      <c r="E40" s="115"/>
+      <c r="F40" s="116"/>
     </row>
     <row r="41" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="110"/>
-      <c r="B41" s="111"/>
-      <c r="C41" s="111"/>
-      <c r="D41" s="111"/>
-      <c r="E41" s="111"/>
-      <c r="F41" s="112"/>
+      <c r="A41" s="117"/>
+      <c r="B41" s="118"/>
+      <c r="C41" s="118"/>
+      <c r="D41" s="118"/>
+      <c r="E41" s="118"/>
+      <c r="F41" s="119"/>
     </row>
     <row r="42" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="85" t="s">
+      <c r="A42" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="B42" s="86"/>
-      <c r="C42" s="86"/>
-      <c r="D42" s="86"/>
-      <c r="E42" s="86"/>
-      <c r="F42" s="87"/>
+      <c r="B42" s="89"/>
+      <c r="C42" s="89"/>
+      <c r="D42" s="89"/>
+      <c r="E42" s="89"/>
+      <c r="F42" s="90"/>
     </row>
     <row r="43" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="122"/>
-      <c r="B43" s="116"/>
-      <c r="C43" s="116"/>
-      <c r="D43" s="116"/>
-      <c r="E43" s="116"/>
-      <c r="F43" s="117"/>
+      <c r="A43" s="105"/>
+      <c r="B43" s="106"/>
+      <c r="C43" s="106"/>
+      <c r="D43" s="106"/>
+      <c r="E43" s="106"/>
+      <c r="F43" s="107"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="123"/>
-      <c r="B44" s="118"/>
-      <c r="C44" s="118"/>
-      <c r="D44" s="118"/>
-      <c r="E44" s="118"/>
-      <c r="F44" s="119"/>
+      <c r="A44" s="108"/>
+      <c r="B44" s="109"/>
+      <c r="C44" s="109"/>
+      <c r="D44" s="109"/>
+      <c r="E44" s="109"/>
+      <c r="F44" s="110"/>
     </row>
     <row r="45" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="113"/>
-      <c r="B45" s="114"/>
-      <c r="C45" s="114"/>
-      <c r="D45" s="114"/>
-      <c r="E45" s="114"/>
-      <c r="F45" s="115"/>
+      <c r="A45" s="111"/>
+      <c r="B45" s="112"/>
+      <c r="C45" s="112"/>
+      <c r="D45" s="112"/>
+      <c r="E45" s="112"/>
+      <c r="F45" s="113"/>
     </row>
     <row r="46" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="85" t="s">
+      <c r="A46" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="B46" s="86"/>
-      <c r="C46" s="86"/>
-      <c r="D46" s="86"/>
-      <c r="E46" s="86"/>
-      <c r="F46" s="87"/>
+      <c r="B46" s="89"/>
+      <c r="C46" s="89"/>
+      <c r="D46" s="89"/>
+      <c r="E46" s="89"/>
+      <c r="F46" s="90"/>
     </row>
     <row r="47" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="122"/>
-      <c r="B47" s="116"/>
-      <c r="C47" s="116"/>
-      <c r="D47" s="116"/>
-      <c r="E47" s="116"/>
-      <c r="F47" s="117"/>
+      <c r="A47" s="105"/>
+      <c r="B47" s="106"/>
+      <c r="C47" s="106"/>
+      <c r="D47" s="106"/>
+      <c r="E47" s="106"/>
+      <c r="F47" s="107"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="124"/>
-      <c r="B48" s="120"/>
-      <c r="C48" s="120"/>
-      <c r="D48" s="120"/>
-      <c r="E48" s="120"/>
-      <c r="F48" s="121"/>
+      <c r="A48" s="114"/>
+      <c r="B48" s="115"/>
+      <c r="C48" s="115"/>
+      <c r="D48" s="115"/>
+      <c r="E48" s="115"/>
+      <c r="F48" s="116"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A43:F44"/>
-    <mergeCell ref="A47:F48"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="A46:F46"/>
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A13:F13"/>
@@ -12768,6 +12804,19 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:F10"/>
     <mergeCell ref="A34:F34"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A43:F44"/>
+    <mergeCell ref="A47:F48"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="A46:F46"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Colocar percentagem_x000a_" sqref="B10:C10" xr:uid="{C44B2955-AB0E-5E4A-9201-AF72D21AA99A}"/>
@@ -12841,8 +12890,8 @@
   </sheetPr>
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:F29"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12853,152 +12902,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="80" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="99"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="82"/>
     </row>
     <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="107" t="s">
-        <v>219</v>
-      </c>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="108"/>
+      <c r="B2" s="122" t="s">
+        <v>216</v>
+      </c>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="123"/>
     </row>
     <row r="3" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="97" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="79"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="98"/>
     </row>
     <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="97" t="s">
         <v>162</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="79"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="98"/>
     </row>
     <row r="5" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="97" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="79"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="98"/>
     </row>
     <row r="6" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="78" t="s">
-        <v>212</v>
-      </c>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="79"/>
+      <c r="B6" s="97" t="s">
+        <v>209</v>
+      </c>
+      <c r="C6" s="97"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="98"/>
     </row>
     <row r="7" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="78" t="s">
+      <c r="B7" s="97" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="79"/>
+      <c r="C7" s="97"/>
+      <c r="D7" s="97"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="98"/>
     </row>
     <row r="8" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="B8" s="78" t="s">
+      <c r="B8" s="97" t="s">
         <v>163</v>
       </c>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="79"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="97"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="98"/>
     </row>
     <row r="9" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="B9" s="78"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="79"/>
+      <c r="B9" s="97"/>
+      <c r="C9" s="97"/>
+      <c r="D9" s="97"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="98"/>
     </row>
     <row r="10" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="109">
+      <c r="B10" s="124">
         <v>0.5</v>
       </c>
-      <c r="C10" s="78"/>
-      <c r="D10" s="78" t="s">
+      <c r="C10" s="97"/>
+      <c r="D10" s="97" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="78"/>
-      <c r="F10" s="79"/>
+      <c r="E10" s="97"/>
+      <c r="F10" s="98"/>
     </row>
     <row r="11" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="105" t="s">
+      <c r="B11" s="120" t="s">
         <v>164</v>
       </c>
-      <c r="C11" s="105"/>
-      <c r="D11" s="105"/>
-      <c r="E11" s="105"/>
-      <c r="F11" s="106"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
+      <c r="F11" s="121"/>
     </row>
     <row r="12" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="113"/>
-      <c r="B12" s="114"/>
-      <c r="C12" s="114"/>
-      <c r="D12" s="114"/>
-      <c r="E12" s="114"/>
-      <c r="F12" s="115"/>
+      <c r="A12" s="111"/>
+      <c r="B12" s="112"/>
+      <c r="C12" s="112"/>
+      <c r="D12" s="112"/>
+      <c r="E12" s="112"/>
+      <c r="F12" s="113"/>
     </row>
     <row r="13" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="85" t="s">
+      <c r="A13" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="86"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="87"/>
+      <c r="B13" s="89"/>
+      <c r="C13" s="89"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="90"/>
     </row>
     <row r="14" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
@@ -13068,7 +13117,7 @@
       </c>
       <c r="D17" s="27"/>
       <c r="E17" s="58" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="F17" s="37">
         <v>2</v>
@@ -13079,14 +13128,14 @@
         <v>4</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C18" s="27" t="s">
         <v>76</v>
       </c>
       <c r="D18" s="27"/>
       <c r="E18" s="27" t="s">
-        <v>174</v>
+        <v>245</v>
       </c>
       <c r="F18" s="37">
         <v>1</v>
@@ -13115,36 +13164,36 @@
         <v>7</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>194</v>
+        <v>246</v>
       </c>
       <c r="C20" s="27" t="s">
         <v>76</v>
       </c>
       <c r="D20" s="27"/>
       <c r="E20" s="27" t="s">
-        <v>199</v>
+        <v>247</v>
       </c>
       <c r="F20" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="113"/>
-      <c r="B21" s="114"/>
-      <c r="C21" s="114"/>
-      <c r="D21" s="114"/>
-      <c r="E21" s="114"/>
-      <c r="F21" s="115"/>
+      <c r="A21" s="111"/>
+      <c r="B21" s="112"/>
+      <c r="C21" s="112"/>
+      <c r="D21" s="112"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="113"/>
     </row>
     <row r="22" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="85" t="s">
+      <c r="A22" s="88" t="s">
         <v>77</v>
       </c>
-      <c r="B22" s="86"/>
-      <c r="C22" s="86"/>
-      <c r="D22" s="86"/>
-      <c r="E22" s="86"/>
-      <c r="F22" s="87"/>
+      <c r="B22" s="89"/>
+      <c r="C22" s="89"/>
+      <c r="D22" s="89"/>
+      <c r="E22" s="89"/>
+      <c r="F22" s="90"/>
     </row>
     <row r="23" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="39" t="s">
@@ -13169,7 +13218,7 @@
     </row>
     <row r="24" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="36" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B24" s="27"/>
       <c r="C24" s="27" t="s">
@@ -13179,7 +13228,7 @@
         <v>84</v>
       </c>
       <c r="E24" s="27" t="s">
-        <v>205</v>
+        <v>248</v>
       </c>
       <c r="F24" s="37">
         <v>100</v>
@@ -13187,20 +13236,18 @@
     </row>
     <row r="25" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="36" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="B25" s="27"/>
       <c r="C25" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="D25" s="27" t="s">
-        <v>86</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="D25" s="27"/>
       <c r="E25" s="27" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="F25" s="37">
-        <v>210304</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="21" x14ac:dyDescent="0.25">
@@ -13220,22 +13267,22 @@
       <c r="F27" s="43"/>
     </row>
     <row r="28" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="113"/>
-      <c r="B28" s="114"/>
-      <c r="C28" s="114"/>
-      <c r="D28" s="114"/>
-      <c r="E28" s="114"/>
-      <c r="F28" s="115"/>
+      <c r="A28" s="111"/>
+      <c r="B28" s="112"/>
+      <c r="C28" s="112"/>
+      <c r="D28" s="112"/>
+      <c r="E28" s="112"/>
+      <c r="F28" s="113"/>
     </row>
     <row r="29" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="85" t="s">
+      <c r="A29" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="86"/>
-      <c r="C29" s="86"/>
-      <c r="D29" s="86"/>
-      <c r="E29" s="86"/>
-      <c r="F29" s="87"/>
+      <c r="B29" s="89"/>
+      <c r="C29" s="89"/>
+      <c r="D29" s="89"/>
+      <c r="E29" s="89"/>
+      <c r="F29" s="90"/>
     </row>
     <row r="30" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="39" t="s">
@@ -13247,114 +13294,131 @@
       <c r="C30" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="D30" s="116" t="s">
+      <c r="D30" s="106" t="s">
         <v>65</v>
       </c>
-      <c r="E30" s="116"/>
-      <c r="F30" s="117"/>
+      <c r="E30" s="106"/>
+      <c r="F30" s="107"/>
     </row>
     <row r="31" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A31" s="39"/>
       <c r="B31" s="40"/>
       <c r="C31" s="40"/>
-      <c r="D31" s="118"/>
-      <c r="E31" s="118"/>
-      <c r="F31" s="119"/>
+      <c r="D31" s="109"/>
+      <c r="E31" s="109"/>
+      <c r="F31" s="110"/>
     </row>
     <row r="32" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A32" s="39"/>
       <c r="B32" s="40"/>
       <c r="C32" s="40"/>
-      <c r="D32" s="118"/>
-      <c r="E32" s="118"/>
-      <c r="F32" s="119"/>
+      <c r="D32" s="109"/>
+      <c r="E32" s="109"/>
+      <c r="F32" s="110"/>
     </row>
     <row r="33" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A33" s="39"/>
       <c r="B33" s="40"/>
       <c r="C33" s="40"/>
-      <c r="D33" s="118"/>
-      <c r="E33" s="118"/>
-      <c r="F33" s="119"/>
+      <c r="D33" s="109"/>
+      <c r="E33" s="109"/>
+      <c r="F33" s="110"/>
     </row>
     <row r="34" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A34" s="41"/>
       <c r="B34" s="42"/>
       <c r="C34" s="42"/>
-      <c r="D34" s="120"/>
-      <c r="E34" s="120"/>
-      <c r="F34" s="121"/>
+      <c r="D34" s="115"/>
+      <c r="E34" s="115"/>
+      <c r="F34" s="116"/>
     </row>
     <row r="35" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="110"/>
-      <c r="B35" s="111"/>
-      <c r="C35" s="111"/>
-      <c r="D35" s="111"/>
-      <c r="E35" s="111"/>
-      <c r="F35" s="112"/>
+      <c r="A35" s="117"/>
+      <c r="B35" s="118"/>
+      <c r="C35" s="118"/>
+      <c r="D35" s="118"/>
+      <c r="E35" s="118"/>
+      <c r="F35" s="119"/>
     </row>
     <row r="36" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="85" t="s">
+      <c r="A36" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="B36" s="86"/>
-      <c r="C36" s="86"/>
-      <c r="D36" s="86"/>
-      <c r="E36" s="86"/>
-      <c r="F36" s="87"/>
+      <c r="B36" s="89"/>
+      <c r="C36" s="89"/>
+      <c r="D36" s="89"/>
+      <c r="E36" s="89"/>
+      <c r="F36" s="90"/>
     </row>
     <row r="37" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="122"/>
-      <c r="B37" s="116"/>
-      <c r="C37" s="116"/>
-      <c r="D37" s="116"/>
-      <c r="E37" s="116"/>
-      <c r="F37" s="117"/>
+      <c r="A37" s="105"/>
+      <c r="B37" s="106"/>
+      <c r="C37" s="106"/>
+      <c r="D37" s="106"/>
+      <c r="E37" s="106"/>
+      <c r="F37" s="107"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="123"/>
-      <c r="B38" s="118"/>
-      <c r="C38" s="118"/>
-      <c r="D38" s="118"/>
-      <c r="E38" s="118"/>
-      <c r="F38" s="119"/>
+      <c r="A38" s="108"/>
+      <c r="B38" s="109"/>
+      <c r="C38" s="109"/>
+      <c r="D38" s="109"/>
+      <c r="E38" s="109"/>
+      <c r="F38" s="110"/>
     </row>
     <row r="39" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="113"/>
-      <c r="B39" s="114"/>
-      <c r="C39" s="114"/>
-      <c r="D39" s="114"/>
-      <c r="E39" s="114"/>
-      <c r="F39" s="115"/>
+      <c r="A39" s="111"/>
+      <c r="B39" s="112"/>
+      <c r="C39" s="112"/>
+      <c r="D39" s="112"/>
+      <c r="E39" s="112"/>
+      <c r="F39" s="113"/>
     </row>
     <row r="40" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="85" t="s">
+      <c r="A40" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="B40" s="86"/>
-      <c r="C40" s="86"/>
-      <c r="D40" s="86"/>
-      <c r="E40" s="86"/>
-      <c r="F40" s="87"/>
+      <c r="B40" s="89"/>
+      <c r="C40" s="89"/>
+      <c r="D40" s="89"/>
+      <c r="E40" s="89"/>
+      <c r="F40" s="90"/>
     </row>
     <row r="41" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="122"/>
-      <c r="B41" s="116"/>
-      <c r="C41" s="116"/>
-      <c r="D41" s="116"/>
-      <c r="E41" s="116"/>
-      <c r="F41" s="117"/>
+      <c r="A41" s="105"/>
+      <c r="B41" s="106"/>
+      <c r="C41" s="106"/>
+      <c r="D41" s="106"/>
+      <c r="E41" s="106"/>
+      <c r="F41" s="107"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="124"/>
-      <c r="B42" s="120"/>
-      <c r="C42" s="120"/>
-      <c r="D42" s="120"/>
-      <c r="E42" s="120"/>
-      <c r="F42" s="121"/>
+      <c r="A42" s="114"/>
+      <c r="B42" s="115"/>
+      <c r="C42" s="115"/>
+      <c r="D42" s="115"/>
+      <c r="E42" s="115"/>
+      <c r="F42" s="116"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="A37:F38"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="A41:F42"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D34:F34"/>
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B2:F2"/>
@@ -13367,23 +13431,6 @@
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:F10"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="A37:F38"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="A41:F42"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Colocar percentagem_x000a_" sqref="B10:C10" xr:uid="{8EDB03EC-30FB-484C-ACBE-DF33B9366718}"/>
@@ -13451,9 +13498,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13595,26 +13645,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30DE7E78-AB24-4BCB-A51F-77E5C10364A7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FCF46D4-6C3F-4211-BBB9-5DE005064C3C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="6597237e-e321-437a-ab0e-fe3e3f709099"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -13638,9 +13677,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FCF46D4-6C3F-4211-BBB9-5DE005064C3C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30DE7E78-AB24-4BCB-A51F-77E5C10364A7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="6597237e-e321-437a-ab0e-fe3e3f709099"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/docs/documentacao.xlsx
+++ b/docs/documentacao.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaobraganca/Desktop/ParallelsShared/GlobalTech_ETL/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{993497CA-D970-9149-A29C-958B44DD4342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB3BDE93-A855-9149-992D-5E259E321053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="22500" firstSheet="1" activeTab="9" xr2:uid="{1C0ABE59-C842-1448-8BFE-1E96A6C9A910}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="18000" windowHeight="22500" xr2:uid="{1C0ABE59-C842-1448-8BFE-1E96A6C9A910}"/>
   </bookViews>
   <sheets>
     <sheet name="Matriz de decisão" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="253">
   <si>
     <t>Caracterização do Data Mart</t>
   </si>
@@ -667,9 +667,6 @@
     <t>estado da encomenda no momento do cancelamento</t>
   </si>
   <si>
-    <t>DIM - Order</t>
-  </si>
-  <si>
     <t>Perceber o porquê da dificuldade em dar resposta a encomendas</t>
   </si>
   <si>
@@ -725,9 +722,6 @@
   </si>
   <si>
     <t>TF - Cancellation</t>
-  </si>
-  <si>
-    <t>DIM - Payment Method</t>
   </si>
   <si>
     <t>sk_payment_date</t>
@@ -1867,7 +1861,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp19.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1875,7 +1869,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp20.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp21.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1895,11 +1889,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp25.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp26.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp27.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1931,7 +1925,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp33.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp34.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6126,8 +6120,8 @@
   </sheetPr>
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6188,16 +6182,16 @@
         <v>32</v>
       </c>
       <c r="B5" s="47" t="s">
+        <v>222</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>225</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>226</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>34</v>
@@ -6223,7 +6217,7 @@
     </row>
     <row r="7" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B7" s="48"/>
       <c r="C7" s="3"/>
@@ -6235,7 +6229,7 @@
     </row>
     <row r="8" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B8" s="48"/>
       <c r="C8" s="3"/>
@@ -6247,7 +6241,7 @@
     </row>
     <row r="9" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B9" s="48"/>
       <c r="C9" s="3"/>
@@ -6259,7 +6253,7 @@
     </row>
     <row r="10" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B10" s="48"/>
       <c r="C10" s="3"/>
@@ -6271,7 +6265,7 @@
     </row>
     <row r="11" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B11" s="48"/>
       <c r="C11" s="3"/>
@@ -6283,7 +6277,7 @@
     </row>
     <row r="12" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>207</v>
+        <v>35</v>
       </c>
       <c r="B12" s="48"/>
       <c r="C12" s="3"/>
@@ -6295,7 +6289,7 @@
     </row>
     <row r="13" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>227</v>
+        <v>35</v>
       </c>
       <c r="B13" s="48"/>
       <c r="C13" s="3"/>
@@ -7769,8 +7763,8 @@
   </sheetPr>
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7796,7 +7790,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="122" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C2" s="122"/>
       <c r="D2" s="122"/>
@@ -7997,7 +7991,7 @@
       </c>
       <c r="D17" s="27"/>
       <c r="E17" s="27" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F17" s="37">
         <v>2</v>
@@ -8031,7 +8025,7 @@
         <v>76</v>
       </c>
       <c r="E19" s="27" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F19" s="126">
         <v>1</v>
@@ -8085,7 +8079,7 @@
       </c>
       <c r="D22" s="54"/>
       <c r="E22" s="54" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F22" s="55">
         <v>0</v>
@@ -8124,7 +8118,7 @@
     </row>
     <row r="26" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A26" s="36" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B26" s="56"/>
       <c r="C26" s="27" t="s">
@@ -8132,7 +8126,7 @@
       </c>
       <c r="D26" s="27"/>
       <c r="E26" s="27" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F26" s="37">
         <v>25</v>
@@ -8803,7 +8797,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="83" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C2" s="68"/>
       <c r="D2" s="68"/>
@@ -9378,7 +9372,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="83" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C2" s="68"/>
       <c r="D2" s="68"/>
@@ -9911,7 +9905,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="83" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C2" s="68"/>
       <c r="D2" s="68"/>
@@ -10442,7 +10436,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="83" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C2" s="68"/>
       <c r="D2" s="68"/>
@@ -10963,7 +10957,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="83" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C2" s="68"/>
       <c r="D2" s="68"/>
@@ -11498,7 +11492,7 @@
   <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11572,7 +11566,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="97" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C6" s="97"/>
       <c r="D6" s="97"/>
@@ -11907,7 +11901,7 @@
         <v>84</v>
       </c>
       <c r="E28" s="27" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F28" s="37">
         <v>20</v>
@@ -11915,7 +11909,7 @@
     </row>
     <row r="29" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A29" s="36" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B29" s="56"/>
       <c r="C29" s="27" t="s">
@@ -11925,7 +11919,7 @@
         <v>84</v>
       </c>
       <c r="E29" s="27" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F29" s="37">
         <v>1000</v>
@@ -11933,7 +11927,7 @@
     </row>
     <row r="30" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="36" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C30" s="27" t="s">
         <v>80</v>
@@ -11942,7 +11936,7 @@
         <v>84</v>
       </c>
       <c r="E30" s="27" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F30" s="37">
         <v>700</v>
@@ -12215,7 +12209,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="122" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C2" s="122"/>
       <c r="D2" s="122"/>
@@ -12391,7 +12385,7 @@
         <v>2</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C16" s="27" t="s">
         <v>76</v>
@@ -12409,14 +12403,14 @@
         <v>3</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C17" s="27" t="s">
         <v>76</v>
       </c>
       <c r="D17" s="27"/>
       <c r="E17" s="27" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F17" s="37">
         <v>4</v>
@@ -12427,14 +12421,14 @@
         <v>4</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C18" s="27" t="s">
         <v>76</v>
       </c>
       <c r="D18" s="27"/>
       <c r="E18" s="27" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F18" s="37">
         <v>1</v>
@@ -12535,14 +12529,14 @@
         <v>10</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C24" s="27" t="s">
         <v>76</v>
       </c>
       <c r="D24" s="27"/>
       <c r="E24" s="27" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F24" s="37">
         <v>1</v>
@@ -12622,7 +12616,7 @@
     </row>
     <row r="31" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A31" s="36" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B31" s="27"/>
       <c r="C31" s="27" t="s">
@@ -12630,10 +12624,10 @@
       </c>
       <c r="D31" s="27"/>
       <c r="E31" s="27" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F31" s="37" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="21" x14ac:dyDescent="0.25">
@@ -12916,7 +12910,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="122" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C2" s="122"/>
       <c r="D2" s="122"/>
@@ -12964,7 +12958,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="97" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C6" s="97"/>
       <c r="D6" s="97"/>
@@ -13117,7 +13111,7 @@
       </c>
       <c r="D17" s="27"/>
       <c r="E17" s="58" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F17" s="37">
         <v>2</v>
@@ -13135,7 +13129,7 @@
       </c>
       <c r="D18" s="27"/>
       <c r="E18" s="27" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F18" s="37">
         <v>1</v>
@@ -13164,14 +13158,14 @@
         <v>7</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C20" s="27" t="s">
         <v>76</v>
       </c>
       <c r="D20" s="27"/>
       <c r="E20" s="27" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F20" s="37">
         <v>0</v>
@@ -13218,7 +13212,7 @@
     </row>
     <row r="24" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="36" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B24" s="27"/>
       <c r="C24" s="27" t="s">
@@ -13228,7 +13222,7 @@
         <v>84</v>
       </c>
       <c r="E24" s="27" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F24" s="37">
         <v>100</v>
@@ -13236,7 +13230,7 @@
     </row>
     <row r="25" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="36" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B25" s="27"/>
       <c r="C25" s="27" t="s">
@@ -13244,7 +13238,7 @@
       </c>
       <c r="D25" s="27"/>
       <c r="E25" s="27" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F25" s="37">
         <v>30</v>

--- a/docs/documentacao.xlsx
+++ b/docs/documentacao.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaobraganca/Desktop/ParallelsShared/GlobalTech_ETL/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB3BDE93-A855-9149-992D-5E259E321053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C648E047-66E3-754F-B41A-64ED30190002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="18000" windowHeight="22500" xr2:uid="{1C0ABE59-C842-1448-8BFE-1E96A6C9A910}"/>
+    <workbookView xWindow="8320" yWindow="2220" windowWidth="36460" windowHeight="22500" activeTab="3" xr2:uid="{1C0ABE59-C842-1448-8BFE-1E96A6C9A910}"/>
   </bookViews>
   <sheets>
     <sheet name="Matriz de decisão" sheetId="1" r:id="rId1"/>
@@ -1309,7 +1309,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1496,6 +1496,57 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1529,57 +1580,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1587,51 +1587,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1649,11 +1604,50 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -6120,8 +6114,8 @@
   </sheetPr>
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7776,152 +7770,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="97" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="82"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="99"/>
     </row>
     <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="107" t="s">
         <v>216</v>
       </c>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="123"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="108"/>
     </row>
     <row r="3" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="78" t="s">
         <v>202</v>
       </c>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="98"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="79"/>
     </row>
     <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="97" t="s">
+      <c r="B4" s="78" t="s">
         <v>162</v>
       </c>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="98"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="79"/>
     </row>
     <row r="5" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="97" t="s">
+      <c r="B5" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="98"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="79"/>
     </row>
     <row r="6" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="97" t="s">
+      <c r="B6" s="78" t="s">
         <v>203</v>
       </c>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="98"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="79"/>
     </row>
     <row r="7" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="97" t="s">
+      <c r="B7" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="97"/>
-      <c r="D7" s="97"/>
-      <c r="E7" s="97"/>
-      <c r="F7" s="98"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="79"/>
     </row>
     <row r="8" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="B8" s="97" t="s">
+      <c r="B8" s="78" t="s">
         <v>163</v>
       </c>
-      <c r="C8" s="97"/>
-      <c r="D8" s="97"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="98"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="79"/>
     </row>
     <row r="9" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="B9" s="97"/>
-      <c r="C9" s="97"/>
-      <c r="D9" s="97"/>
-      <c r="E9" s="97"/>
-      <c r="F9" s="98"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="79"/>
     </row>
     <row r="10" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="124">
+      <c r="B10" s="109">
         <v>0.3</v>
       </c>
-      <c r="C10" s="97"/>
-      <c r="D10" s="97" t="s">
+      <c r="C10" s="78"/>
+      <c r="D10" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="97"/>
-      <c r="F10" s="98"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="79"/>
     </row>
     <row r="11" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="120" t="s">
+      <c r="B11" s="105" t="s">
         <v>164</v>
       </c>
-      <c r="C11" s="120"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="121"/>
+      <c r="C11" s="105"/>
+      <c r="D11" s="105"/>
+      <c r="E11" s="105"/>
+      <c r="F11" s="106"/>
     </row>
     <row r="12" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="111"/>
-      <c r="B12" s="112"/>
-      <c r="C12" s="112"/>
-      <c r="D12" s="112"/>
-      <c r="E12" s="112"/>
-      <c r="F12" s="113"/>
+      <c r="A12" s="113"/>
+      <c r="B12" s="114"/>
+      <c r="C12" s="114"/>
+      <c r="D12" s="114"/>
+      <c r="E12" s="114"/>
+      <c r="F12" s="115"/>
     </row>
     <row r="13" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="88" t="s">
+      <c r="A13" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="89"/>
-      <c r="C13" s="89"/>
-      <c r="D13" s="89"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="90"/>
+      <c r="B13" s="86"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="86"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="87"/>
     </row>
     <row r="14" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
@@ -8015,7 +8009,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A19" s="125">
+      <c r="A19" s="36">
         <v>5</v>
       </c>
       <c r="B19" s="27" t="s">
@@ -8027,7 +8021,7 @@
       <c r="E19" s="27" t="s">
         <v>248</v>
       </c>
-      <c r="F19" s="126">
+      <c r="F19" s="37">
         <v>1</v>
       </c>
     </row>
@@ -8087,14 +8081,14 @@
     </row>
     <row r="23" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="88" t="s">
+      <c r="A24" s="85" t="s">
         <v>77</v>
       </c>
-      <c r="B24" s="89"/>
-      <c r="C24" s="89"/>
-      <c r="D24" s="89"/>
-      <c r="E24" s="89"/>
-      <c r="F24" s="90"/>
+      <c r="B24" s="86"/>
+      <c r="C24" s="86"/>
+      <c r="D24" s="86"/>
+      <c r="E24" s="86"/>
+      <c r="F24" s="87"/>
     </row>
     <row r="25" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="39" t="s">
@@ -8153,22 +8147,22 @@
       <c r="F29" s="43"/>
     </row>
     <row r="30" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="111"/>
-      <c r="B30" s="112"/>
-      <c r="C30" s="112"/>
-      <c r="D30" s="112"/>
-      <c r="E30" s="112"/>
-      <c r="F30" s="113"/>
+      <c r="A30" s="113"/>
+      <c r="B30" s="114"/>
+      <c r="C30" s="114"/>
+      <c r="D30" s="114"/>
+      <c r="E30" s="114"/>
+      <c r="F30" s="115"/>
     </row>
     <row r="31" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="88" t="s">
+      <c r="A31" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="B31" s="89"/>
-      <c r="C31" s="89"/>
-      <c r="D31" s="89"/>
-      <c r="E31" s="89"/>
-      <c r="F31" s="90"/>
+      <c r="B31" s="86"/>
+      <c r="C31" s="86"/>
+      <c r="D31" s="86"/>
+      <c r="E31" s="86"/>
+      <c r="F31" s="87"/>
     </row>
     <row r="32" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A32" s="39" t="s">
@@ -8180,130 +8174,114 @@
       <c r="C32" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="D32" s="106" t="s">
+      <c r="D32" s="116" t="s">
         <v>65</v>
       </c>
-      <c r="E32" s="106"/>
-      <c r="F32" s="107"/>
+      <c r="E32" s="116"/>
+      <c r="F32" s="117"/>
     </row>
     <row r="33" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A33" s="39"/>
       <c r="B33" s="40"/>
       <c r="C33" s="40"/>
-      <c r="D33" s="109"/>
-      <c r="E33" s="109"/>
-      <c r="F33" s="110"/>
+      <c r="D33" s="118"/>
+      <c r="E33" s="118"/>
+      <c r="F33" s="119"/>
     </row>
     <row r="34" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A34" s="39"/>
       <c r="B34" s="40"/>
       <c r="C34" s="40"/>
-      <c r="D34" s="109"/>
-      <c r="E34" s="109"/>
-      <c r="F34" s="110"/>
+      <c r="D34" s="118"/>
+      <c r="E34" s="118"/>
+      <c r="F34" s="119"/>
     </row>
     <row r="35" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A35" s="39"/>
       <c r="B35" s="40"/>
       <c r="C35" s="40"/>
-      <c r="D35" s="109"/>
-      <c r="E35" s="109"/>
-      <c r="F35" s="110"/>
+      <c r="D35" s="118"/>
+      <c r="E35" s="118"/>
+      <c r="F35" s="119"/>
     </row>
     <row r="36" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A36" s="41"/>
       <c r="B36" s="42"/>
       <c r="C36" s="42"/>
-      <c r="D36" s="115"/>
-      <c r="E36" s="115"/>
-      <c r="F36" s="116"/>
+      <c r="D36" s="120"/>
+      <c r="E36" s="120"/>
+      <c r="F36" s="121"/>
     </row>
     <row r="37" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="117"/>
-      <c r="B37" s="118"/>
-      <c r="C37" s="118"/>
-      <c r="D37" s="118"/>
-      <c r="E37" s="118"/>
-      <c r="F37" s="119"/>
+      <c r="A37" s="110"/>
+      <c r="B37" s="111"/>
+      <c r="C37" s="111"/>
+      <c r="D37" s="111"/>
+      <c r="E37" s="111"/>
+      <c r="F37" s="112"/>
     </row>
     <row r="38" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="88" t="s">
+      <c r="A38" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="B38" s="89"/>
-      <c r="C38" s="89"/>
-      <c r="D38" s="89"/>
-      <c r="E38" s="89"/>
-      <c r="F38" s="90"/>
+      <c r="B38" s="86"/>
+      <c r="C38" s="86"/>
+      <c r="D38" s="86"/>
+      <c r="E38" s="86"/>
+      <c r="F38" s="87"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="105"/>
-      <c r="B39" s="106"/>
-      <c r="C39" s="106"/>
-      <c r="D39" s="106"/>
-      <c r="E39" s="106"/>
-      <c r="F39" s="107"/>
+      <c r="A39" s="122"/>
+      <c r="B39" s="116"/>
+      <c r="C39" s="116"/>
+      <c r="D39" s="116"/>
+      <c r="E39" s="116"/>
+      <c r="F39" s="117"/>
     </row>
     <row r="40" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="108"/>
-      <c r="B40" s="109"/>
-      <c r="C40" s="109"/>
-      <c r="D40" s="109"/>
-      <c r="E40" s="109"/>
-      <c r="F40" s="110"/>
+      <c r="A40" s="123"/>
+      <c r="B40" s="118"/>
+      <c r="C40" s="118"/>
+      <c r="D40" s="118"/>
+      <c r="E40" s="118"/>
+      <c r="F40" s="119"/>
     </row>
     <row r="41" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="111"/>
-      <c r="B41" s="112"/>
-      <c r="C41" s="112"/>
-      <c r="D41" s="112"/>
-      <c r="E41" s="112"/>
-      <c r="F41" s="113"/>
+      <c r="A41" s="113"/>
+      <c r="B41" s="114"/>
+      <c r="C41" s="114"/>
+      <c r="D41" s="114"/>
+      <c r="E41" s="114"/>
+      <c r="F41" s="115"/>
     </row>
     <row r="42" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="88" t="s">
+      <c r="A42" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="89"/>
-      <c r="C42" s="89"/>
-      <c r="D42" s="89"/>
-      <c r="E42" s="89"/>
-      <c r="F42" s="90"/>
+      <c r="B42" s="86"/>
+      <c r="C42" s="86"/>
+      <c r="D42" s="86"/>
+      <c r="E42" s="86"/>
+      <c r="F42" s="87"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="105"/>
-      <c r="B43" s="106"/>
-      <c r="C43" s="106"/>
-      <c r="D43" s="106"/>
-      <c r="E43" s="106"/>
-      <c r="F43" s="107"/>
+      <c r="A43" s="122"/>
+      <c r="B43" s="116"/>
+      <c r="C43" s="116"/>
+      <c r="D43" s="116"/>
+      <c r="E43" s="116"/>
+      <c r="F43" s="117"/>
     </row>
     <row r="44" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="114"/>
-      <c r="B44" s="115"/>
-      <c r="C44" s="115"/>
-      <c r="D44" s="115"/>
-      <c r="E44" s="115"/>
-      <c r="F44" s="116"/>
+      <c r="A44" s="124"/>
+      <c r="B44" s="120"/>
+      <c r="C44" s="120"/>
+      <c r="D44" s="120"/>
+      <c r="E44" s="120"/>
+      <c r="F44" s="121"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="A39:F40"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="A43:F44"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="D36:F36"/>
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B2:F2"/>
@@ -8316,6 +8294,22 @@
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:F10"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="A39:F40"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="A43:F44"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Colocar percentagem_x000a_" sqref="B10:C10" xr:uid="{2B355D78-2274-AF4C-B934-68ADBC7FB191}"/>
@@ -8782,95 +8776,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="82"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="99"/>
     </row>
     <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="100" t="s">
         <v>209</v>
       </c>
       <c r="C2" s="68"/>
       <c r="D2" s="68"/>
       <c r="E2" s="68"/>
       <c r="F2" s="68"/>
-      <c r="G2" s="84"/>
+      <c r="G2" s="101"/>
     </row>
     <row r="3" spans="1:7" ht="46" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="80" t="s">
         <v>88</v>
       </c>
       <c r="C3" s="69"/>
       <c r="D3" s="69"/>
       <c r="E3" s="69"/>
       <c r="F3" s="69"/>
-      <c r="G3" s="86"/>
+      <c r="G3" s="81"/>
     </row>
     <row r="4" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="85" t="s">
+      <c r="B4" s="80" t="s">
         <v>51</v>
       </c>
       <c r="C4" s="69"/>
       <c r="D4" s="69"/>
       <c r="E4" s="69"/>
       <c r="F4" s="69"/>
-      <c r="G4" s="86"/>
+      <c r="G4" s="81"/>
     </row>
     <row r="5" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="80" t="s">
         <v>87</v>
       </c>
       <c r="C5" s="69"/>
       <c r="D5" s="69"/>
       <c r="E5" s="69"/>
       <c r="F5" s="69"/>
-      <c r="G5" s="86"/>
+      <c r="G5" s="81"/>
     </row>
     <row r="6" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="74"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="77" t="s">
+      <c r="B6" s="91"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="94" t="s">
         <v>57</v>
       </c>
-      <c r="F6" s="78"/>
-      <c r="G6" s="79"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="96"/>
     </row>
     <row r="7" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="35"/>
       <c r="G7" s="33"/>
     </row>
     <row r="8" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="88" t="s">
+      <c r="A8" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="89"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="90"/>
+      <c r="B8" s="86"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="87"/>
     </row>
     <row r="9" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
@@ -9059,7 +9053,7 @@
       <c r="G18" s="37"/>
     </row>
     <row r="19" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A19" s="91" t="s">
+      <c r="A19" s="88" t="s">
         <v>21</v>
       </c>
       <c r="B19" s="63"/>
@@ -9079,57 +9073,57 @@
       <c r="C20" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="92" t="s">
+      <c r="D20" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="E20" s="92"/>
-      <c r="F20" s="92"/>
-      <c r="G20" s="92"/>
+      <c r="E20" s="89"/>
+      <c r="F20" s="89"/>
+      <c r="G20" s="89"/>
     </row>
     <row r="21" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="90"/>
     </row>
     <row r="22" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="93"/>
-      <c r="E22" s="93"/>
-      <c r="F22" s="93"/>
-      <c r="G22" s="93"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="90"/>
+      <c r="G22" s="90"/>
     </row>
     <row r="23" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="93"/>
-      <c r="E23" s="93"/>
-      <c r="F23" s="93"/>
-      <c r="G23" s="93"/>
+      <c r="D23" s="90"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="90"/>
     </row>
     <row r="24" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="93"/>
-      <c r="E24" s="93"/>
-      <c r="F24" s="93"/>
-      <c r="G24" s="93"/>
+      <c r="D24" s="90"/>
+      <c r="E24" s="90"/>
+      <c r="F24" s="90"/>
+      <c r="G24" s="90"/>
     </row>
     <row r="25" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="93"/>
-      <c r="E25" s="93"/>
-      <c r="F25" s="93"/>
-      <c r="G25" s="93"/>
+      <c r="D25" s="90"/>
+      <c r="E25" s="90"/>
+      <c r="F25" s="90"/>
+      <c r="G25" s="90"/>
     </row>
     <row r="26" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A26" s="36"/>
@@ -9139,7 +9133,7 @@
       <c r="G26" s="33"/>
     </row>
     <row r="27" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A27" s="91" t="s">
+      <c r="A27" s="88" t="s">
         <v>29</v>
       </c>
       <c r="B27" s="63"/>
@@ -9156,13 +9150,13 @@
       <c r="B28" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="92" t="s">
+      <c r="C28" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="92"/>
-      <c r="E28" s="92"/>
-      <c r="F28" s="92"/>
-      <c r="G28" s="92"/>
+      <c r="D28" s="89"/>
+      <c r="E28" s="89"/>
+      <c r="F28" s="89"/>
+      <c r="G28" s="89"/>
     </row>
     <row r="29" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
@@ -9171,42 +9165,42 @@
       <c r="B29" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C29" s="87" t="s">
+      <c r="C29" s="74" t="s">
         <v>109</v>
       </c>
-      <c r="D29" s="87"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="87"/>
-      <c r="G29" s="87"/>
+      <c r="D29" s="74"/>
+      <c r="E29" s="74"/>
+      <c r="F29" s="74"/>
+      <c r="G29" s="74"/>
     </row>
     <row r="30" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>2</v>
       </c>
       <c r="B30" s="1"/>
-      <c r="C30" s="87" t="s">
+      <c r="C30" s="74" t="s">
         <v>112</v>
       </c>
-      <c r="D30" s="87"/>
-      <c r="E30" s="87"/>
-      <c r="F30" s="87"/>
-      <c r="G30" s="87"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="74"/>
     </row>
     <row r="31" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
-      <c r="C31" s="87"/>
-      <c r="D31" s="87"/>
-      <c r="E31" s="87"/>
-      <c r="F31" s="87"/>
-      <c r="G31" s="87"/>
+      <c r="C31" s="74"/>
+      <c r="D31" s="74"/>
+      <c r="E31" s="74"/>
+      <c r="F31" s="74"/>
+      <c r="G31" s="74"/>
     </row>
     <row r="32" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="G32" s="33"/>
     </row>
     <row r="33" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="94" t="s">
+      <c r="A33" s="75" t="s">
         <v>22</v>
       </c>
       <c r="B33" s="71"/>
@@ -9214,28 +9208,28 @@
       <c r="D33" s="71"/>
       <c r="E33" s="71"/>
       <c r="F33" s="71"/>
-      <c r="G33" s="95"/>
+      <c r="G33" s="76"/>
     </row>
     <row r="34" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="96"/>
-      <c r="B34" s="97"/>
-      <c r="C34" s="97"/>
-      <c r="D34" s="97"/>
-      <c r="E34" s="97"/>
-      <c r="F34" s="97"/>
-      <c r="G34" s="98"/>
+      <c r="A34" s="77"/>
+      <c r="B34" s="78"/>
+      <c r="C34" s="78"/>
+      <c r="D34" s="78"/>
+      <c r="E34" s="78"/>
+      <c r="F34" s="78"/>
+      <c r="G34" s="79"/>
     </row>
     <row r="35" spans="1:7" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="96"/>
-      <c r="B35" s="97"/>
-      <c r="C35" s="97"/>
-      <c r="D35" s="97"/>
-      <c r="E35" s="97"/>
-      <c r="F35" s="97"/>
-      <c r="G35" s="98"/>
+      <c r="A35" s="77"/>
+      <c r="B35" s="78"/>
+      <c r="C35" s="78"/>
+      <c r="D35" s="78"/>
+      <c r="E35" s="78"/>
+      <c r="F35" s="78"/>
+      <c r="G35" s="79"/>
     </row>
     <row r="36" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="94" t="s">
+      <c r="A36" s="75" t="s">
         <v>10</v>
       </c>
       <c r="B36" s="71"/>
@@ -9243,33 +9237,35 @@
       <c r="D36" s="71"/>
       <c r="E36" s="71"/>
       <c r="F36" s="71"/>
-      <c r="G36" s="95"/>
+      <c r="G36" s="76"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="85"/>
+      <c r="A37" s="80"/>
       <c r="B37" s="69"/>
       <c r="C37" s="69"/>
       <c r="D37" s="69"/>
       <c r="E37" s="69"/>
       <c r="F37" s="69"/>
-      <c r="G37" s="86"/>
+      <c r="G37" s="81"/>
     </row>
     <row r="38" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="99"/>
-      <c r="B38" s="100"/>
-      <c r="C38" s="100"/>
-      <c r="D38" s="100"/>
-      <c r="E38" s="100"/>
-      <c r="F38" s="100"/>
-      <c r="G38" s="101"/>
+      <c r="A38" s="82"/>
+      <c r="B38" s="83"/>
+      <c r="C38" s="83"/>
+      <c r="D38" s="83"/>
+      <c r="E38" s="83"/>
+      <c r="F38" s="83"/>
+      <c r="G38" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="A34:G35"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A37:G38"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
     <mergeCell ref="C30:G30"/>
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="A19:G19"/>
@@ -9282,13 +9278,11 @@
     <mergeCell ref="A27:G27"/>
     <mergeCell ref="C28:G28"/>
     <mergeCell ref="C29:G29"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="A34:G35"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A37:G38"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Exemplo:_x000a_id -&gt; nome -&gt; categoria -&gt; ALL" sqref="C29:C32" xr:uid="{386320E1-7050-C749-9143-6F7D856CB823}"/>
@@ -9347,7 +9341,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G2"/>
+      <selection activeCell="A13" sqref="A13:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9357,67 +9351,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="82"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="99"/>
     </row>
     <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="100" t="s">
         <v>210</v>
       </c>
       <c r="C2" s="68"/>
       <c r="D2" s="68"/>
       <c r="E2" s="68"/>
       <c r="F2" s="68"/>
-      <c r="G2" s="84"/>
+      <c r="G2" s="101"/>
     </row>
     <row r="3" spans="1:7" ht="46" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="80" t="s">
         <v>100</v>
       </c>
       <c r="C3" s="69"/>
       <c r="D3" s="69"/>
       <c r="E3" s="69"/>
       <c r="F3" s="69"/>
-      <c r="G3" s="86"/>
+      <c r="G3" s="81"/>
     </row>
     <row r="4" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="85" t="s">
+      <c r="B4" s="80" t="s">
         <v>53</v>
       </c>
       <c r="C4" s="69"/>
       <c r="D4" s="69"/>
       <c r="E4" s="69"/>
       <c r="F4" s="69"/>
-      <c r="G4" s="86"/>
+      <c r="G4" s="81"/>
     </row>
     <row r="5" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="80" t="s">
         <v>99</v>
       </c>
       <c r="C5" s="69"/>
       <c r="D5" s="69"/>
       <c r="E5" s="69"/>
       <c r="F5" s="69"/>
-      <c r="G5" s="86"/>
+      <c r="G5" s="81"/>
     </row>
     <row r="6" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
@@ -9426,26 +9420,26 @@
       <c r="B6" s="102"/>
       <c r="C6" s="103"/>
       <c r="D6" s="104"/>
-      <c r="E6" s="77" t="s">
+      <c r="E6" s="94" t="s">
         <v>57</v>
       </c>
-      <c r="F6" s="78"/>
-      <c r="G6" s="79"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="96"/>
     </row>
     <row r="7" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="35"/>
       <c r="G7" s="33"/>
     </row>
     <row r="8" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="88" t="s">
+      <c r="A8" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="89"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="90"/>
+      <c r="B8" s="86"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="87"/>
     </row>
     <row r="9" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
@@ -9601,7 +9595,7 @@
       <c r="G17" s="37"/>
     </row>
     <row r="18" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A18" s="91" t="s">
+      <c r="A18" s="88" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="63"/>
@@ -9621,57 +9615,57 @@
       <c r="C19" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="92" t="s">
+      <c r="D19" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="E19" s="92"/>
-      <c r="F19" s="92"/>
-      <c r="G19" s="92"/>
+      <c r="E19" s="89"/>
+      <c r="F19" s="89"/>
+      <c r="G19" s="89"/>
     </row>
     <row r="20" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="93"/>
-      <c r="E20" s="93"/>
-      <c r="F20" s="93"/>
-      <c r="G20" s="93"/>
+      <c r="D20" s="90"/>
+      <c r="E20" s="90"/>
+      <c r="F20" s="90"/>
+      <c r="G20" s="90"/>
     </row>
     <row r="21" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="90"/>
     </row>
     <row r="22" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="93"/>
-      <c r="E22" s="93"/>
-      <c r="F22" s="93"/>
-      <c r="G22" s="93"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="90"/>
+      <c r="G22" s="90"/>
     </row>
     <row r="23" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="93"/>
-      <c r="E23" s="93"/>
-      <c r="F23" s="93"/>
-      <c r="G23" s="93"/>
+      <c r="D23" s="90"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="90"/>
     </row>
     <row r="24" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="93"/>
-      <c r="E24" s="93"/>
-      <c r="F24" s="93"/>
-      <c r="G24" s="93"/>
+      <c r="D24" s="90"/>
+      <c r="E24" s="90"/>
+      <c r="F24" s="90"/>
+      <c r="G24" s="90"/>
     </row>
     <row r="25" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="36"/>
@@ -9681,7 +9675,7 @@
       <c r="G25" s="33"/>
     </row>
     <row r="26" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A26" s="91" t="s">
+      <c r="A26" s="88" t="s">
         <v>29</v>
       </c>
       <c r="B26" s="63"/>
@@ -9698,47 +9692,47 @@
       <c r="B27" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="92" t="s">
+      <c r="C27" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="92"/>
-      <c r="E27" s="92"/>
-      <c r="F27" s="92"/>
-      <c r="G27" s="92"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="89"/>
+      <c r="F27" s="89"/>
+      <c r="G27" s="89"/>
     </row>
     <row r="28" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
-      <c r="C28" s="87"/>
-      <c r="D28" s="87"/>
-      <c r="E28" s="87"/>
-      <c r="F28" s="87"/>
-      <c r="G28" s="87"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="74"/>
     </row>
     <row r="29" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="87"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="87"/>
-      <c r="G29" s="87"/>
+      <c r="C29" s="74"/>
+      <c r="D29" s="74"/>
+      <c r="E29" s="74"/>
+      <c r="F29" s="74"/>
+      <c r="G29" s="74"/>
     </row>
     <row r="30" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="87"/>
-      <c r="D30" s="87"/>
-      <c r="E30" s="87"/>
-      <c r="F30" s="87"/>
-      <c r="G30" s="87"/>
+      <c r="C30" s="74"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="74"/>
     </row>
     <row r="31" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="G31" s="33"/>
     </row>
     <row r="32" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="94" t="s">
+      <c r="A32" s="75" t="s">
         <v>22</v>
       </c>
       <c r="B32" s="71"/>
@@ -9746,28 +9740,28 @@
       <c r="D32" s="71"/>
       <c r="E32" s="71"/>
       <c r="F32" s="71"/>
-      <c r="G32" s="95"/>
+      <c r="G32" s="76"/>
     </row>
     <row r="33" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="96"/>
-      <c r="B33" s="97"/>
-      <c r="C33" s="97"/>
-      <c r="D33" s="97"/>
-      <c r="E33" s="97"/>
-      <c r="F33" s="97"/>
-      <c r="G33" s="98"/>
+      <c r="A33" s="77"/>
+      <c r="B33" s="78"/>
+      <c r="C33" s="78"/>
+      <c r="D33" s="78"/>
+      <c r="E33" s="78"/>
+      <c r="F33" s="78"/>
+      <c r="G33" s="79"/>
     </row>
     <row r="34" spans="1:7" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="96"/>
-      <c r="B34" s="97"/>
-      <c r="C34" s="97"/>
-      <c r="D34" s="97"/>
-      <c r="E34" s="97"/>
-      <c r="F34" s="97"/>
-      <c r="G34" s="98"/>
+      <c r="A34" s="77"/>
+      <c r="B34" s="78"/>
+      <c r="C34" s="78"/>
+      <c r="D34" s="78"/>
+      <c r="E34" s="78"/>
+      <c r="F34" s="78"/>
+      <c r="G34" s="79"/>
     </row>
     <row r="35" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="94" t="s">
+      <c r="A35" s="75" t="s">
         <v>10</v>
       </c>
       <c r="B35" s="71"/>
@@ -9775,35 +9769,33 @@
       <c r="D35" s="71"/>
       <c r="E35" s="71"/>
       <c r="F35" s="71"/>
-      <c r="G35" s="95"/>
+      <c r="G35" s="76"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="85"/>
+      <c r="A36" s="80"/>
       <c r="B36" s="69"/>
       <c r="C36" s="69"/>
       <c r="D36" s="69"/>
       <c r="E36" s="69"/>
       <c r="F36" s="69"/>
-      <c r="G36" s="86"/>
+      <c r="G36" s="81"/>
     </row>
     <row r="37" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="99"/>
-      <c r="B37" s="100"/>
-      <c r="C37" s="100"/>
-      <c r="D37" s="100"/>
-      <c r="E37" s="100"/>
-      <c r="F37" s="100"/>
-      <c r="G37" s="101"/>
+      <c r="A37" s="82"/>
+      <c r="B37" s="83"/>
+      <c r="C37" s="83"/>
+      <c r="D37" s="83"/>
+      <c r="E37" s="83"/>
+      <c r="F37" s="83"/>
+      <c r="G37" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="A33:G34"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="A36:G37"/>
     <mergeCell ref="C29:G29"/>
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="A18:G18"/>
@@ -9816,11 +9808,13 @@
     <mergeCell ref="A26:G26"/>
     <mergeCell ref="C27:G27"/>
     <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="A33:G34"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="A36:G37"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Colocar percentagem" sqref="B6" xr:uid="{F51EFD33-359E-334A-A51E-A657A56E6972}">
@@ -9878,8 +9872,8 @@
   </sheetPr>
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:G3"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9890,95 +9884,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="82"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="99"/>
     </row>
     <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="100" t="s">
         <v>211</v>
       </c>
       <c r="C2" s="68"/>
       <c r="D2" s="68"/>
       <c r="E2" s="68"/>
       <c r="F2" s="68"/>
-      <c r="G2" s="84"/>
+      <c r="G2" s="101"/>
     </row>
     <row r="3" spans="1:7" ht="46" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="80" t="s">
         <v>148</v>
       </c>
       <c r="C3" s="69"/>
       <c r="D3" s="69"/>
       <c r="E3" s="69"/>
       <c r="F3" s="69"/>
-      <c r="G3" s="86"/>
+      <c r="G3" s="81"/>
     </row>
     <row r="4" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="85" t="s">
-        <v>52</v>
+      <c r="B4" s="80" t="s">
+        <v>53</v>
       </c>
       <c r="C4" s="69"/>
       <c r="D4" s="69"/>
       <c r="E4" s="69"/>
       <c r="F4" s="69"/>
-      <c r="G4" s="86"/>
+      <c r="G4" s="81"/>
     </row>
     <row r="5" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="80" t="s">
         <v>110</v>
       </c>
       <c r="C5" s="69"/>
       <c r="D5" s="69"/>
       <c r="E5" s="69"/>
       <c r="F5" s="69"/>
-      <c r="G5" s="86"/>
+      <c r="G5" s="81"/>
     </row>
     <row r="6" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="74"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="77" t="s">
+      <c r="B6" s="91"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="94" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="78"/>
-      <c r="G6" s="79"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="96"/>
     </row>
     <row r="7" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="35"/>
       <c r="G7" s="33"/>
     </row>
     <row r="8" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="88" t="s">
+      <c r="A8" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="89"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="90"/>
+      <c r="B8" s="86"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="87"/>
     </row>
     <row r="9" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
@@ -10134,7 +10128,7 @@
       <c r="G17" s="37"/>
     </row>
     <row r="18" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A18" s="91"/>
+      <c r="A18" s="88"/>
       <c r="B18" s="63"/>
       <c r="C18" s="63"/>
       <c r="D18" s="63"/>
@@ -10152,57 +10146,57 @@
       <c r="C19" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="92" t="s">
+      <c r="D19" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="E19" s="92"/>
-      <c r="F19" s="92"/>
-      <c r="G19" s="92"/>
+      <c r="E19" s="89"/>
+      <c r="F19" s="89"/>
+      <c r="G19" s="89"/>
     </row>
     <row r="20" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="93"/>
-      <c r="E20" s="93"/>
-      <c r="F20" s="93"/>
-      <c r="G20" s="93"/>
+      <c r="D20" s="90"/>
+      <c r="E20" s="90"/>
+      <c r="F20" s="90"/>
+      <c r="G20" s="90"/>
     </row>
     <row r="21" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="90"/>
     </row>
     <row r="22" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="93"/>
-      <c r="E22" s="93"/>
-      <c r="F22" s="93"/>
-      <c r="G22" s="93"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="90"/>
+      <c r="G22" s="90"/>
     </row>
     <row r="23" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="93"/>
-      <c r="E23" s="93"/>
-      <c r="F23" s="93"/>
-      <c r="G23" s="93"/>
+      <c r="D23" s="90"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="90"/>
     </row>
     <row r="24" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="93"/>
-      <c r="E24" s="93"/>
-      <c r="F24" s="93"/>
-      <c r="G24" s="93"/>
+      <c r="D24" s="90"/>
+      <c r="E24" s="90"/>
+      <c r="F24" s="90"/>
+      <c r="G24" s="90"/>
     </row>
     <row r="25" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="36"/>
@@ -10212,7 +10206,7 @@
       <c r="G25" s="33"/>
     </row>
     <row r="26" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A26" s="91" t="s">
+      <c r="A26" s="88" t="s">
         <v>29</v>
       </c>
       <c r="B26" s="63"/>
@@ -10229,47 +10223,47 @@
       <c r="B27" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="92" t="s">
+      <c r="C27" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="92"/>
-      <c r="E27" s="92"/>
-      <c r="F27" s="92"/>
-      <c r="G27" s="92"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="89"/>
+      <c r="F27" s="89"/>
+      <c r="G27" s="89"/>
     </row>
     <row r="28" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
-      <c r="C28" s="87"/>
-      <c r="D28" s="87"/>
-      <c r="E28" s="87"/>
-      <c r="F28" s="87"/>
-      <c r="G28" s="87"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="74"/>
     </row>
     <row r="29" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="87"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="87"/>
-      <c r="G29" s="87"/>
+      <c r="C29" s="74"/>
+      <c r="D29" s="74"/>
+      <c r="E29" s="74"/>
+      <c r="F29" s="74"/>
+      <c r="G29" s="74"/>
     </row>
     <row r="30" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="87"/>
-      <c r="D30" s="87"/>
-      <c r="E30" s="87"/>
-      <c r="F30" s="87"/>
-      <c r="G30" s="87"/>
+      <c r="C30" s="74"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="74"/>
     </row>
     <row r="31" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="G31" s="33"/>
     </row>
     <row r="32" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="94" t="s">
+      <c r="A32" s="75" t="s">
         <v>22</v>
       </c>
       <c r="B32" s="71"/>
@@ -10277,28 +10271,28 @@
       <c r="D32" s="71"/>
       <c r="E32" s="71"/>
       <c r="F32" s="71"/>
-      <c r="G32" s="95"/>
+      <c r="G32" s="76"/>
     </row>
     <row r="33" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="96"/>
-      <c r="B33" s="97"/>
-      <c r="C33" s="97"/>
-      <c r="D33" s="97"/>
-      <c r="E33" s="97"/>
-      <c r="F33" s="97"/>
-      <c r="G33" s="98"/>
+      <c r="A33" s="77"/>
+      <c r="B33" s="78"/>
+      <c r="C33" s="78"/>
+      <c r="D33" s="78"/>
+      <c r="E33" s="78"/>
+      <c r="F33" s="78"/>
+      <c r="G33" s="79"/>
     </row>
     <row r="34" spans="1:7" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="96"/>
-      <c r="B34" s="97"/>
-      <c r="C34" s="97"/>
-      <c r="D34" s="97"/>
-      <c r="E34" s="97"/>
-      <c r="F34" s="97"/>
-      <c r="G34" s="98"/>
+      <c r="A34" s="77"/>
+      <c r="B34" s="78"/>
+      <c r="C34" s="78"/>
+      <c r="D34" s="78"/>
+      <c r="E34" s="78"/>
+      <c r="F34" s="78"/>
+      <c r="G34" s="79"/>
     </row>
     <row r="35" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="94" t="s">
+      <c r="A35" s="75" t="s">
         <v>10</v>
       </c>
       <c r="B35" s="71"/>
@@ -10306,28 +10300,36 @@
       <c r="D35" s="71"/>
       <c r="E35" s="71"/>
       <c r="F35" s="71"/>
-      <c r="G35" s="95"/>
+      <c r="G35" s="76"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="85"/>
+      <c r="A36" s="80"/>
       <c r="B36" s="69"/>
       <c r="C36" s="69"/>
       <c r="D36" s="69"/>
       <c r="E36" s="69"/>
       <c r="F36" s="69"/>
-      <c r="G36" s="86"/>
+      <c r="G36" s="81"/>
     </row>
     <row r="37" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="99"/>
-      <c r="B37" s="100"/>
-      <c r="C37" s="100"/>
-      <c r="D37" s="100"/>
-      <c r="E37" s="100"/>
-      <c r="F37" s="100"/>
-      <c r="G37" s="101"/>
+      <c r="A37" s="82"/>
+      <c r="B37" s="83"/>
+      <c r="C37" s="83"/>
+      <c r="D37" s="83"/>
+      <c r="E37" s="83"/>
+      <c r="F37" s="83"/>
+      <c r="G37" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D23:G23"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="D19:G19"/>
     <mergeCell ref="D20:G20"/>
@@ -10344,14 +10346,6 @@
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="B5:G5"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="A26:G26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D23:G23"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Colocar percentagem" sqref="B6" xr:uid="{C5DD908A-3688-A14E-B89F-E074FAFCDF99}">
@@ -10421,95 +10415,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="82"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="99"/>
     </row>
     <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="100" t="s">
         <v>212</v>
       </c>
       <c r="C2" s="68"/>
       <c r="D2" s="68"/>
       <c r="E2" s="68"/>
       <c r="F2" s="68"/>
-      <c r="G2" s="84"/>
+      <c r="G2" s="101"/>
     </row>
     <row r="3" spans="1:7" ht="46" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="80" t="s">
         <v>124</v>
       </c>
       <c r="C3" s="69"/>
       <c r="D3" s="69"/>
       <c r="E3" s="69"/>
       <c r="F3" s="69"/>
-      <c r="G3" s="86"/>
+      <c r="G3" s="81"/>
     </row>
     <row r="4" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="85" t="s">
+      <c r="B4" s="80" t="s">
         <v>51</v>
       </c>
       <c r="C4" s="69"/>
       <c r="D4" s="69"/>
       <c r="E4" s="69"/>
       <c r="F4" s="69"/>
-      <c r="G4" s="86"/>
+      <c r="G4" s="81"/>
     </row>
     <row r="5" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="80" t="s">
         <v>113</v>
       </c>
       <c r="C5" s="69"/>
       <c r="D5" s="69"/>
       <c r="E5" s="69"/>
       <c r="F5" s="69"/>
-      <c r="G5" s="86"/>
+      <c r="G5" s="81"/>
     </row>
     <row r="6" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="74"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="77" t="s">
+      <c r="B6" s="91"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="94" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="78"/>
-      <c r="G6" s="79"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="96"/>
     </row>
     <row r="7" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="35"/>
       <c r="G7" s="33"/>
     </row>
     <row r="8" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="88" t="s">
+      <c r="A8" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="89"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="90"/>
+      <c r="B8" s="86"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="87"/>
     </row>
     <row r="9" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
@@ -10653,7 +10647,7 @@
       <c r="G17" s="37"/>
     </row>
     <row r="18" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A18" s="91" t="s">
+      <c r="A18" s="88" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="63"/>
@@ -10673,57 +10667,57 @@
       <c r="C19" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="92" t="s">
+      <c r="D19" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="E19" s="92"/>
-      <c r="F19" s="92"/>
-      <c r="G19" s="92"/>
+      <c r="E19" s="89"/>
+      <c r="F19" s="89"/>
+      <c r="G19" s="89"/>
     </row>
     <row r="20" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="93"/>
-      <c r="E20" s="93"/>
-      <c r="F20" s="93"/>
-      <c r="G20" s="93"/>
+      <c r="D20" s="90"/>
+      <c r="E20" s="90"/>
+      <c r="F20" s="90"/>
+      <c r="G20" s="90"/>
     </row>
     <row r="21" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="90"/>
     </row>
     <row r="22" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="93"/>
-      <c r="E22" s="93"/>
-      <c r="F22" s="93"/>
-      <c r="G22" s="93"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="90"/>
+      <c r="G22" s="90"/>
     </row>
     <row r="23" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="93"/>
-      <c r="E23" s="93"/>
-      <c r="F23" s="93"/>
-      <c r="G23" s="93"/>
+      <c r="D23" s="90"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="90"/>
     </row>
     <row r="24" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="93"/>
-      <c r="E24" s="93"/>
-      <c r="F24" s="93"/>
-      <c r="G24" s="93"/>
+      <c r="D24" s="90"/>
+      <c r="E24" s="90"/>
+      <c r="F24" s="90"/>
+      <c r="G24" s="90"/>
     </row>
     <row r="25" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="36"/>
@@ -10733,7 +10727,7 @@
       <c r="G25" s="33"/>
     </row>
     <row r="26" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A26" s="91" t="s">
+      <c r="A26" s="88" t="s">
         <v>29</v>
       </c>
       <c r="B26" s="63"/>
@@ -10750,47 +10744,47 @@
       <c r="B27" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="92" t="s">
+      <c r="C27" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="92"/>
-      <c r="E27" s="92"/>
-      <c r="F27" s="92"/>
-      <c r="G27" s="92"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="89"/>
+      <c r="F27" s="89"/>
+      <c r="G27" s="89"/>
     </row>
     <row r="28" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
-      <c r="C28" s="87"/>
-      <c r="D28" s="87"/>
-      <c r="E28" s="87"/>
-      <c r="F28" s="87"/>
-      <c r="G28" s="87"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="74"/>
     </row>
     <row r="29" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="87"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="87"/>
-      <c r="G29" s="87"/>
+      <c r="C29" s="74"/>
+      <c r="D29" s="74"/>
+      <c r="E29" s="74"/>
+      <c r="F29" s="74"/>
+      <c r="G29" s="74"/>
     </row>
     <row r="30" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="87"/>
-      <c r="D30" s="87"/>
-      <c r="E30" s="87"/>
-      <c r="F30" s="87"/>
-      <c r="G30" s="87"/>
+      <c r="C30" s="74"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="74"/>
     </row>
     <row r="31" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="G31" s="33"/>
     </row>
     <row r="32" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="94" t="s">
+      <c r="A32" s="75" t="s">
         <v>22</v>
       </c>
       <c r="B32" s="71"/>
@@ -10798,28 +10792,28 @@
       <c r="D32" s="71"/>
       <c r="E32" s="71"/>
       <c r="F32" s="71"/>
-      <c r="G32" s="95"/>
+      <c r="G32" s="76"/>
     </row>
     <row r="33" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="96"/>
-      <c r="B33" s="97"/>
-      <c r="C33" s="97"/>
-      <c r="D33" s="97"/>
-      <c r="E33" s="97"/>
-      <c r="F33" s="97"/>
-      <c r="G33" s="98"/>
+      <c r="A33" s="77"/>
+      <c r="B33" s="78"/>
+      <c r="C33" s="78"/>
+      <c r="D33" s="78"/>
+      <c r="E33" s="78"/>
+      <c r="F33" s="78"/>
+      <c r="G33" s="79"/>
     </row>
     <row r="34" spans="1:7" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="96"/>
-      <c r="B34" s="97"/>
-      <c r="C34" s="97"/>
-      <c r="D34" s="97"/>
-      <c r="E34" s="97"/>
-      <c r="F34" s="97"/>
-      <c r="G34" s="98"/>
+      <c r="A34" s="77"/>
+      <c r="B34" s="78"/>
+      <c r="C34" s="78"/>
+      <c r="D34" s="78"/>
+      <c r="E34" s="78"/>
+      <c r="F34" s="78"/>
+      <c r="G34" s="79"/>
     </row>
     <row r="35" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="94" t="s">
+      <c r="A35" s="75" t="s">
         <v>10</v>
       </c>
       <c r="B35" s="71"/>
@@ -10827,35 +10821,33 @@
       <c r="D35" s="71"/>
       <c r="E35" s="71"/>
       <c r="F35" s="71"/>
-      <c r="G35" s="95"/>
+      <c r="G35" s="76"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="85"/>
+      <c r="A36" s="80"/>
       <c r="B36" s="69"/>
       <c r="C36" s="69"/>
       <c r="D36" s="69"/>
       <c r="E36" s="69"/>
       <c r="F36" s="69"/>
-      <c r="G36" s="86"/>
+      <c r="G36" s="81"/>
     </row>
     <row r="37" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="99"/>
-      <c r="B37" s="100"/>
-      <c r="C37" s="100"/>
-      <c r="D37" s="100"/>
-      <c r="E37" s="100"/>
-      <c r="F37" s="100"/>
-      <c r="G37" s="101"/>
+      <c r="A37" s="82"/>
+      <c r="B37" s="83"/>
+      <c r="C37" s="83"/>
+      <c r="D37" s="83"/>
+      <c r="E37" s="83"/>
+      <c r="F37" s="83"/>
+      <c r="G37" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="A33:G34"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="A36:G37"/>
     <mergeCell ref="C29:G29"/>
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="A18:G18"/>
@@ -10868,11 +10860,13 @@
     <mergeCell ref="A26:G26"/>
     <mergeCell ref="C27:G27"/>
     <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="A33:G34"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="A36:G37"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Exemplo:_x000a_id -&gt; nome -&gt; categoria -&gt; ALL" sqref="C28:C31" xr:uid="{6749BA4D-A4C0-664A-8057-C07B807E371B}"/>
@@ -10942,95 +10936,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="82"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="99"/>
     </row>
     <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="100" t="s">
         <v>213</v>
       </c>
       <c r="C2" s="68"/>
       <c r="D2" s="68"/>
       <c r="E2" s="68"/>
       <c r="F2" s="68"/>
-      <c r="G2" s="84"/>
+      <c r="G2" s="101"/>
     </row>
     <row r="3" spans="1:7" ht="46" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="80" t="s">
         <v>149</v>
       </c>
       <c r="C3" s="69"/>
       <c r="D3" s="69"/>
       <c r="E3" s="69"/>
       <c r="F3" s="69"/>
-      <c r="G3" s="86"/>
+      <c r="G3" s="81"/>
     </row>
     <row r="4" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="85" t="s">
+      <c r="B4" s="80" t="s">
         <v>51</v>
       </c>
       <c r="C4" s="69"/>
       <c r="D4" s="69"/>
       <c r="E4" s="69"/>
       <c r="F4" s="69"/>
-      <c r="G4" s="86"/>
+      <c r="G4" s="81"/>
     </row>
     <row r="5" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="80" t="s">
         <v>150</v>
       </c>
       <c r="C5" s="69"/>
       <c r="D5" s="69"/>
       <c r="E5" s="69"/>
       <c r="F5" s="69"/>
-      <c r="G5" s="86"/>
+      <c r="G5" s="81"/>
     </row>
     <row r="6" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="74"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="77" t="s">
+      <c r="B6" s="91"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="94" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="78"/>
-      <c r="G6" s="79"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="96"/>
     </row>
     <row r="7" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="35"/>
       <c r="G7" s="33"/>
     </row>
     <row r="8" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="88" t="s">
+      <c r="A8" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="89"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="90"/>
+      <c r="B8" s="86"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="87"/>
     </row>
     <row r="9" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
@@ -11210,7 +11204,7 @@
       <c r="G17" s="37"/>
     </row>
     <row r="18" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A18" s="91" t="s">
+      <c r="A18" s="88" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="63"/>
@@ -11230,57 +11224,57 @@
       <c r="C19" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="92" t="s">
+      <c r="D19" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="E19" s="92"/>
-      <c r="F19" s="92"/>
-      <c r="G19" s="92"/>
+      <c r="E19" s="89"/>
+      <c r="F19" s="89"/>
+      <c r="G19" s="89"/>
     </row>
     <row r="20" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="93"/>
-      <c r="E20" s="93"/>
-      <c r="F20" s="93"/>
-      <c r="G20" s="93"/>
+      <c r="D20" s="90"/>
+      <c r="E20" s="90"/>
+      <c r="F20" s="90"/>
+      <c r="G20" s="90"/>
     </row>
     <row r="21" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="90"/>
     </row>
     <row r="22" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="93"/>
-      <c r="E22" s="93"/>
-      <c r="F22" s="93"/>
-      <c r="G22" s="93"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="90"/>
+      <c r="G22" s="90"/>
     </row>
     <row r="23" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="93"/>
-      <c r="E23" s="93"/>
-      <c r="F23" s="93"/>
-      <c r="G23" s="93"/>
+      <c r="D23" s="90"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="90"/>
     </row>
     <row r="24" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="93"/>
-      <c r="E24" s="93"/>
-      <c r="F24" s="93"/>
-      <c r="G24" s="93"/>
+      <c r="D24" s="90"/>
+      <c r="E24" s="90"/>
+      <c r="F24" s="90"/>
+      <c r="G24" s="90"/>
     </row>
     <row r="25" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="36"/>
@@ -11290,7 +11284,7 @@
       <c r="G25" s="33"/>
     </row>
     <row r="26" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A26" s="91" t="s">
+      <c r="A26" s="88" t="s">
         <v>29</v>
       </c>
       <c r="B26" s="63"/>
@@ -11307,51 +11301,51 @@
       <c r="B27" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="92" t="s">
+      <c r="C27" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="92"/>
-      <c r="E27" s="92"/>
-      <c r="F27" s="92"/>
-      <c r="G27" s="92"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="89"/>
+      <c r="F27" s="89"/>
+      <c r="G27" s="89"/>
     </row>
     <row r="28" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1</v>
       </c>
       <c r="B28" s="1"/>
-      <c r="C28" s="87" t="s">
+      <c r="C28" s="74" t="s">
         <v>160</v>
       </c>
-      <c r="D28" s="87"/>
-      <c r="E28" s="87"/>
-      <c r="F28" s="87"/>
-      <c r="G28" s="87"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="74"/>
     </row>
     <row r="29" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="87"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="87"/>
-      <c r="G29" s="87"/>
+      <c r="C29" s="74"/>
+      <c r="D29" s="74"/>
+      <c r="E29" s="74"/>
+      <c r="F29" s="74"/>
+      <c r="G29" s="74"/>
     </row>
     <row r="30" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="87"/>
-      <c r="D30" s="87"/>
-      <c r="E30" s="87"/>
-      <c r="F30" s="87"/>
-      <c r="G30" s="87"/>
+      <c r="C30" s="74"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="74"/>
     </row>
     <row r="31" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="G31" s="33"/>
     </row>
     <row r="32" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="94" t="s">
+      <c r="A32" s="75" t="s">
         <v>22</v>
       </c>
       <c r="B32" s="71"/>
@@ -11359,28 +11353,28 @@
       <c r="D32" s="71"/>
       <c r="E32" s="71"/>
       <c r="F32" s="71"/>
-      <c r="G32" s="95"/>
+      <c r="G32" s="76"/>
     </row>
     <row r="33" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="96"/>
-      <c r="B33" s="97"/>
-      <c r="C33" s="97"/>
-      <c r="D33" s="97"/>
-      <c r="E33" s="97"/>
-      <c r="F33" s="97"/>
-      <c r="G33" s="98"/>
+      <c r="A33" s="77"/>
+      <c r="B33" s="78"/>
+      <c r="C33" s="78"/>
+      <c r="D33" s="78"/>
+      <c r="E33" s="78"/>
+      <c r="F33" s="78"/>
+      <c r="G33" s="79"/>
     </row>
     <row r="34" spans="1:7" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="96"/>
-      <c r="B34" s="97"/>
-      <c r="C34" s="97"/>
-      <c r="D34" s="97"/>
-      <c r="E34" s="97"/>
-      <c r="F34" s="97"/>
-      <c r="G34" s="98"/>
+      <c r="A34" s="77"/>
+      <c r="B34" s="78"/>
+      <c r="C34" s="78"/>
+      <c r="D34" s="78"/>
+      <c r="E34" s="78"/>
+      <c r="F34" s="78"/>
+      <c r="G34" s="79"/>
     </row>
     <row r="35" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="94" t="s">
+      <c r="A35" s="75" t="s">
         <v>10</v>
       </c>
       <c r="B35" s="71"/>
@@ -11388,35 +11382,33 @@
       <c r="D35" s="71"/>
       <c r="E35" s="71"/>
       <c r="F35" s="71"/>
-      <c r="G35" s="95"/>
+      <c r="G35" s="76"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="85"/>
+      <c r="A36" s="80"/>
       <c r="B36" s="69"/>
       <c r="C36" s="69"/>
       <c r="D36" s="69"/>
       <c r="E36" s="69"/>
       <c r="F36" s="69"/>
-      <c r="G36" s="86"/>
+      <c r="G36" s="81"/>
     </row>
     <row r="37" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="99"/>
-      <c r="B37" s="100"/>
-      <c r="C37" s="100"/>
-      <c r="D37" s="100"/>
-      <c r="E37" s="100"/>
-      <c r="F37" s="100"/>
-      <c r="G37" s="101"/>
+      <c r="A37" s="82"/>
+      <c r="B37" s="83"/>
+      <c r="C37" s="83"/>
+      <c r="D37" s="83"/>
+      <c r="E37" s="83"/>
+      <c r="F37" s="83"/>
+      <c r="G37" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="A33:G34"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="A36:G37"/>
     <mergeCell ref="C29:G29"/>
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="A18:G18"/>
@@ -11429,11 +11421,13 @@
     <mergeCell ref="A26:G26"/>
     <mergeCell ref="C27:G27"/>
     <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="A33:G34"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="A36:G37"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Colocar percentagem" sqref="B6" xr:uid="{A66D20F0-0782-6944-BA9C-7489AA303243}">
@@ -11504,152 +11498,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="97" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="82"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="99"/>
     </row>
     <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="122">
+      <c r="B2" s="107">
         <v>4</v>
       </c>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="123"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="108"/>
     </row>
     <row r="3" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="78" t="s">
         <v>161</v>
       </c>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="98"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="79"/>
     </row>
     <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="97" t="s">
+      <c r="B4" s="78" t="s">
         <v>162</v>
       </c>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="98"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="79"/>
     </row>
     <row r="5" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="97" t="s">
+      <c r="B5" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="98"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="79"/>
     </row>
     <row r="6" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="97" t="s">
+      <c r="B6" s="78" t="s">
         <v>207</v>
       </c>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="98"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="79"/>
     </row>
     <row r="7" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="97" t="s">
+      <c r="B7" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="97"/>
-      <c r="D7" s="97"/>
-      <c r="E7" s="97"/>
-      <c r="F7" s="98"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="79"/>
     </row>
     <row r="8" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="B8" s="97" t="s">
+      <c r="B8" s="78" t="s">
         <v>163</v>
       </c>
-      <c r="C8" s="97"/>
-      <c r="D8" s="97"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="98"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="79"/>
     </row>
     <row r="9" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="B9" s="97"/>
-      <c r="C9" s="97"/>
-      <c r="D9" s="97"/>
-      <c r="E9" s="97"/>
-      <c r="F9" s="98"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="79"/>
     </row>
     <row r="10" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="124">
+      <c r="B10" s="109">
         <v>0.5</v>
       </c>
-      <c r="C10" s="97"/>
-      <c r="D10" s="97" t="s">
+      <c r="C10" s="78"/>
+      <c r="D10" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="97"/>
-      <c r="F10" s="98"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="79"/>
     </row>
     <row r="11" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="120" t="s">
+      <c r="B11" s="105" t="s">
         <v>164</v>
       </c>
-      <c r="C11" s="120"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="121"/>
+      <c r="C11" s="105"/>
+      <c r="D11" s="105"/>
+      <c r="E11" s="105"/>
+      <c r="F11" s="106"/>
     </row>
     <row r="12" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="111"/>
-      <c r="B12" s="112"/>
-      <c r="C12" s="112"/>
-      <c r="D12" s="112"/>
-      <c r="E12" s="112"/>
-      <c r="F12" s="113"/>
+      <c r="A12" s="113"/>
+      <c r="B12" s="114"/>
+      <c r="C12" s="114"/>
+      <c r="D12" s="114"/>
+      <c r="E12" s="114"/>
+      <c r="F12" s="115"/>
     </row>
     <row r="13" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="88" t="s">
+      <c r="A13" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="89"/>
-      <c r="C13" s="89"/>
-      <c r="D13" s="89"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="90"/>
+      <c r="B13" s="86"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="86"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="87"/>
     </row>
     <row r="14" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
@@ -11816,22 +11810,22 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="111"/>
-      <c r="B23" s="112"/>
-      <c r="C23" s="112"/>
-      <c r="D23" s="112"/>
-      <c r="E23" s="112"/>
-      <c r="F23" s="113"/>
+      <c r="A23" s="113"/>
+      <c r="B23" s="114"/>
+      <c r="C23" s="114"/>
+      <c r="D23" s="114"/>
+      <c r="E23" s="114"/>
+      <c r="F23" s="115"/>
     </row>
     <row r="24" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="88" t="s">
+      <c r="A24" s="85" t="s">
         <v>77</v>
       </c>
-      <c r="B24" s="89"/>
-      <c r="C24" s="89"/>
-      <c r="D24" s="89"/>
-      <c r="E24" s="89"/>
-      <c r="F24" s="90"/>
+      <c r="B24" s="86"/>
+      <c r="C24" s="86"/>
+      <c r="D24" s="86"/>
+      <c r="E24" s="86"/>
+      <c r="F24" s="87"/>
     </row>
     <row r="25" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="39" t="s">
@@ -11943,22 +11937,22 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="111"/>
-      <c r="B31" s="112"/>
-      <c r="C31" s="112"/>
-      <c r="D31" s="112"/>
-      <c r="E31" s="112"/>
-      <c r="F31" s="113"/>
+      <c r="A31" s="113"/>
+      <c r="B31" s="114"/>
+      <c r="C31" s="114"/>
+      <c r="D31" s="114"/>
+      <c r="E31" s="114"/>
+      <c r="F31" s="115"/>
     </row>
     <row r="32" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="88" t="s">
+      <c r="A32" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="B32" s="89"/>
-      <c r="C32" s="89"/>
-      <c r="D32" s="89"/>
-      <c r="E32" s="89"/>
-      <c r="F32" s="90"/>
+      <c r="B32" s="86"/>
+      <c r="C32" s="86"/>
+      <c r="D32" s="86"/>
+      <c r="E32" s="86"/>
+      <c r="F32" s="87"/>
     </row>
     <row r="33" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A33" s="39" t="s">
@@ -11970,114 +11964,131 @@
       <c r="C33" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="D33" s="106" t="s">
+      <c r="D33" s="116" t="s">
         <v>65</v>
       </c>
-      <c r="E33" s="106"/>
-      <c r="F33" s="107"/>
+      <c r="E33" s="116"/>
+      <c r="F33" s="117"/>
     </row>
     <row r="34" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A34" s="39"/>
       <c r="B34" s="40"/>
       <c r="C34" s="40"/>
-      <c r="D34" s="109"/>
-      <c r="E34" s="109"/>
-      <c r="F34" s="110"/>
+      <c r="D34" s="118"/>
+      <c r="E34" s="118"/>
+      <c r="F34" s="119"/>
     </row>
     <row r="35" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A35" s="39"/>
       <c r="B35" s="40"/>
       <c r="C35" s="40"/>
-      <c r="D35" s="109"/>
-      <c r="E35" s="109"/>
-      <c r="F35" s="110"/>
+      <c r="D35" s="118"/>
+      <c r="E35" s="118"/>
+      <c r="F35" s="119"/>
     </row>
     <row r="36" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A36" s="39"/>
       <c r="B36" s="40"/>
       <c r="C36" s="40"/>
-      <c r="D36" s="109"/>
-      <c r="E36" s="109"/>
-      <c r="F36" s="110"/>
+      <c r="D36" s="118"/>
+      <c r="E36" s="118"/>
+      <c r="F36" s="119"/>
     </row>
     <row r="37" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A37" s="41"/>
       <c r="B37" s="42"/>
       <c r="C37" s="42"/>
-      <c r="D37" s="115"/>
-      <c r="E37" s="115"/>
-      <c r="F37" s="116"/>
+      <c r="D37" s="120"/>
+      <c r="E37" s="120"/>
+      <c r="F37" s="121"/>
     </row>
     <row r="38" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="117"/>
-      <c r="B38" s="118"/>
-      <c r="C38" s="118"/>
-      <c r="D38" s="118"/>
-      <c r="E38" s="118"/>
-      <c r="F38" s="119"/>
+      <c r="A38" s="110"/>
+      <c r="B38" s="111"/>
+      <c r="C38" s="111"/>
+      <c r="D38" s="111"/>
+      <c r="E38" s="111"/>
+      <c r="F38" s="112"/>
     </row>
     <row r="39" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="88" t="s">
+      <c r="A39" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="B39" s="89"/>
-      <c r="C39" s="89"/>
-      <c r="D39" s="89"/>
-      <c r="E39" s="89"/>
-      <c r="F39" s="90"/>
+      <c r="B39" s="86"/>
+      <c r="C39" s="86"/>
+      <c r="D39" s="86"/>
+      <c r="E39" s="86"/>
+      <c r="F39" s="87"/>
     </row>
     <row r="40" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="105"/>
-      <c r="B40" s="106"/>
-      <c r="C40" s="106"/>
-      <c r="D40" s="106"/>
-      <c r="E40" s="106"/>
-      <c r="F40" s="107"/>
+      <c r="A40" s="122"/>
+      <c r="B40" s="116"/>
+      <c r="C40" s="116"/>
+      <c r="D40" s="116"/>
+      <c r="E40" s="116"/>
+      <c r="F40" s="117"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="108"/>
-      <c r="B41" s="109"/>
-      <c r="C41" s="109"/>
-      <c r="D41" s="109"/>
-      <c r="E41" s="109"/>
-      <c r="F41" s="110"/>
+      <c r="A41" s="123"/>
+      <c r="B41" s="118"/>
+      <c r="C41" s="118"/>
+      <c r="D41" s="118"/>
+      <c r="E41" s="118"/>
+      <c r="F41" s="119"/>
     </row>
     <row r="42" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="111"/>
-      <c r="B42" s="112"/>
-      <c r="C42" s="112"/>
-      <c r="D42" s="112"/>
-      <c r="E42" s="112"/>
-      <c r="F42" s="113"/>
+      <c r="A42" s="113"/>
+      <c r="B42" s="114"/>
+      <c r="C42" s="114"/>
+      <c r="D42" s="114"/>
+      <c r="E42" s="114"/>
+      <c r="F42" s="115"/>
     </row>
     <row r="43" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="88" t="s">
+      <c r="A43" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="B43" s="89"/>
-      <c r="C43" s="89"/>
-      <c r="D43" s="89"/>
-      <c r="E43" s="89"/>
-      <c r="F43" s="90"/>
+      <c r="B43" s="86"/>
+      <c r="C43" s="86"/>
+      <c r="D43" s="86"/>
+      <c r="E43" s="86"/>
+      <c r="F43" s="87"/>
     </row>
     <row r="44" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="105"/>
-      <c r="B44" s="106"/>
-      <c r="C44" s="106"/>
-      <c r="D44" s="106"/>
-      <c r="E44" s="106"/>
-      <c r="F44" s="107"/>
+      <c r="A44" s="122"/>
+      <c r="B44" s="116"/>
+      <c r="C44" s="116"/>
+      <c r="D44" s="116"/>
+      <c r="E44" s="116"/>
+      <c r="F44" s="117"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="114"/>
-      <c r="B45" s="115"/>
-      <c r="C45" s="115"/>
-      <c r="D45" s="115"/>
-      <c r="E45" s="115"/>
-      <c r="F45" s="116"/>
+      <c r="A45" s="124"/>
+      <c r="B45" s="120"/>
+      <c r="C45" s="120"/>
+      <c r="D45" s="120"/>
+      <c r="E45" s="120"/>
+      <c r="F45" s="121"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="A40:F41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="A44:F45"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D37:F37"/>
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B2:F2"/>
@@ -12090,23 +12101,6 @@
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:F10"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="A40:F41"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="A44:F45"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <dataValidations count="5">
@@ -12195,152 +12189,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="97" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="82"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="99"/>
     </row>
     <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="107" t="s">
         <v>214</v>
       </c>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="123"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="108"/>
     </row>
     <row r="3" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="78" t="s">
         <v>183</v>
       </c>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="110"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="119"/>
     </row>
     <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="97" t="s">
+      <c r="B4" s="78" t="s">
         <v>162</v>
       </c>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
-      <c r="E4" s="109"/>
-      <c r="F4" s="110"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="119"/>
     </row>
     <row r="5" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="97" t="s">
+      <c r="B5" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
-      <c r="F5" s="110"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="118"/>
+      <c r="E5" s="118"/>
+      <c r="F5" s="119"/>
     </row>
     <row r="6" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="97" t="s">
+      <c r="B6" s="78" t="s">
         <v>204</v>
       </c>
-      <c r="C6" s="109"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="109"/>
-      <c r="F6" s="110"/>
+      <c r="C6" s="118"/>
+      <c r="D6" s="118"/>
+      <c r="E6" s="118"/>
+      <c r="F6" s="119"/>
     </row>
     <row r="7" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="97" t="s">
+      <c r="B7" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="109"/>
-      <c r="D7" s="109"/>
-      <c r="E7" s="109"/>
-      <c r="F7" s="110"/>
+      <c r="C7" s="118"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="119"/>
     </row>
     <row r="8" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="B8" s="97" t="s">
+      <c r="B8" s="78" t="s">
         <v>163</v>
       </c>
-      <c r="C8" s="109"/>
-      <c r="D8" s="109"/>
-      <c r="E8" s="109"/>
-      <c r="F8" s="110"/>
+      <c r="C8" s="118"/>
+      <c r="D8" s="118"/>
+      <c r="E8" s="118"/>
+      <c r="F8" s="119"/>
     </row>
     <row r="9" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="B9" s="109"/>
-      <c r="C9" s="109"/>
-      <c r="D9" s="109"/>
-      <c r="E9" s="109"/>
-      <c r="F9" s="110"/>
+      <c r="B9" s="118"/>
+      <c r="C9" s="118"/>
+      <c r="D9" s="118"/>
+      <c r="E9" s="118"/>
+      <c r="F9" s="119"/>
     </row>
     <row r="10" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="124">
+      <c r="B10" s="109">
         <v>0.7</v>
       </c>
-      <c r="C10" s="97"/>
-      <c r="D10" s="97" t="s">
+      <c r="C10" s="78"/>
+      <c r="D10" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="97"/>
-      <c r="F10" s="98"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="79"/>
     </row>
     <row r="11" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="120" t="s">
+      <c r="B11" s="105" t="s">
         <v>164</v>
       </c>
-      <c r="C11" s="115"/>
-      <c r="D11" s="115"/>
-      <c r="E11" s="115"/>
-      <c r="F11" s="116"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
+      <c r="F11" s="121"/>
     </row>
     <row r="12" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="111"/>
-      <c r="B12" s="112"/>
-      <c r="C12" s="112"/>
-      <c r="D12" s="112"/>
-      <c r="E12" s="112"/>
-      <c r="F12" s="113"/>
+      <c r="A12" s="113"/>
+      <c r="B12" s="114"/>
+      <c r="C12" s="114"/>
+      <c r="D12" s="114"/>
+      <c r="E12" s="114"/>
+      <c r="F12" s="115"/>
     </row>
     <row r="13" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="88" t="s">
+      <c r="A13" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="89"/>
-      <c r="C13" s="89"/>
-      <c r="D13" s="89"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="90"/>
+      <c r="B13" s="86"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="86"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="87"/>
     </row>
     <row r="14" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
@@ -12559,22 +12553,22 @@
       <c r="F26" s="55"/>
     </row>
     <row r="27" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="111"/>
-      <c r="B27" s="112"/>
-      <c r="C27" s="112"/>
-      <c r="D27" s="112"/>
-      <c r="E27" s="112"/>
-      <c r="F27" s="113"/>
+      <c r="A27" s="113"/>
+      <c r="B27" s="114"/>
+      <c r="C27" s="114"/>
+      <c r="D27" s="114"/>
+      <c r="E27" s="114"/>
+      <c r="F27" s="115"/>
     </row>
     <row r="28" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="88" t="s">
+      <c r="A28" s="85" t="s">
         <v>77</v>
       </c>
-      <c r="B28" s="89"/>
-      <c r="C28" s="89"/>
-      <c r="D28" s="89"/>
-      <c r="E28" s="89"/>
-      <c r="F28" s="90"/>
+      <c r="B28" s="86"/>
+      <c r="C28" s="86"/>
+      <c r="D28" s="86"/>
+      <c r="E28" s="86"/>
+      <c r="F28" s="87"/>
     </row>
     <row r="29" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A29" s="39" t="s">
@@ -12647,22 +12641,22 @@
       <c r="F33" s="43"/>
     </row>
     <row r="34" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="111"/>
-      <c r="B34" s="112"/>
-      <c r="C34" s="112"/>
-      <c r="D34" s="112"/>
-      <c r="E34" s="112"/>
-      <c r="F34" s="113"/>
+      <c r="A34" s="113"/>
+      <c r="B34" s="114"/>
+      <c r="C34" s="114"/>
+      <c r="D34" s="114"/>
+      <c r="E34" s="114"/>
+      <c r="F34" s="115"/>
     </row>
     <row r="35" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="88" t="s">
+      <c r="A35" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="B35" s="89"/>
-      <c r="C35" s="89"/>
-      <c r="D35" s="89"/>
-      <c r="E35" s="89"/>
-      <c r="F35" s="90"/>
+      <c r="B35" s="86"/>
+      <c r="C35" s="86"/>
+      <c r="D35" s="86"/>
+      <c r="E35" s="86"/>
+      <c r="F35" s="87"/>
     </row>
     <row r="36" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A36" s="39" t="s">
@@ -12674,114 +12668,127 @@
       <c r="C36" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="D36" s="106" t="s">
+      <c r="D36" s="116" t="s">
         <v>65</v>
       </c>
-      <c r="E36" s="106"/>
-      <c r="F36" s="107"/>
+      <c r="E36" s="116"/>
+      <c r="F36" s="117"/>
     </row>
     <row r="37" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A37" s="39"/>
       <c r="B37" s="40"/>
       <c r="C37" s="40"/>
-      <c r="D37" s="109"/>
-      <c r="E37" s="109"/>
-      <c r="F37" s="110"/>
+      <c r="D37" s="118"/>
+      <c r="E37" s="118"/>
+      <c r="F37" s="119"/>
     </row>
     <row r="38" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A38" s="39"/>
       <c r="B38" s="40"/>
       <c r="C38" s="40"/>
-      <c r="D38" s="109"/>
-      <c r="E38" s="109"/>
-      <c r="F38" s="110"/>
+      <c r="D38" s="118"/>
+      <c r="E38" s="118"/>
+      <c r="F38" s="119"/>
     </row>
     <row r="39" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A39" s="39"/>
       <c r="B39" s="40"/>
       <c r="C39" s="40"/>
-      <c r="D39" s="109"/>
-      <c r="E39" s="109"/>
-      <c r="F39" s="110"/>
+      <c r="D39" s="118"/>
+      <c r="E39" s="118"/>
+      <c r="F39" s="119"/>
     </row>
     <row r="40" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A40" s="41"/>
       <c r="B40" s="42"/>
       <c r="C40" s="42"/>
-      <c r="D40" s="115"/>
-      <c r="E40" s="115"/>
-      <c r="F40" s="116"/>
+      <c r="D40" s="120"/>
+      <c r="E40" s="120"/>
+      <c r="F40" s="121"/>
     </row>
     <row r="41" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="117"/>
-      <c r="B41" s="118"/>
-      <c r="C41" s="118"/>
-      <c r="D41" s="118"/>
-      <c r="E41" s="118"/>
-      <c r="F41" s="119"/>
+      <c r="A41" s="110"/>
+      <c r="B41" s="111"/>
+      <c r="C41" s="111"/>
+      <c r="D41" s="111"/>
+      <c r="E41" s="111"/>
+      <c r="F41" s="112"/>
     </row>
     <row r="42" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="88" t="s">
+      <c r="A42" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="B42" s="89"/>
-      <c r="C42" s="89"/>
-      <c r="D42" s="89"/>
-      <c r="E42" s="89"/>
-      <c r="F42" s="90"/>
+      <c r="B42" s="86"/>
+      <c r="C42" s="86"/>
+      <c r="D42" s="86"/>
+      <c r="E42" s="86"/>
+      <c r="F42" s="87"/>
     </row>
     <row r="43" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="105"/>
-      <c r="B43" s="106"/>
-      <c r="C43" s="106"/>
-      <c r="D43" s="106"/>
-      <c r="E43" s="106"/>
-      <c r="F43" s="107"/>
+      <c r="A43" s="122"/>
+      <c r="B43" s="116"/>
+      <c r="C43" s="116"/>
+      <c r="D43" s="116"/>
+      <c r="E43" s="116"/>
+      <c r="F43" s="117"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="108"/>
-      <c r="B44" s="109"/>
-      <c r="C44" s="109"/>
-      <c r="D44" s="109"/>
-      <c r="E44" s="109"/>
-      <c r="F44" s="110"/>
+      <c r="A44" s="123"/>
+      <c r="B44" s="118"/>
+      <c r="C44" s="118"/>
+      <c r="D44" s="118"/>
+      <c r="E44" s="118"/>
+      <c r="F44" s="119"/>
     </row>
     <row r="45" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="111"/>
-      <c r="B45" s="112"/>
-      <c r="C45" s="112"/>
-      <c r="D45" s="112"/>
-      <c r="E45" s="112"/>
-      <c r="F45" s="113"/>
+      <c r="A45" s="113"/>
+      <c r="B45" s="114"/>
+      <c r="C45" s="114"/>
+      <c r="D45" s="114"/>
+      <c r="E45" s="114"/>
+      <c r="F45" s="115"/>
     </row>
     <row r="46" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="88" t="s">
+      <c r="A46" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="B46" s="89"/>
-      <c r="C46" s="89"/>
-      <c r="D46" s="89"/>
-      <c r="E46" s="89"/>
-      <c r="F46" s="90"/>
+      <c r="B46" s="86"/>
+      <c r="C46" s="86"/>
+      <c r="D46" s="86"/>
+      <c r="E46" s="86"/>
+      <c r="F46" s="87"/>
     </row>
     <row r="47" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="105"/>
-      <c r="B47" s="106"/>
-      <c r="C47" s="106"/>
-      <c r="D47" s="106"/>
-      <c r="E47" s="106"/>
-      <c r="F47" s="107"/>
+      <c r="A47" s="122"/>
+      <c r="B47" s="116"/>
+      <c r="C47" s="116"/>
+      <c r="D47" s="116"/>
+      <c r="E47" s="116"/>
+      <c r="F47" s="117"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="114"/>
-      <c r="B48" s="115"/>
-      <c r="C48" s="115"/>
-      <c r="D48" s="115"/>
-      <c r="E48" s="115"/>
-      <c r="F48" s="116"/>
+      <c r="A48" s="124"/>
+      <c r="B48" s="120"/>
+      <c r="C48" s="120"/>
+      <c r="D48" s="120"/>
+      <c r="E48" s="120"/>
+      <c r="F48" s="121"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A43:F44"/>
+    <mergeCell ref="A47:F48"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="A46:F46"/>
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A13:F13"/>
@@ -12798,19 +12805,6 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:F10"/>
     <mergeCell ref="A34:F34"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A43:F44"/>
-    <mergeCell ref="A47:F48"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="A46:F46"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Colocar percentagem_x000a_" sqref="B10:C10" xr:uid="{C44B2955-AB0E-5E4A-9201-AF72D21AA99A}"/>
@@ -12896,152 +12890,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="97" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="82"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="99"/>
     </row>
     <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="107" t="s">
         <v>215</v>
       </c>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="123"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="108"/>
     </row>
     <row r="3" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="78" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="98"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="79"/>
     </row>
     <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="97" t="s">
+      <c r="B4" s="78" t="s">
         <v>162</v>
       </c>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="98"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="79"/>
     </row>
     <row r="5" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="97" t="s">
+      <c r="B5" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="98"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="79"/>
     </row>
     <row r="6" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="97" t="s">
+      <c r="B6" s="78" t="s">
         <v>208</v>
       </c>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="98"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="79"/>
     </row>
     <row r="7" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="97" t="s">
+      <c r="B7" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="97"/>
-      <c r="D7" s="97"/>
-      <c r="E7" s="97"/>
-      <c r="F7" s="98"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="79"/>
     </row>
     <row r="8" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="B8" s="97" t="s">
+      <c r="B8" s="78" t="s">
         <v>163</v>
       </c>
-      <c r="C8" s="97"/>
-      <c r="D8" s="97"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="98"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="79"/>
     </row>
     <row r="9" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="B9" s="97"/>
-      <c r="C9" s="97"/>
-      <c r="D9" s="97"/>
-      <c r="E9" s="97"/>
-      <c r="F9" s="98"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="79"/>
     </row>
     <row r="10" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="124">
+      <c r="B10" s="109">
         <v>0.5</v>
       </c>
-      <c r="C10" s="97"/>
-      <c r="D10" s="97" t="s">
+      <c r="C10" s="78"/>
+      <c r="D10" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="97"/>
-      <c r="F10" s="98"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="79"/>
     </row>
     <row r="11" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="120" t="s">
+      <c r="B11" s="105" t="s">
         <v>164</v>
       </c>
-      <c r="C11" s="120"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="121"/>
+      <c r="C11" s="105"/>
+      <c r="D11" s="105"/>
+      <c r="E11" s="105"/>
+      <c r="F11" s="106"/>
     </row>
     <row r="12" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="111"/>
-      <c r="B12" s="112"/>
-      <c r="C12" s="112"/>
-      <c r="D12" s="112"/>
-      <c r="E12" s="112"/>
-      <c r="F12" s="113"/>
+      <c r="A12" s="113"/>
+      <c r="B12" s="114"/>
+      <c r="C12" s="114"/>
+      <c r="D12" s="114"/>
+      <c r="E12" s="114"/>
+      <c r="F12" s="115"/>
     </row>
     <row r="13" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="88" t="s">
+      <c r="A13" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="89"/>
-      <c r="C13" s="89"/>
-      <c r="D13" s="89"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="90"/>
+      <c r="B13" s="86"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="86"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="87"/>
     </row>
     <row r="14" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
@@ -13172,22 +13166,22 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="111"/>
-      <c r="B21" s="112"/>
-      <c r="C21" s="112"/>
-      <c r="D21" s="112"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="113"/>
+      <c r="A21" s="113"/>
+      <c r="B21" s="114"/>
+      <c r="C21" s="114"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="114"/>
+      <c r="F21" s="115"/>
     </row>
     <row r="22" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="88" t="s">
+      <c r="A22" s="85" t="s">
         <v>77</v>
       </c>
-      <c r="B22" s="89"/>
-      <c r="C22" s="89"/>
-      <c r="D22" s="89"/>
-      <c r="E22" s="89"/>
-      <c r="F22" s="90"/>
+      <c r="B22" s="86"/>
+      <c r="C22" s="86"/>
+      <c r="D22" s="86"/>
+      <c r="E22" s="86"/>
+      <c r="F22" s="87"/>
     </row>
     <row r="23" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="39" t="s">
@@ -13261,22 +13255,22 @@
       <c r="F27" s="43"/>
     </row>
     <row r="28" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="111"/>
-      <c r="B28" s="112"/>
-      <c r="C28" s="112"/>
-      <c r="D28" s="112"/>
-      <c r="E28" s="112"/>
-      <c r="F28" s="113"/>
+      <c r="A28" s="113"/>
+      <c r="B28" s="114"/>
+      <c r="C28" s="114"/>
+      <c r="D28" s="114"/>
+      <c r="E28" s="114"/>
+      <c r="F28" s="115"/>
     </row>
     <row r="29" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="88" t="s">
+      <c r="A29" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="89"/>
-      <c r="C29" s="89"/>
-      <c r="D29" s="89"/>
-      <c r="E29" s="89"/>
-      <c r="F29" s="90"/>
+      <c r="B29" s="86"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="87"/>
     </row>
     <row r="30" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="39" t="s">
@@ -13288,119 +13282,126 @@
       <c r="C30" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="D30" s="106" t="s">
+      <c r="D30" s="116" t="s">
         <v>65</v>
       </c>
-      <c r="E30" s="106"/>
-      <c r="F30" s="107"/>
+      <c r="E30" s="116"/>
+      <c r="F30" s="117"/>
     </row>
     <row r="31" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A31" s="39"/>
       <c r="B31" s="40"/>
       <c r="C31" s="40"/>
-      <c r="D31" s="109"/>
-      <c r="E31" s="109"/>
-      <c r="F31" s="110"/>
+      <c r="D31" s="118"/>
+      <c r="E31" s="118"/>
+      <c r="F31" s="119"/>
     </row>
     <row r="32" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A32" s="39"/>
       <c r="B32" s="40"/>
       <c r="C32" s="40"/>
-      <c r="D32" s="109"/>
-      <c r="E32" s="109"/>
-      <c r="F32" s="110"/>
+      <c r="D32" s="118"/>
+      <c r="E32" s="118"/>
+      <c r="F32" s="119"/>
     </row>
     <row r="33" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A33" s="39"/>
       <c r="B33" s="40"/>
       <c r="C33" s="40"/>
-      <c r="D33" s="109"/>
-      <c r="E33" s="109"/>
-      <c r="F33" s="110"/>
+      <c r="D33" s="118"/>
+      <c r="E33" s="118"/>
+      <c r="F33" s="119"/>
     </row>
     <row r="34" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A34" s="41"/>
       <c r="B34" s="42"/>
       <c r="C34" s="42"/>
-      <c r="D34" s="115"/>
-      <c r="E34" s="115"/>
-      <c r="F34" s="116"/>
+      <c r="D34" s="120"/>
+      <c r="E34" s="120"/>
+      <c r="F34" s="121"/>
     </row>
     <row r="35" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="117"/>
-      <c r="B35" s="118"/>
-      <c r="C35" s="118"/>
-      <c r="D35" s="118"/>
-      <c r="E35" s="118"/>
-      <c r="F35" s="119"/>
+      <c r="A35" s="110"/>
+      <c r="B35" s="111"/>
+      <c r="C35" s="111"/>
+      <c r="D35" s="111"/>
+      <c r="E35" s="111"/>
+      <c r="F35" s="112"/>
     </row>
     <row r="36" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="88" t="s">
+      <c r="A36" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="B36" s="89"/>
-      <c r="C36" s="89"/>
-      <c r="D36" s="89"/>
-      <c r="E36" s="89"/>
-      <c r="F36" s="90"/>
+      <c r="B36" s="86"/>
+      <c r="C36" s="86"/>
+      <c r="D36" s="86"/>
+      <c r="E36" s="86"/>
+      <c r="F36" s="87"/>
     </row>
     <row r="37" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="105"/>
-      <c r="B37" s="106"/>
-      <c r="C37" s="106"/>
-      <c r="D37" s="106"/>
-      <c r="E37" s="106"/>
-      <c r="F37" s="107"/>
+      <c r="A37" s="122"/>
+      <c r="B37" s="116"/>
+      <c r="C37" s="116"/>
+      <c r="D37" s="116"/>
+      <c r="E37" s="116"/>
+      <c r="F37" s="117"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="108"/>
-      <c r="B38" s="109"/>
-      <c r="C38" s="109"/>
-      <c r="D38" s="109"/>
-      <c r="E38" s="109"/>
-      <c r="F38" s="110"/>
+      <c r="A38" s="123"/>
+      <c r="B38" s="118"/>
+      <c r="C38" s="118"/>
+      <c r="D38" s="118"/>
+      <c r="E38" s="118"/>
+      <c r="F38" s="119"/>
     </row>
     <row r="39" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="111"/>
-      <c r="B39" s="112"/>
-      <c r="C39" s="112"/>
-      <c r="D39" s="112"/>
-      <c r="E39" s="112"/>
-      <c r="F39" s="113"/>
+      <c r="A39" s="113"/>
+      <c r="B39" s="114"/>
+      <c r="C39" s="114"/>
+      <c r="D39" s="114"/>
+      <c r="E39" s="114"/>
+      <c r="F39" s="115"/>
     </row>
     <row r="40" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="88" t="s">
+      <c r="A40" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="B40" s="89"/>
-      <c r="C40" s="89"/>
-      <c r="D40" s="89"/>
-      <c r="E40" s="89"/>
-      <c r="F40" s="90"/>
+      <c r="B40" s="86"/>
+      <c r="C40" s="86"/>
+      <c r="D40" s="86"/>
+      <c r="E40" s="86"/>
+      <c r="F40" s="87"/>
     </row>
     <row r="41" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="105"/>
-      <c r="B41" s="106"/>
-      <c r="C41" s="106"/>
-      <c r="D41" s="106"/>
-      <c r="E41" s="106"/>
-      <c r="F41" s="107"/>
+      <c r="A41" s="122"/>
+      <c r="B41" s="116"/>
+      <c r="C41" s="116"/>
+      <c r="D41" s="116"/>
+      <c r="E41" s="116"/>
+      <c r="F41" s="117"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="114"/>
-      <c r="B42" s="115"/>
-      <c r="C42" s="115"/>
-      <c r="D42" s="115"/>
-      <c r="E42" s="115"/>
-      <c r="F42" s="116"/>
+      <c r="A42" s="124"/>
+      <c r="B42" s="120"/>
+      <c r="C42" s="120"/>
+      <c r="D42" s="120"/>
+      <c r="E42" s="120"/>
+      <c r="F42" s="121"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="A37:F38"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="A41:F42"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
     <mergeCell ref="A35:F35"/>
     <mergeCell ref="A12:F12"/>
     <mergeCell ref="A13:F13"/>
@@ -13413,18 +13414,11 @@
     <mergeCell ref="D32:F32"/>
     <mergeCell ref="D33:F33"/>
     <mergeCell ref="D34:F34"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="A37:F38"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="A41:F42"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Colocar percentagem_x000a_" sqref="B10:C10" xr:uid="{8EDB03EC-30FB-484C-ACBE-DF33B9366718}"/>
@@ -13492,12 +13486,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13639,15 +13630,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FCF46D4-6C3F-4211-BBB9-5DE005064C3C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30DE7E78-AB24-4BCB-A51F-77E5C10364A7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="6597237e-e321-437a-ab0e-fe3e3f709099"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -13671,17 +13673,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30DE7E78-AB24-4BCB-A51F-77E5C10364A7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FCF46D4-6C3F-4211-BBB9-5DE005064C3C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="6597237e-e321-437a-ab0e-fe3e3f709099"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/docs/documentacao.xlsx
+++ b/docs/documentacao.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaobraganca/Desktop/ParallelsShared/GlobalTech_ETL/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C648E047-66E3-754F-B41A-64ED30190002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC0A335-27E0-7745-9D6B-8CA459D1A4F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8320" yWindow="2220" windowWidth="36460" windowHeight="22500" activeTab="3" xr2:uid="{1C0ABE59-C842-1448-8BFE-1E96A6C9A910}"/>
+    <workbookView xWindow="8320" yWindow="2220" windowWidth="36460" windowHeight="22500" activeTab="2" xr2:uid="{1C0ABE59-C842-1448-8BFE-1E96A6C9A910}"/>
   </bookViews>
   <sheets>
     <sheet name="Matriz de decisão" sheetId="1" r:id="rId1"/>
@@ -1496,57 +1496,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1580,6 +1529,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1587,6 +1587,51 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1602,51 +1647,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -7770,152 +7770,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="80" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="99"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="82"/>
     </row>
     <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="107" t="s">
+      <c r="B2" s="122" t="s">
         <v>216</v>
       </c>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="108"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="123"/>
     </row>
     <row r="3" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="97" t="s">
         <v>202</v>
       </c>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="79"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="98"/>
     </row>
     <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="97" t="s">
         <v>162</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="79"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="98"/>
     </row>
     <row r="5" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="97" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="79"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="98"/>
     </row>
     <row r="6" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="97" t="s">
         <v>203</v>
       </c>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="79"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="98"/>
     </row>
     <row r="7" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="78" t="s">
+      <c r="B7" s="97" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="79"/>
+      <c r="C7" s="97"/>
+      <c r="D7" s="97"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="98"/>
     </row>
     <row r="8" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="B8" s="78" t="s">
+      <c r="B8" s="97" t="s">
         <v>163</v>
       </c>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="79"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="97"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="98"/>
     </row>
     <row r="9" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="B9" s="78"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="79"/>
+      <c r="B9" s="97"/>
+      <c r="C9" s="97"/>
+      <c r="D9" s="97"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="98"/>
     </row>
     <row r="10" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="109">
+      <c r="B10" s="124">
         <v>0.3</v>
       </c>
-      <c r="C10" s="78"/>
-      <c r="D10" s="78" t="s">
+      <c r="C10" s="97"/>
+      <c r="D10" s="97" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="78"/>
-      <c r="F10" s="79"/>
+      <c r="E10" s="97"/>
+      <c r="F10" s="98"/>
     </row>
     <row r="11" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="105" t="s">
+      <c r="B11" s="120" t="s">
         <v>164</v>
       </c>
-      <c r="C11" s="105"/>
-      <c r="D11" s="105"/>
-      <c r="E11" s="105"/>
-      <c r="F11" s="106"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
+      <c r="F11" s="121"/>
     </row>
     <row r="12" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="113"/>
-      <c r="B12" s="114"/>
-      <c r="C12" s="114"/>
-      <c r="D12" s="114"/>
-      <c r="E12" s="114"/>
-      <c r="F12" s="115"/>
+      <c r="A12" s="111"/>
+      <c r="B12" s="112"/>
+      <c r="C12" s="112"/>
+      <c r="D12" s="112"/>
+      <c r="E12" s="112"/>
+      <c r="F12" s="113"/>
     </row>
     <row r="13" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="85" t="s">
+      <c r="A13" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="86"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="87"/>
+      <c r="B13" s="89"/>
+      <c r="C13" s="89"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="90"/>
     </row>
     <row r="14" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
@@ -8081,14 +8081,14 @@
     </row>
     <row r="23" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="85" t="s">
+      <c r="A24" s="88" t="s">
         <v>77</v>
       </c>
-      <c r="B24" s="86"/>
-      <c r="C24" s="86"/>
-      <c r="D24" s="86"/>
-      <c r="E24" s="86"/>
-      <c r="F24" s="87"/>
+      <c r="B24" s="89"/>
+      <c r="C24" s="89"/>
+      <c r="D24" s="89"/>
+      <c r="E24" s="89"/>
+      <c r="F24" s="90"/>
     </row>
     <row r="25" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="39" t="s">
@@ -8147,22 +8147,22 @@
       <c r="F29" s="43"/>
     </row>
     <row r="30" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="113"/>
-      <c r="B30" s="114"/>
-      <c r="C30" s="114"/>
-      <c r="D30" s="114"/>
-      <c r="E30" s="114"/>
-      <c r="F30" s="115"/>
+      <c r="A30" s="111"/>
+      <c r="B30" s="112"/>
+      <c r="C30" s="112"/>
+      <c r="D30" s="112"/>
+      <c r="E30" s="112"/>
+      <c r="F30" s="113"/>
     </row>
     <row r="31" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="85" t="s">
+      <c r="A31" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="B31" s="86"/>
-      <c r="C31" s="86"/>
-      <c r="D31" s="86"/>
-      <c r="E31" s="86"/>
-      <c r="F31" s="87"/>
+      <c r="B31" s="89"/>
+      <c r="C31" s="89"/>
+      <c r="D31" s="89"/>
+      <c r="E31" s="89"/>
+      <c r="F31" s="90"/>
     </row>
     <row r="32" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A32" s="39" t="s">
@@ -8174,114 +8174,130 @@
       <c r="C32" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="D32" s="116" t="s">
+      <c r="D32" s="106" t="s">
         <v>65</v>
       </c>
-      <c r="E32" s="116"/>
-      <c r="F32" s="117"/>
+      <c r="E32" s="106"/>
+      <c r="F32" s="107"/>
     </row>
     <row r="33" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A33" s="39"/>
       <c r="B33" s="40"/>
       <c r="C33" s="40"/>
-      <c r="D33" s="118"/>
-      <c r="E33" s="118"/>
-      <c r="F33" s="119"/>
+      <c r="D33" s="109"/>
+      <c r="E33" s="109"/>
+      <c r="F33" s="110"/>
     </row>
     <row r="34" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A34" s="39"/>
       <c r="B34" s="40"/>
       <c r="C34" s="40"/>
-      <c r="D34" s="118"/>
-      <c r="E34" s="118"/>
-      <c r="F34" s="119"/>
+      <c r="D34" s="109"/>
+      <c r="E34" s="109"/>
+      <c r="F34" s="110"/>
     </row>
     <row r="35" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A35" s="39"/>
       <c r="B35" s="40"/>
       <c r="C35" s="40"/>
-      <c r="D35" s="118"/>
-      <c r="E35" s="118"/>
-      <c r="F35" s="119"/>
+      <c r="D35" s="109"/>
+      <c r="E35" s="109"/>
+      <c r="F35" s="110"/>
     </row>
     <row r="36" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A36" s="41"/>
       <c r="B36" s="42"/>
       <c r="C36" s="42"/>
-      <c r="D36" s="120"/>
-      <c r="E36" s="120"/>
-      <c r="F36" s="121"/>
+      <c r="D36" s="115"/>
+      <c r="E36" s="115"/>
+      <c r="F36" s="116"/>
     </row>
     <row r="37" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="110"/>
-      <c r="B37" s="111"/>
-      <c r="C37" s="111"/>
-      <c r="D37" s="111"/>
-      <c r="E37" s="111"/>
-      <c r="F37" s="112"/>
+      <c r="A37" s="117"/>
+      <c r="B37" s="118"/>
+      <c r="C37" s="118"/>
+      <c r="D37" s="118"/>
+      <c r="E37" s="118"/>
+      <c r="F37" s="119"/>
     </row>
     <row r="38" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="85" t="s">
+      <c r="A38" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="B38" s="86"/>
-      <c r="C38" s="86"/>
-      <c r="D38" s="86"/>
-      <c r="E38" s="86"/>
-      <c r="F38" s="87"/>
+      <c r="B38" s="89"/>
+      <c r="C38" s="89"/>
+      <c r="D38" s="89"/>
+      <c r="E38" s="89"/>
+      <c r="F38" s="90"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="122"/>
-      <c r="B39" s="116"/>
-      <c r="C39" s="116"/>
-      <c r="D39" s="116"/>
-      <c r="E39" s="116"/>
-      <c r="F39" s="117"/>
+      <c r="A39" s="105"/>
+      <c r="B39" s="106"/>
+      <c r="C39" s="106"/>
+      <c r="D39" s="106"/>
+      <c r="E39" s="106"/>
+      <c r="F39" s="107"/>
     </row>
     <row r="40" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="123"/>
-      <c r="B40" s="118"/>
-      <c r="C40" s="118"/>
-      <c r="D40" s="118"/>
-      <c r="E40" s="118"/>
-      <c r="F40" s="119"/>
+      <c r="A40" s="108"/>
+      <c r="B40" s="109"/>
+      <c r="C40" s="109"/>
+      <c r="D40" s="109"/>
+      <c r="E40" s="109"/>
+      <c r="F40" s="110"/>
     </row>
     <row r="41" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="113"/>
-      <c r="B41" s="114"/>
-      <c r="C41" s="114"/>
-      <c r="D41" s="114"/>
-      <c r="E41" s="114"/>
-      <c r="F41" s="115"/>
+      <c r="A41" s="111"/>
+      <c r="B41" s="112"/>
+      <c r="C41" s="112"/>
+      <c r="D41" s="112"/>
+      <c r="E41" s="112"/>
+      <c r="F41" s="113"/>
     </row>
     <row r="42" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="85" t="s">
+      <c r="A42" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="86"/>
-      <c r="C42" s="86"/>
-      <c r="D42" s="86"/>
-      <c r="E42" s="86"/>
-      <c r="F42" s="87"/>
+      <c r="B42" s="89"/>
+      <c r="C42" s="89"/>
+      <c r="D42" s="89"/>
+      <c r="E42" s="89"/>
+      <c r="F42" s="90"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="122"/>
-      <c r="B43" s="116"/>
-      <c r="C43" s="116"/>
-      <c r="D43" s="116"/>
-      <c r="E43" s="116"/>
-      <c r="F43" s="117"/>
+      <c r="A43" s="105"/>
+      <c r="B43" s="106"/>
+      <c r="C43" s="106"/>
+      <c r="D43" s="106"/>
+      <c r="E43" s="106"/>
+      <c r="F43" s="107"/>
     </row>
     <row r="44" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="124"/>
-      <c r="B44" s="120"/>
-      <c r="C44" s="120"/>
-      <c r="D44" s="120"/>
-      <c r="E44" s="120"/>
-      <c r="F44" s="121"/>
+      <c r="A44" s="114"/>
+      <c r="B44" s="115"/>
+      <c r="C44" s="115"/>
+      <c r="D44" s="115"/>
+      <c r="E44" s="115"/>
+      <c r="F44" s="116"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="A39:F40"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="A43:F44"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D36:F36"/>
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B2:F2"/>
@@ -8294,22 +8310,6 @@
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:F10"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="A39:F40"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="A43:F44"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Colocar percentagem_x000a_" sqref="B10:C10" xr:uid="{2B355D78-2274-AF4C-B934-68ADBC7FB191}"/>
@@ -8764,7 +8764,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G2"/>
+      <selection activeCell="F10" sqref="F10:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8776,95 +8776,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="99"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="82"/>
     </row>
     <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="100" t="s">
+      <c r="B2" s="83" t="s">
         <v>209</v>
       </c>
       <c r="C2" s="68"/>
       <c r="D2" s="68"/>
       <c r="E2" s="68"/>
       <c r="F2" s="68"/>
-      <c r="G2" s="101"/>
+      <c r="G2" s="84"/>
     </row>
     <row r="3" spans="1:7" ht="46" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="85" t="s">
         <v>88</v>
       </c>
       <c r="C3" s="69"/>
       <c r="D3" s="69"/>
       <c r="E3" s="69"/>
       <c r="F3" s="69"/>
-      <c r="G3" s="81"/>
+      <c r="G3" s="86"/>
     </row>
     <row r="4" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="80" t="s">
+      <c r="B4" s="85" t="s">
         <v>51</v>
       </c>
       <c r="C4" s="69"/>
       <c r="D4" s="69"/>
       <c r="E4" s="69"/>
       <c r="F4" s="69"/>
-      <c r="G4" s="81"/>
+      <c r="G4" s="86"/>
     </row>
     <row r="5" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="80" t="s">
+      <c r="B5" s="85" t="s">
         <v>87</v>
       </c>
       <c r="C5" s="69"/>
       <c r="D5" s="69"/>
       <c r="E5" s="69"/>
       <c r="F5" s="69"/>
-      <c r="G5" s="81"/>
+      <c r="G5" s="86"/>
     </row>
     <row r="6" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="94" t="s">
+      <c r="B6" s="74"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="77" t="s">
         <v>57</v>
       </c>
-      <c r="F6" s="95"/>
-      <c r="G6" s="96"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="79"/>
     </row>
     <row r="7" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="35"/>
       <c r="G7" s="33"/>
     </row>
     <row r="8" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="85" t="s">
+      <c r="A8" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="86"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="87"/>
+      <c r="B8" s="89"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="90"/>
     </row>
     <row r="9" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
@@ -9053,7 +9053,7 @@
       <c r="G18" s="37"/>
     </row>
     <row r="19" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A19" s="88" t="s">
+      <c r="A19" s="91" t="s">
         <v>21</v>
       </c>
       <c r="B19" s="63"/>
@@ -9073,57 +9073,57 @@
       <c r="C20" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="89" t="s">
+      <c r="D20" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="E20" s="89"/>
-      <c r="F20" s="89"/>
-      <c r="G20" s="89"/>
+      <c r="E20" s="92"/>
+      <c r="F20" s="92"/>
+      <c r="G20" s="92"/>
     </row>
     <row r="21" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="90"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="90"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
     </row>
     <row r="22" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="90"/>
-      <c r="E22" s="90"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="90"/>
+      <c r="D22" s="93"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="93"/>
     </row>
     <row r="23" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="90"/>
-      <c r="E23" s="90"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="90"/>
+      <c r="D23" s="93"/>
+      <c r="E23" s="93"/>
+      <c r="F23" s="93"/>
+      <c r="G23" s="93"/>
     </row>
     <row r="24" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="90"/>
-      <c r="E24" s="90"/>
-      <c r="F24" s="90"/>
-      <c r="G24" s="90"/>
+      <c r="D24" s="93"/>
+      <c r="E24" s="93"/>
+      <c r="F24" s="93"/>
+      <c r="G24" s="93"/>
     </row>
     <row r="25" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="90"/>
-      <c r="E25" s="90"/>
-      <c r="F25" s="90"/>
-      <c r="G25" s="90"/>
+      <c r="D25" s="93"/>
+      <c r="E25" s="93"/>
+      <c r="F25" s="93"/>
+      <c r="G25" s="93"/>
     </row>
     <row r="26" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A26" s="36"/>
@@ -9133,7 +9133,7 @@
       <c r="G26" s="33"/>
     </row>
     <row r="27" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A27" s="88" t="s">
+      <c r="A27" s="91" t="s">
         <v>29</v>
       </c>
       <c r="B27" s="63"/>
@@ -9150,13 +9150,13 @@
       <c r="B28" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="89" t="s">
+      <c r="C28" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="89"/>
-      <c r="E28" s="89"/>
-      <c r="F28" s="89"/>
-      <c r="G28" s="89"/>
+      <c r="D28" s="92"/>
+      <c r="E28" s="92"/>
+      <c r="F28" s="92"/>
+      <c r="G28" s="92"/>
     </row>
     <row r="29" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
@@ -9165,42 +9165,42 @@
       <c r="B29" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C29" s="74" t="s">
+      <c r="C29" s="87" t="s">
         <v>109</v>
       </c>
-      <c r="D29" s="74"/>
-      <c r="E29" s="74"/>
-      <c r="F29" s="74"/>
-      <c r="G29" s="74"/>
+      <c r="D29" s="87"/>
+      <c r="E29" s="87"/>
+      <c r="F29" s="87"/>
+      <c r="G29" s="87"/>
     </row>
     <row r="30" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>2</v>
       </c>
       <c r="B30" s="1"/>
-      <c r="C30" s="74" t="s">
+      <c r="C30" s="87" t="s">
         <v>112</v>
       </c>
-      <c r="D30" s="74"/>
-      <c r="E30" s="74"/>
-      <c r="F30" s="74"/>
-      <c r="G30" s="74"/>
+      <c r="D30" s="87"/>
+      <c r="E30" s="87"/>
+      <c r="F30" s="87"/>
+      <c r="G30" s="87"/>
     </row>
     <row r="31" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
-      <c r="C31" s="74"/>
-      <c r="D31" s="74"/>
-      <c r="E31" s="74"/>
-      <c r="F31" s="74"/>
-      <c r="G31" s="74"/>
+      <c r="C31" s="87"/>
+      <c r="D31" s="87"/>
+      <c r="E31" s="87"/>
+      <c r="F31" s="87"/>
+      <c r="G31" s="87"/>
     </row>
     <row r="32" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="G32" s="33"/>
     </row>
     <row r="33" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="75" t="s">
+      <c r="A33" s="94" t="s">
         <v>22</v>
       </c>
       <c r="B33" s="71"/>
@@ -9208,28 +9208,28 @@
       <c r="D33" s="71"/>
       <c r="E33" s="71"/>
       <c r="F33" s="71"/>
-      <c r="G33" s="76"/>
+      <c r="G33" s="95"/>
     </row>
     <row r="34" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="77"/>
-      <c r="B34" s="78"/>
-      <c r="C34" s="78"/>
-      <c r="D34" s="78"/>
-      <c r="E34" s="78"/>
-      <c r="F34" s="78"/>
-      <c r="G34" s="79"/>
+      <c r="A34" s="96"/>
+      <c r="B34" s="97"/>
+      <c r="C34" s="97"/>
+      <c r="D34" s="97"/>
+      <c r="E34" s="97"/>
+      <c r="F34" s="97"/>
+      <c r="G34" s="98"/>
     </row>
     <row r="35" spans="1:7" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="77"/>
-      <c r="B35" s="78"/>
-      <c r="C35" s="78"/>
-      <c r="D35" s="78"/>
-      <c r="E35" s="78"/>
-      <c r="F35" s="78"/>
-      <c r="G35" s="79"/>
+      <c r="A35" s="96"/>
+      <c r="B35" s="97"/>
+      <c r="C35" s="97"/>
+      <c r="D35" s="97"/>
+      <c r="E35" s="97"/>
+      <c r="F35" s="97"/>
+      <c r="G35" s="98"/>
     </row>
     <row r="36" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="75" t="s">
+      <c r="A36" s="94" t="s">
         <v>10</v>
       </c>
       <c r="B36" s="71"/>
@@ -9237,35 +9237,33 @@
       <c r="D36" s="71"/>
       <c r="E36" s="71"/>
       <c r="F36" s="71"/>
-      <c r="G36" s="76"/>
+      <c r="G36" s="95"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="80"/>
+      <c r="A37" s="85"/>
       <c r="B37" s="69"/>
       <c r="C37" s="69"/>
       <c r="D37" s="69"/>
       <c r="E37" s="69"/>
       <c r="F37" s="69"/>
-      <c r="G37" s="81"/>
+      <c r="G37" s="86"/>
     </row>
     <row r="38" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="82"/>
-      <c r="B38" s="83"/>
-      <c r="C38" s="83"/>
-      <c r="D38" s="83"/>
-      <c r="E38" s="83"/>
-      <c r="F38" s="83"/>
-      <c r="G38" s="84"/>
+      <c r="A38" s="99"/>
+      <c r="B38" s="100"/>
+      <c r="C38" s="100"/>
+      <c r="D38" s="100"/>
+      <c r="E38" s="100"/>
+      <c r="F38" s="100"/>
+      <c r="G38" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="A34:G35"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A37:G38"/>
     <mergeCell ref="C30:G30"/>
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="A19:G19"/>
@@ -9278,11 +9276,13 @@
     <mergeCell ref="A27:G27"/>
     <mergeCell ref="C28:G28"/>
     <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="A34:G35"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A37:G38"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Exemplo:_x000a_id -&gt; nome -&gt; categoria -&gt; ALL" sqref="C29:C32" xr:uid="{386320E1-7050-C749-9143-6F7D856CB823}"/>
@@ -9340,8 +9340,8 @@
   </sheetPr>
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:F13"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9351,67 +9351,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="99"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="82"/>
     </row>
     <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="100" t="s">
+      <c r="B2" s="83" t="s">
         <v>210</v>
       </c>
       <c r="C2" s="68"/>
       <c r="D2" s="68"/>
       <c r="E2" s="68"/>
       <c r="F2" s="68"/>
-      <c r="G2" s="101"/>
+      <c r="G2" s="84"/>
     </row>
     <row r="3" spans="1:7" ht="46" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="85" t="s">
         <v>100</v>
       </c>
       <c r="C3" s="69"/>
       <c r="D3" s="69"/>
       <c r="E3" s="69"/>
       <c r="F3" s="69"/>
-      <c r="G3" s="81"/>
+      <c r="G3" s="86"/>
     </row>
     <row r="4" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="80" t="s">
+      <c r="B4" s="85" t="s">
         <v>53</v>
       </c>
       <c r="C4" s="69"/>
       <c r="D4" s="69"/>
       <c r="E4" s="69"/>
       <c r="F4" s="69"/>
-      <c r="G4" s="81"/>
+      <c r="G4" s="86"/>
     </row>
     <row r="5" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="80" t="s">
+      <c r="B5" s="85" t="s">
         <v>99</v>
       </c>
       <c r="C5" s="69"/>
       <c r="D5" s="69"/>
       <c r="E5" s="69"/>
       <c r="F5" s="69"/>
-      <c r="G5" s="81"/>
+      <c r="G5" s="86"/>
     </row>
     <row r="6" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
@@ -9420,26 +9420,26 @@
       <c r="B6" s="102"/>
       <c r="C6" s="103"/>
       <c r="D6" s="104"/>
-      <c r="E6" s="94" t="s">
+      <c r="E6" s="77" t="s">
         <v>57</v>
       </c>
-      <c r="F6" s="95"/>
-      <c r="G6" s="96"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="79"/>
     </row>
     <row r="7" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="35"/>
       <c r="G7" s="33"/>
     </row>
     <row r="8" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="85" t="s">
+      <c r="A8" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="86"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="87"/>
+      <c r="B8" s="89"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="90"/>
     </row>
     <row r="9" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
@@ -9540,7 +9540,7 @@
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G13" s="1">
         <v>1</v>
@@ -9595,7 +9595,7 @@
       <c r="G17" s="37"/>
     </row>
     <row r="18" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A18" s="88" t="s">
+      <c r="A18" s="91" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="63"/>
@@ -9615,57 +9615,57 @@
       <c r="C19" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="89" t="s">
+      <c r="D19" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="E19" s="89"/>
-      <c r="F19" s="89"/>
-      <c r="G19" s="89"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="92"/>
+      <c r="G19" s="92"/>
     </row>
     <row r="20" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="90"/>
-      <c r="E20" s="90"/>
-      <c r="F20" s="90"/>
-      <c r="G20" s="90"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="93"/>
+      <c r="F20" s="93"/>
+      <c r="G20" s="93"/>
     </row>
     <row r="21" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="90"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="90"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
     </row>
     <row r="22" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="90"/>
-      <c r="E22" s="90"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="90"/>
+      <c r="D22" s="93"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="93"/>
     </row>
     <row r="23" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="90"/>
-      <c r="E23" s="90"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="90"/>
+      <c r="D23" s="93"/>
+      <c r="E23" s="93"/>
+      <c r="F23" s="93"/>
+      <c r="G23" s="93"/>
     </row>
     <row r="24" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="90"/>
-      <c r="E24" s="90"/>
-      <c r="F24" s="90"/>
-      <c r="G24" s="90"/>
+      <c r="D24" s="93"/>
+      <c r="E24" s="93"/>
+      <c r="F24" s="93"/>
+      <c r="G24" s="93"/>
     </row>
     <row r="25" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="36"/>
@@ -9675,7 +9675,7 @@
       <c r="G25" s="33"/>
     </row>
     <row r="26" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A26" s="88" t="s">
+      <c r="A26" s="91" t="s">
         <v>29</v>
       </c>
       <c r="B26" s="63"/>
@@ -9692,47 +9692,47 @@
       <c r="B27" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="89" t="s">
+      <c r="C27" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="89"/>
-      <c r="E27" s="89"/>
-      <c r="F27" s="89"/>
-      <c r="G27" s="89"/>
+      <c r="D27" s="92"/>
+      <c r="E27" s="92"/>
+      <c r="F27" s="92"/>
+      <c r="G27" s="92"/>
     </row>
     <row r="28" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
-      <c r="C28" s="74"/>
-      <c r="D28" s="74"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="74"/>
-      <c r="G28" s="74"/>
+      <c r="C28" s="87"/>
+      <c r="D28" s="87"/>
+      <c r="E28" s="87"/>
+      <c r="F28" s="87"/>
+      <c r="G28" s="87"/>
     </row>
     <row r="29" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="74"/>
-      <c r="D29" s="74"/>
-      <c r="E29" s="74"/>
-      <c r="F29" s="74"/>
-      <c r="G29" s="74"/>
+      <c r="C29" s="87"/>
+      <c r="D29" s="87"/>
+      <c r="E29" s="87"/>
+      <c r="F29" s="87"/>
+      <c r="G29" s="87"/>
     </row>
     <row r="30" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="74"/>
-      <c r="D30" s="74"/>
-      <c r="E30" s="74"/>
-      <c r="F30" s="74"/>
-      <c r="G30" s="74"/>
+      <c r="C30" s="87"/>
+      <c r="D30" s="87"/>
+      <c r="E30" s="87"/>
+      <c r="F30" s="87"/>
+      <c r="G30" s="87"/>
     </row>
     <row r="31" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="G31" s="33"/>
     </row>
     <row r="32" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="75" t="s">
+      <c r="A32" s="94" t="s">
         <v>22</v>
       </c>
       <c r="B32" s="71"/>
@@ -9740,28 +9740,28 @@
       <c r="D32" s="71"/>
       <c r="E32" s="71"/>
       <c r="F32" s="71"/>
-      <c r="G32" s="76"/>
+      <c r="G32" s="95"/>
     </row>
     <row r="33" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="77"/>
-      <c r="B33" s="78"/>
-      <c r="C33" s="78"/>
-      <c r="D33" s="78"/>
-      <c r="E33" s="78"/>
-      <c r="F33" s="78"/>
-      <c r="G33" s="79"/>
+      <c r="A33" s="96"/>
+      <c r="B33" s="97"/>
+      <c r="C33" s="97"/>
+      <c r="D33" s="97"/>
+      <c r="E33" s="97"/>
+      <c r="F33" s="97"/>
+      <c r="G33" s="98"/>
     </row>
     <row r="34" spans="1:7" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="77"/>
-      <c r="B34" s="78"/>
-      <c r="C34" s="78"/>
-      <c r="D34" s="78"/>
-      <c r="E34" s="78"/>
-      <c r="F34" s="78"/>
-      <c r="G34" s="79"/>
+      <c r="A34" s="96"/>
+      <c r="B34" s="97"/>
+      <c r="C34" s="97"/>
+      <c r="D34" s="97"/>
+      <c r="E34" s="97"/>
+      <c r="F34" s="97"/>
+      <c r="G34" s="98"/>
     </row>
     <row r="35" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="75" t="s">
+      <c r="A35" s="94" t="s">
         <v>10</v>
       </c>
       <c r="B35" s="71"/>
@@ -9769,33 +9769,35 @@
       <c r="D35" s="71"/>
       <c r="E35" s="71"/>
       <c r="F35" s="71"/>
-      <c r="G35" s="76"/>
+      <c r="G35" s="95"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="80"/>
+      <c r="A36" s="85"/>
       <c r="B36" s="69"/>
       <c r="C36" s="69"/>
       <c r="D36" s="69"/>
       <c r="E36" s="69"/>
       <c r="F36" s="69"/>
-      <c r="G36" s="81"/>
+      <c r="G36" s="86"/>
     </row>
     <row r="37" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="82"/>
-      <c r="B37" s="83"/>
-      <c r="C37" s="83"/>
-      <c r="D37" s="83"/>
-      <c r="E37" s="83"/>
-      <c r="F37" s="83"/>
-      <c r="G37" s="84"/>
+      <c r="A37" s="99"/>
+      <c r="B37" s="100"/>
+      <c r="C37" s="100"/>
+      <c r="D37" s="100"/>
+      <c r="E37" s="100"/>
+      <c r="F37" s="100"/>
+      <c r="G37" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="A33:G34"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="A36:G37"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
     <mergeCell ref="C29:G29"/>
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="A18:G18"/>
@@ -9808,13 +9810,11 @@
     <mergeCell ref="A26:G26"/>
     <mergeCell ref="C27:G27"/>
     <mergeCell ref="C28:G28"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="A33:G34"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="A36:G37"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Colocar percentagem" sqref="B6" xr:uid="{F51EFD33-359E-334A-A51E-A657A56E6972}">
@@ -9872,7 +9872,7 @@
   </sheetPr>
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -9884,95 +9884,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="99"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="82"/>
     </row>
     <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="100" t="s">
+      <c r="B2" s="83" t="s">
         <v>211</v>
       </c>
       <c r="C2" s="68"/>
       <c r="D2" s="68"/>
       <c r="E2" s="68"/>
       <c r="F2" s="68"/>
-      <c r="G2" s="101"/>
+      <c r="G2" s="84"/>
     </row>
     <row r="3" spans="1:7" ht="46" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="85" t="s">
         <v>148</v>
       </c>
       <c r="C3" s="69"/>
       <c r="D3" s="69"/>
       <c r="E3" s="69"/>
       <c r="F3" s="69"/>
-      <c r="G3" s="81"/>
+      <c r="G3" s="86"/>
     </row>
     <row r="4" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="80" t="s">
+      <c r="B4" s="85" t="s">
         <v>53</v>
       </c>
       <c r="C4" s="69"/>
       <c r="D4" s="69"/>
       <c r="E4" s="69"/>
       <c r="F4" s="69"/>
-      <c r="G4" s="81"/>
+      <c r="G4" s="86"/>
     </row>
     <row r="5" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="80" t="s">
+      <c r="B5" s="85" t="s">
         <v>110</v>
       </c>
       <c r="C5" s="69"/>
       <c r="D5" s="69"/>
       <c r="E5" s="69"/>
       <c r="F5" s="69"/>
-      <c r="G5" s="81"/>
+      <c r="G5" s="86"/>
     </row>
     <row r="6" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="94" t="s">
+      <c r="B6" s="74"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="77" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="95"/>
-      <c r="G6" s="96"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="79"/>
     </row>
     <row r="7" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="35"/>
       <c r="G7" s="33"/>
     </row>
     <row r="8" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="85" t="s">
+      <c r="A8" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="86"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="87"/>
+      <c r="B8" s="89"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="90"/>
     </row>
     <row r="9" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
@@ -10128,7 +10128,7 @@
       <c r="G17" s="37"/>
     </row>
     <row r="18" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A18" s="88"/>
+      <c r="A18" s="91"/>
       <c r="B18" s="63"/>
       <c r="C18" s="63"/>
       <c r="D18" s="63"/>
@@ -10146,57 +10146,57 @@
       <c r="C19" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="89" t="s">
+      <c r="D19" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="E19" s="89"/>
-      <c r="F19" s="89"/>
-      <c r="G19" s="89"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="92"/>
+      <c r="G19" s="92"/>
     </row>
     <row r="20" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="90"/>
-      <c r="E20" s="90"/>
-      <c r="F20" s="90"/>
-      <c r="G20" s="90"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="93"/>
+      <c r="F20" s="93"/>
+      <c r="G20" s="93"/>
     </row>
     <row r="21" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="90"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="90"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
     </row>
     <row r="22" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="90"/>
-      <c r="E22" s="90"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="90"/>
+      <c r="D22" s="93"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="93"/>
     </row>
     <row r="23" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="90"/>
-      <c r="E23" s="90"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="90"/>
+      <c r="D23" s="93"/>
+      <c r="E23" s="93"/>
+      <c r="F23" s="93"/>
+      <c r="G23" s="93"/>
     </row>
     <row r="24" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="90"/>
-      <c r="E24" s="90"/>
-      <c r="F24" s="90"/>
-      <c r="G24" s="90"/>
+      <c r="D24" s="93"/>
+      <c r="E24" s="93"/>
+      <c r="F24" s="93"/>
+      <c r="G24" s="93"/>
     </row>
     <row r="25" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="36"/>
@@ -10206,7 +10206,7 @@
       <c r="G25" s="33"/>
     </row>
     <row r="26" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A26" s="88" t="s">
+      <c r="A26" s="91" t="s">
         <v>29</v>
       </c>
       <c r="B26" s="63"/>
@@ -10223,47 +10223,47 @@
       <c r="B27" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="89" t="s">
+      <c r="C27" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="89"/>
-      <c r="E27" s="89"/>
-      <c r="F27" s="89"/>
-      <c r="G27" s="89"/>
+      <c r="D27" s="92"/>
+      <c r="E27" s="92"/>
+      <c r="F27" s="92"/>
+      <c r="G27" s="92"/>
     </row>
     <row r="28" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
-      <c r="C28" s="74"/>
-      <c r="D28" s="74"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="74"/>
-      <c r="G28" s="74"/>
+      <c r="C28" s="87"/>
+      <c r="D28" s="87"/>
+      <c r="E28" s="87"/>
+      <c r="F28" s="87"/>
+      <c r="G28" s="87"/>
     </row>
     <row r="29" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="74"/>
-      <c r="D29" s="74"/>
-      <c r="E29" s="74"/>
-      <c r="F29" s="74"/>
-      <c r="G29" s="74"/>
+      <c r="C29" s="87"/>
+      <c r="D29" s="87"/>
+      <c r="E29" s="87"/>
+      <c r="F29" s="87"/>
+      <c r="G29" s="87"/>
     </row>
     <row r="30" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="74"/>
-      <c r="D30" s="74"/>
-      <c r="E30" s="74"/>
-      <c r="F30" s="74"/>
-      <c r="G30" s="74"/>
+      <c r="C30" s="87"/>
+      <c r="D30" s="87"/>
+      <c r="E30" s="87"/>
+      <c r="F30" s="87"/>
+      <c r="G30" s="87"/>
     </row>
     <row r="31" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="G31" s="33"/>
     </row>
     <row r="32" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="75" t="s">
+      <c r="A32" s="94" t="s">
         <v>22</v>
       </c>
       <c r="B32" s="71"/>
@@ -10271,28 +10271,28 @@
       <c r="D32" s="71"/>
       <c r="E32" s="71"/>
       <c r="F32" s="71"/>
-      <c r="G32" s="76"/>
+      <c r="G32" s="95"/>
     </row>
     <row r="33" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="77"/>
-      <c r="B33" s="78"/>
-      <c r="C33" s="78"/>
-      <c r="D33" s="78"/>
-      <c r="E33" s="78"/>
-      <c r="F33" s="78"/>
-      <c r="G33" s="79"/>
+      <c r="A33" s="96"/>
+      <c r="B33" s="97"/>
+      <c r="C33" s="97"/>
+      <c r="D33" s="97"/>
+      <c r="E33" s="97"/>
+      <c r="F33" s="97"/>
+      <c r="G33" s="98"/>
     </row>
     <row r="34" spans="1:7" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="77"/>
-      <c r="B34" s="78"/>
-      <c r="C34" s="78"/>
-      <c r="D34" s="78"/>
-      <c r="E34" s="78"/>
-      <c r="F34" s="78"/>
-      <c r="G34" s="79"/>
+      <c r="A34" s="96"/>
+      <c r="B34" s="97"/>
+      <c r="C34" s="97"/>
+      <c r="D34" s="97"/>
+      <c r="E34" s="97"/>
+      <c r="F34" s="97"/>
+      <c r="G34" s="98"/>
     </row>
     <row r="35" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="75" t="s">
+      <c r="A35" s="94" t="s">
         <v>10</v>
       </c>
       <c r="B35" s="71"/>
@@ -10300,36 +10300,28 @@
       <c r="D35" s="71"/>
       <c r="E35" s="71"/>
       <c r="F35" s="71"/>
-      <c r="G35" s="76"/>
+      <c r="G35" s="95"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="80"/>
+      <c r="A36" s="85"/>
       <c r="B36" s="69"/>
       <c r="C36" s="69"/>
       <c r="D36" s="69"/>
       <c r="E36" s="69"/>
       <c r="F36" s="69"/>
-      <c r="G36" s="81"/>
+      <c r="G36" s="86"/>
     </row>
     <row r="37" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="82"/>
-      <c r="B37" s="83"/>
-      <c r="C37" s="83"/>
-      <c r="D37" s="83"/>
-      <c r="E37" s="83"/>
-      <c r="F37" s="83"/>
-      <c r="G37" s="84"/>
+      <c r="A37" s="99"/>
+      <c r="B37" s="100"/>
+      <c r="C37" s="100"/>
+      <c r="D37" s="100"/>
+      <c r="E37" s="100"/>
+      <c r="F37" s="100"/>
+      <c r="G37" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="A26:G26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D23:G23"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="D19:G19"/>
     <mergeCell ref="D20:G20"/>
@@ -10346,6 +10338,14 @@
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="B5:G5"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D23:G23"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Colocar percentagem" sqref="B6" xr:uid="{C5DD908A-3688-A14E-B89F-E074FAFCDF99}">
@@ -10415,95 +10415,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="99"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="82"/>
     </row>
     <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="100" t="s">
+      <c r="B2" s="83" t="s">
         <v>212</v>
       </c>
       <c r="C2" s="68"/>
       <c r="D2" s="68"/>
       <c r="E2" s="68"/>
       <c r="F2" s="68"/>
-      <c r="G2" s="101"/>
+      <c r="G2" s="84"/>
     </row>
     <row r="3" spans="1:7" ht="46" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="85" t="s">
         <v>124</v>
       </c>
       <c r="C3" s="69"/>
       <c r="D3" s="69"/>
       <c r="E3" s="69"/>
       <c r="F3" s="69"/>
-      <c r="G3" s="81"/>
+      <c r="G3" s="86"/>
     </row>
     <row r="4" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="80" t="s">
+      <c r="B4" s="85" t="s">
         <v>51</v>
       </c>
       <c r="C4" s="69"/>
       <c r="D4" s="69"/>
       <c r="E4" s="69"/>
       <c r="F4" s="69"/>
-      <c r="G4" s="81"/>
+      <c r="G4" s="86"/>
     </row>
     <row r="5" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="80" t="s">
+      <c r="B5" s="85" t="s">
         <v>113</v>
       </c>
       <c r="C5" s="69"/>
       <c r="D5" s="69"/>
       <c r="E5" s="69"/>
       <c r="F5" s="69"/>
-      <c r="G5" s="81"/>
+      <c r="G5" s="86"/>
     </row>
     <row r="6" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="94" t="s">
+      <c r="B6" s="74"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="77" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="95"/>
-      <c r="G6" s="96"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="79"/>
     </row>
     <row r="7" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="35"/>
       <c r="G7" s="33"/>
     </row>
     <row r="8" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="85" t="s">
+      <c r="A8" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="86"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="87"/>
+      <c r="B8" s="89"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="90"/>
     </row>
     <row r="9" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
@@ -10647,7 +10647,7 @@
       <c r="G17" s="37"/>
     </row>
     <row r="18" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A18" s="88" t="s">
+      <c r="A18" s="91" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="63"/>
@@ -10667,57 +10667,57 @@
       <c r="C19" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="89" t="s">
+      <c r="D19" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="E19" s="89"/>
-      <c r="F19" s="89"/>
-      <c r="G19" s="89"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="92"/>
+      <c r="G19" s="92"/>
     </row>
     <row r="20" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="90"/>
-      <c r="E20" s="90"/>
-      <c r="F20" s="90"/>
-      <c r="G20" s="90"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="93"/>
+      <c r="F20" s="93"/>
+      <c r="G20" s="93"/>
     </row>
     <row r="21" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="90"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="90"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
     </row>
     <row r="22" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="90"/>
-      <c r="E22" s="90"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="90"/>
+      <c r="D22" s="93"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="93"/>
     </row>
     <row r="23" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="90"/>
-      <c r="E23" s="90"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="90"/>
+      <c r="D23" s="93"/>
+      <c r="E23" s="93"/>
+      <c r="F23" s="93"/>
+      <c r="G23" s="93"/>
     </row>
     <row r="24" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="90"/>
-      <c r="E24" s="90"/>
-      <c r="F24" s="90"/>
-      <c r="G24" s="90"/>
+      <c r="D24" s="93"/>
+      <c r="E24" s="93"/>
+      <c r="F24" s="93"/>
+      <c r="G24" s="93"/>
     </row>
     <row r="25" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="36"/>
@@ -10727,7 +10727,7 @@
       <c r="G25" s="33"/>
     </row>
     <row r="26" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A26" s="88" t="s">
+      <c r="A26" s="91" t="s">
         <v>29</v>
       </c>
       <c r="B26" s="63"/>
@@ -10744,47 +10744,47 @@
       <c r="B27" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="89" t="s">
+      <c r="C27" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="89"/>
-      <c r="E27" s="89"/>
-      <c r="F27" s="89"/>
-      <c r="G27" s="89"/>
+      <c r="D27" s="92"/>
+      <c r="E27" s="92"/>
+      <c r="F27" s="92"/>
+      <c r="G27" s="92"/>
     </row>
     <row r="28" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
-      <c r="C28" s="74"/>
-      <c r="D28" s="74"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="74"/>
-      <c r="G28" s="74"/>
+      <c r="C28" s="87"/>
+      <c r="D28" s="87"/>
+      <c r="E28" s="87"/>
+      <c r="F28" s="87"/>
+      <c r="G28" s="87"/>
     </row>
     <row r="29" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="74"/>
-      <c r="D29" s="74"/>
-      <c r="E29" s="74"/>
-      <c r="F29" s="74"/>
-      <c r="G29" s="74"/>
+      <c r="C29" s="87"/>
+      <c r="D29" s="87"/>
+      <c r="E29" s="87"/>
+      <c r="F29" s="87"/>
+      <c r="G29" s="87"/>
     </row>
     <row r="30" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="74"/>
-      <c r="D30" s="74"/>
-      <c r="E30" s="74"/>
-      <c r="F30" s="74"/>
-      <c r="G30" s="74"/>
+      <c r="C30" s="87"/>
+      <c r="D30" s="87"/>
+      <c r="E30" s="87"/>
+      <c r="F30" s="87"/>
+      <c r="G30" s="87"/>
     </row>
     <row r="31" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="G31" s="33"/>
     </row>
     <row r="32" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="75" t="s">
+      <c r="A32" s="94" t="s">
         <v>22</v>
       </c>
       <c r="B32" s="71"/>
@@ -10792,28 +10792,28 @@
       <c r="D32" s="71"/>
       <c r="E32" s="71"/>
       <c r="F32" s="71"/>
-      <c r="G32" s="76"/>
+      <c r="G32" s="95"/>
     </row>
     <row r="33" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="77"/>
-      <c r="B33" s="78"/>
-      <c r="C33" s="78"/>
-      <c r="D33" s="78"/>
-      <c r="E33" s="78"/>
-      <c r="F33" s="78"/>
-      <c r="G33" s="79"/>
+      <c r="A33" s="96"/>
+      <c r="B33" s="97"/>
+      <c r="C33" s="97"/>
+      <c r="D33" s="97"/>
+      <c r="E33" s="97"/>
+      <c r="F33" s="97"/>
+      <c r="G33" s="98"/>
     </row>
     <row r="34" spans="1:7" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="77"/>
-      <c r="B34" s="78"/>
-      <c r="C34" s="78"/>
-      <c r="D34" s="78"/>
-      <c r="E34" s="78"/>
-      <c r="F34" s="78"/>
-      <c r="G34" s="79"/>
+      <c r="A34" s="96"/>
+      <c r="B34" s="97"/>
+      <c r="C34" s="97"/>
+      <c r="D34" s="97"/>
+      <c r="E34" s="97"/>
+      <c r="F34" s="97"/>
+      <c r="G34" s="98"/>
     </row>
     <row r="35" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="75" t="s">
+      <c r="A35" s="94" t="s">
         <v>10</v>
       </c>
       <c r="B35" s="71"/>
@@ -10821,33 +10821,35 @@
       <c r="D35" s="71"/>
       <c r="E35" s="71"/>
       <c r="F35" s="71"/>
-      <c r="G35" s="76"/>
+      <c r="G35" s="95"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="80"/>
+      <c r="A36" s="85"/>
       <c r="B36" s="69"/>
       <c r="C36" s="69"/>
       <c r="D36" s="69"/>
       <c r="E36" s="69"/>
       <c r="F36" s="69"/>
-      <c r="G36" s="81"/>
+      <c r="G36" s="86"/>
     </row>
     <row r="37" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="82"/>
-      <c r="B37" s="83"/>
-      <c r="C37" s="83"/>
-      <c r="D37" s="83"/>
-      <c r="E37" s="83"/>
-      <c r="F37" s="83"/>
-      <c r="G37" s="84"/>
+      <c r="A37" s="99"/>
+      <c r="B37" s="100"/>
+      <c r="C37" s="100"/>
+      <c r="D37" s="100"/>
+      <c r="E37" s="100"/>
+      <c r="F37" s="100"/>
+      <c r="G37" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="A33:G34"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="A36:G37"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
     <mergeCell ref="C29:G29"/>
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="A18:G18"/>
@@ -10860,13 +10862,11 @@
     <mergeCell ref="A26:G26"/>
     <mergeCell ref="C27:G27"/>
     <mergeCell ref="C28:G28"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="A33:G34"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="A36:G37"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Exemplo:_x000a_id -&gt; nome -&gt; categoria -&gt; ALL" sqref="C28:C31" xr:uid="{6749BA4D-A4C0-664A-8057-C07B807E371B}"/>
@@ -10936,95 +10936,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="99"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="82"/>
     </row>
     <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="100" t="s">
+      <c r="B2" s="83" t="s">
         <v>213</v>
       </c>
       <c r="C2" s="68"/>
       <c r="D2" s="68"/>
       <c r="E2" s="68"/>
       <c r="F2" s="68"/>
-      <c r="G2" s="101"/>
+      <c r="G2" s="84"/>
     </row>
     <row r="3" spans="1:7" ht="46" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="85" t="s">
         <v>149</v>
       </c>
       <c r="C3" s="69"/>
       <c r="D3" s="69"/>
       <c r="E3" s="69"/>
       <c r="F3" s="69"/>
-      <c r="G3" s="81"/>
+      <c r="G3" s="86"/>
     </row>
     <row r="4" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="80" t="s">
+      <c r="B4" s="85" t="s">
         <v>51</v>
       </c>
       <c r="C4" s="69"/>
       <c r="D4" s="69"/>
       <c r="E4" s="69"/>
       <c r="F4" s="69"/>
-      <c r="G4" s="81"/>
+      <c r="G4" s="86"/>
     </row>
     <row r="5" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="80" t="s">
+      <c r="B5" s="85" t="s">
         <v>150</v>
       </c>
       <c r="C5" s="69"/>
       <c r="D5" s="69"/>
       <c r="E5" s="69"/>
       <c r="F5" s="69"/>
-      <c r="G5" s="81"/>
+      <c r="G5" s="86"/>
     </row>
     <row r="6" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="94" t="s">
+      <c r="B6" s="74"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="77" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="95"/>
-      <c r="G6" s="96"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="79"/>
     </row>
     <row r="7" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="35"/>
       <c r="G7" s="33"/>
     </row>
     <row r="8" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="85" t="s">
+      <c r="A8" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="86"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="87"/>
+      <c r="B8" s="89"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="90"/>
     </row>
     <row r="9" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
@@ -11204,7 +11204,7 @@
       <c r="G17" s="37"/>
     </row>
     <row r="18" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A18" s="88" t="s">
+      <c r="A18" s="91" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="63"/>
@@ -11224,57 +11224,57 @@
       <c r="C19" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="89" t="s">
+      <c r="D19" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="E19" s="89"/>
-      <c r="F19" s="89"/>
-      <c r="G19" s="89"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="92"/>
+      <c r="G19" s="92"/>
     </row>
     <row r="20" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="90"/>
-      <c r="E20" s="90"/>
-      <c r="F20" s="90"/>
-      <c r="G20" s="90"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="93"/>
+      <c r="F20" s="93"/>
+      <c r="G20" s="93"/>
     </row>
     <row r="21" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="90"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="90"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
     </row>
     <row r="22" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="90"/>
-      <c r="E22" s="90"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="90"/>
+      <c r="D22" s="93"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="93"/>
     </row>
     <row r="23" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="90"/>
-      <c r="E23" s="90"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="90"/>
+      <c r="D23" s="93"/>
+      <c r="E23" s="93"/>
+      <c r="F23" s="93"/>
+      <c r="G23" s="93"/>
     </row>
     <row r="24" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="90"/>
-      <c r="E24" s="90"/>
-      <c r="F24" s="90"/>
-      <c r="G24" s="90"/>
+      <c r="D24" s="93"/>
+      <c r="E24" s="93"/>
+      <c r="F24" s="93"/>
+      <c r="G24" s="93"/>
     </row>
     <row r="25" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="36"/>
@@ -11284,7 +11284,7 @@
       <c r="G25" s="33"/>
     </row>
     <row r="26" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A26" s="88" t="s">
+      <c r="A26" s="91" t="s">
         <v>29</v>
       </c>
       <c r="B26" s="63"/>
@@ -11301,51 +11301,51 @@
       <c r="B27" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="89" t="s">
+      <c r="C27" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="89"/>
-      <c r="E27" s="89"/>
-      <c r="F27" s="89"/>
-      <c r="G27" s="89"/>
+      <c r="D27" s="92"/>
+      <c r="E27" s="92"/>
+      <c r="F27" s="92"/>
+      <c r="G27" s="92"/>
     </row>
     <row r="28" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1</v>
       </c>
       <c r="B28" s="1"/>
-      <c r="C28" s="74" t="s">
+      <c r="C28" s="87" t="s">
         <v>160</v>
       </c>
-      <c r="D28" s="74"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="74"/>
-      <c r="G28" s="74"/>
+      <c r="D28" s="87"/>
+      <c r="E28" s="87"/>
+      <c r="F28" s="87"/>
+      <c r="G28" s="87"/>
     </row>
     <row r="29" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="74"/>
-      <c r="D29" s="74"/>
-      <c r="E29" s="74"/>
-      <c r="F29" s="74"/>
-      <c r="G29" s="74"/>
+      <c r="C29" s="87"/>
+      <c r="D29" s="87"/>
+      <c r="E29" s="87"/>
+      <c r="F29" s="87"/>
+      <c r="G29" s="87"/>
     </row>
     <row r="30" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="74"/>
-      <c r="D30" s="74"/>
-      <c r="E30" s="74"/>
-      <c r="F30" s="74"/>
-      <c r="G30" s="74"/>
+      <c r="C30" s="87"/>
+      <c r="D30" s="87"/>
+      <c r="E30" s="87"/>
+      <c r="F30" s="87"/>
+      <c r="G30" s="87"/>
     </row>
     <row r="31" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="G31" s="33"/>
     </row>
     <row r="32" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="75" t="s">
+      <c r="A32" s="94" t="s">
         <v>22</v>
       </c>
       <c r="B32" s="71"/>
@@ -11353,28 +11353,28 @@
       <c r="D32" s="71"/>
       <c r="E32" s="71"/>
       <c r="F32" s="71"/>
-      <c r="G32" s="76"/>
+      <c r="G32" s="95"/>
     </row>
     <row r="33" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="77"/>
-      <c r="B33" s="78"/>
-      <c r="C33" s="78"/>
-      <c r="D33" s="78"/>
-      <c r="E33" s="78"/>
-      <c r="F33" s="78"/>
-      <c r="G33" s="79"/>
+      <c r="A33" s="96"/>
+      <c r="B33" s="97"/>
+      <c r="C33" s="97"/>
+      <c r="D33" s="97"/>
+      <c r="E33" s="97"/>
+      <c r="F33" s="97"/>
+      <c r="G33" s="98"/>
     </row>
     <row r="34" spans="1:7" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="77"/>
-      <c r="B34" s="78"/>
-      <c r="C34" s="78"/>
-      <c r="D34" s="78"/>
-      <c r="E34" s="78"/>
-      <c r="F34" s="78"/>
-      <c r="G34" s="79"/>
+      <c r="A34" s="96"/>
+      <c r="B34" s="97"/>
+      <c r="C34" s="97"/>
+      <c r="D34" s="97"/>
+      <c r="E34" s="97"/>
+      <c r="F34" s="97"/>
+      <c r="G34" s="98"/>
     </row>
     <row r="35" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="75" t="s">
+      <c r="A35" s="94" t="s">
         <v>10</v>
       </c>
       <c r="B35" s="71"/>
@@ -11382,33 +11382,35 @@
       <c r="D35" s="71"/>
       <c r="E35" s="71"/>
       <c r="F35" s="71"/>
-      <c r="G35" s="76"/>
+      <c r="G35" s="95"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="80"/>
+      <c r="A36" s="85"/>
       <c r="B36" s="69"/>
       <c r="C36" s="69"/>
       <c r="D36" s="69"/>
       <c r="E36" s="69"/>
       <c r="F36" s="69"/>
-      <c r="G36" s="81"/>
+      <c r="G36" s="86"/>
     </row>
     <row r="37" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="82"/>
-      <c r="B37" s="83"/>
-      <c r="C37" s="83"/>
-      <c r="D37" s="83"/>
-      <c r="E37" s="83"/>
-      <c r="F37" s="83"/>
-      <c r="G37" s="84"/>
+      <c r="A37" s="99"/>
+      <c r="B37" s="100"/>
+      <c r="C37" s="100"/>
+      <c r="D37" s="100"/>
+      <c r="E37" s="100"/>
+      <c r="F37" s="100"/>
+      <c r="G37" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="A33:G34"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="A36:G37"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
     <mergeCell ref="C29:G29"/>
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="A18:G18"/>
@@ -11421,13 +11423,11 @@
     <mergeCell ref="A26:G26"/>
     <mergeCell ref="C27:G27"/>
     <mergeCell ref="C28:G28"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="A33:G34"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="A36:G37"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Colocar percentagem" sqref="B6" xr:uid="{A66D20F0-0782-6944-BA9C-7489AA303243}">
@@ -11498,152 +11498,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="80" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="99"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="82"/>
     </row>
     <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="107">
+      <c r="B2" s="122">
         <v>4</v>
       </c>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="108"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="123"/>
     </row>
     <row r="3" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="97" t="s">
         <v>161</v>
       </c>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="79"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="98"/>
     </row>
     <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="97" t="s">
         <v>162</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="79"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="98"/>
     </row>
     <row r="5" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="97" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="79"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="98"/>
     </row>
     <row r="6" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="97" t="s">
         <v>207</v>
       </c>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="79"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="98"/>
     </row>
     <row r="7" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="78" t="s">
+      <c r="B7" s="97" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="79"/>
+      <c r="C7" s="97"/>
+      <c r="D7" s="97"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="98"/>
     </row>
     <row r="8" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="B8" s="78" t="s">
+      <c r="B8" s="97" t="s">
         <v>163</v>
       </c>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="79"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="97"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="98"/>
     </row>
     <row r="9" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="B9" s="78"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="79"/>
+      <c r="B9" s="97"/>
+      <c r="C9" s="97"/>
+      <c r="D9" s="97"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="98"/>
     </row>
     <row r="10" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="109">
+      <c r="B10" s="124">
         <v>0.5</v>
       </c>
-      <c r="C10" s="78"/>
-      <c r="D10" s="78" t="s">
+      <c r="C10" s="97"/>
+      <c r="D10" s="97" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="78"/>
-      <c r="F10" s="79"/>
+      <c r="E10" s="97"/>
+      <c r="F10" s="98"/>
     </row>
     <row r="11" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="105" t="s">
+      <c r="B11" s="120" t="s">
         <v>164</v>
       </c>
-      <c r="C11" s="105"/>
-      <c r="D11" s="105"/>
-      <c r="E11" s="105"/>
-      <c r="F11" s="106"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
+      <c r="F11" s="121"/>
     </row>
     <row r="12" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="113"/>
-      <c r="B12" s="114"/>
-      <c r="C12" s="114"/>
-      <c r="D12" s="114"/>
-      <c r="E12" s="114"/>
-      <c r="F12" s="115"/>
+      <c r="A12" s="111"/>
+      <c r="B12" s="112"/>
+      <c r="C12" s="112"/>
+      <c r="D12" s="112"/>
+      <c r="E12" s="112"/>
+      <c r="F12" s="113"/>
     </row>
     <row r="13" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="85" t="s">
+      <c r="A13" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="86"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="87"/>
+      <c r="B13" s="89"/>
+      <c r="C13" s="89"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="90"/>
     </row>
     <row r="14" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
@@ -11810,22 +11810,22 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="113"/>
-      <c r="B23" s="114"/>
-      <c r="C23" s="114"/>
-      <c r="D23" s="114"/>
-      <c r="E23" s="114"/>
-      <c r="F23" s="115"/>
+      <c r="A23" s="111"/>
+      <c r="B23" s="112"/>
+      <c r="C23" s="112"/>
+      <c r="D23" s="112"/>
+      <c r="E23" s="112"/>
+      <c r="F23" s="113"/>
     </row>
     <row r="24" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="85" t="s">
+      <c r="A24" s="88" t="s">
         <v>77</v>
       </c>
-      <c r="B24" s="86"/>
-      <c r="C24" s="86"/>
-      <c r="D24" s="86"/>
-      <c r="E24" s="86"/>
-      <c r="F24" s="87"/>
+      <c r="B24" s="89"/>
+      <c r="C24" s="89"/>
+      <c r="D24" s="89"/>
+      <c r="E24" s="89"/>
+      <c r="F24" s="90"/>
     </row>
     <row r="25" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="39" t="s">
@@ -11937,22 +11937,22 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="113"/>
-      <c r="B31" s="114"/>
-      <c r="C31" s="114"/>
-      <c r="D31" s="114"/>
-      <c r="E31" s="114"/>
-      <c r="F31" s="115"/>
+      <c r="A31" s="111"/>
+      <c r="B31" s="112"/>
+      <c r="C31" s="112"/>
+      <c r="D31" s="112"/>
+      <c r="E31" s="112"/>
+      <c r="F31" s="113"/>
     </row>
     <row r="32" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="85" t="s">
+      <c r="A32" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="B32" s="86"/>
-      <c r="C32" s="86"/>
-      <c r="D32" s="86"/>
-      <c r="E32" s="86"/>
-      <c r="F32" s="87"/>
+      <c r="B32" s="89"/>
+      <c r="C32" s="89"/>
+      <c r="D32" s="89"/>
+      <c r="E32" s="89"/>
+      <c r="F32" s="90"/>
     </row>
     <row r="33" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A33" s="39" t="s">
@@ -11964,119 +11964,126 @@
       <c r="C33" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="D33" s="116" t="s">
+      <c r="D33" s="106" t="s">
         <v>65</v>
       </c>
-      <c r="E33" s="116"/>
-      <c r="F33" s="117"/>
+      <c r="E33" s="106"/>
+      <c r="F33" s="107"/>
     </row>
     <row r="34" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A34" s="39"/>
       <c r="B34" s="40"/>
       <c r="C34" s="40"/>
-      <c r="D34" s="118"/>
-      <c r="E34" s="118"/>
-      <c r="F34" s="119"/>
+      <c r="D34" s="109"/>
+      <c r="E34" s="109"/>
+      <c r="F34" s="110"/>
     </row>
     <row r="35" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A35" s="39"/>
       <c r="B35" s="40"/>
       <c r="C35" s="40"/>
-      <c r="D35" s="118"/>
-      <c r="E35" s="118"/>
-      <c r="F35" s="119"/>
+      <c r="D35" s="109"/>
+      <c r="E35" s="109"/>
+      <c r="F35" s="110"/>
     </row>
     <row r="36" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A36" s="39"/>
       <c r="B36" s="40"/>
       <c r="C36" s="40"/>
-      <c r="D36" s="118"/>
-      <c r="E36" s="118"/>
-      <c r="F36" s="119"/>
+      <c r="D36" s="109"/>
+      <c r="E36" s="109"/>
+      <c r="F36" s="110"/>
     </row>
     <row r="37" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A37" s="41"/>
       <c r="B37" s="42"/>
       <c r="C37" s="42"/>
-      <c r="D37" s="120"/>
-      <c r="E37" s="120"/>
-      <c r="F37" s="121"/>
+      <c r="D37" s="115"/>
+      <c r="E37" s="115"/>
+      <c r="F37" s="116"/>
     </row>
     <row r="38" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="110"/>
-      <c r="B38" s="111"/>
-      <c r="C38" s="111"/>
-      <c r="D38" s="111"/>
-      <c r="E38" s="111"/>
-      <c r="F38" s="112"/>
+      <c r="A38" s="117"/>
+      <c r="B38" s="118"/>
+      <c r="C38" s="118"/>
+      <c r="D38" s="118"/>
+      <c r="E38" s="118"/>
+      <c r="F38" s="119"/>
     </row>
     <row r="39" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="85" t="s">
+      <c r="A39" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="B39" s="86"/>
-      <c r="C39" s="86"/>
-      <c r="D39" s="86"/>
-      <c r="E39" s="86"/>
-      <c r="F39" s="87"/>
+      <c r="B39" s="89"/>
+      <c r="C39" s="89"/>
+      <c r="D39" s="89"/>
+      <c r="E39" s="89"/>
+      <c r="F39" s="90"/>
     </row>
     <row r="40" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="122"/>
-      <c r="B40" s="116"/>
-      <c r="C40" s="116"/>
-      <c r="D40" s="116"/>
-      <c r="E40" s="116"/>
-      <c r="F40" s="117"/>
+      <c r="A40" s="105"/>
+      <c r="B40" s="106"/>
+      <c r="C40" s="106"/>
+      <c r="D40" s="106"/>
+      <c r="E40" s="106"/>
+      <c r="F40" s="107"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="123"/>
-      <c r="B41" s="118"/>
-      <c r="C41" s="118"/>
-      <c r="D41" s="118"/>
-      <c r="E41" s="118"/>
-      <c r="F41" s="119"/>
+      <c r="A41" s="108"/>
+      <c r="B41" s="109"/>
+      <c r="C41" s="109"/>
+      <c r="D41" s="109"/>
+      <c r="E41" s="109"/>
+      <c r="F41" s="110"/>
     </row>
     <row r="42" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="113"/>
-      <c r="B42" s="114"/>
-      <c r="C42" s="114"/>
-      <c r="D42" s="114"/>
-      <c r="E42" s="114"/>
-      <c r="F42" s="115"/>
+      <c r="A42" s="111"/>
+      <c r="B42" s="112"/>
+      <c r="C42" s="112"/>
+      <c r="D42" s="112"/>
+      <c r="E42" s="112"/>
+      <c r="F42" s="113"/>
     </row>
     <row r="43" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="85" t="s">
+      <c r="A43" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="B43" s="86"/>
-      <c r="C43" s="86"/>
-      <c r="D43" s="86"/>
-      <c r="E43" s="86"/>
-      <c r="F43" s="87"/>
+      <c r="B43" s="89"/>
+      <c r="C43" s="89"/>
+      <c r="D43" s="89"/>
+      <c r="E43" s="89"/>
+      <c r="F43" s="90"/>
     </row>
     <row r="44" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="122"/>
-      <c r="B44" s="116"/>
-      <c r="C44" s="116"/>
-      <c r="D44" s="116"/>
-      <c r="E44" s="116"/>
-      <c r="F44" s="117"/>
+      <c r="A44" s="105"/>
+      <c r="B44" s="106"/>
+      <c r="C44" s="106"/>
+      <c r="D44" s="106"/>
+      <c r="E44" s="106"/>
+      <c r="F44" s="107"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="124"/>
-      <c r="B45" s="120"/>
-      <c r="C45" s="120"/>
-      <c r="D45" s="120"/>
-      <c r="E45" s="120"/>
-      <c r="F45" s="121"/>
+      <c r="A45" s="114"/>
+      <c r="B45" s="115"/>
+      <c r="C45" s="115"/>
+      <c r="D45" s="115"/>
+      <c r="E45" s="115"/>
+      <c r="F45" s="116"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="A40:F41"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="A44:F45"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
     <mergeCell ref="A38:F38"/>
     <mergeCell ref="A12:F12"/>
     <mergeCell ref="A13:F13"/>
@@ -12089,18 +12096,11 @@
     <mergeCell ref="D35:F35"/>
     <mergeCell ref="D36:F36"/>
     <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="A40:F41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="A44:F45"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <dataValidations count="5">
@@ -12189,152 +12189,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="80" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="99"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="82"/>
     </row>
     <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="107" t="s">
+      <c r="B2" s="122" t="s">
         <v>214</v>
       </c>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="108"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="123"/>
     </row>
     <row r="3" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="97" t="s">
         <v>183</v>
       </c>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="118"/>
-      <c r="F3" s="119"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="110"/>
     </row>
     <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="97" t="s">
         <v>162</v>
       </c>
-      <c r="C4" s="118"/>
-      <c r="D4" s="118"/>
-      <c r="E4" s="118"/>
-      <c r="F4" s="119"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="110"/>
     </row>
     <row r="5" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="97" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="118"/>
-      <c r="D5" s="118"/>
-      <c r="E5" s="118"/>
-      <c r="F5" s="119"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="110"/>
     </row>
     <row r="6" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="97" t="s">
         <v>204</v>
       </c>
-      <c r="C6" s="118"/>
-      <c r="D6" s="118"/>
-      <c r="E6" s="118"/>
-      <c r="F6" s="119"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="110"/>
     </row>
     <row r="7" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="78" t="s">
+      <c r="B7" s="97" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="118"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="119"/>
+      <c r="C7" s="109"/>
+      <c r="D7" s="109"/>
+      <c r="E7" s="109"/>
+      <c r="F7" s="110"/>
     </row>
     <row r="8" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="B8" s="78" t="s">
+      <c r="B8" s="97" t="s">
         <v>163</v>
       </c>
-      <c r="C8" s="118"/>
-      <c r="D8" s="118"/>
-      <c r="E8" s="118"/>
-      <c r="F8" s="119"/>
+      <c r="C8" s="109"/>
+      <c r="D8" s="109"/>
+      <c r="E8" s="109"/>
+      <c r="F8" s="110"/>
     </row>
     <row r="9" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="B9" s="118"/>
-      <c r="C9" s="118"/>
-      <c r="D9" s="118"/>
-      <c r="E9" s="118"/>
-      <c r="F9" s="119"/>
+      <c r="B9" s="109"/>
+      <c r="C9" s="109"/>
+      <c r="D9" s="109"/>
+      <c r="E9" s="109"/>
+      <c r="F9" s="110"/>
     </row>
     <row r="10" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="109">
+      <c r="B10" s="124">
         <v>0.7</v>
       </c>
-      <c r="C10" s="78"/>
-      <c r="D10" s="78" t="s">
+      <c r="C10" s="97"/>
+      <c r="D10" s="97" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="78"/>
-      <c r="F10" s="79"/>
+      <c r="E10" s="97"/>
+      <c r="F10" s="98"/>
     </row>
     <row r="11" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="105" t="s">
+      <c r="B11" s="120" t="s">
         <v>164</v>
       </c>
-      <c r="C11" s="120"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="121"/>
+      <c r="C11" s="115"/>
+      <c r="D11" s="115"/>
+      <c r="E11" s="115"/>
+      <c r="F11" s="116"/>
     </row>
     <row r="12" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="113"/>
-      <c r="B12" s="114"/>
-      <c r="C12" s="114"/>
-      <c r="D12" s="114"/>
-      <c r="E12" s="114"/>
-      <c r="F12" s="115"/>
+      <c r="A12" s="111"/>
+      <c r="B12" s="112"/>
+      <c r="C12" s="112"/>
+      <c r="D12" s="112"/>
+      <c r="E12" s="112"/>
+      <c r="F12" s="113"/>
     </row>
     <row r="13" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="85" t="s">
+      <c r="A13" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="86"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="87"/>
+      <c r="B13" s="89"/>
+      <c r="C13" s="89"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="90"/>
     </row>
     <row r="14" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
@@ -12553,22 +12553,22 @@
       <c r="F26" s="55"/>
     </row>
     <row r="27" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="113"/>
-      <c r="B27" s="114"/>
-      <c r="C27" s="114"/>
-      <c r="D27" s="114"/>
-      <c r="E27" s="114"/>
-      <c r="F27" s="115"/>
+      <c r="A27" s="111"/>
+      <c r="B27" s="112"/>
+      <c r="C27" s="112"/>
+      <c r="D27" s="112"/>
+      <c r="E27" s="112"/>
+      <c r="F27" s="113"/>
     </row>
     <row r="28" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="85" t="s">
+      <c r="A28" s="88" t="s">
         <v>77</v>
       </c>
-      <c r="B28" s="86"/>
-      <c r="C28" s="86"/>
-      <c r="D28" s="86"/>
-      <c r="E28" s="86"/>
-      <c r="F28" s="87"/>
+      <c r="B28" s="89"/>
+      <c r="C28" s="89"/>
+      <c r="D28" s="89"/>
+      <c r="E28" s="89"/>
+      <c r="F28" s="90"/>
     </row>
     <row r="29" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A29" s="39" t="s">
@@ -12641,22 +12641,22 @@
       <c r="F33" s="43"/>
     </row>
     <row r="34" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="113"/>
-      <c r="B34" s="114"/>
-      <c r="C34" s="114"/>
-      <c r="D34" s="114"/>
-      <c r="E34" s="114"/>
-      <c r="F34" s="115"/>
+      <c r="A34" s="111"/>
+      <c r="B34" s="112"/>
+      <c r="C34" s="112"/>
+      <c r="D34" s="112"/>
+      <c r="E34" s="112"/>
+      <c r="F34" s="113"/>
     </row>
     <row r="35" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="85" t="s">
+      <c r="A35" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="B35" s="86"/>
-      <c r="C35" s="86"/>
-      <c r="D35" s="86"/>
-      <c r="E35" s="86"/>
-      <c r="F35" s="87"/>
+      <c r="B35" s="89"/>
+      <c r="C35" s="89"/>
+      <c r="D35" s="89"/>
+      <c r="E35" s="89"/>
+      <c r="F35" s="90"/>
     </row>
     <row r="36" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A36" s="39" t="s">
@@ -12668,127 +12668,114 @@
       <c r="C36" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="D36" s="116" t="s">
+      <c r="D36" s="106" t="s">
         <v>65</v>
       </c>
-      <c r="E36" s="116"/>
-      <c r="F36" s="117"/>
+      <c r="E36" s="106"/>
+      <c r="F36" s="107"/>
     </row>
     <row r="37" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A37" s="39"/>
       <c r="B37" s="40"/>
       <c r="C37" s="40"/>
-      <c r="D37" s="118"/>
-      <c r="E37" s="118"/>
-      <c r="F37" s="119"/>
+      <c r="D37" s="109"/>
+      <c r="E37" s="109"/>
+      <c r="F37" s="110"/>
     </row>
     <row r="38" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A38" s="39"/>
       <c r="B38" s="40"/>
       <c r="C38" s="40"/>
-      <c r="D38" s="118"/>
-      <c r="E38" s="118"/>
-      <c r="F38" s="119"/>
+      <c r="D38" s="109"/>
+      <c r="E38" s="109"/>
+      <c r="F38" s="110"/>
     </row>
     <row r="39" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A39" s="39"/>
       <c r="B39" s="40"/>
       <c r="C39" s="40"/>
-      <c r="D39" s="118"/>
-      <c r="E39" s="118"/>
-      <c r="F39" s="119"/>
+      <c r="D39" s="109"/>
+      <c r="E39" s="109"/>
+      <c r="F39" s="110"/>
     </row>
     <row r="40" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A40" s="41"/>
       <c r="B40" s="42"/>
       <c r="C40" s="42"/>
-      <c r="D40" s="120"/>
-      <c r="E40" s="120"/>
-      <c r="F40" s="121"/>
+      <c r="D40" s="115"/>
+      <c r="E40" s="115"/>
+      <c r="F40" s="116"/>
     </row>
     <row r="41" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="110"/>
-      <c r="B41" s="111"/>
-      <c r="C41" s="111"/>
-      <c r="D41" s="111"/>
-      <c r="E41" s="111"/>
-      <c r="F41" s="112"/>
+      <c r="A41" s="117"/>
+      <c r="B41" s="118"/>
+      <c r="C41" s="118"/>
+      <c r="D41" s="118"/>
+      <c r="E41" s="118"/>
+      <c r="F41" s="119"/>
     </row>
     <row r="42" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="85" t="s">
+      <c r="A42" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="B42" s="86"/>
-      <c r="C42" s="86"/>
-      <c r="D42" s="86"/>
-      <c r="E42" s="86"/>
-      <c r="F42" s="87"/>
+      <c r="B42" s="89"/>
+      <c r="C42" s="89"/>
+      <c r="D42" s="89"/>
+      <c r="E42" s="89"/>
+      <c r="F42" s="90"/>
     </row>
     <row r="43" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="122"/>
-      <c r="B43" s="116"/>
-      <c r="C43" s="116"/>
-      <c r="D43" s="116"/>
-      <c r="E43" s="116"/>
-      <c r="F43" s="117"/>
+      <c r="A43" s="105"/>
+      <c r="B43" s="106"/>
+      <c r="C43" s="106"/>
+      <c r="D43" s="106"/>
+      <c r="E43" s="106"/>
+      <c r="F43" s="107"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="123"/>
-      <c r="B44" s="118"/>
-      <c r="C44" s="118"/>
-      <c r="D44" s="118"/>
-      <c r="E44" s="118"/>
-      <c r="F44" s="119"/>
+      <c r="A44" s="108"/>
+      <c r="B44" s="109"/>
+      <c r="C44" s="109"/>
+      <c r="D44" s="109"/>
+      <c r="E44" s="109"/>
+      <c r="F44" s="110"/>
     </row>
     <row r="45" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="113"/>
-      <c r="B45" s="114"/>
-      <c r="C45" s="114"/>
-      <c r="D45" s="114"/>
-      <c r="E45" s="114"/>
-      <c r="F45" s="115"/>
+      <c r="A45" s="111"/>
+      <c r="B45" s="112"/>
+      <c r="C45" s="112"/>
+      <c r="D45" s="112"/>
+      <c r="E45" s="112"/>
+      <c r="F45" s="113"/>
     </row>
     <row r="46" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="85" t="s">
+      <c r="A46" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="B46" s="86"/>
-      <c r="C46" s="86"/>
-      <c r="D46" s="86"/>
-      <c r="E46" s="86"/>
-      <c r="F46" s="87"/>
+      <c r="B46" s="89"/>
+      <c r="C46" s="89"/>
+      <c r="D46" s="89"/>
+      <c r="E46" s="89"/>
+      <c r="F46" s="90"/>
     </row>
     <row r="47" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="122"/>
-      <c r="B47" s="116"/>
-      <c r="C47" s="116"/>
-      <c r="D47" s="116"/>
-      <c r="E47" s="116"/>
-      <c r="F47" s="117"/>
+      <c r="A47" s="105"/>
+      <c r="B47" s="106"/>
+      <c r="C47" s="106"/>
+      <c r="D47" s="106"/>
+      <c r="E47" s="106"/>
+      <c r="F47" s="107"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="124"/>
-      <c r="B48" s="120"/>
-      <c r="C48" s="120"/>
-      <c r="D48" s="120"/>
-      <c r="E48" s="120"/>
-      <c r="F48" s="121"/>
+      <c r="A48" s="114"/>
+      <c r="B48" s="115"/>
+      <c r="C48" s="115"/>
+      <c r="D48" s="115"/>
+      <c r="E48" s="115"/>
+      <c r="F48" s="116"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A43:F44"/>
-    <mergeCell ref="A47:F48"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="A46:F46"/>
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A13:F13"/>
@@ -12805,6 +12792,19 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:F10"/>
     <mergeCell ref="A34:F34"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A43:F44"/>
+    <mergeCell ref="A47:F48"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="A46:F46"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Colocar percentagem_x000a_" sqref="B10:C10" xr:uid="{C44B2955-AB0E-5E4A-9201-AF72D21AA99A}"/>
@@ -12890,152 +12890,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="80" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="99"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="82"/>
     </row>
     <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="107" t="s">
+      <c r="B2" s="122" t="s">
         <v>215</v>
       </c>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="108"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="123"/>
     </row>
     <row r="3" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="97" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="79"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="98"/>
     </row>
     <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="97" t="s">
         <v>162</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="79"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="98"/>
     </row>
     <row r="5" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="97" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="79"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="98"/>
     </row>
     <row r="6" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="97" t="s">
         <v>208</v>
       </c>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="79"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="98"/>
     </row>
     <row r="7" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="78" t="s">
+      <c r="B7" s="97" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="79"/>
+      <c r="C7" s="97"/>
+      <c r="D7" s="97"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="98"/>
     </row>
     <row r="8" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="B8" s="78" t="s">
+      <c r="B8" s="97" t="s">
         <v>163</v>
       </c>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="79"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="97"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="98"/>
     </row>
     <row r="9" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="B9" s="78"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="79"/>
+      <c r="B9" s="97"/>
+      <c r="C9" s="97"/>
+      <c r="D9" s="97"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="98"/>
     </row>
     <row r="10" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="109">
+      <c r="B10" s="124">
         <v>0.5</v>
       </c>
-      <c r="C10" s="78"/>
-      <c r="D10" s="78" t="s">
+      <c r="C10" s="97"/>
+      <c r="D10" s="97" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="78"/>
-      <c r="F10" s="79"/>
+      <c r="E10" s="97"/>
+      <c r="F10" s="98"/>
     </row>
     <row r="11" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="105" t="s">
+      <c r="B11" s="120" t="s">
         <v>164</v>
       </c>
-      <c r="C11" s="105"/>
-      <c r="D11" s="105"/>
-      <c r="E11" s="105"/>
-      <c r="F11" s="106"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
+      <c r="F11" s="121"/>
     </row>
     <row r="12" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="113"/>
-      <c r="B12" s="114"/>
-      <c r="C12" s="114"/>
-      <c r="D12" s="114"/>
-      <c r="E12" s="114"/>
-      <c r="F12" s="115"/>
+      <c r="A12" s="111"/>
+      <c r="B12" s="112"/>
+      <c r="C12" s="112"/>
+      <c r="D12" s="112"/>
+      <c r="E12" s="112"/>
+      <c r="F12" s="113"/>
     </row>
     <row r="13" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="85" t="s">
+      <c r="A13" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="86"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="87"/>
+      <c r="B13" s="89"/>
+      <c r="C13" s="89"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="90"/>
     </row>
     <row r="14" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
@@ -13166,22 +13166,22 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="113"/>
-      <c r="B21" s="114"/>
-      <c r="C21" s="114"/>
-      <c r="D21" s="114"/>
-      <c r="E21" s="114"/>
-      <c r="F21" s="115"/>
+      <c r="A21" s="111"/>
+      <c r="B21" s="112"/>
+      <c r="C21" s="112"/>
+      <c r="D21" s="112"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="113"/>
     </row>
     <row r="22" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="85" t="s">
+      <c r="A22" s="88" t="s">
         <v>77</v>
       </c>
-      <c r="B22" s="86"/>
-      <c r="C22" s="86"/>
-      <c r="D22" s="86"/>
-      <c r="E22" s="86"/>
-      <c r="F22" s="87"/>
+      <c r="B22" s="89"/>
+      <c r="C22" s="89"/>
+      <c r="D22" s="89"/>
+      <c r="E22" s="89"/>
+      <c r="F22" s="90"/>
     </row>
     <row r="23" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="39" t="s">
@@ -13255,22 +13255,22 @@
       <c r="F27" s="43"/>
     </row>
     <row r="28" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="113"/>
-      <c r="B28" s="114"/>
-      <c r="C28" s="114"/>
-      <c r="D28" s="114"/>
-      <c r="E28" s="114"/>
-      <c r="F28" s="115"/>
+      <c r="A28" s="111"/>
+      <c r="B28" s="112"/>
+      <c r="C28" s="112"/>
+      <c r="D28" s="112"/>
+      <c r="E28" s="112"/>
+      <c r="F28" s="113"/>
     </row>
     <row r="29" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="85" t="s">
+      <c r="A29" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="86"/>
-      <c r="C29" s="86"/>
-      <c r="D29" s="86"/>
-      <c r="E29" s="86"/>
-      <c r="F29" s="87"/>
+      <c r="B29" s="89"/>
+      <c r="C29" s="89"/>
+      <c r="D29" s="89"/>
+      <c r="E29" s="89"/>
+      <c r="F29" s="90"/>
     </row>
     <row r="30" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="39" t="s">
@@ -13282,114 +13282,131 @@
       <c r="C30" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="D30" s="116" t="s">
+      <c r="D30" s="106" t="s">
         <v>65</v>
       </c>
-      <c r="E30" s="116"/>
-      <c r="F30" s="117"/>
+      <c r="E30" s="106"/>
+      <c r="F30" s="107"/>
     </row>
     <row r="31" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A31" s="39"/>
       <c r="B31" s="40"/>
       <c r="C31" s="40"/>
-      <c r="D31" s="118"/>
-      <c r="E31" s="118"/>
-      <c r="F31" s="119"/>
+      <c r="D31" s="109"/>
+      <c r="E31" s="109"/>
+      <c r="F31" s="110"/>
     </row>
     <row r="32" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A32" s="39"/>
       <c r="B32" s="40"/>
       <c r="C32" s="40"/>
-      <c r="D32" s="118"/>
-      <c r="E32" s="118"/>
-      <c r="F32" s="119"/>
+      <c r="D32" s="109"/>
+      <c r="E32" s="109"/>
+      <c r="F32" s="110"/>
     </row>
     <row r="33" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A33" s="39"/>
       <c r="B33" s="40"/>
       <c r="C33" s="40"/>
-      <c r="D33" s="118"/>
-      <c r="E33" s="118"/>
-      <c r="F33" s="119"/>
+      <c r="D33" s="109"/>
+      <c r="E33" s="109"/>
+      <c r="F33" s="110"/>
     </row>
     <row r="34" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A34" s="41"/>
       <c r="B34" s="42"/>
       <c r="C34" s="42"/>
-      <c r="D34" s="120"/>
-      <c r="E34" s="120"/>
-      <c r="F34" s="121"/>
+      <c r="D34" s="115"/>
+      <c r="E34" s="115"/>
+      <c r="F34" s="116"/>
     </row>
     <row r="35" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="110"/>
-      <c r="B35" s="111"/>
-      <c r="C35" s="111"/>
-      <c r="D35" s="111"/>
-      <c r="E35" s="111"/>
-      <c r="F35" s="112"/>
+      <c r="A35" s="117"/>
+      <c r="B35" s="118"/>
+      <c r="C35" s="118"/>
+      <c r="D35" s="118"/>
+      <c r="E35" s="118"/>
+      <c r="F35" s="119"/>
     </row>
     <row r="36" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="85" t="s">
+      <c r="A36" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="B36" s="86"/>
-      <c r="C36" s="86"/>
-      <c r="D36" s="86"/>
-      <c r="E36" s="86"/>
-      <c r="F36" s="87"/>
+      <c r="B36" s="89"/>
+      <c r="C36" s="89"/>
+      <c r="D36" s="89"/>
+      <c r="E36" s="89"/>
+      <c r="F36" s="90"/>
     </row>
     <row r="37" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="122"/>
-      <c r="B37" s="116"/>
-      <c r="C37" s="116"/>
-      <c r="D37" s="116"/>
-      <c r="E37" s="116"/>
-      <c r="F37" s="117"/>
+      <c r="A37" s="105"/>
+      <c r="B37" s="106"/>
+      <c r="C37" s="106"/>
+      <c r="D37" s="106"/>
+      <c r="E37" s="106"/>
+      <c r="F37" s="107"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="123"/>
-      <c r="B38" s="118"/>
-      <c r="C38" s="118"/>
-      <c r="D38" s="118"/>
-      <c r="E38" s="118"/>
-      <c r="F38" s="119"/>
+      <c r="A38" s="108"/>
+      <c r="B38" s="109"/>
+      <c r="C38" s="109"/>
+      <c r="D38" s="109"/>
+      <c r="E38" s="109"/>
+      <c r="F38" s="110"/>
     </row>
     <row r="39" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="113"/>
-      <c r="B39" s="114"/>
-      <c r="C39" s="114"/>
-      <c r="D39" s="114"/>
-      <c r="E39" s="114"/>
-      <c r="F39" s="115"/>
+      <c r="A39" s="111"/>
+      <c r="B39" s="112"/>
+      <c r="C39" s="112"/>
+      <c r="D39" s="112"/>
+      <c r="E39" s="112"/>
+      <c r="F39" s="113"/>
     </row>
     <row r="40" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="85" t="s">
+      <c r="A40" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="B40" s="86"/>
-      <c r="C40" s="86"/>
-      <c r="D40" s="86"/>
-      <c r="E40" s="86"/>
-      <c r="F40" s="87"/>
+      <c r="B40" s="89"/>
+      <c r="C40" s="89"/>
+      <c r="D40" s="89"/>
+      <c r="E40" s="89"/>
+      <c r="F40" s="90"/>
     </row>
     <row r="41" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="122"/>
-      <c r="B41" s="116"/>
-      <c r="C41" s="116"/>
-      <c r="D41" s="116"/>
-      <c r="E41" s="116"/>
-      <c r="F41" s="117"/>
+      <c r="A41" s="105"/>
+      <c r="B41" s="106"/>
+      <c r="C41" s="106"/>
+      <c r="D41" s="106"/>
+      <c r="E41" s="106"/>
+      <c r="F41" s="107"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="124"/>
-      <c r="B42" s="120"/>
-      <c r="C42" s="120"/>
-      <c r="D42" s="120"/>
-      <c r="E42" s="120"/>
-      <c r="F42" s="121"/>
+      <c r="A42" s="114"/>
+      <c r="B42" s="115"/>
+      <c r="C42" s="115"/>
+      <c r="D42" s="115"/>
+      <c r="E42" s="115"/>
+      <c r="F42" s="116"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="A37:F38"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="A41:F42"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D34:F34"/>
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B2:F2"/>
@@ -13402,23 +13419,6 @@
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:F10"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="A37:F38"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="A41:F42"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Colocar percentagem_x000a_" sqref="B10:C10" xr:uid="{8EDB03EC-30FB-484C-ACBE-DF33B9366718}"/>
@@ -13486,9 +13486,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13630,26 +13633,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30DE7E78-AB24-4BCB-A51F-77E5C10364A7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FCF46D4-6C3F-4211-BBB9-5DE005064C3C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="6597237e-e321-437a-ab0e-fe3e3f709099"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -13673,9 +13665,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FCF46D4-6C3F-4211-BBB9-5DE005064C3C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30DE7E78-AB24-4BCB-A51F-77E5C10364A7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="6597237e-e321-437a-ab0e-fe3e3f709099"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/docs/documentacao.xlsx
+++ b/docs/documentacao.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaobraganca/Desktop/ParallelsShared/GlobalTech_ETL/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/micaelmbp/Documents/Universidade/ENG-2022/TAAD/GlobalTech_ETL/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC0A335-27E0-7745-9D6B-8CA459D1A4F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABCB6B44-BC58-4846-8699-A4706CD04738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8320" yWindow="2220" windowWidth="36460" windowHeight="22500" activeTab="2" xr2:uid="{1C0ABE59-C842-1448-8BFE-1E96A6C9A910}"/>
+    <workbookView xWindow="8320" yWindow="2220" windowWidth="36460" windowHeight="22500" activeTab="6" xr2:uid="{1C0ABE59-C842-1448-8BFE-1E96A6C9A910}"/>
   </bookViews>
   <sheets>
     <sheet name="Matriz de decisão" sheetId="1" r:id="rId1"/>
@@ -1496,6 +1496,57 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1529,57 +1580,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1587,51 +1587,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1647,6 +1602,51 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5813,7 +5813,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6101,7 +6101,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -7770,152 +7770,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="97" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="82"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="99"/>
     </row>
     <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="107" t="s">
         <v>216</v>
       </c>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="123"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="108"/>
     </row>
     <row r="3" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="78" t="s">
         <v>202</v>
       </c>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="98"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="79"/>
     </row>
     <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="97" t="s">
+      <c r="B4" s="78" t="s">
         <v>162</v>
       </c>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="98"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="79"/>
     </row>
     <row r="5" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="97" t="s">
+      <c r="B5" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="98"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="79"/>
     </row>
     <row r="6" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="97" t="s">
+      <c r="B6" s="78" t="s">
         <v>203</v>
       </c>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="98"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="79"/>
     </row>
     <row r="7" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="97" t="s">
+      <c r="B7" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="97"/>
-      <c r="D7" s="97"/>
-      <c r="E7" s="97"/>
-      <c r="F7" s="98"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="79"/>
     </row>
     <row r="8" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="B8" s="97" t="s">
+      <c r="B8" s="78" t="s">
         <v>163</v>
       </c>
-      <c r="C8" s="97"/>
-      <c r="D8" s="97"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="98"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="79"/>
     </row>
     <row r="9" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="B9" s="97"/>
-      <c r="C9" s="97"/>
-      <c r="D9" s="97"/>
-      <c r="E9" s="97"/>
-      <c r="F9" s="98"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="79"/>
     </row>
     <row r="10" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="124">
+      <c r="B10" s="109">
         <v>0.3</v>
       </c>
-      <c r="C10" s="97"/>
-      <c r="D10" s="97" t="s">
+      <c r="C10" s="78"/>
+      <c r="D10" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="97"/>
-      <c r="F10" s="98"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="79"/>
     </row>
     <row r="11" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="120" t="s">
+      <c r="B11" s="105" t="s">
         <v>164</v>
       </c>
-      <c r="C11" s="120"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="121"/>
+      <c r="C11" s="105"/>
+      <c r="D11" s="105"/>
+      <c r="E11" s="105"/>
+      <c r="F11" s="106"/>
     </row>
     <row r="12" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="111"/>
-      <c r="B12" s="112"/>
-      <c r="C12" s="112"/>
-      <c r="D12" s="112"/>
-      <c r="E12" s="112"/>
-      <c r="F12" s="113"/>
+      <c r="A12" s="113"/>
+      <c r="B12" s="114"/>
+      <c r="C12" s="114"/>
+      <c r="D12" s="114"/>
+      <c r="E12" s="114"/>
+      <c r="F12" s="115"/>
     </row>
     <row r="13" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="88" t="s">
+      <c r="A13" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="89"/>
-      <c r="C13" s="89"/>
-      <c r="D13" s="89"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="90"/>
+      <c r="B13" s="86"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="86"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="87"/>
     </row>
     <row r="14" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
@@ -8081,14 +8081,14 @@
     </row>
     <row r="23" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="88" t="s">
+      <c r="A24" s="85" t="s">
         <v>77</v>
       </c>
-      <c r="B24" s="89"/>
-      <c r="C24" s="89"/>
-      <c r="D24" s="89"/>
-      <c r="E24" s="89"/>
-      <c r="F24" s="90"/>
+      <c r="B24" s="86"/>
+      <c r="C24" s="86"/>
+      <c r="D24" s="86"/>
+      <c r="E24" s="86"/>
+      <c r="F24" s="87"/>
     </row>
     <row r="25" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="39" t="s">
@@ -8147,22 +8147,22 @@
       <c r="F29" s="43"/>
     </row>
     <row r="30" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="111"/>
-      <c r="B30" s="112"/>
-      <c r="C30" s="112"/>
-      <c r="D30" s="112"/>
-      <c r="E30" s="112"/>
-      <c r="F30" s="113"/>
+      <c r="A30" s="113"/>
+      <c r="B30" s="114"/>
+      <c r="C30" s="114"/>
+      <c r="D30" s="114"/>
+      <c r="E30" s="114"/>
+      <c r="F30" s="115"/>
     </row>
     <row r="31" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="88" t="s">
+      <c r="A31" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="B31" s="89"/>
-      <c r="C31" s="89"/>
-      <c r="D31" s="89"/>
-      <c r="E31" s="89"/>
-      <c r="F31" s="90"/>
+      <c r="B31" s="86"/>
+      <c r="C31" s="86"/>
+      <c r="D31" s="86"/>
+      <c r="E31" s="86"/>
+      <c r="F31" s="87"/>
     </row>
     <row r="32" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A32" s="39" t="s">
@@ -8174,130 +8174,114 @@
       <c r="C32" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="D32" s="106" t="s">
+      <c r="D32" s="116" t="s">
         <v>65</v>
       </c>
-      <c r="E32" s="106"/>
-      <c r="F32" s="107"/>
+      <c r="E32" s="116"/>
+      <c r="F32" s="117"/>
     </row>
     <row r="33" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A33" s="39"/>
       <c r="B33" s="40"/>
       <c r="C33" s="40"/>
-      <c r="D33" s="109"/>
-      <c r="E33" s="109"/>
-      <c r="F33" s="110"/>
+      <c r="D33" s="118"/>
+      <c r="E33" s="118"/>
+      <c r="F33" s="119"/>
     </row>
     <row r="34" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A34" s="39"/>
       <c r="B34" s="40"/>
       <c r="C34" s="40"/>
-      <c r="D34" s="109"/>
-      <c r="E34" s="109"/>
-      <c r="F34" s="110"/>
+      <c r="D34" s="118"/>
+      <c r="E34" s="118"/>
+      <c r="F34" s="119"/>
     </row>
     <row r="35" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A35" s="39"/>
       <c r="B35" s="40"/>
       <c r="C35" s="40"/>
-      <c r="D35" s="109"/>
-      <c r="E35" s="109"/>
-      <c r="F35" s="110"/>
+      <c r="D35" s="118"/>
+      <c r="E35" s="118"/>
+      <c r="F35" s="119"/>
     </row>
     <row r="36" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A36" s="41"/>
       <c r="B36" s="42"/>
       <c r="C36" s="42"/>
-      <c r="D36" s="115"/>
-      <c r="E36" s="115"/>
-      <c r="F36" s="116"/>
+      <c r="D36" s="120"/>
+      <c r="E36" s="120"/>
+      <c r="F36" s="121"/>
     </row>
     <row r="37" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="117"/>
-      <c r="B37" s="118"/>
-      <c r="C37" s="118"/>
-      <c r="D37" s="118"/>
-      <c r="E37" s="118"/>
-      <c r="F37" s="119"/>
+      <c r="A37" s="110"/>
+      <c r="B37" s="111"/>
+      <c r="C37" s="111"/>
+      <c r="D37" s="111"/>
+      <c r="E37" s="111"/>
+      <c r="F37" s="112"/>
     </row>
     <row r="38" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="88" t="s">
+      <c r="A38" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="B38" s="89"/>
-      <c r="C38" s="89"/>
-      <c r="D38" s="89"/>
-      <c r="E38" s="89"/>
-      <c r="F38" s="90"/>
+      <c r="B38" s="86"/>
+      <c r="C38" s="86"/>
+      <c r="D38" s="86"/>
+      <c r="E38" s="86"/>
+      <c r="F38" s="87"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="105"/>
-      <c r="B39" s="106"/>
-      <c r="C39" s="106"/>
-      <c r="D39" s="106"/>
-      <c r="E39" s="106"/>
-      <c r="F39" s="107"/>
+      <c r="A39" s="122"/>
+      <c r="B39" s="116"/>
+      <c r="C39" s="116"/>
+      <c r="D39" s="116"/>
+      <c r="E39" s="116"/>
+      <c r="F39" s="117"/>
     </row>
     <row r="40" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="108"/>
-      <c r="B40" s="109"/>
-      <c r="C40" s="109"/>
-      <c r="D40" s="109"/>
-      <c r="E40" s="109"/>
-      <c r="F40" s="110"/>
+      <c r="A40" s="123"/>
+      <c r="B40" s="118"/>
+      <c r="C40" s="118"/>
+      <c r="D40" s="118"/>
+      <c r="E40" s="118"/>
+      <c r="F40" s="119"/>
     </row>
     <row r="41" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="111"/>
-      <c r="B41" s="112"/>
-      <c r="C41" s="112"/>
-      <c r="D41" s="112"/>
-      <c r="E41" s="112"/>
-      <c r="F41" s="113"/>
+      <c r="A41" s="113"/>
+      <c r="B41" s="114"/>
+      <c r="C41" s="114"/>
+      <c r="D41" s="114"/>
+      <c r="E41" s="114"/>
+      <c r="F41" s="115"/>
     </row>
     <row r="42" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="88" t="s">
+      <c r="A42" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="89"/>
-      <c r="C42" s="89"/>
-      <c r="D42" s="89"/>
-      <c r="E42" s="89"/>
-      <c r="F42" s="90"/>
+      <c r="B42" s="86"/>
+      <c r="C42" s="86"/>
+      <c r="D42" s="86"/>
+      <c r="E42" s="86"/>
+      <c r="F42" s="87"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="105"/>
-      <c r="B43" s="106"/>
-      <c r="C43" s="106"/>
-      <c r="D43" s="106"/>
-      <c r="E43" s="106"/>
-      <c r="F43" s="107"/>
+      <c r="A43" s="122"/>
+      <c r="B43" s="116"/>
+      <c r="C43" s="116"/>
+      <c r="D43" s="116"/>
+      <c r="E43" s="116"/>
+      <c r="F43" s="117"/>
     </row>
     <row r="44" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="114"/>
-      <c r="B44" s="115"/>
-      <c r="C44" s="115"/>
-      <c r="D44" s="115"/>
-      <c r="E44" s="115"/>
-      <c r="F44" s="116"/>
+      <c r="A44" s="124"/>
+      <c r="B44" s="120"/>
+      <c r="C44" s="120"/>
+      <c r="D44" s="120"/>
+      <c r="E44" s="120"/>
+      <c r="F44" s="121"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="A39:F40"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="A43:F44"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="D36:F36"/>
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B2:F2"/>
@@ -8310,6 +8294,22 @@
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:F10"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="A39:F40"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="A43:F44"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Colocar percentagem_x000a_" sqref="B10:C10" xr:uid="{2B355D78-2274-AF4C-B934-68ADBC7FB191}"/>
@@ -8776,95 +8776,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="82"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="99"/>
     </row>
     <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="100" t="s">
         <v>209</v>
       </c>
       <c r="C2" s="68"/>
       <c r="D2" s="68"/>
       <c r="E2" s="68"/>
       <c r="F2" s="68"/>
-      <c r="G2" s="84"/>
+      <c r="G2" s="101"/>
     </row>
     <row r="3" spans="1:7" ht="46" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="80" t="s">
         <v>88</v>
       </c>
       <c r="C3" s="69"/>
       <c r="D3" s="69"/>
       <c r="E3" s="69"/>
       <c r="F3" s="69"/>
-      <c r="G3" s="86"/>
+      <c r="G3" s="81"/>
     </row>
     <row r="4" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="85" t="s">
+      <c r="B4" s="80" t="s">
         <v>51</v>
       </c>
       <c r="C4" s="69"/>
       <c r="D4" s="69"/>
       <c r="E4" s="69"/>
       <c r="F4" s="69"/>
-      <c r="G4" s="86"/>
+      <c r="G4" s="81"/>
     </row>
     <row r="5" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="80" t="s">
         <v>87</v>
       </c>
       <c r="C5" s="69"/>
       <c r="D5" s="69"/>
       <c r="E5" s="69"/>
       <c r="F5" s="69"/>
-      <c r="G5" s="86"/>
+      <c r="G5" s="81"/>
     </row>
     <row r="6" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="74"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="77" t="s">
+      <c r="B6" s="91"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="94" t="s">
         <v>57</v>
       </c>
-      <c r="F6" s="78"/>
-      <c r="G6" s="79"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="96"/>
     </row>
     <row r="7" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="35"/>
       <c r="G7" s="33"/>
     </row>
     <row r="8" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="88" t="s">
+      <c r="A8" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="89"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="90"/>
+      <c r="B8" s="86"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="87"/>
     </row>
     <row r="9" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
@@ -9053,7 +9053,7 @@
       <c r="G18" s="37"/>
     </row>
     <row r="19" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A19" s="91" t="s">
+      <c r="A19" s="88" t="s">
         <v>21</v>
       </c>
       <c r="B19" s="63"/>
@@ -9073,57 +9073,57 @@
       <c r="C20" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="92" t="s">
+      <c r="D20" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="E20" s="92"/>
-      <c r="F20" s="92"/>
-      <c r="G20" s="92"/>
+      <c r="E20" s="89"/>
+      <c r="F20" s="89"/>
+      <c r="G20" s="89"/>
     </row>
     <row r="21" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="90"/>
     </row>
     <row r="22" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="93"/>
-      <c r="E22" s="93"/>
-      <c r="F22" s="93"/>
-      <c r="G22" s="93"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="90"/>
+      <c r="G22" s="90"/>
     </row>
     <row r="23" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="93"/>
-      <c r="E23" s="93"/>
-      <c r="F23" s="93"/>
-      <c r="G23" s="93"/>
+      <c r="D23" s="90"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="90"/>
     </row>
     <row r="24" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="93"/>
-      <c r="E24" s="93"/>
-      <c r="F24" s="93"/>
-      <c r="G24" s="93"/>
+      <c r="D24" s="90"/>
+      <c r="E24" s="90"/>
+      <c r="F24" s="90"/>
+      <c r="G24" s="90"/>
     </row>
     <row r="25" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="93"/>
-      <c r="E25" s="93"/>
-      <c r="F25" s="93"/>
-      <c r="G25" s="93"/>
+      <c r="D25" s="90"/>
+      <c r="E25" s="90"/>
+      <c r="F25" s="90"/>
+      <c r="G25" s="90"/>
     </row>
     <row r="26" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A26" s="36"/>
@@ -9133,7 +9133,7 @@
       <c r="G26" s="33"/>
     </row>
     <row r="27" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A27" s="91" t="s">
+      <c r="A27" s="88" t="s">
         <v>29</v>
       </c>
       <c r="B27" s="63"/>
@@ -9150,13 +9150,13 @@
       <c r="B28" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="92" t="s">
+      <c r="C28" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="92"/>
-      <c r="E28" s="92"/>
-      <c r="F28" s="92"/>
-      <c r="G28" s="92"/>
+      <c r="D28" s="89"/>
+      <c r="E28" s="89"/>
+      <c r="F28" s="89"/>
+      <c r="G28" s="89"/>
     </row>
     <row r="29" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
@@ -9165,42 +9165,42 @@
       <c r="B29" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C29" s="87" t="s">
+      <c r="C29" s="74" t="s">
         <v>109</v>
       </c>
-      <c r="D29" s="87"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="87"/>
-      <c r="G29" s="87"/>
+      <c r="D29" s="74"/>
+      <c r="E29" s="74"/>
+      <c r="F29" s="74"/>
+      <c r="G29" s="74"/>
     </row>
     <row r="30" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>2</v>
       </c>
       <c r="B30" s="1"/>
-      <c r="C30" s="87" t="s">
+      <c r="C30" s="74" t="s">
         <v>112</v>
       </c>
-      <c r="D30" s="87"/>
-      <c r="E30" s="87"/>
-      <c r="F30" s="87"/>
-      <c r="G30" s="87"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="74"/>
     </row>
     <row r="31" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
-      <c r="C31" s="87"/>
-      <c r="D31" s="87"/>
-      <c r="E31" s="87"/>
-      <c r="F31" s="87"/>
-      <c r="G31" s="87"/>
+      <c r="C31" s="74"/>
+      <c r="D31" s="74"/>
+      <c r="E31" s="74"/>
+      <c r="F31" s="74"/>
+      <c r="G31" s="74"/>
     </row>
     <row r="32" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="G32" s="33"/>
     </row>
     <row r="33" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="94" t="s">
+      <c r="A33" s="75" t="s">
         <v>22</v>
       </c>
       <c r="B33" s="71"/>
@@ -9208,28 +9208,28 @@
       <c r="D33" s="71"/>
       <c r="E33" s="71"/>
       <c r="F33" s="71"/>
-      <c r="G33" s="95"/>
+      <c r="G33" s="76"/>
     </row>
     <row r="34" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="96"/>
-      <c r="B34" s="97"/>
-      <c r="C34" s="97"/>
-      <c r="D34" s="97"/>
-      <c r="E34" s="97"/>
-      <c r="F34" s="97"/>
-      <c r="G34" s="98"/>
+      <c r="A34" s="77"/>
+      <c r="B34" s="78"/>
+      <c r="C34" s="78"/>
+      <c r="D34" s="78"/>
+      <c r="E34" s="78"/>
+      <c r="F34" s="78"/>
+      <c r="G34" s="79"/>
     </row>
     <row r="35" spans="1:7" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="96"/>
-      <c r="B35" s="97"/>
-      <c r="C35" s="97"/>
-      <c r="D35" s="97"/>
-      <c r="E35" s="97"/>
-      <c r="F35" s="97"/>
-      <c r="G35" s="98"/>
+      <c r="A35" s="77"/>
+      <c r="B35" s="78"/>
+      <c r="C35" s="78"/>
+      <c r="D35" s="78"/>
+      <c r="E35" s="78"/>
+      <c r="F35" s="78"/>
+      <c r="G35" s="79"/>
     </row>
     <row r="36" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="94" t="s">
+      <c r="A36" s="75" t="s">
         <v>10</v>
       </c>
       <c r="B36" s="71"/>
@@ -9237,33 +9237,35 @@
       <c r="D36" s="71"/>
       <c r="E36" s="71"/>
       <c r="F36" s="71"/>
-      <c r="G36" s="95"/>
+      <c r="G36" s="76"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="85"/>
+      <c r="A37" s="80"/>
       <c r="B37" s="69"/>
       <c r="C37" s="69"/>
       <c r="D37" s="69"/>
       <c r="E37" s="69"/>
       <c r="F37" s="69"/>
-      <c r="G37" s="86"/>
+      <c r="G37" s="81"/>
     </row>
     <row r="38" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="99"/>
-      <c r="B38" s="100"/>
-      <c r="C38" s="100"/>
-      <c r="D38" s="100"/>
-      <c r="E38" s="100"/>
-      <c r="F38" s="100"/>
-      <c r="G38" s="101"/>
+      <c r="A38" s="82"/>
+      <c r="B38" s="83"/>
+      <c r="C38" s="83"/>
+      <c r="D38" s="83"/>
+      <c r="E38" s="83"/>
+      <c r="F38" s="83"/>
+      <c r="G38" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="A34:G35"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A37:G38"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
     <mergeCell ref="C30:G30"/>
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="A19:G19"/>
@@ -9276,13 +9278,11 @@
     <mergeCell ref="A27:G27"/>
     <mergeCell ref="C28:G28"/>
     <mergeCell ref="C29:G29"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="A34:G35"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A37:G38"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Exemplo:_x000a_id -&gt; nome -&gt; categoria -&gt; ALL" sqref="C29:C32" xr:uid="{386320E1-7050-C749-9143-6F7D856CB823}"/>
@@ -9340,8 +9340,8 @@
   </sheetPr>
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9351,67 +9351,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="82"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="99"/>
     </row>
     <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="100" t="s">
         <v>210</v>
       </c>
       <c r="C2" s="68"/>
       <c r="D2" s="68"/>
       <c r="E2" s="68"/>
       <c r="F2" s="68"/>
-      <c r="G2" s="84"/>
+      <c r="G2" s="101"/>
     </row>
     <row r="3" spans="1:7" ht="46" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="80" t="s">
         <v>100</v>
       </c>
       <c r="C3" s="69"/>
       <c r="D3" s="69"/>
       <c r="E3" s="69"/>
       <c r="F3" s="69"/>
-      <c r="G3" s="86"/>
+      <c r="G3" s="81"/>
     </row>
     <row r="4" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="85" t="s">
-        <v>53</v>
+      <c r="B4" s="80" t="s">
+        <v>52</v>
       </c>
       <c r="C4" s="69"/>
       <c r="D4" s="69"/>
       <c r="E4" s="69"/>
       <c r="F4" s="69"/>
-      <c r="G4" s="86"/>
+      <c r="G4" s="81"/>
     </row>
     <row r="5" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="80" t="s">
         <v>99</v>
       </c>
       <c r="C5" s="69"/>
       <c r="D5" s="69"/>
       <c r="E5" s="69"/>
       <c r="F5" s="69"/>
-      <c r="G5" s="86"/>
+      <c r="G5" s="81"/>
     </row>
     <row r="6" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
@@ -9420,26 +9420,26 @@
       <c r="B6" s="102"/>
       <c r="C6" s="103"/>
       <c r="D6" s="104"/>
-      <c r="E6" s="77" t="s">
+      <c r="E6" s="94" t="s">
         <v>57</v>
       </c>
-      <c r="F6" s="78"/>
-      <c r="G6" s="79"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="96"/>
     </row>
     <row r="7" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="35"/>
       <c r="G7" s="33"/>
     </row>
     <row r="8" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="88" t="s">
+      <c r="A8" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="89"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="90"/>
+      <c r="B8" s="86"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="87"/>
     </row>
     <row r="9" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
@@ -9595,7 +9595,7 @@
       <c r="G17" s="37"/>
     </row>
     <row r="18" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A18" s="91" t="s">
+      <c r="A18" s="88" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="63"/>
@@ -9615,57 +9615,57 @@
       <c r="C19" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="92" t="s">
+      <c r="D19" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="E19" s="92"/>
-      <c r="F19" s="92"/>
-      <c r="G19" s="92"/>
+      <c r="E19" s="89"/>
+      <c r="F19" s="89"/>
+      <c r="G19" s="89"/>
     </row>
     <row r="20" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="93"/>
-      <c r="E20" s="93"/>
-      <c r="F20" s="93"/>
-      <c r="G20" s="93"/>
+      <c r="D20" s="90"/>
+      <c r="E20" s="90"/>
+      <c r="F20" s="90"/>
+      <c r="G20" s="90"/>
     </row>
     <row r="21" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="90"/>
     </row>
     <row r="22" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="93"/>
-      <c r="E22" s="93"/>
-      <c r="F22" s="93"/>
-      <c r="G22" s="93"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="90"/>
+      <c r="G22" s="90"/>
     </row>
     <row r="23" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="93"/>
-      <c r="E23" s="93"/>
-      <c r="F23" s="93"/>
-      <c r="G23" s="93"/>
+      <c r="D23" s="90"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="90"/>
     </row>
     <row r="24" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="93"/>
-      <c r="E24" s="93"/>
-      <c r="F24" s="93"/>
-      <c r="G24" s="93"/>
+      <c r="D24" s="90"/>
+      <c r="E24" s="90"/>
+      <c r="F24" s="90"/>
+      <c r="G24" s="90"/>
     </row>
     <row r="25" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="36"/>
@@ -9675,7 +9675,7 @@
       <c r="G25" s="33"/>
     </row>
     <row r="26" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A26" s="91" t="s">
+      <c r="A26" s="88" t="s">
         <v>29</v>
       </c>
       <c r="B26" s="63"/>
@@ -9692,47 +9692,47 @@
       <c r="B27" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="92" t="s">
+      <c r="C27" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="92"/>
-      <c r="E27" s="92"/>
-      <c r="F27" s="92"/>
-      <c r="G27" s="92"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="89"/>
+      <c r="F27" s="89"/>
+      <c r="G27" s="89"/>
     </row>
     <row r="28" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
-      <c r="C28" s="87"/>
-      <c r="D28" s="87"/>
-      <c r="E28" s="87"/>
-      <c r="F28" s="87"/>
-      <c r="G28" s="87"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="74"/>
     </row>
     <row r="29" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="87"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="87"/>
-      <c r="G29" s="87"/>
+      <c r="C29" s="74"/>
+      <c r="D29" s="74"/>
+      <c r="E29" s="74"/>
+      <c r="F29" s="74"/>
+      <c r="G29" s="74"/>
     </row>
     <row r="30" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="87"/>
-      <c r="D30" s="87"/>
-      <c r="E30" s="87"/>
-      <c r="F30" s="87"/>
-      <c r="G30" s="87"/>
+      <c r="C30" s="74"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="74"/>
     </row>
     <row r="31" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="G31" s="33"/>
     </row>
     <row r="32" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="94" t="s">
+      <c r="A32" s="75" t="s">
         <v>22</v>
       </c>
       <c r="B32" s="71"/>
@@ -9740,28 +9740,28 @@
       <c r="D32" s="71"/>
       <c r="E32" s="71"/>
       <c r="F32" s="71"/>
-      <c r="G32" s="95"/>
+      <c r="G32" s="76"/>
     </row>
     <row r="33" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="96"/>
-      <c r="B33" s="97"/>
-      <c r="C33" s="97"/>
-      <c r="D33" s="97"/>
-      <c r="E33" s="97"/>
-      <c r="F33" s="97"/>
-      <c r="G33" s="98"/>
+      <c r="A33" s="77"/>
+      <c r="B33" s="78"/>
+      <c r="C33" s="78"/>
+      <c r="D33" s="78"/>
+      <c r="E33" s="78"/>
+      <c r="F33" s="78"/>
+      <c r="G33" s="79"/>
     </row>
     <row r="34" spans="1:7" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="96"/>
-      <c r="B34" s="97"/>
-      <c r="C34" s="97"/>
-      <c r="D34" s="97"/>
-      <c r="E34" s="97"/>
-      <c r="F34" s="97"/>
-      <c r="G34" s="98"/>
+      <c r="A34" s="77"/>
+      <c r="B34" s="78"/>
+      <c r="C34" s="78"/>
+      <c r="D34" s="78"/>
+      <c r="E34" s="78"/>
+      <c r="F34" s="78"/>
+      <c r="G34" s="79"/>
     </row>
     <row r="35" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="94" t="s">
+      <c r="A35" s="75" t="s">
         <v>10</v>
       </c>
       <c r="B35" s="71"/>
@@ -9769,35 +9769,33 @@
       <c r="D35" s="71"/>
       <c r="E35" s="71"/>
       <c r="F35" s="71"/>
-      <c r="G35" s="95"/>
+      <c r="G35" s="76"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="85"/>
+      <c r="A36" s="80"/>
       <c r="B36" s="69"/>
       <c r="C36" s="69"/>
       <c r="D36" s="69"/>
       <c r="E36" s="69"/>
       <c r="F36" s="69"/>
-      <c r="G36" s="86"/>
+      <c r="G36" s="81"/>
     </row>
     <row r="37" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="99"/>
-      <c r="B37" s="100"/>
-      <c r="C37" s="100"/>
-      <c r="D37" s="100"/>
-      <c r="E37" s="100"/>
-      <c r="F37" s="100"/>
-      <c r="G37" s="101"/>
+      <c r="A37" s="82"/>
+      <c r="B37" s="83"/>
+      <c r="C37" s="83"/>
+      <c r="D37" s="83"/>
+      <c r="E37" s="83"/>
+      <c r="F37" s="83"/>
+      <c r="G37" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="A33:G34"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="A36:G37"/>
     <mergeCell ref="C29:G29"/>
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="A18:G18"/>
@@ -9810,11 +9808,13 @@
     <mergeCell ref="A26:G26"/>
     <mergeCell ref="C27:G27"/>
     <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="A33:G34"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="A36:G37"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Colocar percentagem" sqref="B6" xr:uid="{F51EFD33-359E-334A-A51E-A657A56E6972}">
@@ -9873,7 +9873,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B4" sqref="B4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9884,95 +9884,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="82"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="99"/>
     </row>
     <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="100" t="s">
         <v>211</v>
       </c>
       <c r="C2" s="68"/>
       <c r="D2" s="68"/>
       <c r="E2" s="68"/>
       <c r="F2" s="68"/>
-      <c r="G2" s="84"/>
+      <c r="G2" s="101"/>
     </row>
     <row r="3" spans="1:7" ht="46" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="80" t="s">
         <v>148</v>
       </c>
       <c r="C3" s="69"/>
       <c r="D3" s="69"/>
       <c r="E3" s="69"/>
       <c r="F3" s="69"/>
-      <c r="G3" s="86"/>
+      <c r="G3" s="81"/>
     </row>
     <row r="4" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="85" t="s">
+      <c r="B4" s="80" t="s">
         <v>53</v>
       </c>
       <c r="C4" s="69"/>
       <c r="D4" s="69"/>
       <c r="E4" s="69"/>
       <c r="F4" s="69"/>
-      <c r="G4" s="86"/>
+      <c r="G4" s="81"/>
     </row>
     <row r="5" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="80" t="s">
         <v>110</v>
       </c>
       <c r="C5" s="69"/>
       <c r="D5" s="69"/>
       <c r="E5" s="69"/>
       <c r="F5" s="69"/>
-      <c r="G5" s="86"/>
+      <c r="G5" s="81"/>
     </row>
     <row r="6" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="74"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="77" t="s">
+      <c r="B6" s="91"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="94" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="78"/>
-      <c r="G6" s="79"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="96"/>
     </row>
     <row r="7" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="35"/>
       <c r="G7" s="33"/>
     </row>
     <row r="8" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="88" t="s">
+      <c r="A8" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="89"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="90"/>
+      <c r="B8" s="86"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="87"/>
     </row>
     <row r="9" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
@@ -10128,7 +10128,7 @@
       <c r="G17" s="37"/>
     </row>
     <row r="18" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A18" s="91"/>
+      <c r="A18" s="88"/>
       <c r="B18" s="63"/>
       <c r="C18" s="63"/>
       <c r="D18" s="63"/>
@@ -10146,57 +10146,57 @@
       <c r="C19" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="92" t="s">
+      <c r="D19" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="E19" s="92"/>
-      <c r="F19" s="92"/>
-      <c r="G19" s="92"/>
+      <c r="E19" s="89"/>
+      <c r="F19" s="89"/>
+      <c r="G19" s="89"/>
     </row>
     <row r="20" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="93"/>
-      <c r="E20" s="93"/>
-      <c r="F20" s="93"/>
-      <c r="G20" s="93"/>
+      <c r="D20" s="90"/>
+      <c r="E20" s="90"/>
+      <c r="F20" s="90"/>
+      <c r="G20" s="90"/>
     </row>
     <row r="21" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="90"/>
     </row>
     <row r="22" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="93"/>
-      <c r="E22" s="93"/>
-      <c r="F22" s="93"/>
-      <c r="G22" s="93"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="90"/>
+      <c r="G22" s="90"/>
     </row>
     <row r="23" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="93"/>
-      <c r="E23" s="93"/>
-      <c r="F23" s="93"/>
-      <c r="G23" s="93"/>
+      <c r="D23" s="90"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="90"/>
     </row>
     <row r="24" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="93"/>
-      <c r="E24" s="93"/>
-      <c r="F24" s="93"/>
-      <c r="G24" s="93"/>
+      <c r="D24" s="90"/>
+      <c r="E24" s="90"/>
+      <c r="F24" s="90"/>
+      <c r="G24" s="90"/>
     </row>
     <row r="25" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="36"/>
@@ -10206,7 +10206,7 @@
       <c r="G25" s="33"/>
     </row>
     <row r="26" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A26" s="91" t="s">
+      <c r="A26" s="88" t="s">
         <v>29</v>
       </c>
       <c r="B26" s="63"/>
@@ -10223,47 +10223,47 @@
       <c r="B27" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="92" t="s">
+      <c r="C27" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="92"/>
-      <c r="E27" s="92"/>
-      <c r="F27" s="92"/>
-      <c r="G27" s="92"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="89"/>
+      <c r="F27" s="89"/>
+      <c r="G27" s="89"/>
     </row>
     <row r="28" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
-      <c r="C28" s="87"/>
-      <c r="D28" s="87"/>
-      <c r="E28" s="87"/>
-      <c r="F28" s="87"/>
-      <c r="G28" s="87"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="74"/>
     </row>
     <row r="29" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="87"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="87"/>
-      <c r="G29" s="87"/>
+      <c r="C29" s="74"/>
+      <c r="D29" s="74"/>
+      <c r="E29" s="74"/>
+      <c r="F29" s="74"/>
+      <c r="G29" s="74"/>
     </row>
     <row r="30" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="87"/>
-      <c r="D30" s="87"/>
-      <c r="E30" s="87"/>
-      <c r="F30" s="87"/>
-      <c r="G30" s="87"/>
+      <c r="C30" s="74"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="74"/>
     </row>
     <row r="31" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="G31" s="33"/>
     </row>
     <row r="32" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="94" t="s">
+      <c r="A32" s="75" t="s">
         <v>22</v>
       </c>
       <c r="B32" s="71"/>
@@ -10271,28 +10271,28 @@
       <c r="D32" s="71"/>
       <c r="E32" s="71"/>
       <c r="F32" s="71"/>
-      <c r="G32" s="95"/>
+      <c r="G32" s="76"/>
     </row>
     <row r="33" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="96"/>
-      <c r="B33" s="97"/>
-      <c r="C33" s="97"/>
-      <c r="D33" s="97"/>
-      <c r="E33" s="97"/>
-      <c r="F33" s="97"/>
-      <c r="G33" s="98"/>
+      <c r="A33" s="77"/>
+      <c r="B33" s="78"/>
+      <c r="C33" s="78"/>
+      <c r="D33" s="78"/>
+      <c r="E33" s="78"/>
+      <c r="F33" s="78"/>
+      <c r="G33" s="79"/>
     </row>
     <row r="34" spans="1:7" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="96"/>
-      <c r="B34" s="97"/>
-      <c r="C34" s="97"/>
-      <c r="D34" s="97"/>
-      <c r="E34" s="97"/>
-      <c r="F34" s="97"/>
-      <c r="G34" s="98"/>
+      <c r="A34" s="77"/>
+      <c r="B34" s="78"/>
+      <c r="C34" s="78"/>
+      <c r="D34" s="78"/>
+      <c r="E34" s="78"/>
+      <c r="F34" s="78"/>
+      <c r="G34" s="79"/>
     </row>
     <row r="35" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="94" t="s">
+      <c r="A35" s="75" t="s">
         <v>10</v>
       </c>
       <c r="B35" s="71"/>
@@ -10300,28 +10300,36 @@
       <c r="D35" s="71"/>
       <c r="E35" s="71"/>
       <c r="F35" s="71"/>
-      <c r="G35" s="95"/>
+      <c r="G35" s="76"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="85"/>
+      <c r="A36" s="80"/>
       <c r="B36" s="69"/>
       <c r="C36" s="69"/>
       <c r="D36" s="69"/>
       <c r="E36" s="69"/>
       <c r="F36" s="69"/>
-      <c r="G36" s="86"/>
+      <c r="G36" s="81"/>
     </row>
     <row r="37" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="99"/>
-      <c r="B37" s="100"/>
-      <c r="C37" s="100"/>
-      <c r="D37" s="100"/>
-      <c r="E37" s="100"/>
-      <c r="F37" s="100"/>
-      <c r="G37" s="101"/>
+      <c r="A37" s="82"/>
+      <c r="B37" s="83"/>
+      <c r="C37" s="83"/>
+      <c r="D37" s="83"/>
+      <c r="E37" s="83"/>
+      <c r="F37" s="83"/>
+      <c r="G37" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D23:G23"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="D19:G19"/>
     <mergeCell ref="D20:G20"/>
@@ -10338,14 +10346,6 @@
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="B5:G5"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="A26:G26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D23:G23"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Colocar percentagem" sqref="B6" xr:uid="{C5DD908A-3688-A14E-B89F-E074FAFCDF99}">
@@ -10415,95 +10415,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="82"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="99"/>
     </row>
     <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="100" t="s">
         <v>212</v>
       </c>
       <c r="C2" s="68"/>
       <c r="D2" s="68"/>
       <c r="E2" s="68"/>
       <c r="F2" s="68"/>
-      <c r="G2" s="84"/>
+      <c r="G2" s="101"/>
     </row>
     <row r="3" spans="1:7" ht="46" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="80" t="s">
         <v>124</v>
       </c>
       <c r="C3" s="69"/>
       <c r="D3" s="69"/>
       <c r="E3" s="69"/>
       <c r="F3" s="69"/>
-      <c r="G3" s="86"/>
+      <c r="G3" s="81"/>
     </row>
     <row r="4" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="85" t="s">
+      <c r="B4" s="80" t="s">
         <v>51</v>
       </c>
       <c r="C4" s="69"/>
       <c r="D4" s="69"/>
       <c r="E4" s="69"/>
       <c r="F4" s="69"/>
-      <c r="G4" s="86"/>
+      <c r="G4" s="81"/>
     </row>
     <row r="5" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="80" t="s">
         <v>113</v>
       </c>
       <c r="C5" s="69"/>
       <c r="D5" s="69"/>
       <c r="E5" s="69"/>
       <c r="F5" s="69"/>
-      <c r="G5" s="86"/>
+      <c r="G5" s="81"/>
     </row>
     <row r="6" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="74"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="77" t="s">
+      <c r="B6" s="91"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="94" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="78"/>
-      <c r="G6" s="79"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="96"/>
     </row>
     <row r="7" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="35"/>
       <c r="G7" s="33"/>
     </row>
     <row r="8" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="88" t="s">
+      <c r="A8" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="89"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="90"/>
+      <c r="B8" s="86"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="87"/>
     </row>
     <row r="9" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
@@ -10647,7 +10647,7 @@
       <c r="G17" s="37"/>
     </row>
     <row r="18" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A18" s="91" t="s">
+      <c r="A18" s="88" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="63"/>
@@ -10667,57 +10667,57 @@
       <c r="C19" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="92" t="s">
+      <c r="D19" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="E19" s="92"/>
-      <c r="F19" s="92"/>
-      <c r="G19" s="92"/>
+      <c r="E19" s="89"/>
+      <c r="F19" s="89"/>
+      <c r="G19" s="89"/>
     </row>
     <row r="20" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="93"/>
-      <c r="E20" s="93"/>
-      <c r="F20" s="93"/>
-      <c r="G20" s="93"/>
+      <c r="D20" s="90"/>
+      <c r="E20" s="90"/>
+      <c r="F20" s="90"/>
+      <c r="G20" s="90"/>
     </row>
     <row r="21" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="90"/>
     </row>
     <row r="22" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="93"/>
-      <c r="E22" s="93"/>
-      <c r="F22" s="93"/>
-      <c r="G22" s="93"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="90"/>
+      <c r="G22" s="90"/>
     </row>
     <row r="23" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="93"/>
-      <c r="E23" s="93"/>
-      <c r="F23" s="93"/>
-      <c r="G23" s="93"/>
+      <c r="D23" s="90"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="90"/>
     </row>
     <row r="24" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="93"/>
-      <c r="E24" s="93"/>
-      <c r="F24" s="93"/>
-      <c r="G24" s="93"/>
+      <c r="D24" s="90"/>
+      <c r="E24" s="90"/>
+      <c r="F24" s="90"/>
+      <c r="G24" s="90"/>
     </row>
     <row r="25" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="36"/>
@@ -10727,7 +10727,7 @@
       <c r="G25" s="33"/>
     </row>
     <row r="26" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A26" s="91" t="s">
+      <c r="A26" s="88" t="s">
         <v>29</v>
       </c>
       <c r="B26" s="63"/>
@@ -10744,47 +10744,47 @@
       <c r="B27" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="92" t="s">
+      <c r="C27" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="92"/>
-      <c r="E27" s="92"/>
-      <c r="F27" s="92"/>
-      <c r="G27" s="92"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="89"/>
+      <c r="F27" s="89"/>
+      <c r="G27" s="89"/>
     </row>
     <row r="28" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
-      <c r="C28" s="87"/>
-      <c r="D28" s="87"/>
-      <c r="E28" s="87"/>
-      <c r="F28" s="87"/>
-      <c r="G28" s="87"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="74"/>
     </row>
     <row r="29" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="87"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="87"/>
-      <c r="G29" s="87"/>
+      <c r="C29" s="74"/>
+      <c r="D29" s="74"/>
+      <c r="E29" s="74"/>
+      <c r="F29" s="74"/>
+      <c r="G29" s="74"/>
     </row>
     <row r="30" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="87"/>
-      <c r="D30" s="87"/>
-      <c r="E30" s="87"/>
-      <c r="F30" s="87"/>
-      <c r="G30" s="87"/>
+      <c r="C30" s="74"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="74"/>
     </row>
     <row r="31" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="G31" s="33"/>
     </row>
     <row r="32" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="94" t="s">
+      <c r="A32" s="75" t="s">
         <v>22</v>
       </c>
       <c r="B32" s="71"/>
@@ -10792,28 +10792,28 @@
       <c r="D32" s="71"/>
       <c r="E32" s="71"/>
       <c r="F32" s="71"/>
-      <c r="G32" s="95"/>
+      <c r="G32" s="76"/>
     </row>
     <row r="33" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="96"/>
-      <c r="B33" s="97"/>
-      <c r="C33" s="97"/>
-      <c r="D33" s="97"/>
-      <c r="E33" s="97"/>
-      <c r="F33" s="97"/>
-      <c r="G33" s="98"/>
+      <c r="A33" s="77"/>
+      <c r="B33" s="78"/>
+      <c r="C33" s="78"/>
+      <c r="D33" s="78"/>
+      <c r="E33" s="78"/>
+      <c r="F33" s="78"/>
+      <c r="G33" s="79"/>
     </row>
     <row r="34" spans="1:7" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="96"/>
-      <c r="B34" s="97"/>
-      <c r="C34" s="97"/>
-      <c r="D34" s="97"/>
-      <c r="E34" s="97"/>
-      <c r="F34" s="97"/>
-      <c r="G34" s="98"/>
+      <c r="A34" s="77"/>
+      <c r="B34" s="78"/>
+      <c r="C34" s="78"/>
+      <c r="D34" s="78"/>
+      <c r="E34" s="78"/>
+      <c r="F34" s="78"/>
+      <c r="G34" s="79"/>
     </row>
     <row r="35" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="94" t="s">
+      <c r="A35" s="75" t="s">
         <v>10</v>
       </c>
       <c r="B35" s="71"/>
@@ -10821,35 +10821,33 @@
       <c r="D35" s="71"/>
       <c r="E35" s="71"/>
       <c r="F35" s="71"/>
-      <c r="G35" s="95"/>
+      <c r="G35" s="76"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="85"/>
+      <c r="A36" s="80"/>
       <c r="B36" s="69"/>
       <c r="C36" s="69"/>
       <c r="D36" s="69"/>
       <c r="E36" s="69"/>
       <c r="F36" s="69"/>
-      <c r="G36" s="86"/>
+      <c r="G36" s="81"/>
     </row>
     <row r="37" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="99"/>
-      <c r="B37" s="100"/>
-      <c r="C37" s="100"/>
-      <c r="D37" s="100"/>
-      <c r="E37" s="100"/>
-      <c r="F37" s="100"/>
-      <c r="G37" s="101"/>
+      <c r="A37" s="82"/>
+      <c r="B37" s="83"/>
+      <c r="C37" s="83"/>
+      <c r="D37" s="83"/>
+      <c r="E37" s="83"/>
+      <c r="F37" s="83"/>
+      <c r="G37" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="A33:G34"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="A36:G37"/>
     <mergeCell ref="C29:G29"/>
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="A18:G18"/>
@@ -10862,11 +10860,13 @@
     <mergeCell ref="A26:G26"/>
     <mergeCell ref="C27:G27"/>
     <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="A33:G34"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="A36:G37"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Exemplo:_x000a_id -&gt; nome -&gt; categoria -&gt; ALL" sqref="C28:C31" xr:uid="{6749BA4D-A4C0-664A-8057-C07B807E371B}"/>
@@ -10936,95 +10936,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="82"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="99"/>
     </row>
     <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="100" t="s">
         <v>213</v>
       </c>
       <c r="C2" s="68"/>
       <c r="D2" s="68"/>
       <c r="E2" s="68"/>
       <c r="F2" s="68"/>
-      <c r="G2" s="84"/>
+      <c r="G2" s="101"/>
     </row>
     <row r="3" spans="1:7" ht="46" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="80" t="s">
         <v>149</v>
       </c>
       <c r="C3" s="69"/>
       <c r="D3" s="69"/>
       <c r="E3" s="69"/>
       <c r="F3" s="69"/>
-      <c r="G3" s="86"/>
+      <c r="G3" s="81"/>
     </row>
     <row r="4" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="85" t="s">
+      <c r="B4" s="80" t="s">
         <v>51</v>
       </c>
       <c r="C4" s="69"/>
       <c r="D4" s="69"/>
       <c r="E4" s="69"/>
       <c r="F4" s="69"/>
-      <c r="G4" s="86"/>
+      <c r="G4" s="81"/>
     </row>
     <row r="5" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="80" t="s">
         <v>150</v>
       </c>
       <c r="C5" s="69"/>
       <c r="D5" s="69"/>
       <c r="E5" s="69"/>
       <c r="F5" s="69"/>
-      <c r="G5" s="86"/>
+      <c r="G5" s="81"/>
     </row>
     <row r="6" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="74"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="77" t="s">
+      <c r="B6" s="91"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="94" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="78"/>
-      <c r="G6" s="79"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="96"/>
     </row>
     <row r="7" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="35"/>
       <c r="G7" s="33"/>
     </row>
     <row r="8" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="88" t="s">
+      <c r="A8" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="89"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="90"/>
+      <c r="B8" s="86"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="87"/>
     </row>
     <row r="9" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
@@ -11204,7 +11204,7 @@
       <c r="G17" s="37"/>
     </row>
     <row r="18" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A18" s="91" t="s">
+      <c r="A18" s="88" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="63"/>
@@ -11224,57 +11224,57 @@
       <c r="C19" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="92" t="s">
+      <c r="D19" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="E19" s="92"/>
-      <c r="F19" s="92"/>
-      <c r="G19" s="92"/>
+      <c r="E19" s="89"/>
+      <c r="F19" s="89"/>
+      <c r="G19" s="89"/>
     </row>
     <row r="20" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="93"/>
-      <c r="E20" s="93"/>
-      <c r="F20" s="93"/>
-      <c r="G20" s="93"/>
+      <c r="D20" s="90"/>
+      <c r="E20" s="90"/>
+      <c r="F20" s="90"/>
+      <c r="G20" s="90"/>
     </row>
     <row r="21" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="90"/>
     </row>
     <row r="22" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="93"/>
-      <c r="E22" s="93"/>
-      <c r="F22" s="93"/>
-      <c r="G22" s="93"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="90"/>
+      <c r="G22" s="90"/>
     </row>
     <row r="23" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="93"/>
-      <c r="E23" s="93"/>
-      <c r="F23" s="93"/>
-      <c r="G23" s="93"/>
+      <c r="D23" s="90"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="90"/>
     </row>
     <row r="24" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="93"/>
-      <c r="E24" s="93"/>
-      <c r="F24" s="93"/>
-      <c r="G24" s="93"/>
+      <c r="D24" s="90"/>
+      <c r="E24" s="90"/>
+      <c r="F24" s="90"/>
+      <c r="G24" s="90"/>
     </row>
     <row r="25" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="36"/>
@@ -11284,7 +11284,7 @@
       <c r="G25" s="33"/>
     </row>
     <row r="26" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A26" s="91" t="s">
+      <c r="A26" s="88" t="s">
         <v>29</v>
       </c>
       <c r="B26" s="63"/>
@@ -11301,51 +11301,51 @@
       <c r="B27" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="92" t="s">
+      <c r="C27" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="92"/>
-      <c r="E27" s="92"/>
-      <c r="F27" s="92"/>
-      <c r="G27" s="92"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="89"/>
+      <c r="F27" s="89"/>
+      <c r="G27" s="89"/>
     </row>
     <row r="28" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1</v>
       </c>
       <c r="B28" s="1"/>
-      <c r="C28" s="87" t="s">
+      <c r="C28" s="74" t="s">
         <v>160</v>
       </c>
-      <c r="D28" s="87"/>
-      <c r="E28" s="87"/>
-      <c r="F28" s="87"/>
-      <c r="G28" s="87"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="74"/>
     </row>
     <row r="29" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="87"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="87"/>
-      <c r="G29" s="87"/>
+      <c r="C29" s="74"/>
+      <c r="D29" s="74"/>
+      <c r="E29" s="74"/>
+      <c r="F29" s="74"/>
+      <c r="G29" s="74"/>
     </row>
     <row r="30" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="87"/>
-      <c r="D30" s="87"/>
-      <c r="E30" s="87"/>
-      <c r="F30" s="87"/>
-      <c r="G30" s="87"/>
+      <c r="C30" s="74"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="74"/>
     </row>
     <row r="31" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="G31" s="33"/>
     </row>
     <row r="32" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="94" t="s">
+      <c r="A32" s="75" t="s">
         <v>22</v>
       </c>
       <c r="B32" s="71"/>
@@ -11353,28 +11353,28 @@
       <c r="D32" s="71"/>
       <c r="E32" s="71"/>
       <c r="F32" s="71"/>
-      <c r="G32" s="95"/>
+      <c r="G32" s="76"/>
     </row>
     <row r="33" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="96"/>
-      <c r="B33" s="97"/>
-      <c r="C33" s="97"/>
-      <c r="D33" s="97"/>
-      <c r="E33" s="97"/>
-      <c r="F33" s="97"/>
-      <c r="G33" s="98"/>
+      <c r="A33" s="77"/>
+      <c r="B33" s="78"/>
+      <c r="C33" s="78"/>
+      <c r="D33" s="78"/>
+      <c r="E33" s="78"/>
+      <c r="F33" s="78"/>
+      <c r="G33" s="79"/>
     </row>
     <row r="34" spans="1:7" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="96"/>
-      <c r="B34" s="97"/>
-      <c r="C34" s="97"/>
-      <c r="D34" s="97"/>
-      <c r="E34" s="97"/>
-      <c r="F34" s="97"/>
-      <c r="G34" s="98"/>
+      <c r="A34" s="77"/>
+      <c r="B34" s="78"/>
+      <c r="C34" s="78"/>
+      <c r="D34" s="78"/>
+      <c r="E34" s="78"/>
+      <c r="F34" s="78"/>
+      <c r="G34" s="79"/>
     </row>
     <row r="35" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="94" t="s">
+      <c r="A35" s="75" t="s">
         <v>10</v>
       </c>
       <c r="B35" s="71"/>
@@ -11382,35 +11382,33 @@
       <c r="D35" s="71"/>
       <c r="E35" s="71"/>
       <c r="F35" s="71"/>
-      <c r="G35" s="95"/>
+      <c r="G35" s="76"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="85"/>
+      <c r="A36" s="80"/>
       <c r="B36" s="69"/>
       <c r="C36" s="69"/>
       <c r="D36" s="69"/>
       <c r="E36" s="69"/>
       <c r="F36" s="69"/>
-      <c r="G36" s="86"/>
+      <c r="G36" s="81"/>
     </row>
     <row r="37" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="99"/>
-      <c r="B37" s="100"/>
-      <c r="C37" s="100"/>
-      <c r="D37" s="100"/>
-      <c r="E37" s="100"/>
-      <c r="F37" s="100"/>
-      <c r="G37" s="101"/>
+      <c r="A37" s="82"/>
+      <c r="B37" s="83"/>
+      <c r="C37" s="83"/>
+      <c r="D37" s="83"/>
+      <c r="E37" s="83"/>
+      <c r="F37" s="83"/>
+      <c r="G37" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="A33:G34"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="A36:G37"/>
     <mergeCell ref="C29:G29"/>
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="A18:G18"/>
@@ -11423,11 +11421,13 @@
     <mergeCell ref="A26:G26"/>
     <mergeCell ref="C27:G27"/>
     <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="A33:G34"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="A36:G37"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Colocar percentagem" sqref="B6" xr:uid="{A66D20F0-0782-6944-BA9C-7489AA303243}">
@@ -11485,8 +11485,8 @@
   </sheetPr>
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11498,152 +11498,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="97" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="82"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="99"/>
     </row>
     <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="122">
+      <c r="B2" s="107">
         <v>4</v>
       </c>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="123"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="108"/>
     </row>
     <row r="3" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="78" t="s">
         <v>161</v>
       </c>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="98"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="79"/>
     </row>
     <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="97" t="s">
+      <c r="B4" s="78" t="s">
         <v>162</v>
       </c>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="98"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="79"/>
     </row>
     <row r="5" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="97" t="s">
+      <c r="B5" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="98"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="79"/>
     </row>
     <row r="6" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="97" t="s">
+      <c r="B6" s="78" t="s">
         <v>207</v>
       </c>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="98"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="79"/>
     </row>
     <row r="7" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="97" t="s">
+      <c r="B7" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="97"/>
-      <c r="D7" s="97"/>
-      <c r="E7" s="97"/>
-      <c r="F7" s="98"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="79"/>
     </row>
     <row r="8" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="B8" s="97" t="s">
+      <c r="B8" s="78" t="s">
         <v>163</v>
       </c>
-      <c r="C8" s="97"/>
-      <c r="D8" s="97"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="98"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="79"/>
     </row>
     <row r="9" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="B9" s="97"/>
-      <c r="C9" s="97"/>
-      <c r="D9" s="97"/>
-      <c r="E9" s="97"/>
-      <c r="F9" s="98"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="79"/>
     </row>
     <row r="10" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="124">
+      <c r="B10" s="109">
         <v>0.5</v>
       </c>
-      <c r="C10" s="97"/>
-      <c r="D10" s="97" t="s">
+      <c r="C10" s="78"/>
+      <c r="D10" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="97"/>
-      <c r="F10" s="98"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="79"/>
     </row>
     <row r="11" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="120" t="s">
+      <c r="B11" s="105" t="s">
         <v>164</v>
       </c>
-      <c r="C11" s="120"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="121"/>
+      <c r="C11" s="105"/>
+      <c r="D11" s="105"/>
+      <c r="E11" s="105"/>
+      <c r="F11" s="106"/>
     </row>
     <row r="12" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="111"/>
-      <c r="B12" s="112"/>
-      <c r="C12" s="112"/>
-      <c r="D12" s="112"/>
-      <c r="E12" s="112"/>
-      <c r="F12" s="113"/>
+      <c r="A12" s="113"/>
+      <c r="B12" s="114"/>
+      <c r="C12" s="114"/>
+      <c r="D12" s="114"/>
+      <c r="E12" s="114"/>
+      <c r="F12" s="115"/>
     </row>
     <row r="13" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="88" t="s">
+      <c r="A13" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="89"/>
-      <c r="C13" s="89"/>
-      <c r="D13" s="89"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="90"/>
+      <c r="B13" s="86"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="86"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="87"/>
     </row>
     <row r="14" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
@@ -11810,22 +11810,22 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="111"/>
-      <c r="B23" s="112"/>
-      <c r="C23" s="112"/>
-      <c r="D23" s="112"/>
-      <c r="E23" s="112"/>
-      <c r="F23" s="113"/>
+      <c r="A23" s="113"/>
+      <c r="B23" s="114"/>
+      <c r="C23" s="114"/>
+      <c r="D23" s="114"/>
+      <c r="E23" s="114"/>
+      <c r="F23" s="115"/>
     </row>
     <row r="24" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="88" t="s">
+      <c r="A24" s="85" t="s">
         <v>77</v>
       </c>
-      <c r="B24" s="89"/>
-      <c r="C24" s="89"/>
-      <c r="D24" s="89"/>
-      <c r="E24" s="89"/>
-      <c r="F24" s="90"/>
+      <c r="B24" s="86"/>
+      <c r="C24" s="86"/>
+      <c r="D24" s="86"/>
+      <c r="E24" s="86"/>
+      <c r="F24" s="87"/>
     </row>
     <row r="25" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="39" t="s">
@@ -11937,22 +11937,22 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="111"/>
-      <c r="B31" s="112"/>
-      <c r="C31" s="112"/>
-      <c r="D31" s="112"/>
-      <c r="E31" s="112"/>
-      <c r="F31" s="113"/>
+      <c r="A31" s="113"/>
+      <c r="B31" s="114"/>
+      <c r="C31" s="114"/>
+      <c r="D31" s="114"/>
+      <c r="E31" s="114"/>
+      <c r="F31" s="115"/>
     </row>
     <row r="32" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="88" t="s">
+      <c r="A32" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="B32" s="89"/>
-      <c r="C32" s="89"/>
-      <c r="D32" s="89"/>
-      <c r="E32" s="89"/>
-      <c r="F32" s="90"/>
+      <c r="B32" s="86"/>
+      <c r="C32" s="86"/>
+      <c r="D32" s="86"/>
+      <c r="E32" s="86"/>
+      <c r="F32" s="87"/>
     </row>
     <row r="33" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A33" s="39" t="s">
@@ -11964,114 +11964,131 @@
       <c r="C33" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="D33" s="106" t="s">
+      <c r="D33" s="116" t="s">
         <v>65</v>
       </c>
-      <c r="E33" s="106"/>
-      <c r="F33" s="107"/>
+      <c r="E33" s="116"/>
+      <c r="F33" s="117"/>
     </row>
     <row r="34" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A34" s="39"/>
       <c r="B34" s="40"/>
       <c r="C34" s="40"/>
-      <c r="D34" s="109"/>
-      <c r="E34" s="109"/>
-      <c r="F34" s="110"/>
+      <c r="D34" s="118"/>
+      <c r="E34" s="118"/>
+      <c r="F34" s="119"/>
     </row>
     <row r="35" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A35" s="39"/>
       <c r="B35" s="40"/>
       <c r="C35" s="40"/>
-      <c r="D35" s="109"/>
-      <c r="E35" s="109"/>
-      <c r="F35" s="110"/>
+      <c r="D35" s="118"/>
+      <c r="E35" s="118"/>
+      <c r="F35" s="119"/>
     </row>
     <row r="36" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A36" s="39"/>
       <c r="B36" s="40"/>
       <c r="C36" s="40"/>
-      <c r="D36" s="109"/>
-      <c r="E36" s="109"/>
-      <c r="F36" s="110"/>
+      <c r="D36" s="118"/>
+      <c r="E36" s="118"/>
+      <c r="F36" s="119"/>
     </row>
     <row r="37" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A37" s="41"/>
       <c r="B37" s="42"/>
       <c r="C37" s="42"/>
-      <c r="D37" s="115"/>
-      <c r="E37" s="115"/>
-      <c r="F37" s="116"/>
+      <c r="D37" s="120"/>
+      <c r="E37" s="120"/>
+      <c r="F37" s="121"/>
     </row>
     <row r="38" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="117"/>
-      <c r="B38" s="118"/>
-      <c r="C38" s="118"/>
-      <c r="D38" s="118"/>
-      <c r="E38" s="118"/>
-      <c r="F38" s="119"/>
+      <c r="A38" s="110"/>
+      <c r="B38" s="111"/>
+      <c r="C38" s="111"/>
+      <c r="D38" s="111"/>
+      <c r="E38" s="111"/>
+      <c r="F38" s="112"/>
     </row>
     <row r="39" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="88" t="s">
+      <c r="A39" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="B39" s="89"/>
-      <c r="C39" s="89"/>
-      <c r="D39" s="89"/>
-      <c r="E39" s="89"/>
-      <c r="F39" s="90"/>
+      <c r="B39" s="86"/>
+      <c r="C39" s="86"/>
+      <c r="D39" s="86"/>
+      <c r="E39" s="86"/>
+      <c r="F39" s="87"/>
     </row>
     <row r="40" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="105"/>
-      <c r="B40" s="106"/>
-      <c r="C40" s="106"/>
-      <c r="D40" s="106"/>
-      <c r="E40" s="106"/>
-      <c r="F40" s="107"/>
+      <c r="A40" s="122"/>
+      <c r="B40" s="116"/>
+      <c r="C40" s="116"/>
+      <c r="D40" s="116"/>
+      <c r="E40" s="116"/>
+      <c r="F40" s="117"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="108"/>
-      <c r="B41" s="109"/>
-      <c r="C41" s="109"/>
-      <c r="D41" s="109"/>
-      <c r="E41" s="109"/>
-      <c r="F41" s="110"/>
+      <c r="A41" s="123"/>
+      <c r="B41" s="118"/>
+      <c r="C41" s="118"/>
+      <c r="D41" s="118"/>
+      <c r="E41" s="118"/>
+      <c r="F41" s="119"/>
     </row>
     <row r="42" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="111"/>
-      <c r="B42" s="112"/>
-      <c r="C42" s="112"/>
-      <c r="D42" s="112"/>
-      <c r="E42" s="112"/>
-      <c r="F42" s="113"/>
+      <c r="A42" s="113"/>
+      <c r="B42" s="114"/>
+      <c r="C42" s="114"/>
+      <c r="D42" s="114"/>
+      <c r="E42" s="114"/>
+      <c r="F42" s="115"/>
     </row>
     <row r="43" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="88" t="s">
+      <c r="A43" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="B43" s="89"/>
-      <c r="C43" s="89"/>
-      <c r="D43" s="89"/>
-      <c r="E43" s="89"/>
-      <c r="F43" s="90"/>
+      <c r="B43" s="86"/>
+      <c r="C43" s="86"/>
+      <c r="D43" s="86"/>
+      <c r="E43" s="86"/>
+      <c r="F43" s="87"/>
     </row>
     <row r="44" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="105"/>
-      <c r="B44" s="106"/>
-      <c r="C44" s="106"/>
-      <c r="D44" s="106"/>
-      <c r="E44" s="106"/>
-      <c r="F44" s="107"/>
+      <c r="A44" s="122"/>
+      <c r="B44" s="116"/>
+      <c r="C44" s="116"/>
+      <c r="D44" s="116"/>
+      <c r="E44" s="116"/>
+      <c r="F44" s="117"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="114"/>
-      <c r="B45" s="115"/>
-      <c r="C45" s="115"/>
-      <c r="D45" s="115"/>
-      <c r="E45" s="115"/>
-      <c r="F45" s="116"/>
+      <c r="A45" s="124"/>
+      <c r="B45" s="120"/>
+      <c r="C45" s="120"/>
+      <c r="D45" s="120"/>
+      <c r="E45" s="120"/>
+      <c r="F45" s="121"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="A40:F41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="A44:F45"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D37:F37"/>
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B2:F2"/>
@@ -12084,23 +12101,6 @@
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:F10"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="A40:F41"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="A44:F45"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <dataValidations count="5">
@@ -12189,152 +12189,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="97" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="82"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="99"/>
     </row>
     <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="107" t="s">
         <v>214</v>
       </c>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="123"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="108"/>
     </row>
     <row r="3" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="78" t="s">
         <v>183</v>
       </c>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="110"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="119"/>
     </row>
     <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="97" t="s">
+      <c r="B4" s="78" t="s">
         <v>162</v>
       </c>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
-      <c r="E4" s="109"/>
-      <c r="F4" s="110"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="119"/>
     </row>
     <row r="5" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="97" t="s">
+      <c r="B5" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
-      <c r="F5" s="110"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="118"/>
+      <c r="E5" s="118"/>
+      <c r="F5" s="119"/>
     </row>
     <row r="6" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="97" t="s">
+      <c r="B6" s="78" t="s">
         <v>204</v>
       </c>
-      <c r="C6" s="109"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="109"/>
-      <c r="F6" s="110"/>
+      <c r="C6" s="118"/>
+      <c r="D6" s="118"/>
+      <c r="E6" s="118"/>
+      <c r="F6" s="119"/>
     </row>
     <row r="7" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="97" t="s">
+      <c r="B7" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="109"/>
-      <c r="D7" s="109"/>
-      <c r="E7" s="109"/>
-      <c r="F7" s="110"/>
+      <c r="C7" s="118"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="119"/>
     </row>
     <row r="8" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="B8" s="97" t="s">
+      <c r="B8" s="78" t="s">
         <v>163</v>
       </c>
-      <c r="C8" s="109"/>
-      <c r="D8" s="109"/>
-      <c r="E8" s="109"/>
-      <c r="F8" s="110"/>
+      <c r="C8" s="118"/>
+      <c r="D8" s="118"/>
+      <c r="E8" s="118"/>
+      <c r="F8" s="119"/>
     </row>
     <row r="9" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="B9" s="109"/>
-      <c r="C9" s="109"/>
-      <c r="D9" s="109"/>
-      <c r="E9" s="109"/>
-      <c r="F9" s="110"/>
+      <c r="B9" s="118"/>
+      <c r="C9" s="118"/>
+      <c r="D9" s="118"/>
+      <c r="E9" s="118"/>
+      <c r="F9" s="119"/>
     </row>
     <row r="10" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="124">
+      <c r="B10" s="109">
         <v>0.7</v>
       </c>
-      <c r="C10" s="97"/>
-      <c r="D10" s="97" t="s">
+      <c r="C10" s="78"/>
+      <c r="D10" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="97"/>
-      <c r="F10" s="98"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="79"/>
     </row>
     <row r="11" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="120" t="s">
+      <c r="B11" s="105" t="s">
         <v>164</v>
       </c>
-      <c r="C11" s="115"/>
-      <c r="D11" s="115"/>
-      <c r="E11" s="115"/>
-      <c r="F11" s="116"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
+      <c r="F11" s="121"/>
     </row>
     <row r="12" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="111"/>
-      <c r="B12" s="112"/>
-      <c r="C12" s="112"/>
-      <c r="D12" s="112"/>
-      <c r="E12" s="112"/>
-      <c r="F12" s="113"/>
+      <c r="A12" s="113"/>
+      <c r="B12" s="114"/>
+      <c r="C12" s="114"/>
+      <c r="D12" s="114"/>
+      <c r="E12" s="114"/>
+      <c r="F12" s="115"/>
     </row>
     <row r="13" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="88" t="s">
+      <c r="A13" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="89"/>
-      <c r="C13" s="89"/>
-      <c r="D13" s="89"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="90"/>
+      <c r="B13" s="86"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="86"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="87"/>
     </row>
     <row r="14" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
@@ -12553,22 +12553,22 @@
       <c r="F26" s="55"/>
     </row>
     <row r="27" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="111"/>
-      <c r="B27" s="112"/>
-      <c r="C27" s="112"/>
-      <c r="D27" s="112"/>
-      <c r="E27" s="112"/>
-      <c r="F27" s="113"/>
+      <c r="A27" s="113"/>
+      <c r="B27" s="114"/>
+      <c r="C27" s="114"/>
+      <c r="D27" s="114"/>
+      <c r="E27" s="114"/>
+      <c r="F27" s="115"/>
     </row>
     <row r="28" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="88" t="s">
+      <c r="A28" s="85" t="s">
         <v>77</v>
       </c>
-      <c r="B28" s="89"/>
-      <c r="C28" s="89"/>
-      <c r="D28" s="89"/>
-      <c r="E28" s="89"/>
-      <c r="F28" s="90"/>
+      <c r="B28" s="86"/>
+      <c r="C28" s="86"/>
+      <c r="D28" s="86"/>
+      <c r="E28" s="86"/>
+      <c r="F28" s="87"/>
     </row>
     <row r="29" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A29" s="39" t="s">
@@ -12641,22 +12641,22 @@
       <c r="F33" s="43"/>
     </row>
     <row r="34" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="111"/>
-      <c r="B34" s="112"/>
-      <c r="C34" s="112"/>
-      <c r="D34" s="112"/>
-      <c r="E34" s="112"/>
-      <c r="F34" s="113"/>
+      <c r="A34" s="113"/>
+      <c r="B34" s="114"/>
+      <c r="C34" s="114"/>
+      <c r="D34" s="114"/>
+      <c r="E34" s="114"/>
+      <c r="F34" s="115"/>
     </row>
     <row r="35" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="88" t="s">
+      <c r="A35" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="B35" s="89"/>
-      <c r="C35" s="89"/>
-      <c r="D35" s="89"/>
-      <c r="E35" s="89"/>
-      <c r="F35" s="90"/>
+      <c r="B35" s="86"/>
+      <c r="C35" s="86"/>
+      <c r="D35" s="86"/>
+      <c r="E35" s="86"/>
+      <c r="F35" s="87"/>
     </row>
     <row r="36" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A36" s="39" t="s">
@@ -12668,114 +12668,127 @@
       <c r="C36" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="D36" s="106" t="s">
+      <c r="D36" s="116" t="s">
         <v>65</v>
       </c>
-      <c r="E36" s="106"/>
-      <c r="F36" s="107"/>
+      <c r="E36" s="116"/>
+      <c r="F36" s="117"/>
     </row>
     <row r="37" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A37" s="39"/>
       <c r="B37" s="40"/>
       <c r="C37" s="40"/>
-      <c r="D37" s="109"/>
-      <c r="E37" s="109"/>
-      <c r="F37" s="110"/>
+      <c r="D37" s="118"/>
+      <c r="E37" s="118"/>
+      <c r="F37" s="119"/>
     </row>
     <row r="38" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A38" s="39"/>
       <c r="B38" s="40"/>
       <c r="C38" s="40"/>
-      <c r="D38" s="109"/>
-      <c r="E38" s="109"/>
-      <c r="F38" s="110"/>
+      <c r="D38" s="118"/>
+      <c r="E38" s="118"/>
+      <c r="F38" s="119"/>
     </row>
     <row r="39" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A39" s="39"/>
       <c r="B39" s="40"/>
       <c r="C39" s="40"/>
-      <c r="D39" s="109"/>
-      <c r="E39" s="109"/>
-      <c r="F39" s="110"/>
+      <c r="D39" s="118"/>
+      <c r="E39" s="118"/>
+      <c r="F39" s="119"/>
     </row>
     <row r="40" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A40" s="41"/>
       <c r="B40" s="42"/>
       <c r="C40" s="42"/>
-      <c r="D40" s="115"/>
-      <c r="E40" s="115"/>
-      <c r="F40" s="116"/>
+      <c r="D40" s="120"/>
+      <c r="E40" s="120"/>
+      <c r="F40" s="121"/>
     </row>
     <row r="41" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="117"/>
-      <c r="B41" s="118"/>
-      <c r="C41" s="118"/>
-      <c r="D41" s="118"/>
-      <c r="E41" s="118"/>
-      <c r="F41" s="119"/>
+      <c r="A41" s="110"/>
+      <c r="B41" s="111"/>
+      <c r="C41" s="111"/>
+      <c r="D41" s="111"/>
+      <c r="E41" s="111"/>
+      <c r="F41" s="112"/>
     </row>
     <row r="42" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="88" t="s">
+      <c r="A42" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="B42" s="89"/>
-      <c r="C42" s="89"/>
-      <c r="D42" s="89"/>
-      <c r="E42" s="89"/>
-      <c r="F42" s="90"/>
+      <c r="B42" s="86"/>
+      <c r="C42" s="86"/>
+      <c r="D42" s="86"/>
+      <c r="E42" s="86"/>
+      <c r="F42" s="87"/>
     </row>
     <row r="43" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="105"/>
-      <c r="B43" s="106"/>
-      <c r="C43" s="106"/>
-      <c r="D43" s="106"/>
-      <c r="E43" s="106"/>
-      <c r="F43" s="107"/>
+      <c r="A43" s="122"/>
+      <c r="B43" s="116"/>
+      <c r="C43" s="116"/>
+      <c r="D43" s="116"/>
+      <c r="E43" s="116"/>
+      <c r="F43" s="117"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="108"/>
-      <c r="B44" s="109"/>
-      <c r="C44" s="109"/>
-      <c r="D44" s="109"/>
-      <c r="E44" s="109"/>
-      <c r="F44" s="110"/>
+      <c r="A44" s="123"/>
+      <c r="B44" s="118"/>
+      <c r="C44" s="118"/>
+      <c r="D44" s="118"/>
+      <c r="E44" s="118"/>
+      <c r="F44" s="119"/>
     </row>
     <row r="45" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="111"/>
-      <c r="B45" s="112"/>
-      <c r="C45" s="112"/>
-      <c r="D45" s="112"/>
-      <c r="E45" s="112"/>
-      <c r="F45" s="113"/>
+      <c r="A45" s="113"/>
+      <c r="B45" s="114"/>
+      <c r="C45" s="114"/>
+      <c r="D45" s="114"/>
+      <c r="E45" s="114"/>
+      <c r="F45" s="115"/>
     </row>
     <row r="46" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="88" t="s">
+      <c r="A46" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="B46" s="89"/>
-      <c r="C46" s="89"/>
-      <c r="D46" s="89"/>
-      <c r="E46" s="89"/>
-      <c r="F46" s="90"/>
+      <c r="B46" s="86"/>
+      <c r="C46" s="86"/>
+      <c r="D46" s="86"/>
+      <c r="E46" s="86"/>
+      <c r="F46" s="87"/>
     </row>
     <row r="47" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="105"/>
-      <c r="B47" s="106"/>
-      <c r="C47" s="106"/>
-      <c r="D47" s="106"/>
-      <c r="E47" s="106"/>
-      <c r="F47" s="107"/>
+      <c r="A47" s="122"/>
+      <c r="B47" s="116"/>
+      <c r="C47" s="116"/>
+      <c r="D47" s="116"/>
+      <c r="E47" s="116"/>
+      <c r="F47" s="117"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="114"/>
-      <c r="B48" s="115"/>
-      <c r="C48" s="115"/>
-      <c r="D48" s="115"/>
-      <c r="E48" s="115"/>
-      <c r="F48" s="116"/>
+      <c r="A48" s="124"/>
+      <c r="B48" s="120"/>
+      <c r="C48" s="120"/>
+      <c r="D48" s="120"/>
+      <c r="E48" s="120"/>
+      <c r="F48" s="121"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A43:F44"/>
+    <mergeCell ref="A47:F48"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="A46:F46"/>
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A13:F13"/>
@@ -12792,19 +12805,6 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:F10"/>
     <mergeCell ref="A34:F34"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A43:F44"/>
-    <mergeCell ref="A47:F48"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="A46:F46"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Colocar percentagem_x000a_" sqref="B10:C10" xr:uid="{C44B2955-AB0E-5E4A-9201-AF72D21AA99A}"/>
@@ -12890,152 +12890,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="97" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="82"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="99"/>
     </row>
     <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="107" t="s">
         <v>215</v>
       </c>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="123"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="108"/>
     </row>
     <row r="3" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="78" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="98"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="79"/>
     </row>
     <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="97" t="s">
+      <c r="B4" s="78" t="s">
         <v>162</v>
       </c>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="98"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="79"/>
     </row>
     <row r="5" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="97" t="s">
+      <c r="B5" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="98"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="79"/>
     </row>
     <row r="6" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="97" t="s">
+      <c r="B6" s="78" t="s">
         <v>208</v>
       </c>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="98"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="79"/>
     </row>
     <row r="7" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="97" t="s">
+      <c r="B7" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="97"/>
-      <c r="D7" s="97"/>
-      <c r="E7" s="97"/>
-      <c r="F7" s="98"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="79"/>
     </row>
     <row r="8" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="B8" s="97" t="s">
+      <c r="B8" s="78" t="s">
         <v>163</v>
       </c>
-      <c r="C8" s="97"/>
-      <c r="D8" s="97"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="98"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="79"/>
     </row>
     <row r="9" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="B9" s="97"/>
-      <c r="C9" s="97"/>
-      <c r="D9" s="97"/>
-      <c r="E9" s="97"/>
-      <c r="F9" s="98"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="79"/>
     </row>
     <row r="10" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="124">
+      <c r="B10" s="109">
         <v>0.5</v>
       </c>
-      <c r="C10" s="97"/>
-      <c r="D10" s="97" t="s">
+      <c r="C10" s="78"/>
+      <c r="D10" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="97"/>
-      <c r="F10" s="98"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="79"/>
     </row>
     <row r="11" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="120" t="s">
+      <c r="B11" s="105" t="s">
         <v>164</v>
       </c>
-      <c r="C11" s="120"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="121"/>
+      <c r="C11" s="105"/>
+      <c r="D11" s="105"/>
+      <c r="E11" s="105"/>
+      <c r="F11" s="106"/>
     </row>
     <row r="12" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="111"/>
-      <c r="B12" s="112"/>
-      <c r="C12" s="112"/>
-      <c r="D12" s="112"/>
-      <c r="E12" s="112"/>
-      <c r="F12" s="113"/>
+      <c r="A12" s="113"/>
+      <c r="B12" s="114"/>
+      <c r="C12" s="114"/>
+      <c r="D12" s="114"/>
+      <c r="E12" s="114"/>
+      <c r="F12" s="115"/>
     </row>
     <row r="13" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="88" t="s">
+      <c r="A13" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="89"/>
-      <c r="C13" s="89"/>
-      <c r="D13" s="89"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="90"/>
+      <c r="B13" s="86"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="86"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="87"/>
     </row>
     <row r="14" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
@@ -13166,22 +13166,22 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="111"/>
-      <c r="B21" s="112"/>
-      <c r="C21" s="112"/>
-      <c r="D21" s="112"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="113"/>
+      <c r="A21" s="113"/>
+      <c r="B21" s="114"/>
+      <c r="C21" s="114"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="114"/>
+      <c r="F21" s="115"/>
     </row>
     <row r="22" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="88" t="s">
+      <c r="A22" s="85" t="s">
         <v>77</v>
       </c>
-      <c r="B22" s="89"/>
-      <c r="C22" s="89"/>
-      <c r="D22" s="89"/>
-      <c r="E22" s="89"/>
-      <c r="F22" s="90"/>
+      <c r="B22" s="86"/>
+      <c r="C22" s="86"/>
+      <c r="D22" s="86"/>
+      <c r="E22" s="86"/>
+      <c r="F22" s="87"/>
     </row>
     <row r="23" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="39" t="s">
@@ -13255,22 +13255,22 @@
       <c r="F27" s="43"/>
     </row>
     <row r="28" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="111"/>
-      <c r="B28" s="112"/>
-      <c r="C28" s="112"/>
-      <c r="D28" s="112"/>
-      <c r="E28" s="112"/>
-      <c r="F28" s="113"/>
+      <c r="A28" s="113"/>
+      <c r="B28" s="114"/>
+      <c r="C28" s="114"/>
+      <c r="D28" s="114"/>
+      <c r="E28" s="114"/>
+      <c r="F28" s="115"/>
     </row>
     <row r="29" spans="1:7" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="88" t="s">
+      <c r="A29" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="89"/>
-      <c r="C29" s="89"/>
-      <c r="D29" s="89"/>
-      <c r="E29" s="89"/>
-      <c r="F29" s="90"/>
+      <c r="B29" s="86"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="87"/>
     </row>
     <row r="30" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="39" t="s">
@@ -13282,119 +13282,126 @@
       <c r="C30" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="D30" s="106" t="s">
+      <c r="D30" s="116" t="s">
         <v>65</v>
       </c>
-      <c r="E30" s="106"/>
-      <c r="F30" s="107"/>
+      <c r="E30" s="116"/>
+      <c r="F30" s="117"/>
     </row>
     <row r="31" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A31" s="39"/>
       <c r="B31" s="40"/>
       <c r="C31" s="40"/>
-      <c r="D31" s="109"/>
-      <c r="E31" s="109"/>
-      <c r="F31" s="110"/>
+      <c r="D31" s="118"/>
+      <c r="E31" s="118"/>
+      <c r="F31" s="119"/>
     </row>
     <row r="32" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A32" s="39"/>
       <c r="B32" s="40"/>
       <c r="C32" s="40"/>
-      <c r="D32" s="109"/>
-      <c r="E32" s="109"/>
-      <c r="F32" s="110"/>
+      <c r="D32" s="118"/>
+      <c r="E32" s="118"/>
+      <c r="F32" s="119"/>
     </row>
     <row r="33" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A33" s="39"/>
       <c r="B33" s="40"/>
       <c r="C33" s="40"/>
-      <c r="D33" s="109"/>
-      <c r="E33" s="109"/>
-      <c r="F33" s="110"/>
+      <c r="D33" s="118"/>
+      <c r="E33" s="118"/>
+      <c r="F33" s="119"/>
     </row>
     <row r="34" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A34" s="41"/>
       <c r="B34" s="42"/>
       <c r="C34" s="42"/>
-      <c r="D34" s="115"/>
-      <c r="E34" s="115"/>
-      <c r="F34" s="116"/>
+      <c r="D34" s="120"/>
+      <c r="E34" s="120"/>
+      <c r="F34" s="121"/>
     </row>
     <row r="35" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="117"/>
-      <c r="B35" s="118"/>
-      <c r="C35" s="118"/>
-      <c r="D35" s="118"/>
-      <c r="E35" s="118"/>
-      <c r="F35" s="119"/>
+      <c r="A35" s="110"/>
+      <c r="B35" s="111"/>
+      <c r="C35" s="111"/>
+      <c r="D35" s="111"/>
+      <c r="E35" s="111"/>
+      <c r="F35" s="112"/>
     </row>
     <row r="36" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="88" t="s">
+      <c r="A36" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="B36" s="89"/>
-      <c r="C36" s="89"/>
-      <c r="D36" s="89"/>
-      <c r="E36" s="89"/>
-      <c r="F36" s="90"/>
+      <c r="B36" s="86"/>
+      <c r="C36" s="86"/>
+      <c r="D36" s="86"/>
+      <c r="E36" s="86"/>
+      <c r="F36" s="87"/>
     </row>
     <row r="37" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="105"/>
-      <c r="B37" s="106"/>
-      <c r="C37" s="106"/>
-      <c r="D37" s="106"/>
-      <c r="E37" s="106"/>
-      <c r="F37" s="107"/>
+      <c r="A37" s="122"/>
+      <c r="B37" s="116"/>
+      <c r="C37" s="116"/>
+      <c r="D37" s="116"/>
+      <c r="E37" s="116"/>
+      <c r="F37" s="117"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="108"/>
-      <c r="B38" s="109"/>
-      <c r="C38" s="109"/>
-      <c r="D38" s="109"/>
-      <c r="E38" s="109"/>
-      <c r="F38" s="110"/>
+      <c r="A38" s="123"/>
+      <c r="B38" s="118"/>
+      <c r="C38" s="118"/>
+      <c r="D38" s="118"/>
+      <c r="E38" s="118"/>
+      <c r="F38" s="119"/>
     </row>
     <row r="39" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="111"/>
-      <c r="B39" s="112"/>
-      <c r="C39" s="112"/>
-      <c r="D39" s="112"/>
-      <c r="E39" s="112"/>
-      <c r="F39" s="113"/>
+      <c r="A39" s="113"/>
+      <c r="B39" s="114"/>
+      <c r="C39" s="114"/>
+      <c r="D39" s="114"/>
+      <c r="E39" s="114"/>
+      <c r="F39" s="115"/>
     </row>
     <row r="40" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="88" t="s">
+      <c r="A40" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="B40" s="89"/>
-      <c r="C40" s="89"/>
-      <c r="D40" s="89"/>
-      <c r="E40" s="89"/>
-      <c r="F40" s="90"/>
+      <c r="B40" s="86"/>
+      <c r="C40" s="86"/>
+      <c r="D40" s="86"/>
+      <c r="E40" s="86"/>
+      <c r="F40" s="87"/>
     </row>
     <row r="41" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="105"/>
-      <c r="B41" s="106"/>
-      <c r="C41" s="106"/>
-      <c r="D41" s="106"/>
-      <c r="E41" s="106"/>
-      <c r="F41" s="107"/>
+      <c r="A41" s="122"/>
+      <c r="B41" s="116"/>
+      <c r="C41" s="116"/>
+      <c r="D41" s="116"/>
+      <c r="E41" s="116"/>
+      <c r="F41" s="117"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="114"/>
-      <c r="B42" s="115"/>
-      <c r="C42" s="115"/>
-      <c r="D42" s="115"/>
-      <c r="E42" s="115"/>
-      <c r="F42" s="116"/>
+      <c r="A42" s="124"/>
+      <c r="B42" s="120"/>
+      <c r="C42" s="120"/>
+      <c r="D42" s="120"/>
+      <c r="E42" s="120"/>
+      <c r="F42" s="121"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="A37:F38"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="A41:F42"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
     <mergeCell ref="A35:F35"/>
     <mergeCell ref="A12:F12"/>
     <mergeCell ref="A13:F13"/>
@@ -13407,18 +13414,11 @@
     <mergeCell ref="D32:F32"/>
     <mergeCell ref="D33:F33"/>
     <mergeCell ref="D34:F34"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="A37:F38"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="A41:F42"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Colocar percentagem_x000a_" sqref="B10:C10" xr:uid="{8EDB03EC-30FB-484C-ACBE-DF33B9366718}"/>
@@ -13486,12 +13486,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13633,15 +13630,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FCF46D4-6C3F-4211-BBB9-5DE005064C3C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30DE7E78-AB24-4BCB-A51F-77E5C10364A7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="6597237e-e321-437a-ab0e-fe3e3f709099"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -13665,17 +13673,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30DE7E78-AB24-4BCB-A51F-77E5C10364A7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FCF46D4-6C3F-4211-BBB9-5DE005064C3C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="6597237e-e321-437a-ab0e-fe3e3f709099"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>